--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E605A-D155-43E8-9D09-D4AF85B1F11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46B7A1-8BD8-43AC-A8FD-E18715990D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="690" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -677,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:J70"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,99 +978,6 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N15" s="7"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="3"/>
-    </row>
   </sheetData>
   <sortState ref="R3:R54">
     <sortCondition ref="R3:R54"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46B7A1-8BD8-43AC-A8FD-E18715990D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBFFBF9-61DF-4421-8931-4022E349AF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="690" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>idx= 1 WindUp, 2 Shoot, 4 Open, 7 Load</t>
   </si>
   <si>
-    <t>This is the FOOF Science Fiction Rubber Band Gun version 1.0. Press any button plus trigger to configure</t>
-  </si>
-  <si>
     <t>soundAfterInput</t>
   </si>
   <si>
@@ -231,16 +228,19 @@
     <t>m_EEPROM</t>
   </si>
   <si>
-    <t>mEFCT_SPCL|mEFCT_OPEN_BARREL</t>
-  </si>
-  <si>
-    <t>mEFCT_SPCL|mEFCT_LOCK_LOAD</t>
-  </si>
-  <si>
-    <t>mEFCT_SPCL|mEFCT_SHOOT</t>
-  </si>
-  <si>
     <t>mSPARKLE</t>
+  </si>
+  <si>
+    <t>mEFCT_SPCLFUNC|mEFCT_SHOOT</t>
+  </si>
+  <si>
+    <t>mEFCT_SPCLFUNC|mEFCT_OPEN_BARREL</t>
+  </si>
+  <si>
+    <t>mEFCT_SPCLFUNC|mEFCT_LOCK_LOAD</t>
+  </si>
+  <si>
+    <t>This is the FOOF Science Fiction Rubber Band Gun version 1.0.</t>
   </si>
 </sst>
 </file>
@@ -680,15 +680,16 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:J172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
@@ -707,19 +708,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -734,37 +735,37 @@
         <v>3</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -773,13 +774,13 @@
         <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -791,33 +792,33 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -826,36 +827,36 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
         <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -864,27 +865,27 @@
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -893,10 +894,10 @@
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -907,7 +908,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -918,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -929,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -940,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBFFBF9-61DF-4421-8931-4022E349AF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F1E84-71AF-414A-8D77-5DFFF27DB7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="690" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdo\PycharmProjects\makeStateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F1E84-71AF-414A-8D77-5DFFF27DB7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22C41E-6437-4F6B-96A0-D39F057255C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="3900" yWindow="990" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
-    <t>lights</t>
-  </si>
-  <si>
     <t>trigOnly</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>idx= 1 WindUp, 2 Shoot, 4 Open, 7 Load</t>
   </si>
   <si>
-    <t>soundAfterInput</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>This is the FOOF Science Fiction Rubber Band Gun version 1.0.</t>
+  </si>
+  <si>
+    <t>efctSound</t>
+  </si>
+  <si>
+    <t>efctLED</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,275 +705,275 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdo\PycharmProjects\makeStateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22C41E-6437-4F6B-96A0-D39F057255C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB69F6-B1BB-48D3-BF6B-01D4531897E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="990" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>trigOnly</t>
   </si>
@@ -222,9 +222,6 @@
     <t>m_EEPROM</t>
   </si>
   <si>
-    <t>mSPARKLE</t>
-  </si>
-  <si>
     <t>mEFCT_SPCLFUNC|mEFCT_SHOOT</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>efctLED</t>
+  </si>
+  <si>
+    <t>mEFCT_PWRON</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,6 +360,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -681,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +698,7 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
@@ -714,10 +718,10 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>40</v>
@@ -759,13 +763,16 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -809,10 +816,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -847,10 +854,10 @@
         <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -876,10 +883,10 @@
         <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdo\PycharmProjects\makeStateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB69F6-B1BB-48D3-BF6B-01D4531897E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C592B1-D42A-4D8F-8E5D-1B4AC266A6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="990" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>trigOnly</t>
   </si>
@@ -81,12 +81,6 @@
     <t>"trig05";""</t>
   </si>
   <si>
-    <t>"trig06";""</t>
-  </si>
-  <si>
-    <t>"trig07";"trigAll"</t>
-  </si>
-  <si>
     <t>"open";""</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>mTRIG|mB05</t>
   </si>
   <si>
-    <t>mTRIG|mB06</t>
-  </si>
-  <si>
-    <t>mTRIG|mB07</t>
-  </si>
-  <si>
     <t>mOPEN</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>mSPCL_CONTINUOUS</t>
   </si>
   <si>
-    <t>mSPCL_ONETIME | mSPCL_SHOOT</t>
-  </si>
-  <si>
     <t>mVAL_YBG</t>
   </si>
   <si>
@@ -204,12 +189,6 @@
     <t>mVAL_05</t>
   </si>
   <si>
-    <t>mVAL_06</t>
-  </si>
-  <si>
-    <t>mVAL_07</t>
-  </si>
-  <si>
     <t>mSTOR_VAL</t>
   </si>
   <si>
@@ -222,15 +201,6 @@
     <t>m_EEPROM</t>
   </si>
   <si>
-    <t>mEFCT_SPCLFUNC|mEFCT_SHOOT</t>
-  </si>
-  <si>
-    <t>mEFCT_SPCLFUNC|mEFCT_OPEN_BARREL</t>
-  </si>
-  <si>
-    <t>mEFCT_SPCLFUNC|mEFCT_LOCK_LOAD</t>
-  </si>
-  <si>
     <t>This is the FOOF Science Fiction Rubber Band Gun version 1.0.</t>
   </si>
   <si>
@@ -241,6 +211,33 @@
   </si>
   <si>
     <t>mEFCT_PWRON</t>
+  </si>
+  <si>
+    <t>mEFCT_OPEN_BARREL</t>
+  </si>
+  <si>
+    <t>mEFCT_LOCK_LOAD</t>
+  </si>
+  <si>
+    <t>mOPNBRL</t>
+  </si>
+  <si>
+    <t>mLOKLOD</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_WAITING</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONTINUOUS</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONTINUOUS|mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
+  </si>
+  <si>
+    <t>the door is ajar…</t>
+  </si>
+  <si>
+    <t>please fasten your seatbelts…</t>
   </si>
 </sst>
 </file>
@@ -346,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,7 +358,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -680,25 +683,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="4" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
@@ -712,19 +715,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -739,119 +742,138 @@
         <v>2</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>64</v>
@@ -859,136 +881,181 @@
       <c r="E5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="L5" t="s">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="L6" t="s">
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N15" s="7"/>
+      <c r="N13" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="R3:R54">
-    <sortCondition ref="R3:R54"/>
+  <sortState ref="R3:R52">
+    <sortCondition ref="R3:R52"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdo\PycharmProjects\makeStateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C592B1-D42A-4D8F-8E5D-1B4AC266A6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0CB0A-0982-432F-9729-0523F8FE8E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="990" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>trigOnly</t>
   </si>
@@ -225,19 +225,16 @@
     <t>mLOKLOD</t>
   </si>
   <si>
-    <t>mEFCT_UNIQ_WAITING</t>
-  </si>
-  <si>
-    <t>mSPCL_EFCT_CONTINUOUS</t>
-  </si>
-  <si>
-    <t>mSPCL_EFCT_CONTINUOUS|mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
-  </si>
-  <si>
     <t>the door is ajar…</t>
   </si>
   <si>
     <t>please fasten your seatbelts…</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONTINUOUS|mEFCT_UNIQ_WAITING</t>
   </si>
 </sst>
 </file>
@@ -687,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>66</v>
@@ -834,10 +831,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>0</v>
@@ -867,19 +864,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
@@ -900,19 +895,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>4</v>
@@ -959,7 +952,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -1008,7 +1001,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0CB0A-0982-432F-9729-0523F8FE8E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234B7B4-6FE4-4824-8353-A705EEDC1864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>trigOnly</t>
   </si>
@@ -147,12 +147,6 @@
     <t>inputsRange</t>
   </si>
   <si>
-    <t>mPOWERON</t>
-  </si>
-  <si>
-    <t>mMENU</t>
-  </si>
-  <si>
     <t>specials</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>mEFCT_LOCK_LOAD</t>
   </si>
   <si>
-    <t>mOPNBRL</t>
-  </si>
-  <si>
-    <t>mLOKLOD</t>
-  </si>
-  <si>
     <t>the door is ajar…</t>
   </si>
   <si>
@@ -235,6 +223,21 @@
   </si>
   <si>
     <t>mSPCL_EFCT_CONTINUOUS|mEFCT_UNIQ_WAITING</t>
+  </si>
+  <si>
+    <t>mROW_POWERON</t>
+  </si>
+  <si>
+    <t>mROW_MENU</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>mROW_OPNBRL</t>
+  </si>
+  <si>
+    <t>mROW_LOKLOD</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B6"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,16 +715,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>36</v>
@@ -755,29 +758,29 @@
         <v>7</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -786,13 +789,13 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -813,28 +816,28 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>0</v>
@@ -842,7 +845,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -852,29 +855,29 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
@@ -882,7 +885,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
@@ -892,20 +895,20 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>4</v>
@@ -913,7 +916,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J6" s="9"/>
       <c r="L6" t="s">
@@ -923,16 +926,18 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -947,29 +952,29 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -978,13 +983,15 @@
         <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1001,24 +1008,24 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234B7B4-6FE4-4824-8353-A705EEDC1864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634CB5ED-7638-4D8C-92ED-20DB2CBC470F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>trigOnly</t>
   </si>
@@ -238,6 +238,36 @@
   </si>
   <si>
     <t>mROW_LOKLOD</t>
+  </si>
+  <si>
+    <t>mROW_SHOOT</t>
+  </si>
+  <si>
+    <t>mROW_SHOOT_WINDUP</t>
+  </si>
+  <si>
+    <t>mEFCT_SHOOT</t>
+  </si>
+  <si>
+    <t>mEFCT_WIND_UP</t>
+  </si>
+  <si>
+    <t>mROW_SOLENOID</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_SOLENOID</t>
+  </si>
+  <si>
+    <t>… and the WINDUP</t>
+  </si>
+  <si>
+    <t>POW!!!</t>
+  </si>
+  <si>
+    <t>release solenoid</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SILENCE</t>
   </si>
 </sst>
 </file>
@@ -683,17 +713,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:J10"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -827,9 +857,6 @@
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" s="9" t="s">
         <v>65</v>
       </c>
@@ -844,8 +871,8 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>65</v>
+      <c r="I4" t="s">
+        <v>70</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -1043,6 +1070,21 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
       <c r="L12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1052,6 +1094,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
     </row>
   </sheetData>
   <sortState ref="R3:R52">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634CB5ED-7638-4D8C-92ED-20DB2CBC470F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58B3E4-3267-4B7D-89E4-E7D793BBCC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>trigOnly</t>
   </si>
@@ -243,9 +243,6 @@
     <t>mROW_SHOOT</t>
   </si>
   <si>
-    <t>mROW_SHOOT_WINDUP</t>
-  </si>
-  <si>
     <t>mEFCT_SHOOT</t>
   </si>
   <si>
@@ -267,7 +264,16 @@
     <t>release solenoid</t>
   </si>
   <si>
-    <t>mEFCT_UNIQ_SILENCE</t>
+    <t>mROW_SHOOT_SOUND</t>
+  </si>
+  <si>
+    <t>POW SOUND</t>
+  </si>
+  <si>
+    <t>mROW_WINDUP</t>
+  </si>
+  <si>
+    <t>mROW_WINDUP_SOUND</t>
   </si>
 </sst>
 </file>
@@ -713,24 +719,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
@@ -872,7 +878,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -1071,19 +1077,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>19</v>
@@ -1093,17 +1093,12 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -1112,35 +1107,72 @@
         <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="R3:R52">
-    <sortCondition ref="R3:R52"/>
+  <sortState ref="R3:R57">
+    <sortCondition ref="R3:R57"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58B3E4-3267-4B7D-89E4-E7D793BBCC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106DEA7-1A15-49DD-9F84-78BF5BCEB75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>trigOnly</t>
   </si>
@@ -213,6 +213,15 @@
     <t>mEFCT_LOCK_LOAD</t>
   </si>
   <si>
+    <t>mEFCT_UNIQ_WAITING</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONTINUOUS</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONTINUOUS|mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
+  </si>
+  <si>
     <t>the door is ajar…</t>
   </si>
   <si>
@@ -220,9 +229,6 @@
   </si>
   <si>
     <t>mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
-  </si>
-  <si>
-    <t>mSPCL_EFCT_CONTINUOUS|mEFCT_UNIQ_WAITING</t>
   </si>
   <si>
     <t>mROW_POWERON</t>
@@ -723,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21:E21"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +809,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -816,7 +822,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -861,16 +867,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>0</v>
@@ -878,7 +887,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -900,17 +909,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
@@ -918,7 +927,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
@@ -931,17 +940,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>4</v>
@@ -949,7 +958,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9"/>
       <c r="L6" t="s">
@@ -969,7 +978,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -990,11 +999,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>58</v>
@@ -1007,7 +1016,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -1023,7 +1032,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1041,11 +1050,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>59</v>
@@ -1058,7 +1067,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -1077,13 +1086,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>19</v>
@@ -1098,16 +1107,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1117,16 +1126,16 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1134,20 +1143,20 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1155,16 +1164,16 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106DEA7-1A15-49DD-9F84-78BF5BCEB75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395DFD43-ED65-413A-802F-9B66D43D4943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2025" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="4245" yWindow="1335" windowWidth="32745" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
+    <sheet name="RULES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>trigOnly</t>
   </si>
@@ -219,9 +220,6 @@
     <t>mSPCL_EFCT_CONTINUOUS</t>
   </si>
   <si>
-    <t>mSPCL_EFCT_CONTINUOUS|mSPCL_HANDLER | mSPCL_HANDLER_SHOOT</t>
-  </si>
-  <si>
     <t>the door is ajar…</t>
   </si>
   <si>
@@ -280,13 +278,19 @@
   </si>
   <si>
     <t>mROW_WINDUP_SOUND</t>
+  </si>
+  <si>
+    <t>MUST contain mROW_something or it will be ignored</t>
+  </si>
+  <si>
+    <t>if it is a list of input selections, make them all have the same name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +326,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +354,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,13 +395,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,10 +425,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -729,7 +750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +830,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -822,7 +843,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -867,13 +888,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>60</v>
@@ -887,7 +908,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -914,7 +935,9 @@
       <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
@@ -927,7 +950,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
@@ -945,7 +968,9 @@
       <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>60</v>
       </c>
@@ -958,7 +983,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="9"/>
       <c r="L6" t="s">
@@ -978,7 +1003,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -999,181 +1024,189 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>75</v>
+      </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" t="s">
-        <v>79</v>
+      <c r="C18" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
         <v>74</v>
       </c>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1187,4 +1220,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395DFD43-ED65-413A-802F-9B66D43D4943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB76E48-283D-453C-9DA4-64C4E6B6E291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="1335" windowWidth="32745" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>trigOnly</t>
   </si>
@@ -259,9 +259,6 @@
     <t>mSPCL_HANDLER | mSPCL_HANDLER_SOLENOID</t>
   </si>
   <si>
-    <t>… and the WINDUP</t>
-  </si>
-  <si>
     <t>POW!!!</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>POW SOUND</t>
   </si>
   <si>
-    <t>mROW_WINDUP</t>
-  </si>
-  <si>
     <t>mROW_WINDUP_SOUND</t>
   </si>
   <si>
@@ -284,6 +278,9 @@
   </si>
   <si>
     <t>if it is a list of input selections, make them all have the same name</t>
+  </si>
+  <si>
+    <t>and the windup</t>
   </si>
 </sst>
 </file>
@@ -746,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,8 +904,8 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" t="s">
-        <v>80</v>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
@@ -1024,13 +1021,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>19</v>
@@ -1045,38 +1048,57 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
+      <c r="A12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1096,18 +1118,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="L13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1115,26 +1126,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -1144,6 +1147,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="L15" t="s">
         <v>18</v>
@@ -1152,18 +1156,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>64</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,46 +1179,24 @@
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B20" s="10"/>
     </row>
   </sheetData>
   <sortState ref="R3:R57">
@@ -1238,12 +1224,12 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72351FAB-EF98-4700-9B01-0FFECB6F737A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70DBDA-9E94-4F9C-B781-6E68EEB1F516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1155" windowWidth="17460" windowHeight="19170" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1856">
   <si>
     <t>trigOnly</t>
   </si>
@@ -5441,6 +5441,183 @@
   </si>
   <si>
     <t>18177:DEBUG loop() - nowVinputRBG 0x40 loo</t>
+  </si>
+  <si>
+    <t>disable ACK and turn off loop command and shorten timeout</t>
+  </si>
+  <si>
+    <t>29:DEBUG loop() - nowVinputRBG 0x40 loopCount 0</t>
+  </si>
+  <si>
+    <t>32: RBG_startEffectSound ln 485 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>33: RBG_startEffectSound ln 519 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>891:DEBUG loop() - nowVinputRBG 0x40 loopCount 748</t>
+  </si>
+  <si>
+    <t>900: RBG_startRow ln 275 from row 0 to row 1 loopCount 749</t>
+  </si>
+  <si>
+    <t>903: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>904: RBG_startEffectSound ln 512 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>905:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>906: RBG_startEffectSound ln 519 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>907:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>936: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>938: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 750</t>
+  </si>
+  <si>
+    <t>940:DEBUG loop() - nowVinputRBG 0x240 loopCount 751</t>
+  </si>
+  <si>
+    <t>4645:DEBUG loop() - nowVinputRBG 0x40 loopCount 946</t>
+  </si>
+  <si>
+    <t>4664: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 946</t>
+  </si>
+  <si>
+    <t>4665: RBG_startEffectSound ln 512 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>4666:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>4667: RBG_startEffectSound ln 519 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4668:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>4689: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>4691: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 947</t>
+  </si>
+  <si>
+    <t>4693:DEBUG loop() - nowVinputRBG 0x240 loopCount 948</t>
+  </si>
+  <si>
+    <t>4712:DEBUG loop() - nowVinputRBG 0x40 loopCount 949</t>
+  </si>
+  <si>
+    <t>4731: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>4733: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 949</t>
+  </si>
+  <si>
+    <t>4735:DEBUG loop() - nowVinputRBG 0x240 loopCount 950</t>
+  </si>
+  <si>
+    <t>8421:DEBUG loop() - nowVinputRBG 0x40 loopCount 1144</t>
+  </si>
+  <si>
+    <t>8440: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 1144</t>
+  </si>
+  <si>
+    <t>8441: RBG_startEffectSound ln 512 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>8442:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>8443: RBG_startEffectSound ln 519 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>8444:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>8465: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>8467: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 1145</t>
+  </si>
+  <si>
+    <t>8469:DEBUG loop() - nowVinputRBG 0x240 loopCount 1146</t>
+  </si>
+  <si>
+    <t>8488:DEBUG loop() - nowVinputRBG 0x40 loopCount 1147</t>
+  </si>
+  <si>
+    <t>8507: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>8509: RBG_startEffectSound ln 485 EFCT num 0x66 final num 102 loopCount 1147</t>
+  </si>
+  <si>
+    <t>8511:DEBUG loop() - nowVinputRBG 0x240 loopCount 1148</t>
+  </si>
+  <si>
+    <t>11342:DEBUG loop() - nowVinputRBG 0x260 loopCount 1297</t>
+  </si>
+  <si>
+    <t>11359: RBG_startRow ln 275 from row 1 to row 4 loopCount 1298</t>
+  </si>
+  <si>
+    <t>11362: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>11364: RBG_startEffectSound ln 485 EFCT num 0x0 final num 1 loopCount 1298</t>
+  </si>
+  <si>
+    <t>11375:DEBUG loop() - nowVinputRBG 0x40 loopCount 1299</t>
+  </si>
+  <si>
+    <t>11384: RBG_startRow ln 275 from row 4 to row 7 loopCount 1300</t>
+  </si>
+  <si>
+    <t>11385: RBG_startEffectSound ln 470 wait msec 100 AUDIO_BUSY LOW</t>
+  </si>
+  <si>
+    <t>11394:DEBUG loop() - nowVinputRBG 0x240 loopCount 1301</t>
+  </si>
+  <si>
+    <t>14535:DEBUG loop() - nowVinputRBG 0x40 loopCount 4442</t>
+  </si>
+  <si>
+    <t>16769:DEBUG loop() - nowVinputRBG 0x60 loopCount 6676</t>
+  </si>
+  <si>
+    <t>16844:DEBUG loop() - nowVinputRBG 0x40 loopCount 6751</t>
+  </si>
+  <si>
+    <t>go from 0 to 1</t>
+  </si>
+  <si>
+    <t>go from 1 to 1</t>
+  </si>
+  <si>
+    <t>go from 1 to 4</t>
+  </si>
+  <si>
+    <t>go from 4 to 7</t>
+  </si>
+  <si>
+    <t>mVINP_LOCK|mVINP_SOUNDACTV</t>
+  </si>
+  <si>
+    <t>mVINP_LOCK|mVINP_SOUNDACTV|mVINP_TRIG</t>
+  </si>
+  <si>
+    <t>mVINP_LOCK|mVINP_TRIG</t>
+  </si>
+  <si>
+    <t>// special processing should happen in exactly one call, then we move on to .gotoWithoutInput</t>
   </si>
 </sst>
 </file>
@@ -6001,7 +6178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6471,10 +6648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6536,16 +6713,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6553,10 +6735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:H1572"/>
+  <dimension ref="A1:L1666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1510" workbookViewId="0">
-      <selection activeCell="B1567" sqref="B1566:B1567"/>
+    <sheetView topLeftCell="A1629" workbookViewId="0">
+      <selection activeCell="B1681" sqref="B1681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19050,11 +19232,920 @@
         <v>1796</v>
       </c>
     </row>
+    <row r="1575" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1576" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1576" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1578" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1579" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1580" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1581" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1582" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>29</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>32</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>33</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>67</v>
+      </c>
+      <c r="B1588" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>891</v>
+      </c>
+      <c r="B1589" s="25" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>900</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>903</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>904</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>905</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>906</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>907</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>936</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>938</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>940</v>
+      </c>
+      <c r="B1598" s="25" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>4645</v>
+      </c>
+      <c r="B1599" s="25" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>4664</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>4665</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>4666</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>4667</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>4668</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>4689</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>4691</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>4693</v>
+      </c>
+      <c r="B1607" s="4" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>4712</v>
+      </c>
+      <c r="B1608" s="4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>4731</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>4733</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>4735</v>
+      </c>
+      <c r="B1611" s="25" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>8421</v>
+      </c>
+      <c r="B1612" s="25" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>8440</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>8441</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>8442</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>8443</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>8444</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>8465</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>8467</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>8469</v>
+      </c>
+      <c r="B1620" s="4" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>8488</v>
+      </c>
+      <c r="B1621" s="4" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>8507</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>8509</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>8511</v>
+      </c>
+      <c r="B1624" s="25" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>11342</v>
+      </c>
+      <c r="B1625" s="25" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>11359</v>
+      </c>
+      <c r="B1626" s="16" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>11362</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>11364</v>
+      </c>
+      <c r="B1628" s="16" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>11375</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>11384</v>
+      </c>
+      <c r="B1630" s="16" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>11385</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>11394</v>
+      </c>
+      <c r="B1632" s="25" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>14535</v>
+      </c>
+      <c r="B1633" s="25" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>16769</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>16844</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1642" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1642" t="str">
+        <f>"mVINP_LOCK"&amp;IF(LEN(D1642)&gt;0,"|"&amp;D1642,"")&amp;IF(LEN(E1642)&gt;0,"|"&amp;E1642,"")</f>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1643" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1643" t="str">
+        <f t="shared" ref="F1643:F1666" si="8">"mVINP_LOCK"&amp;IF(LEN(D1643)&gt;0,"|"&amp;D1643,"")&amp;IF(LEN(E1643)&gt;0,"|"&amp;E1643,"")</f>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1644" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1644" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1645" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1645" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1645" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1646" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1646" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1647" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1647" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1648" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1648" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1648" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1649" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1649" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1650" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1650" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1651" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1651" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1651" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1652" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1652" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1653" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1653" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1654" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1654" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1654" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1655" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1655" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1656" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1656" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1657" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1657" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1657" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1658" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1658" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1659" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1659" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1660" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1660" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV|mVINP_TRIG</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>1853</v>
+      </c>
+      <c r="L1660" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1661" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1661" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1662" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1662" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1663" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1663" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_SOUNDACTV</v>
+      </c>
+      <c r="J1663" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1664" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1664" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J1664" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1664" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1665" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1665" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK|mVINP_TRIG</v>
+      </c>
+      <c r="J1665" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1666" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1666" t="str">
+        <f t="shared" si="8"/>
+        <v>mVINP_LOCK</v>
+      </c>
+      <c r="J1666" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A540:B846">
     <sortCondition ref="A540:A846"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70DBDA-9E94-4F9C-B781-6E68EEB1F516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79B7AC0-30A6-48D1-8904-504395D452E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="435" yWindow="1155" windowWidth="17460" windowHeight="19170" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="1953">
   <si>
     <t>trigOnly</t>
   </si>
@@ -5618,6 +5618,297 @@
   </si>
   <si>
     <t>// special processing should happen in exactly one call, then we move on to .gotoWithoutInput</t>
+  </si>
+  <si>
+    <t>disable ACK and turn off loop command and shorten timeout and change special proc</t>
+  </si>
+  <si>
+    <t>33: RBG_startEffectSound ln 484 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>34: RBG_startEffectSound ln 518 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>891:DEBUG loop() - nowVinputRBG 0x40 loopCount 747</t>
+  </si>
+  <si>
+    <t>900: RBG_startRow ln 275 from row 0 to row 1 loopCount 748</t>
+  </si>
+  <si>
+    <t>903: RBG_startEffectSound ln 484 EFCT num 0x66 final num 102 loopCount 748</t>
+  </si>
+  <si>
+    <t>904: RBG_startEffectSound ln 511 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>906: RBG_startEffectSound ln 518 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>935: RBG_startEffectSound ln 484 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>956: RBG_startEffectSound ln 484 EFCT num 0x66 final num 102 loopCount 750</t>
+  </si>
+  <si>
+    <t>958:DEBUG loop() - nowVinputRBG 0x240 loopCount 751</t>
+  </si>
+  <si>
+    <t>4663:DEBUG loop() - nowVinputRBG 0x40 loopCount 946</t>
+  </si>
+  <si>
+    <t>4682: RBG_startEffectSound ln 484 EFCT num 0x66 final num 102 loopCount 946</t>
+  </si>
+  <si>
+    <t>4683: RBG_startEffectSound ln 518 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4684:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>4705: RBG_startEffectSound ln 484 EFCT num 0x66 final num 102 loopCount 947</t>
+  </si>
+  <si>
+    <t>4707:DEBUG loop() - nowVinputRBG 0x240 loopCount 948</t>
+  </si>
+  <si>
+    <t>5334:DEBUG loop() - nowVinputRBG 0x260 loopCount 981</t>
+  </si>
+  <si>
+    <t>5351: RBG_startRow ln 275 from row 1 to row 4 loopCount 982</t>
+  </si>
+  <si>
+    <t>5354: RBG_startEffectSound ln 484 EFCT num 0x0 final num 1 loopCount 982</t>
+  </si>
+  <si>
+    <t>5366:DEBUG loop() - nowVinputRBG 0x60 loopCount 984</t>
+  </si>
+  <si>
+    <t>5375: RBG_startRow ln 275 from row 4 to row 7 loopCount 985</t>
+  </si>
+  <si>
+    <t>5383:DEBUG loop() - nowVinputRBG 0x260 loopCount 986</t>
+  </si>
+  <si>
+    <t>5384:DEBUG loop() - nowVinputRBG 0x240 loopCount 987</t>
+  </si>
+  <si>
+    <t>9234:DEBUG loop() - nowVinputRBG 0x40 loopCount 2912</t>
+  </si>
+  <si>
+    <t>12800:DEBUG loop() - nowVinputRBG 0x40</t>
+  </si>
+  <si>
+    <t>Still stuck at 7</t>
+  </si>
+  <si>
+    <t>more debugging and changes</t>
+  </si>
+  <si>
+    <t>32: RBG_startEffectSound ln 478 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>33: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>890:DEBUG loop() - nowVinputRBG 0x40 loopCount 747</t>
+  </si>
+  <si>
+    <t>899: RBG_startRow ln 276 from row 0 to row 1 loopCount 748</t>
+  </si>
+  <si>
+    <t>902: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 748</t>
+  </si>
+  <si>
+    <t>903: RBG_startEffectSound ln 505 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>904:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>905: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>934: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>936:DEBUG loop() - nowVinputRBG 0x240 loopCount 750</t>
+  </si>
+  <si>
+    <t>2304:DEBUG loop() - nowVinputRBG 0x260 loopCount 822</t>
+  </si>
+  <si>
+    <t>2321: RBG_startRow ln 276 from row 1 to row 4 loopCount 823</t>
+  </si>
+  <si>
+    <t>2324: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 823</t>
+  </si>
+  <si>
+    <t>2335:DEBUG loop() - nowVinputRBG 0x40 loopCount 824</t>
+  </si>
+  <si>
+    <t>2344: RBG_startRow ln 276 from row 4 to row 7 loopCount 825</t>
+  </si>
+  <si>
+    <t>2352:DEBUG loop() - nowVinputRBG 0x240 loopCount 826</t>
+  </si>
+  <si>
+    <t>2354: RBG_startRow ln 276 from row 7 to row 8 loopCount 827</t>
+  </si>
+  <si>
+    <t>2357: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 827</t>
+  </si>
+  <si>
+    <t>2364:DEBUG loop() - nowVinputRBG 0x40 loopCount 830</t>
+  </si>
+  <si>
+    <t>2366: RBG_startRow ln 276 from row 8 to row 9 loopCount 831</t>
+  </si>
+  <si>
+    <t>2370: RBG_startRow ln 276 from row 9 to row 1 loopCount 833</t>
+  </si>
+  <si>
+    <t>2373: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 833</t>
+  </si>
+  <si>
+    <t>2396: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 834</t>
+  </si>
+  <si>
+    <t>2398:DEBUG loop() - nowVinputRBG 0x240 loopCount 835</t>
+  </si>
+  <si>
+    <t>6103:DEBUG loop() - nowVinputRBG 0x40 loopCount 1030</t>
+  </si>
+  <si>
+    <t>6122: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1030</t>
+  </si>
+  <si>
+    <t>6123: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>6124:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>6145: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1031</t>
+  </si>
+  <si>
+    <t>6147:DEBUG loop() - nowVinputRBG 0x240 loopCount 1032</t>
+  </si>
+  <si>
+    <t>7040:DEBUG loop() - nowVinputRBG 0x260 loopCount 1079</t>
+  </si>
+  <si>
+    <t>7057: RBG_startRow ln 276 from row 1 to row 4 loopCount 1080</t>
+  </si>
+  <si>
+    <t>7060: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 1080</t>
+  </si>
+  <si>
+    <t>7068:DEBUG loop() - nowVinputRBG 0x60 loopCount 1084</t>
+  </si>
+  <si>
+    <t>7070: RBG_startRow ln 276 from row 4 to row 7 loopCount 1085</t>
+  </si>
+  <si>
+    <t>7073:DEBUG loop() - nowVinputRBG 0x240 loopCount 1087</t>
+  </si>
+  <si>
+    <t>7074: RBG_startRow ln 276 from row 7 to row 8 loopCount 1087</t>
+  </si>
+  <si>
+    <t>7077: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 1087</t>
+  </si>
+  <si>
+    <t>7078: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>7083:DEBUG loop() - nowVinputRBG 0x40 loopCount 1088</t>
+  </si>
+  <si>
+    <t>7085: RBG_startRow ln 276 from row 8 to row 9 loopCount 1089</t>
+  </si>
+  <si>
+    <t>7089: RBG_startRow ln 276 from row 9 to row 1 loopCount 1091</t>
+  </si>
+  <si>
+    <t>7092: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1091</t>
+  </si>
+  <si>
+    <t>7096:DEBUG loop() - nowVinputRBG 0x240 loopCount 1092</t>
+  </si>
+  <si>
+    <t>10782:DEBUG loop() - nowVinputRBG 0x40 loopCount 1286</t>
+  </si>
+  <si>
+    <t>10801: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1286</t>
+  </si>
+  <si>
+    <t>10802: RBG_startEffectSound ln 505 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>10803:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>10804: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>10805:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>10826: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1287</t>
+  </si>
+  <si>
+    <t>10828:DEBUG loop() - nowVinputRBG 0x240 loopCount 1288</t>
+  </si>
+  <si>
+    <t>10847:DEBUG loop() - nowVinputRBG 0x40 loopCount 1289</t>
+  </si>
+  <si>
+    <t>10866: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1289</t>
+  </si>
+  <si>
+    <t>10868:DEBUG loop() - nowVinputRBG 0x240 loopCount 1290</t>
+  </si>
+  <si>
+    <t>11438:DEBUG loop() - nowVinputRBG 0x260 loopCount 1320</t>
+  </si>
+  <si>
+    <t>11455: RBG_startRow ln 276 from row 1 to row 4 loopCount 1321</t>
+  </si>
+  <si>
+    <t>11458: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 1321</t>
+  </si>
+  <si>
+    <t>11466:DEBUG loop() - nowVinputRBG 0x60 loopCount 1325</t>
+  </si>
+  <si>
+    <t>11468: RBG_startRow ln 276 from row 4 to row 7 loopCount 1326</t>
+  </si>
+  <si>
+    <t>11471:DEBUG loop() - nowVinputRBG 0x240 loopCount 1328</t>
+  </si>
+  <si>
+    <t>11472: RBG_startRow ln 276 from row 7 to row 8 loopCount 1328</t>
+  </si>
+  <si>
+    <t>11475: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 1328</t>
+  </si>
+  <si>
+    <t>11484:DEBUG loop() - nowVinputRBG 0x40 loopCount 1333</t>
+  </si>
+  <si>
+    <t>11486: RBG_startRow ln 276 from row 8 to row 9 loopCount 1334</t>
+  </si>
+  <si>
+    <t>11490: RBG_startRow ln 276 from row 9 to row 1 loopCount 1336</t>
+  </si>
+  <si>
+    <t>11493: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1336</t>
+  </si>
+  <si>
+    <t>11497:DEBUG loop() - nowVinputRBG 0x240 loopCount 1337</t>
+  </si>
+  <si>
+    <t>maybe worked</t>
   </si>
 </sst>
 </file>
@@ -6650,7 +6941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6735,10 +7026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L1666"/>
+  <dimension ref="A1:L1789"/>
   <sheetViews>
-    <sheetView topLeftCell="A1629" workbookViewId="0">
-      <selection activeCell="B1681" sqref="B1681"/>
+    <sheetView tabSelected="1" topLeftCell="A1732" workbookViewId="0">
+      <selection activeCell="E1775" sqref="E1775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20138,6 +20429,961 @@
       </c>
       <c r="J1666" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1671" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1671" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1673" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1674" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1675" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1676" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1677" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>30</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>33</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>34</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>68</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>891</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>900</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>903</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>904</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>905</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>906</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>935</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>956</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>958</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>4663</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>4682</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>4683</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>4684</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>4705</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>4707</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>5334</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>5351</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>5354</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>5366</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>5375</v>
+      </c>
+      <c r="B1704" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>5383</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>5384</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>9234</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>12800</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1711" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1711" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1713" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1714" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1715" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1716" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1717" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>29</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>32</v>
+      </c>
+      <c r="B1721" s="16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>33</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1722" s="14"/>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>67</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>890</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>899</v>
+      </c>
+      <c r="B1725" s="12" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>902</v>
+      </c>
+      <c r="B1726" s="16" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>903</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1727" s="4"/>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>904</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>905</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1729" s="14"/>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>934</v>
+      </c>
+      <c r="B1730" s="16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1730" s="16"/>
+      <c r="D1730" s="16"/>
+      <c r="E1730" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F1730" s="16"/>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>936</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1731" s="12"/>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>2304</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>2321</v>
+      </c>
+      <c r="B1733" s="12" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>2324</v>
+      </c>
+      <c r="B1734" s="16" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1734" s="16"/>
+      <c r="D1734" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1734" s="16"/>
+      <c r="F1734" s="16"/>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>2335</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>2344</v>
+      </c>
+      <c r="B1736" s="12" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>2352</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>2354</v>
+      </c>
+      <c r="B1738" s="12" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>2357</v>
+      </c>
+      <c r="B1739" s="16" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1739" s="16"/>
+      <c r="D1739" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1739" s="16"/>
+      <c r="F1739" s="16"/>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>2364</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>2366</v>
+      </c>
+      <c r="B1741" s="12" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>2370</v>
+      </c>
+      <c r="B1742" s="12" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>2373</v>
+      </c>
+      <c r="B1743" s="16" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1743" s="16"/>
+      <c r="D1743" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1743" s="16"/>
+      <c r="F1743" s="16"/>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>2396</v>
+      </c>
+      <c r="B1744" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1744" s="16"/>
+      <c r="D1744" s="16"/>
+      <c r="E1744" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F1744" s="16"/>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>2398</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>6103</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>6122</v>
+      </c>
+      <c r="B1747" s="16" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1747" s="16"/>
+      <c r="D1747" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1747" s="16"/>
+      <c r="F1747" s="16"/>
+    </row>
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>6123</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1748" s="14"/>
+    </row>
+    <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>6124</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>6145</v>
+      </c>
+      <c r="B1750" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1750" s="16"/>
+      <c r="D1750" s="16"/>
+      <c r="E1750" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F1750" s="16"/>
+    </row>
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>6147</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>7040</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>7057</v>
+      </c>
+      <c r="B1753" s="12" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>7060</v>
+      </c>
+      <c r="B1754" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1754" s="16"/>
+      <c r="D1754" s="16"/>
+      <c r="E1754" s="16"/>
+      <c r="F1754" s="16" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>7068</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>7070</v>
+      </c>
+      <c r="B1756" s="12" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>7073</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>7074</v>
+      </c>
+      <c r="B1758" s="12" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>7077</v>
+      </c>
+      <c r="B1759" s="16" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1759" s="16"/>
+      <c r="D1759" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1759" s="16"/>
+      <c r="F1759" s="16"/>
+    </row>
+    <row r="1760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>7078</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1760" s="14"/>
+    </row>
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>7083</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>7085</v>
+      </c>
+      <c r="B1762" s="12" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>7089</v>
+      </c>
+      <c r="B1763" s="12" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>7092</v>
+      </c>
+      <c r="B1764" s="16" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1764" s="16"/>
+      <c r="D1764" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1764" s="16"/>
+      <c r="F1764" s="16"/>
+    </row>
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>7096</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>10782</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>10801</v>
+      </c>
+      <c r="B1767" s="16" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1767" s="16"/>
+      <c r="D1767" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1767" s="16"/>
+      <c r="F1767" s="16"/>
+    </row>
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>10802</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1768" s="4"/>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>10803</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>10804</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1770" s="14"/>
+    </row>
+    <row r="1771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>10805</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>10826</v>
+      </c>
+      <c r="B1772" s="16" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1772" s="16"/>
+      <c r="D1772" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1772" s="16"/>
+      <c r="F1772" s="16"/>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>10828</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>10847</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>10866</v>
+      </c>
+      <c r="B1775" s="16" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1775" s="16"/>
+      <c r="D1775" s="16"/>
+      <c r="E1775" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F1775" s="16"/>
+    </row>
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>10868</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>11438</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>11455</v>
+      </c>
+      <c r="B1778" s="12" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>11458</v>
+      </c>
+      <c r="B1779" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1779" s="16"/>
+      <c r="D1779" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1779" s="16"/>
+      <c r="F1779" s="16"/>
+    </row>
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>11466</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>11468</v>
+      </c>
+      <c r="B1781" s="12" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>11471</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>11472</v>
+      </c>
+      <c r="B1783" s="12" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>11475</v>
+      </c>
+      <c r="B1784" s="16" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1784" s="16"/>
+      <c r="D1784" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1784" s="16"/>
+      <c r="F1784" s="16"/>
+    </row>
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>11484</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>11486</v>
+      </c>
+      <c r="B1786" s="12" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>11490</v>
+      </c>
+      <c r="B1787" s="12" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>11493</v>
+      </c>
+      <c r="B1788" s="16" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>11497</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>1951</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79B7AC0-30A6-48D1-8904-504395D452E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB847AB3-619A-47D1-B468-65B52533A1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1155" windowWidth="17460" windowHeight="19170" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="435" yWindow="1155" windowWidth="17460" windowHeight="19170" activeTab="4" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ThingsToTry" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2172:$B$2245</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2344">
   <si>
     <t>trigOnly</t>
   </si>
@@ -1889,6 +1890,9 @@
   </si>
   <si>
     <t>Repeat play</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>Parameters (16 bit)</t>
@@ -2818,9 +2822,6 @@
     <t>don't see ACK when it doesn't work</t>
   </si>
   <si>
-    <t>re-init DFPlayer after each play</t>
-  </si>
-  <si>
     <t>don't do volume before playing</t>
   </si>
   <si>
@@ -5909,6 +5910,1179 @@
   </si>
   <si>
     <t>maybe worked</t>
+  </si>
+  <si>
+    <t>36:DEBUG loop() - nowVinputRBG 0x40 loopCount 0</t>
+  </si>
+  <si>
+    <t>74:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>898:DEBUG loop() - nowVinputRBG 0x40 loopCount 748</t>
+  </si>
+  <si>
+    <t>907: RBG_startRow ln 276 from row 0 to row 1 loopCount 749</t>
+  </si>
+  <si>
+    <t>39: RBG_startEffectSound ln 480 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>40: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>910: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>911: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>913: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>943: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 750</t>
+  </si>
+  <si>
+    <t>944: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>965: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 751</t>
+  </si>
+  <si>
+    <t>966: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>987: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 752</t>
+  </si>
+  <si>
+    <t>988: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1009: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 753</t>
+  </si>
+  <si>
+    <t>1010: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1031: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 754</t>
+  </si>
+  <si>
+    <t>1032: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1053: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 755</t>
+  </si>
+  <si>
+    <t>1054: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1075: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 756</t>
+  </si>
+  <si>
+    <t>1076: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1097: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 757</t>
+  </si>
+  <si>
+    <t>1098: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1119: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 758</t>
+  </si>
+  <si>
+    <t>1120: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1141: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 759</t>
+  </si>
+  <si>
+    <t>1142: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1163: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 760</t>
+  </si>
+  <si>
+    <t>1164: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1185: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 761</t>
+  </si>
+  <si>
+    <t>1186: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1207: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 762</t>
+  </si>
+  <si>
+    <t>1208: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1229: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 763</t>
+  </si>
+  <si>
+    <t>1230: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1251: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 764</t>
+  </si>
+  <si>
+    <t>1252: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1273: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 765</t>
+  </si>
+  <si>
+    <t>1274: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1295: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 766</t>
+  </si>
+  <si>
+    <t>1296: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1317: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 767</t>
+  </si>
+  <si>
+    <t>1318: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1339: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 768</t>
+  </si>
+  <si>
+    <t>1340: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1361: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 769</t>
+  </si>
+  <si>
+    <t>1362: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1383: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 770</t>
+  </si>
+  <si>
+    <t>1384: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1405: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 771</t>
+  </si>
+  <si>
+    <t>1406: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1427: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 772</t>
+  </si>
+  <si>
+    <t>1428: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1449: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 773</t>
+  </si>
+  <si>
+    <t>1450: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1471: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 774</t>
+  </si>
+  <si>
+    <t>1472: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1493: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 775</t>
+  </si>
+  <si>
+    <t>1494: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1515: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 776</t>
+  </si>
+  <si>
+    <t>1516: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1537: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 777</t>
+  </si>
+  <si>
+    <t>1538: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1559: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 778</t>
+  </si>
+  <si>
+    <t>1560: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1581: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 779</t>
+  </si>
+  <si>
+    <t>1582: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1603: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 780</t>
+  </si>
+  <si>
+    <t>1604: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1625: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 781</t>
+  </si>
+  <si>
+    <t>1626: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1647: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 782</t>
+  </si>
+  <si>
+    <t>1648: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1669: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 783</t>
+  </si>
+  <si>
+    <t>1670: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1691: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 784</t>
+  </si>
+  <si>
+    <t>1692: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1713: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 785</t>
+  </si>
+  <si>
+    <t>1714: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1735: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 786</t>
+  </si>
+  <si>
+    <t>1736: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1757: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 787</t>
+  </si>
+  <si>
+    <t>1758: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1779: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 788</t>
+  </si>
+  <si>
+    <t>1780: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1801: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 789</t>
+  </si>
+  <si>
+    <t>1802: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1823: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 790</t>
+  </si>
+  <si>
+    <t>1824: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1845: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 791</t>
+  </si>
+  <si>
+    <t>1846: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1867: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 792</t>
+  </si>
+  <si>
+    <t>1868: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1889: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 793</t>
+  </si>
+  <si>
+    <t>1890: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1911: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 794</t>
+  </si>
+  <si>
+    <t>1912: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1933: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 795</t>
+  </si>
+  <si>
+    <t>1934: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1955: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 796</t>
+  </si>
+  <si>
+    <t>1956: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1977: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 797</t>
+  </si>
+  <si>
+    <t>1978: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1999: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 798</t>
+  </si>
+  <si>
+    <t>2000: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2021: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 799</t>
+  </si>
+  <si>
+    <t>2022: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2043: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 800</t>
+  </si>
+  <si>
+    <t>2044: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2065: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 801</t>
+  </si>
+  <si>
+    <t>2066: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2087: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 802</t>
+  </si>
+  <si>
+    <t>2088: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2109: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 803</t>
+  </si>
+  <si>
+    <t>2110: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2131: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 804</t>
+  </si>
+  <si>
+    <t>2132: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2153: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 805</t>
+  </si>
+  <si>
+    <t>2154: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2175: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 806</t>
+  </si>
+  <si>
+    <t>2176: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2197: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 807</t>
+  </si>
+  <si>
+    <t>2198: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2219: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 808</t>
+  </si>
+  <si>
+    <t>2220: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2241: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 809</t>
+  </si>
+  <si>
+    <t>2242: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2263: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 810</t>
+  </si>
+  <si>
+    <t>2264: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2285: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 811</t>
+  </si>
+  <si>
+    <t>2286: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2307: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 812</t>
+  </si>
+  <si>
+    <t>2308: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2329: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 813</t>
+  </si>
+  <si>
+    <t>2330: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2351: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 814</t>
+  </si>
+  <si>
+    <t>2352: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2373: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 815</t>
+  </si>
+  <si>
+    <t>2374: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2395: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 816</t>
+  </si>
+  <si>
+    <t>2396: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>912:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>914:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>fails every time</t>
+  </si>
+  <si>
+    <t>send STOP command before starting play with 20 ms delay</t>
+  </si>
+  <si>
+    <t>call Dfsetup(… false, false) before playing</t>
+  </si>
+  <si>
+    <t>35: RBG_startEffectSound ln 480 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>36: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>70:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>894:DEBUG loop() - nowVinputRBG 0x40 loopCount 748</t>
+  </si>
+  <si>
+    <t>903: RBG_startRow ln 276 from row 0 to row 1 loopCount 749</t>
+  </si>
+  <si>
+    <t>908: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>909: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>910:Number:48 Play Finished!</t>
+  </si>
+  <si>
+    <t>911: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>967: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 751</t>
+  </si>
+  <si>
+    <t>968: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>991: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 752</t>
+  </si>
+  <si>
+    <t>992: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1015: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 753</t>
+  </si>
+  <si>
+    <t>1016: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1039: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 754</t>
+  </si>
+  <si>
+    <t>1040: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1063: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 755</t>
+  </si>
+  <si>
+    <t>1064: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1087: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 756</t>
+  </si>
+  <si>
+    <t>1088: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1111: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 757</t>
+  </si>
+  <si>
+    <t>1112: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1135: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 758</t>
+  </si>
+  <si>
+    <t>1136: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1159: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 759</t>
+  </si>
+  <si>
+    <t>1160: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1183: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 760</t>
+  </si>
+  <si>
+    <t>1184: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1207: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 761</t>
+  </si>
+  <si>
+    <t>1231: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 762</t>
+  </si>
+  <si>
+    <t>1232: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1255: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 763</t>
+  </si>
+  <si>
+    <t>1256: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1279: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 764</t>
+  </si>
+  <si>
+    <t>1280: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1303: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 765</t>
+  </si>
+  <si>
+    <t>1304: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1327: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 766</t>
+  </si>
+  <si>
+    <t>1328: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1351: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 767</t>
+  </si>
+  <si>
+    <t>1352: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1375: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 768</t>
+  </si>
+  <si>
+    <t>1376: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1399: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 769</t>
+  </si>
+  <si>
+    <t>1400: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1423: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 770</t>
+  </si>
+  <si>
+    <t>1424: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1447: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 771</t>
+  </si>
+  <si>
+    <t>1448: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1471: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 772</t>
+  </si>
+  <si>
+    <t>1495: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 773</t>
+  </si>
+  <si>
+    <t>1496: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1519: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 774</t>
+  </si>
+  <si>
+    <t>1520: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1543: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 775</t>
+  </si>
+  <si>
+    <t>1544: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1567: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 776</t>
+  </si>
+  <si>
+    <t>1568: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1591: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 777</t>
+  </si>
+  <si>
+    <t>1592: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1615: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 778</t>
+  </si>
+  <si>
+    <t>1616: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1639: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 779</t>
+  </si>
+  <si>
+    <t>1640: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1663: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 780</t>
+  </si>
+  <si>
+    <t>1664: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1687: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 781</t>
+  </si>
+  <si>
+    <t>1688: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1711: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 782</t>
+  </si>
+  <si>
+    <t>1712: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1735: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 783</t>
+  </si>
+  <si>
+    <t>1759: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 784</t>
+  </si>
+  <si>
+    <t>1760: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1762:DEBUG loop() - nowVinputRBG 0x60 loopCount 785</t>
+  </si>
+  <si>
+    <t>1778:DEBUG loop() - nowVinputRBG 0x260 loopCount 786</t>
+  </si>
+  <si>
+    <t>1779: RBG_startRow ln 276 from row 1 to row 4 loopCount 786</t>
+  </si>
+  <si>
+    <t>1784: RBG_startEffectSound ln 480 EFCT num 0x0 final num 1 loopCount 786</t>
+  </si>
+  <si>
+    <t>1785: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1796:DEBUG loop() - nowVinputRBG 0x40 loopCount 787</t>
+  </si>
+  <si>
+    <t>1804:DEBUG loop() - nowVinputRBG 0x240 loopCount 788</t>
+  </si>
+  <si>
+    <t>1805: RBG_startRow ln 276 from row 4 to row 7 loopCount 788</t>
+  </si>
+  <si>
+    <t>1815: RBG_startRow ln 276 from row 7 to row 8 loopCount 790</t>
+  </si>
+  <si>
+    <t>1820: RBG_startEffectSound ln 480 EFCT num 0xA final num 11 loopCount 790</t>
+  </si>
+  <si>
+    <t>1821: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1826:DEBUG loop() - nowVinputRBG 0x40 loopCount 791</t>
+  </si>
+  <si>
+    <t>1828: RBG_startRow ln 276 from row 8 to row 9 loopCount 792</t>
+  </si>
+  <si>
+    <t>1832: RBG_startRow ln 276 from row 9 to row 1 loopCount 794</t>
+  </si>
+  <si>
+    <t>1837: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 794</t>
+  </si>
+  <si>
+    <t>1838: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1863: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 795</t>
+  </si>
+  <si>
+    <t>1864: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1887: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 796</t>
+  </si>
+  <si>
+    <t>1888: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1911: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 797</t>
+  </si>
+  <si>
+    <t>1935: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 798</t>
+  </si>
+  <si>
+    <t>1936: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1959: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 799</t>
+  </si>
+  <si>
+    <t>1960: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1983: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 800</t>
+  </si>
+  <si>
+    <t>1984: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2007: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 801</t>
+  </si>
+  <si>
+    <t>2008: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2031: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 802</t>
+  </si>
+  <si>
+    <t>2032: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2055: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 803</t>
+  </si>
+  <si>
+    <t>2056: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2079: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 804</t>
+  </si>
+  <si>
+    <t>2080: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2103: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 805</t>
+  </si>
+  <si>
+    <t>2104: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2127: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 806</t>
+  </si>
+  <si>
+    <t>2128: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2151: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 807</t>
+  </si>
+  <si>
+    <t>2152: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2175: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 808</t>
+  </si>
+  <si>
+    <t>2199: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 809</t>
+  </si>
+  <si>
+    <t>2200: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2223: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 810</t>
+  </si>
+  <si>
+    <t>2224: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2247: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 811</t>
+  </si>
+  <si>
+    <t>2248: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2271: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 812</t>
+  </si>
+  <si>
+    <t>2272: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2295: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 813</t>
+  </si>
+  <si>
+    <t>2296: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2319: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 814</t>
+  </si>
+  <si>
+    <t>2320: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>make just one call; the call to call Dfsetup(… false, true)</t>
+  </si>
+  <si>
+    <t>fails most times</t>
+  </si>
+  <si>
+    <t>900: RBG_startRow ln 276 from row 0 to row 1 loopCount 749</t>
+  </si>
+  <si>
+    <t>903: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 749</t>
+  </si>
+  <si>
+    <t>904: RBG_startEffectSound ln 505 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>906: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>935: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 750</t>
+  </si>
+  <si>
+    <t>937:DEBUG loop() - nowVinputRBG 0x240 loopCount 751</t>
+  </si>
+  <si>
+    <t>4642:DEBUG loop() - nowVinputRBG 0x40 loopCount 946</t>
+  </si>
+  <si>
+    <t>4661: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 946</t>
+  </si>
+  <si>
+    <t>4662: RBG_startEffectSound ln 512 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4663:Number:51 Play Finished!</t>
+  </si>
+  <si>
+    <t>4684: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 947</t>
+  </si>
+  <si>
+    <t>4686:DEBUG loop() - nowVinputRBG 0x240 loopCount 948</t>
+  </si>
+  <si>
+    <t>7061:DEBUG loop() - nowVinputRBG 0x260 loopCount 1073</t>
+  </si>
+  <si>
+    <t>7078: RBG_startRow ln 276 from row 1 to row 4 loopCount 1074</t>
+  </si>
+  <si>
+    <t>7081: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 1074</t>
+  </si>
+  <si>
+    <t>7092:DEBUG loop() - nowVinputRBG 0x240 loopCount 1075</t>
+  </si>
+  <si>
+    <t>7093:DEBUG loop() - nowVinputRBG 0x40 loopCount 1076</t>
+  </si>
+  <si>
+    <t>7102: RBG_startRow ln 276 from row 4 to row 7 loopCount 1077</t>
+  </si>
+  <si>
+    <t>7110:DEBUG loop() - nowVinputRBG 0x240 loopCount 1078</t>
+  </si>
+  <si>
+    <t>7112: RBG_startRow ln 276 from row 7 to row 8 loopCount 1079</t>
+  </si>
+  <si>
+    <t>7115: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 1079</t>
+  </si>
+  <si>
+    <t>7120:DEBUG loop() - nowVinputRBG 0x40 loopCount 1080</t>
+  </si>
+  <si>
+    <t>7122: RBG_startRow ln 276 from row 8 to row 9 loopCount 1081</t>
+  </si>
+  <si>
+    <t>7126: RBG_startRow ln 276 from row 9 to row 1 loopCount 1083</t>
+  </si>
+  <si>
+    <t>7129: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1083</t>
+  </si>
+  <si>
+    <t>7133:DEBUG loop() - nowVinputRBG 0x240 loopCount 1084</t>
+  </si>
+  <si>
+    <t>8121:DEBUG loop() - nowVinputRBG 0x260 loopCount 1136</t>
+  </si>
+  <si>
+    <t>8138: RBG_startRow ln 276 from row 1 to row 4 loopCount 1137</t>
+  </si>
+  <si>
+    <t>8141: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 1137</t>
+  </si>
+  <si>
+    <t>8146:DEBUG loop() - nowVinputRBG 0x240 loopCount 1138</t>
+  </si>
+  <si>
+    <t>8149:DEBUG loop() - nowVinputRBG 0x40 loopCount 1141</t>
+  </si>
+  <si>
+    <t>8151: RBG_startRow ln 276 from row 4 to row 7 loopCount 1142</t>
+  </si>
+  <si>
+    <t>8154:DEBUG loop() - nowVinputRBG 0x240 loopCount 1144</t>
+  </si>
+  <si>
+    <t>8155: RBG_startRow ln 276 from row 7 to row 8 loopCount 1144</t>
+  </si>
+  <si>
+    <t>8158: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 1144</t>
+  </si>
+  <si>
+    <t>8163:DEBUG loop() - nowVinputRBG 0x40 loopCount 1145</t>
+  </si>
+  <si>
+    <t>8165: RBG_startRow ln 276 from row 8 to row 9 loopCount 1146</t>
+  </si>
+  <si>
+    <t>8169: RBG_startRow ln 276 from row 9 to row 1 loopCount 1148</t>
+  </si>
+  <si>
+    <t>8172: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1148</t>
+  </si>
+  <si>
+    <t>8176:DEBUG loop() - nowVinputRBG 0x240 loopCount 1149</t>
+  </si>
+  <si>
+    <t>8195:DEBUG loop() - nowVinputRBG 0x40 loopCount 1150</t>
+  </si>
+  <si>
+    <t>8214: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1150</t>
+  </si>
+  <si>
+    <t>8216:DEBUG loop() - nowVinputRBG 0x240 loopCount 1151</t>
+  </si>
+  <si>
+    <t>8235:DEBUG loop() - nowVinputRBG 0x40 loopCount 1152</t>
+  </si>
+  <si>
+    <t>8254: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1152</t>
+  </si>
+  <si>
+    <t>8256:DEBUG loop() - nowVinputRBG 0x240 loopCount 1153</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>most fail</t>
+  </si>
+  <si>
+    <t>call Dfsetup(… false, true) before playing</t>
+  </si>
+  <si>
+    <t>944: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>946: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>970: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 751</t>
+  </si>
+  <si>
+    <t>971: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>973: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>997: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 752</t>
+  </si>
+  <si>
+    <t>998: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1000: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1024: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 753</t>
+  </si>
+  <si>
+    <t>1025: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1027: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1051: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 754</t>
+  </si>
+  <si>
+    <t>1052: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1078: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 755</t>
+  </si>
+  <si>
+    <t>1079: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1081: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1105: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 756</t>
+  </si>
+  <si>
+    <t>1106: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1108: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1132: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 757</t>
+  </si>
+  <si>
+    <t>1133: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1135: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1159: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 758</t>
+  </si>
+  <si>
+    <t>1160: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1162: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1186: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 759</t>
+  </si>
+  <si>
+    <t>1187: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1189: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1213: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 760</t>
+  </si>
+  <si>
+    <t>1214: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1216: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1240: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 761</t>
+  </si>
+  <si>
+    <t>1241: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1243: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1267: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 762</t>
+  </si>
+  <si>
+    <t>1268: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1270: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1294: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 763</t>
+  </si>
+  <si>
+    <t>1295: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1297: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1321: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 764</t>
+  </si>
+  <si>
+    <t>1322: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1324: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1348: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 765</t>
+  </si>
+  <si>
+    <t>1349: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1351: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1375: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 766</t>
+  </si>
+  <si>
+    <t>1376: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1378: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1402: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 767</t>
+  </si>
+  <si>
+    <t>1403: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1405: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1429: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 768</t>
+  </si>
+  <si>
+    <t>1430: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1432: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1456: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 769</t>
+  </si>
+  <si>
+    <t>1457: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1459: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1483: RBG_startEffectSound ln 480 EFCT num 0x66 final num 102 loopCount 770</t>
+  </si>
+  <si>
+    <t>1484: RBG_startEffectSound ln 507 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>1486: RBG_startEffectSound ln 514 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>after first one, no more sounds, delay means misses button presses</t>
+  </si>
+  <si>
+    <t>50 msec delay after play; if not playing, try again</t>
   </si>
 </sst>
 </file>
@@ -7026,10 +8200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L1789"/>
+  <dimension ref="A1:L2245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1732" workbookViewId="0">
-      <selection activeCell="E1775" sqref="E1775"/>
+    <sheetView topLeftCell="A2162" workbookViewId="0">
+      <selection activeCell="B2176" sqref="B2176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9803,7 +10977,7 @@
         <v>0x41</v>
       </c>
       <c r="F358" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -9834,7 +11008,7 @@
         <v>0x41</v>
       </c>
       <c r="F360" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -9889,7 +11063,7 @@
         <v>0x41</v>
       </c>
       <c r="F365" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -9920,7 +11094,7 @@
         <v>0x41</v>
       </c>
       <c r="F367" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9991,7 +11165,7 @@
         <v>0x3D</v>
       </c>
       <c r="F374" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -10030,7 +11204,7 @@
         <v>0x3D</v>
       </c>
       <c r="F378" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -10077,7 +11251,7 @@
         <v>0x41</v>
       </c>
       <c r="F383" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,7 +11282,7 @@
         <v>0x3D</v>
       </c>
       <c r="F385" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -10147,7 +11321,7 @@
         <v>0x3D</v>
       </c>
       <c r="F389" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -10178,7 +11352,7 @@
         <v>0x41</v>
       </c>
       <c r="F392" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -10209,7 +11383,7 @@
         <v>0x41</v>
       </c>
       <c r="F394" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -11363,7 +12537,7 @@
         <v>0x41</v>
       </c>
       <c r="F548" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -11394,7 +12568,7 @@
         <v>0x41</v>
       </c>
       <c r="F550" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -11465,7 +12639,7 @@
         <v>0x3D</v>
       </c>
       <c r="F557" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -11504,7 +12678,7 @@
         <v>0x3D</v>
       </c>
       <c r="F561" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -11551,7 +12725,7 @@
         <v>0x41</v>
       </c>
       <c r="F566" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -11582,7 +12756,7 @@
         <v>0x3D</v>
       </c>
       <c r="F568" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -13902,7 +15076,7 @@
         <v>0x41</v>
       </c>
       <c r="F863" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
@@ -13933,7 +15107,7 @@
         <v>0x41</v>
       </c>
       <c r="F865" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
@@ -14084,7 +15258,7 @@
         <v>0x41</v>
       </c>
       <c r="F881" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -14187,7 +15361,7 @@
         <v>0x41</v>
       </c>
       <c r="F891" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -14218,7 +15392,7 @@
         <v>0x41</v>
       </c>
       <c r="F893" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -14345,7 +15519,7 @@
         <v>0x41</v>
       </c>
       <c r="F906" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -14376,7 +15550,7 @@
         <v>0x41</v>
       </c>
       <c r="F908" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
@@ -14466,7 +15640,7 @@
         <v>0x41</v>
       </c>
       <c r="F926" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -14489,7 +15663,7 @@
         <v>0x41</v>
       </c>
       <c r="F928" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
@@ -14641,7 +15815,7 @@
         <v>0x41</v>
       </c>
       <c r="F944" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.25">
@@ -14745,7 +15919,7 @@
         <v>0x41</v>
       </c>
       <c r="F954" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
@@ -14768,7 +15942,7 @@
         <v>0x41</v>
       </c>
       <c r="F956" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.25">
@@ -14902,7 +16076,7 @@
         <v>0x41</v>
       </c>
       <c r="F969" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.25">
@@ -14925,7 +16099,7 @@
         <v>0x41</v>
       </c>
       <c r="F971" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.25">
@@ -15059,7 +16233,7 @@
         <v>0x41</v>
       </c>
       <c r="F984" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
@@ -15082,7 +16256,7 @@
         <v>0x41</v>
       </c>
       <c r="F986" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
@@ -15213,7 +16387,7 @@
         <v>0x41</v>
       </c>
       <c r="F999" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
@@ -15236,7 +16410,7 @@
         <v>0x41</v>
       </c>
       <c r="F1001" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
@@ -16016,7 +17190,7 @@
     <row r="1102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1103" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1103" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1104" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -21386,9 +22560,3435 @@
         <v>1951</v>
       </c>
     </row>
+    <row r="1792" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1793" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1793" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1795" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1796" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1797" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1798" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1799" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>36</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>39</v>
+      </c>
+      <c r="B1803" s="16" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>40</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>74</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>898</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>907</v>
+      </c>
+      <c r="B1807" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>910</v>
+      </c>
+      <c r="B1808" s="16" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>911</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>912</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>913</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>914</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>943</v>
+      </c>
+      <c r="B1813" s="16" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>944</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>965</v>
+      </c>
+      <c r="B1815" s="16" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>966</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>987</v>
+      </c>
+      <c r="B1817" s="16" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>988</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>1009</v>
+      </c>
+      <c r="B1819" s="16" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>1010</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>1031</v>
+      </c>
+      <c r="B1821" s="16" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>1032</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>1053</v>
+      </c>
+      <c r="B1823" s="16" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>1054</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>1075</v>
+      </c>
+      <c r="B1825" s="16" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>1076</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>1097</v>
+      </c>
+      <c r="B1827" s="16" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>1098</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>1119</v>
+      </c>
+      <c r="B1829" s="16" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>1120</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>1141</v>
+      </c>
+      <c r="B1831" s="16" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>1142</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>1163</v>
+      </c>
+      <c r="B1833" s="16" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>1164</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>1185</v>
+      </c>
+      <c r="B1835" s="16" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>1186</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>1207</v>
+      </c>
+      <c r="B1837" s="16" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>1208</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>1229</v>
+      </c>
+      <c r="B1839" s="16" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>1230</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>1251</v>
+      </c>
+      <c r="B1841" s="16" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>1252</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>1273</v>
+      </c>
+      <c r="B1843" s="16" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>1274</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>1295</v>
+      </c>
+      <c r="B1845" s="16" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>1296</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>1317</v>
+      </c>
+      <c r="B1847" s="16" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>1318</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>1339</v>
+      </c>
+      <c r="B1849" s="16" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>1340</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>1361</v>
+      </c>
+      <c r="B1851" s="16" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>1362</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>1383</v>
+      </c>
+      <c r="B1853" s="16" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>1384</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>1405</v>
+      </c>
+      <c r="B1855" s="16" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>1406</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>1427</v>
+      </c>
+      <c r="B1857" s="16" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>1428</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>1449</v>
+      </c>
+      <c r="B1859" s="16" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>1450</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>1471</v>
+      </c>
+      <c r="B1861" s="16" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>1472</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>1493</v>
+      </c>
+      <c r="B1863" s="16" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>1494</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>1515</v>
+      </c>
+      <c r="B1865" s="16" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>1516</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>1537</v>
+      </c>
+      <c r="B1867" s="16" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>1538</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>1559</v>
+      </c>
+      <c r="B1869" s="16" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>1560</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>1581</v>
+      </c>
+      <c r="B1871" s="16" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>1582</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>1603</v>
+      </c>
+      <c r="B1873" s="16" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>1604</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>1625</v>
+      </c>
+      <c r="B1875" s="16" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>1626</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>1647</v>
+      </c>
+      <c r="B1877" s="16" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>1648</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>1669</v>
+      </c>
+      <c r="B1879" s="16" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>1670</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>1691</v>
+      </c>
+      <c r="B1881" s="16" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>1692</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>1713</v>
+      </c>
+      <c r="B1883" s="16" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>1714</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>1735</v>
+      </c>
+      <c r="B1885" s="16" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>1736</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>1757</v>
+      </c>
+      <c r="B1887" s="16" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>1758</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>1779</v>
+      </c>
+      <c r="B1889" s="16" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>1780</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>1801</v>
+      </c>
+      <c r="B1891" s="16" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>1802</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>1823</v>
+      </c>
+      <c r="B1893" s="16" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>1824</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>1845</v>
+      </c>
+      <c r="B1895" s="16" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>1846</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>1867</v>
+      </c>
+      <c r="B1897" s="16" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>1868</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>1889</v>
+      </c>
+      <c r="B1899" s="16" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>1890</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>1911</v>
+      </c>
+      <c r="B1901" s="16" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>1912</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>1933</v>
+      </c>
+      <c r="B1903" s="16" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>1934</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>1955</v>
+      </c>
+      <c r="B1905" s="16" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>1956</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>1977</v>
+      </c>
+      <c r="B1907" s="16" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>1978</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>1999</v>
+      </c>
+      <c r="B1909" s="16" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>2000</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>2021</v>
+      </c>
+      <c r="B1911" s="16" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>2022</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>2043</v>
+      </c>
+      <c r="B1913" s="16" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>2044</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>2065</v>
+      </c>
+      <c r="B1915" s="16" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>2066</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>2087</v>
+      </c>
+      <c r="B1917" s="16" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>2088</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>2109</v>
+      </c>
+      <c r="B1919" s="16" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>2110</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>2131</v>
+      </c>
+      <c r="B1921" s="16" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>2132</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>2153</v>
+      </c>
+      <c r="B1923" s="16" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>2154</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>2175</v>
+      </c>
+      <c r="B1925" s="16" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>2176</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>2197</v>
+      </c>
+      <c r="B1927" s="16" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>2198</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>2219</v>
+      </c>
+      <c r="B1929" s="16" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>2220</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>2241</v>
+      </c>
+      <c r="B1931" s="16" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>2242</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>2263</v>
+      </c>
+      <c r="B1933" s="16" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>2264</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>2285</v>
+      </c>
+      <c r="B1935" s="16" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1936">
+        <v>2286</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1937">
+        <v>2307</v>
+      </c>
+      <c r="B1937" s="16" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1938">
+        <v>2308</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1939">
+        <v>2329</v>
+      </c>
+      <c r="B1939" s="16" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1940">
+        <v>2330</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1941">
+        <v>2351</v>
+      </c>
+      <c r="B1941" s="16" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1942">
+        <v>2352</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1943">
+        <v>2373</v>
+      </c>
+      <c r="B1943" s="16" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1944">
+        <v>2374</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1945">
+        <v>2395</v>
+      </c>
+      <c r="B1945" s="16" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1946">
+        <v>2396</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1953" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1953" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1955" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1956" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1957" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1958" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1959" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1962">
+        <v>30</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1963">
+        <v>35</v>
+      </c>
+      <c r="B1963" s="16" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1964">
+        <v>36</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1965">
+        <v>70</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1966">
+        <v>894</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1967">
+        <v>903</v>
+      </c>
+      <c r="B1967" s="12" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1968">
+        <v>908</v>
+      </c>
+      <c r="B1968" s="16" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1969">
+        <v>909</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1970">
+        <v>910</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1971">
+        <v>911</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1972">
+        <v>912</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1973">
+        <v>943</v>
+      </c>
+      <c r="B1973" s="16" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1974">
+        <v>944</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1975">
+        <v>967</v>
+      </c>
+      <c r="B1975" s="16" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1976">
+        <v>968</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1977">
+        <v>991</v>
+      </c>
+      <c r="B1977" s="16" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1978">
+        <v>992</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1979">
+        <v>1015</v>
+      </c>
+      <c r="B1979" s="16" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1980">
+        <v>1016</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1981">
+        <v>1039</v>
+      </c>
+      <c r="B1981" s="16" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1982">
+        <v>1040</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1983">
+        <v>1063</v>
+      </c>
+      <c r="B1983" s="16" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1984">
+        <v>1064</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1985">
+        <v>1087</v>
+      </c>
+      <c r="B1985" s="16" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1986">
+        <v>1088</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1987">
+        <v>1111</v>
+      </c>
+      <c r="B1987" s="16" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1988">
+        <v>1112</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1989">
+        <v>1135</v>
+      </c>
+      <c r="B1989" s="16" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1990">
+        <v>1136</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1991">
+        <v>1159</v>
+      </c>
+      <c r="B1991" s="16" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1992">
+        <v>1160</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1993">
+        <v>1183</v>
+      </c>
+      <c r="B1993" s="16" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1994">
+        <v>1184</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1995">
+        <v>1207</v>
+      </c>
+      <c r="B1995" s="16" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1996">
+        <v>1208</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1997">
+        <v>1231</v>
+      </c>
+      <c r="B1997" s="16" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1998">
+        <v>1232</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1999">
+        <v>1255</v>
+      </c>
+      <c r="B1999" s="16" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2000">
+        <v>1256</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2001">
+        <v>1279</v>
+      </c>
+      <c r="B2001" s="16" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2002">
+        <v>1280</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2003">
+        <v>1303</v>
+      </c>
+      <c r="B2003" s="16" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2004">
+        <v>1304</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2005">
+        <v>1327</v>
+      </c>
+      <c r="B2005" s="16" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2006">
+        <v>1328</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2007">
+        <v>1351</v>
+      </c>
+      <c r="B2007" s="16" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2008">
+        <v>1352</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2009">
+        <v>1375</v>
+      </c>
+      <c r="B2009" s="16" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2010">
+        <v>1376</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2011">
+        <v>1399</v>
+      </c>
+      <c r="B2011" s="16" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2012">
+        <v>1400</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2013">
+        <v>1423</v>
+      </c>
+      <c r="B2013" s="16" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2014">
+        <v>1424</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>1447</v>
+      </c>
+      <c r="B2015" s="16" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>1448</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2017">
+        <v>1471</v>
+      </c>
+      <c r="B2017" s="16" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2018">
+        <v>1472</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2019">
+        <v>1495</v>
+      </c>
+      <c r="B2019" s="16" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2020">
+        <v>1496</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2021">
+        <v>1519</v>
+      </c>
+      <c r="B2021" s="16" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2022">
+        <v>1520</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2023">
+        <v>1543</v>
+      </c>
+      <c r="B2023" s="16" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2024">
+        <v>1544</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2025">
+        <v>1567</v>
+      </c>
+      <c r="B2025" s="16" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2026">
+        <v>1568</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2027">
+        <v>1591</v>
+      </c>
+      <c r="B2027" s="16" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2028">
+        <v>1592</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2029">
+        <v>1615</v>
+      </c>
+      <c r="B2029" s="16" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2030">
+        <v>1616</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2031">
+        <v>1639</v>
+      </c>
+      <c r="B2031" s="16" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2032">
+        <v>1640</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2033">
+        <v>1663</v>
+      </c>
+      <c r="B2033" s="16" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2034">
+        <v>1664</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2035">
+        <v>1687</v>
+      </c>
+      <c r="B2035" s="16" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2036">
+        <v>1688</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2037">
+        <v>1711</v>
+      </c>
+      <c r="B2037" s="16" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2038">
+        <v>1712</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2039">
+        <v>1735</v>
+      </c>
+      <c r="B2039" s="16" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2040">
+        <v>1736</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2041">
+        <v>1759</v>
+      </c>
+      <c r="B2041" s="16" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2042">
+        <v>1760</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2043">
+        <v>1762</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2044">
+        <v>1778</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2045">
+        <v>1779</v>
+      </c>
+      <c r="B2045" s="12" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2046">
+        <v>1784</v>
+      </c>
+      <c r="B2046" s="16" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2047">
+        <v>1785</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2048">
+        <v>1796</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2049">
+        <v>1804</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2050">
+        <v>1805</v>
+      </c>
+      <c r="B2050" s="12" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2051">
+        <v>1815</v>
+      </c>
+      <c r="B2051" s="12" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2052">
+        <v>1820</v>
+      </c>
+      <c r="B2052" s="16" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2053">
+        <v>1821</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2054">
+        <v>1826</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2055">
+        <v>1828</v>
+      </c>
+      <c r="B2055" s="12" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2056">
+        <v>1832</v>
+      </c>
+      <c r="B2056" s="12" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2057">
+        <v>1837</v>
+      </c>
+      <c r="B2057" s="16" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2058">
+        <v>1838</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2059">
+        <v>1863</v>
+      </c>
+      <c r="B2059" s="16" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2060">
+        <v>1864</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2061">
+        <v>1887</v>
+      </c>
+      <c r="B2061" s="16" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2062">
+        <v>1888</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2063">
+        <v>1911</v>
+      </c>
+      <c r="B2063" s="16" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2064">
+        <v>1912</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2065">
+        <v>1935</v>
+      </c>
+      <c r="B2065" s="16" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2066">
+        <v>1936</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2067">
+        <v>1959</v>
+      </c>
+      <c r="B2067" s="16" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2068">
+        <v>1960</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2069">
+        <v>1983</v>
+      </c>
+      <c r="B2069" s="16" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2070">
+        <v>1984</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2071">
+        <v>2007</v>
+      </c>
+      <c r="B2071" s="16" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2072">
+        <v>2008</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2073">
+        <v>2031</v>
+      </c>
+      <c r="B2073" s="16" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2074">
+        <v>2032</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2075">
+        <v>2055</v>
+      </c>
+      <c r="B2075" s="16" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2076">
+        <v>2056</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2077">
+        <v>2079</v>
+      </c>
+      <c r="B2077" s="16" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2078">
+        <v>2080</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2079">
+        <v>2103</v>
+      </c>
+      <c r="B2079" s="16" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2080">
+        <v>2104</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2081">
+        <v>2127</v>
+      </c>
+      <c r="B2081" s="16" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2082">
+        <v>2128</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2083">
+        <v>2151</v>
+      </c>
+      <c r="B2083" s="16" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2084">
+        <v>2152</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2085">
+        <v>2175</v>
+      </c>
+      <c r="B2085" s="16" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2086">
+        <v>2176</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2087">
+        <v>2199</v>
+      </c>
+      <c r="B2087" s="16" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2088">
+        <v>2200</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2089">
+        <v>2223</v>
+      </c>
+      <c r="B2089" s="16" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2090">
+        <v>2224</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2091">
+        <v>2247</v>
+      </c>
+      <c r="B2091" s="16" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2092">
+        <v>2248</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2093">
+        <v>2271</v>
+      </c>
+      <c r="B2093" s="16" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2094">
+        <v>2272</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2095">
+        <v>2295</v>
+      </c>
+      <c r="B2095" s="16" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2096">
+        <v>2296</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2097">
+        <v>2319</v>
+      </c>
+      <c r="B2097" s="16" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2098">
+        <v>2320</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2101" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2101" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2101" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2105" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2106" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2107" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2110">
+        <v>29</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2111">
+        <v>32</v>
+      </c>
+      <c r="B2111" s="16" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2112">
+        <v>33</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2113">
+        <v>67</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2114">
+        <v>891</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2115">
+        <v>900</v>
+      </c>
+      <c r="B2115" s="12" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2116">
+        <v>903</v>
+      </c>
+      <c r="B2116" s="16" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2117">
+        <v>904</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2118">
+        <v>905</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2119">
+        <v>906</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2120">
+        <v>935</v>
+      </c>
+      <c r="B2120" s="16" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2121">
+        <v>937</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2122">
+        <v>4642</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2123">
+        <v>4661</v>
+      </c>
+      <c r="B2123" s="16" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2124">
+        <v>4662</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2125">
+        <v>4663</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2126">
+        <v>4684</v>
+      </c>
+      <c r="B2126" s="16" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2127">
+        <v>4686</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2128">
+        <v>7061</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2129">
+        <v>7078</v>
+      </c>
+      <c r="B2129" s="12" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2130">
+        <v>7081</v>
+      </c>
+      <c r="B2130" s="16" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2131">
+        <v>7092</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2132">
+        <v>7093</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2133">
+        <v>7102</v>
+      </c>
+      <c r="B2133" s="12" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2134">
+        <v>7110</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2135">
+        <v>7112</v>
+      </c>
+      <c r="B2135" s="12" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2136">
+        <v>7115</v>
+      </c>
+      <c r="B2136" s="16" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2137">
+        <v>7120</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2138">
+        <v>7122</v>
+      </c>
+      <c r="B2138" s="12" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2139">
+        <v>7126</v>
+      </c>
+      <c r="B2139" s="12" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2140">
+        <v>7129</v>
+      </c>
+      <c r="B2140" s="16" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2141">
+        <v>7133</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2142">
+        <v>8121</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2143">
+        <v>8138</v>
+      </c>
+      <c r="B2143" s="12" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2144">
+        <v>8141</v>
+      </c>
+      <c r="B2144" s="16" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2145">
+        <v>8146</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2146">
+        <v>8149</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2147">
+        <v>8151</v>
+      </c>
+      <c r="B2147" s="12" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2148">
+        <v>8154</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2149">
+        <v>8155</v>
+      </c>
+      <c r="B2149" s="12" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2150">
+        <v>8158</v>
+      </c>
+      <c r="B2150" s="16" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2151">
+        <v>8163</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2152">
+        <v>8165</v>
+      </c>
+      <c r="B2152" s="12" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2153">
+        <v>8169</v>
+      </c>
+      <c r="B2153" s="12" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2154">
+        <v>8172</v>
+      </c>
+      <c r="B2154" s="16" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2155">
+        <v>8176</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2156">
+        <v>8195</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2157">
+        <v>8214</v>
+      </c>
+      <c r="B2157" s="16" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2158">
+        <v>8216</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2159">
+        <v>8235</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2160">
+        <v>8254</v>
+      </c>
+      <c r="B2160" s="16" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2161">
+        <v>8256</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2164" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2164" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B2164" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2166" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2168" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2169" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2170" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2173">
+        <v>30</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2174">
+        <v>35</v>
+      </c>
+      <c r="B2174" s="16" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2175">
+        <v>36</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2176">
+        <v>70</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2177">
+        <v>894</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2178">
+        <v>903</v>
+      </c>
+      <c r="B2178" s="12" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2179">
+        <v>908</v>
+      </c>
+      <c r="B2179" s="16" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2180">
+        <v>909</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2181">
+        <v>910</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2182">
+        <v>911</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2183">
+        <v>943</v>
+      </c>
+      <c r="B2183" s="16" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2184">
+        <v>944</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2185">
+        <v>946</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2186">
+        <v>970</v>
+      </c>
+      <c r="B2186" s="16" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2187">
+        <v>971</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2188">
+        <v>973</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2189">
+        <v>997</v>
+      </c>
+      <c r="B2189" s="16" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2190">
+        <v>998</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2191">
+        <v>1000</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2192">
+        <v>1024</v>
+      </c>
+      <c r="B2192" s="16" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2193">
+        <v>1025</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2194">
+        <v>1027</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2195">
+        <v>1051</v>
+      </c>
+      <c r="B2195" s="16" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2196">
+        <v>1052</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2197">
+        <v>1054</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2198">
+        <v>1078</v>
+      </c>
+      <c r="B2198" s="16" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2199">
+        <v>1079</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2200">
+        <v>1081</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2201">
+        <v>1105</v>
+      </c>
+      <c r="B2201" s="16" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2202">
+        <v>1106</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2203">
+        <v>1108</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2204">
+        <v>1132</v>
+      </c>
+      <c r="B2204" s="16" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2205">
+        <v>1133</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2206">
+        <v>1135</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2207">
+        <v>1159</v>
+      </c>
+      <c r="B2207" s="16" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2208">
+        <v>1160</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2209">
+        <v>1162</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2210">
+        <v>1186</v>
+      </c>
+      <c r="B2210" s="16" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2211">
+        <v>1187</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2212">
+        <v>1189</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2213">
+        <v>1213</v>
+      </c>
+      <c r="B2213" s="16" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2214">
+        <v>1214</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2215">
+        <v>1216</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2216">
+        <v>1240</v>
+      </c>
+      <c r="B2216" s="16" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2217">
+        <v>1241</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2218">
+        <v>1243</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2219">
+        <v>1267</v>
+      </c>
+      <c r="B2219" s="16" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2220">
+        <v>1268</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2221">
+        <v>1270</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2222">
+        <v>1294</v>
+      </c>
+      <c r="B2222" s="16" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2223">
+        <v>1295</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2224">
+        <v>1297</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2225">
+        <v>1321</v>
+      </c>
+      <c r="B2225" s="16" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2226">
+        <v>1322</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2227">
+        <v>1324</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2228">
+        <v>1348</v>
+      </c>
+      <c r="B2228" s="16" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2229">
+        <v>1349</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2230">
+        <v>1351</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2231">
+        <v>1375</v>
+      </c>
+      <c r="B2231" s="16" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2232">
+        <v>1376</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2233">
+        <v>1378</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2234">
+        <v>1402</v>
+      </c>
+      <c r="B2234" s="16" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2235">
+        <v>1403</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2236">
+        <v>1405</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2237">
+        <v>1429</v>
+      </c>
+      <c r="B2237" s="16" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2238">
+        <v>1430</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2239">
+        <v>1432</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2240">
+        <v>1456</v>
+      </c>
+      <c r="B2240" s="16" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2241">
+        <v>1457</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2242">
+        <v>1459</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2243">
+        <v>1483</v>
+      </c>
+      <c r="B2243" s="16" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2244">
+        <v>1484</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2245">
+        <v>1486</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>2341</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A540:B846">
-    <sortCondition ref="A540:A846"/>
+  <autoFilter ref="A2172:B2245" xr:uid="{00BC6913-1260-4FDB-BC1F-F2231612BD43}"/>
+  <sortState ref="A1802:B1946">
+    <sortCondition ref="A1802:A1946"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21400,7 +26000,7 @@
   <dimension ref="A1:V245"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21414,16 +26014,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B1" t="s">
         <v>619</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>618</v>
       </c>
-      <c r="C1" t="s">
-        <v>617</v>
-      </c>
       <c r="D1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>600</v>
@@ -21431,7 +26031,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>601</v>
@@ -21440,24 +26040,24 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>615</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>616</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="U4" t="s">
         <v>67</v>
@@ -21465,92 +26065,92 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" t="s">
         <v>744</v>
-      </c>
-      <c r="B5" t="s">
-        <v>743</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>760</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>602</v>
@@ -21562,13 +26162,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>603</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U15" t="s">
         <v>67</v>
@@ -21576,10 +26176,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C16" s="18"/>
       <c r="U16" t="s">
@@ -21591,10 +26191,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C17" s="18"/>
       <c r="U17" t="s">
@@ -21606,10 +26206,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C18" s="18"/>
       <c r="U18" t="s">
@@ -21621,13 +26221,13 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="U19" t="s">
         <v>67</v>
@@ -21638,7 +26238,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>604</v>
@@ -21653,10 +26253,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C21" s="18"/>
       <c r="U21" t="s">
@@ -21668,10 +26268,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C22" s="18"/>
       <c r="U22" t="s">
@@ -21683,10 +26283,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C23" s="18"/>
       <c r="U23" t="s">
@@ -21698,10 +26298,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C24" s="18"/>
       <c r="U24" t="s">
@@ -21713,10 +26313,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C25" s="18"/>
       <c r="U25" t="s">
@@ -21728,10 +26328,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C26" s="18"/>
       <c r="U26" t="s">
@@ -21743,10 +26343,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C27" s="18"/>
       <c r="U27" t="s">
@@ -21758,10 +26358,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C28" s="18"/>
       <c r="U28" t="s">
@@ -21773,10 +26373,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C29" s="18"/>
       <c r="U29" t="s">
@@ -21788,10 +26388,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C30" s="18"/>
       <c r="U30" t="s">
@@ -21803,10 +26403,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C31" s="18"/>
       <c r="U31" t="s">
@@ -21818,10 +26418,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C32" s="18"/>
       <c r="U32" t="s">
@@ -21833,10 +26433,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C33" s="18"/>
       <c r="U33" t="s">
@@ -21848,7 +26448,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>605</v>
@@ -21863,13 +26463,13 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>606</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="U35" t="s">
         <v>67</v>
@@ -21880,13 +26480,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>607</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="U36" t="s">
         <v>67</v>
@@ -21897,13 +26497,13 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>608</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="U37" t="s">
         <v>67</v>
@@ -21914,16 +26514,16 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="U38" t="s">
         <v>67</v>
@@ -21934,7 +26534,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>609</v>
@@ -21949,7 +26549,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>610</v>
@@ -21964,7 +26564,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>611</v>
@@ -21979,7 +26579,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>612</v>
@@ -21994,7 +26594,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>613</v>
@@ -22003,29 +26603,29 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>614</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D58" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J58" t="str">
         <f>IF(L58,MID(M59,FIND("0x",M59),4),"")</f>
@@ -22040,15 +26640,15 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D59" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" ref="J59:J98" si="0">IF(L59,MID(M60,FIND("0x",M60),4),"")</f>
@@ -22059,15 +26659,15 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D60" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
@@ -22078,15 +26678,15 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D61" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
@@ -22099,10 +26699,10 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D62" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
@@ -22117,15 +26717,15 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
@@ -22140,15 +26740,15 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D64" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
@@ -22163,15 +26763,15 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D65" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
@@ -22188,10 +26788,10 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D66" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
@@ -22206,15 +26806,15 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D67" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="0"/>
@@ -22229,15 +26829,15 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="0"/>
@@ -22252,7 +26852,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -22271,10 +26871,10 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D70" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="0"/>
@@ -22289,15 +26889,15 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D71" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="0"/>
@@ -22312,15 +26912,15 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D72" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="0"/>
@@ -22335,12 +26935,12 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="0"/>
@@ -22357,7 +26957,7 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="0"/>
@@ -22372,12 +26972,12 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="0"/>
@@ -22392,12 +26992,12 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="0"/>
@@ -22412,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -22431,7 +27031,7 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="0"/>
@@ -22446,12 +27046,12 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="0"/>
@@ -22466,12 +27066,12 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="0"/>
@@ -22486,12 +27086,12 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="0"/>
@@ -22508,7 +27108,7 @@
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="0"/>
@@ -22523,12 +27123,12 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="0"/>
@@ -22543,12 +27143,12 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="0"/>
@@ -22563,12 +27163,12 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="0"/>
@@ -22597,7 +27197,7 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.25">
@@ -22614,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="88" spans="4:13" x14ac:dyDescent="0.25">
@@ -22631,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="4:13" x14ac:dyDescent="0.25">
@@ -22662,7 +27262,7 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.25">
@@ -22679,7 +27279,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="4:13" x14ac:dyDescent="0.25">
@@ -22696,7 +27296,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.25">
@@ -22727,7 +27327,7 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.25">
@@ -22744,7 +27344,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.25">
@@ -22761,7 +27361,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97" spans="10:14" x14ac:dyDescent="0.25">
@@ -22792,7 +27392,7 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="99" spans="10:14" x14ac:dyDescent="0.25">
@@ -22801,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="100" spans="10:14" x14ac:dyDescent="0.25">
@@ -22810,452 +27410,452 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="104" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="105" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M105" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="106" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M107" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="109" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N109" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="110" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="111" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="112" spans="10:14" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N112" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M114" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="115" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N115" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="116" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="117" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="119" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N120" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M122" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="123" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="125" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M125" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="126" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M126" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M127" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M128" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N128" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="129" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M129" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="130" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M130" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M131" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N131" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="132" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M132" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="133" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M133" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="134" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M134" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="135" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N135" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M136" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="137" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M137" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="138" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M138" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="139" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M140" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="141" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M141" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="142" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M142" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="143" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M143" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="144" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M144" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="145" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M145" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="146" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M146" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="147" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M147" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="148" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M148" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="149" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M149" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="150" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M150" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="151" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M151" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="152" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M152" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N152" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M153" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M154" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="155" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M155" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="156" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M156" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="157" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M157" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="160" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M160" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M161" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M162" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M163" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N163" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="164" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M164" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M165" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M166" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="168" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M168" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="169" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M169" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="170" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M170" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M171" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M172" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C185" s="21"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C186" s="21"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -23263,378 +27863,378 @@
         <v>606</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D195" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C196" s="21"/>
       <c r="D196" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C197" s="21"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C212" s="21"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B220" s="21" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B221" s="21" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B222" s="21" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B223" s="21" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B224" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="C224" s="21" t="s">
         <v>866</v>
-      </c>
-      <c r="C224" s="21" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="C225" s="21" t="s">
         <v>868</v>
-      </c>
-      <c r="C225" s="21" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="C226" s="21" t="s">
         <v>870</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B227" s="21" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B228" s="21" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="C229" s="21" t="s">
         <v>876</v>
-      </c>
-      <c r="C229" s="21" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" s="21" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" s="21" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" s="21" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" s="21" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="21" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B240" s="21" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="21" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="21" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="21" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="21" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -23648,10 +28248,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23663,58 +28263,58 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1" t="s">
         <v>913</v>
       </c>
-      <c r="B1" t="s">
-        <v>912</v>
-      </c>
       <c r="C1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B2" t="s">
         <v>923</v>
       </c>
       <c r="G2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H2">
         <v>960</v>
       </c>
       <c r="I2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H4" s="22">
         <f>H3/H2</f>
@@ -23764,7 +28364,7 @@
         <v>1532</v>
       </c>
       <c r="B9" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C9" t="s">
         <v>1533</v>
@@ -23792,19 +28392,58 @@
         <v>1533</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2231</v>
+      </c>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>1532</v>
+      </c>
       <c r="B15" t="s">
-        <v>909</v>
+        <v>2280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>919</v>
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D424D-A303-445D-A1F0-F9D28A6D2B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96245999-C64E-4917-8EE1-727677320667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1155" windowWidth="17460" windowHeight="19170" activeTab="4" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ThingsToTry" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2172:$B$2245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2256:$B$2321</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="2455">
   <si>
     <t>trigOnly</t>
   </si>
@@ -7215,6 +7215,207 @@
   </si>
   <si>
     <t>reformat SD and copy shortened files in correct order to MP3 directory DFRobotDFPlayerMini::playMp3Folder</t>
+  </si>
+  <si>
+    <t>assume minimum play time 1.5 sec; implement check and retry if not playing after that time</t>
+  </si>
+  <si>
+    <t>18:DEBUG loop() - nowVinputRBG 0x40 loopCount 0</t>
+  </si>
+  <si>
+    <t>40:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>453:DEBUG loop() - nowVinputRBG 0x40 loopCount 134</t>
+  </si>
+  <si>
+    <t>483:DEBUG loop() - nowVinputRBG 0x240 loopCount 136</t>
+  </si>
+  <si>
+    <t>3633:DEBUG loop() - nowVinputRBG 0x40 loopCount 286</t>
+  </si>
+  <si>
+    <t>3658:DEBUG loop() - nowVinputRBG 0x240 loopCount 287</t>
+  </si>
+  <si>
+    <t>4141:DEBUG loop() - nowVinputRBG 0x260 loopCount 310</t>
+  </si>
+  <si>
+    <t>4178:DEBUG loop() - nowVinputRBG 0x240 loopCount 312</t>
+  </si>
+  <si>
+    <t>5855:DEBUG loop() - nowVinputRBG 0x40 loopCount 871</t>
+  </si>
+  <si>
+    <t>5894:DEBUG loop() - nowVinputRBG 0x240 loopCount 875</t>
+  </si>
+  <si>
+    <t>6209:DEBUG loop() - nowVinputRBG 0x40 loopCount 980</t>
+  </si>
+  <si>
+    <t>6232:DEBUG loop() - nowVinputRBG 0x240 loopCount 984</t>
+  </si>
+  <si>
+    <t>6862:DEBUG loop() - nowVinputRBG 0x80 loopCount 1014</t>
+  </si>
+  <si>
+    <t>7325:DEBUG loop() - nowVinputRBG 0x240 loopCount 1036</t>
+  </si>
+  <si>
+    <t>464: RBG_startRow ln 276 from row 0 to row 1 loopCount 135</t>
+  </si>
+  <si>
+    <t>4160: RBG_startRow ln 276 from row 1 to row 4 loopCount 311</t>
+  </si>
+  <si>
+    <t>5866: RBG_startRow ln 276 from row 4 to row 7 loopCount 872</t>
+  </si>
+  <si>
+    <t>5880: RBG_startRow ln 276 from row 7 to row 8 loopCount 874</t>
+  </si>
+  <si>
+    <t>6213: RBG_startRow ln 276 from row 8 to row 9 loopCount 981</t>
+  </si>
+  <si>
+    <t>6221: RBG_startRow ln 276 from row 9 to row 1 loopCount 983</t>
+  </si>
+  <si>
+    <t>6885: RBG_startRow ln 276 from row 1 to row 5 loopCount 1015</t>
+  </si>
+  <si>
+    <t>6899: RBG_startRow ln 276 from row 5 to row 1 loopCount 1017</t>
+  </si>
+  <si>
+    <t>21: RBG_startEffectSound ln 478 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>22: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>467: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 135</t>
+  </si>
+  <si>
+    <t>468: RBG_startEffectSound ln 506 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>470: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>3652: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 286</t>
+  </si>
+  <si>
+    <t>3653: RBG_startEffectSound ln 506 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>4163: RBG_startEffectSound ln 478 EFCT num 0x0 final num 1 loopCount 311</t>
+  </si>
+  <si>
+    <t>4164: RBG_startEffectSound ln 506 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>5883: RBG_startEffectSound ln 478 EFCT num 0xA final num 11 loopCount 874</t>
+  </si>
+  <si>
+    <t>5884: RBG_startEffectSound ln 506 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>5886: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>6224: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 983</t>
+  </si>
+  <si>
+    <t>6225: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>6888: RBG_startEffectSound ln 478 EFCT num 0x14 final num 21 loopCount 1015</t>
+  </si>
+  <si>
+    <t>6902: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1017</t>
+  </si>
+  <si>
+    <t>6927: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1018</t>
+  </si>
+  <si>
+    <t>6950: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1019</t>
+  </si>
+  <si>
+    <t>6973: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1020</t>
+  </si>
+  <si>
+    <t>6996: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1021</t>
+  </si>
+  <si>
+    <t>7019: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1022</t>
+  </si>
+  <si>
+    <t>7042: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1023</t>
+  </si>
+  <si>
+    <t>7065: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1024</t>
+  </si>
+  <si>
+    <t>7088: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1025</t>
+  </si>
+  <si>
+    <t>7111: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1026</t>
+  </si>
+  <si>
+    <t>7134: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1027</t>
+  </si>
+  <si>
+    <t>7157: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1028</t>
+  </si>
+  <si>
+    <t>7180: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1029</t>
+  </si>
+  <si>
+    <t>7203: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1030</t>
+  </si>
+  <si>
+    <t>7204: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>7227: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1031</t>
+  </si>
+  <si>
+    <t>7228: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>7251: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1032</t>
+  </si>
+  <si>
+    <t>7252: RBG_startEffectSound ln 513 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>7275: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1033</t>
+  </si>
+  <si>
+    <t>7298: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1034</t>
+  </si>
+  <si>
+    <t>7321: RBG_startEffectSound ln 478 EFCT num 0x66 final num 102 loopCount 1035</t>
+  </si>
+  <si>
+    <t>469:Number:42 Play Finished!</t>
+  </si>
+  <si>
+    <t>471:Number:42 Play Finished!</t>
+  </si>
+  <si>
+    <t>3654:Number:103 Play Finished!</t>
+  </si>
+  <si>
+    <t>4165:Number:103 Play Finished!</t>
+  </si>
+  <si>
+    <t>5885:Number:2 Play Finished!</t>
+  </si>
+  <si>
+    <t>5887:Number:2 Play Finished!</t>
+  </si>
+  <si>
+    <t>hmm - problem here</t>
   </si>
 </sst>
 </file>
@@ -8332,10 +8533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L2245"/>
+  <dimension ref="A1:L2321"/>
   <sheetViews>
-    <sheetView topLeftCell="A2162" workbookViewId="0">
-      <selection activeCell="B2176" sqref="B2176"/>
+    <sheetView tabSelected="1" topLeftCell="A2275" workbookViewId="0">
+      <selection activeCell="B2295" sqref="B2295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26117,10 +26318,573 @@
         <v>2340</v>
       </c>
     </row>
+    <row r="2247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2248" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2248" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2250" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2251" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2252" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2253" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2254" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2256" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2257">
+        <v>18</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2258">
+        <v>21</v>
+      </c>
+      <c r="B2258" s="16" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2259">
+        <v>22</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2260">
+        <v>40</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2261">
+        <v>453</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2262">
+        <v>464</v>
+      </c>
+      <c r="B2262" s="12" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2263">
+        <v>467</v>
+      </c>
+      <c r="B2263" s="16" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2264">
+        <v>468</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2265">
+        <v>469</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2266">
+        <v>470</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2267">
+        <v>471</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2268">
+        <v>483</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2269">
+        <v>3633</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2270">
+        <v>3652</v>
+      </c>
+      <c r="B2270" s="16" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2271">
+        <v>3653</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2272">
+        <v>3654</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2273">
+        <v>3658</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2274">
+        <v>4141</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2275">
+        <v>4160</v>
+      </c>
+      <c r="B2275" s="12" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2276">
+        <v>4163</v>
+      </c>
+      <c r="B2276" s="16" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2277">
+        <v>4164</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2278">
+        <v>4165</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2279">
+        <v>4178</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2280">
+        <v>5855</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2281">
+        <v>5866</v>
+      </c>
+      <c r="B2281" s="12" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2282">
+        <v>5880</v>
+      </c>
+      <c r="B2282" s="12" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2283">
+        <v>5883</v>
+      </c>
+      <c r="B2283" s="16" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2284">
+        <v>5884</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2285">
+        <v>5885</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2286">
+        <v>5886</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2287">
+        <v>5887</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2288">
+        <v>5894</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>6209</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>6213</v>
+      </c>
+      <c r="B2290" s="12" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>6221</v>
+      </c>
+      <c r="B2291" s="12" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>6224</v>
+      </c>
+      <c r="B2292" s="16" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>6225</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>6232</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>6862</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2296">
+        <v>6885</v>
+      </c>
+      <c r="B2296" s="12" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2297">
+        <v>6888</v>
+      </c>
+      <c r="B2297" s="16" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2298">
+        <v>6899</v>
+      </c>
+      <c r="B2298" s="12" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2299">
+        <v>6902</v>
+      </c>
+      <c r="B2299" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2300">
+        <v>6927</v>
+      </c>
+      <c r="B2300" s="16" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2301">
+        <v>6950</v>
+      </c>
+      <c r="B2301" s="16" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2302">
+        <v>6973</v>
+      </c>
+      <c r="B2302" s="16" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2303">
+        <v>6996</v>
+      </c>
+      <c r="B2303" s="16" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2304">
+        <v>7019</v>
+      </c>
+      <c r="B2304" s="16" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2305">
+        <v>7042</v>
+      </c>
+      <c r="B2305" s="16" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2306">
+        <v>7065</v>
+      </c>
+      <c r="B2306" s="16" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2307">
+        <v>7088</v>
+      </c>
+      <c r="B2307" s="16" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2308">
+        <v>7111</v>
+      </c>
+      <c r="B2308" s="16" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2309">
+        <v>7134</v>
+      </c>
+      <c r="B2309" s="16" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2310">
+        <v>7157</v>
+      </c>
+      <c r="B2310" s="16" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2311">
+        <v>7180</v>
+      </c>
+      <c r="B2311" s="16" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2312">
+        <v>7203</v>
+      </c>
+      <c r="B2312" s="16" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2313">
+        <v>7204</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2314">
+        <v>7227</v>
+      </c>
+      <c r="B2314" s="16" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2315">
+        <v>7228</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2316">
+        <v>7251</v>
+      </c>
+      <c r="B2316" s="16" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2317">
+        <v>7252</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2318">
+        <v>7275</v>
+      </c>
+      <c r="B2318" s="16" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2319">
+        <v>7298</v>
+      </c>
+      <c r="B2319" s="16" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2320">
+        <v>7321</v>
+      </c>
+      <c r="B2320" s="16" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2321">
+        <v>7325</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>2402</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2172:B2245" xr:uid="{00BC6913-1260-4FDB-BC1F-F2231612BD43}"/>
-  <sortState ref="A1802:B1946">
-    <sortCondition ref="A1802:A1946"/>
+  <autoFilter ref="A2256:B2321" xr:uid="{AA991574-F325-4C54-AC69-6022E43693E7}"/>
+  <sortState ref="A2257:L2321">
+    <sortCondition ref="A2257:A2321"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28580,10 +29344,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28770,22 +29534,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -28796,6 +29555,16 @@
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2362</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2388</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59680F73-0D14-A044-918A-B52FC03A2973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1B549-D66E-2347-863F-E7E39AA1A421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,17 @@
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="2588">
   <si>
     <t>trigOnly</t>
   </si>
@@ -7941,6 +7936,12 @@
   </si>
   <si>
     <t>mROW_MENU_OPEN</t>
+  </si>
+  <si>
+    <t>mVAL_06</t>
+  </si>
+  <si>
+    <t>mVAL_07</t>
   </si>
 </sst>
 </file>
@@ -8500,9 +8501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:J15"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8790,6 +8791,15 @@
       <c r="I8" s="9" t="s">
         <v>2584</v>
       </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -8806,6 +8816,15 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>2585</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2586</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -8819,6 +8838,15 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
@@ -8843,6 +8871,12 @@
         <v>79</v>
       </c>
       <c r="J11" s="9"/>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
@@ -8867,6 +8901,12 @@
         <v>69</v>
       </c>
       <c r="J12" s="9"/>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -8942,7 +8982,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -8954,7 +8994,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -8970,173 +9010,136 @@
       <c r="J18" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" s="9"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="J25" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="9"/>
-      <c r="L23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="D31" s="3"/>
     </row>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9363237C-F3CA-A14A-A3BD-83446585470F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C824E99-92A9-274C-9BEF-CA4BBA42D1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="960" windowWidth="25600" windowHeight="15540" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="1100" yWindow="960" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ThingsToTry" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2518:$B$2537</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2649:$B$2695</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="2752">
   <si>
     <t>trigOnly</t>
   </si>
@@ -8060,261 +8060,6 @@
     <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 205</t>
   </si>
   <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 206</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 207</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 208</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 209</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 210</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 211</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 212</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 213</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 214</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 215</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 216</t>
-  </si>
-  <si>
-    <t>DEBUG loop() - nowVinputRBG 0x280 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput entry ln 337 tmpVinputRBG 0x280 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 1 thisRowPtr-&gt;inputRBG 0x30 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 2 thisRowPtr-&gt;inputRBG 0x80 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 342 idx 3 thisRowPtr-&gt;inputRBG 0x40 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 370 loopCount 217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RBG_waitForInput ln 383 thisReturn 255 loopCount 217</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">checkButtons() called: DEBUG - printAllMyInputs: DPIN_BTN_TRIGGER HIGH DPIN_BTN_YELLOW HIGH DPIN_BTN_GREEN HIGH DPIN_BTN_BLACK HIGH </t>
     </r>
@@ -8405,6 +8150,369 @@
       </rPr>
       <t xml:space="preserve"> loopCount 205</t>
     </r>
+  </si>
+  <si>
+    <t>17: RBG_startEffectSound ln 476 EFCT num 0x28 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>18: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>449:DEBUG loop() - nowVinputRBG 0x40 loopCount 134</t>
+  </si>
+  <si>
+    <t>460: RBG_startRow ln 276 from row 0 to row 1 loopCount 135</t>
+  </si>
+  <si>
+    <t>492: RBG_startRow ln 276 from row 1 to row 5 loopCount 137</t>
+  </si>
+  <si>
+    <t>495: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 137</t>
+  </si>
+  <si>
+    <t>496: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>497:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>498: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>499:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>511:DEBUG loop() - nowVinputRBG 0x240 loopCount 138</t>
+  </si>
+  <si>
+    <t>1933:DEBUG loop() - nowVinputRBG 0x260 loopCount 217</t>
+  </si>
+  <si>
+    <t>1951: RBG_startRow ln 276 from row 5 to row 7 loopCount 218</t>
+  </si>
+  <si>
+    <t>1954: RBG_startEffectSound ln 476 EFCT num 0x0 final num 1 loopCount 218</t>
+  </si>
+  <si>
+    <t>1967:DEBUG loop() - nowVinputRBG 0x240 loopCount 219</t>
+  </si>
+  <si>
+    <t>3644:DEBUG loop() - nowVinputRBG 0x40 loopCount 778</t>
+  </si>
+  <si>
+    <t>3655: RBG_startRow ln 276 from row 7 to row 8 loopCount 779</t>
+  </si>
+  <si>
+    <t>3663: RBG_startRow ln 276 from row 8 to row 9 loopCount 781</t>
+  </si>
+  <si>
+    <t>3666: RBG_startEffectSound ln 476 EFCT num 0xA final num 11 loopCount 781</t>
+  </si>
+  <si>
+    <t>3667: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>3668:Number:1 Play Finished!</t>
+  </si>
+  <si>
+    <t>3669: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>3670:Number:1 Play Finished!</t>
+  </si>
+  <si>
+    <t>3677:DEBUG loop() - nowVinputRBG 0x240 loopCount 782</t>
+  </si>
+  <si>
+    <t>3992:DEBUG loop() - nowVinputRBG 0x40 loopCount 887</t>
+  </si>
+  <si>
+    <t>3996: RBG_startRow ln 276 from row 9 to row 10 loopCount 888</t>
+  </si>
+  <si>
+    <t>4004: RBG_startRow ln 276 from row 10 to row 1 loopCount 890</t>
+  </si>
+  <si>
+    <t>4030: RBG_startRow ln 276 from row 1 to row 5 loopCount 892</t>
+  </si>
+  <si>
+    <t>4033: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 892</t>
+  </si>
+  <si>
+    <t>4034: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4041:DEBUG loop() - nowVinputRBG 0x240 loopCount 893</t>
+  </si>
+  <si>
+    <t>4383:DEBUG loop() - nowVinputRBG 0x280 loopCount 912</t>
+  </si>
+  <si>
+    <t>4404: RBG_startRow ln 276 from row 5 to row 11 loopCount 913</t>
+  </si>
+  <si>
+    <t>4407: RBG_startEffectSound ln 476 EFCT num 0x14 final num 21 loopCount 913</t>
+  </si>
+  <si>
+    <t>4840:DEBUG loop() - nowVinputRBG 0x80 loopCount 1056</t>
+  </si>
+  <si>
+    <t>4844: RBG_startRow ln 276 from row 11 to row 1 loopCount 1057</t>
+  </si>
+  <si>
+    <t>4849:DEBUG loop() - nowVinputRBG 0x40 loopCount 1058</t>
+  </si>
+  <si>
+    <t>4870: RBG_startRow ln 276 from row 1 to row 5 loopCount 1059</t>
+  </si>
+  <si>
+    <t>4873: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 1059</t>
+  </si>
+  <si>
+    <t>4874: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>4875:Number:21 Play Finished!</t>
+  </si>
+  <si>
+    <t>4876: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4877:Number:21 Play Finished!</t>
+  </si>
+  <si>
+    <t>4883:DEBUG loop() - nowVinputRBG 0x240 loopCount 1060</t>
+  </si>
+  <si>
+    <t>5639:DEBUG loop() - nowVinputRBG 0x280 loopCount 1102</t>
+  </si>
+  <si>
+    <t>5660: RBG_startRow ln 276 from row 5 to row 11 loopCount 1103</t>
+  </si>
+  <si>
+    <t>5663: RBG_startEffectSound ln 476 EFCT num 0x14 final num 21 loopCount 1103</t>
+  </si>
+  <si>
+    <t>5670:DEBUG loop() - nowVinputRBG 0x80 loopCount 1104</t>
+  </si>
+  <si>
+    <t>5673:DEBUG loop() - nowVinputRBG 0x280 loopCount 1105</t>
+  </si>
+  <si>
+    <t>5674: RBG_startRow ln 276 from row 11 to row 1 loopCount 1105</t>
+  </si>
+  <si>
+    <t>5690: RBG_startRow ln 276 from row 1 to row 3 loopCount 1107</t>
+  </si>
+  <si>
+    <t>5693: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 1107</t>
+  </si>
+  <si>
+    <t>5699:DEBUG loop() - nowVinputRBG 0x80 loopCount 1108</t>
+  </si>
+  <si>
+    <t>5711: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 1108</t>
+  </si>
+  <si>
+    <t>5715:DEBUG loop() - nowVinputRBG 0x280 loopCount 1109</t>
+  </si>
+  <si>
+    <t>6947:DEBUG loop() - nowVinputRBG 0x240 loopCount 1197</t>
+  </si>
+  <si>
+    <t>6962: RBG_startRow ln 276 from row 3 to row 12 loopCount 1198</t>
+  </si>
+  <si>
+    <t>6965: RBG_startEffectSound ln 476 EFCT num 0x1E final num 31 loopCount 1198</t>
+  </si>
+  <si>
+    <t>7407:DEBUG loop() - nowVinputRBG 0x40 loopCount 1344</t>
+  </si>
+  <si>
+    <t>7411: RBG_startRow ln 276 from row 12 to row 1 loopCount 1345</t>
+  </si>
+  <si>
+    <t>7431: RBG_startRow ln 276 from row 1 to row 5 loopCount 1347</t>
+  </si>
+  <si>
+    <t>7434: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 1347</t>
+  </si>
+  <si>
+    <t>7435: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>7436:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>7437: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>7443:DEBUG loop() - nowVinputRBG 0x240 loopCount 1348</t>
+  </si>
+  <si>
+    <t>10377:DEBUG loop() - nowVinputRBG 0x40 loopCount 1511</t>
+  </si>
+  <si>
+    <t>#define mROW_MENU 1</t>
+  </si>
+  <si>
+    <t>#define mROW_MENU_OPEN 3</t>
+  </si>
+  <si>
+    <t>#define mROW_MENU_CLOSED 5</t>
+  </si>
+  <si>
+    <t>#define mROW_WINDUP_SOUND 7</t>
+  </si>
+  <si>
+    <t>#define mROW_SHOOT 8</t>
+  </si>
+  <si>
+    <t>#define mROW_SHOOT_SOUND 9</t>
+  </si>
+  <si>
+    <t>#define mROW_SOLENOID 10</t>
+  </si>
+  <si>
+    <t>#define mROW_OPNBRL 11</t>
+  </si>
+  <si>
+    <t>#define mROW_LOKLOD 12</t>
+  </si>
+  <si>
+    <t>menu_closed</t>
+  </si>
+  <si>
+    <t>WINDUP_SOUND</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>mix input and go to without input</t>
+  </si>
+  <si>
+    <t>495: RBG_startRow ln 276 from row 1 to row 5 loopCount 138</t>
+  </si>
+  <si>
+    <t>498: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 138</t>
+  </si>
+  <si>
+    <t>499: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>500:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>501: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>502:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>514:DEBUG loop() - nowVinputRBG 0x240 loopCount 139</t>
+  </si>
+  <si>
+    <t>2890:DEBUG loop() - nowVinputRBG 0x280 loopCount 271</t>
+  </si>
+  <si>
+    <t>2911: RBG_startRow ln 276 from row 5 to row 11 loopCount 272</t>
+  </si>
+  <si>
+    <t>2914: RBG_startEffectSound ln 476 EFCT num 0x14 final num 21 loopCount 272</t>
+  </si>
+  <si>
+    <t>3320:DEBUG loop() - nowVinputRBG 0x240 loopCount 404</t>
+  </si>
+  <si>
+    <t>3353:DEBUG loop() - nowVinputRBG 0x40 loopCount 415</t>
+  </si>
+  <si>
+    <t>3364: RBG_startRow ln 276 from row 11 to row 1 loopCount 416</t>
+  </si>
+  <si>
+    <t>3390: RBG_startRow ln 276 from row 1 to row 5 loopCount 418</t>
+  </si>
+  <si>
+    <t>3393: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 418</t>
+  </si>
+  <si>
+    <t>3394: RBG_startEffectSound ln 504 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>3395:Number:21 Play Finished!</t>
+  </si>
+  <si>
+    <t>3396: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>3402:DEBUG loop() - nowVinputRBG 0x240 loopCount 419</t>
+  </si>
+  <si>
+    <t>3600:DEBUG loop() - nowVinputRBG 0x280 loopCount 430</t>
+  </si>
+  <si>
+    <t>3621: RBG_startRow ln 276 from row 5 to row 11 loopCount 431</t>
+  </si>
+  <si>
+    <t>3624: RBG_startEffectSound ln 476 EFCT num 0x14 final num 21 loopCount 431</t>
+  </si>
+  <si>
+    <t>3631:DEBUG loop() - nowVinputRBG 0x80 loopCount 432</t>
+  </si>
+  <si>
+    <t>3634:DEBUG loop() - nowVinputRBG 0x280 loopCount 433</t>
+  </si>
+  <si>
+    <t>3635: RBG_startRow ln 276 from row 11 to row 1 loopCount 433</t>
+  </si>
+  <si>
+    <t>3657: RBG_startRow ln 276 from row 1 to row 3 loopCount 435</t>
+  </si>
+  <si>
+    <t>3660: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 435</t>
+  </si>
+  <si>
+    <t>3666:DEBUG loop() - nowVinputRBG 0x80 loopCount 436</t>
+  </si>
+  <si>
+    <t>3678: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 436</t>
+  </si>
+  <si>
+    <t>3694: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 437</t>
+  </si>
+  <si>
+    <t>3698:DEBUG loop() - nowVinputRBG 0x240 loopCount 438</t>
+  </si>
+  <si>
+    <t>3719: RBG_startRow ln 276 from row 3 to row 13 loopCount 439</t>
+  </si>
+  <si>
+    <t>3722: RBG_startEffectSound ln 476 EFCT num 0x1E final num 31 loopCount 439</t>
+  </si>
+  <si>
+    <t>4164:DEBUG loop() - nowVinputRBG 0x40 loopCount 585</t>
+  </si>
+  <si>
+    <t>4168: RBG_startRow ln 276 from row 13 to row 1 loopCount 586</t>
+  </si>
+  <si>
+    <t>4188: RBG_startRow ln 276 from row 1 to row 5 loopCount 588</t>
+  </si>
+  <si>
+    <t>4191: RBG_startEffectSound ln 476 EFCT num 0x66 final num 102 loopCount 588</t>
+  </si>
+  <si>
+    <t>4192: RBG_startEffectSound ln 511 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>4193:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>4199:DEBUG loop() - nowVinputRBG 0x240 loopCount 589</t>
+  </si>
+  <si>
+    <t>#define mROW_LOKLOD 13</t>
   </si>
 </sst>
 </file>
@@ -8492,7 +8600,7 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8533,6 +8641,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8608,7 +8728,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8648,6 +8768,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -8969,9 +9091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9485,48 +9607,69 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="16">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>59</v>
-      </c>
+    <row r="25" spans="1:14">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" ht="16">
       <c r="B27" s="9"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="N28" s="7"/>
@@ -9630,10 +9773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L2815"/>
+  <dimension ref="A1:L2695"/>
   <sheetViews>
-    <sheetView topLeftCell="B2521" workbookViewId="0">
-      <selection activeCell="B2545" sqref="B2545"/>
+    <sheetView tabSelected="1" topLeftCell="A2639" workbookViewId="0">
+      <selection activeCell="E2657" sqref="E2657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29189,7 +29332,7 @@
         <v>2590</v>
       </c>
       <c r="F2522" t="s">
-        <v>2712</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="2523" spans="1:6">
@@ -29200,7 +29343,7 @@
         <v>2591</v>
       </c>
       <c r="F2523" t="s">
-        <v>2713</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="2524" spans="1:6">
@@ -29379,7 +29522,7 @@
     </row>
     <row r="2542" spans="1:6">
       <c r="F2542" t="s">
-        <v>2714</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="2543" spans="1:6">
@@ -29389,1362 +29532,1227 @@
     </row>
     <row r="2544" spans="1:6">
       <c r="F2544" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="2545" spans="6:6">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2545" spans="2:6">
       <c r="F2545" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="2546" spans="6:6">
+    <row r="2546" spans="2:6">
       <c r="F2546" t="s">
         <v>2619</v>
       </c>
     </row>
-    <row r="2547" spans="6:6">
+    <row r="2547" spans="2:6">
       <c r="F2547" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="2548" spans="6:6">
+    <row r="2548" spans="2:6">
       <c r="F2548" t="s">
         <v>2620</v>
       </c>
     </row>
-    <row r="2549" spans="6:6">
+    <row r="2549" spans="2:6">
       <c r="F2549" t="s">
         <v>2462</v>
       </c>
     </row>
-    <row r="2550" spans="6:6">
+    <row r="2550" spans="2:6">
       <c r="F2550" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="2551" spans="6:6">
+    <row r="2551" spans="2:6">
       <c r="F2551" t="s">
         <v>2622</v>
       </c>
     </row>
-    <row r="2552" spans="6:6">
+    <row r="2552" spans="2:6">
       <c r="F2552" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="2553" spans="6:6">
+    <row r="2553" spans="2:6" ht="16" thickBot="1">
       <c r="F2553" t="s">
         <v>2623</v>
       </c>
     </row>
-    <row r="2554" spans="6:6">
+    <row r="2554" spans="2:6" ht="17" thickTop="1" thickBot="1">
+      <c r="B2554" s="1" t="s">
+        <v>2515</v>
+      </c>
       <c r="F2554" t="s">
         <v>2462</v>
       </c>
     </row>
-    <row r="2555" spans="6:6">
+    <row r="2555" spans="2:6" ht="16" thickTop="1">
       <c r="F2555" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="2556" spans="6:6">
+    <row r="2556" spans="2:6">
+      <c r="B2556" t="s">
+        <v>129</v>
+      </c>
       <c r="F2556" t="s">
         <v>2624</v>
       </c>
     </row>
-    <row r="2557" spans="6:6">
+    <row r="2557" spans="2:6">
+      <c r="B2557" t="s">
+        <v>130</v>
+      </c>
       <c r="F2557" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="2558" spans="6:6">
+    <row r="2558" spans="2:6">
+      <c r="B2558" t="s">
+        <v>924</v>
+      </c>
       <c r="F2558" t="s">
         <v>2620</v>
       </c>
     </row>
-    <row r="2559" spans="6:6">
+    <row r="2559" spans="2:6">
+      <c r="B2559" t="s">
+        <v>925</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>2698</v>
+      </c>
       <c r="F2559" t="s">
         <v>2497</v>
       </c>
     </row>
-    <row r="2560" spans="6:6">
+    <row r="2560" spans="2:6">
+      <c r="B2560" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>2699</v>
+      </c>
       <c r="F2560" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="2561" spans="6:6">
+    <row r="2561" spans="1:6">
+      <c r="C2561" t="s">
+        <v>2700</v>
+      </c>
       <c r="F2561" t="s">
         <v>2625</v>
       </c>
     </row>
-    <row r="2562" spans="6:6">
+    <row r="2562" spans="1:6">
+      <c r="A2562" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>2701</v>
+      </c>
       <c r="F2562" t="s">
         <v>2626</v>
       </c>
     </row>
-    <row r="2563" spans="6:6">
+    <row r="2563" spans="1:6">
+      <c r="A2563">
+        <v>14</v>
+      </c>
+      <c r="B2563" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>2702</v>
+      </c>
       <c r="F2563" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="2564" spans="6:6">
+    <row r="2564" spans="1:6">
+      <c r="A2564">
+        <v>17</v>
+      </c>
+      <c r="B2564" s="16" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>2703</v>
+      </c>
       <c r="F2564" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="2565" spans="6:6">
-      <c r="F2565" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="2566" spans="6:6">
-      <c r="F2566" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="2567" spans="6:6">
-      <c r="F2567" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="2568" spans="6:6">
-      <c r="F2568" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2569" spans="6:6">
-      <c r="F2569" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2570" spans="6:6">
-      <c r="F2570" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2571" spans="6:6">
-      <c r="F2571" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2572" spans="6:6">
-      <c r="F2572" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="2573" spans="6:6">
-      <c r="F2573" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2574" spans="6:6">
-      <c r="F2574" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2575" spans="6:6">
-      <c r="F2575" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2576" spans="6:6">
-      <c r="F2576" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2577" spans="6:6">
-      <c r="F2577" t="s">
+    <row r="2565" spans="1:6">
+      <c r="A2565">
+        <v>18</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:6">
+      <c r="A2566">
+        <v>36</v>
+      </c>
+      <c r="B2566" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6">
+      <c r="A2567">
+        <v>449</v>
+      </c>
+      <c r="B2567" s="28" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6">
+      <c r="A2568">
+        <v>460</v>
+      </c>
+      <c r="B2568" s="12" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6">
+      <c r="A2569">
+        <v>492</v>
+      </c>
+      <c r="B2569" s="12" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6">
+      <c r="A2570">
+        <v>495</v>
+      </c>
+      <c r="B2570" s="16" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:6">
+      <c r="A2571">
+        <v>496</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:6">
+      <c r="A2572">
+        <v>497</v>
+      </c>
+      <c r="B2572" s="27" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:6">
+      <c r="A2573">
+        <v>498</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:6">
+      <c r="A2574">
+        <v>499</v>
+      </c>
+      <c r="B2574" s="27" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:6">
+      <c r="A2575">
+        <v>511</v>
+      </c>
+      <c r="B2575" s="28" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:6">
+      <c r="A2576">
+        <v>1933</v>
+      </c>
+      <c r="B2576" s="28" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3">
+      <c r="A2577">
+        <v>1951</v>
+      </c>
+      <c r="B2577" s="12" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3">
+      <c r="A2578">
+        <v>1954</v>
+      </c>
+      <c r="B2578" s="16" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3">
+      <c r="A2579">
+        <v>1967</v>
+      </c>
+      <c r="B2579" s="28" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3">
+      <c r="A2580">
+        <v>3644</v>
+      </c>
+      <c r="B2580" s="28" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3">
+      <c r="A2581">
+        <v>3655</v>
+      </c>
+      <c r="B2581" s="12" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3">
+      <c r="A2582">
+        <v>3663</v>
+      </c>
+      <c r="B2582" s="12" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3">
+      <c r="A2583">
+        <v>3666</v>
+      </c>
+      <c r="B2583" s="16" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3">
+      <c r="A2584">
+        <v>3667</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3">
+      <c r="A2585">
+        <v>3668</v>
+      </c>
+      <c r="B2585" s="27" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3">
+      <c r="A2586">
+        <v>3669</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3">
+      <c r="A2587">
+        <v>3670</v>
+      </c>
+      <c r="B2587" s="27" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3">
+      <c r="A2588">
+        <v>3677</v>
+      </c>
+      <c r="B2588" s="28" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3">
+      <c r="A2589">
+        <v>3992</v>
+      </c>
+      <c r="B2589" s="28" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3">
+      <c r="A2590">
+        <v>3996</v>
+      </c>
+      <c r="B2590" s="12" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3">
+      <c r="A2591">
+        <v>4004</v>
+      </c>
+      <c r="B2591" s="12" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3">
+      <c r="A2592">
+        <v>4030</v>
+      </c>
+      <c r="B2592" s="12" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593">
+        <v>4033</v>
+      </c>
+      <c r="B2593" s="16" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594">
+        <v>4034</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595">
+        <v>4041</v>
+      </c>
+      <c r="B2595" s="28" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596">
+        <v>4383</v>
+      </c>
+      <c r="B2596" s="28" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597">
+        <v>4404</v>
+      </c>
+      <c r="B2597" s="12" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598">
+        <v>4407</v>
+      </c>
+      <c r="B2598" s="16" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599">
+        <v>4840</v>
+      </c>
+      <c r="B2599" s="28" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600">
+        <v>4844</v>
+      </c>
+      <c r="B2600" s="12" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601">
+        <v>4849</v>
+      </c>
+      <c r="B2601" s="28" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602">
+        <v>4870</v>
+      </c>
+      <c r="B2602" s="12" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603">
+        <v>4873</v>
+      </c>
+      <c r="B2603" s="16" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604">
+        <v>4874</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605">
+        <v>4875</v>
+      </c>
+      <c r="B2605" s="27" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606">
+        <v>4876</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607">
+        <v>4877</v>
+      </c>
+      <c r="B2607" s="27" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608">
+        <v>4883</v>
+      </c>
+      <c r="B2608" s="28" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609">
+        <v>5639</v>
+      </c>
+      <c r="B2609" s="28" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610">
+        <v>5660</v>
+      </c>
+      <c r="B2610" s="12" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611">
+        <v>5663</v>
+      </c>
+      <c r="B2611" s="16" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612">
+        <v>5670</v>
+      </c>
+      <c r="B2612" s="28" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613">
+        <v>5673</v>
+      </c>
+      <c r="B2613" s="28" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614">
+        <v>5674</v>
+      </c>
+      <c r="B2614" s="12" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615">
+        <v>5690</v>
+      </c>
+      <c r="B2615" s="12" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616">
+        <v>5693</v>
+      </c>
+      <c r="B2616" s="16" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617">
+        <v>5699</v>
+      </c>
+      <c r="B2617" s="28" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618">
+        <v>5711</v>
+      </c>
+      <c r="B2618" s="16" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619">
+        <v>5715</v>
+      </c>
+      <c r="B2619" s="28" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620">
+        <v>6947</v>
+      </c>
+      <c r="B2620" s="28" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621">
+        <v>6962</v>
+      </c>
+      <c r="B2621" s="12" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622">
+        <v>6965</v>
+      </c>
+      <c r="B2622" s="16" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623">
+        <v>7407</v>
+      </c>
+      <c r="B2623" s="28" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624">
+        <v>7411</v>
+      </c>
+      <c r="B2624" s="12" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3">
+      <c r="A2625">
+        <v>7431</v>
+      </c>
+      <c r="B2625" s="12" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3">
+      <c r="A2626">
+        <v>7434</v>
+      </c>
+      <c r="B2626" s="16" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3">
+      <c r="A2627">
+        <v>7435</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3">
+      <c r="A2628">
+        <v>7436</v>
+      </c>
+      <c r="B2628" s="27" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3">
+      <c r="A2629">
+        <v>7437</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3">
+      <c r="A2630">
+        <v>7443</v>
+      </c>
+      <c r="B2630" s="28" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3">
+      <c r="A2631">
+        <v>10377</v>
+      </c>
+      <c r="B2631" s="28" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3" ht="16" thickBot="1"/>
+    <row r="2641" spans="1:3" ht="17" thickTop="1" thickBot="1">
+      <c r="B2641" s="1" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3" ht="16" thickTop="1"/>
+    <row r="2643" spans="1:3">
+      <c r="B2643" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3">
+      <c r="B2644" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3">
+      <c r="B2645" t="s">
+        <v>924</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3">
+      <c r="B2646" t="s">
+        <v>925</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3">
+      <c r="B2647" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3">
+      <c r="C2648" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3">
+      <c r="A2649" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3">
+      <c r="A2650">
+        <v>14</v>
+      </c>
+      <c r="B2650" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3">
+      <c r="A2651">
+        <v>17</v>
+      </c>
+      <c r="B2651" s="16" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="2578" spans="6:6">
-      <c r="F2578" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2579" spans="6:6">
-      <c r="F2579" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2580" spans="6:6">
-      <c r="F2580" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2581" spans="6:6">
-      <c r="F2581" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2582" spans="6:6">
-      <c r="F2582" t="s">
+      <c r="C2651" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652">
+        <v>18</v>
+      </c>
+      <c r="B2652" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="2583" spans="6:6">
-      <c r="F2583" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="2584" spans="6:6">
-      <c r="F2584" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2585" spans="6:6">
-      <c r="F2585" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2586" spans="6:6">
-      <c r="F2586" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="2587" spans="6:6">
-      <c r="F2587" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="2588" spans="6:6">
-      <c r="F2588" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="2589" spans="6:6">
-      <c r="F2589" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2590" spans="6:6">
-      <c r="F2590" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2591" spans="6:6">
-      <c r="F2591" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2592" spans="6:6">
-      <c r="F2592" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2593" spans="6:6">
-      <c r="F2593" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="2594" spans="6:6">
-      <c r="F2594" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2595" spans="6:6">
-      <c r="F2595" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2596" spans="6:6">
-      <c r="F2596" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2597" spans="6:6">
-      <c r="F2597" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2598" spans="6:6">
-      <c r="F2598" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="2599" spans="6:6">
-      <c r="F2599" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2600" spans="6:6">
-      <c r="F2600" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2601" spans="6:6">
-      <c r="F2601" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2602" spans="6:6">
-      <c r="F2602" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2603" spans="6:6">
-      <c r="F2603" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="2604" spans="6:6">
-      <c r="F2604" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="2605" spans="6:6">
-      <c r="F2605" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2606" spans="6:6">
-      <c r="F2606" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2607" spans="6:6">
-      <c r="F2607" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="2608" spans="6:6">
-      <c r="F2608" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="2609" spans="6:6">
-      <c r="F2609" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="2610" spans="6:6">
-      <c r="F2610" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2611" spans="6:6">
-      <c r="F2611" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2612" spans="6:6">
-      <c r="F2612" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2613" spans="6:6">
-      <c r="F2613" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2614" spans="6:6">
-      <c r="F2614" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="2615" spans="6:6">
-      <c r="F2615" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2616" spans="6:6">
-      <c r="F2616" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2617" spans="6:6">
-      <c r="F2617" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2618" spans="6:6">
-      <c r="F2618" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2619" spans="6:6">
-      <c r="F2619" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="2620" spans="6:6">
-      <c r="F2620" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2621" spans="6:6">
-      <c r="F2621" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2622" spans="6:6">
-      <c r="F2622" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2623" spans="6:6">
-      <c r="F2623" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2624" spans="6:6">
-      <c r="F2624" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="2625" spans="6:6">
-      <c r="F2625" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="2626" spans="6:6">
-      <c r="F2626" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2627" spans="6:6">
-      <c r="F2627" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2628" spans="6:6">
-      <c r="F2628" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="2629" spans="6:6">
-      <c r="F2629" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="2630" spans="6:6">
-      <c r="F2630" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="2631" spans="6:6">
-      <c r="F2631" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2632" spans="6:6">
-      <c r="F2632" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2633" spans="6:6">
-      <c r="F2633" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2634" spans="6:6">
-      <c r="F2634" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2635" spans="6:6">
-      <c r="F2635" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="2636" spans="6:6">
-      <c r="F2636" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2637" spans="6:6">
-      <c r="F2637" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2638" spans="6:6">
-      <c r="F2638" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2639" spans="6:6">
-      <c r="F2639" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2640" spans="6:6">
-      <c r="F2640" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="2641" spans="6:6">
-      <c r="F2641" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2642" spans="6:6">
-      <c r="F2642" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2643" spans="6:6">
-      <c r="F2643" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2644" spans="6:6">
-      <c r="F2644" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2645" spans="6:6">
-      <c r="F2645" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="2646" spans="6:6">
-      <c r="F2646" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="2647" spans="6:6">
-      <c r="F2647" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2648" spans="6:6">
-      <c r="F2648" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2649" spans="6:6">
-      <c r="F2649" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="2650" spans="6:6">
-      <c r="F2650" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="2651" spans="6:6">
-      <c r="F2651" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="2652" spans="6:6">
-      <c r="F2652" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2653" spans="6:6">
-      <c r="F2653" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2654" spans="6:6">
-      <c r="F2654" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2655" spans="6:6">
-      <c r="F2655" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2656" spans="6:6">
-      <c r="F2656" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="2657" spans="6:6">
-      <c r="F2657" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2658" spans="6:6">
-      <c r="F2658" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2659" spans="6:6">
-      <c r="F2659" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2660" spans="6:6">
-      <c r="F2660" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2661" spans="6:6">
-      <c r="F2661" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="2662" spans="6:6">
-      <c r="F2662" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2663" spans="6:6">
-      <c r="F2663" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2664" spans="6:6">
-      <c r="F2664" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2665" spans="6:6">
-      <c r="F2665" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2666" spans="6:6">
-      <c r="F2666" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="2667" spans="6:6">
-      <c r="F2667" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="2668" spans="6:6">
-      <c r="F2668" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2669" spans="6:6">
-      <c r="F2669" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2670" spans="6:6">
-      <c r="F2670" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="2671" spans="6:6">
-      <c r="F2671" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="2672" spans="6:6">
-      <c r="F2672" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="2673" spans="6:6">
-      <c r="F2673" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2674" spans="6:6">
-      <c r="F2674" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2675" spans="6:6">
-      <c r="F2675" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2676" spans="6:6">
-      <c r="F2676" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2677" spans="6:6">
-      <c r="F2677" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="2678" spans="6:6">
-      <c r="F2678" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2679" spans="6:6">
-      <c r="F2679" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2680" spans="6:6">
-      <c r="F2680" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2681" spans="6:6">
-      <c r="F2681" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2682" spans="6:6">
-      <c r="F2682" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="2683" spans="6:6">
-      <c r="F2683" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2684" spans="6:6">
-      <c r="F2684" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2685" spans="6:6">
-      <c r="F2685" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2686" spans="6:6">
-      <c r="F2686" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2687" spans="6:6">
-      <c r="F2687" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="2688" spans="6:6">
-      <c r="F2688" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="2689" spans="6:6">
-      <c r="F2689" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2690" spans="6:6">
-      <c r="F2690" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2691" spans="6:6">
-      <c r="F2691" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="2692" spans="6:6">
-      <c r="F2692" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="2693" spans="6:6">
-      <c r="F2693" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="2694" spans="6:6">
-      <c r="F2694" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2695" spans="6:6">
-      <c r="F2695" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2696" spans="6:6">
-      <c r="F2696" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2697" spans="6:6">
-      <c r="F2697" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2698" spans="6:6">
-      <c r="F2698" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="2699" spans="6:6">
-      <c r="F2699" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2700" spans="6:6">
-      <c r="F2700" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2701" spans="6:6">
-      <c r="F2701" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2702" spans="6:6">
-      <c r="F2702" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2703" spans="6:6">
-      <c r="F2703" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="2704" spans="6:6">
-      <c r="F2704" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2705" spans="6:6">
-      <c r="F2705" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2706" spans="6:6">
-      <c r="F2706" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2707" spans="6:6">
-      <c r="F2707" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2708" spans="6:6">
-      <c r="F2708" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="2709" spans="6:6">
-      <c r="F2709" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="2710" spans="6:6">
-      <c r="F2710" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2711" spans="6:6">
-      <c r="F2711" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2712" spans="6:6">
-      <c r="F2712" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="2713" spans="6:6">
-      <c r="F2713" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="2714" spans="6:6">
-      <c r="F2714" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="2715" spans="6:6">
-      <c r="F2715" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2716" spans="6:6">
-      <c r="F2716" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2717" spans="6:6">
-      <c r="F2717" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2718" spans="6:6">
-      <c r="F2718" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2719" spans="6:6">
-      <c r="F2719" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="2720" spans="6:6">
-      <c r="F2720" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2721" spans="6:6">
-      <c r="F2721" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2722" spans="6:6">
-      <c r="F2722" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2723" spans="6:6">
-      <c r="F2723" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2724" spans="6:6">
-      <c r="F2724" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="2725" spans="6:6">
-      <c r="F2725" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2726" spans="6:6">
-      <c r="F2726" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2727" spans="6:6">
-      <c r="F2727" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2728" spans="6:6">
-      <c r="F2728" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2729" spans="6:6">
-      <c r="F2729" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="2730" spans="6:6">
-      <c r="F2730" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="2731" spans="6:6">
-      <c r="F2731" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2732" spans="6:6">
-      <c r="F2732" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2733" spans="6:6">
-      <c r="F2733" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="2734" spans="6:6">
-      <c r="F2734" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="2735" spans="6:6">
-      <c r="F2735" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="2736" spans="6:6">
-      <c r="F2736" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2737" spans="6:6">
-      <c r="F2737" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2738" spans="6:6">
-      <c r="F2738" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2739" spans="6:6">
-      <c r="F2739" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2740" spans="6:6">
-      <c r="F2740" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="2741" spans="6:6">
-      <c r="F2741" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2742" spans="6:6">
-      <c r="F2742" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2743" spans="6:6">
-      <c r="F2743" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2744" spans="6:6">
-      <c r="F2744" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2745" spans="6:6">
-      <c r="F2745" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="2746" spans="6:6">
-      <c r="F2746" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2747" spans="6:6">
-      <c r="F2747" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2748" spans="6:6">
-      <c r="F2748" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2749" spans="6:6">
-      <c r="F2749" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2750" spans="6:6">
-      <c r="F2750" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="2751" spans="6:6">
-      <c r="F2751" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="2752" spans="6:6">
-      <c r="F2752" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2753" spans="6:6">
-      <c r="F2753" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2754" spans="6:6">
-      <c r="F2754" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="2755" spans="6:6">
-      <c r="F2755" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="2756" spans="6:6">
-      <c r="F2756" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="2757" spans="6:6">
-      <c r="F2757" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2758" spans="6:6">
-      <c r="F2758" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2759" spans="6:6">
-      <c r="F2759" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2760" spans="6:6">
-      <c r="F2760" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2761" spans="6:6">
-      <c r="F2761" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="2762" spans="6:6">
-      <c r="F2762" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2763" spans="6:6">
-      <c r="F2763" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2764" spans="6:6">
-      <c r="F2764" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2765" spans="6:6">
-      <c r="F2765" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2766" spans="6:6">
-      <c r="F2766" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="2767" spans="6:6">
-      <c r="F2767" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2768" spans="6:6">
-      <c r="F2768" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2769" spans="6:6">
-      <c r="F2769" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2770" spans="6:6">
-      <c r="F2770" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2771" spans="6:6">
-      <c r="F2771" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="2772" spans="6:6">
-      <c r="F2772" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="2773" spans="6:6">
-      <c r="F2773" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2774" spans="6:6">
-      <c r="F2774" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2775" spans="6:6">
-      <c r="F2775" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="2776" spans="6:6">
-      <c r="F2776" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="2777" spans="6:6">
-      <c r="F2777" t="s">
+      <c r="C2652" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653">
+        <v>36</v>
+      </c>
+      <c r="B2653" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654">
+        <v>452</v>
+      </c>
+      <c r="B2654" s="28" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655">
+        <v>463</v>
+      </c>
+      <c r="B2655" s="12" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656">
+        <v>495</v>
+      </c>
+      <c r="B2656" s="12" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657">
+        <v>498</v>
+      </c>
+      <c r="B2657" s="16" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658">
+        <v>499</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659">
+        <v>500</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660">
+        <v>501</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661">
+        <v>502</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662">
+        <v>514</v>
+      </c>
+      <c r="B2662" s="28" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663">
+        <v>2890</v>
+      </c>
+      <c r="B2663" s="28" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664">
+        <v>2911</v>
+      </c>
+      <c r="B2664" s="12" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665">
+        <v>2914</v>
+      </c>
+      <c r="B2665" s="16" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666">
+        <v>3320</v>
+      </c>
+      <c r="B2666" s="28" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667">
+        <v>3353</v>
+      </c>
+      <c r="B2667" s="28" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668">
+        <v>3364</v>
+      </c>
+      <c r="B2668" s="12" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669">
+        <v>3390</v>
+      </c>
+      <c r="B2669" s="12" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670">
+        <v>3393</v>
+      </c>
+      <c r="B2670" s="16" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671">
+        <v>3394</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672">
+        <v>3395</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673">
+        <v>3396</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674">
+        <v>3402</v>
+      </c>
+      <c r="B2674" s="28" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675">
+        <v>3600</v>
+      </c>
+      <c r="B2675" s="28" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676">
+        <v>3621</v>
+      </c>
+      <c r="B2676" s="12" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677">
+        <v>3624</v>
+      </c>
+      <c r="B2677" s="16" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678">
+        <v>3631</v>
+      </c>
+      <c r="B2678" s="28" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679">
+        <v>3634</v>
+      </c>
+      <c r="B2679" s="28" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680">
+        <v>3635</v>
+      </c>
+      <c r="B2680" s="12" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681">
+        <v>3657</v>
+      </c>
+      <c r="B2681" s="12" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2681" t="s">
         <v>2699</v>
       </c>
     </row>
-    <row r="2778" spans="6:6">
-      <c r="F2778" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2779" spans="6:6">
-      <c r="F2779" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2780" spans="6:6">
-      <c r="F2780" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2781" spans="6:6">
-      <c r="F2781" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2782" spans="6:6">
-      <c r="F2782" t="s">
+    <row r="2682" spans="1:3">
+      <c r="A2682">
+        <v>3660</v>
+      </c>
+      <c r="B2682" s="16" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683">
+        <v>3666</v>
+      </c>
+      <c r="B2683" s="28" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684">
+        <v>3678</v>
+      </c>
+      <c r="B2684" s="16" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685">
+        <v>3694</v>
+      </c>
+      <c r="B2685" s="16" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686">
+        <v>3698</v>
+      </c>
+      <c r="B2686" s="28" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687">
+        <v>3719</v>
+      </c>
+      <c r="B2687" s="12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688">
+        <v>3722</v>
+      </c>
+      <c r="B2688" s="16" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689">
+        <v>4164</v>
+      </c>
+      <c r="B2689" s="28" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690">
+        <v>4168</v>
+      </c>
+      <c r="B2690" s="12" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691">
+        <v>4188</v>
+      </c>
+      <c r="B2691" s="12" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C2691" t="s">
         <v>2700</v>
       </c>
     </row>
-    <row r="2783" spans="6:6">
-      <c r="F2783" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2784" spans="6:6">
-      <c r="F2784" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2785" spans="6:6">
-      <c r="F2785" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2786" spans="6:6">
-      <c r="F2786" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2787" spans="6:6">
-      <c r="F2787" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="2788" spans="6:6">
-      <c r="F2788" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2789" spans="6:6">
-      <c r="F2789" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2790" spans="6:6">
-      <c r="F2790" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2791" spans="6:6">
-      <c r="F2791" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2792" spans="6:6">
-      <c r="F2792" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="2793" spans="6:6">
-      <c r="F2793" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="2794" spans="6:6">
-      <c r="F2794" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2795" spans="6:6">
-      <c r="F2795" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2796" spans="6:6">
-      <c r="F2796" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="2797" spans="6:6">
-      <c r="F2797" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="2798" spans="6:6">
-      <c r="F2798" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="2799" spans="6:6">
-      <c r="F2799" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2800" spans="6:6">
-      <c r="F2800" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2801" spans="6:6">
-      <c r="F2801" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2802" spans="6:6">
-      <c r="F2802" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2803" spans="6:6">
-      <c r="F2803" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="2804" spans="6:6">
-      <c r="F2804" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2805" spans="6:6">
-      <c r="F2805" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2806" spans="6:6">
-      <c r="F2806" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2807" spans="6:6">
-      <c r="F2807" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2808" spans="6:6">
-      <c r="F2808" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="2809" spans="6:6">
-      <c r="F2809" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2810" spans="6:6">
-      <c r="F2810" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2811" spans="6:6">
-      <c r="F2811" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2812" spans="6:6">
-      <c r="F2812" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2813" spans="6:6">
-      <c r="F2813" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="2814" spans="6:6">
-      <c r="F2814" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="2815" spans="6:6">
-      <c r="F2815" t="s">
-        <v>2711</v>
+    <row r="2692" spans="1:3">
+      <c r="A2692">
+        <v>4191</v>
+      </c>
+      <c r="B2692" s="16" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693">
+        <v>4192</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694">
+        <v>4193</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695">
+        <v>4199</v>
+      </c>
+      <c r="B2695" s="28" t="s">
+        <v>2750</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A868CA1-9BF5-AE4A-8681-FD1886832334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53A6D8-D0DA-074E-BC18-F282BFC4D73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ThingsToTry" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2649:$B$2695</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2709:$B$2781</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2844">
   <si>
     <t>trigOnly</t>
   </si>
@@ -8530,9 +8530,6 @@
     <t>RBG_waitForInput</t>
   </si>
   <si>
-    <t>foundRow</t>
-  </si>
-  <si>
     <t>need a way to start the first row</t>
   </si>
   <si>
@@ -8586,6 +8583,222 @@
   </si>
   <si>
     <t>if foundInputRow != mNone, myState Row = foundInput</t>
+  </si>
+  <si>
+    <t>complete re-organization: major re-write, depend on rows not state inproc</t>
+  </si>
+  <si>
+    <t>15: RBG_startEffectSound ln 428 EFCT num 40 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>16: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>31:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>679:DEBUG loop() - nowVinputRBG 0x40 loopCount 65</t>
+  </si>
+  <si>
+    <t>692:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 0 foundInputRow 1 loopCount 65</t>
+  </si>
+  <si>
+    <t>722:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 67</t>
+  </si>
+  <si>
+    <t>726: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 68</t>
+  </si>
+  <si>
+    <t>728:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>727: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>729: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>730:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>740:DEBUG loop() - nowVinputRBG 0x240 loopCount 69</t>
+  </si>
+  <si>
+    <t>3575:DEBUG loop() - nowVinputRBG 0x40 loopCount 258</t>
+  </si>
+  <si>
+    <t>3593: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 258</t>
+  </si>
+  <si>
+    <t>3594: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>3595:Number:102 Play Finished!</t>
+  </si>
+  <si>
+    <t>3598:DEBUG loop() - nowVinputRBG 0x240 loopCount 259</t>
+  </si>
+  <si>
+    <t>6436:DEBUG loop() - nowVinputRBG 0x40 loopCount 449</t>
+  </si>
+  <si>
+    <t>6454: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 449</t>
+  </si>
+  <si>
+    <t>6455: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>6456:Number:102 Play Finished!</t>
+  </si>
+  <si>
+    <t>6459:DEBUG loop() - nowVinputRBG 0x240 loopCount 450</t>
+  </si>
+  <si>
+    <t>7059:DEBUG loop() - nowVinputRBG 0x260 loopCount 490</t>
+  </si>
+  <si>
+    <t>7074:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 490</t>
+  </si>
+  <si>
+    <t>7078: RBG_startEffectSound ln 428 EFCT num 0 final num 1 loopCount 491</t>
+  </si>
+  <si>
+    <t>7079: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>7080:Number:102 Play Finished!</t>
+  </si>
+  <si>
+    <t>7090:DEBUG loop() - nowVinputRBG 0x240 loopCount 492</t>
+  </si>
+  <si>
+    <t>9734:DEBUG loop() - nowVinputRBG 0x40 loopCount 757</t>
+  </si>
+  <si>
+    <t>9747:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 7 foundInputRow 8 loopCount 757</t>
+  </si>
+  <si>
+    <t>9771:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 9 loopCount 759</t>
+  </si>
+  <si>
+    <t>9775: RBG_startEffectSound ln 428 EFCT num 10 final num 11 loopCount 760</t>
+  </si>
+  <si>
+    <t>9776: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>9777:Number:102 Play Finished!</t>
+  </si>
+  <si>
+    <t>9778: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>9779:Number:1 Play Finished!</t>
+  </si>
+  <si>
+    <t>9789:DEBUG loop() - nowVinputRBG 0x240 loopCount 761</t>
+  </si>
+  <si>
+    <t>10283:DEBUG loop() - nowVinputRBG 0x40 loopCount 811</t>
+  </si>
+  <si>
+    <t>10296:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 811</t>
+  </si>
+  <si>
+    <t>10320:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 1 loopCount 813</t>
+  </si>
+  <si>
+    <t>10350:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 815</t>
+  </si>
+  <si>
+    <t>10354: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 816</t>
+  </si>
+  <si>
+    <t>10355: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>10356:Number:1 Play Finished!</t>
+  </si>
+  <si>
+    <t>10357: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>10358:Number:11 Play Finished!</t>
+  </si>
+  <si>
+    <t>10368:DEBUG loop() - nowVinputRBG 0x240 loopCount 817</t>
+  </si>
+  <si>
+    <t>10968:DEBUG loop() - nowVinputRBG 0x280 loopCount 857</t>
+  </si>
+  <si>
+    <t>10987:DEBUG RBG_processStateTable() - tmpVinputRBG 0x280 from row 5 foundInputRow 11 loopCount 857</t>
+  </si>
+  <si>
+    <t>10991: RBG_startEffectSound ln 428 EFCT num 20 final num 21 loopCount 858</t>
+  </si>
+  <si>
+    <t>11664:DEBUG loop() - nowVinputRBG 0x80 loopCount 926</t>
+  </si>
+  <si>
+    <t>11677:DEBUG RBG_processStateTable() - tmpVinputRBG 0x80 from row 11 foundInputRow 1 loopCount 926</t>
+  </si>
+  <si>
+    <t>11701:DEBUG RBG_processStateTable() - tmpVinputRBG 0x80 from row 1 foundInputRow 3 loopCount 928</t>
+  </si>
+  <si>
+    <t>11705: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 929</t>
+  </si>
+  <si>
+    <t>11706: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>11707:Number:21 Play Finished!</t>
+  </si>
+  <si>
+    <t>11708: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>11709:Number:21 Play Finished!</t>
+  </si>
+  <si>
+    <t>11719:DEBUG loop() - nowVinputRBG 0x280 loopCount 930</t>
+  </si>
+  <si>
+    <t>11944:DEBUG loop() - nowVinputRBG 0x240 loopCount 945</t>
+  </si>
+  <si>
+    <t>11963:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 3 foundInputRow 13 loopCount 945</t>
+  </si>
+  <si>
+    <t>11967: RBG_startEffectSound ln 428 EFCT num 30 final num 31 loopCount 946</t>
+  </si>
+  <si>
+    <t>12657:DEBUG loop() - nowVinputRBG 0x40 loopCount 1015</t>
+  </si>
+  <si>
+    <t>12670:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 13 foundInputRow 1 loopCount 1015</t>
+  </si>
+  <si>
+    <t>12700:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 1017</t>
+  </si>
+  <si>
+    <t>12704: RBG_startEffectSound ln 428 EFCT num 102 final num 102 loopCount 1018</t>
+  </si>
+  <si>
+    <t>12705: RBG_startEffectSound ln 456 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>12706:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>12707: RBG_startEffectSound ln 463 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>12708:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>12718:DEBUG loop() - nowVinputRBG 0x240 loopCount 1019</t>
   </si>
 </sst>
 </file>
@@ -9185,7 +9398,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9264,7 +9477,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>64</v>
@@ -9328,7 +9541,7 @@
     <row r="4" spans="1:18">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>65</v>
@@ -9366,7 +9579,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>65</v>
@@ -9605,7 +9818,7 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>77</v>
@@ -9628,7 +9841,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>69</v>
@@ -9646,7 +9859,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>75</v>
@@ -9673,7 +9886,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>72</v>
@@ -9693,7 +9906,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>67</v>
@@ -9715,7 +9928,7 @@
     <row r="24" spans="1:14" ht="16">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>67</v>
@@ -9747,7 +9960,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>68</v>
@@ -9764,7 +9977,7 @@
     </row>
     <row r="27" spans="1:14" ht="16">
       <c r="B27" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>68</v>
@@ -9797,10 +10010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9869,7 +10082,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1"/>
@@ -9891,7 +10104,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="C30" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9899,12 +10112,12 @@
         <v>2752</v>
       </c>
       <c r="F31" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="29" customFormat="1">
       <c r="D32" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -9915,27 +10128,27 @@
     <row r="34" spans="2:8" s="29" customFormat="1">
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="29" customFormat="1">
       <c r="D35" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="29" customFormat="1">
       <c r="E36" s="2" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="29" customFormat="1">
       <c r="D37" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="E38" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -9945,35 +10158,30 @@
     </row>
     <row r="41" spans="2:8">
       <c r="C41" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="C42" t="s">
-        <v>2753</v>
+      <c r="D42" t="s">
+        <v>2754</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="D43" t="s">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="D44" t="s">
         <v>2755</v>
       </c>
-      <c r="H44" t="s">
-        <v>2767</v>
+      <c r="H43" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>2752</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>2761</v>
+      <c r="C48" t="s">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -9984,10 +10192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L2695"/>
+  <dimension ref="A1:L2781"/>
   <sheetViews>
-    <sheetView topLeftCell="A2648" workbookViewId="0">
-      <selection activeCell="E2657" sqref="E2657"/>
+    <sheetView tabSelected="1" topLeftCell="A2726" workbookViewId="0">
+      <selection activeCell="B2741" sqref="B2741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -30964,6 +31172,694 @@
       </c>
       <c r="B2695" s="28" t="s">
         <v>2748</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3" ht="16" thickBot="1"/>
+    <row r="2701" spans="1:3" ht="17" thickTop="1" thickBot="1">
+      <c r="B2701" s="1" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3" ht="16" thickTop="1"/>
+    <row r="2703" spans="1:3">
+      <c r="B2703" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3">
+      <c r="B2704" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:2">
+      <c r="B2705" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:2">
+      <c r="B2706" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:2">
+      <c r="B2707" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:2">
+      <c r="A2709" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:2">
+      <c r="A2710">
+        <f>0+LEFT(B2710,FIND(":",B2710)-1)</f>
+        <v>14</v>
+      </c>
+      <c r="B2710" s="28" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:2">
+      <c r="A2711">
+        <f>0+LEFT(B2711,FIND(":",B2711)-1)</f>
+        <v>15</v>
+      </c>
+      <c r="B2711" s="16" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:2">
+      <c r="A2712">
+        <f>0+LEFT(B2712,FIND(":",B2712)-1)</f>
+        <v>16</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:2">
+      <c r="A2713">
+        <f>0+LEFT(B2713,FIND(":",B2713)-1)</f>
+        <v>31</v>
+      </c>
+      <c r="B2713" s="28" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:2">
+      <c r="A2714">
+        <f>0+LEFT(B2714,FIND(":",B2714)-1)</f>
+        <v>679</v>
+      </c>
+      <c r="B2714" s="28" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:2">
+      <c r="A2715">
+        <f>0+LEFT(B2715,FIND(":",B2715)-1)</f>
+        <v>692</v>
+      </c>
+      <c r="B2715" s="12" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:2">
+      <c r="A2716">
+        <f>0+LEFT(B2716,FIND(":",B2716)-1)</f>
+        <v>722</v>
+      </c>
+      <c r="B2716" s="12" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2">
+      <c r="A2717">
+        <f>0+LEFT(B2717,FIND(":",B2717)-1)</f>
+        <v>726</v>
+      </c>
+      <c r="B2717" s="16" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2">
+      <c r="A2718">
+        <f>0+LEFT(B2718,FIND(":",B2718)-1)</f>
+        <v>727</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2">
+      <c r="A2719">
+        <f>0+LEFT(B2719,FIND(":",B2719)-1)</f>
+        <v>728</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2">
+      <c r="A2720">
+        <f>0+LEFT(B2720,FIND(":",B2720)-1)</f>
+        <v>729</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2">
+      <c r="A2721">
+        <f>0+LEFT(B2721,FIND(":",B2721)-1)</f>
+        <v>730</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2">
+      <c r="A2722">
+        <f>0+LEFT(B2722,FIND(":",B2722)-1)</f>
+        <v>740</v>
+      </c>
+      <c r="B2722" s="28" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2">
+      <c r="A2723">
+        <f>0+LEFT(B2723,FIND(":",B2723)-1)</f>
+        <v>3575</v>
+      </c>
+      <c r="B2723" s="28" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2">
+      <c r="A2724">
+        <f>0+LEFT(B2724,FIND(":",B2724)-1)</f>
+        <v>3593</v>
+      </c>
+      <c r="B2724" s="16" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2">
+      <c r="A2725">
+        <f>0+LEFT(B2725,FIND(":",B2725)-1)</f>
+        <v>3594</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2">
+      <c r="A2726">
+        <f>0+LEFT(B2726,FIND(":",B2726)-1)</f>
+        <v>3595</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2">
+      <c r="A2727">
+        <f>0+LEFT(B2727,FIND(":",B2727)-1)</f>
+        <v>3598</v>
+      </c>
+      <c r="B2727" s="28" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2">
+      <c r="A2728">
+        <f>0+LEFT(B2728,FIND(":",B2728)-1)</f>
+        <v>6436</v>
+      </c>
+      <c r="B2728" s="28" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2">
+      <c r="A2729">
+        <f>0+LEFT(B2729,FIND(":",B2729)-1)</f>
+        <v>6454</v>
+      </c>
+      <c r="B2729" s="16" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2">
+      <c r="A2730">
+        <f>0+LEFT(B2730,FIND(":",B2730)-1)</f>
+        <v>6455</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2">
+      <c r="A2731">
+        <f>0+LEFT(B2731,FIND(":",B2731)-1)</f>
+        <v>6456</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2">
+      <c r="A2732">
+        <f>0+LEFT(B2732,FIND(":",B2732)-1)</f>
+        <v>6459</v>
+      </c>
+      <c r="B2732" s="28" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2">
+      <c r="A2733">
+        <f>0+LEFT(B2733,FIND(":",B2733)-1)</f>
+        <v>7059</v>
+      </c>
+      <c r="B2733" s="28" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2">
+      <c r="A2734">
+        <f>0+LEFT(B2734,FIND(":",B2734)-1)</f>
+        <v>7074</v>
+      </c>
+      <c r="B2734" s="12" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2">
+      <c r="A2735">
+        <f>0+LEFT(B2735,FIND(":",B2735)-1)</f>
+        <v>7078</v>
+      </c>
+      <c r="B2735" s="16" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:2">
+      <c r="A2736">
+        <f>0+LEFT(B2736,FIND(":",B2736)-1)</f>
+        <v>7079</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:2">
+      <c r="A2737">
+        <f>0+LEFT(B2737,FIND(":",B2737)-1)</f>
+        <v>7080</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:2">
+      <c r="A2738">
+        <f>0+LEFT(B2738,FIND(":",B2738)-1)</f>
+        <v>7090</v>
+      </c>
+      <c r="B2738" s="28" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:2">
+      <c r="A2739">
+        <f>0+LEFT(B2739,FIND(":",B2739)-1)</f>
+        <v>9734</v>
+      </c>
+      <c r="B2739" s="28" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:2">
+      <c r="A2740">
+        <f>0+LEFT(B2740,FIND(":",B2740)-1)</f>
+        <v>9747</v>
+      </c>
+      <c r="B2740" s="12" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:2">
+      <c r="A2741">
+        <f>0+LEFT(B2741,FIND(":",B2741)-1)</f>
+        <v>9771</v>
+      </c>
+      <c r="B2741" s="12" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:2">
+      <c r="A2742">
+        <f>0+LEFT(B2742,FIND(":",B2742)-1)</f>
+        <v>9775</v>
+      </c>
+      <c r="B2742" s="16" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:2">
+      <c r="A2743">
+        <f>0+LEFT(B2743,FIND(":",B2743)-1)</f>
+        <v>9776</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:2">
+      <c r="A2744">
+        <f>0+LEFT(B2744,FIND(":",B2744)-1)</f>
+        <v>9777</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:2">
+      <c r="A2745">
+        <f>0+LEFT(B2745,FIND(":",B2745)-1)</f>
+        <v>9778</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:2">
+      <c r="A2746">
+        <f>0+LEFT(B2746,FIND(":",B2746)-1)</f>
+        <v>9779</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:2">
+      <c r="A2747">
+        <f>0+LEFT(B2747,FIND(":",B2747)-1)</f>
+        <v>9789</v>
+      </c>
+      <c r="B2747" s="28" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:2">
+      <c r="A2748">
+        <f>0+LEFT(B2748,FIND(":",B2748)-1)</f>
+        <v>10283</v>
+      </c>
+      <c r="B2748" s="28" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:2">
+      <c r="A2749">
+        <f>0+LEFT(B2749,FIND(":",B2749)-1)</f>
+        <v>10296</v>
+      </c>
+      <c r="B2749" s="12" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:2">
+      <c r="A2750">
+        <f>0+LEFT(B2750,FIND(":",B2750)-1)</f>
+        <v>10320</v>
+      </c>
+      <c r="B2750" s="12" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:2">
+      <c r="A2751">
+        <f>0+LEFT(B2751,FIND(":",B2751)-1)</f>
+        <v>10350</v>
+      </c>
+      <c r="B2751" s="12" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:2">
+      <c r="A2752">
+        <f>0+LEFT(B2752,FIND(":",B2752)-1)</f>
+        <v>10354</v>
+      </c>
+      <c r="B2752" s="16" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:2">
+      <c r="A2753">
+        <f>0+LEFT(B2753,FIND(":",B2753)-1)</f>
+        <v>10355</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:2">
+      <c r="A2754">
+        <f>0+LEFT(B2754,FIND(":",B2754)-1)</f>
+        <v>10356</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:2">
+      <c r="A2755">
+        <f>0+LEFT(B2755,FIND(":",B2755)-1)</f>
+        <v>10357</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:2">
+      <c r="A2756">
+        <f>0+LEFT(B2756,FIND(":",B2756)-1)</f>
+        <v>10358</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:2">
+      <c r="A2757">
+        <f>0+LEFT(B2757,FIND(":",B2757)-1)</f>
+        <v>10368</v>
+      </c>
+      <c r="B2757" s="28" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:2">
+      <c r="A2758">
+        <f>0+LEFT(B2758,FIND(":",B2758)-1)</f>
+        <v>10968</v>
+      </c>
+      <c r="B2758" s="28" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:2">
+      <c r="A2759">
+        <f>0+LEFT(B2759,FIND(":",B2759)-1)</f>
+        <v>10987</v>
+      </c>
+      <c r="B2759" s="12" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:2">
+      <c r="A2760">
+        <f>0+LEFT(B2760,FIND(":",B2760)-1)</f>
+        <v>10991</v>
+      </c>
+      <c r="B2760" s="16" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:2">
+      <c r="A2761">
+        <f>0+LEFT(B2761,FIND(":",B2761)-1)</f>
+        <v>11664</v>
+      </c>
+      <c r="B2761" s="28" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:2">
+      <c r="A2762">
+        <f>0+LEFT(B2762,FIND(":",B2762)-1)</f>
+        <v>11677</v>
+      </c>
+      <c r="B2762" s="12" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:2">
+      <c r="A2763">
+        <f>0+LEFT(B2763,FIND(":",B2763)-1)</f>
+        <v>11701</v>
+      </c>
+      <c r="B2763" s="12" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:2">
+      <c r="A2764">
+        <f>0+LEFT(B2764,FIND(":",B2764)-1)</f>
+        <v>11705</v>
+      </c>
+      <c r="B2764" s="16" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:2">
+      <c r="A2765">
+        <f>0+LEFT(B2765,FIND(":",B2765)-1)</f>
+        <v>11706</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:2">
+      <c r="A2766">
+        <f>0+LEFT(B2766,FIND(":",B2766)-1)</f>
+        <v>11707</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:2">
+      <c r="A2767">
+        <f>0+LEFT(B2767,FIND(":",B2767)-1)</f>
+        <v>11708</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:2">
+      <c r="A2768">
+        <f>0+LEFT(B2768,FIND(":",B2768)-1)</f>
+        <v>11709</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:2">
+      <c r="A2769">
+        <f>0+LEFT(B2769,FIND(":",B2769)-1)</f>
+        <v>11719</v>
+      </c>
+      <c r="B2769" s="28" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:2">
+      <c r="A2770">
+        <f>0+LEFT(B2770,FIND(":",B2770)-1)</f>
+        <v>11944</v>
+      </c>
+      <c r="B2770" s="28" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:2">
+      <c r="A2771">
+        <f>0+LEFT(B2771,FIND(":",B2771)-1)</f>
+        <v>11963</v>
+      </c>
+      <c r="B2771" s="12" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:2">
+      <c r="A2772">
+        <f>0+LEFT(B2772,FIND(":",B2772)-1)</f>
+        <v>11967</v>
+      </c>
+      <c r="B2772" s="16" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:2">
+      <c r="A2773">
+        <f>0+LEFT(B2773,FIND(":",B2773)-1)</f>
+        <v>12657</v>
+      </c>
+      <c r="B2773" s="28" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:2">
+      <c r="A2774">
+        <f>0+LEFT(B2774,FIND(":",B2774)-1)</f>
+        <v>12670</v>
+      </c>
+      <c r="B2774" s="12" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:2">
+      <c r="A2775">
+        <f>0+LEFT(B2775,FIND(":",B2775)-1)</f>
+        <v>12700</v>
+      </c>
+      <c r="B2775" s="12" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:2">
+      <c r="A2776">
+        <f>0+LEFT(B2776,FIND(":",B2776)-1)</f>
+        <v>12704</v>
+      </c>
+      <c r="B2776" s="16" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:2">
+      <c r="A2777">
+        <f>0+LEFT(B2777,FIND(":",B2777)-1)</f>
+        <v>12705</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:2">
+      <c r="A2778">
+        <f>0+LEFT(B2778,FIND(":",B2778)-1)</f>
+        <v>12706</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:2">
+      <c r="A2779">
+        <f>0+LEFT(B2779,FIND(":",B2779)-1)</f>
+        <v>12707</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:2">
+      <c r="A2780">
+        <f>0+LEFT(B2780,FIND(":",B2780)-1)</f>
+        <v>12708</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:2">
+      <c r="A2781">
+        <f>0+LEFT(B2781,FIND(":",B2781)-1)</f>
+        <v>12718</v>
+      </c>
+      <c r="B2781" s="28" t="s">
+        <v>2843</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53A6D8-D0DA-074E-BC18-F282BFC4D73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45162EBF-4684-9F4F-8965-4317C47BFE39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45162EBF-4684-9F4F-8965-4317C47BFE39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ACC72D-F7F6-FD43-8B8D-9D2E4F8D0791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="ThingsToTry" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2709:$B$2781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2792:$B$2832</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="2886">
   <si>
     <t>trigOnly</t>
   </si>
@@ -8799,6 +8799,132 @@
   </si>
   <si>
     <t>12718:DEBUG loop() - nowVinputRBG 0x240 loopCount 1019</t>
+  </si>
+  <si>
+    <t>complete re-organization: major re-write, depend on rows not state inproc, got rid of inproc state</t>
+  </si>
+  <si>
+    <t>"=0+LEFT(B1,FIND(":",B1)-1)</t>
+  </si>
+  <si>
+    <t>13:DEBUG loop() - nowVinputRBG 0x40 loopCount 0</t>
+  </si>
+  <si>
+    <t>14: RBG_startEffectSound ln 436 EFCT num 40 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>15: RBG_startEffectSound ln 457 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>29:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>658:DEBUG loop() - nowVinputRBG 0x40 loopCount 70</t>
+  </si>
+  <si>
+    <t>670:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 0 foundInputRow 1 loopCount 70</t>
+  </si>
+  <si>
+    <t>698:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 72</t>
+  </si>
+  <si>
+    <t>702: RBG_startEffectSound ln 436 EFCT num 102 final num 102 loopCount 73</t>
+  </si>
+  <si>
+    <t>703: RBG_startEffectSound ln 451 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>704:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>705: RBG_startEffectSound ln 457 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>706:Number:41 Play Finished!</t>
+  </si>
+  <si>
+    <t>715:DEBUG loop() - nowVinputRBG 0x240 loopCount 74</t>
+  </si>
+  <si>
+    <t>1255:DEBUG loop() - nowVinputRBG 0x280 loopCount 110</t>
+  </si>
+  <si>
+    <t>1273:DEBUG RBG_processStateTable() - tmpVinputRBG 0x280 from row 5 foundInputRow 11 loopCount 110</t>
+  </si>
+  <si>
+    <t>1277: RBG_startEffectSound ln 436 EFCT num 20 final num 21 loopCount 111</t>
+  </si>
+  <si>
+    <t>1661:DEBUG loop() - nowVinputRBG 0x240 loopCount 137</t>
+  </si>
+  <si>
+    <t>1679:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 11 foundInputRow 13 loopCount 137</t>
+  </si>
+  <si>
+    <t>1683: RBG_startEffectSound ln 436 EFCT num 30 final num 31 loopCount 138</t>
+  </si>
+  <si>
+    <t>1684: RBG_startEffectSound ln 457 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>1918:DEBUG loop() - nowVinputRBG 0x280 loopCount 154</t>
+  </si>
+  <si>
+    <t>1936:DEBUG RBG_processStateTable() - tmpVinputRBG 0x280 from row 13 foundInputRow 11 loopCount 154</t>
+  </si>
+  <si>
+    <t>1940: RBG_startEffectSound ln 436 EFCT num 20 final num 21 loopCount 155</t>
+  </si>
+  <si>
+    <t>1941: RBG_startEffectSound ln 457 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2055:DEBUG loop() - nowVinputRBG 0x240 loopCount 163</t>
+  </si>
+  <si>
+    <t>2073:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 11 foundInputRow 13 loopCount 163</t>
+  </si>
+  <si>
+    <t>2077: RBG_startEffectSound ln 436 EFCT num 30 final num 31 loopCount 164</t>
+  </si>
+  <si>
+    <t>2821:DEBUG loop() - nowVinputRBG 0x40 loopCount 214</t>
+  </si>
+  <si>
+    <t>2833:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 13 foundInputRow 1 loopCount 214</t>
+  </si>
+  <si>
+    <t>2861:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 216</t>
+  </si>
+  <si>
+    <t>2865: RBG_startEffectSound ln 436 EFCT num 102 final num 102 loopCount 217</t>
+  </si>
+  <si>
+    <t>2866: RBG_startEffectSound ln 451 myDFPlayer problem after play</t>
+  </si>
+  <si>
+    <t>2867:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>2868: RBG_startEffectSound ln 457 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2869:Number:31 Play Finished!</t>
+  </si>
+  <si>
+    <t>2878:DEBUG loop() - nowVinputRBG 0x240 loopCount 218</t>
+  </si>
+  <si>
+    <t>3013:DEBUG loop() - nowVinputRBG 0x260 loopCount 227</t>
+  </si>
+  <si>
+    <t>3027:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 227</t>
+  </si>
+  <si>
+    <t>3030:DEBUG loop() - nowVinputRBG 0x240 loopCount 228</t>
+  </si>
+  <si>
+    <t>3031: RBG_startEffectSound ln 436 EFCT num 0 final num 1 loopCount 228</t>
   </si>
 </sst>
 </file>
@@ -9398,7 +9524,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10192,15 +10318,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L2781"/>
+  <dimension ref="A1:L2832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2726" workbookViewId="0">
-      <selection activeCell="B2741" sqref="B2741"/>
+    <sheetView tabSelected="1" topLeftCell="A2810" workbookViewId="0">
+      <selection activeCell="C2807" sqref="C2807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -31860,6 +31986,366 @@
       </c>
       <c r="B2781" s="28" t="s">
         <v>2843</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2784" spans="1:2" ht="17" thickTop="1" thickBot="1">
+      <c r="B2784" s="1" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:2" ht="16" thickTop="1"/>
+    <row r="2786" spans="1:2">
+      <c r="B2786" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:2">
+      <c r="B2787" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:2">
+      <c r="B2788" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:2">
+      <c r="B2789" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:2">
+      <c r="B2790" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:2">
+      <c r="A2792" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:2">
+      <c r="A2793">
+        <v>13</v>
+      </c>
+      <c r="B2793" s="28" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:2">
+      <c r="A2794">
+        <v>14</v>
+      </c>
+      <c r="B2794" s="16" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:2">
+      <c r="A2795">
+        <v>15</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:2">
+      <c r="A2796">
+        <v>29</v>
+      </c>
+      <c r="B2796" s="28" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:2">
+      <c r="A2797">
+        <v>658</v>
+      </c>
+      <c r="B2797" s="28" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:2">
+      <c r="A2798">
+        <v>670</v>
+      </c>
+      <c r="B2798" s="12" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:2">
+      <c r="A2799">
+        <v>698</v>
+      </c>
+      <c r="B2799" s="12" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:2">
+      <c r="A2800">
+        <v>702</v>
+      </c>
+      <c r="B2800" s="16" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:2">
+      <c r="A2801">
+        <v>703</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:2">
+      <c r="A2802">
+        <v>704</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:2">
+      <c r="A2803">
+        <v>705</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:2">
+      <c r="A2804">
+        <v>706</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:2">
+      <c r="A2805">
+        <v>715</v>
+      </c>
+      <c r="B2805" s="28" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:2">
+      <c r="A2806">
+        <v>1255</v>
+      </c>
+      <c r="B2806" s="28" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:2">
+      <c r="A2807">
+        <v>1273</v>
+      </c>
+      <c r="B2807" s="12" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:2">
+      <c r="A2808">
+        <v>1277</v>
+      </c>
+      <c r="B2808" s="16" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:2">
+      <c r="A2809">
+        <v>1661</v>
+      </c>
+      <c r="B2809" s="28" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:2">
+      <c r="A2810">
+        <v>1679</v>
+      </c>
+      <c r="B2810" s="12" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:2">
+      <c r="A2811">
+        <v>1683</v>
+      </c>
+      <c r="B2811" s="16" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:2">
+      <c r="A2812">
+        <v>1684</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:2">
+      <c r="A2813">
+        <v>1918</v>
+      </c>
+      <c r="B2813" s="28" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:2">
+      <c r="A2814">
+        <v>1936</v>
+      </c>
+      <c r="B2814" s="12" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:2">
+      <c r="A2815">
+        <v>1940</v>
+      </c>
+      <c r="B2815" s="16" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:2">
+      <c r="A2816">
+        <v>1941</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:2">
+      <c r="A2817">
+        <v>2055</v>
+      </c>
+      <c r="B2817" s="28" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:2">
+      <c r="A2818">
+        <v>2073</v>
+      </c>
+      <c r="B2818" s="12" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:2">
+      <c r="A2819">
+        <v>2077</v>
+      </c>
+      <c r="B2819" s="16" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:2">
+      <c r="A2820">
+        <v>2821</v>
+      </c>
+      <c r="B2820" s="28" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:2">
+      <c r="A2821">
+        <v>2833</v>
+      </c>
+      <c r="B2821" s="12" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:2">
+      <c r="A2822">
+        <v>2861</v>
+      </c>
+      <c r="B2822" s="12" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:2">
+      <c r="A2823">
+        <v>2865</v>
+      </c>
+      <c r="B2823" s="16" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:2">
+      <c r="A2824">
+        <v>2866</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:2">
+      <c r="A2825">
+        <v>2867</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:2">
+      <c r="A2826">
+        <v>2868</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:2">
+      <c r="A2827">
+        <v>2869</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:2">
+      <c r="A2828">
+        <v>2878</v>
+      </c>
+      <c r="B2828" s="28" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:2">
+      <c r="A2829">
+        <v>3013</v>
+      </c>
+      <c r="B2829" s="28" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:2">
+      <c r="A2830">
+        <v>3027</v>
+      </c>
+      <c r="B2830" s="12" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:2">
+      <c r="A2831">
+        <v>3030</v>
+      </c>
+      <c r="B2831" s="28" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:2">
+      <c r="A2832">
+        <v>3031</v>
+      </c>
+      <c r="B2832" s="16" t="s">
+        <v>2885</v>
       </c>
     </row>
   </sheetData>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34908F3D-5275-6241-8B6A-35015779921F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE4743-124D-AD48-91B6-391A517549F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sounds" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2792:$B$2832</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2982:$B$3064</definedName>
     <definedName name="prev">Sounds!$N$2:$N$9</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="2977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3207">
   <si>
     <t>trigOnly</t>
   </si>
@@ -9200,14 +9200,711 @@
   <si>
     <t>https://freesound.org/s/91296/</t>
   </si>
+  <si>
+    <t>| Tag | File Name | URL | Who |</t>
+  </si>
+  <si>
+    <t>| --- | --- | --- | --- |</t>
+  </si>
+  <si>
+    <t>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</t>
+  </si>
+  <si>
+    <t>10:DEBUG loop() - nowVinputRBG 0x40 loopCount 0</t>
+  </si>
+  <si>
+    <t>31:DEBUG loop() - nowVinputRBG 0x240 loopCount 2</t>
+  </si>
+  <si>
+    <t>61:DEBUG loop() - nowVinputRBG 0x40 loopCount 5</t>
+  </si>
+  <si>
+    <t>79:DEBUG loop() - nowVinputRBG 0x240 loopCount 6</t>
+  </si>
+  <si>
+    <t>140:DEBUG loop() - nowVinputRBG 0x260 loopCount 556380</t>
+  </si>
+  <si>
+    <t>154:DEBUG loop() - nowVinputRBG 0x60 loopCount 556382</t>
+  </si>
+  <si>
+    <t>161:DEBUG loop() - nowVinputRBG 0x260 loopCount 556383</t>
+  </si>
+  <si>
+    <t>172:DEBUG loop() - nowVinputRBG 0x240 loopCount 556385</t>
+  </si>
+  <si>
+    <t>180:DEBUG loop() - nowVinputRBG 0x40 loopCount 557929</t>
+  </si>
+  <si>
+    <t>187:DEBUG loop() - nowVinputRBG 0x240 loopCount 557930</t>
+  </si>
+  <si>
+    <t>215:DEBUG loop() - nowVinputRBG 0x40 loopCount 557935</t>
+  </si>
+  <si>
+    <t>221:DEBUG loop() - nowVinputRBG 0x240 loopCount 557936</t>
+  </si>
+  <si>
+    <t>222:DEBUG loop() - nowVinputRBG 0x260 loopCount 1031537</t>
+  </si>
+  <si>
+    <t>236:DEBUG loop() - nowVinputRBG 0x60 loopCount 1032940</t>
+  </si>
+  <si>
+    <t>243:DEBUG loop() - nowVinputRBG 0x260 loopCount 1032941</t>
+  </si>
+  <si>
+    <t>254:DEBUG loop() - nowVinputRBG 0x240 loopCount 1032943</t>
+  </si>
+  <si>
+    <t>262:DEBUG loop() - nowVinputRBG 0x40 loopCount 1032944</t>
+  </si>
+  <si>
+    <t>273:DEBUG loop() - nowVinputRBG 0x240 loopCount 1032946</t>
+  </si>
+  <si>
+    <t>297:DEBUG loop() - nowVinputRBG 0x40 loopCount 1034620</t>
+  </si>
+  <si>
+    <t>303:DEBUG loop() - nowVinputRBG 0x240 loopCount 1034621</t>
+  </si>
+  <si>
+    <t>30:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 0 foundInputRow 1 loopCount 1</t>
+  </si>
+  <si>
+    <t>53:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 3</t>
+  </si>
+  <si>
+    <t>146:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 556380</t>
+  </si>
+  <si>
+    <t>160:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 556382</t>
+  </si>
+  <si>
+    <t>171:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 8 foundInputRow 9 loopCount 556384</t>
+  </si>
+  <si>
+    <t>186:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 557929</t>
+  </si>
+  <si>
+    <t>197:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 10 foundInputRow 1 loopCount 557931</t>
+  </si>
+  <si>
+    <t>207:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 557933</t>
+  </si>
+  <si>
+    <t>228:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 1031537</t>
+  </si>
+  <si>
+    <t>242:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 1032940</t>
+  </si>
+  <si>
+    <t>253:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 8 foundInputRow 9 loopCount 1032942</t>
+  </si>
+  <si>
+    <t>268:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 1032944</t>
+  </si>
+  <si>
+    <t>279:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 10 foundInputRow 1 loopCount 1032946</t>
+  </si>
+  <si>
+    <t>289:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 1032948</t>
+  </si>
+  <si>
+    <t>11: RBG_startEffectSound ln 513 EFCT num 40 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>12: RBG_startEffectSound ln 535 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>54: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 4</t>
+  </si>
+  <si>
+    <t>78: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 5</t>
+  </si>
+  <si>
+    <t>147: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 556381</t>
+  </si>
+  <si>
+    <t>173: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 556385</t>
+  </si>
+  <si>
+    <t>208: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 557934</t>
+  </si>
+  <si>
+    <t>220: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 557935</t>
+  </si>
+  <si>
+    <t>229: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 1031538</t>
+  </si>
+  <si>
+    <t>255: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 1032943</t>
+  </si>
+  <si>
+    <t>290: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 1032949</t>
+  </si>
+  <si>
+    <t>302: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 1034620</t>
+  </si>
+  <si>
+    <t>re-organize timing; sometimes sound doesn't start right. 20 msec delay for state</t>
+  </si>
+  <si>
+    <t>704:DEBUG loop() - nowVinputRBG 0x260 loopCount 58</t>
+  </si>
+  <si>
+    <t>718:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 58</t>
+  </si>
+  <si>
+    <t>719: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 59</t>
+  </si>
+  <si>
+    <t>726:DEBUG loop() - nowVinputRBG 0x60 loopCount 60</t>
+  </si>
+  <si>
+    <t>738:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 60</t>
+  </si>
+  <si>
+    <t>739:DEBUG loop() - nowVinputRBG 0x240 loopCount 61</t>
+  </si>
+  <si>
+    <t>755:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 8 foundInputRow 9 loopCount 62</t>
+  </si>
+  <si>
+    <t>756: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 63</t>
+  </si>
+  <si>
+    <t>763:DEBUG loop() - nowVinputRBG 0x40 loopCount 64</t>
+  </si>
+  <si>
+    <t>775:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 64</t>
+  </si>
+  <si>
+    <t>776:DEBUG loop() - nowVinputRBG 0x240 loopCount 65</t>
+  </si>
+  <si>
+    <t>792:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 10 foundInputRow 1 loopCount 66</t>
+  </si>
+  <si>
+    <t>814:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 68</t>
+  </si>
+  <si>
+    <t>815: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 69</t>
+  </si>
+  <si>
+    <t>822:DEBUG loop() - nowVinputRBG 0x40 loopCount 70</t>
+  </si>
+  <si>
+    <t>839: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 70</t>
+  </si>
+  <si>
+    <t>840:DEBUG loop() - nowVinputRBG 0x240 loopCount 71</t>
+  </si>
+  <si>
+    <t>1477:DEBUG loop() - nowVinputRBG 0x260 loopCount 124</t>
+  </si>
+  <si>
+    <t>1491:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 124</t>
+  </si>
+  <si>
+    <t>1492: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 125</t>
+  </si>
+  <si>
+    <t>1511:DEBUG loop() - nowVinputRBG 0x240 loopCount 128</t>
+  </si>
+  <si>
+    <t>re-organize timing; sometimes sound doesn't start right. 40 msec delay for state</t>
+  </si>
+  <si>
+    <t>1976:DEBUG loop() - nowVinputRBG 0x260 loopCount 164</t>
+  </si>
+  <si>
+    <t>1990:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 164</t>
+  </si>
+  <si>
+    <t>1991: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 165</t>
+  </si>
+  <si>
+    <t>1998:DEBUG loop() - nowVinputRBG 0x60 loopCount 166</t>
+  </si>
+  <si>
+    <t>2010:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 166</t>
+  </si>
+  <si>
+    <t>2011:DEBUG loop() - nowVinputRBG 0x240 loopCount 167</t>
+  </si>
+  <si>
+    <t>2027:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 8 foundInputRow 9 loopCount 168</t>
+  </si>
+  <si>
+    <t>2028: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 169</t>
+  </si>
+  <si>
+    <t>2203:DEBUG loop() - nowVinputRBG 0x260 loopCount 225</t>
+  </si>
+  <si>
+    <t>2228:DEBUG loop() - nowVinputRBG 0x240 loopCount 233</t>
+  </si>
+  <si>
+    <t>2253:DEBUG loop() - nowVinputRBG 0x40 loopCount 592</t>
+  </si>
+  <si>
+    <t>2259:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 592</t>
+  </si>
+  <si>
+    <t>2269:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 10 foundInputRow 1 loopCount 598</t>
+  </si>
+  <si>
+    <t>2279:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 605</t>
+  </si>
+  <si>
+    <t>2280: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 609</t>
+  </si>
+  <si>
+    <t>2281: RBG_startEffectSound ln 535 myDFPlayer problem after check busy</t>
+  </si>
+  <si>
+    <t>2289:DEBUG loop() - nowVinputRBG 0x240 loopCount 609</t>
+  </si>
+  <si>
+    <t>re-organize timing; sometimes sound doesn't start right. 40 msec delay for state; up to 100 msec delay for busy</t>
+  </si>
+  <si>
+    <t>12: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>19:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
+    <t>752:DEBUG loop() - nowVinputRBG 0x40 loopCount 242</t>
+  </si>
+  <si>
+    <t>764:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 0 foundInputRow 1 loopCount 242</t>
+  </si>
+  <si>
+    <t>786:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 246</t>
+  </si>
+  <si>
+    <t>787: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 246</t>
+  </si>
+  <si>
+    <t>788: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>795:DEBUG loop() - nowVinputRBG 0x240 loopCount 247</t>
+  </si>
+  <si>
+    <t>1708:DEBUG loop() - nowVinputRBG 0x260 loopCount 1534</t>
+  </si>
+  <si>
+    <t>1714:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 1534</t>
+  </si>
+  <si>
+    <t>1715: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 1537</t>
+  </si>
+  <si>
+    <t>1716: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1723:DEBUG loop() - nowVinputRBG 0x60 loopCount 1537</t>
+  </si>
+  <si>
+    <t>1729:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 1537</t>
+  </si>
+  <si>
+    <t>1730:DEBUG loop() - nowVinputRBG 0x260 loopCount 1540</t>
+  </si>
+  <si>
+    <t>1735:DEBUG loop() - nowVinputRBG 0x240 loopCount 1541</t>
+  </si>
+  <si>
+    <t>1741:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 8 foundInputRow 9 loopCount 1541</t>
+  </si>
+  <si>
+    <t>1742: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 1541</t>
+  </si>
+  <si>
+    <t>1743: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1750:DEBUG loop() - nowVinputRBG 0x40 loopCount 1542</t>
+  </si>
+  <si>
+    <t>1756:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 1542</t>
+  </si>
+  <si>
+    <t>1757:DEBUG loop() - nowVinputRBG 0x240 loopCount 1545</t>
+  </si>
+  <si>
+    <t>1767:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 10 foundInputRow 1 loopCount 1546</t>
+  </si>
+  <si>
+    <t>1777:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 1550</t>
+  </si>
+  <si>
+    <t>1778: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 1553</t>
+  </si>
+  <si>
+    <t>1779: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1786:DEBUG loop() - nowVinputRBG 0x40 loopCount 1553</t>
+  </si>
+  <si>
+    <t>1791: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 1553</t>
+  </si>
+  <si>
+    <t>1792: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1793:DEBUG loop() - nowVinputRBG 0x240 loopCount 1554</t>
+  </si>
+  <si>
+    <t>1794:DEBUG loop() - nowVinputRBG 0x40 loopCount 4447</t>
+  </si>
+  <si>
+    <t>1799: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 4447</t>
+  </si>
+  <si>
+    <t>1800: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1801:DEBUG loop() - nowVinputRBG 0x240 loopCount 4447</t>
+  </si>
+  <si>
+    <t>1802:DEBUG loop() - nowVinputRBG 0x260 loopCount 6161</t>
+  </si>
+  <si>
+    <t>1808:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 6161</t>
+  </si>
+  <si>
+    <t>1809: RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 6164</t>
+  </si>
+  <si>
+    <t>1810: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1817:DEBUG loop() - nowVinputRBG 0x240 loopCount 6181</t>
+  </si>
+  <si>
+    <t>1818:DEBUG loop() - nowVinputRBG 0x40 loopCount 9090</t>
+  </si>
+  <si>
+    <t>1824:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 7 foundInputRow 8 loopCount 9090</t>
+  </si>
+  <si>
+    <t>1834:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 8 foundInputRow 9 loopCount 9096</t>
+  </si>
+  <si>
+    <t>1835: RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 9096</t>
+  </si>
+  <si>
+    <t>1836: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>1843:DEBUG loop() - nowVinputRBG 0x240 loopCount 9097</t>
+  </si>
+  <si>
+    <t>1844:DEBUG loop() - nowVinputRBG 0x40 loopCount 9648</t>
+  </si>
+  <si>
+    <t>1850:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 9648</t>
+  </si>
+  <si>
+    <t>1860:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 10 foundInputRow 1 loopCount 9654</t>
+  </si>
+  <si>
+    <t>1870:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 9661</t>
+  </si>
+  <si>
+    <t>1871: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 9665</t>
+  </si>
+  <si>
+    <t>1872: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>1879:DEBUG loop() - nowVinputRBG 0x240 loopCount 9665</t>
+  </si>
+  <si>
+    <t>1880:DEBUG loop() - nowVinputRBG 0x280 loopCount 10238</t>
+  </si>
+  <si>
+    <t>1886:DEBUG RBG_processStateTable() - tmpVinputRBG 0x280 from row 5 foundInputRow 11 loopCount 10238</t>
+  </si>
+  <si>
+    <t>1887: RBG_startEffectSound ln 513 EFCT num 20 final num 21 loopCount 10241</t>
+  </si>
+  <si>
+    <t>1888: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1895:DEBUG loop() - nowVinputRBG 0x80 loopCount 10241</t>
+  </si>
+  <si>
+    <t>1901:DEBUG RBG_processStateTable() - tmpVinputRBG 0x80 from row 11 foundInputRow 1 loopCount 10241</t>
+  </si>
+  <si>
+    <t>1902:DEBUG loop() - nowVinputRBG 0x280 loopCount 10244</t>
+  </si>
+  <si>
+    <t>1912:DEBUG RBG_processStateTable() - tmpVinputRBG 0x280 from row 1 foundInputRow 3 loopCount 10245</t>
+  </si>
+  <si>
+    <t>1913: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 10248</t>
+  </si>
+  <si>
+    <t>1914: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>1921:DEBUG loop() - nowVinputRBG 0x80 loopCount 10248</t>
+  </si>
+  <si>
+    <t>1926: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 10248</t>
+  </si>
+  <si>
+    <t>1927: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1928:DEBUG loop() - nowVinputRBG 0x280 loopCount 10249</t>
+  </si>
+  <si>
+    <t>1929:DEBUG loop() - nowVinputRBG 0x240 loopCount 10657</t>
+  </si>
+  <si>
+    <t>1935:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 3 foundInputRow 13 loopCount 10657</t>
+  </si>
+  <si>
+    <t>1936: RBG_startEffectSound ln 513 EFCT num 30 final num 31 loopCount 10660</t>
+  </si>
+  <si>
+    <t>1937: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1944:DEBUG loop() - nowVinputRBG 0x40 loopCount 10660</t>
+  </si>
+  <si>
+    <t>1950:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 13 foundInputRow 1 loopCount 10660</t>
+  </si>
+  <si>
+    <t>1951:DEBUG loop() - nowVinputRBG 0x240 loopCount 10663</t>
+  </si>
+  <si>
+    <t>1961:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 10664</t>
+  </si>
+  <si>
+    <t>1962: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 10667</t>
+  </si>
+  <si>
+    <t>1963: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1970:DEBUG loop() - nowVinputRBG 0x40 loopCount 10667</t>
+  </si>
+  <si>
+    <t>1975: RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 10667</t>
+  </si>
+  <si>
+    <t>1976: RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1977:DEBUG loop() - nowVinputRBG 0x240 loopCount 10668</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>trigger ON</t>
+  </si>
+  <si>
+    <t>20 loops</t>
+  </si>
+  <si>
+    <t>8 loops</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x260 loopCount 1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_TRIG mINP_BANY thisReturn 7 loopCount 1534</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - after RBG_waitForInput() call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - VinputRBG: 0x0</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 543 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectLED ln 457 EFCT num 0 final LED num 1 loopCount 1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - tableRow: 7</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 loopCount 1537</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x60 loopCount 1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 8 loopCount 1537</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 1537</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x260 loopCount 1540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - tableRow: 8</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 loopCount 1540</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 9 loopCount 1541</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 8 foundInputRow 9 loopCount 1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 513 EFCT num 10 final num 11 loopCount 1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectLED ln 457 EFCT num 10 final LED num 11 loopCount 1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - tableRow: 9</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 loopCount 1541</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 1542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 10 loopCount 1542</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 1542</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - tableRow: 10</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 loopCount 1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 1 loopCount 1546</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 10 foundInputRow 1 loopCount 1546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - tableRow: 1</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 loopCount 1549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 5 loopCount 1550</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 1 foundInputRow 5 loopCount 1550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 1553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectLED ln 457 EFCT num 102 final LED num 102 loopCount 1553</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 loopCount 1553</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 1553</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 restart sound 102 loopCount 1553</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 1554</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 4447</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 restart sound 102 loopCount 4447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 513 EFCT num 102 final num 102 loopCount 4447</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 4447</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x260 loopCount 6161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_TRIG mINP_BANY thisReturn 7 loopCount 6161</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 6161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectSound ln 513 EFCT num 0 final num 1 loopCount 6164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_startEffectLED ln 457 EFCT num 0 final LED num 1 loopCount 6164</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 loopCount 6164</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 6181</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 9090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 8 loopCount 9090</t>
+  </si>
+  <si>
+    <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 7 foundInputRow 8 loopCount 9090</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9280,6 +9977,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9469,28 +10173,28 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9500,38 +10204,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -9857,7 +10569,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10408,11 +11120,11 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+    <row r="25" spans="1:14" s="28" customFormat="1">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="16">
       <c r="A26" s="9" t="s">
@@ -10454,14 +11166,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="16">
+      <c r="B28" s="9" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="N28" s="7"/>
     </row>
   </sheetData>
   <sortState ref="R3:R67">
     <sortCondition ref="R3:R67"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10651,19 +11381,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L2832"/>
+  <dimension ref="A1:L3109"/>
   <sheetViews>
-    <sheetView topLeftCell="A2810" workbookViewId="0">
-      <selection activeCell="C2807" sqref="C2807"/>
+    <sheetView tabSelected="1" topLeftCell="B2988" workbookViewId="0">
+      <selection activeCell="E3008" sqref="E3008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="84.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="180.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32681,9 +33411,2587 @@
         <v>2861</v>
       </c>
     </row>
+    <row r="2834" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2835" spans="1:2" ht="17" thickTop="1" thickBot="1">
+      <c r="B2835" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:2" ht="16" thickTop="1"/>
+    <row r="2837" spans="1:2">
+      <c r="B2837" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:2">
+      <c r="B2838" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:2">
+      <c r="B2839" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:2">
+      <c r="B2840" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:2">
+      <c r="B2841" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:2">
+      <c r="A2843" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:2">
+      <c r="A2844">
+        <v>10</v>
+      </c>
+      <c r="B2844" s="27" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:2">
+      <c r="A2845">
+        <v>11</v>
+      </c>
+      <c r="B2845" s="16" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:2">
+      <c r="A2846">
+        <v>12</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:2">
+      <c r="A2847">
+        <v>30</v>
+      </c>
+      <c r="B2847" s="12" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:2">
+      <c r="A2848">
+        <v>31</v>
+      </c>
+      <c r="B2848" s="27" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:2">
+      <c r="A2849">
+        <v>53</v>
+      </c>
+      <c r="B2849" s="12" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:2">
+      <c r="A2850">
+        <v>54</v>
+      </c>
+      <c r="B2850" s="16" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:2">
+      <c r="A2851">
+        <v>61</v>
+      </c>
+      <c r="B2851" s="27" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:2">
+      <c r="A2852">
+        <v>78</v>
+      </c>
+      <c r="B2852" s="16" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:2">
+      <c r="A2853">
+        <v>79</v>
+      </c>
+      <c r="B2853" s="27" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:2">
+      <c r="A2854">
+        <v>140</v>
+      </c>
+      <c r="B2854" s="27" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:2">
+      <c r="A2855">
+        <v>146</v>
+      </c>
+      <c r="B2855" s="12" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:2">
+      <c r="A2856">
+        <v>147</v>
+      </c>
+      <c r="B2856" s="16" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:2">
+      <c r="A2857">
+        <v>154</v>
+      </c>
+      <c r="B2857" s="27" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:2">
+      <c r="A2858">
+        <v>160</v>
+      </c>
+      <c r="B2858" s="12" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:2">
+      <c r="A2859">
+        <v>161</v>
+      </c>
+      <c r="B2859" s="27" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:2">
+      <c r="A2860">
+        <v>171</v>
+      </c>
+      <c r="B2860" s="12" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:2">
+      <c r="A2861">
+        <v>172</v>
+      </c>
+      <c r="B2861" s="27" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:2">
+      <c r="A2862">
+        <v>173</v>
+      </c>
+      <c r="B2862" s="16" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:2">
+      <c r="A2863">
+        <v>180</v>
+      </c>
+      <c r="B2863" s="27" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:2">
+      <c r="A2864">
+        <v>186</v>
+      </c>
+      <c r="B2864" s="12" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:2">
+      <c r="A2865">
+        <v>187</v>
+      </c>
+      <c r="B2865" s="27" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:2">
+      <c r="A2866">
+        <v>197</v>
+      </c>
+      <c r="B2866" s="12" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:2">
+      <c r="A2867">
+        <v>207</v>
+      </c>
+      <c r="B2867" s="12" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:2">
+      <c r="A2868">
+        <v>208</v>
+      </c>
+      <c r="B2868" s="16" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2">
+      <c r="A2869">
+        <v>215</v>
+      </c>
+      <c r="B2869" s="27" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2">
+      <c r="A2870">
+        <v>220</v>
+      </c>
+      <c r="B2870" s="16" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2">
+      <c r="A2871">
+        <v>221</v>
+      </c>
+      <c r="B2871" s="27" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:2">
+      <c r="A2872">
+        <v>222</v>
+      </c>
+      <c r="B2872" s="27" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:2">
+      <c r="A2873">
+        <v>228</v>
+      </c>
+      <c r="B2873" s="12" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:2">
+      <c r="A2874">
+        <v>229</v>
+      </c>
+      <c r="B2874" s="16" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2">
+      <c r="A2875">
+        <v>236</v>
+      </c>
+      <c r="B2875" s="27" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2">
+      <c r="A2876">
+        <v>242</v>
+      </c>
+      <c r="B2876" s="12" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2">
+      <c r="A2877">
+        <v>243</v>
+      </c>
+      <c r="B2877" s="27" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2">
+      <c r="A2878">
+        <v>253</v>
+      </c>
+      <c r="B2878" s="12" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:2">
+      <c r="A2879">
+        <v>254</v>
+      </c>
+      <c r="B2879" s="27" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:2">
+      <c r="A2880">
+        <v>255</v>
+      </c>
+      <c r="B2880" s="16" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:2">
+      <c r="A2881">
+        <v>262</v>
+      </c>
+      <c r="B2881" s="27" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:2">
+      <c r="A2882">
+        <v>268</v>
+      </c>
+      <c r="B2882" s="12" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:2">
+      <c r="A2883">
+        <v>273</v>
+      </c>
+      <c r="B2883" s="27" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:2">
+      <c r="A2884">
+        <v>279</v>
+      </c>
+      <c r="B2884" s="12" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:2">
+      <c r="A2885">
+        <v>289</v>
+      </c>
+      <c r="B2885" s="12" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2">
+      <c r="A2886">
+        <v>290</v>
+      </c>
+      <c r="B2886" s="16" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2">
+      <c r="A2887">
+        <v>297</v>
+      </c>
+      <c r="B2887" s="27" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:2">
+      <c r="A2888">
+        <v>302</v>
+      </c>
+      <c r="B2888" s="16" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:2">
+      <c r="A2889">
+        <v>303</v>
+      </c>
+      <c r="B2889" s="27" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2894" spans="1:2" ht="17" thickTop="1" thickBot="1">
+      <c r="B2894" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:2" ht="16" thickTop="1"/>
+    <row r="2896" spans="1:2">
+      <c r="B2896" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2">
+      <c r="B2897" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:2">
+      <c r="B2898" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2">
+      <c r="B2899" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:2">
+      <c r="B2900" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:2">
+      <c r="A2902" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:2">
+      <c r="A2903">
+        <v>10</v>
+      </c>
+      <c r="B2903" s="27" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2">
+      <c r="A2904">
+        <v>11</v>
+      </c>
+      <c r="B2904" s="16" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2">
+      <c r="A2905">
+        <v>12</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:2">
+      <c r="A2906">
+        <v>30</v>
+      </c>
+      <c r="B2906" s="12" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:2">
+      <c r="A2907">
+        <v>31</v>
+      </c>
+      <c r="B2907" s="27" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:2">
+      <c r="A2908">
+        <v>53</v>
+      </c>
+      <c r="B2908" s="12" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:2">
+      <c r="A2909">
+        <v>54</v>
+      </c>
+      <c r="B2909" s="16" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:2">
+      <c r="A2910">
+        <v>61</v>
+      </c>
+      <c r="B2910" s="27" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:2">
+      <c r="A2911">
+        <v>78</v>
+      </c>
+      <c r="B2911" s="16" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:2">
+      <c r="A2912">
+        <v>79</v>
+      </c>
+      <c r="B2912" s="27" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:2">
+      <c r="A2913">
+        <v>704</v>
+      </c>
+      <c r="B2913" s="27" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:2">
+      <c r="A2914">
+        <v>718</v>
+      </c>
+      <c r="B2914" s="12" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:2">
+      <c r="A2915">
+        <v>719</v>
+      </c>
+      <c r="B2915" s="16" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:2">
+      <c r="A2916">
+        <v>726</v>
+      </c>
+      <c r="B2916" s="27" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:2">
+      <c r="A2917">
+        <v>738</v>
+      </c>
+      <c r="B2917" s="12" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:2">
+      <c r="A2918">
+        <v>739</v>
+      </c>
+      <c r="B2918" s="27" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:2">
+      <c r="A2919">
+        <v>755</v>
+      </c>
+      <c r="B2919" s="12" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:2">
+      <c r="A2920">
+        <v>756</v>
+      </c>
+      <c r="B2920" s="16" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:2">
+      <c r="A2921">
+        <v>763</v>
+      </c>
+      <c r="B2921" s="27" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:2">
+      <c r="A2922">
+        <v>775</v>
+      </c>
+      <c r="B2922" s="12" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:2">
+      <c r="A2923">
+        <v>776</v>
+      </c>
+      <c r="B2923" s="27" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:2">
+      <c r="A2924">
+        <v>792</v>
+      </c>
+      <c r="B2924" s="12" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:2">
+      <c r="A2925">
+        <v>814</v>
+      </c>
+      <c r="B2925" s="12" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:2">
+      <c r="A2926">
+        <v>815</v>
+      </c>
+      <c r="B2926" s="16" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:2">
+      <c r="A2927">
+        <v>822</v>
+      </c>
+      <c r="B2927" s="27" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:2">
+      <c r="A2928">
+        <v>839</v>
+      </c>
+      <c r="B2928" s="16" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:2">
+      <c r="A2929">
+        <v>840</v>
+      </c>
+      <c r="B2929" s="27" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:2">
+      <c r="A2930">
+        <v>1477</v>
+      </c>
+      <c r="B2930" s="27" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:2">
+      <c r="A2931">
+        <v>1491</v>
+      </c>
+      <c r="B2931" s="12" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:2">
+      <c r="A2932">
+        <v>1492</v>
+      </c>
+      <c r="B2932" s="16" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:2">
+      <c r="A2933">
+        <v>1511</v>
+      </c>
+      <c r="B2933" s="27" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2936" spans="1:2" ht="17" thickTop="1" thickBot="1">
+      <c r="B2936" s="1" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:2" ht="16" thickTop="1"/>
+    <row r="2938" spans="1:2">
+      <c r="B2938" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:2">
+      <c r="B2939" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:2">
+      <c r="B2940" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:2">
+      <c r="B2941" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:2">
+      <c r="B2942" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:2">
+      <c r="A2944" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:2" ht="16">
+      <c r="A2945" s="43">
+        <v>10</v>
+      </c>
+      <c r="B2945" s="44" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:2" ht="16">
+      <c r="A2946" s="43">
+        <v>11</v>
+      </c>
+      <c r="B2946" s="16" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:2" ht="16">
+      <c r="A2947" s="43">
+        <v>12</v>
+      </c>
+      <c r="B2947" s="43" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:2" ht="16">
+      <c r="A2948" s="43">
+        <v>30</v>
+      </c>
+      <c r="B2948" s="12" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:2" ht="16">
+      <c r="A2949" s="43">
+        <v>31</v>
+      </c>
+      <c r="B2949" s="44" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:2" ht="16">
+      <c r="A2950" s="43">
+        <v>53</v>
+      </c>
+      <c r="B2950" s="12" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:2" ht="16">
+      <c r="A2951" s="43">
+        <v>54</v>
+      </c>
+      <c r="B2951" s="16" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:2" ht="16">
+      <c r="A2952" s="43">
+        <v>61</v>
+      </c>
+      <c r="B2952" s="44" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:2" ht="16">
+      <c r="A2953" s="43">
+        <v>78</v>
+      </c>
+      <c r="B2953" s="16" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:2" ht="16">
+      <c r="A2954" s="43">
+        <v>79</v>
+      </c>
+      <c r="B2954" s="44" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:2" ht="16">
+      <c r="A2955" s="43">
+        <v>1976</v>
+      </c>
+      <c r="B2955" s="44" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:2" ht="16">
+      <c r="A2956" s="43">
+        <v>1990</v>
+      </c>
+      <c r="B2956" s="12" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:2" ht="16">
+      <c r="A2957" s="43">
+        <v>1991</v>
+      </c>
+      <c r="B2957" s="16" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:2" ht="16">
+      <c r="A2958" s="43">
+        <v>1998</v>
+      </c>
+      <c r="B2958" s="44" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:2" ht="16">
+      <c r="A2959" s="43">
+        <v>2010</v>
+      </c>
+      <c r="B2959" s="12" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:2" ht="16">
+      <c r="A2960" s="43">
+        <v>2011</v>
+      </c>
+      <c r="B2960" s="44" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:2" ht="16">
+      <c r="A2961" s="43">
+        <v>2027</v>
+      </c>
+      <c r="B2961" s="12" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:2" ht="16">
+      <c r="A2962" s="43">
+        <v>2028</v>
+      </c>
+      <c r="B2962" s="16" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:2" ht="16">
+      <c r="A2963" s="43">
+        <v>2203</v>
+      </c>
+      <c r="B2963" s="44" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:2" ht="16">
+      <c r="A2964" s="43">
+        <v>2228</v>
+      </c>
+      <c r="B2964" s="44" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:2" ht="16">
+      <c r="A2965" s="43">
+        <v>2253</v>
+      </c>
+      <c r="B2965" s="44" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:2" ht="16">
+      <c r="A2966" s="43">
+        <v>2259</v>
+      </c>
+      <c r="B2966" s="12" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:2" ht="16">
+      <c r="A2967" s="43">
+        <v>2269</v>
+      </c>
+      <c r="B2967" s="12" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:2" ht="16">
+      <c r="A2968" s="43">
+        <v>2279</v>
+      </c>
+      <c r="B2968" s="12" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:2" ht="16">
+      <c r="A2969" s="43">
+        <v>2280</v>
+      </c>
+      <c r="B2969" s="16" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:2" ht="16">
+      <c r="A2970" s="43">
+        <v>2281</v>
+      </c>
+      <c r="B2970" s="43" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:2" ht="16">
+      <c r="A2971" s="43">
+        <v>2289</v>
+      </c>
+      <c r="B2971" s="44" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2974" spans="1:2" ht="17" thickTop="1" thickBot="1">
+      <c r="B2974" s="1" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:2" ht="16" thickTop="1"/>
+    <row r="2976" spans="1:2">
+      <c r="B2976" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="B2977" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4">
+      <c r="B2978" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4">
+      <c r="B2979" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4">
+      <c r="B2980" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4">
+      <c r="A2982" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4">
+      <c r="A2983">
+        <v>10</v>
+      </c>
+      <c r="B2983" s="27" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4">
+      <c r="A2984">
+        <v>11</v>
+      </c>
+      <c r="B2984" s="16" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4">
+      <c r="A2985">
+        <v>12</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4">
+      <c r="A2986">
+        <v>19</v>
+      </c>
+      <c r="B2986" s="27" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4">
+      <c r="A2987">
+        <v>752</v>
+      </c>
+      <c r="B2987" s="27" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4">
+      <c r="A2988">
+        <v>764</v>
+      </c>
+      <c r="B2988" s="12" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4">
+      <c r="A2989">
+        <v>786</v>
+      </c>
+      <c r="B2989" s="12" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4">
+      <c r="A2990">
+        <v>787</v>
+      </c>
+      <c r="B2990" s="16" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4">
+      <c r="A2991">
+        <v>788</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4">
+      <c r="A2992">
+        <v>795</v>
+      </c>
+      <c r="B2992" s="27" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:7">
+      <c r="A2993">
+        <v>1708</v>
+      </c>
+      <c r="B2993" s="27" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2993" s="27" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G2993">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:7">
+      <c r="A2994">
+        <v>1714</v>
+      </c>
+      <c r="B2994" s="12" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2994" t="s">
+        <v>3153</v>
+      </c>
+      <c r="G2994">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:7">
+      <c r="A2995">
+        <v>1715</v>
+      </c>
+      <c r="B2995" s="16" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C2995" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2995" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G2995">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:7">
+      <c r="A2996">
+        <v>1716</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2996" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G2996">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:7">
+      <c r="A2997">
+        <v>1723</v>
+      </c>
+      <c r="B2997" s="27" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C2997" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2997" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G2997">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:7">
+      <c r="A2998">
+        <v>1729</v>
+      </c>
+      <c r="B2998" s="12" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2998" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G2998">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:7">
+      <c r="A2999">
+        <v>1730</v>
+      </c>
+      <c r="B2999" s="27" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F2999" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G2999">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:7">
+      <c r="A3000">
+        <v>1735</v>
+      </c>
+      <c r="B3000" s="27" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3000" s="16" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G3000">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:7">
+      <c r="A3001">
+        <v>1741</v>
+      </c>
+      <c r="B3001" s="12" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3001" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3001">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:7">
+      <c r="A3002">
+        <v>1742</v>
+      </c>
+      <c r="B3002" s="16" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C3002" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3002" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G3002">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:7">
+      <c r="A3003">
+        <v>1743</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3003" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G3003">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:7">
+      <c r="A3004">
+        <v>1750</v>
+      </c>
+      <c r="B3004" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C3004" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F3004" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3004">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:7">
+      <c r="A3005">
+        <v>1756</v>
+      </c>
+      <c r="B3005" s="12" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F3005" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G3005">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:7">
+      <c r="A3006">
+        <v>1757</v>
+      </c>
+      <c r="B3006" s="27" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C3006" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F3006" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3006">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:7">
+      <c r="A3007">
+        <v>1767</v>
+      </c>
+      <c r="B3007" s="12" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F3007" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G3007">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:7">
+      <c r="A3008">
+        <v>1777</v>
+      </c>
+      <c r="B3008" s="12" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F3008" s="27" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G3008" s="4">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:7">
+      <c r="A3009">
+        <v>1778</v>
+      </c>
+      <c r="B3009" s="16" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F3009" t="s">
+        <v>3163</v>
+      </c>
+      <c r="G3009">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:7">
+      <c r="A3010">
+        <v>1779</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F3010" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3010">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:7">
+      <c r="A3011">
+        <v>1786</v>
+      </c>
+      <c r="B3011" s="27" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C3011" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F3011" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3011">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:7">
+      <c r="A3012">
+        <v>1791</v>
+      </c>
+      <c r="B3012" s="16" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F3012" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G3012">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:7">
+      <c r="A3013">
+        <v>1792</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>3095</v>
+      </c>
+      <c r="F3013" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3013">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:7">
+      <c r="A3014">
+        <v>1793</v>
+      </c>
+      <c r="B3014" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F3014" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G3014">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:7">
+      <c r="A3015">
+        <v>1794</v>
+      </c>
+      <c r="B3015" s="27" t="s">
+        <v>3097</v>
+      </c>
+      <c r="F3015" s="27" t="s">
+        <v>3165</v>
+      </c>
+      <c r="G3015">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:7">
+      <c r="A3016">
+        <v>1799</v>
+      </c>
+      <c r="B3016" s="16" t="s">
+        <v>3098</v>
+      </c>
+      <c r="F3016" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3016">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:7">
+      <c r="A3017">
+        <v>1800</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F3017" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G3017">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:7">
+      <c r="A3018">
+        <v>1801</v>
+      </c>
+      <c r="B3018" s="27" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F3018" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3018">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:7">
+      <c r="A3019">
+        <v>1802</v>
+      </c>
+      <c r="B3019" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3019" t="s">
+        <v>3167</v>
+      </c>
+      <c r="G3019">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:7">
+      <c r="A3020">
+        <v>1808</v>
+      </c>
+      <c r="B3020" s="12" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3020" s="27" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G3020">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:7">
+      <c r="A3021">
+        <v>1809</v>
+      </c>
+      <c r="B3021" s="16" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3021" t="s">
+        <v>3169</v>
+      </c>
+      <c r="G3021">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:7">
+      <c r="A3022">
+        <v>1810</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F3022" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3022">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:7">
+      <c r="A3023">
+        <v>1817</v>
+      </c>
+      <c r="B3023" s="27" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F3023" s="45" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3023">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:7">
+      <c r="A3024">
+        <v>1818</v>
+      </c>
+      <c r="B3024" s="27" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F3024" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G3024">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:7">
+      <c r="A3025">
+        <v>1824</v>
+      </c>
+      <c r="B3025" s="12" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F3025" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3025">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:7">
+      <c r="A3026">
+        <v>1834</v>
+      </c>
+      <c r="B3026" s="12" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F3026" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G3026">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:7">
+      <c r="A3027">
+        <v>1835</v>
+      </c>
+      <c r="B3027" s="16" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F3027" s="16" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G3027">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:7">
+      <c r="A3028">
+        <v>1836</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F3028" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3028">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:7">
+      <c r="A3029">
+        <v>1843</v>
+      </c>
+      <c r="B3029" s="27" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F3029" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G3029">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:7">
+      <c r="A3030">
+        <v>1844</v>
+      </c>
+      <c r="B3030" s="27" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F3030" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G3030">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:7">
+      <c r="A3031">
+        <v>1850</v>
+      </c>
+      <c r="B3031" s="12" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F3031" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3031">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:7">
+      <c r="A3032">
+        <v>1860</v>
+      </c>
+      <c r="B3032" s="12" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F3032" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G3032">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:7">
+      <c r="A3033">
+        <v>1870</v>
+      </c>
+      <c r="B3033" s="12" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F3033" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3033">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:7">
+      <c r="A3034">
+        <v>1871</v>
+      </c>
+      <c r="B3034" s="16" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F3034" t="s">
+        <v>3174</v>
+      </c>
+      <c r="G3034">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:7">
+      <c r="A3035">
+        <v>1872</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F3035" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="G3035">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:7">
+      <c r="A3036">
+        <v>1879</v>
+      </c>
+      <c r="B3036" s="27" t="s">
+        <v>3118</v>
+      </c>
+      <c r="F3036" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G3036">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:7">
+      <c r="A3037">
+        <v>1880</v>
+      </c>
+      <c r="B3037" s="27" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F3037" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3037">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:7">
+      <c r="A3038">
+        <v>1886</v>
+      </c>
+      <c r="B3038" s="12" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F3038" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3038">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:7">
+      <c r="A3039">
+        <v>1887</v>
+      </c>
+      <c r="B3039" s="16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F3039" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G3039">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:7">
+      <c r="A3040">
+        <v>1888</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F3040" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3040">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:7">
+      <c r="A3041">
+        <v>1895</v>
+      </c>
+      <c r="B3041" s="27" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F3041" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G3041">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:7">
+      <c r="A3042">
+        <v>1901</v>
+      </c>
+      <c r="B3042" s="12" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F3042" s="27" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G3042">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:7">
+      <c r="A3043">
+        <v>1902</v>
+      </c>
+      <c r="B3043" s="27" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F3043" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3043">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:7">
+      <c r="A3044">
+        <v>1912</v>
+      </c>
+      <c r="B3044" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F3044" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G3044">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:7">
+      <c r="A3045">
+        <v>1913</v>
+      </c>
+      <c r="B3045" s="16" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F3045" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3045">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:7">
+      <c r="A3046">
+        <v>1914</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F3046" t="s">
+        <v>3180</v>
+      </c>
+      <c r="G3046">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:7">
+      <c r="A3047">
+        <v>1921</v>
+      </c>
+      <c r="B3047" s="27" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F3047" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G3047">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:7">
+      <c r="A3048">
+        <v>1926</v>
+      </c>
+      <c r="B3048" s="16" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F3048" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3048">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:7">
+      <c r="A3049">
+        <v>1927</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F3049" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3049">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:7">
+      <c r="A3050">
+        <v>1928</v>
+      </c>
+      <c r="B3050" s="27" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F3050" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G3050">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:7">
+      <c r="A3051">
+        <v>1929</v>
+      </c>
+      <c r="B3051" s="27" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F3051" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3051">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:7">
+      <c r="A3052">
+        <v>1935</v>
+      </c>
+      <c r="B3052" s="12" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F3052" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G3052">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:7">
+      <c r="A3053">
+        <v>1936</v>
+      </c>
+      <c r="B3053" s="16" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F3053" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3053">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:7">
+      <c r="A3054">
+        <v>1937</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F3054" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G3054">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:7">
+      <c r="A3055">
+        <v>1944</v>
+      </c>
+      <c r="B3055" s="27" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F3055" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3055">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:7">
+      <c r="A3056">
+        <v>1950</v>
+      </c>
+      <c r="B3056" s="12" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F3056" t="s">
+        <v>3184</v>
+      </c>
+      <c r="G3056">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:7">
+      <c r="A3057">
+        <v>1951</v>
+      </c>
+      <c r="B3057" s="27" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F3057" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G3057">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:7">
+      <c r="A3058">
+        <v>1961</v>
+      </c>
+      <c r="B3058" s="12" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F3058" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3058">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:7">
+      <c r="A3059">
+        <v>1962</v>
+      </c>
+      <c r="B3059" s="16" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F3059" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3059">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:7">
+      <c r="A3060">
+        <v>1963</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F3060" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G3060">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:7">
+      <c r="A3061">
+        <v>1970</v>
+      </c>
+      <c r="B3061" s="27" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F3061" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3061">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:7">
+      <c r="A3062">
+        <v>1975</v>
+      </c>
+      <c r="B3062" s="16" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F3062" t="s">
+        <v>3186</v>
+      </c>
+      <c r="G3062">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:7">
+      <c r="A3063">
+        <v>1976</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F3063" s="16" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G3063">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:7">
+      <c r="A3064">
+        <v>1977</v>
+      </c>
+      <c r="B3064" s="27" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F3064" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3064">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:7">
+      <c r="F3065" t="s">
+        <v>3188</v>
+      </c>
+      <c r="G3065">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:7">
+      <c r="F3066" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G3066">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:7">
+      <c r="F3067" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3067">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:7">
+      <c r="F3068" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G3068">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:7">
+      <c r="F3069" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3069">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:7">
+      <c r="F3070" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G3070">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:7">
+      <c r="F3071" s="27" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G3071">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:7">
+      <c r="F3072" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3072">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="3073" spans="6:7">
+      <c r="F3073" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G3073">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="3074" spans="6:7">
+      <c r="F3074" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3074">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="3075" spans="6:7">
+      <c r="F3075" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G3075">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="3076" spans="6:7">
+      <c r="F3076" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G3076">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="3077" spans="6:7">
+      <c r="F3077" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3077">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="3078" spans="6:7">
+      <c r="F3078" s="27" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G3078">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="3079" spans="6:7">
+      <c r="F3079" s="27" t="s">
+        <v>3193</v>
+      </c>
+      <c r="G3079">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="3080" spans="6:7">
+      <c r="F3080" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3080">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="3081" spans="6:7">
+      <c r="F3081" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G3081">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="3082" spans="6:7">
+      <c r="F3082" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3082">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="3083" spans="6:7">
+      <c r="F3083" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G3083">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="3084" spans="6:7">
+      <c r="F3084" t="s">
+        <v>3195</v>
+      </c>
+      <c r="G3084">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="3085" spans="6:7">
+      <c r="F3085" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3085">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3086" spans="6:7">
+      <c r="F3086" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G3086">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="3087" spans="6:7">
+      <c r="F3087" s="27" t="s">
+        <v>3197</v>
+      </c>
+      <c r="G3087">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="3088" spans="6:7">
+      <c r="F3088" t="s">
+        <v>3198</v>
+      </c>
+      <c r="G3088">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="3089" spans="6:7">
+      <c r="F3089" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3089">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="3090" spans="6:7">
+      <c r="F3090" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3090">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="3091" spans="6:7">
+      <c r="F3091" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G3091">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="3092" spans="6:7">
+      <c r="F3092" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3092">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="3093" spans="6:7">
+      <c r="F3093" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G3093">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="3094" spans="6:7">
+      <c r="F3094" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G3094">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="3095" spans="6:7">
+      <c r="F3095" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G3095">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="3096" spans="6:7">
+      <c r="F3096" t="s">
+        <v>3201</v>
+      </c>
+      <c r="G3096">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="3097" spans="6:7">
+      <c r="F3097" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G3097">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="3098" spans="6:7">
+      <c r="F3098" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3098">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="3099" spans="6:7">
+      <c r="F3099" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G3099">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="3100" spans="6:7">
+      <c r="F3100" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3100">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="3101" spans="6:7">
+      <c r="F3101" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G3101">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="3102" spans="6:7">
+      <c r="F3102" s="27" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G3102">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="3103" spans="6:7">
+      <c r="F3103" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G3103">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="3104" spans="6:7">
+      <c r="F3104" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G3104">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="3105" spans="6:7">
+      <c r="F3105" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G3105">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="3106" spans="6:7">
+      <c r="F3106" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G3106">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="3107" spans="6:7">
+      <c r="F3107" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G3107">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="3108" spans="6:7">
+      <c r="F3108" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G3108">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="3109" spans="6:7">
+      <c r="F3109" t="s">
+        <v>3206</v>
+      </c>
+      <c r="G3109">
+        <v>1824</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2257:L2321">
-    <sortCondition ref="A2257:A2321"/>
+  <sortState ref="A2844:B2889">
+    <sortCondition ref="A2844:A2889"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35145,8 +38453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -35479,6 +38787,9 @@
       <c r="E11" s="31" t="s">
         <v>2896</v>
       </c>
+      <c r="N11" t="s">
+        <v>2977</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="21">
       <c r="A12" s="21" t="s">
@@ -35496,6 +38807,9 @@
       <c r="E12" s="31" t="s">
         <v>2955</v>
       </c>
+      <c r="N12" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="21">
       <c r="A13" s="34" t="s">
@@ -35513,6 +38827,9 @@
       <c r="E13" s="31" t="s">
         <v>2956</v>
       </c>
+      <c r="N13" t="s">
+        <v>2979</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="21">
       <c r="A14" s="34" t="s">
@@ -35563,6 +38880,10 @@
         <f>VLOOKUP(G15,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="N15" t="str">
+        <f>"| "&amp;F15&amp;" | "&amp;G15&amp;" | "&amp;H15&amp;" | "&amp;I15&amp;" |"</f>
+        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="21">
       <c r="A16" s="21" t="s">
@@ -35596,8 +38917,12 @@
         <f>VLOOKUP(G16,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="21">
+      <c r="N16" t="str">
+        <f t="shared" ref="N16:N32" si="0">"| "&amp;F16&amp;" | "&amp;G16&amp;" | "&amp;H16&amp;" | "&amp;I16&amp;" |"</f>
+        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21">
       <c r="A17" s="34" t="s">
         <v>2880</v>
       </c>
@@ -35629,8 +38954,12 @@
         <f>VLOOKUP(G17,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="21">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21">
       <c r="A18" s="21" t="s">
         <v>2880</v>
       </c>
@@ -35662,8 +38991,12 @@
         <f>VLOOKUP(G18,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="21">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21">
       <c r="A19" s="21" t="s">
         <v>2880</v>
       </c>
@@ -35695,8 +39028,12 @@
         <f>VLOOKUP(G19,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="21">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21">
       <c r="A20" s="21" t="s">
         <v>2880</v>
       </c>
@@ -35728,8 +39065,12 @@
         <f>VLOOKUP(G20,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="21">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 96964__gabisaraceni__porta-abrindo-5.wav | https://freesound.org/s/96964/ | gabisaraceni |</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21">
       <c r="A21" s="21" t="s">
         <v>2880</v>
       </c>
@@ -35761,8 +39102,12 @@
         <f>VLOOKUP(G21,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="21">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21">
       <c r="A22" s="34" t="s">
         <v>2880</v>
       </c>
@@ -35794,8 +39139,12 @@
         <f>VLOOKUP(G22,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="21">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21">
       <c r="A23" s="34" t="s">
         <v>2882</v>
       </c>
@@ -35827,8 +39176,12 @@
         <f>VLOOKUP(G23,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="21">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21">
       <c r="A24" s="34" t="s">
         <v>2882</v>
       </c>
@@ -35860,8 +39213,12 @@
         <f>VLOOKUP(G24,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="21">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21">
       <c r="A25" s="21" t="s">
         <v>2882</v>
       </c>
@@ -35883,7 +39240,7 @@
       <c r="G25" s="21" t="s">
         <v>2878</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="32" t="s">
         <v>2970</v>
       </c>
       <c r="I25" s="31" t="s">
@@ -35893,8 +39250,12 @@
         <f>VLOOKUP(G25,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="21">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21">
       <c r="F26" s="39" t="s">
         <v>2889</v>
       </c>
@@ -35911,8 +39272,12 @@
         <f>VLOOKUP(G26,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="21">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21">
       <c r="F27" s="41" t="s">
         <v>2897</v>
       </c>
@@ -35929,8 +39294,12 @@
         <f>VLOOKUP(G27,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="21">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21">
       <c r="F28" s="39" t="s">
         <v>2889</v>
       </c>
@@ -35948,8 +39317,12 @@
         <v>#N/A</v>
       </c>
       <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="1:13" ht="21">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21">
       <c r="F29" s="39" t="s">
         <v>2897</v>
       </c>
@@ -35966,8 +39339,12 @@
         <f>VLOOKUP(G29,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="21">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21">
       <c r="F30" s="31" t="s">
         <v>2909</v>
       </c>
@@ -35984,8 +39361,12 @@
         <f>VLOOKUP(G30,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="21">
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="21">
       <c r="F31" s="39" t="s">
         <v>2889</v>
       </c>
@@ -36002,8 +39383,12 @@
         <f>VLOOKUP(G31,prev,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="21">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21">
       <c r="F32" s="39" t="s">
         <v>2909</v>
       </c>
@@ -36019,6 +39404,10 @@
       <c r="L32" t="e">
         <f>VLOOKUP(G32,prev,1,FALSE)</f>
         <v>#N/A</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
       </c>
     </row>
   </sheetData>
@@ -36041,7 +39430,9 @@
     <hyperlink ref="H19:H20" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
     <hyperlink ref="H19" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
     <hyperlink ref="H20" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
+    <hyperlink ref="H25" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE4743-124D-AD48-91B6-391A517549F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3CC22-F369-5040-9540-2F0C62766DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-40" yWindow="480" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sounds" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$2982:$B$3064</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3077:$B$3113</definedName>
     <definedName name="prev">Sounds!$N$2:$N$9</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="3247">
   <si>
     <t>trigOnly</t>
   </si>
@@ -9468,6 +9468,9 @@
     <t>2289:DEBUG loop() - nowVinputRBG 0x240 loopCount 609</t>
   </si>
   <si>
+    <t>18:DEBUG loop() - nowVinputRBG 0x240 loopCount 1</t>
+  </si>
+  <si>
     <t>re-organize timing; sometimes sound doesn't start right. 40 msec delay for state; up to 100 msec delay for busy</t>
   </si>
   <si>
@@ -9889,13 +9892,130 @@
   </si>
   <si>
     <t>DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 7 foundInputRow 8 loopCount 9090</t>
+  </si>
+  <si>
+    <t>11: RBG_startEffectSound ln 608 EFCT num 40 final num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>12: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>745:DEBUG loop() - nowVinputRBG 0x40 loopCount 122</t>
+  </si>
+  <si>
+    <t>757:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 0 foundInputRow 1 loopCount 122</t>
+  </si>
+  <si>
+    <t>779:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 125</t>
+  </si>
+  <si>
+    <t>780: RBG_startEffectSound ln 608 EFCT num 102 final num 102 loopCount 125</t>
+  </si>
+  <si>
+    <t>781: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>787:DEBUG loop() - nowVinputRBG 0x240 loopCount 126</t>
+  </si>
+  <si>
+    <t>932:DEBUG loop() - nowVinputRBG 0x260 loopCount 138</t>
+  </si>
+  <si>
+    <t>946:DEBUG RBG_processStateTable() - tmpVinputRBG 0x260 from row 5 foundInputRow 7 loopCount 138</t>
+  </si>
+  <si>
+    <t>947: RBG_startEffectSound ln 608 EFCT num 0 final num 1 loopCount 139</t>
+  </si>
+  <si>
+    <t>948: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>954:DEBUG loop() - nowVinputRBG 0x60 loopCount 140</t>
+  </si>
+  <si>
+    <t>966:DEBUG RBG_processStateTable() - tmpVinputRBG 0x60 from row 7 foundInputRow 8 loopCount 140</t>
+  </si>
+  <si>
+    <t>967:DEBUG loop() - nowVinputRBG 0x260 loopCount 141</t>
+  </si>
+  <si>
+    <t>972:DEBUG loop() - nowVinputRBG 0x240 loopCount 142</t>
+  </si>
+  <si>
+    <t>984:DEBUG RBG_processStateTable() - tmpVinputRBG 0x240 from row 8 foundInputRow 9 loopCount 142</t>
+  </si>
+  <si>
+    <t>985: RBG_startEffectSound ln 608 EFCT num 10 final num 11 loopCount 143</t>
+  </si>
+  <si>
+    <t>986: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1226:DEBUG loop() - nowVinputRBG 0x260 loopCount 184</t>
+  </si>
+  <si>
+    <t>1251:DEBUG loop() - nowVinputRBG 0x240 loopCount 188</t>
+  </si>
+  <si>
+    <t>1312:DEBUG loop() - nowVinputRBG 0x260 loopCount 198</t>
+  </si>
+  <si>
+    <t>1337:DEBUG loop() - nowVinputRBG 0x240 loopCount 202</t>
+  </si>
+  <si>
+    <t>1368:DEBUG loop() - nowVinputRBG 0x40 loopCount 258</t>
+  </si>
+  <si>
+    <t>1374:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 9 foundInputRow 10 loopCount 258</t>
+  </si>
+  <si>
+    <t>1384:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 10 foundInputRow 1 loopCount 260</t>
+  </si>
+  <si>
+    <t>1394:DEBUG RBG_processStateTable() - tmpVinputRBG 0x40 from row 1 foundInputRow 5 loopCount 262</t>
+  </si>
+  <si>
+    <t>1395: RBG_startEffectSound ln 608 EFCT num 102 final num 102 loopCount 263</t>
+  </si>
+  <si>
+    <t>1396: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 10</t>
+  </si>
+  <si>
+    <t>1402:DEBUG loop() - nowVinputRBG 0x240 loopCount 263</t>
+  </si>
+  <si>
+    <t>1403:DEBUG loop() - nowVinputRBG 0x40 loopCount 1059</t>
+  </si>
+  <si>
+    <t>1408: RBG_startEffectSound ln 608 EFCT num 102 final num 102 loopCount 1059</t>
+  </si>
+  <si>
+    <t>1409: RBG_startEffectSound ln 638 waited for AUDIO_BUSY (msec) 0</t>
+  </si>
+  <si>
+    <t>1410:DEBUG loop() - nowVinputRBG 0x240 loopCount 1059</t>
+  </si>
+  <si>
+    <t>13: RBG_startEffectLED ln 552 EFCT num 40 final LED num 41 loopCount 0</t>
+  </si>
+  <si>
+    <t>782: RBG_startEffectLED ln 552 EFCT num 102 final LED num 102 loopCount 125</t>
+  </si>
+  <si>
+    <t>949: RBG_startEffectLED ln 552 EFCT num 0 final LED num 1 loopCount 139</t>
+  </si>
+  <si>
+    <t>987: RBG_startEffectLED ln 552 EFCT num 10 final LED num 11 loopCount 143</t>
+  </si>
+  <si>
+    <t>1397: RBG_startEffectLED ln 552 EFCT num 102 final LED num 102 loopCount 263</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10029,6 +10149,13 @@
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -10181,7 +10308,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10227,6 +10354,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
@@ -10244,6 +10372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -11121,10 +11251,10 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:14" s="28" customFormat="1">
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="16">
       <c r="A26" s="9" t="s">
@@ -11381,10 +11511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:L3109"/>
+  <dimension ref="A1:L3118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2988" workbookViewId="0">
-      <selection activeCell="E3008" sqref="E3008"/>
+    <sheetView tabSelected="1" topLeftCell="A3078" workbookViewId="0">
+      <selection activeCell="B3081" sqref="B3081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -34148,15 +34278,15 @@
       </c>
     </row>
     <row r="2945" spans="1:2" ht="16">
-      <c r="A2945" s="43">
+      <c r="A2945" s="44">
         <v>10</v>
       </c>
-      <c r="B2945" s="44" t="s">
+      <c r="B2945" s="45" t="s">
         <v>2980</v>
       </c>
     </row>
     <row r="2946" spans="1:2" ht="16">
-      <c r="A2946" s="43">
+      <c r="A2946" s="44">
         <v>11</v>
       </c>
       <c r="B2946" s="16" t="s">
@@ -34164,15 +34294,15 @@
       </c>
     </row>
     <row r="2947" spans="1:2" ht="16">
-      <c r="A2947" s="43">
+      <c r="A2947" s="44">
         <v>12</v>
       </c>
-      <c r="B2947" s="43" t="s">
+      <c r="B2947" s="44" t="s">
         <v>3015</v>
       </c>
     </row>
     <row r="2948" spans="1:2" ht="16">
-      <c r="A2948" s="43">
+      <c r="A2948" s="44">
         <v>30</v>
       </c>
       <c r="B2948" s="12" t="s">
@@ -34180,15 +34310,15 @@
       </c>
     </row>
     <row r="2949" spans="1:2" ht="16">
-      <c r="A2949" s="43">
+      <c r="A2949" s="44">
         <v>31</v>
       </c>
-      <c r="B2949" s="44" t="s">
+      <c r="B2949" s="45" t="s">
         <v>2981</v>
       </c>
     </row>
     <row r="2950" spans="1:2" ht="16">
-      <c r="A2950" s="43">
+      <c r="A2950" s="44">
         <v>53</v>
       </c>
       <c r="B2950" s="12" t="s">
@@ -34196,7 +34326,7 @@
       </c>
     </row>
     <row r="2951" spans="1:2" ht="16">
-      <c r="A2951" s="43">
+      <c r="A2951" s="44">
         <v>54</v>
       </c>
       <c r="B2951" s="16" t="s">
@@ -34204,15 +34334,15 @@
       </c>
     </row>
     <row r="2952" spans="1:2" ht="16">
-      <c r="A2952" s="43">
+      <c r="A2952" s="44">
         <v>61</v>
       </c>
-      <c r="B2952" s="44" t="s">
+      <c r="B2952" s="45" t="s">
         <v>2982</v>
       </c>
     </row>
     <row r="2953" spans="1:2" ht="16">
-      <c r="A2953" s="43">
+      <c r="A2953" s="44">
         <v>78</v>
       </c>
       <c r="B2953" s="16" t="s">
@@ -34220,23 +34350,23 @@
       </c>
     </row>
     <row r="2954" spans="1:2" ht="16">
-      <c r="A2954" s="43">
+      <c r="A2954" s="44">
         <v>79</v>
       </c>
-      <c r="B2954" s="44" t="s">
+      <c r="B2954" s="45" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="2955" spans="1:2" ht="16">
-      <c r="A2955" s="43">
+      <c r="A2955" s="44">
         <v>1976</v>
       </c>
-      <c r="B2955" s="44" t="s">
+      <c r="B2955" s="45" t="s">
         <v>3049</v>
       </c>
     </row>
     <row r="2956" spans="1:2" ht="16">
-      <c r="A2956" s="43">
+      <c r="A2956" s="44">
         <v>1990</v>
       </c>
       <c r="B2956" s="12" t="s">
@@ -34244,7 +34374,7 @@
       </c>
     </row>
     <row r="2957" spans="1:2" ht="16">
-      <c r="A2957" s="43">
+      <c r="A2957" s="44">
         <v>1991</v>
       </c>
       <c r="B2957" s="16" t="s">
@@ -34252,15 +34382,15 @@
       </c>
     </row>
     <row r="2958" spans="1:2" ht="16">
-      <c r="A2958" s="43">
+      <c r="A2958" s="44">
         <v>1998</v>
       </c>
-      <c r="B2958" s="44" t="s">
+      <c r="B2958" s="45" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="2959" spans="1:2" ht="16">
-      <c r="A2959" s="43">
+      <c r="A2959" s="44">
         <v>2010</v>
       </c>
       <c r="B2959" s="12" t="s">
@@ -34268,15 +34398,15 @@
       </c>
     </row>
     <row r="2960" spans="1:2" ht="16">
-      <c r="A2960" s="43">
+      <c r="A2960" s="44">
         <v>2011</v>
       </c>
-      <c r="B2960" s="44" t="s">
+      <c r="B2960" s="45" t="s">
         <v>3054</v>
       </c>
     </row>
     <row r="2961" spans="1:2" ht="16">
-      <c r="A2961" s="43">
+      <c r="A2961" s="44">
         <v>2027</v>
       </c>
       <c r="B2961" s="12" t="s">
@@ -34284,7 +34414,7 @@
       </c>
     </row>
     <row r="2962" spans="1:2" ht="16">
-      <c r="A2962" s="43">
+      <c r="A2962" s="44">
         <v>2028</v>
       </c>
       <c r="B2962" s="16" t="s">
@@ -34292,31 +34422,31 @@
       </c>
     </row>
     <row r="2963" spans="1:2" ht="16">
-      <c r="A2963" s="43">
+      <c r="A2963" s="44">
         <v>2203</v>
       </c>
-      <c r="B2963" s="44" t="s">
+      <c r="B2963" s="45" t="s">
         <v>3057</v>
       </c>
     </row>
     <row r="2964" spans="1:2" ht="16">
-      <c r="A2964" s="43">
+      <c r="A2964" s="44">
         <v>2228</v>
       </c>
-      <c r="B2964" s="44" t="s">
+      <c r="B2964" s="45" t="s">
         <v>3058</v>
       </c>
     </row>
     <row r="2965" spans="1:2" ht="16">
-      <c r="A2965" s="43">
+      <c r="A2965" s="44">
         <v>2253</v>
       </c>
-      <c r="B2965" s="44" t="s">
+      <c r="B2965" s="45" t="s">
         <v>3059</v>
       </c>
     </row>
     <row r="2966" spans="1:2" ht="16">
-      <c r="A2966" s="43">
+      <c r="A2966" s="44">
         <v>2259</v>
       </c>
       <c r="B2966" s="12" t="s">
@@ -34324,7 +34454,7 @@
       </c>
     </row>
     <row r="2967" spans="1:2" ht="16">
-      <c r="A2967" s="43">
+      <c r="A2967" s="44">
         <v>2269</v>
       </c>
       <c r="B2967" s="12" t="s">
@@ -34332,7 +34462,7 @@
       </c>
     </row>
     <row r="2968" spans="1:2" ht="16">
-      <c r="A2968" s="43">
+      <c r="A2968" s="44">
         <v>2279</v>
       </c>
       <c r="B2968" s="12" t="s">
@@ -34340,7 +34470,7 @@
       </c>
     </row>
     <row r="2969" spans="1:2" ht="16">
-      <c r="A2969" s="43">
+      <c r="A2969" s="44">
         <v>2280</v>
       </c>
       <c r="B2969" s="16" t="s">
@@ -34348,25 +34478,25 @@
       </c>
     </row>
     <row r="2970" spans="1:2" ht="16">
-      <c r="A2970" s="43">
+      <c r="A2970" s="44">
         <v>2281</v>
       </c>
-      <c r="B2970" s="43" t="s">
+      <c r="B2970" s="44" t="s">
         <v>3064</v>
       </c>
     </row>
     <row r="2971" spans="1:2" ht="16">
-      <c r="A2971" s="43">
+      <c r="A2971" s="44">
         <v>2289</v>
       </c>
-      <c r="B2971" s="44" t="s">
+      <c r="B2971" s="45" t="s">
         <v>3065</v>
       </c>
     </row>
     <row r="2973" spans="1:2" ht="16" thickBot="1"/>
     <row r="2974" spans="1:2" ht="17" thickTop="1" thickBot="1">
       <c r="B2974" s="1" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="2975" spans="1:2" ht="16" thickTop="1"/>
@@ -34419,7 +34549,7 @@
         <v>3014</v>
       </c>
       <c r="C2984" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="2985" spans="1:4">
@@ -34427,7 +34557,7 @@
         <v>12</v>
       </c>
       <c r="B2985" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="2986" spans="1:4">
@@ -34435,7 +34565,7 @@
         <v>19</v>
       </c>
       <c r="B2986" s="27" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="2987" spans="1:4">
@@ -34443,10 +34573,10 @@
         <v>752</v>
       </c>
       <c r="B2987" s="27" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C2987" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="2988" spans="1:4">
@@ -34454,7 +34584,7 @@
         <v>764</v>
       </c>
       <c r="B2988" s="12" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="D2988" t="s">
         <v>2672</v>
@@ -34465,7 +34595,7 @@
         <v>786</v>
       </c>
       <c r="B2989" s="12" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D2989" t="s">
         <v>2674</v>
@@ -34476,10 +34606,10 @@
         <v>787</v>
       </c>
       <c r="B2990" s="16" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C2990" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="2991" spans="1:4">
@@ -34487,7 +34617,7 @@
         <v>788</v>
       </c>
       <c r="B2991" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="2992" spans="1:4">
@@ -34495,7 +34625,7 @@
         <v>795</v>
       </c>
       <c r="B2992" s="27" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="2993" spans="1:7">
@@ -34503,13 +34633,13 @@
         <v>1708</v>
       </c>
       <c r="B2993" s="27" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E2993" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2993" s="27" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="G2993">
         <v>1708</v>
@@ -34520,16 +34650,16 @@
         <v>1714</v>
       </c>
       <c r="B2994" s="12" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D2994" t="s">
         <v>2675</v>
       </c>
       <c r="E2994" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2994" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="G2994">
         <v>1709</v>
@@ -34540,16 +34670,16 @@
         <v>1715</v>
       </c>
       <c r="B2995" s="16" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="C2995" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E2995" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2995" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G2995">
         <v>1710</v>
@@ -34560,10 +34690,10 @@
         <v>1716</v>
       </c>
       <c r="B2996" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E2996" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2996" t="s">
         <v>2443</v>
@@ -34577,13 +34707,13 @@
         <v>1723</v>
       </c>
       <c r="B2997" s="27" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C2997" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E2997" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2997" t="s">
         <v>2444</v>
@@ -34597,16 +34727,16 @@
         <v>1729</v>
       </c>
       <c r="B2998" s="12" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D2998" t="s">
         <v>2676</v>
       </c>
       <c r="E2998" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2998" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G2998">
         <v>1713</v>
@@ -34617,13 +34747,13 @@
         <v>1730</v>
       </c>
       <c r="B2999" s="27" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E2999" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F2999" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="G2999">
         <v>1714</v>
@@ -34634,13 +34764,13 @@
         <v>1735</v>
       </c>
       <c r="B3000" s="27" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E3000" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3000" s="16" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="G3000">
         <v>1715</v>
@@ -34651,16 +34781,16 @@
         <v>1741</v>
       </c>
       <c r="B3001" s="12" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D3001" t="s">
         <v>2677</v>
       </c>
       <c r="E3001" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3001" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3001">
         <v>1716</v>
@@ -34671,16 +34801,16 @@
         <v>1742</v>
       </c>
       <c r="B3002" s="16" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C3002" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E3002" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3002" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="G3002">
         <v>1717</v>
@@ -34691,10 +34821,10 @@
         <v>1743</v>
       </c>
       <c r="B3003" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E3003" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3003" t="s">
         <v>2453</v>
@@ -34708,13 +34838,13 @@
         <v>1750</v>
       </c>
       <c r="B3004" s="27" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C3004" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E3004" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="F3004" t="s">
         <v>2443</v>
@@ -34728,13 +34858,13 @@
         <v>1756</v>
       </c>
       <c r="B3005" s="12" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="D3005" t="s">
         <v>2678</v>
       </c>
       <c r="F3005" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G3005">
         <v>1720</v>
@@ -34745,13 +34875,13 @@
         <v>1757</v>
       </c>
       <c r="B3006" s="27" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C3006" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="F3006" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3006">
         <v>1721</v>
@@ -34762,13 +34892,13 @@
         <v>1767</v>
       </c>
       <c r="B3007" s="12" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D3007" t="s">
         <v>2672</v>
       </c>
       <c r="F3007" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="G3007">
         <v>1722</v>
@@ -34779,13 +34909,13 @@
         <v>1777</v>
       </c>
       <c r="B3008" s="12" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="D3008" t="s">
         <v>2674</v>
       </c>
       <c r="F3008" s="27" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="G3008" s="4">
         <v>1723</v>
@@ -34796,10 +34926,10 @@
         <v>1778</v>
       </c>
       <c r="B3009" s="16" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="F3009" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="G3009">
         <v>1724</v>
@@ -34810,10 +34940,10 @@
         <v>1779</v>
       </c>
       <c r="B3010" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="F3010" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3010">
         <v>1725</v>
@@ -34824,10 +34954,10 @@
         <v>1786</v>
       </c>
       <c r="B3011" s="27" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C3011" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="F3011" t="s">
         <v>2443</v>
@@ -34841,10 +34971,10 @@
         <v>1791</v>
       </c>
       <c r="B3012" s="16" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="F3012" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G3012">
         <v>1727</v>
@@ -34855,10 +34985,10 @@
         <v>1792</v>
       </c>
       <c r="B3013" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="F3013" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3013">
         <v>1728</v>
@@ -34869,10 +34999,10 @@
         <v>1793</v>
       </c>
       <c r="B3014" s="27" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F3014" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="G3014">
         <v>1729</v>
@@ -34883,10 +35013,10 @@
         <v>1794</v>
       </c>
       <c r="B3015" s="27" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="F3015" s="27" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="G3015">
         <v>1730</v>
@@ -34897,7 +35027,7 @@
         <v>1799</v>
       </c>
       <c r="B3016" s="16" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="F3016" t="s">
         <v>2443</v>
@@ -34911,10 +35041,10 @@
         <v>1800</v>
       </c>
       <c r="B3017" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="F3017" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="G3017">
         <v>1732</v>
@@ -34925,10 +35055,10 @@
         <v>1801</v>
       </c>
       <c r="B3018" s="27" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="F3018" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3018">
         <v>1733</v>
@@ -34939,13 +35069,13 @@
         <v>1802</v>
       </c>
       <c r="B3019" s="27" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E3019" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3019" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="G3019">
         <v>1734</v>
@@ -34956,16 +35086,16 @@
         <v>1808</v>
       </c>
       <c r="B3020" s="12" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D3020" t="s">
         <v>2675</v>
       </c>
       <c r="E3020" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3020" s="27" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="G3020">
         <v>1735</v>
@@ -34976,13 +35106,13 @@
         <v>1809</v>
       </c>
       <c r="B3021" s="16" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E3021" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3021" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="G3021">
         <v>1736</v>
@@ -34993,13 +35123,13 @@
         <v>1810</v>
       </c>
       <c r="B3022" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E3022" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F3022" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3022">
         <v>1737</v>
@@ -35010,12 +35140,12 @@
         <v>1817</v>
       </c>
       <c r="B3023" s="27" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E3023" t="s">
-        <v>3150</v>
-      </c>
-      <c r="F3023" s="45" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F3023" s="46" t="s">
         <v>2443</v>
       </c>
       <c r="G3023">
@@ -35027,10 +35157,10 @@
         <v>1818</v>
       </c>
       <c r="B3024" s="27" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="F3024" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="G3024">
         <v>1739</v>
@@ -35041,13 +35171,13 @@
         <v>1824</v>
       </c>
       <c r="B3025" s="12" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="D3025" t="s">
         <v>2676</v>
       </c>
       <c r="F3025" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3025">
         <v>1740</v>
@@ -35058,13 +35188,13 @@
         <v>1834</v>
       </c>
       <c r="B3026" s="12" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D3026" t="s">
         <v>2677</v>
       </c>
       <c r="F3026" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="G3026">
         <v>1741</v>
@@ -35075,10 +35205,10 @@
         <v>1835</v>
       </c>
       <c r="B3027" s="16" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="F3027" s="16" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="G3027">
         <v>1742</v>
@@ -35089,10 +35219,10 @@
         <v>1836</v>
       </c>
       <c r="B3028" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="F3028" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3028">
         <v>1743</v>
@@ -35103,10 +35233,10 @@
         <v>1843</v>
       </c>
       <c r="B3029" s="27" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="F3029" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="G3029">
         <v>1744</v>
@@ -35117,7 +35247,7 @@
         <v>1844</v>
       </c>
       <c r="B3030" s="27" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="F3030" t="s">
         <v>2453</v>
@@ -35131,7 +35261,7 @@
         <v>1850</v>
       </c>
       <c r="B3031" s="12" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D3031" t="s">
         <v>2678</v>
@@ -35148,13 +35278,13 @@
         <v>1860</v>
       </c>
       <c r="B3032" s="12" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="D3032" t="s">
         <v>2672</v>
       </c>
       <c r="F3032" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G3032">
         <v>1747</v>
@@ -35165,13 +35295,13 @@
         <v>1870</v>
       </c>
       <c r="B3033" s="12" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="D3033" t="s">
         <v>2674</v>
       </c>
       <c r="F3033" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3033">
         <v>1748</v>
@@ -35182,10 +35312,10 @@
         <v>1871</v>
       </c>
       <c r="B3034" s="16" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="F3034" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="G3034">
         <v>1749</v>
@@ -35196,10 +35326,10 @@
         <v>1872</v>
       </c>
       <c r="B3035" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="F3035" s="27" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G3035">
         <v>1750</v>
@@ -35210,10 +35340,10 @@
         <v>1879</v>
       </c>
       <c r="B3036" s="27" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="F3036" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="G3036">
         <v>1751</v>
@@ -35224,10 +35354,10 @@
         <v>1880</v>
       </c>
       <c r="B3037" s="27" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="F3037" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3037">
         <v>1752</v>
@@ -35238,7 +35368,7 @@
         <v>1886</v>
       </c>
       <c r="B3038" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="D3038" t="s">
         <v>2679</v>
@@ -35255,10 +35385,10 @@
         <v>1887</v>
       </c>
       <c r="B3039" s="16" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="F3039" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G3039">
         <v>1754</v>
@@ -35269,10 +35399,10 @@
         <v>1888</v>
       </c>
       <c r="B3040" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="F3040" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3040">
         <v>1755</v>
@@ -35283,10 +35413,10 @@
         <v>1895</v>
       </c>
       <c r="B3041" s="27" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="F3041" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="G3041">
         <v>1756</v>
@@ -35297,13 +35427,13 @@
         <v>1901</v>
       </c>
       <c r="B3042" s="12" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D3042" t="s">
         <v>2672</v>
       </c>
       <c r="F3042" s="27" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="G3042">
         <v>1757</v>
@@ -35314,7 +35444,7 @@
         <v>1902</v>
       </c>
       <c r="B3043" s="27" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="F3043" t="s">
         <v>2443</v>
@@ -35328,13 +35458,13 @@
         <v>1912</v>
       </c>
       <c r="B3044" s="12" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="D3044" t="s">
         <v>2673</v>
       </c>
       <c r="F3044" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="G3044">
         <v>1759</v>
@@ -35345,10 +35475,10 @@
         <v>1913</v>
       </c>
       <c r="B3045" s="16" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="F3045" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3045">
         <v>1760</v>
@@ -35359,10 +35489,10 @@
         <v>1914</v>
       </c>
       <c r="B3046" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="F3046" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="G3046">
         <v>1761</v>
@@ -35373,10 +35503,10 @@
         <v>1921</v>
       </c>
       <c r="B3047" s="27" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="F3047" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="G3047">
         <v>1762</v>
@@ -35387,10 +35517,10 @@
         <v>1926</v>
       </c>
       <c r="B3048" s="16" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="F3048" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3048">
         <v>1763</v>
@@ -35401,7 +35531,7 @@
         <v>1927</v>
       </c>
       <c r="B3049" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="F3049" t="s">
         <v>2443</v>
@@ -35415,10 +35545,10 @@
         <v>1928</v>
       </c>
       <c r="B3050" s="27" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="F3050" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="G3050">
         <v>1765</v>
@@ -35429,10 +35559,10 @@
         <v>1929</v>
       </c>
       <c r="B3051" s="27" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="F3051" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3051">
         <v>1766</v>
@@ -35443,13 +35573,13 @@
         <v>1935</v>
       </c>
       <c r="B3052" s="12" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="D3052" t="s">
         <v>2725</v>
       </c>
       <c r="F3052" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G3052">
         <v>1767</v>
@@ -35460,7 +35590,7 @@
         <v>1936</v>
       </c>
       <c r="B3053" s="16" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="F3053" t="s">
         <v>2443</v>
@@ -35474,10 +35604,10 @@
         <v>1937</v>
       </c>
       <c r="B3054" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="F3054" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="G3054">
         <v>1769</v>
@@ -35488,10 +35618,10 @@
         <v>1944</v>
       </c>
       <c r="B3055" s="27" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="F3055" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3055">
         <v>1770</v>
@@ -35502,13 +35632,13 @@
         <v>1950</v>
       </c>
       <c r="B3056" s="12" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="D3056" t="s">
         <v>2672</v>
       </c>
       <c r="F3056" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="G3056">
         <v>1771</v>
@@ -35519,10 +35649,10 @@
         <v>1951</v>
       </c>
       <c r="B3057" s="27" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F3057" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="G3057">
         <v>1772</v>
@@ -35533,13 +35663,13 @@
         <v>1961</v>
       </c>
       <c r="B3058" s="12" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D3058" t="s">
         <v>2674</v>
       </c>
       <c r="F3058" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3058">
         <v>1773</v>
@@ -35550,7 +35680,7 @@
         <v>1962</v>
       </c>
       <c r="B3059" s="16" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="F3059" t="s">
         <v>2443</v>
@@ -35564,10 +35694,10 @@
         <v>1963</v>
       </c>
       <c r="B3060" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="F3060" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="G3060">
         <v>1775</v>
@@ -35578,10 +35708,10 @@
         <v>1970</v>
       </c>
       <c r="B3061" s="27" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="F3061" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3061">
         <v>1776</v>
@@ -35592,10 +35722,10 @@
         <v>1975</v>
       </c>
       <c r="B3062" s="16" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="F3062" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="G3062">
         <v>1777</v>
@@ -35606,10 +35736,10 @@
         <v>1976</v>
       </c>
       <c r="B3063" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="F3063" s="16" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="G3063">
         <v>1778</v>
@@ -35620,10 +35750,10 @@
         <v>1977</v>
       </c>
       <c r="B3064" s="27" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="F3064" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3064">
         <v>1779</v>
@@ -35631,7 +35761,7 @@
     </row>
     <row r="3065" spans="1:7">
       <c r="F3065" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="G3065">
         <v>1780</v>
@@ -35653,7 +35783,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="3068" spans="1:7">
+    <row r="3068" spans="1:7" ht="16" thickBot="1">
       <c r="F3068" t="s">
         <v>2444</v>
       </c>
@@ -35661,31 +35791,40 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="3069" spans="1:7">
+    <row r="3069" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="B3069" s="1" t="s">
+        <v>3067</v>
+      </c>
       <c r="F3069" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3069">
         <v>1784</v>
       </c>
     </row>
-    <row r="3070" spans="1:7">
+    <row r="3070" spans="1:7" ht="16" thickTop="1">
       <c r="F3070" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="G3070">
         <v>1785</v>
       </c>
     </row>
     <row r="3071" spans="1:7">
+      <c r="B3071" t="s">
+        <v>127</v>
+      </c>
       <c r="F3071" s="27" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="G3071">
         <v>1786</v>
       </c>
     </row>
     <row r="3072" spans="1:7">
+      <c r="B3072" t="s">
+        <v>128</v>
+      </c>
       <c r="F3072" t="s">
         <v>2443</v>
       </c>
@@ -35693,7 +35832,10 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="3073" spans="6:7">
+    <row r="3073" spans="1:7">
+      <c r="B3073" t="s">
+        <v>911</v>
+      </c>
       <c r="F3073" t="s">
         <v>2444</v>
       </c>
@@ -35701,55 +35843,85 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="3074" spans="6:7">
+    <row r="3074" spans="1:7">
+      <c r="B3074" t="s">
+        <v>912</v>
+      </c>
       <c r="F3074" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3074">
         <v>1789</v>
       </c>
     </row>
-    <row r="3075" spans="6:7">
+    <row r="3075" spans="1:7">
+      <c r="B3075" t="s">
+        <v>2821</v>
+      </c>
       <c r="F3075" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="G3075">
         <v>1790</v>
       </c>
     </row>
-    <row r="3076" spans="6:7">
+    <row r="3076" spans="1:7">
       <c r="F3076" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="G3076">
         <v>1791</v>
       </c>
     </row>
-    <row r="3077" spans="6:7">
+    <row r="3077" spans="1:7">
+      <c r="A3077" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>615</v>
+      </c>
       <c r="F3077" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3077">
         <v>1792</v>
       </c>
     </row>
-    <row r="3078" spans="6:7">
+    <row r="3078" spans="1:7">
+      <c r="A3078">
+        <v>10</v>
+      </c>
+      <c r="B3078" s="27" t="s">
+        <v>2980</v>
+      </c>
       <c r="F3078" s="27" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="G3078">
         <v>1793</v>
       </c>
     </row>
-    <row r="3079" spans="6:7">
+    <row r="3079" spans="1:7">
+      <c r="A3079">
+        <v>11</v>
+      </c>
+      <c r="B3079" s="16" t="s">
+        <v>3208</v>
+      </c>
       <c r="F3079" s="27" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="G3079">
         <v>1794</v>
       </c>
     </row>
-    <row r="3080" spans="6:7">
+    <row r="3080" spans="1:7">
+      <c r="A3080">
+        <v>12</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>3209</v>
+      </c>
       <c r="F3080" t="s">
         <v>2443</v>
       </c>
@@ -35757,7 +35929,13 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="3081" spans="6:7">
+    <row r="3081" spans="1:7">
+      <c r="A3081">
+        <v>13</v>
+      </c>
+      <c r="B3081" s="48" t="s">
+        <v>3242</v>
+      </c>
       <c r="F3081" t="s">
         <v>2444</v>
       </c>
@@ -35765,71 +35943,125 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="3082" spans="6:7">
+    <row r="3082" spans="1:7">
+      <c r="A3082">
+        <v>18</v>
+      </c>
+      <c r="B3082" s="27" t="s">
+        <v>3066</v>
+      </c>
       <c r="F3082" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3082">
         <v>1797</v>
       </c>
     </row>
-    <row r="3083" spans="6:7">
+    <row r="3083" spans="1:7">
+      <c r="A3083">
+        <v>745</v>
+      </c>
+      <c r="B3083" s="27" t="s">
+        <v>3210</v>
+      </c>
       <c r="F3083" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="G3083">
         <v>1798</v>
       </c>
     </row>
-    <row r="3084" spans="6:7">
+    <row r="3084" spans="1:7">
+      <c r="A3084">
+        <v>757</v>
+      </c>
+      <c r="B3084" s="12" t="s">
+        <v>3211</v>
+      </c>
       <c r="F3084" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="G3084">
         <v>1799</v>
       </c>
     </row>
-    <row r="3085" spans="6:7">
+    <row r="3085" spans="1:7">
+      <c r="A3085">
+        <v>779</v>
+      </c>
+      <c r="B3085" s="17" t="s">
+        <v>3212</v>
+      </c>
       <c r="F3085" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3085">
         <v>1800</v>
       </c>
     </row>
-    <row r="3086" spans="6:7">
+    <row r="3086" spans="1:7">
+      <c r="A3086">
+        <v>780</v>
+      </c>
+      <c r="B3086" s="33" t="s">
+        <v>3213</v>
+      </c>
       <c r="F3086" s="27" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="G3086">
         <v>1801</v>
       </c>
     </row>
-    <row r="3087" spans="6:7">
+    <row r="3087" spans="1:7">
+      <c r="A3087">
+        <v>781</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>3214</v>
+      </c>
       <c r="F3087" s="27" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="G3087">
         <v>1802</v>
       </c>
     </row>
-    <row r="3088" spans="6:7">
+    <row r="3088" spans="1:7">
+      <c r="A3088">
+        <v>782</v>
+      </c>
+      <c r="B3088" s="48" t="s">
+        <v>3243</v>
+      </c>
       <c r="F3088" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="G3088">
         <v>1803</v>
       </c>
     </row>
-    <row r="3089" spans="6:7">
+    <row r="3089" spans="1:7">
+      <c r="A3089">
+        <v>787</v>
+      </c>
+      <c r="B3089" s="27" t="s">
+        <v>3215</v>
+      </c>
       <c r="F3089" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3089">
         <v>1804</v>
       </c>
     </row>
-    <row r="3090" spans="6:7">
+    <row r="3090" spans="1:7">
+      <c r="A3090">
+        <v>932</v>
+      </c>
+      <c r="B3090" s="47" t="s">
+        <v>3216</v>
+      </c>
       <c r="F3090" t="s">
         <v>2443</v>
       </c>
@@ -35837,7 +36069,13 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="3091" spans="6:7">
+    <row r="3091" spans="1:7">
+      <c r="A3091">
+        <v>946</v>
+      </c>
+      <c r="B3091" s="12" t="s">
+        <v>3217</v>
+      </c>
       <c r="F3091" t="s">
         <v>2444</v>
       </c>
@@ -35845,47 +36083,83 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="3092" spans="6:7">
+    <row r="3092" spans="1:7">
+      <c r="A3092">
+        <v>947</v>
+      </c>
+      <c r="B3092" s="33" t="s">
+        <v>3218</v>
+      </c>
       <c r="F3092" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3092">
         <v>1807</v>
       </c>
     </row>
-    <row r="3093" spans="6:7">
+    <row r="3093" spans="1:7">
+      <c r="A3093">
+        <v>948</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>3219</v>
+      </c>
       <c r="F3093" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="G3093">
         <v>1808</v>
       </c>
     </row>
-    <row r="3094" spans="6:7">
+    <row r="3094" spans="1:7">
+      <c r="A3094">
+        <v>949</v>
+      </c>
+      <c r="B3094" s="48" t="s">
+        <v>3244</v>
+      </c>
       <c r="F3094" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="G3094">
         <v>1809</v>
       </c>
     </row>
-    <row r="3095" spans="6:7">
+    <row r="3095" spans="1:7">
+      <c r="A3095">
+        <v>954</v>
+      </c>
+      <c r="B3095" s="27" t="s">
+        <v>3220</v>
+      </c>
       <c r="F3095" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G3095">
         <v>1810</v>
       </c>
     </row>
-    <row r="3096" spans="6:7">
+    <row r="3096" spans="1:7">
+      <c r="A3096">
+        <v>966</v>
+      </c>
+      <c r="B3096" s="12" t="s">
+        <v>3221</v>
+      </c>
       <c r="F3096" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="G3096">
         <v>1811</v>
       </c>
     </row>
-    <row r="3097" spans="6:7">
+    <row r="3097" spans="1:7">
+      <c r="A3097">
+        <v>967</v>
+      </c>
+      <c r="B3097" s="47" t="s">
+        <v>3222</v>
+      </c>
       <c r="F3097" t="s">
         <v>2453</v>
       </c>
@@ -35893,7 +36167,13 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="3098" spans="6:7">
+    <row r="3098" spans="1:7">
+      <c r="A3098">
+        <v>972</v>
+      </c>
+      <c r="B3098" s="27" t="s">
+        <v>3223</v>
+      </c>
       <c r="F3098" t="s">
         <v>2443</v>
       </c>
@@ -35901,63 +36181,111 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="3099" spans="6:7">
+    <row r="3099" spans="1:7">
+      <c r="A3099">
+        <v>984</v>
+      </c>
+      <c r="B3099" s="12" t="s">
+        <v>3224</v>
+      </c>
       <c r="F3099" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G3099">
         <v>1814</v>
       </c>
     </row>
-    <row r="3100" spans="6:7">
+    <row r="3100" spans="1:7">
+      <c r="A3100">
+        <v>985</v>
+      </c>
+      <c r="B3100" s="33" t="s">
+        <v>3225</v>
+      </c>
       <c r="F3100" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3100">
         <v>1815</v>
       </c>
     </row>
-    <row r="3101" spans="6:7">
+    <row r="3101" spans="1:7">
+      <c r="A3101">
+        <v>986</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>3226</v>
+      </c>
       <c r="F3101" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="G3101">
         <v>1816</v>
       </c>
     </row>
-    <row r="3102" spans="6:7">
+    <row r="3102" spans="1:7">
+      <c r="A3102">
+        <v>987</v>
+      </c>
+      <c r="B3102" s="48" t="s">
+        <v>3245</v>
+      </c>
       <c r="F3102" s="27" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="G3102">
         <v>1817</v>
       </c>
     </row>
-    <row r="3103" spans="6:7">
+    <row r="3103" spans="1:7">
+      <c r="A3103">
+        <v>1226</v>
+      </c>
+      <c r="B3103" s="27" t="s">
+        <v>3227</v>
+      </c>
       <c r="F3103" s="27" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="G3103">
         <v>1818</v>
       </c>
     </row>
-    <row r="3104" spans="6:7">
+    <row r="3104" spans="1:7">
+      <c r="A3104">
+        <v>1251</v>
+      </c>
+      <c r="B3104" s="27" t="s">
+        <v>3228</v>
+      </c>
       <c r="F3104" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="G3104">
         <v>1819</v>
       </c>
     </row>
-    <row r="3105" spans="6:7">
+    <row r="3105" spans="1:7">
+      <c r="A3105">
+        <v>1312</v>
+      </c>
+      <c r="B3105" s="27" t="s">
+        <v>3229</v>
+      </c>
       <c r="F3105" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="G3105">
         <v>1820</v>
       </c>
     </row>
-    <row r="3106" spans="6:7">
+    <row r="3106" spans="1:7">
+      <c r="A3106">
+        <v>1337</v>
+      </c>
+      <c r="B3106" s="27" t="s">
+        <v>3230</v>
+      </c>
       <c r="F3106" t="s">
         <v>2443</v>
       </c>
@@ -35965,33 +36293,123 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="3107" spans="6:7">
+    <row r="3107" spans="1:7">
+      <c r="A3107">
+        <v>1368</v>
+      </c>
+      <c r="B3107" s="47" t="s">
+        <v>3231</v>
+      </c>
       <c r="F3107" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G3107">
         <v>1822</v>
       </c>
     </row>
-    <row r="3108" spans="6:7">
+    <row r="3108" spans="1:7">
+      <c r="A3108">
+        <v>1374</v>
+      </c>
+      <c r="B3108" s="12" t="s">
+        <v>3232</v>
+      </c>
       <c r="F3108" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G3108">
         <v>1823</v>
       </c>
     </row>
-    <row r="3109" spans="6:7">
+    <row r="3109" spans="1:7">
+      <c r="A3109">
+        <v>1384</v>
+      </c>
+      <c r="B3109" s="12" t="s">
+        <v>3233</v>
+      </c>
       <c r="F3109" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="G3109">
         <v>1824</v>
       </c>
     </row>
+    <row r="3110" spans="1:7">
+      <c r="A3110">
+        <v>1394</v>
+      </c>
+      <c r="B3110" s="12" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:7">
+      <c r="A3111">
+        <v>1395</v>
+      </c>
+      <c r="B3111" s="16" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:7">
+      <c r="A3112">
+        <v>1396</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:7">
+      <c r="A3113">
+        <v>1397</v>
+      </c>
+      <c r="B3113" s="48" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:7">
+      <c r="A3114">
+        <v>1402</v>
+      </c>
+      <c r="B3114" s="27" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:7">
+      <c r="A3115">
+        <v>1403</v>
+      </c>
+      <c r="B3115" s="27" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:7">
+      <c r="A3116">
+        <v>1408</v>
+      </c>
+      <c r="B3116" s="33" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:7">
+      <c r="A3117">
+        <v>1409</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:7">
+      <c r="A3118">
+        <v>1410</v>
+      </c>
+      <c r="B3118" s="27" t="s">
+        <v>3241</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2844:B2889">
-    <sortCondition ref="A2844:A2889"/>
+  <sortState ref="A3078:B3118">
+    <sortCondition ref="A3078:A3118"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38470,13 +38888,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23" thickTop="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>2926</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2886</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>617</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -38508,7 +38926,7 @@
       <c r="C2" s="21" t="s">
         <v>2922</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -38531,16 +38949,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2923</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>2932</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>2931</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -38563,16 +38981,16 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>2923</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>2936</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>2937</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E4" s="31" t="s">
@@ -38595,16 +39013,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>2923</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>2939</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>2950</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E5" s="31" t="s">
@@ -38627,16 +39045,16 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="21">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>2923</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>2941</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>2948</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -38659,16 +39077,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="21">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>2923</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>2943</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>2949</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -38694,13 +39112,13 @@
       <c r="A8" s="21" t="s">
         <v>2881</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>2876</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>2877</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -38723,16 +39141,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="21">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>2881</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>2874</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>2875</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -38758,13 +39176,13 @@
       <c r="A10" s="21" t="s">
         <v>2881</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>2866</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>2867</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -38781,7 +39199,7 @@
       <c r="C11" s="21" t="s">
         <v>2922</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -38795,13 +39213,13 @@
       <c r="A12" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>2883</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>2884</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -38812,16 +39230,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>2878</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>2879</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -38832,16 +39250,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>2870</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>2871</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -38852,13 +39270,13 @@
       <c r="A15" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>2868</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>2869</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="42" t="s">
         <v>2897</v>
       </c>
       <c r="E15" s="31" t="s">
@@ -38889,13 +39307,13 @@
       <c r="A16" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>2898</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>2913</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -38923,16 +39341,16 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>2914</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>2915</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -38963,13 +39381,13 @@
       <c r="A18" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>2917</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>2916</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -39000,7 +39418,7 @@
       <c r="A19" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>2919</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -39037,13 +39455,13 @@
       <c r="A20" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>2921</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>2920</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -39074,19 +39492,19 @@
       <c r="A21" s="21" t="s">
         <v>2880</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>2924</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2925</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>2909</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>2963</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -39108,22 +39526,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>2927</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="39" t="s">
         <v>2928</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>2929</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="G22" s="21" t="s">
@@ -39145,22 +39563,22 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="21">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>2882</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>2872</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>2873</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>2908</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -39182,22 +39600,22 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>2882</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>2862</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>2863</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>2952</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -39222,19 +39640,19 @@
       <c r="A25" s="21" t="s">
         <v>2882</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>2864</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>2865</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>2953</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -39256,7 +39674,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="21">
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="G26" s="21" t="s">
@@ -39278,7 +39696,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="21">
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="42" t="s">
         <v>2897</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -39300,7 +39718,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="21">
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -39323,7 +39741,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="21">
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="40" t="s">
         <v>2897</v>
       </c>
       <c r="G29" s="21" t="s">
@@ -39367,7 +39785,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="21">
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="40" t="s">
         <v>2889</v>
       </c>
       <c r="G31" s="21" t="s">
@@ -39389,7 +39807,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="21">
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="40" t="s">
         <v>2909</v>
       </c>
       <c r="G32" s="21" t="s">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3CC22-F369-5040-9540-2F0C62766DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE5D8C-D357-2D48-9AA5-3FB04C7EEC96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="480" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-40" yWindow="480" windowWidth="25600" windowHeight="15540" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="3247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="3248">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10009,6 +10009,9 @@
   </si>
   <si>
     <t>1397: RBG_startEffectLED ln 552 EFCT num 102 final LED num 102 loopCount 263</t>
+  </si>
+  <si>
+    <t>#define mROW_POWERON 0  // first address in myStateTable[]</t>
   </si>
 </sst>
 </file>
@@ -10695,11 +10698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10713,16 +10716,17 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -10753,27 +10757,28 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="1"/>
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="49" thickTop="1">
+    <row r="2" spans="1:19" ht="49" thickTop="1">
       <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
@@ -10796,23 +10801,26 @@
       <c r="J2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="9" t="s">
+        <v>3247</v>
+      </c>
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -10823,23 +10831,23 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>2741</v>
@@ -10858,26 +10866,29 @@
         <v>2558</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="L4" t="s">
+      <c r="K4" s="9" t="s">
+        <v>2672</v>
+      </c>
+      <c r="M4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>32</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>2741</v>
@@ -10896,17 +10907,17 @@
         <v>2557</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -10919,20 +10930,23 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="L6" t="s">
+      <c r="K6" s="9" t="s">
+        <v>2673</v>
+      </c>
+      <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16">
+    <row r="7" spans="1:19" ht="16">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>61</v>
@@ -10955,17 +10969,17 @@
         <v>77</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16">
+    <row r="8" spans="1:19" ht="16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>61</v>
@@ -10988,17 +11002,17 @@
         <v>68</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -11011,17 +11025,17 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>2559</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16">
+    <row r="10" spans="1:19" ht="16">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>61</v>
@@ -11044,17 +11058,20 @@
         <v>77</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>2560</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16">
+    <row r="11" spans="1:19" ht="16">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>61</v>
@@ -11077,14 +11094,14 @@
         <v>67</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11095,14 +11112,14 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11114,7 +11131,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -11133,11 +11150,14 @@
       <c r="J14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="K14" s="9" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="48">
+    <row r="16" spans="1:19" ht="48">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -11150,12 +11170,15 @@
       <c r="J16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="K16" s="9" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -11174,15 +11197,18 @@
       <c r="J18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="K18" s="9" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="48">
+    <row r="21" spans="1:15" ht="48">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -11197,12 +11223,15 @@
       <c r="J21" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="K21" s="9" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22" s="10"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="16">
+    <row r="23" spans="1:15" ht="16">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -11225,8 +11254,11 @@
       <c r="J23" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+      <c r="K23" s="9" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>2738</v>
@@ -11250,13 +11282,13 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:14" s="28" customFormat="1">
+    <row r="25" spans="1:15" s="28" customFormat="1">
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="1:14" ht="16">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="9" t="s">
         <v>63</v>
       </c>
@@ -11275,8 +11307,11 @@
       <c r="J26" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="16">
+      <c r="K26" s="9" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16">
       <c r="B27" s="9" t="s">
         <v>2738</v>
       </c>
@@ -11296,7 +11331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16">
+    <row r="28" spans="1:15" ht="16">
       <c r="B28" s="9" t="s">
         <v>2738</v>
       </c>
@@ -11315,11 +11350,11 @@
       <c r="I28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="R3:R67">
-    <sortCondition ref="R3:R67"/>
+  <sortState ref="S3:S67">
+    <sortCondition ref="S3:S67"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11513,8 +11548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
   <dimension ref="A1:L3118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3078" workbookViewId="0">
-      <selection activeCell="B3081" sqref="B3081"/>
+    <sheetView topLeftCell="A3076" workbookViewId="0">
+      <selection activeCell="B3069" sqref="B3069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdolson/GitHub-Mark-MDO47/RubberBandGun/RBG_arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9FDDF8-03C4-C546-BAD0-BFA48E775C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4AE5E1-523C-3F48-AD42-364A754E9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="480" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-40" yWindow="480" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sounds" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3129:$B$3157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3223:$B$3273</definedName>
     <definedName name="mROW">StateTable!$V$2:$X$21</definedName>
     <definedName name="prev">Sounds!$N$2:$N$9</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="3344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="3395">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10301,6 +10301,159 @@
   </si>
   <si>
     <t>if it is a block of input selections, make all the rows for different behaviors have the same mROW_* name</t>
+  </si>
+  <si>
+    <t>rework the LED routines</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 1081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 3 loopCount 1121</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 1201</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 1241</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 6127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 5 loopCount 6127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 9 loopCount 6207</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 6287</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 6327</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2260 loopCount 19336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_TRIG mINP_BANY thisReturn 11 loopCount 19336</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 19507</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 39606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 12 loopCount 39606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 13 loopCount 39686</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 39931</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 39971</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 43773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 14 loopCount 43773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 5 loopCount 43853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 9 loopCount 43933</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 44013</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 44053</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 63953</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 63994</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 83928</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 83969</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2280 loopCount 89133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_OPEN thisReturn 15 loopCount 89133</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 92431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 17 loopCount 92431</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 97805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 5 loopCount 97805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 9 loopCount 97885</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 97965</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 98005</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2260 loopCount 104535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_TRIG mINP_BANY thisReturn 11 loopCount 104535</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 104785</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 124760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 12 loopCount 124760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 13 loopCount 124840</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 125084</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 125124</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x40 loopCount 128925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_EFCT_ONETIME thisReturn 14 loopCount 128925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mSPCL_HANDLER thisReturn 5 loopCount 129005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RBG_waitForInput mINP_LOCK thisReturn 9 loopCount 129085</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x240 loopCount 129165</t>
+  </si>
+  <si>
+    <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 129205</t>
   </si>
 </sst>
 </file>
@@ -11999,7 +12152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -12188,10 +12341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:M3212"/>
+  <dimension ref="A1:M3273"/>
   <sheetViews>
-    <sheetView topLeftCell="A3168" workbookViewId="0">
-      <selection activeCell="B3190" sqref="B3190"/>
+    <sheetView tabSelected="1" topLeftCell="A3242" workbookViewId="0">
+      <selection activeCell="B3238" sqref="B3238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -38229,7 +38382,298 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
+    <row r="3214" spans="2:4" ht="16" thickBot="1"/>
+    <row r="3215" spans="2:4" ht="17" thickTop="1" thickBot="1">
+      <c r="B3215" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3216" spans="2:4" ht="16" thickTop="1"/>
+    <row r="3217" spans="1:2">
+      <c r="B3217" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2">
+      <c r="B3218" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:2">
+      <c r="B3219" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2">
+      <c r="B3220" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2">
+      <c r="B3221" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2">
+      <c r="A3223" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B3223" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2">
+      <c r="B3224" s="24" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2">
+      <c r="B3225" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2">
+      <c r="B3226" s="24" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2">
+      <c r="B3227" s="24" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2">
+      <c r="B3228" s="24" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2">
+      <c r="B3229" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2">
+      <c r="B3230" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2">
+      <c r="B3231" s="24" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2">
+      <c r="B3232" s="24" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3233" spans="2:2">
+      <c r="B3233" s="24" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="3234" spans="2:2">
+      <c r="B3234" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="3235" spans="2:2">
+      <c r="B3235" s="24" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="3236" spans="2:2">
+      <c r="B3236" s="24" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="3237" spans="2:2">
+      <c r="B3237" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="3238" spans="2:2">
+      <c r="B3238" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="3239" spans="2:2">
+      <c r="B3239" s="24" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="3240" spans="2:2">
+      <c r="B3240" s="24" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3241" spans="2:2">
+      <c r="B3241" s="24" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="3242" spans="2:2">
+      <c r="B3242" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="3243" spans="2:2">
+      <c r="B3243" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="3244" spans="2:2">
+      <c r="B3244" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3245" spans="2:2">
+      <c r="B3245" s="24" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="3246" spans="2:2">
+      <c r="B3246" s="24" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="3247" spans="2:2">
+      <c r="B3247" s="24" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="3248" spans="2:2">
+      <c r="B3248" s="24" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3249" spans="2:2">
+      <c r="B3249" s="24" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="3250" spans="2:2">
+      <c r="B3250" s="24" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="3251" spans="2:2">
+      <c r="B3251" s="24" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3252" spans="2:2">
+      <c r="B3252" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="3253" spans="2:2">
+      <c r="B3253" s="24" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="3254" spans="2:2">
+      <c r="B3254" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="3255" spans="2:2">
+      <c r="B3255" s="24" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="3256" spans="2:2">
+      <c r="B3256" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="3257" spans="2:2">
+      <c r="B3257" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3258" spans="2:2">
+      <c r="B3258" s="24" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="3259" spans="2:2">
+      <c r="B3259" s="24" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="3260" spans="2:2">
+      <c r="B3260" s="24" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="3261" spans="2:2">
+      <c r="B3261" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="3262" spans="2:2">
+      <c r="B3262" s="24" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="3263" spans="2:2">
+      <c r="B3263" s="24" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="3264" spans="2:2">
+      <c r="B3264" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3265" spans="2:2">
+      <c r="B3265" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3266" spans="2:2">
+      <c r="B3266" s="24" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="3267" spans="2:2">
+      <c r="B3267" s="24" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3268" spans="2:2">
+      <c r="B3268" s="24" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="3269" spans="2:2">
+      <c r="B3269" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="3270" spans="2:2">
+      <c r="B3270" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="3271" spans="2:2">
+      <c r="B3271" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="3272" spans="2:2">
+      <c r="B3272" s="24" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="3273" spans="2:2">
+      <c r="B3273" s="24" t="s">
+        <v>3394</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A3223:B3273" xr:uid="{D8398E87-10B4-0F4C-AD8E-D59C955E36B3}"/>
   <sortState ref="A3078:B3118">
     <sortCondition ref="A3078:A3118"/>
   </sortState>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9213BDDA-2E11-4DA9-832E-1C3BEFC17996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D72CB-CB53-4590-9FAA-0501B6A84C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3223:$B$3273</definedName>
     <definedName name="mROW">StateTable!$V$2:$X$21</definedName>
-    <definedName name="prev">Sounds!$AK$2:$AK$15</definedName>
+    <definedName name="prev">Sounds!$AK$2:$AK$16</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4724" uniqueCount="3450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="3489">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10531,9 +10531,6 @@
     <t>unique</t>
   </si>
   <si>
-    <t>my recording of silence</t>
-  </si>
-  <si>
     <t>&lt;html&gt;&lt;body&gt;</t>
   </si>
   <si>
@@ -10625,6 +10622,126 @@
   </si>
   <si>
     <t>4340: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 76131</t>
+  </si>
+  <si>
+    <t>mROW_MENUCFG</t>
+  </si>
+  <si>
+    <t>trigPlus</t>
+  </si>
+  <si>
+    <t>trigYellow</t>
+  </si>
+  <si>
+    <t>trigGreen</t>
+  </si>
+  <si>
+    <t>mCFG_LIGHT</t>
+  </si>
+  <si>
+    <t>trigBlack</t>
+  </si>
+  <si>
+    <t>mCFG_OTHER</t>
+  </si>
+  <si>
+    <t>mEFCT_CONFIGURE</t>
+  </si>
+  <si>
+    <t>Sorry, not yet implemented</t>
+  </si>
+  <si>
+    <t>mEFCT_CONFIGURE+2</t>
+  </si>
+  <si>
+    <t>mADDR_CFGSND</t>
+  </si>
+  <si>
+    <t>mCFG_SOUND_LOOP</t>
+  </si>
+  <si>
+    <t>mCFG_SOUND_SHOOT</t>
+  </si>
+  <si>
+    <t>mCFG_SOUND_LOOPSTART</t>
+  </si>
+  <si>
+    <t>special magic for configuration</t>
+  </si>
+  <si>
+    <t>mSPCL_EFCT_CONFIGURE</t>
+  </si>
+  <si>
+    <t>mCFG_SOUND_NEXT</t>
+  </si>
+  <si>
+    <t>mCFG_SOUND_CHOICE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFGSTORE | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFGNEXT | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2EEPROM | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ+2</t>
+  </si>
+  <si>
+    <t>0102_uniqSorryNotYetImplemented.wav</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>Welcome to RBG configuration: choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself.</t>
+  </si>
+  <si>
+    <t>0062_cfg_introToConfig.wav</t>
+  </si>
+  <si>
+    <t>mEFCT_CONFIGURE+3</t>
+  </si>
+  <si>
+    <t>Press just trigger to cycle through sound choices, trigger + any color to choose the sound.</t>
+  </si>
+  <si>
+    <t>0063_cfg_configSndInstruct.wav</t>
+  </si>
+  <si>
+    <t>0064_cfg_configLEDInstruct.wav</t>
+  </si>
+  <si>
+    <t>0065_cfg_configOtherInstruct.wav</t>
+  </si>
+  <si>
+    <t>0017_PewPewPew.wav</t>
+  </si>
+  <si>
+    <t>mdo47 recording of Pew Pew Pew</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to RBG configuration: choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Press just trigger to cycle through sound choices, trigger + any color to choose the sound."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Press just trigger to cycle through LED pattern choices, trigger + any color to choose the LED Pattern."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Press just trigger to cycle through a list of other choices, trigger + any color to choose the other choice."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of silence</t>
+  </si>
+  <si>
+    <t>mdo47 recording of text</t>
+  </si>
+  <si>
+    <t>(7&lt;&lt;mSHIFT_EFCT_CFGMAXVAL) | mEFCT_SHOOT</t>
   </si>
 </sst>
 </file>
@@ -10999,7 +11116,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11042,7 +11159,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11078,9 +11194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11100,6 +11213,45 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -11422,24 +11574,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
     <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -11506,24 +11658,24 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickTop="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>2733</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="9" t="s">
         <v>3266</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K34" si="0">IF(LEN(C2),VLOOKUP(C2,mROW,3,FALSE),"")</f>
+        <f t="shared" ref="K2:K10" si="0">IF(LEN(C2),VLOOKUP(C2,mROW,3,FALSE),"")</f>
         <v>#define mROW_POWERON 0</v>
       </c>
       <c r="M2" t="s">
@@ -11554,19 +11706,19 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="10"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>2733</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="9" t="s">
         <v>3267</v>
       </c>
@@ -11639,18 +11791,30 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3450</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" t="s">
+        <v>3449</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="V6" t="s">
         <v>61</v>
@@ -11663,32 +11827,10 @@
       </c>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="45">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3267</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>59</v>
-      </c>
+    <row r="7" spans="1:28">
       <c r="K7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#define mROW_PWRON_LOCKED 3</v>
+        <v/>
       </c>
       <c r="V7" s="25" t="s">
         <v>58</v>
@@ -11701,31 +11843,9 @@
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>3267</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="9"/>
       <c r="K8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#define mROW_PWRON_LOCKED 3</v>
+        <v/>
       </c>
       <c r="V8" t="s">
         <v>3267</v>
@@ -11738,16 +11858,6 @@
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
       <c r="K9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11763,27 +11873,9 @@
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
-        <v>2550</v>
-      </c>
-      <c r="J10" s="38"/>
       <c r="K10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#define mROW_MENU 5</v>
+        <v/>
       </c>
       <c r="M10" s="25" t="s">
         <v>10</v>
@@ -11814,28 +11906,32 @@
       </c>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" s="25" customFormat="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C11" s="49" t="s">
+    <row r="11" spans="1:28" s="25" customFormat="1" ht="45">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
-        <v>2549</v>
-      </c>
-      <c r="J11" s="38"/>
       <c r="K11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_MENU 5</v>
+        <f>IF(LEN(C11),VLOOKUP(C11,mROW,3,FALSE),"")</f>
+        <v>#define mROW_PWRON_LOCKED 3</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>11</v>
@@ -11858,21 +11954,31 @@
       <c r="AB11"/>
     </row>
     <row r="12" spans="1:28" s="25" customFormat="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(LEN(C12),VLOOKUP(C12,mROW,3,FALSE),"")</f>
+        <v>#define mROW_PWRON_LOCKED 3</v>
       </c>
       <c r="M12" s="25" t="s">
         <v>12</v>
@@ -11897,31 +12003,31 @@
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>2550</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="38"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" t="s">
+        <v>3449</v>
+      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_MENU_OPEN 7</v>
+        <f>IF(LEN(C13),VLOOKUP(C13,mROW,3,FALSE),"")</f>
+        <v>#define mROW_PWRON_LOCKED 3</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>13</v>
@@ -11944,32 +12050,6 @@
       <c r="AB13"/>
     </row>
     <row r="14" spans="1:28" s="25" customFormat="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>2550</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_MENU_OPEN 7</v>
-      </c>
       <c r="M14" s="25" t="s">
         <v>14</v>
       </c>
@@ -11981,22 +12061,6 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="M15" s="25" t="s">
         <v>15</v>
       </c>
@@ -12008,31 +12072,27 @@
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>2549</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="38"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
+        <v>2550</v>
+      </c>
+      <c r="J16" s="37"/>
       <c r="K16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_MENU_CLOSED 9</v>
+        <f>IF(LEN(C16),VLOOKUP(C16,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU 5</v>
       </c>
       <c r="M16" s="25" t="s">
         <v>16</v>
@@ -12045,31 +12105,27 @@
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37" t="s">
         <v>2549</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_MENU_CLOSED 9</v>
+        <f>IF(LEN(C17),VLOOKUP(C17,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU 5</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>17</v>
@@ -12083,24 +12139,26 @@
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" s="25" customFormat="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C18),VLOOKUP(C18,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="50" t="s">
         <v>29</v>
       </c>
       <c r="W18"/>
@@ -12109,68 +12167,105 @@
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="37"/>
       <c r="K19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C19),VLOOKUP(C19,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU_OPEN 7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="9" t="str">
+        <f>IF(LEN(C20),VLOOKUP(C20,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU_OPEN 7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="9" t="str">
+        <f>IF(LEN(C21),VLOOKUP(C21,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="22" spans="1:26">
+      <c r="A22" s="37"/>
+      <c r="B22" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_WINDUP_SOUND 11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="C21" s="9"/>
-      <c r="K21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="45">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
+      <c r="J22" s="37"/>
       <c r="K22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_SHOOT 12</v>
+        <f>IF(LEN(C22),VLOOKUP(C22,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU_CLOSED 9</v>
       </c>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
@@ -12178,35 +12273,47 @@
       <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="37"/>
       <c r="K23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C23),VLOOKUP(C23,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENU_CLOSED 9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="9" t="str">
+        <f>IF(LEN(C24),VLOOKUP(C24,mROW,3,FALSE),"")</f>
         <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_SHOOT_SOUND 13</v>
       </c>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
@@ -12214,186 +12321,674 @@
       <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C25),VLOOKUP(C25,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="C26" s="9"/>
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
       <c r="K26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C26),VLOOKUP(C26,mROW,3,FALSE),"")</f>
+        <v>#define mROW_WINDUP_SOUND 11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="C27" s="9"/>
+      <c r="K27" s="9" t="str">
+        <f>IF(LEN(C27),VLOOKUP(C27,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="45">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="J27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_SOLENOID 14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="B28" s="10"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:26" ht="45">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
       <c r="K28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C28),VLOOKUP(C28,mROW,3,FALSE),"")</f>
+        <v>#define mROW_SHOOT 12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="K29" s="9" t="str">
+        <f>IF(LEN(C29),VLOOKUP(C29,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mROW_OPNBRL 15</v>
-      </c>
-    </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="9"/>
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
       <c r="B30" s="9" t="s">
         <v>2730</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f>IF(LEN(C30),VLOOKUP(C30,mROW,3,FALSE),"")</f>
+        <v>#define mROW_SHOOT_SOUND 13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="25" customFormat="1">
+      <c r="A31"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" s="9" t="str">
+        <f>IF(LEN(C31),VLOOKUP(C31,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="C32" s="9"/>
+      <c r="K32" s="9" t="str">
+        <f>IF(LEN(C32),VLOOKUP(C32,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="45">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="J33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f>IF(LEN(C33),VLOOKUP(C33,mROW,3,FALSE),"")</f>
+        <v>#define mROW_SOLENOID 14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="B34" s="10"/>
+      <c r="D34" s="3"/>
+      <c r="K34" s="9" t="str">
+        <f>IF(LEN(C34),VLOOKUP(C34,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f>IF(LEN(C35),VLOOKUP(C35,mROW,3,FALSE),"")</f>
+        <v>#define mROW_OPNBRL 15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="str">
+        <f>IF(LEN(C36),VLOOKUP(C36,mROW,3,FALSE),"")</f>
         <v>#define mROW_OPNBRL 15</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="25" customFormat="1">
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="K31" s="9" t="str">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:15">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="9" t="str">
+        <f>IF(LEN(C37),VLOOKUP(C37,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="9" t="s">
+    <row r="38" spans="1:15">
+      <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>2730</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="K38" s="9" t="str">
+        <f>IF(LEN(C38),VLOOKUP(C38,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 17</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="9" t="s">
+    <row r="39" spans="1:15">
+      <c r="B39" s="9" t="s">
         <v>2730</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="K39" s="9" t="str">
+        <f>IF(LEN(C39),VLOOKUP(C39,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 17</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="9" t="s">
+    <row r="40" spans="1:15">
+      <c r="B40" s="9" t="s">
         <v>2730</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="K40" s="9" t="str">
+        <f>IF(LEN(C40),VLOOKUP(C40,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 17</v>
       </c>
-      <c r="O34" s="7"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="K41" s="9" t="str">
+        <f>IF(LEN(C41),VLOOKUP(C41,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="K42" s="9" t="str">
+        <f>IF(LEN(C42),VLOOKUP(C42,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="K43" s="9" t="str">
+        <f>IF(LEN(C43),VLOOKUP(C43,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="K44" s="9" t="str">
+        <f>IF(LEN(C44),VLOOKUP(C44,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="120">
+      <c r="A45" s="63" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="9" t="e">
+        <f>IF(LEN(C45),VLOOKUP(C45,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="63"/>
+      <c r="B46" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>3461</v>
+      </c>
+      <c r="K46" s="9" t="e">
+        <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="63"/>
+      <c r="B47" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I47" t="s">
+        <v>3453</v>
+      </c>
+      <c r="K47" s="9" t="e">
+        <f>IF(LEN(C47),VLOOKUP(C47,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="63"/>
+      <c r="B48" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3455</v>
+      </c>
+      <c r="K48" s="9" t="e">
+        <f>IF(LEN(C48),VLOOKUP(C48,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="63"/>
+      <c r="D49" s="3"/>
+      <c r="K49" s="9" t="str">
+        <f>IF(LEN(C49),VLOOKUP(C49,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="63"/>
+      <c r="D50" s="3"/>
+      <c r="K50" s="9" t="str">
+        <f>IF(LEN(C50),VLOOKUP(C50,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30">
+      <c r="A51" s="63" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="K51" s="9" t="e">
+        <f>IF(LEN(C51),VLOOKUP(C51,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="63"/>
+      <c r="K52" s="9" t="str">
+        <f>IF(LEN(C52),VLOOKUP(C52,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30">
+      <c r="A53" s="63" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="K53" s="9" t="e">
+        <f>IF(LEN(C53),VLOOKUP(C53,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="63"/>
+      <c r="K54" s="9" t="str">
+        <f>IF(LEN(C54),VLOOKUP(C54,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="45">
+      <c r="A55" s="63" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10" t="s">
+        <v>3488</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="s">
+        <v>3462</v>
+      </c>
+      <c r="K55" s="9" t="e">
+        <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="63"/>
+      <c r="K56" s="9" t="str">
+        <f>IF(LEN(C56),VLOOKUP(C56,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="75">
+      <c r="A57" s="63" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
+        <v>3460</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9" t="e">
+        <f>IF(LEN(C57),VLOOKUP(C57,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="K58" s="9" t="str">
+        <f>IF(LEN(C58),VLOOKUP(C58,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>3465</v>
+      </c>
+      <c r="K59" s="9" t="e">
+        <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>3466</v>
+      </c>
+      <c r="K60" s="9" t="e">
+        <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="K61" s="9" t="str">
+        <f>IF(LEN(C61),VLOOKUP(C61,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="45">
+      <c r="B62" s="10" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>3465</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>3460</v>
+      </c>
+      <c r="K62" s="9" t="e">
+        <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="K63" s="9" t="str">
+        <f>IF(LEN(C63),VLOOKUP(C63,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="45">
+      <c r="B64" s="10" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>3466</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="K64" s="9" t="e">
+        <f>IF(LEN(C64),VLOOKUP(C64,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="9" t="str">
+        <f>IF(LEN(C65),VLOOKUP(C65,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="9" t="str">
+        <f>IF(LEN(C66),VLOOKUP(C66,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="9" t="str">
+        <f>IF(LEN(C67),VLOOKUP(C67,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="9" t="str">
+        <f>IF(LEN(C68),VLOOKUP(C68,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <sortState ref="V17:Y28">
@@ -12467,7 +13062,7 @@
     </row>
     <row r="11" spans="1:3" s="25" customFormat="1"/>
     <row r="12" spans="1:3" s="25" customFormat="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -12600,8 +13195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
   <dimension ref="A1:M3297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3267" workbookViewId="0">
-      <selection activeCell="B3289" sqref="B3289"/>
+    <sheetView topLeftCell="A3267" workbookViewId="0">
+      <selection activeCell="B3319" sqref="B3319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15360,7 +15955,7 @@
         <f>IF(COUNTIF(B357,"*:sending:*"),"0x"&amp;TRIM(MID(B357,FIND("FF 6",B357)+5,2)),"")</f>
         <v>0x7</v>
       </c>
-      <c r="E357" s="44" t="str">
+      <c r="E357" s="43" t="str">
         <f>VLOOKUP(C357,yxcmd,2,FALSE)</f>
         <v>Specify EQ(0/1/2/3/4/5)</v>
       </c>
@@ -15391,7 +15986,7 @@
         <f>IF(COUNTIF(B359,"*:sending:*"),"0x"&amp;TRIM(MID(B359,FIND("FF 6",B359)+5,2)),"")</f>
         <v>0x9</v>
       </c>
-      <c r="E359" s="44" t="str">
+      <c r="E359" s="43" t="str">
         <f>VLOOKUP(C359,yxcmd,2,FALSE)</f>
         <v>Specify playback source (1/2/3/4/5)</v>
       </c>
@@ -15422,7 +16017,7 @@
         <f>IF(COUNTIF(B361,"*:sending:*"),"0x"&amp;TRIM(MID(B361,FIND("FF 6",B361)+5,2)),"")</f>
         <v>0x6</v>
       </c>
-      <c r="E361" s="44" t="str">
+      <c r="E361" s="43" t="str">
         <f>VLOOKUP(C361,yxcmd,2,FALSE)</f>
         <v>Specify volume</v>
       </c>
@@ -15477,7 +16072,7 @@
         <f>IF(COUNTIF(B366,"*:sending:*"),"0x"&amp;TRIM(MID(B366,FIND("FF 6",B366)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E366" s="44" t="str">
+      <c r="E366" s="43" t="str">
         <f>VLOOKUP(C366,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -15548,7 +16143,7 @@
         <f>IF(COUNTIF(B373,"*:sending:*"),"0x"&amp;TRIM(MID(B373,FIND("FF 6",B373)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E373" s="44" t="str">
+      <c r="E373" s="43" t="str">
         <f>VLOOKUP(C373,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -15665,7 +16260,7 @@
         <f>IF(COUNTIF(B384,"*:sending:*"),"0x"&amp;TRIM(MID(B384,FIND("FF 6",B384)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E384" s="44" t="str">
+      <c r="E384" s="43" t="str">
         <f>VLOOKUP(C384,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -15766,7 +16361,7 @@
         <f>IF(COUNTIF(B393,"*:sending:*"),"0x"&amp;TRIM(MID(B393,FIND("FF 6",B393)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E393" s="44" t="str">
+      <c r="E393" s="43" t="str">
         <f>VLOOKUP(C393,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -16952,7 +17547,7 @@
         <f>IF(COUNTIF(B549,"*:sending:*"),"0x"&amp;TRIM(MID(B549,FIND("FF 6",B549)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E549" s="44" t="str">
+      <c r="E549" s="43" t="str">
         <f>VLOOKUP(C549,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -17023,7 +17618,7 @@
         <f>IF(COUNTIF(B556,"*:sending:*"),"0x"&amp;TRIM(MID(B556,FIND("FF 6",B556)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E556" s="44" t="str">
+      <c r="E556" s="43" t="str">
         <f>VLOOKUP(C556,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -17140,7 +17735,7 @@
         <f>IF(COUNTIF(B567,"*:sending:*"),"0x"&amp;TRIM(MID(B567,FIND("FF 6",B567)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E567" s="44" t="str">
+      <c r="E567" s="43" t="str">
         <f>VLOOKUP(C567,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19491,7 +20086,7 @@
         <f>IF(COUNTIF(B864,"*:sending:*"),"0x"&amp;TRIM(MID(B864,FIND("FF 6",B864)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E864" s="44" t="str">
+      <c r="E864" s="43" t="str">
         <f>VLOOKUP(C864,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19562,7 +20157,7 @@
         <f>IF(COUNTIF(B871,"*:sending:*"),"0x"&amp;TRIM(MID(B871,FIND("FF 6",B871)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E871" s="44" t="str">
+      <c r="E871" s="43" t="str">
         <f>VLOOKUP(C871,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19673,7 +20268,7 @@
         <f>IF(COUNTIF(B882,"*:sending:*"),"0x"&amp;TRIM(MID(B882,FIND("FF 6",B882)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E882" s="44" t="str">
+      <c r="E882" s="43" t="str">
         <f>VLOOKUP(C882,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19776,7 +20371,7 @@
         <f>IF(COUNTIF(B892,"*:sending:*"),"0x"&amp;TRIM(MID(B892,FIND("FF 6",B892)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E892" s="44" t="str">
+      <c r="E892" s="43" t="str">
         <f>VLOOKUP(C892,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19831,7 +20426,7 @@
         <f>IF(COUNTIF(B897,"*:sending:*"),"0x"&amp;TRIM(MID(B897,FIND("FF 6",B897)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E897" s="44" t="str">
+      <c r="E897" s="43" t="str">
         <f>VLOOKUP(C897,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -19934,7 +20529,7 @@
         <f>IF(COUNTIF(B907,"*:sending:*"),"0x"&amp;TRIM(MID(B907,FIND("FF 6",B907)+5,2)),"")</f>
         <v>0x12</v>
       </c>
-      <c r="E907" s="44" t="str">
+      <c r="E907" s="43" t="str">
         <f>VLOOKUP(C907,yxcmd,2,FALSE)</f>
         <v>playMp3Folder(int fileNumber)</v>
       </c>
@@ -26398,7 +26993,7 @@
       </c>
       <c r="C1730" s="15"/>
       <c r="D1730" s="15"/>
-      <c r="E1730" s="45"/>
+      <c r="E1730" s="44"/>
       <c r="F1730" s="15" t="s">
         <v>1327</v>
       </c>
@@ -26439,7 +27034,7 @@
       </c>
       <c r="C1734" s="15"/>
       <c r="D1734" s="15"/>
-      <c r="E1734" s="45" t="s">
+      <c r="E1734" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1734" s="15"/>
@@ -26486,7 +27081,7 @@
       </c>
       <c r="C1739" s="15"/>
       <c r="D1739" s="15"/>
-      <c r="E1739" s="45" t="s">
+      <c r="E1739" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1739" s="15"/>
@@ -26525,7 +27120,7 @@
       </c>
       <c r="C1743" s="15"/>
       <c r="D1743" s="15"/>
-      <c r="E1743" s="45" t="s">
+      <c r="E1743" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1743" s="15"/>
@@ -26540,7 +27135,7 @@
       </c>
       <c r="C1744" s="15"/>
       <c r="D1744" s="15"/>
-      <c r="E1744" s="45"/>
+      <c r="E1744" s="44"/>
       <c r="F1744" s="16" t="s">
         <v>1327</v>
       </c>
@@ -26571,7 +27166,7 @@
       </c>
       <c r="C1747" s="15"/>
       <c r="D1747" s="15"/>
-      <c r="E1747" s="45" t="s">
+      <c r="E1747" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1747" s="15"/>
@@ -26604,7 +27199,7 @@
       </c>
       <c r="C1750" s="15"/>
       <c r="D1750" s="15"/>
-      <c r="E1750" s="45"/>
+      <c r="E1750" s="44"/>
       <c r="F1750" s="16" t="s">
         <v>1327</v>
       </c>
@@ -26643,7 +27238,7 @@
       </c>
       <c r="C1754" s="15"/>
       <c r="D1754" s="15"/>
-      <c r="E1754" s="45"/>
+      <c r="E1754" s="44"/>
       <c r="F1754" s="15"/>
       <c r="G1754" s="15" t="s">
         <v>1927</v>
@@ -26690,7 +27285,7 @@
       </c>
       <c r="C1759" s="15"/>
       <c r="D1759" s="15"/>
-      <c r="E1759" s="45" t="s">
+      <c r="E1759" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1759" s="15"/>
@@ -26739,7 +27334,7 @@
       </c>
       <c r="C1764" s="15"/>
       <c r="D1764" s="15"/>
-      <c r="E1764" s="45" t="s">
+      <c r="E1764" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1764" s="15"/>
@@ -26770,7 +27365,7 @@
       </c>
       <c r="C1767" s="15"/>
       <c r="D1767" s="15"/>
-      <c r="E1767" s="45" t="s">
+      <c r="E1767" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1767" s="15"/>
@@ -26821,7 +27416,7 @@
       </c>
       <c r="C1772" s="15"/>
       <c r="D1772" s="15"/>
-      <c r="E1772" s="45" t="s">
+      <c r="E1772" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1772" s="15"/>
@@ -26852,7 +27447,7 @@
       </c>
       <c r="C1775" s="15"/>
       <c r="D1775" s="15"/>
-      <c r="E1775" s="45"/>
+      <c r="E1775" s="44"/>
       <c r="F1775" s="16" t="s">
         <v>1327</v>
       </c>
@@ -26891,7 +27486,7 @@
       </c>
       <c r="C1779" s="15"/>
       <c r="D1779" s="15"/>
-      <c r="E1779" s="45" t="s">
+      <c r="E1779" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1779" s="15"/>
@@ -26938,7 +27533,7 @@
       </c>
       <c r="C1784" s="15"/>
       <c r="D1784" s="15"/>
-      <c r="E1784" s="45" t="s">
+      <c r="E1784" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="F1784" s="15"/>
@@ -30817,7 +31412,7 @@
       <c r="B2301" s="15" t="s">
         <v>2394</v>
       </c>
-      <c r="E2301" s="46" t="s">
+      <c r="E2301" s="45" t="s">
         <v>2480</v>
       </c>
       <c r="G2301" t="s">
@@ -35391,15 +35986,15 @@
       </c>
     </row>
     <row r="2945" spans="1:2" ht="15.75">
-      <c r="A2945" s="39">
+      <c r="A2945" s="38">
         <v>10</v>
       </c>
-      <c r="B2945" s="40" t="s">
+      <c r="B2945" s="39" t="s">
         <v>2965</v>
       </c>
     </row>
     <row r="2946" spans="1:2" ht="15.75">
-      <c r="A2946" s="39">
+      <c r="A2946" s="38">
         <v>11</v>
       </c>
       <c r="B2946" s="15" t="s">
@@ -35407,15 +36002,15 @@
       </c>
     </row>
     <row r="2947" spans="1:2" ht="15.75">
-      <c r="A2947" s="39">
+      <c r="A2947" s="38">
         <v>12</v>
       </c>
-      <c r="B2947" s="39" t="s">
+      <c r="B2947" s="38" t="s">
         <v>3000</v>
       </c>
     </row>
     <row r="2948" spans="1:2" ht="15.75">
-      <c r="A2948" s="39">
+      <c r="A2948" s="38">
         <v>30</v>
       </c>
       <c r="B2948" s="11" t="s">
@@ -35423,15 +36018,15 @@
       </c>
     </row>
     <row r="2949" spans="1:2" ht="15.75">
-      <c r="A2949" s="39">
+      <c r="A2949" s="38">
         <v>31</v>
       </c>
-      <c r="B2949" s="40" t="s">
+      <c r="B2949" s="39" t="s">
         <v>2966</v>
       </c>
     </row>
     <row r="2950" spans="1:2" ht="15.75">
-      <c r="A2950" s="39">
+      <c r="A2950" s="38">
         <v>53</v>
       </c>
       <c r="B2950" s="11" t="s">
@@ -35439,7 +36034,7 @@
       </c>
     </row>
     <row r="2951" spans="1:2" ht="15.75">
-      <c r="A2951" s="39">
+      <c r="A2951" s="38">
         <v>54</v>
       </c>
       <c r="B2951" s="15" t="s">
@@ -35447,15 +36042,15 @@
       </c>
     </row>
     <row r="2952" spans="1:2" ht="15.75">
-      <c r="A2952" s="39">
+      <c r="A2952" s="38">
         <v>61</v>
       </c>
-      <c r="B2952" s="40" t="s">
+      <c r="B2952" s="39" t="s">
         <v>2967</v>
       </c>
     </row>
     <row r="2953" spans="1:2" ht="15.75">
-      <c r="A2953" s="39">
+      <c r="A2953" s="38">
         <v>78</v>
       </c>
       <c r="B2953" s="15" t="s">
@@ -35463,23 +36058,23 @@
       </c>
     </row>
     <row r="2954" spans="1:2" ht="15.75">
-      <c r="A2954" s="39">
+      <c r="A2954" s="38">
         <v>79</v>
       </c>
-      <c r="B2954" s="40" t="s">
+      <c r="B2954" s="39" t="s">
         <v>2968</v>
       </c>
     </row>
     <row r="2955" spans="1:2" ht="15.75">
-      <c r="A2955" s="39">
+      <c r="A2955" s="38">
         <v>1976</v>
       </c>
-      <c r="B2955" s="40" t="s">
+      <c r="B2955" s="39" t="s">
         <v>3034</v>
       </c>
     </row>
     <row r="2956" spans="1:2" ht="15.75">
-      <c r="A2956" s="39">
+      <c r="A2956" s="38">
         <v>1990</v>
       </c>
       <c r="B2956" s="11" t="s">
@@ -35487,7 +36082,7 @@
       </c>
     </row>
     <row r="2957" spans="1:2" ht="15.75">
-      <c r="A2957" s="39">
+      <c r="A2957" s="38">
         <v>1991</v>
       </c>
       <c r="B2957" s="15" t="s">
@@ -35495,15 +36090,15 @@
       </c>
     </row>
     <row r="2958" spans="1:2" ht="15.75">
-      <c r="A2958" s="39">
+      <c r="A2958" s="38">
         <v>1998</v>
       </c>
-      <c r="B2958" s="40" t="s">
+      <c r="B2958" s="39" t="s">
         <v>3037</v>
       </c>
     </row>
     <row r="2959" spans="1:2" ht="15.75">
-      <c r="A2959" s="39">
+      <c r="A2959" s="38">
         <v>2010</v>
       </c>
       <c r="B2959" s="11" t="s">
@@ -35511,15 +36106,15 @@
       </c>
     </row>
     <row r="2960" spans="1:2" ht="15.75">
-      <c r="A2960" s="39">
+      <c r="A2960" s="38">
         <v>2011</v>
       </c>
-      <c r="B2960" s="40" t="s">
+      <c r="B2960" s="39" t="s">
         <v>3039</v>
       </c>
     </row>
     <row r="2961" spans="1:2" ht="15.75">
-      <c r="A2961" s="39">
+      <c r="A2961" s="38">
         <v>2027</v>
       </c>
       <c r="B2961" s="11" t="s">
@@ -35527,7 +36122,7 @@
       </c>
     </row>
     <row r="2962" spans="1:2" ht="15.75">
-      <c r="A2962" s="39">
+      <c r="A2962" s="38">
         <v>2028</v>
       </c>
       <c r="B2962" s="15" t="s">
@@ -35535,31 +36130,31 @@
       </c>
     </row>
     <row r="2963" spans="1:2" ht="15.75">
-      <c r="A2963" s="39">
+      <c r="A2963" s="38">
         <v>2203</v>
       </c>
-      <c r="B2963" s="40" t="s">
+      <c r="B2963" s="39" t="s">
         <v>3042</v>
       </c>
     </row>
     <row r="2964" spans="1:2" ht="15.75">
-      <c r="A2964" s="39">
+      <c r="A2964" s="38">
         <v>2228</v>
       </c>
-      <c r="B2964" s="40" t="s">
+      <c r="B2964" s="39" t="s">
         <v>3043</v>
       </c>
     </row>
     <row r="2965" spans="1:2" ht="15.75">
-      <c r="A2965" s="39">
+      <c r="A2965" s="38">
         <v>2253</v>
       </c>
-      <c r="B2965" s="40" t="s">
+      <c r="B2965" s="39" t="s">
         <v>3044</v>
       </c>
     </row>
     <row r="2966" spans="1:2" ht="15.75">
-      <c r="A2966" s="39">
+      <c r="A2966" s="38">
         <v>2259</v>
       </c>
       <c r="B2966" s="11" t="s">
@@ -35567,7 +36162,7 @@
       </c>
     </row>
     <row r="2967" spans="1:2" ht="15.75">
-      <c r="A2967" s="39">
+      <c r="A2967" s="38">
         <v>2269</v>
       </c>
       <c r="B2967" s="11" t="s">
@@ -35575,7 +36170,7 @@
       </c>
     </row>
     <row r="2968" spans="1:2" ht="15.75">
-      <c r="A2968" s="39">
+      <c r="A2968" s="38">
         <v>2279</v>
       </c>
       <c r="B2968" s="11" t="s">
@@ -35583,7 +36178,7 @@
       </c>
     </row>
     <row r="2969" spans="1:2" ht="15.75">
-      <c r="A2969" s="39">
+      <c r="A2969" s="38">
         <v>2280</v>
       </c>
       <c r="B2969" s="15" t="s">
@@ -35591,18 +36186,18 @@
       </c>
     </row>
     <row r="2970" spans="1:2" ht="15.75">
-      <c r="A2970" s="39">
+      <c r="A2970" s="38">
         <v>2281</v>
       </c>
-      <c r="B2970" s="39" t="s">
+      <c r="B2970" s="38" t="s">
         <v>3049</v>
       </c>
     </row>
     <row r="2971" spans="1:2" ht="15.75">
-      <c r="A2971" s="39">
+      <c r="A2971" s="38">
         <v>2289</v>
       </c>
-      <c r="B2971" s="40" t="s">
+      <c r="B2971" s="39" t="s">
         <v>3050</v>
       </c>
     </row>
@@ -36264,7 +36859,7 @@
       <c r="F3023" t="s">
         <v>3136</v>
       </c>
-      <c r="G3023" s="41" t="s">
+      <c r="G3023" s="40" t="s">
         <v>2435</v>
       </c>
       <c r="H3023">
@@ -37052,7 +37647,7 @@
       <c r="A3081">
         <v>13</v>
       </c>
-      <c r="B3081" s="43" t="s">
+      <c r="B3081" s="42" t="s">
         <v>3227</v>
       </c>
       <c r="G3081" t="s">
@@ -37150,7 +37745,7 @@
       <c r="A3088">
         <v>782</v>
       </c>
-      <c r="B3088" s="43" t="s">
+      <c r="B3088" s="42" t="s">
         <v>3228</v>
       </c>
       <c r="G3088" t="s">
@@ -37178,7 +37773,7 @@
       <c r="A3090">
         <v>932</v>
       </c>
-      <c r="B3090" s="42" t="s">
+      <c r="B3090" s="41" t="s">
         <v>3201</v>
       </c>
       <c r="G3090" t="s">
@@ -37234,7 +37829,7 @@
       <c r="A3094">
         <v>949</v>
       </c>
-      <c r="B3094" s="43" t="s">
+      <c r="B3094" s="42" t="s">
         <v>3229</v>
       </c>
       <c r="G3094" t="s">
@@ -37276,7 +37871,7 @@
       <c r="A3097">
         <v>967</v>
       </c>
-      <c r="B3097" s="42" t="s">
+      <c r="B3097" s="41" t="s">
         <v>3207</v>
       </c>
       <c r="G3097" t="s">
@@ -37346,7 +37941,7 @@
       <c r="A3102">
         <v>987</v>
       </c>
-      <c r="B3102" s="43" t="s">
+      <c r="B3102" s="42" t="s">
         <v>3230</v>
       </c>
       <c r="G3102" s="24" t="s">
@@ -37416,7 +38011,7 @@
       <c r="A3107">
         <v>1368</v>
       </c>
-      <c r="B3107" s="42" t="s">
+      <c r="B3107" s="41" t="s">
         <v>3216</v>
       </c>
       <c r="G3107" t="s">
@@ -37482,7 +38077,7 @@
       <c r="A3113">
         <v>1397</v>
       </c>
-      <c r="B3113" s="43" t="s">
+      <c r="B3113" s="42" t="s">
         <v>3231</v>
       </c>
     </row>
@@ -37580,7 +38175,7 @@
         <f>IF(COUNTIF(B3130,"*loopCount*"),0+MID(B3130,10+FIND("loopCount",B3130),999),C3129)</f>
         <v>1074</v>
       </c>
-      <c r="D3130" s="47">
+      <c r="D3130" s="46">
         <f t="shared" ref="D3130:D3157" si="12">IF(C3129&lt;&gt;C3130,(C3130-C3129)/1000,"")</f>
         <v>1.0740000000000001</v>
       </c>
@@ -37596,7 +38191,7 @@
         <f t="shared" ref="C3131:C3157" si="13">IF(COUNTIF(B3131,"*loopCount*"),0+MID(B3131,10+FIND("loopCount",B3131),999),C3130)</f>
         <v>1074</v>
       </c>
-      <c r="D3131" s="47" t="str">
+      <c r="D3131" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37612,7 +38207,7 @@
         <f t="shared" si="13"/>
         <v>1074</v>
       </c>
-      <c r="D3132" s="47" t="str">
+      <c r="D3132" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37628,7 +38223,7 @@
         <f t="shared" si="13"/>
         <v>1162</v>
       </c>
-      <c r="D3133" s="47">
+      <c r="D3133" s="46">
         <f t="shared" si="12"/>
         <v>8.7999999999999995E-2</v>
       </c>
@@ -37644,7 +38239,7 @@
         <f t="shared" si="13"/>
         <v>5988</v>
       </c>
-      <c r="D3134" s="47">
+      <c r="D3134" s="46">
         <f t="shared" si="12"/>
         <v>4.8259999999999996</v>
       </c>
@@ -37663,7 +38258,7 @@
         <f t="shared" si="13"/>
         <v>5988</v>
       </c>
-      <c r="D3135" s="47" t="str">
+      <c r="D3135" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37679,7 +38274,7 @@
         <f t="shared" si="13"/>
         <v>6105</v>
       </c>
-      <c r="D3136" s="47">
+      <c r="D3136" s="46">
         <f t="shared" si="12"/>
         <v>0.11700000000000001</v>
       </c>
@@ -37695,7 +38290,7 @@
         <f t="shared" si="13"/>
         <v>6197</v>
       </c>
-      <c r="D3137" s="47">
+      <c r="D3137" s="46">
         <f t="shared" si="12"/>
         <v>9.1999999999999998E-2</v>
       </c>
@@ -37711,7 +38306,7 @@
         <f t="shared" si="13"/>
         <v>6197</v>
       </c>
-      <c r="D3138" s="47" t="str">
+      <c r="D3138" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37727,7 +38322,7 @@
         <f t="shared" si="13"/>
         <v>6282</v>
       </c>
-      <c r="D3139" s="47">
+      <c r="D3139" s="46">
         <f t="shared" si="12"/>
         <v>8.5000000000000006E-2</v>
       </c>
@@ -37743,7 +38338,7 @@
         <f t="shared" si="13"/>
         <v>24853</v>
       </c>
-      <c r="D3140" s="47">
+      <c r="D3140" s="46">
         <f t="shared" si="12"/>
         <v>18.571000000000002</v>
       </c>
@@ -37762,7 +38357,7 @@
         <f t="shared" si="13"/>
         <v>24853</v>
       </c>
-      <c r="D3141" s="47" t="str">
+      <c r="D3141" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37778,7 +38373,7 @@
         <f t="shared" si="13"/>
         <v>24893</v>
       </c>
-      <c r="D3142" s="47">
+      <c r="D3142" s="46">
         <f t="shared" si="12"/>
         <v>0.04</v>
       </c>
@@ -37794,7 +38389,7 @@
         <f t="shared" si="13"/>
         <v>24893</v>
       </c>
-      <c r="D3143" s="47" t="str">
+      <c r="D3143" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37810,7 +38405,7 @@
         <f t="shared" si="13"/>
         <v>25088</v>
       </c>
-      <c r="D3144" s="47">
+      <c r="D3144" s="46">
         <f t="shared" si="12"/>
         <v>0.19500000000000001</v>
       </c>
@@ -37826,7 +38421,7 @@
         <f t="shared" si="13"/>
         <v>45020</v>
       </c>
-      <c r="D3145" s="47">
+      <c r="D3145" s="46">
         <f t="shared" si="12"/>
         <v>19.931999999999999</v>
       </c>
@@ -37845,7 +38440,7 @@
         <f t="shared" si="13"/>
         <v>45020</v>
       </c>
-      <c r="D3146" s="47" t="str">
+      <c r="D3146" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37861,7 +38456,7 @@
         <f t="shared" si="13"/>
         <v>45100</v>
       </c>
-      <c r="D3147" s="47">
+      <c r="D3147" s="46">
         <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
@@ -37877,7 +38472,7 @@
         <f t="shared" si="13"/>
         <v>45317</v>
       </c>
-      <c r="D3148" s="47">
+      <c r="D3148" s="46">
         <f t="shared" si="12"/>
         <v>0.217</v>
       </c>
@@ -37893,7 +38488,7 @@
         <f t="shared" si="13"/>
         <v>45317</v>
       </c>
-      <c r="D3149" s="47" t="str">
+      <c r="D3149" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37909,7 +38504,7 @@
         <f t="shared" si="13"/>
         <v>45402</v>
       </c>
-      <c r="D3150" s="47">
+      <c r="D3150" s="46">
         <f t="shared" si="12"/>
         <v>8.5000000000000006E-2</v>
       </c>
@@ -37925,7 +38520,7 @@
         <f t="shared" si="13"/>
         <v>49170</v>
       </c>
-      <c r="D3151" s="47">
+      <c r="D3151" s="46">
         <f t="shared" si="12"/>
         <v>3.7679999999999998</v>
       </c>
@@ -37944,7 +38539,7 @@
         <f t="shared" si="13"/>
         <v>49170</v>
       </c>
-      <c r="D3152" s="47" t="str">
+      <c r="D3152" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -37960,7 +38555,7 @@
         <f t="shared" si="13"/>
         <v>49250</v>
       </c>
-      <c r="D3153" s="47">
+      <c r="D3153" s="46">
         <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
@@ -37976,7 +38571,7 @@
         <f t="shared" si="13"/>
         <v>49330</v>
       </c>
-      <c r="D3154" s="47">
+      <c r="D3154" s="46">
         <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
@@ -37992,7 +38587,7 @@
         <f t="shared" si="13"/>
         <v>49370</v>
       </c>
-      <c r="D3155" s="47">
+      <c r="D3155" s="46">
         <f t="shared" si="12"/>
         <v>0.04</v>
       </c>
@@ -38008,7 +38603,7 @@
         <f t="shared" si="13"/>
         <v>49370</v>
       </c>
-      <c r="D3156" s="47" t="str">
+      <c r="D3156" s="46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -38024,7 +38619,7 @@
         <f t="shared" si="13"/>
         <v>49444</v>
       </c>
-      <c r="D3157" s="47">
+      <c r="D3157" s="46">
         <f t="shared" si="12"/>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -38075,7 +38670,7 @@
         <f>IF(COUNTIF(B3169,"*loopCount*"),0+MID(B3169,10+FIND("loopCount",B3169),999),C3168)</f>
         <v>0</v>
       </c>
-      <c r="D3169" s="47" t="str">
+      <c r="D3169" s="46" t="str">
         <f>IF(C3168&lt;&gt;C3169,(C3169-C3168)/1000,"")</f>
         <v/>
       </c>
@@ -38088,7 +38683,7 @@
         <f t="shared" ref="C3170:C3172" si="14">IF(COUNTIF(B3170,"*loopCount*"),0+MID(B3170,10+FIND("loopCount",B3170),999),C3169)</f>
         <v>1078</v>
       </c>
-      <c r="D3170" s="47">
+      <c r="D3170" s="46">
         <f>IF(C3169&lt;&gt;C3170,(C3170-C3169)/1000,"")</f>
         <v>1.0780000000000001</v>
       </c>
@@ -38101,7 +38696,7 @@
         <f t="shared" si="14"/>
         <v>1118</v>
       </c>
-      <c r="D3171" s="47">
+      <c r="D3171" s="46">
         <f>IF(C3170&lt;&gt;C3171,(C3171-C3170)/1000,"")</f>
         <v>0.04</v>
       </c>
@@ -38114,7 +38709,7 @@
         <f t="shared" si="14"/>
         <v>1201</v>
       </c>
-      <c r="D3172" s="47">
+      <c r="D3172" s="46">
         <f>IF(C3171&lt;&gt;C3172,(C3172-C3171)/1000,"")</f>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -38127,7 +38722,7 @@
         <f t="shared" ref="C3173:C3212" si="15">IF(COUNTIF(B3173,"*loopCount*"),0+MID(B3173,10+FIND("loopCount",B3173),999),C3172)</f>
         <v>1241</v>
       </c>
-      <c r="D3173" s="52">
+      <c r="D3173" s="51">
         <f t="shared" ref="D3173:D3212" si="16">IF(C3172&lt;&gt;C3173,(C3173-C3172)/1000,"")</f>
         <v>0.04</v>
       </c>
@@ -38140,7 +38735,7 @@
         <f t="shared" si="15"/>
         <v>6125</v>
       </c>
-      <c r="D3174" s="47">
+      <c r="D3174" s="46">
         <f t="shared" si="16"/>
         <v>4.8840000000000003</v>
       </c>
@@ -38153,7 +38748,7 @@
         <f t="shared" si="15"/>
         <v>6125</v>
       </c>
-      <c r="D3175" s="47" t="str">
+      <c r="D3175" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38166,7 +38761,7 @@
         <f t="shared" si="15"/>
         <v>6205</v>
       </c>
-      <c r="D3176" s="47">
+      <c r="D3176" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38179,7 +38774,7 @@
         <f t="shared" si="15"/>
         <v>6285</v>
       </c>
-      <c r="D3177" s="47">
+      <c r="D3177" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38192,7 +38787,7 @@
         <f t="shared" si="15"/>
         <v>6325</v>
       </c>
-      <c r="D3178" s="52">
+      <c r="D3178" s="51">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38205,7 +38800,7 @@
         <f t="shared" si="15"/>
         <v>26219</v>
       </c>
-      <c r="D3179" s="47">
+      <c r="D3179" s="46">
         <f t="shared" si="16"/>
         <v>19.893999999999998</v>
       </c>
@@ -38218,7 +38813,7 @@
         <f t="shared" si="15"/>
         <v>26260</v>
       </c>
-      <c r="D3180" s="47">
+      <c r="D3180" s="46">
         <f t="shared" si="16"/>
         <v>4.1000000000000002E-2</v>
       </c>
@@ -38231,7 +38826,7 @@
         <f t="shared" si="15"/>
         <v>38838</v>
       </c>
-      <c r="D3181" s="47">
+      <c r="D3181" s="46">
         <f t="shared" si="16"/>
         <v>12.577999999999999</v>
       </c>
@@ -38244,7 +38839,7 @@
         <f t="shared" si="15"/>
         <v>38838</v>
       </c>
-      <c r="D3182" s="47" t="str">
+      <c r="D3182" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38257,7 +38852,7 @@
         <f t="shared" si="15"/>
         <v>39048</v>
       </c>
-      <c r="D3183" s="47">
+      <c r="D3183" s="46">
         <f t="shared" si="16"/>
         <v>0.21</v>
       </c>
@@ -38270,7 +38865,7 @@
         <f t="shared" si="15"/>
         <v>59110</v>
       </c>
-      <c r="D3184" s="47">
+      <c r="D3184" s="46">
         <f t="shared" si="16"/>
         <v>20.062000000000001</v>
       </c>
@@ -38283,7 +38878,7 @@
         <f t="shared" si="15"/>
         <v>59110</v>
       </c>
-      <c r="D3185" s="47" t="str">
+      <c r="D3185" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38296,7 +38891,7 @@
         <f t="shared" si="15"/>
         <v>59190</v>
       </c>
-      <c r="D3186" s="47">
+      <c r="D3186" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38309,7 +38904,7 @@
         <f t="shared" si="15"/>
         <v>59435</v>
       </c>
-      <c r="D3187" s="47">
+      <c r="D3187" s="46">
         <f t="shared" si="16"/>
         <v>0.245</v>
       </c>
@@ -38322,7 +38917,7 @@
         <f t="shared" si="15"/>
         <v>59475</v>
       </c>
-      <c r="D3188" s="52">
+      <c r="D3188" s="51">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38335,7 +38930,7 @@
         <f t="shared" si="15"/>
         <v>63277</v>
       </c>
-      <c r="D3189" s="47">
+      <c r="D3189" s="46">
         <f t="shared" si="16"/>
         <v>3.802</v>
       </c>
@@ -38348,7 +38943,7 @@
         <f t="shared" si="15"/>
         <v>63277</v>
       </c>
-      <c r="D3190" s="47" t="str">
+      <c r="D3190" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38361,7 +38956,7 @@
         <f t="shared" si="15"/>
         <v>63358</v>
       </c>
-      <c r="D3191" s="47">
+      <c r="D3191" s="46">
         <f t="shared" si="16"/>
         <v>8.1000000000000003E-2</v>
       </c>
@@ -38374,7 +38969,7 @@
         <f t="shared" si="15"/>
         <v>63438</v>
       </c>
-      <c r="D3192" s="47">
+      <c r="D3192" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38387,7 +38982,7 @@
         <f t="shared" si="15"/>
         <v>63518</v>
       </c>
-      <c r="D3193" s="47">
+      <c r="D3193" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38400,7 +38995,7 @@
         <f t="shared" si="15"/>
         <v>63558</v>
       </c>
-      <c r="D3194" s="52">
+      <c r="D3194" s="51">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38413,7 +39008,7 @@
         <f t="shared" si="15"/>
         <v>66240</v>
       </c>
-      <c r="D3195" s="47">
+      <c r="D3195" s="46">
         <f t="shared" si="16"/>
         <v>2.6819999999999999</v>
       </c>
@@ -38426,7 +39021,7 @@
         <f t="shared" si="15"/>
         <v>66240</v>
       </c>
-      <c r="D3196" s="47" t="str">
+      <c r="D3196" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38439,7 +39034,7 @@
         <f t="shared" si="15"/>
         <v>66370</v>
       </c>
-      <c r="D3197" s="47">
+      <c r="D3197" s="46">
         <f t="shared" si="16"/>
         <v>0.13</v>
       </c>
@@ -38452,7 +39047,7 @@
         <f t="shared" si="15"/>
         <v>66410</v>
       </c>
-      <c r="D3198" s="52">
+      <c r="D3198" s="51">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38465,7 +39060,7 @@
         <f t="shared" si="15"/>
         <v>71534</v>
       </c>
-      <c r="D3199" s="47">
+      <c r="D3199" s="46">
         <f t="shared" si="16"/>
         <v>5.1239999999999997</v>
       </c>
@@ -38478,7 +39073,7 @@
         <f t="shared" si="15"/>
         <v>71534</v>
       </c>
-      <c r="D3200" s="47" t="str">
+      <c r="D3200" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38491,7 +39086,7 @@
         <f t="shared" si="15"/>
         <v>71614</v>
       </c>
-      <c r="D3201" s="47">
+      <c r="D3201" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38504,7 +39099,7 @@
         <f t="shared" si="15"/>
         <v>71696</v>
       </c>
-      <c r="D3202" s="47">
+      <c r="D3202" s="46">
         <f t="shared" si="16"/>
         <v>8.2000000000000003E-2</v>
       </c>
@@ -38517,7 +39112,7 @@
         <f t="shared" si="15"/>
         <v>71736</v>
       </c>
-      <c r="D3203" s="52">
+      <c r="D3203" s="51">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38530,7 +39125,7 @@
         <f t="shared" si="15"/>
         <v>71936</v>
       </c>
-      <c r="D3204" s="47">
+      <c r="D3204" s="46">
         <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
@@ -38543,7 +39138,7 @@
         <f t="shared" si="15"/>
         <v>71936</v>
       </c>
-      <c r="D3205" s="47" t="str">
+      <c r="D3205" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38556,7 +39151,7 @@
         <f t="shared" si="15"/>
         <v>72026</v>
       </c>
-      <c r="D3206" s="47">
+      <c r="D3206" s="46">
         <f t="shared" si="16"/>
         <v>0.09</v>
       </c>
@@ -38569,7 +39164,7 @@
         <f t="shared" si="15"/>
         <v>72066</v>
       </c>
-      <c r="D3207" s="47">
+      <c r="D3207" s="46">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
@@ -38582,7 +39177,7 @@
         <f t="shared" si="15"/>
         <v>77275</v>
       </c>
-      <c r="D3208" s="47">
+      <c r="D3208" s="46">
         <f t="shared" si="16"/>
         <v>5.2089999999999996</v>
       </c>
@@ -38595,7 +39190,7 @@
         <f t="shared" si="15"/>
         <v>77275</v>
       </c>
-      <c r="D3209" s="47" t="str">
+      <c r="D3209" s="46" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -38608,7 +39203,7 @@
         <f t="shared" si="15"/>
         <v>77355</v>
       </c>
-      <c r="D3210" s="47">
+      <c r="D3210" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38621,7 +39216,7 @@
         <f t="shared" si="15"/>
         <v>77435</v>
       </c>
-      <c r="D3211" s="47">
+      <c r="D3211" s="46">
         <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
@@ -38634,7 +39229,7 @@
         <f t="shared" si="15"/>
         <v>77476</v>
       </c>
-      <c r="D3212" s="52">
+      <c r="D3212" s="51">
         <f t="shared" si="16"/>
         <v>4.1000000000000002E-2</v>
       </c>
@@ -38932,7 +39527,7 @@
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -38975,7 +39570,7 @@
         <v>43</v>
       </c>
       <c r="B3286" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
@@ -38984,7 +39579,7 @@
         <v>871</v>
       </c>
       <c r="B3287" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -38993,7 +39588,7 @@
         <v>3109</v>
       </c>
       <c r="B3288" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -39002,7 +39597,7 @@
         <v>3225</v>
       </c>
       <c r="B3289" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -39011,7 +39606,7 @@
         <v>3320</v>
       </c>
       <c r="B3290" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -39020,7 +39615,7 @@
         <v>3611</v>
       </c>
       <c r="B3291" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -39029,7 +39624,7 @@
         <v>3727</v>
       </c>
       <c r="B3292" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -39038,7 +39633,7 @@
         <v>3822</v>
       </c>
       <c r="B3293" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -39047,7 +39642,7 @@
         <v>4150</v>
       </c>
       <c r="B3294" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -39056,7 +39651,7 @@
         <v>4219</v>
       </c>
       <c r="B3295" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -39065,7 +39660,7 @@
         <v>4271</v>
       </c>
       <c r="B3296" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -39074,7 +39669,7 @@
         <v>4340</v>
       </c>
       <c r="B3297" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
   </sheetData>
@@ -41539,10 +42134,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:AK96"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -41562,1963 +42157,2108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="64" t="s">
         <v>2913</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="64" t="s">
         <v>3390</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="64" t="s">
         <v>2877</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="64" t="s">
         <v>3404</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="64" t="s">
         <v>2937</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="64" t="s">
         <v>2879</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="64" t="s">
         <v>2878</v>
       </c>
       <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:37" ht="20.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="65" t="s">
         <v>2874</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="64">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="66" t="s">
         <v>2864</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="67" t="s">
         <v>2865</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="67" t="s">
         <v>2874</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="68" t="s">
         <v>2899</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="69" t="s">
         <v>2898</v>
       </c>
       <c r="I2" s="28"/>
       <c r="AK2" s="28"/>
     </row>
-    <row r="3" spans="1:37" ht="30.75">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:37" ht="30">
+      <c r="A3" s="65" t="s">
         <v>2874</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="65">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="66" t="s">
         <v>2854</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="67" t="s">
         <v>2855</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="67" t="s">
         <v>2874</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="68" t="s">
         <v>2938</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="69" t="s">
         <v>2883</v>
       </c>
       <c r="I3" s="28"/>
       <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="20.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="70" t="s">
         <v>2874</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="64">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="66" t="s">
         <v>2892</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="71" t="s">
         <v>3387</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="71" t="s">
         <v>3406</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="68" t="s">
         <v>2894</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="69" t="s">
         <v>2893</v>
       </c>
       <c r="I4" s="27"/>
       <c r="AK4" s="28"/>
     </row>
     <row r="5" spans="1:37" ht="20.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="70" t="s">
         <v>2874</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="70">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="66" t="s">
         <v>2856</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="67" t="s">
         <v>2857</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="67" t="s">
         <v>2874</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="68" t="s">
         <v>2939</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="69" t="s">
         <v>2881</v>
       </c>
       <c r="I5" s="28"/>
       <c r="AK5" s="28"/>
     </row>
     <row r="6" spans="1:37" ht="20.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="70" t="s">
         <v>2874</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="70">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="65" t="s">
         <v>3413</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="67" t="s">
         <v>3411</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="67" t="s">
         <v>2874</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="72" t="s">
         <v>3407</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="70" t="s">
         <v>3408</v>
       </c>
       <c r="I6" s="28"/>
       <c r="AK6" s="28"/>
     </row>
-    <row r="7" spans="1:37" ht="30.75">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:37" ht="30">
+      <c r="A7" s="70" t="s">
         <v>2874</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="64">
         <v>6</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="73" t="s">
         <v>2868</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="67" t="s">
         <v>2869</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="67" t="s">
         <v>2873</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="68" t="s">
         <v>2942</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="69" t="s">
         <v>2951</v>
       </c>
       <c r="I7" s="28"/>
       <c r="AK7" s="28"/>
     </row>
     <row r="8" spans="1:37" ht="21" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="65" t="s">
         <v>2873</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="65">
         <v>11</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="73" t="s">
         <v>2866</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="67" t="s">
         <v>2867</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="67" t="s">
         <v>2873</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="68" t="s">
         <v>2943</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="69" t="s">
         <v>2952</v>
       </c>
       <c r="I8" s="28"/>
       <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="1:37" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="65" t="s">
         <v>2873</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="74">
         <v>12</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="66" t="s">
         <v>2895</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="71" t="s">
         <v>3389</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="71" t="s">
         <v>2873</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="68" t="s">
         <v>2897</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="69" t="s">
         <v>2896</v>
       </c>
       <c r="I9" s="27"/>
       <c r="AK9" s="28"/>
     </row>
-    <row r="10" spans="1:37" ht="31.5" thickTop="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:37" ht="30.75" thickTop="1">
+      <c r="A10" s="70" t="s">
         <v>2873</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="64">
         <v>13</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="73" t="s">
         <v>2868</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="67" t="s">
         <v>2869</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="67" t="s">
         <v>2873</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="68" t="s">
         <v>2942</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="69" t="s">
         <v>2951</v>
       </c>
       <c r="I10" s="28"/>
       <c r="AK10" s="28"/>
     </row>
-    <row r="11" spans="1:37" ht="30.75">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:37" ht="30">
+      <c r="A11" s="70" t="s">
         <v>2873</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="70">
         <v>14</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="73" t="s">
         <v>2858</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="67" t="s">
         <v>2859</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="67" t="s">
         <v>2873</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="68" t="s">
         <v>2946</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="69" t="s">
         <v>2953</v>
       </c>
       <c r="I11" s="28"/>
       <c r="AK11" s="28"/>
     </row>
     <row r="12" spans="1:37" ht="20.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="70" t="s">
         <v>2873</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="64">
         <v>15</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="73" t="s">
         <v>2912</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="67" t="s">
         <v>3402</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="70" t="s">
         <v>2873</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="68" t="s">
         <v>2900</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="68" t="s">
         <v>2948</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="69" t="s">
         <v>2961</v>
       </c>
       <c r="I12" s="28"/>
       <c r="AK12" s="28"/>
     </row>
-    <row r="13" spans="1:37" ht="30.75">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:37" ht="30">
+      <c r="A13" s="70" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B13" s="64">
+        <v>16</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>3415</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:37" ht="20.25">
+      <c r="A14" s="70" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:37" ht="20.25">
+      <c r="A15" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="31">
-        <v>16</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>3415</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>3414</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>2887</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>2886</v>
-      </c>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:37" ht="20.25">
-      <c r="A14" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="32">
+      <c r="B15" s="65">
         <v>21</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C15" s="73" t="s">
         <v>2925</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D15" s="71" t="s">
         <v>2936</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E15" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F15" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G15" s="68" t="s">
         <v>2926</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H15" s="69" t="s">
         <v>2931</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="AK14" s="28"/>
-    </row>
-    <row r="15" spans="1:37" ht="20.25">
-      <c r="A15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="32">
-        <v>22</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>2934</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>3405</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>2928</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>2932</v>
       </c>
       <c r="I15" s="28"/>
       <c r="AK15" s="28"/>
     </row>
     <row r="16" spans="1:37" ht="20.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="32">
-        <v>23</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>2922</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="B16" s="65">
+        <v>22</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E16" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>2888</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>2921</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>2924</v>
+      <c r="F16" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>2932</v>
       </c>
       <c r="I16" s="28"/>
       <c r="AK16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:37" ht="20.25">
+      <c r="A17" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="65">
+        <v>23</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="AK17" s="28"/>
+    </row>
+    <row r="18" spans="1:37" ht="20.25">
+      <c r="A18" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="65">
         <v>24</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C18" s="73" t="s">
         <v>2929</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D18" s="67" t="s">
         <v>2935</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E18" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F18" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G18" s="68" t="s">
         <v>2930</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H18" s="69" t="s">
         <v>2933</v>
       </c>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.75">
-      <c r="A18" s="19" t="s">
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:37" ht="30">
+      <c r="A19" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B19" s="64">
         <v>25</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C19" s="66" t="s">
         <v>2885</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D19" s="67" t="s">
         <v>2910</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E19" s="70" t="s">
         <v>3414</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F19" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G19" s="68" t="s">
         <v>2887</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H19" s="69" t="s">
         <v>2886</v>
       </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25">
-      <c r="A19" s="32" t="s">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:37" ht="20.25">
+      <c r="A20" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B20" s="65">
         <v>26</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="73" t="s">
         <v>2918</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D20" s="71" t="s">
         <v>2917</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E20" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F20" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G20" s="68" t="s">
         <v>2916</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H20" s="69" t="s">
         <v>2919</v>
       </c>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25">
-      <c r="A20" s="32" t="s">
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:37" ht="20.25">
+      <c r="A21" s="65" t="s">
         <v>2911</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B21" s="65">
         <v>31</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="73" t="s">
         <v>2925</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D21" s="71" t="s">
         <v>2936</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E21" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F21" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G21" s="68" t="s">
         <v>2926</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H21" s="69" t="s">
         <v>2931</v>
       </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25">
-      <c r="A21" s="32" t="s">
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:37" ht="20.25">
+      <c r="A22" s="65" t="s">
         <v>2911</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B22" s="65">
         <v>32</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C22" s="73" t="s">
         <v>2927</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D22" s="67" t="s">
         <v>2934</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E22" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F22" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G22" s="68" t="s">
         <v>2928</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H22" s="69" t="s">
         <v>2932</v>
       </c>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.25">
-      <c r="A22" s="32" t="s">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:37" ht="20.25">
+      <c r="A23" s="65" t="s">
         <v>2911</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B23" s="65">
         <v>33</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C23" s="73" t="s">
         <v>2922</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D23" s="71" t="s">
         <v>2923</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E23" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F23" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G23" s="68" t="s">
         <v>2921</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H23" s="69" t="s">
         <v>2924</v>
       </c>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25">
-      <c r="A23" s="32" t="s">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:37" ht="20.25">
+      <c r="A24" s="65" t="s">
         <v>2911</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B24" s="65">
         <v>34</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C24" s="73" t="s">
         <v>2929</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D24" s="67" t="s">
         <v>2935</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F24" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G24" s="68" t="s">
         <v>2930</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H24" s="69" t="s">
         <v>2933</v>
       </c>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="30.75">
-      <c r="A24" s="19" t="s">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:37" ht="30">
+      <c r="A25" s="70" t="s">
         <v>2911</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B25" s="64">
         <v>35</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C25" s="66" t="s">
         <v>2885</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D25" s="67" t="s">
         <v>2910</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E25" s="70" t="s">
         <v>3414</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F25" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G25" s="68" t="s">
         <v>2887</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H25" s="69" t="s">
         <v>2886</v>
       </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.25">
-      <c r="A25" s="32" t="s">
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:37" ht="20.25">
+      <c r="A26" s="65" t="s">
         <v>2911</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B26" s="65">
         <v>36</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C26" s="73" t="s">
         <v>2918</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D26" s="71" t="s">
         <v>2917</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E26" s="70" t="s">
         <v>3405</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F26" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G26" s="68" t="s">
         <v>2916</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H26" s="69" t="s">
         <v>2919</v>
       </c>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.25">
-      <c r="A26" s="32" t="s">
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:37" ht="20.25">
+      <c r="A27" s="65" t="s">
         <v>3410</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B27" s="65">
         <v>41</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="65" t="s">
         <v>3409</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D27" s="71" t="s">
         <v>3412</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E27" s="70" t="s">
         <v>3410</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F27" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G27" s="72" t="s">
         <v>3407</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H27" s="70" t="s">
         <v>3408</v>
       </c>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25">
-      <c r="A27" s="32" t="s">
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:37" ht="20.25">
+      <c r="A28" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B28" s="65">
         <v>51</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C28" s="73" t="s">
         <v>2870</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D28" s="67" t="s">
         <v>2871</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E28" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F28" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G28" s="68" t="s">
         <v>2941</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H28" s="69" t="s">
         <v>2955</v>
       </c>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.25">
-      <c r="A28" s="32" t="s">
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:37" ht="20.25">
+      <c r="A29" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B29" s="65">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C29" s="73" t="s">
         <v>2862</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D29" s="67" t="s">
         <v>2863</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E29" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F29" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G29" s="68" t="s">
         <v>2944</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H29" s="69" t="s">
         <v>2950</v>
       </c>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" ht="30.75">
-      <c r="A29" s="32" t="s">
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:37" ht="30">
+      <c r="A30" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B30" s="65">
         <v>53</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C30" s="73" t="s">
         <v>2904</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D30" s="67" t="s">
         <v>3399</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E30" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F30" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G30" s="68" t="s">
         <v>2947</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H30" s="69" t="s">
         <v>2957</v>
       </c>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="30.75">
-      <c r="A30" s="32" t="s">
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:37" ht="30">
+      <c r="A31" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B31" s="64">
         <v>54</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C31" s="73" t="s">
         <v>2914</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D31" s="71" t="s">
         <v>3401</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E31" s="71" t="s">
         <v>2872</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F31" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G31" s="68" t="s">
         <v>2915</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H31" s="69" t="s">
         <v>2920</v>
       </c>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="30.75">
-      <c r="A31" s="19" t="s">
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:37" ht="30">
+      <c r="A32" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="9">
         <v>55</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C32" s="73" t="s">
         <v>2906</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D32" s="67" t="s">
         <v>2905</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E32" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F32" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G32" s="68" t="s">
         <v>2947</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H32" s="69" t="s">
         <v>2958</v>
       </c>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.25">
-      <c r="A32" s="19" t="s">
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:18" ht="20.25">
+      <c r="A33" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B33" s="64">
         <v>56</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C33" s="66" t="s">
         <v>2892</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D33" s="71" t="s">
         <v>3387</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E33" s="71" t="s">
         <v>3406</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F33" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G33" s="68" t="s">
         <v>2894</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H33" s="69" t="s">
         <v>2893</v>
       </c>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:18" ht="30.75">
-      <c r="A33" s="19" t="s">
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:18" ht="30">
+      <c r="A34" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B34" s="64">
         <v>57</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C34" s="73" t="s">
         <v>2860</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D34" s="67" t="s">
         <v>2861</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E34" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F34" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G34" s="68" t="s">
         <v>2945</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H34" s="69" t="s">
         <v>2956</v>
       </c>
-      <c r="I33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" ht="30.75">
-      <c r="A34" s="19" t="s">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" ht="30">
+      <c r="A35" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B35" s="64">
         <v>58</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C35" s="73" t="s">
         <v>2875</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D35" s="67" t="s">
         <v>3403</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E35" s="67" t="s">
         <v>2872</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F35" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G35" s="68" t="s">
         <v>2940</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H35" s="69" t="s">
         <v>2954</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+    <row r="36" spans="1:18" ht="60">
+      <c r="A36" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B36" s="70">
+        <v>62</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G36" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="45">
+      <c r="A37" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B37" s="70">
+        <v>63</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G37" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="45">
+      <c r="A38" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B38" s="70">
+        <v>64</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F38" s="68"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="70"/>
+    </row>
+    <row r="39" spans="1:18" ht="45">
+      <c r="A39" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B39" s="70">
+        <v>65</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F39" s="68"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="70"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A40" s="71" t="s">
         <v>3417</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B40" s="64">
         <v>101</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C40" s="73" t="s">
         <v>3416</v>
       </c>
-      <c r="D35" s="56" t="s">
-        <v>3418</v>
-      </c>
-      <c r="E35" s="56" t="s">
+      <c r="D40" s="71" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E40" s="71" t="s">
         <v>3417</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F40" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G40" s="72" t="s">
         <v>3407</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H40" s="70" t="s">
         <v>3408</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="K37" t="s">
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="K38" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="K39" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="K40" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="K41" t="s">
-        <v>3395</v>
+    <row r="41" spans="1:18" ht="20.25">
+      <c r="A41" s="71" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B41" s="70">
+        <v>102</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>3408</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="K42" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="K43" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="K44" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="K45" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="K46" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="K47" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="K48" t="s">
         <v>3397</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R48" t="s">
         <v>2962</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.25">
-      <c r="A44" s="58" t="s">
+    <row r="49" spans="1:18" ht="20.25">
+      <c r="A49" s="56" t="s">
         <v>2874</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="36" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="35" t="s">
         <v>2901</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>3388</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E49" s="34" t="s">
         <v>2874</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F49" s="35" t="s">
         <v>2900</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G49" s="35" t="s">
         <v>2903</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="H49" s="53" t="s">
         <v>2902</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K49" t="s">
         <v>3398</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R49" t="s">
         <v>2963</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.25">
-      <c r="A45" s="58" t="s">
+    <row r="50" spans="1:18" ht="20.25">
+      <c r="A50" s="56" t="s">
         <v>2874</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="57" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="55" t="s">
         <v>2889</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>3388</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>2874</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F50" s="35" t="s">
         <v>2888</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G50" s="35" t="s">
         <v>2891</v>
       </c>
-      <c r="H45" s="54" t="s">
+      <c r="H50" s="53" t="s">
         <v>2890</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R50" t="s">
         <v>2964</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30.75">
-      <c r="A46" s="19" t="s">
+    <row r="51" spans="1:18" ht="30.75">
+      <c r="A51" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B51" s="19">
         <v>57</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>2909</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D51" s="54" t="s">
         <v>3400</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E51" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F51" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G51" s="35" t="s">
         <v>2949</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H51" s="19" t="s">
         <v>2960</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="20.25">
-      <c r="A47" s="19" t="s">
+    <row r="52" spans="1:18" ht="20.25">
+      <c r="A52" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B52" s="31">
         <v>58</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>2908</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D52" s="54" t="s">
         <v>2907</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E52" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F52" s="35" t="s">
         <v>2900</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G52" s="35" t="s">
         <v>2948</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H52" s="19" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.25">
-      <c r="A48" s="6"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:18" ht="20.25">
-      <c r="A49" s="6"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:18" ht="20.25">
-      <c r="A50" s="6"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" ht="20.25">
-      <c r="A51" s="6"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:18" ht="20.25">
-      <c r="A52" s="6"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="6"/>
-    </row>
     <row r="53" spans="1:18" ht="20.25">
-      <c r="D53" s="59"/>
+      <c r="A53" s="6"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:18" ht="20.25">
-      <c r="D54" s="59"/>
+      <c r="A54" s="6"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:18" ht="20.25">
-      <c r="D55" s="59"/>
+      <c r="A55" s="6"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:18" ht="20.25">
-      <c r="A56" s="6" t="s">
-        <v>3419</v>
-      </c>
-      <c r="D56" s="59"/>
+      <c r="A56" s="6"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:18" ht="20.25">
-      <c r="A57" t="s">
+      <c r="A57" s="6"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" ht="20.25">
+      <c r="D58" s="57"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" ht="20.25">
+      <c r="D59" s="57"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" ht="20.25">
+      <c r="D60" s="57"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" ht="20.25">
+      <c r="A61" s="6" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:18" ht="20.25">
+      <c r="A62" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:18" ht="20.25">
+      <c r="A63" t="s">
         <v>3433</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.25">
-      <c r="A58" t="s">
-        <v>3434</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" ht="20.25">
-      <c r="A59" t="s">
-        <v>3421</v>
-      </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" ht="20.25">
-      <c r="A60" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J60&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K60&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L60&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M60&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>2876</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>2877</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>2878</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="20.25">
-      <c r="A61" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J61&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K61&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L61&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M61&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>3429</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>3432</v>
-      </c>
-      <c r="L61" s="29" t="s">
-        <v>3430</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="20.25">
-      <c r="A62" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J62&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K62&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L62&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M62&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>2885</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>2886</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>2887</v>
-      </c>
-      <c r="R62" t="str">
-        <f>"| "&amp;J62&amp;" | "&amp;K62&amp;" | "&amp;L62&amp;" | "&amp;M62&amp;" |"</f>
-        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="20.25">
-      <c r="A63" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J63&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K63&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L63&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M63&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
-      </c>
-      <c r="J63" s="53" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>2909</v>
-      </c>
-      <c r="L63" t="s">
-        <v>2960</v>
-      </c>
-      <c r="M63" s="28" t="s">
-        <v>2949</v>
-      </c>
-      <c r="R63" t="str">
-        <f>"| "&amp;J63&amp;" | "&amp;K63&amp;" | "&amp;L63&amp;" | "&amp;M63&amp;" |"</f>
-        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
-      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:18" ht="20.25">
-      <c r="A64" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J64&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K64&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L64&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M64&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J64" s="53" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>2908</v>
-      </c>
-      <c r="L64" t="s">
-        <v>2959</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>2948</v>
-      </c>
-      <c r="R64" t="str">
-        <f>"| "&amp;J64&amp;" | "&amp;K64&amp;" | "&amp;L64&amp;" | "&amp;M64&amp;" |"</f>
-        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
-      </c>
+      <c r="A64" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:18" ht="20.25">
       <c r="A65" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J65&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K65&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L65&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M65&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J65" s="53" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>2906</v>
-      </c>
-      <c r="L65" t="s">
-        <v>2958</v>
-      </c>
-      <c r="M65" s="28" t="s">
-        <v>2947</v>
-      </c>
-      <c r="R65" t="str">
-        <f>"| "&amp;J65&amp;" | "&amp;K65&amp;" | "&amp;L65&amp;" | "&amp;M65&amp;" |"</f>
-        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M65&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>2879</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="20.25">
       <c r="A66" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M66&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J66" s="53" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>2904</v>
-      </c>
-      <c r="L66" t="s">
-        <v>2957</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>2947</v>
-      </c>
-      <c r="Q66" s="29"/>
-      <c r="R66" t="str">
-        <f>"| "&amp;J66&amp;" | "&amp;K66&amp;" | "&amp;L66&amp;" | "&amp;M66&amp;" |"</f>
-        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
+        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>3431</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>3429</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>3430</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="20.25">
       <c r="A67" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M67&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>2901</v>
+        <v>2880</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>2885</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>2902</v>
+        <v>2886</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>2903</v>
+        <v>2887</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R68" si="0">"| "&amp;J67&amp;" | "&amp;K67&amp;" | "&amp;L67&amp;" | "&amp;M67&amp;" |"</f>
-        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
+        <f>"| "&amp;J67&amp;" | "&amp;K67&amp;" | "&amp;L67&amp;" | "&amp;M67&amp;" |"</f>
+        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="20.25">
       <c r="A68" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M68&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>2889</v>
-      </c>
-      <c r="L68" s="29" t="s">
-        <v>2890</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
+      </c>
+      <c r="J68" s="52" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2960</v>
       </c>
       <c r="M68" s="28" t="s">
-        <v>2891</v>
+        <v>2949</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="0"/>
-        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
+        <f>"| "&amp;J68&amp;" | "&amp;K68&amp;" | "&amp;L68&amp;" | "&amp;M68&amp;" |"</f>
+        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="20.25">
       <c r="A69" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M69&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
-      </c>
-      <c r="J69" s="53" t="s">
-        <v>2888</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J69" s="52" t="s">
+        <v>2900</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>2875</v>
+        <v>2908</v>
       </c>
       <c r="L69" t="s">
-        <v>2954</v>
+        <v>2959</v>
       </c>
       <c r="M69" s="28" t="s">
-        <v>2940</v>
+        <v>2948</v>
       </c>
       <c r="R69" t="str">
         <f>"| "&amp;J69&amp;" | "&amp;K69&amp;" | "&amp;L69&amp;" | "&amp;M69&amp;" |"</f>
-        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
+        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="20.25">
       <c r="A70" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M70&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
-      </c>
-      <c r="J70" s="37" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J70" s="52" t="s">
         <v>2888</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>2870</v>
-      </c>
-      <c r="L70" s="29" t="s">
-        <v>2955</v>
+        <v>2906</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2958</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="R70" t="str">
         <f>"| "&amp;J70&amp;" | "&amp;K70&amp;" | "&amp;L70&amp;" | "&amp;M70&amp;" |"</f>
-        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
+        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="20.25">
       <c r="A71" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M71&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K71" t="s">
-        <v>2922</v>
-      </c>
-      <c r="L71" s="29" t="s">
-        <v>2924</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J71" s="52" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2957</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>2921</v>
-      </c>
+        <v>2947</v>
+      </c>
+      <c r="Q71" s="29"/>
       <c r="R71" t="str">
         <f>"| "&amp;J71&amp;" | "&amp;K71&amp;" | "&amp;L71&amp;" | "&amp;M71&amp;" |"</f>
-        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
+        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20.25">
       <c r="A72" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M72&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>2868</v>
-      </c>
-      <c r="L72" t="s">
-        <v>2951</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>2902</v>
       </c>
       <c r="M72" s="28" t="s">
-        <v>2942</v>
+        <v>2903</v>
       </c>
       <c r="R72" t="str">
-        <f>"| "&amp;J72&amp;" | "&amp;K72&amp;" | "&amp;L72&amp;" | "&amp;M72&amp;" |"</f>
-        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
+        <f t="shared" ref="R72:R73" si="0">"| "&amp;J72&amp;" | "&amp;K72&amp;" | "&amp;L72&amp;" | "&amp;M72&amp;" |"</f>
+        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="20.25">
       <c r="A73" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M73&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>2866</v>
-      </c>
-      <c r="L73" t="s">
-        <v>2952</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>2890</v>
       </c>
       <c r="M73" s="28" t="s">
-        <v>2943</v>
+        <v>2891</v>
       </c>
       <c r="R73" t="str">
-        <f>"| "&amp;J73&amp;" | "&amp;K73&amp;" | "&amp;L73&amp;" | "&amp;M73&amp;" |"</f>
-        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="20.25">
       <c r="A74" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M74&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
-      </c>
-      <c r="J74" s="28" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K74" t="s">
-        <v>2918</v>
-      </c>
-      <c r="L74" s="29" t="s">
-        <v>2919</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
+      </c>
+      <c r="J74" s="52" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2954</v>
       </c>
       <c r="M74" s="28" t="s">
-        <v>2916</v>
+        <v>2940</v>
       </c>
       <c r="R74" t="str">
         <f>"| "&amp;J74&amp;" | "&amp;K74&amp;" | "&amp;L74&amp;" | "&amp;M74&amp;" |"</f>
-        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
+        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="20.25">
       <c r="A75" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M75&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
-      </c>
-      <c r="J75" s="30" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
+      </c>
+      <c r="J75" s="36" t="s">
         <v>2888</v>
       </c>
-      <c r="K75" s="28" t="s">
-        <v>2864</v>
+      <c r="K75" s="6" t="s">
+        <v>2870</v>
       </c>
       <c r="L75" s="29" t="s">
-        <v>2898</v>
+        <v>2955</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>2899</v>
+        <v>2941</v>
       </c>
       <c r="R75" t="str">
         <f>"| "&amp;J75&amp;" | "&amp;K75&amp;" | "&amp;L75&amp;" | "&amp;M75&amp;" |"</f>
-        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
+        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="20.25">
       <c r="A76" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M76&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>2862</v>
-      </c>
-      <c r="L76" t="s">
-        <v>2950</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>2924</v>
       </c>
       <c r="M76" s="28" t="s">
-        <v>2944</v>
+        <v>2921</v>
       </c>
       <c r="R76" t="str">
         <f>"| "&amp;J76&amp;" | "&amp;K76&amp;" | "&amp;L76&amp;" | "&amp;M76&amp;" |"</f>
-        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
+        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="20.25">
       <c r="A77" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M77&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K77" s="36" t="s">
-        <v>2854</v>
-      </c>
-      <c r="L77" s="29" t="s">
-        <v>2883</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>2868</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2951</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>2884</v>
+        <v>2942</v>
       </c>
       <c r="R77" t="str">
         <f>"| "&amp;J77&amp;" | "&amp;K77&amp;" | "&amp;L77&amp;" | "&amp;M77&amp;" |"</f>
-        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
+        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="20.25">
       <c r="A78" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M78&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
       </c>
       <c r="J78" s="36" t="s">
         <v>2880</v>
       </c>
-      <c r="K78" s="19" t="s">
-        <v>2927</v>
-      </c>
-      <c r="L78" s="29" t="s">
-        <v>2932</v>
+      <c r="K78" s="6" t="s">
+        <v>2866</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2952</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>2928</v>
+        <v>2943</v>
       </c>
       <c r="R78" t="str">
         <f>"| "&amp;J78&amp;" | "&amp;K78&amp;" | "&amp;L78&amp;" | "&amp;M78&amp;" |"</f>
-        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
+        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="20.25">
       <c r="A79" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M79&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
-      </c>
-      <c r="J79" s="33" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
+      </c>
+      <c r="J79" s="28" t="s">
         <v>2880</v>
       </c>
-      <c r="K79" s="36" t="s">
-        <v>2856</v>
+      <c r="K79" t="s">
+        <v>2918</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>2881</v>
+        <v>2919</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>2882</v>
+        <v>2916</v>
       </c>
       <c r="R79" t="str">
         <f>"| "&amp;J79&amp;" | "&amp;K79&amp;" | "&amp;L79&amp;" | "&amp;M79&amp;" |"</f>
-        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
+        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="20.25">
       <c r="A80" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M80&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
-      </c>
-      <c r="J80" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
+      </c>
+      <c r="J80" s="30" t="s">
         <v>2888</v>
       </c>
-      <c r="K80" s="19" t="s">
-        <v>2860</v>
-      </c>
-      <c r="L80" t="s">
-        <v>2956</v>
+      <c r="K80" s="28" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>2898</v>
       </c>
       <c r="M80" s="28" t="s">
-        <v>2945</v>
+        <v>2899</v>
       </c>
       <c r="R80" t="str">
         <f>"| "&amp;J80&amp;" | "&amp;K80&amp;" | "&amp;L80&amp;" | "&amp;M80&amp;" |"</f>
-        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="20.25">
       <c r="A81" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M81&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>2888</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
+      </c>
+      <c r="J81" s="35" t="s">
+        <v>2880</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="L81" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="R81" t="str">
         <f>"| "&amp;J81&amp;" | "&amp;K81&amp;" | "&amp;L81&amp;" | "&amp;M81&amp;" |"</f>
-        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25">
       <c r="A82" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M82&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
-      </c>
-      <c r="J82" s="28" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>2925</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
+      </c>
+      <c r="J82" s="32" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K82" s="35" t="s">
+        <v>2854</v>
       </c>
       <c r="L82" s="29" t="s">
-        <v>2931</v>
+        <v>2883</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>2926</v>
+        <v>2884</v>
       </c>
       <c r="R82" t="str">
         <f>"| "&amp;J82&amp;" | "&amp;K82&amp;" | "&amp;L82&amp;" | "&amp;M82&amp;" |"</f>
-        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="20.25">
       <c r="A83" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M83&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
-      </c>
-      <c r="J83" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
+      </c>
+      <c r="J83" s="35" t="s">
         <v>2880</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>2914</v>
+        <v>2927</v>
       </c>
       <c r="L83" s="29" t="s">
-        <v>2920</v>
+        <v>2932</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>2915</v>
+        <v>2928</v>
       </c>
       <c r="R83" t="str">
         <f>"| "&amp;J83&amp;" | "&amp;K83&amp;" | "&amp;L83&amp;" | "&amp;M83&amp;" |"</f>
-        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20.25">
       <c r="A84" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M84&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
-      </c>
-      <c r="J84" s="33" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K84" s="36" t="s">
-        <v>2895</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
+      </c>
+      <c r="J84" s="32" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K84" s="35" t="s">
+        <v>2856</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>2896</v>
+        <v>2881</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>2897</v>
+        <v>2882</v>
       </c>
       <c r="R84" t="str">
         <f>"| "&amp;J84&amp;" | "&amp;K84&amp;" | "&amp;L84&amp;" | "&amp;M84&amp;" |"</f>
-        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="20.25">
       <c r="A85" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M85&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
-      </c>
-      <c r="J85" s="30" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
+      </c>
+      <c r="J85" s="35" t="s">
         <v>2888</v>
       </c>
-      <c r="K85" s="36" t="s">
-        <v>2892</v>
-      </c>
-      <c r="L85" s="29" t="s">
-        <v>2893</v>
+      <c r="K85" s="19" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2956</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>2894</v>
+        <v>2945</v>
       </c>
       <c r="R85" t="str">
         <f>"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
-        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20.25">
       <c r="A86" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M86&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J86" s="36" t="s">
-        <v>2900</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
+      </c>
+      <c r="J86" s="35" t="s">
+        <v>2888</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>2912</v>
+        <v>2858</v>
       </c>
       <c r="L86" t="s">
-        <v>2961</v>
+        <v>2953</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="R86" t="str">
         <f>"| "&amp;J86&amp;" | "&amp;K86&amp;" | "&amp;L86&amp;" | "&amp;M86&amp;" |"</f>
-        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="20.25">
       <c r="A87" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M87&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
-      </c>
-      <c r="J87" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
+      </c>
+      <c r="J87" s="28" t="s">
         <v>2888</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="L87" s="29" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="R87" t="str">
         <f>"| "&amp;J87&amp;" | "&amp;K87&amp;" | "&amp;L87&amp;" | "&amp;M87&amp;" |"</f>
+        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="20.25">
+      <c r="A88" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M88&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+      </c>
+      <c r="J88" s="35" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M88" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="R88" t="str">
+        <f>"| "&amp;J88&amp;" | "&amp;K88&amp;" | "&amp;L88&amp;" | "&amp;M88&amp;" |"</f>
+        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="20.25">
+      <c r="A89" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M89&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K89" s="35" t="s">
+        <v>2895</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M89" s="28" t="s">
+        <v>2897</v>
+      </c>
+      <c r="R89" t="str">
+        <f>"| "&amp;J89&amp;" | "&amp;K89&amp;" | "&amp;L89&amp;" | "&amp;M89&amp;" |"</f>
+        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="20.25">
+      <c r="A90" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M90&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K90" s="35" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L90" s="29" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>2894</v>
+      </c>
+      <c r="R90" t="str">
+        <f>"| "&amp;J90&amp;" | "&amp;K90&amp;" | "&amp;L90&amp;" | "&amp;M90&amp;" |"</f>
+        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="20.25">
+      <c r="A91" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M91&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J91" s="35" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2961</v>
+      </c>
+      <c r="M91" s="28" t="s">
+        <v>2948</v>
+      </c>
+      <c r="R91" t="str">
+        <f>"| "&amp;J91&amp;" | "&amp;K91&amp;" | "&amp;L91&amp;" | "&amp;M91&amp;" |"</f>
+        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="20.25">
+      <c r="A92" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M92&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
+      </c>
+      <c r="J92" s="35" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L92" s="29" t="s">
+        <v>2933</v>
+      </c>
+      <c r="M92" s="28" t="s">
+        <v>2930</v>
+      </c>
+      <c r="R92" t="str">
+        <f>"| "&amp;J92&amp;" | "&amp;K92&amp;" | "&amp;L92&amp;" | "&amp;M92&amp;" |"</f>
         <v>| by/3.0/ | 96964__gabisaraceni__porta-abrindo-5.wav | https://freesound.org/s/96964/ | gabisaraceni |</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="6" t="s">
+    <row r="93" spans="1:18">
+      <c r="A93" s="6" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="6" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A96" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
-      <c r="A89" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="6" t="s">
+    <row r="97" spans="1:12" ht="18" thickBot="1">
+      <c r="A97" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J97&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K97&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L97&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J97" s="58" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K97" s="58" t="s">
+        <v>3421</v>
+      </c>
+      <c r="L97" s="58" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A98" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L98&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J98" s="59" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K98" s="59" t="s">
+        <v>3422</v>
+      </c>
+      <c r="L98" s="60" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A99" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L99&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J99" s="61" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K99" s="61" t="s">
+        <v>3424</v>
+      </c>
+      <c r="L99" s="62" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A100" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L100&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J100" s="59" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K100" s="59" t="s">
+        <v>3426</v>
+      </c>
+      <c r="L100" s="60" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="6" t="s">
         <v>3419</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A91" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="18" thickBot="1">
-      <c r="A92" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J92&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K92&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L92&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J92" s="60" t="s">
-        <v>2876</v>
-      </c>
-      <c r="K92" s="60" t="s">
-        <v>3422</v>
-      </c>
-      <c r="L92" s="60" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="45.75" thickBot="1">
-      <c r="A93" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L93&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>3423</v>
-      </c>
-      <c r="L93" s="62" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A94" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L94&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J94" s="63" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K94" s="63" t="s">
-        <v>3425</v>
-      </c>
-      <c r="L94" s="64" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A95" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L95&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J95" s="61" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K95" s="61" t="s">
-        <v>3427</v>
-      </c>
-      <c r="L95" s="62" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="6" t="s">
-        <v>3420</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A63:D70">
-    <sortCondition descending="1" ref="A63:A70"/>
-    <sortCondition ref="B63:B70"/>
+  <sortState ref="A68:D75">
+    <sortCondition descending="1" ref="A68:A75"/>
+    <sortCondition ref="B68:B75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L79" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
-    <hyperlink ref="L77" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
-    <hyperlink ref="L62" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
-    <hyperlink ref="L68" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
-    <hyperlink ref="L85" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
-    <hyperlink ref="L84" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
-    <hyperlink ref="L75" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
-    <hyperlink ref="L67" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
-    <hyperlink ref="L74" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
-    <hyperlink ref="L83" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
-    <hyperlink ref="L71" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
-    <hyperlink ref="L82" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
-    <hyperlink ref="L74:L75" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
-    <hyperlink ref="L78" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
-    <hyperlink ref="L87" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
-    <hyperlink ref="L70" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
-    <hyperlink ref="H24" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
-    <hyperlink ref="H19" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
-    <hyperlink ref="H22" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
-    <hyperlink ref="H14" r:id="rId20" xr:uid="{E08EAADE-B534-4F10-8046-41A89DE60AED}"/>
-    <hyperlink ref="H21" r:id="rId21" xr:uid="{1C69CE9F-8A0A-46D7-8D36-88F69F179169}"/>
+    <hyperlink ref="L84" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
+    <hyperlink ref="L82" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
+    <hyperlink ref="L67" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
+    <hyperlink ref="L73" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
+    <hyperlink ref="L90" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
+    <hyperlink ref="L89" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
+    <hyperlink ref="L80" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
+    <hyperlink ref="L72" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
+    <hyperlink ref="L79" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
+    <hyperlink ref="L88" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
+    <hyperlink ref="L76" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
+    <hyperlink ref="L87" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
+    <hyperlink ref="L79:L80" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
+    <hyperlink ref="L83" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
+    <hyperlink ref="L92" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
+    <hyperlink ref="L75" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
+    <hyperlink ref="H25" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
+    <hyperlink ref="H15" r:id="rId20" xr:uid="{E08EAADE-B534-4F10-8046-41A89DE60AED}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{1C69CE9F-8A0A-46D7-8D36-88F69F179169}"/>
     <hyperlink ref="H11" r:id="rId22" xr:uid="{98ABC161-AB9D-4F60-87BE-749E4E4F50E4}"/>
     <hyperlink ref="H9" r:id="rId23" xr:uid="{DBFADD8C-4C9E-493D-9424-41720C23C9D3}"/>
-    <hyperlink ref="H34" r:id="rId24" xr:uid="{C1B31281-1033-4BC4-9D4B-CC2023FF56DB}"/>
-    <hyperlink ref="H27" r:id="rId25" xr:uid="{233967F1-D44D-4DD7-8621-DB03C700D78B}"/>
-    <hyperlink ref="H28" r:id="rId26" xr:uid="{668B5A5D-33C3-48F3-B29D-78E17C45647B}"/>
-    <hyperlink ref="H33" r:id="rId27" xr:uid="{358F58C7-5E85-4805-BCE6-BEBC9EFC5590}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{9857E7A2-3B5E-4C6F-BE6B-75B1942BF2F1}"/>
-    <hyperlink ref="H31" r:id="rId29" xr:uid="{7817D13B-66BE-451C-A663-245A7D32FB4E}"/>
+    <hyperlink ref="H35" r:id="rId24" xr:uid="{C1B31281-1033-4BC4-9D4B-CC2023FF56DB}"/>
+    <hyperlink ref="H28" r:id="rId25" xr:uid="{233967F1-D44D-4DD7-8621-DB03C700D78B}"/>
+    <hyperlink ref="H29" r:id="rId26" xr:uid="{668B5A5D-33C3-48F3-B29D-78E17C45647B}"/>
+    <hyperlink ref="H34" r:id="rId27" xr:uid="{358F58C7-5E85-4805-BCE6-BEBC9EFC5590}"/>
+    <hyperlink ref="H30" r:id="rId28" xr:uid="{9857E7A2-3B5E-4C6F-BE6B-75B1942BF2F1}"/>
+    <hyperlink ref="H32" r:id="rId29" xr:uid="{7817D13B-66BE-451C-A663-245A7D32FB4E}"/>
     <hyperlink ref="H12" r:id="rId30" xr:uid="{7C24BB00-1AF3-4126-B137-A49F7832B368}"/>
-    <hyperlink ref="H30" r:id="rId31" xr:uid="{093D12FF-CE66-488E-919F-B618F1024F05}"/>
-    <hyperlink ref="H32" r:id="rId32" xr:uid="{99E100BC-474F-4957-8AB6-A17E6091CEA4}"/>
+    <hyperlink ref="H31" r:id="rId31" xr:uid="{093D12FF-CE66-488E-919F-B618F1024F05}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{99E100BC-474F-4957-8AB6-A17E6091CEA4}"/>
     <hyperlink ref="H2" r:id="rId33" xr:uid="{25C6586F-F991-4DAC-AEAE-61EB9CF85AF5}"/>
     <hyperlink ref="H3" r:id="rId34" xr:uid="{3FD4754B-D29F-42BF-9347-AEB60E71BDB1}"/>
     <hyperlink ref="H5" r:id="rId35" xr:uid="{6D41BF09-100E-4896-BD25-6704EAC36A60}"/>
     <hyperlink ref="H4" r:id="rId36" xr:uid="{2DD3B0DC-A175-4C8A-841B-658057AE051F}"/>
-    <hyperlink ref="H15" r:id="rId37" xr:uid="{33C6D4A0-BD27-430A-9E84-AE82A539480A}"/>
-    <hyperlink ref="H17" r:id="rId38" xr:uid="{8E6DDEF9-D8C3-4DA8-A4AD-2596F9F0C140}"/>
-    <hyperlink ref="H18" r:id="rId39" xr:uid="{58DE9C77-4D8A-49B7-B8ED-B830856345DB}"/>
+    <hyperlink ref="H16" r:id="rId37" xr:uid="{33C6D4A0-BD27-430A-9E84-AE82A539480A}"/>
+    <hyperlink ref="H18" r:id="rId38" xr:uid="{8E6DDEF9-D8C3-4DA8-A4AD-2596F9F0C140}"/>
+    <hyperlink ref="H19" r:id="rId39" xr:uid="{58DE9C77-4D8A-49B7-B8ED-B830856345DB}"/>
     <hyperlink ref="H10" r:id="rId40" xr:uid="{F25DAD37-A019-474B-A9A2-BCA497746C14}"/>
-    <hyperlink ref="H16" r:id="rId41" xr:uid="{63C79250-783C-452C-9453-FFE824D74709}"/>
-    <hyperlink ref="H25" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
-    <hyperlink ref="H23" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
-    <hyperlink ref="H20" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
-    <hyperlink ref="H44" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
-    <hyperlink ref="H45" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
+    <hyperlink ref="H17" r:id="rId41" xr:uid="{63C79250-783C-452C-9453-FFE824D74709}"/>
+    <hyperlink ref="H26" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
+    <hyperlink ref="H24" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
+    <hyperlink ref="H21" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
+    <hyperlink ref="H49" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
+    <hyperlink ref="H50" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
     <hyperlink ref="H8" r:id="rId47" xr:uid="{2AE693E7-7449-4538-80A8-30A52F2A22F5}"/>
     <hyperlink ref="H7" r:id="rId48" xr:uid="{2FE1FB4D-693E-4830-8337-658393F68B92}"/>
     <hyperlink ref="H13" r:id="rId49" xr:uid="{DE9970E0-9BDB-45D1-93FA-3F6E016EDFDA}"/>
-    <hyperlink ref="L93" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
-    <hyperlink ref="L94" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
-    <hyperlink ref="L95" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
-    <hyperlink ref="L61" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
+    <hyperlink ref="L98" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
+    <hyperlink ref="L99" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
+    <hyperlink ref="L100" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
+    <hyperlink ref="L66" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D72CB-CB53-4590-9FAA-0501B6A84C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751DD00-6927-4450-BCEF-F7C7A212B802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -21,8 +21,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3223:$B$3273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sounds!$A$1:$H$44</definedName>
     <definedName name="mROW">StateTable!$V$2:$X$21</definedName>
-    <definedName name="prev">Sounds!$AK$2:$AK$16</definedName>
+    <definedName name="prev">Sounds!$AK$2:$AK$18</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="3489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="3498">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10504,21 +10505,9 @@
     <t>local</t>
   </si>
   <si>
-    <t>0041_FOOF.mp3</t>
-  </si>
-  <si>
     <t>PowerOn</t>
   </si>
   <si>
-    <t>my combination windup; max license is by/3.0/</t>
-  </si>
-  <si>
-    <t>My FOOF announcement; license is by/3.0/</t>
-  </si>
-  <si>
-    <t>0005_Gravitational-Waves-from-a-Neutron-Star-Merger-Produced-a-Signal-Detected-by-LIGO_2019-12-13.mp3</t>
-  </si>
-  <si>
     <t>lock/load open shoot</t>
   </si>
   <si>
@@ -10651,9 +10640,6 @@
     <t>Sorry, not yet implemented</t>
   </si>
   <si>
-    <t>mEFCT_CONFIGURE+2</t>
-  </si>
-  <si>
     <t>mADDR_CFGSND</t>
   </si>
   <si>
@@ -10687,9 +10673,6 @@
     <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2EEPROM | mSPCL_EFCT_NONE</t>
   </si>
   <si>
-    <t>mEFCT_UNIQ+2</t>
-  </si>
-  <si>
     <t>0102_uniqSorryNotYetImplemented.wav</t>
   </si>
   <si>
@@ -10699,33 +10682,15 @@
     <t>Welcome to RBG configuration: choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself.</t>
   </si>
   <si>
-    <t>0062_cfg_introToConfig.wav</t>
-  </si>
-  <si>
-    <t>mEFCT_CONFIGURE+3</t>
-  </si>
-  <si>
     <t>Press just trigger to cycle through sound choices, trigger + any color to choose the sound.</t>
   </si>
   <si>
-    <t>0063_cfg_configSndInstruct.wav</t>
-  </si>
-  <si>
     <t>0064_cfg_configLEDInstruct.wav</t>
   </si>
   <si>
     <t>0065_cfg_configOtherInstruct.wav</t>
   </si>
   <si>
-    <t>0017_PewPewPew.wav</t>
-  </si>
-  <si>
-    <t>mdo47 recording of Pew Pew Pew</t>
-  </si>
-  <si>
-    <t>mdo47 recording of "Welcome to RBG configuration: choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself."</t>
-  </si>
-  <si>
     <t>mdo47 recording of "Press just trigger to cycle through sound choices, trigger + any color to choose the sound."</t>
   </si>
   <si>
@@ -10742,6 +10707,69 @@
   </si>
   <si>
     <t>(7&lt;&lt;mSHIFT_EFCT_CFGMAXVAL) | mEFCT_SHOOT</t>
+  </si>
+  <si>
+    <t>mdo47 recording of FOOF announcement; license is by/3.0/</t>
+  </si>
+  <si>
+    <t>mdo47 combination windup; max license is by/3.0/</t>
+  </si>
+  <si>
+    <t>0005__mdo47__Gravitational-Waves-from-a-Neutron-Star-Merger-Produced-a-Signal-Detected-by-LIGO_mdo47.wav</t>
+  </si>
+  <si>
+    <t>0041__mdo47__lFOOF_Darling.wav</t>
+  </si>
+  <si>
+    <t>0042__mdo47__mFOOF.wav</t>
+  </si>
+  <si>
+    <t>0062__mdo47__cfg_introToConfig.wav</t>
+  </si>
+  <si>
+    <t>0063__mdo47__cfg_configSndInstruct.wav</t>
+  </si>
+  <si>
+    <t>0018__mdo47_mPewPewPew.wav</t>
+  </si>
+  <si>
+    <t>0017__mdo47_lPewPewPew.wav</t>
+  </si>
+  <si>
+    <t>0019__mdo47__iPewPewPew.wav</t>
+  </si>
+  <si>
+    <t>mdo47 "L" recording of Pew Pew Pew</t>
+  </si>
+  <si>
+    <t>mdo47 "M" recording of Pew Pew Pew</t>
+  </si>
+  <si>
+    <t>mdo47 "I" recording of Pew Pew Pew</t>
+  </si>
+  <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>mEFCT_CFG_INTRO</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SILENCE</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_NOT_IMPL</t>
+  </si>
+  <si>
+    <t>mEFCT_CFG_SND_INSTR</t>
+  </si>
+  <si>
+    <t>mEFCT_CFG_LED_INSTR</t>
+  </si>
+  <si>
+    <t>mEFCT_CFG_OTHR_INSTR</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. Choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself."</t>
   </si>
 </sst>
 </file>
@@ -11116,7 +11144,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11251,6 +11279,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11577,8 +11617,8 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11804,12 +11844,12 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
@@ -12017,12 +12057,12 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="str">
@@ -12175,10 +12215,10 @@
         <v>2550</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>0</v>
@@ -12203,10 +12243,10 @@
         <v>2550</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>4</v>
@@ -12249,10 +12289,10 @@
         <v>2549</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="F22" s="37" t="s">
         <v>0</v>
@@ -12281,10 +12321,10 @@
         <v>2549</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>3</v>
@@ -12639,19 +12679,19 @@
     </row>
     <row r="45" spans="1:15" ht="120">
       <c r="A45" s="63" t="s">
-        <v>3473</v>
+        <v>3467</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>2730</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3458</v>
+        <v>3491</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>0</v>
@@ -12670,19 +12710,19 @@
         <v>2730</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3458</v>
+        <v>3491</v>
       </c>
       <c r="E46" s="47" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I46" s="75" t="s">
         <v>3456</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3451</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>3461</v>
       </c>
       <c r="K46" s="9" t="e">
         <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
@@ -12695,19 +12735,19 @@
         <v>2730</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I47" t="s">
         <v>3449</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3458</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>3456</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3452</v>
-      </c>
-      <c r="I47" t="s">
-        <v>3453</v>
       </c>
       <c r="K47" s="9" t="e">
         <f>IF(LEN(C47),VLOOKUP(C47,mROW,3,FALSE),"")</f>
@@ -12720,19 +12760,19 @@
         <v>2730</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3458</v>
+        <v>3491</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="F48" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="I48" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
       <c r="K48" s="9" t="e">
         <f>IF(LEN(C48),VLOOKUP(C48,mROW,3,FALSE),"")</f>
@@ -12757,22 +12797,22 @@
     </row>
     <row r="51" spans="1:11" ht="30">
       <c r="A51" s="63" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>2730</v>
       </c>
       <c r="C51" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3470</v>
+        <v>3493</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="K51" s="9" t="e">
         <f>IF(LEN(C51),VLOOKUP(C51,mROW,3,FALSE),"")</f>
@@ -12788,22 +12828,22 @@
     </row>
     <row r="53" spans="1:11" ht="30">
       <c r="A53" s="63" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>2730</v>
       </c>
       <c r="C53" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3470</v>
+        <v>3493</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="K53" s="9" t="e">
         <f>IF(LEN(C53),VLOOKUP(C53,mROW,3,FALSE),"")</f>
@@ -12819,26 +12859,26 @@
     </row>
     <row r="55" spans="1:11" ht="45">
       <c r="A55" s="63" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10" t="s">
-        <v>3488</v>
+        <v>3476</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
       <c r="K55" s="9" t="e">
         <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
@@ -12854,19 +12894,19 @@
     </row>
     <row r="57" spans="1:11" ht="75">
       <c r="A57" s="63" t="s">
-        <v>3476</v>
+        <v>3468</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>2730</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3475</v>
+        <v>3494</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>0</v>
@@ -12874,7 +12914,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9" t="e">
@@ -12890,16 +12930,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="B59" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="K59" s="9" t="e">
         <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
@@ -12908,16 +12948,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="B60" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
       <c r="K60" s="9" t="e">
         <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
@@ -12932,13 +12972,13 @@
     </row>
     <row r="62" spans="1:11" ht="45">
       <c r="B62" s="10" t="s">
-        <v>3468</v>
+        <v>3463</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="K62" s="9" t="e">
         <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
@@ -12953,13 +12993,13 @@
     </row>
     <row r="64" spans="1:11" ht="45">
       <c r="B64" s="10" t="s">
-        <v>3469</v>
+        <v>3464</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="K64" s="9" t="e">
         <f>IF(LEN(C64),VLOOKUP(C64,mROW,3,FALSE),"")</f>
@@ -39527,7 +39567,7 @@
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3436</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -39570,7 +39610,7 @@
         <v>43</v>
       </c>
       <c r="B3286" t="s">
-        <v>3437</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
@@ -39579,7 +39619,7 @@
         <v>871</v>
       </c>
       <c r="B3287" t="s">
-        <v>3438</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -39588,7 +39628,7 @@
         <v>3109</v>
       </c>
       <c r="B3288" t="s">
-        <v>3439</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -39597,7 +39637,7 @@
         <v>3225</v>
       </c>
       <c r="B3289" t="s">
-        <v>3440</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -39606,7 +39646,7 @@
         <v>3320</v>
       </c>
       <c r="B3290" t="s">
-        <v>3441</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -39615,7 +39655,7 @@
         <v>3611</v>
       </c>
       <c r="B3291" t="s">
-        <v>3442</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -39624,7 +39664,7 @@
         <v>3727</v>
       </c>
       <c r="B3292" t="s">
-        <v>3443</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -39633,7 +39673,7 @@
         <v>3822</v>
       </c>
       <c r="B3293" t="s">
-        <v>3444</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -39642,7 +39682,7 @@
         <v>4150</v>
       </c>
       <c r="B3294" t="s">
-        <v>3445</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -39651,7 +39691,7 @@
         <v>4219</v>
       </c>
       <c r="B3295" t="s">
-        <v>3446</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -39660,7 +39700,7 @@
         <v>4271</v>
       </c>
       <c r="B3296" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -39669,7 +39709,7 @@
         <v>4340</v>
       </c>
       <c r="B3297" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
     </row>
   </sheetData>
@@ -42134,10 +42174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AK106"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -42181,7 +42221,9 @@
       <c r="H1" s="64" t="s">
         <v>2878</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>3490</v>
+      </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
       <c r="A2" s="65" t="s">
@@ -42208,7 +42250,7 @@
       <c r="H2" s="69" t="s">
         <v>2898</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="27"/>
       <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" ht="30">
@@ -42236,7 +42278,7 @@
       <c r="H3" s="69" t="s">
         <v>2883</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="27"/>
       <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="20.25">
@@ -42292,10 +42334,10 @@
       <c r="H5" s="69" t="s">
         <v>2881</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="27"/>
       <c r="AK5" s="28"/>
     </row>
-    <row r="6" spans="1:37" ht="20.25">
+    <row r="6" spans="1:37" ht="30">
       <c r="A6" s="70" t="s">
         <v>2874</v>
       </c>
@@ -42303,10 +42345,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>3413</v>
+        <v>3479</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>3411</v>
+        <v>3478</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>2874</v>
@@ -42320,7 +42362,7 @@
       <c r="H6" s="70" t="s">
         <v>3408</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="AK6" s="28"/>
     </row>
     <row r="7" spans="1:37" ht="30">
@@ -42348,7 +42390,7 @@
       <c r="H7" s="69" t="s">
         <v>2951</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="AK7" s="28"/>
     </row>
     <row r="8" spans="1:37" ht="21" thickBot="1">
@@ -42376,7 +42418,6 @@
       <c r="H8" s="69" t="s">
         <v>2952</v>
       </c>
-      <c r="I8" s="28"/>
       <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="1:37" ht="21.75" thickTop="1" thickBot="1">
@@ -42502,10 +42543,10 @@
         <v>2885</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>3415</v>
+        <v>3411</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>3414</v>
+        <v>3410</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>2880</v>
@@ -42522,20 +42563,20 @@
       <c r="A14" s="70" t="s">
         <v>2873</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="19">
         <v>17</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>3480</v>
+      <c r="C14" s="65" t="s">
+        <v>3485</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>3481</v>
+        <v>3487</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>2873</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="G14" s="72" t="s">
         <v>3407</v>
@@ -42546,73 +42587,71 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="20.25">
-      <c r="A15" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="65">
-        <v>21</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>2936</v>
+      <c r="A15" s="70" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B15" s="19">
+        <v>18</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>3488</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>3405</v>
+        <v>2873</v>
       </c>
       <c r="F15" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>2926</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>2931</v>
+      <c r="G15" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>3408</v>
       </c>
       <c r="I15" s="28"/>
-      <c r="AK15" s="28"/>
     </row>
     <row r="16" spans="1:37" ht="20.25">
-      <c r="A16" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="65">
-        <v>22</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>2927</v>
+      <c r="A16" s="70" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B16" s="19">
+        <v>19</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>3486</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>2934</v>
+        <v>3489</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>3405</v>
+        <v>2873</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>2928</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>2932</v>
+        <v>2888</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>3408</v>
       </c>
       <c r="I16" s="28"/>
-      <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:37" ht="20.25">
       <c r="A17" s="65" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>2923</v>
+        <v>2936</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>3405</v>
@@ -42621,10 +42660,10 @@
         <v>2888</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>2924</v>
+        <v>2931</v>
       </c>
       <c r="I17" s="28"/>
       <c r="AK17" s="28"/>
@@ -42634,121 +42673,123 @@
         <v>3</v>
       </c>
       <c r="B18" s="65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="E18" s="70" t="s">
         <v>3405</v>
       </c>
       <c r="F18" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>2932</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="AK18" s="28"/>
+    </row>
+    <row r="19" spans="1:37" ht="20.25">
+      <c r="A19" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="65">
+        <v>23</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F19" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G18" s="68" t="s">
-        <v>2930</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>2933</v>
-      </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:37" ht="30">
-      <c r="A19" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="64">
-        <v>25</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>3414</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>2880</v>
-      </c>
       <c r="G19" s="68" t="s">
-        <v>2887</v>
+        <v>2921</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>2886</v>
+        <v>2924</v>
       </c>
       <c r="I19" s="28"/>
+      <c r="AK19" s="28"/>
     </row>
     <row r="20" spans="1:37" ht="20.25">
       <c r="A20" s="65" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>2917</v>
+        <v>2929</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>2935</v>
       </c>
       <c r="E20" s="70" t="s">
         <v>3405</v>
       </c>
       <c r="F20" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:37" ht="30">
+      <c r="A21" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="64">
+        <v>25</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>2880</v>
       </c>
-      <c r="G20" s="68" t="s">
-        <v>2916</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>2919</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:37" ht="20.25">
-      <c r="A21" s="65" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B21" s="65">
-        <v>31</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>3405</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>2888</v>
-      </c>
       <c r="G21" s="68" t="s">
-        <v>2926</v>
+        <v>2887</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>2931</v>
+        <v>2886</v>
       </c>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:37" ht="20.25">
       <c r="A22" s="65" t="s">
-        <v>2911</v>
+        <v>3</v>
       </c>
       <c r="B22" s="65">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>2934</v>
+        <v>2918</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>2917</v>
       </c>
       <c r="E22" s="70" t="s">
         <v>3405</v>
@@ -42757,10 +42798,10 @@
         <v>2880</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>2928</v>
+        <v>2916</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>2932</v>
+        <v>2919</v>
       </c>
       <c r="I22" s="28"/>
     </row>
@@ -42769,13 +42810,13 @@
         <v>2911</v>
       </c>
       <c r="B23" s="65">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>2923</v>
+        <v>2936</v>
       </c>
       <c r="E23" s="70" t="s">
         <v>3405</v>
@@ -42784,10 +42825,10 @@
         <v>2888</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>2924</v>
+        <v>2931</v>
       </c>
       <c r="I23" s="28"/>
     </row>
@@ -42796,52 +42837,52 @@
         <v>2911</v>
       </c>
       <c r="B24" s="65">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="E24" s="70" t="s">
         <v>3405</v>
       </c>
       <c r="F24" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>2932</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:37" ht="20.25">
+      <c r="A25" s="65" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B25" s="65">
+        <v>33</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>2930</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>2933</v>
-      </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:37" ht="30">
-      <c r="A25" s="70" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B25" s="64">
-        <v>35</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>3414</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>2880</v>
-      </c>
       <c r="G25" s="68" t="s">
-        <v>2887</v>
+        <v>2921</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>2886</v>
+        <v>2924</v>
       </c>
       <c r="I25" s="28"/>
     </row>
@@ -42850,256 +42891,256 @@
         <v>2911</v>
       </c>
       <c r="B26" s="65">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>2917</v>
+        <v>2929</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>2935</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>3405</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>2916</v>
+        <v>2930</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>2919</v>
+        <v>2933</v>
       </c>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:37" ht="20.25">
-      <c r="A27" s="65" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B27" s="65">
-        <v>41</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>3409</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>3412</v>
+    <row r="27" spans="1:37" ht="30">
+      <c r="A27" s="70" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B27" s="64">
+        <v>35</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>2910</v>
       </c>
       <c r="E27" s="70" t="s">
         <v>3410</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>2888</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>3407</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>3408</v>
+        <v>2880</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>2886</v>
       </c>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:37" ht="20.25">
       <c r="A28" s="65" t="s">
-        <v>2872</v>
+        <v>2911</v>
       </c>
       <c r="B28" s="65">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>2870</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>2871</v>
-      </c>
-      <c r="E28" s="67" t="s">
-        <v>2872</v>
+        <v>2918</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>3405</v>
       </c>
       <c r="F28" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:37" ht="30">
+      <c r="A29" s="70" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B29" s="19">
+        <v>41</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>2888</v>
       </c>
-      <c r="G28" s="68" t="s">
-        <v>2941</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>2955</v>
-      </c>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:37" ht="20.25">
-      <c r="A29" s="65" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B29" s="65">
-        <v>52</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>2862</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>2863</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>2872</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H29" s="69" t="s">
-        <v>2950</v>
+      <c r="G29" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>3408</v>
       </c>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:37" ht="30">
-      <c r="A30" s="65" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B30" s="65">
-        <v>53</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>3399</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>2872</v>
+      <c r="A30" s="70" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B30" s="19">
+        <v>41</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>3409</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>2947</v>
-      </c>
-      <c r="H30" s="69" t="s">
-        <v>2957</v>
+        <v>2888</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>3408</v>
       </c>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:37" ht="30">
+    <row r="31" spans="1:37" ht="20.25">
       <c r="A31" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B31" s="64">
-        <v>54</v>
+      <c r="B31" s="65">
+        <v>51</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>2914</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>3401</v>
-      </c>
-      <c r="E31" s="71" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E31" s="67" t="s">
         <v>2872</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>2915</v>
+        <v>2941</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>2920</v>
+        <v>2955</v>
       </c>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:37" ht="30">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:37" ht="20.25">
+      <c r="A32" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B32" s="9">
-        <v>55</v>
+      <c r="B32" s="65">
+        <v>52</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>2906</v>
+        <v>2862</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>2905</v>
+        <v>2863</v>
       </c>
       <c r="E32" s="67" t="s">
         <v>2872</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="G32" s="68" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" ht="30">
+      <c r="A33" s="65" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B33" s="65">
+        <v>53</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G33" s="68" t="s">
         <v>2947</v>
       </c>
-      <c r="H32" s="69" t="s">
-        <v>2958</v>
-      </c>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:18" ht="20.25">
-      <c r="A33" s="70" t="s">
+      <c r="H33" s="69" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" ht="30">
+      <c r="A34" s="65" t="s">
         <v>2872</v>
       </c>
-      <c r="B33" s="64">
-        <v>56</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>3387</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>3406</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>2888</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>2894</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>2893</v>
-      </c>
-      <c r="I33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" ht="30">
-      <c r="A34" s="70" t="s">
+      <c r="B34" s="64">
+        <v>54</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E34" s="71" t="s">
         <v>2872</v>
       </c>
-      <c r="B34" s="64">
-        <v>57</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>2861</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>2872</v>
-      </c>
       <c r="F34" s="68" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>2945</v>
+        <v>2915</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>2956</v>
+        <v>2920</v>
       </c>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:18" ht="30">
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="B35" s="64">
-        <v>58</v>
+      <c r="B35" s="9">
+        <v>55</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>2875</v>
+        <v>2906</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>3403</v>
+        <v>2905</v>
       </c>
       <c r="E35" s="67" t="s">
         <v>2872</v>
@@ -43108,122 +43149,140 @@
         <v>2888</v>
       </c>
       <c r="G35" s="68" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.25">
+      <c r="A36" s="70" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B36" s="64">
+        <v>56</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>2894</v>
+      </c>
+      <c r="H36" s="69" t="s">
+        <v>2893</v>
+      </c>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" ht="30">
+      <c r="A37" s="70" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B37" s="64">
+        <v>57</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H37" s="69" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" ht="30">
+      <c r="A38" s="70" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B38" s="64">
+        <v>58</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G38" s="68" t="s">
         <v>2940</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H38" s="69" t="s">
         <v>2954</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="60">
-      <c r="A36" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B36" s="70">
+    <row r="39" spans="1:11" ht="75">
+      <c r="A39" s="70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B39" s="70">
         <v>62</v>
       </c>
-      <c r="C36" s="73" t="s">
-        <v>3474</v>
-      </c>
-      <c r="D36" s="67" t="s">
+      <c r="C39" s="65" t="s">
         <v>3482</v>
       </c>
-      <c r="E36" s="67" t="s">
-        <v>3472</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G36" s="72" t="s">
+      <c r="D39" s="67" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G39" s="72" t="s">
         <v>3407</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H39" s="70" t="s">
         <v>3408</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="45">
-      <c r="A37" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B37" s="70">
+      <c r="I39" s="27" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45">
+      <c r="A40" s="70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B40" s="70">
         <v>63</v>
       </c>
-      <c r="C37" s="73" t="s">
-        <v>3477</v>
-      </c>
-      <c r="D37" s="67" t="s">
+      <c r="C40" s="65" t="s">
         <v>3483</v>
       </c>
-      <c r="E37" s="67" t="s">
-        <v>3472</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>3407</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="45">
-      <c r="A38" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B38" s="70">
-        <v>64</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>3478</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>3484</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="70"/>
-    </row>
-    <row r="39" spans="1:18" ht="45">
-      <c r="A39" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B39" s="70">
-        <v>65</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>3479</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>3485</v>
-      </c>
-      <c r="E39" s="70" t="s">
-        <v>3472</v>
-      </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="70"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A40" s="71" t="s">
-        <v>3417</v>
-      </c>
-      <c r="B40" s="64">
-        <v>101</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>3416</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>3486</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>3417</v>
+      <c r="D40" s="67" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>3466</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="G40" s="72" t="s">
         <v>3407</v>
@@ -43231,25 +43290,28 @@
       <c r="H40" s="70" t="s">
         <v>3408</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="20.25">
-      <c r="A41" s="71" t="s">
-        <v>3417</v>
+      <c r="I40" s="27" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="45">
+      <c r="A41" s="70" t="s">
+        <v>3466</v>
       </c>
       <c r="B41" s="70">
-        <v>102</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>3471</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>3487</v>
-      </c>
-      <c r="E41" s="71" t="s">
-        <v>3417</v>
+        <v>64</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>3466</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="G41" s="72" t="s">
         <v>3407</v>
@@ -43257,195 +43319,260 @@
       <c r="H41" s="70" t="s">
         <v>3408</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="K42" t="s">
+      <c r="I41" s="27" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45">
+      <c r="A42" s="70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B42" s="70">
+        <v>65</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="71" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B43" s="70">
+        <v>101</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G43" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20.25">
+      <c r="A44" s="71" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B44" s="70">
+        <v>102</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20.25">
+      <c r="E45" s="76"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" ht="20.25">
+      <c r="E46" s="76"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="K47" t="s">
         <v>3391</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="K43" t="s">
+    <row r="48" spans="1:11">
+      <c r="K48" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="K44" t="s">
+    <row r="49" spans="1:18">
+      <c r="K49" t="s">
         <v>3393</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
-      <c r="K45" t="s">
+    <row r="50" spans="1:18">
+      <c r="K50" t="s">
         <v>3394</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
-      <c r="K46" t="s">
+    <row r="51" spans="1:18">
+      <c r="K51" t="s">
         <v>3395</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="K47" t="s">
+    <row r="52" spans="1:18">
+      <c r="K52" t="s">
         <v>3396</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
-      <c r="K48" t="s">
+    <row r="53" spans="1:18">
+      <c r="K53" t="s">
         <v>3397</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R53" t="s">
         <v>2962</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="20.25">
-      <c r="A49" s="56" t="s">
+    <row r="54" spans="1:18" ht="20.25">
+      <c r="A54" s="56" t="s">
         <v>2874</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="35" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="35" t="s">
         <v>2901</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D54" s="34" t="s">
         <v>3388</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>2874</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F54" s="35" t="s">
         <v>2900</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G54" s="35" t="s">
         <v>2903</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H54" s="53" t="s">
         <v>2902</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K54" t="s">
         <v>3398</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R54" t="s">
         <v>2963</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="20.25">
-      <c r="A50" s="56" t="s">
+    <row r="55" spans="1:18" ht="20.25">
+      <c r="A55" s="56" t="s">
         <v>2874</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="55" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="55" t="s">
         <v>2889</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D55" s="34" t="s">
         <v>3388</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E55" s="34" t="s">
         <v>2874</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F55" s="35" t="s">
         <v>2888</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G55" s="35" t="s">
         <v>2891</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H55" s="53" t="s">
         <v>2890</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R55" t="s">
         <v>2964</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="30.75">
-      <c r="A51" s="19" t="s">
+    <row r="56" spans="1:18" ht="30.75">
+      <c r="A56" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B56" s="19">
         <v>57</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C56" s="33" t="s">
         <v>2909</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D56" s="54" t="s">
         <v>3400</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E56" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F56" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G56" s="35" t="s">
         <v>2949</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H56" s="19" t="s">
         <v>2960</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="20.25">
-      <c r="A52" s="19" t="s">
+    <row r="57" spans="1:18" ht="20.25">
+      <c r="A57" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B57" s="31">
         <v>58</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>2908</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D57" s="54" t="s">
         <v>2907</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>2872</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F57" s="35" t="s">
         <v>2900</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G57" s="35" t="s">
         <v>2948</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H57" s="19" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="20.25">
-      <c r="A53" s="6"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" ht="20.25">
-      <c r="A54" s="6"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" ht="20.25">
-      <c r="A55" s="6"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" ht="20.25">
-      <c r="A56" s="6"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" ht="20.25">
-      <c r="A57" s="6"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="6"/>
-    </row>
     <row r="58" spans="1:18" ht="20.25">
+      <c r="A58" s="6"/>
       <c r="D58" s="57"/>
       <c r="E58" s="6"/>
       <c r="F58" s="36"/>
@@ -43453,6 +43580,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:18" ht="20.25">
+      <c r="A59" s="6"/>
       <c r="D59" s="57"/>
       <c r="E59" s="6"/>
       <c r="F59" s="36"/>
@@ -43460,6 +43588,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:18" ht="20.25">
+      <c r="A60" s="6"/>
       <c r="D60" s="57"/>
       <c r="E60" s="6"/>
       <c r="F60" s="36"/>
@@ -43467,9 +43596,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:18" ht="20.25">
-      <c r="A61" s="6" t="s">
-        <v>3418</v>
-      </c>
+      <c r="A61" s="6"/>
       <c r="D61" s="57"/>
       <c r="E61" s="6"/>
       <c r="F61" s="36"/>
@@ -43477,9 +43604,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:18" ht="20.25">
-      <c r="A62" t="s">
-        <v>3432</v>
-      </c>
+      <c r="A62" s="6"/>
       <c r="D62" s="57"/>
       <c r="E62" s="6"/>
       <c r="F62" s="36"/>
@@ -43487,9 +43612,6 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:18" ht="20.25">
-      <c r="A63" t="s">
-        <v>3433</v>
-      </c>
       <c r="D63" s="57"/>
       <c r="E63" s="6"/>
       <c r="F63" s="36"/>
@@ -43497,9 +43619,6 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:18" ht="20.25">
-      <c r="A64" t="s">
-        <v>3420</v>
-      </c>
       <c r="D64" s="57"/>
       <c r="E64" s="6"/>
       <c r="F64" s="36"/>
@@ -43507,758 +43626,806 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:18" ht="20.25">
-      <c r="A65" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L65&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M65&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>2876</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>2877</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>2878</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>2879</v>
-      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:18" ht="20.25">
-      <c r="A66" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M66&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
-      </c>
-      <c r="J66" s="27" t="s">
+      <c r="A66" s="6" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D66" s="57"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:18" ht="20.25">
+      <c r="A67" t="s">
         <v>3428</v>
       </c>
-      <c r="K66" s="27" t="s">
-        <v>3431</v>
-      </c>
-      <c r="L66" s="29" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:18" ht="20.25">
+      <c r="A68" t="s">
         <v>3429</v>
       </c>
-      <c r="M66" s="27" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="20.25">
-      <c r="A67" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M67&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>2885</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>2886</v>
-      </c>
-      <c r="M67" s="28" t="s">
-        <v>2887</v>
-      </c>
-      <c r="R67" t="str">
-        <f>"| "&amp;J67&amp;" | "&amp;K67&amp;" | "&amp;L67&amp;" | "&amp;M67&amp;" |"</f>
-        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="20.25">
-      <c r="A68" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M68&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
-      </c>
-      <c r="J68" s="52" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>2909</v>
-      </c>
-      <c r="L68" t="s">
-        <v>2960</v>
-      </c>
-      <c r="M68" s="28" t="s">
-        <v>2949</v>
-      </c>
-      <c r="R68" t="str">
-        <f>"| "&amp;J68&amp;" | "&amp;K68&amp;" | "&amp;L68&amp;" | "&amp;M68&amp;" |"</f>
-        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
-      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:18" ht="20.25">
-      <c r="A69" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M69&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J69" s="52" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>2908</v>
-      </c>
-      <c r="L69" t="s">
-        <v>2959</v>
-      </c>
-      <c r="M69" s="28" t="s">
-        <v>2948</v>
-      </c>
-      <c r="R69" t="str">
-        <f>"| "&amp;J69&amp;" | "&amp;K69&amp;" | "&amp;L69&amp;" | "&amp;M69&amp;" |"</f>
-        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
-      </c>
+      <c r="A69" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D69" s="57"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:18" ht="20.25">
       <c r="A70" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M70&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J70" s="52" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>2906</v>
-      </c>
-      <c r="L70" t="s">
-        <v>2958</v>
-      </c>
-      <c r="M70" s="28" t="s">
-        <v>2947</v>
-      </c>
-      <c r="R70" t="str">
-        <f>"| "&amp;J70&amp;" | "&amp;K70&amp;" | "&amp;L70&amp;" | "&amp;M70&amp;" |"</f>
-        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J70&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K70&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L70&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M70&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>2879</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="20.25">
       <c r="A71" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M71&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J71" s="52" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>2904</v>
-      </c>
-      <c r="L71" t="s">
-        <v>2957</v>
-      </c>
-      <c r="M71" s="28" t="s">
-        <v>2947</v>
-      </c>
-      <c r="Q71" s="29"/>
-      <c r="R71" t="str">
-        <f>"| "&amp;J71&amp;" | "&amp;K71&amp;" | "&amp;L71&amp;" | "&amp;M71&amp;" |"</f>
-        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
+        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>3424</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>3427</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>3425</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20.25">
       <c r="A72" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M72&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>2901</v>
+        <v>2880</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>2885</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>2902</v>
+        <v>2886</v>
       </c>
       <c r="M72" s="28" t="s">
-        <v>2903</v>
+        <v>2887</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" ref="R72:R73" si="0">"| "&amp;J72&amp;" | "&amp;K72&amp;" | "&amp;L72&amp;" | "&amp;M72&amp;" |"</f>
-        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
+        <f>"| "&amp;J72&amp;" | "&amp;K72&amp;" | "&amp;L72&amp;" | "&amp;M72&amp;" |"</f>
+        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="20.25">
       <c r="A73" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M73&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>2889</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>2890</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
+      </c>
+      <c r="J73" s="52" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2960</v>
       </c>
       <c r="M73" s="28" t="s">
-        <v>2891</v>
+        <v>2949</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="0"/>
-        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
+        <f>"| "&amp;J73&amp;" | "&amp;K73&amp;" | "&amp;L73&amp;" | "&amp;M73&amp;" |"</f>
+        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="20.25">
       <c r="A74" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M74&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
       </c>
       <c r="J74" s="52" t="s">
-        <v>2888</v>
+        <v>2900</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>2875</v>
+        <v>2908</v>
       </c>
       <c r="L74" t="s">
-        <v>2954</v>
+        <v>2959</v>
       </c>
       <c r="M74" s="28" t="s">
-        <v>2940</v>
+        <v>2948</v>
       </c>
       <c r="R74" t="str">
         <f>"| "&amp;J74&amp;" | "&amp;K74&amp;" | "&amp;L74&amp;" | "&amp;M74&amp;" |"</f>
-        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
+        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="20.25">
       <c r="A75" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M75&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
-      </c>
-      <c r="J75" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J75" s="52" t="s">
         <v>2888</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>2870</v>
-      </c>
-      <c r="L75" s="29" t="s">
-        <v>2955</v>
+        <v>2906</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2958</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="R75" t="str">
         <f>"| "&amp;J75&amp;" | "&amp;K75&amp;" | "&amp;L75&amp;" | "&amp;M75&amp;" |"</f>
-        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
+        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="20.25">
       <c r="A76" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M76&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K76" t="s">
-        <v>2922</v>
-      </c>
-      <c r="L76" s="29" t="s">
-        <v>2924</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J76" s="52" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2957</v>
       </c>
       <c r="M76" s="28" t="s">
-        <v>2921</v>
-      </c>
+        <v>2947</v>
+      </c>
+      <c r="Q76" s="29"/>
       <c r="R76" t="str">
         <f>"| "&amp;J76&amp;" | "&amp;K76&amp;" | "&amp;L76&amp;" | "&amp;M76&amp;" |"</f>
-        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
+        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="20.25">
       <c r="A77" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M77&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>2868</v>
-      </c>
-      <c r="L77" t="s">
-        <v>2951</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>2902</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>2942</v>
+        <v>2903</v>
       </c>
       <c r="R77" t="str">
-        <f>"| "&amp;J77&amp;" | "&amp;K77&amp;" | "&amp;L77&amp;" | "&amp;M77&amp;" |"</f>
-        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
+        <f t="shared" ref="R77:R78" si="0">"| "&amp;J77&amp;" | "&amp;K77&amp;" | "&amp;L77&amp;" | "&amp;M77&amp;" |"</f>
+        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="20.25">
       <c r="A78" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M78&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>2866</v>
-      </c>
-      <c r="L78" t="s">
-        <v>2952</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>2890</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>2943</v>
+        <v>2891</v>
       </c>
       <c r="R78" t="str">
-        <f>"| "&amp;J78&amp;" | "&amp;K78&amp;" | "&amp;L78&amp;" | "&amp;M78&amp;" |"</f>
-        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
+        <f t="shared" si="0"/>
+        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="20.25">
       <c r="A79" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M79&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
-      </c>
-      <c r="J79" s="28" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K79" t="s">
-        <v>2918</v>
-      </c>
-      <c r="L79" s="29" t="s">
-        <v>2919</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
+      </c>
+      <c r="J79" s="52" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2954</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>2916</v>
+        <v>2940</v>
       </c>
       <c r="R79" t="str">
         <f>"| "&amp;J79&amp;" | "&amp;K79&amp;" | "&amp;L79&amp;" | "&amp;M79&amp;" |"</f>
-        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
+        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="20.25">
       <c r="A80" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M80&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
-      </c>
-      <c r="J80" s="30" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
+      </c>
+      <c r="J80" s="36" t="s">
         <v>2888</v>
       </c>
-      <c r="K80" s="28" t="s">
-        <v>2864</v>
+      <c r="K80" s="6" t="s">
+        <v>2870</v>
       </c>
       <c r="L80" s="29" t="s">
-        <v>2898</v>
+        <v>2955</v>
       </c>
       <c r="M80" s="28" t="s">
-        <v>2899</v>
+        <v>2941</v>
       </c>
       <c r="R80" t="str">
         <f>"| "&amp;J80&amp;" | "&amp;K80&amp;" | "&amp;L80&amp;" | "&amp;M80&amp;" |"</f>
-        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
+        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="20.25">
       <c r="A81" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M81&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
-      </c>
-      <c r="J81" s="35" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>2862</v>
-      </c>
-      <c r="L81" t="s">
-        <v>2950</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>2924</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>2944</v>
+        <v>2921</v>
       </c>
       <c r="R81" t="str">
         <f>"| "&amp;J81&amp;" | "&amp;K81&amp;" | "&amp;L81&amp;" | "&amp;M81&amp;" |"</f>
-        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
+        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25">
       <c r="A82" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M82&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
-      </c>
-      <c r="J82" s="32" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K82" s="35" t="s">
-        <v>2854</v>
-      </c>
-      <c r="L82" s="29" t="s">
-        <v>2883</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
+      </c>
+      <c r="J82" s="36" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>2868</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2951</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>2884</v>
+        <v>2942</v>
       </c>
       <c r="R82" t="str">
         <f>"| "&amp;J82&amp;" | "&amp;K82&amp;" | "&amp;L82&amp;" | "&amp;M82&amp;" |"</f>
-        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
+        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="20.25">
       <c r="A83" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M83&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
-      </c>
-      <c r="J83" s="35" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
+      </c>
+      <c r="J83" s="36" t="s">
         <v>2880</v>
       </c>
-      <c r="K83" s="19" t="s">
-        <v>2927</v>
-      </c>
-      <c r="L83" s="29" t="s">
-        <v>2932</v>
+      <c r="K83" s="6" t="s">
+        <v>2866</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2952</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>2928</v>
+        <v>2943</v>
       </c>
       <c r="R83" t="str">
         <f>"| "&amp;J83&amp;" | "&amp;K83&amp;" | "&amp;L83&amp;" | "&amp;M83&amp;" |"</f>
-        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
+        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20.25">
       <c r="A84" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M84&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
-      </c>
-      <c r="J84" s="32" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
+      </c>
+      <c r="J84" s="28" t="s">
         <v>2880</v>
       </c>
-      <c r="K84" s="35" t="s">
-        <v>2856</v>
+      <c r="K84" t="s">
+        <v>2918</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>2881</v>
+        <v>2919</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>2882</v>
+        <v>2916</v>
       </c>
       <c r="R84" t="str">
         <f>"| "&amp;J84&amp;" | "&amp;K84&amp;" | "&amp;L84&amp;" | "&amp;M84&amp;" |"</f>
-        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
+        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="20.25">
       <c r="A85" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M85&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
-      </c>
-      <c r="J85" s="35" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
+      </c>
+      <c r="J85" s="30" t="s">
         <v>2888</v>
       </c>
-      <c r="K85" s="19" t="s">
-        <v>2860</v>
-      </c>
-      <c r="L85" t="s">
-        <v>2956</v>
+      <c r="K85" s="28" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>2898</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>2945</v>
+        <v>2899</v>
       </c>
       <c r="R85" t="str">
         <f>"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
-        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20.25">
       <c r="A86" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M86&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="L86" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="R86" t="str">
         <f>"| "&amp;J86&amp;" | "&amp;K86&amp;" | "&amp;L86&amp;" | "&amp;M86&amp;" |"</f>
-        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="20.25">
       <c r="A87" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M87&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
-      </c>
-      <c r="J87" s="28" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>2925</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K87" s="35" t="s">
+        <v>2854</v>
       </c>
       <c r="L87" s="29" t="s">
-        <v>2931</v>
+        <v>2883</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>2926</v>
+        <v>2884</v>
       </c>
       <c r="R87" t="str">
         <f>"| "&amp;J87&amp;" | "&amp;K87&amp;" | "&amp;L87&amp;" | "&amp;M87&amp;" |"</f>
-        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="20.25">
       <c r="A88" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M88&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
       </c>
       <c r="J88" s="35" t="s">
         <v>2880</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>2914</v>
+        <v>2927</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>2920</v>
+        <v>2932</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>2915</v>
+        <v>2928</v>
       </c>
       <c r="R88" t="str">
         <f>"| "&amp;J88&amp;" | "&amp;K88&amp;" | "&amp;L88&amp;" | "&amp;M88&amp;" |"</f>
-        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20.25">
       <c r="A89" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M89&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="K89" s="35" t="s">
-        <v>2895</v>
+        <v>2856</v>
       </c>
       <c r="L89" s="29" t="s">
-        <v>2896</v>
+        <v>2881</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>2897</v>
+        <v>2882</v>
       </c>
       <c r="R89" t="str">
         <f>"| "&amp;J89&amp;" | "&amp;K89&amp;" | "&amp;L89&amp;" | "&amp;M89&amp;" |"</f>
-        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="20.25">
       <c r="A90" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M90&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
-      </c>
-      <c r="J90" s="30" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
+      </c>
+      <c r="J90" s="35" t="s">
         <v>2888</v>
       </c>
-      <c r="K90" s="35" t="s">
-        <v>2892</v>
-      </c>
-      <c r="L90" s="29" t="s">
-        <v>2893</v>
+      <c r="K90" s="19" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2956</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>2894</v>
+        <v>2945</v>
       </c>
       <c r="R90" t="str">
         <f>"| "&amp;J90&amp;" | "&amp;K90&amp;" | "&amp;L90&amp;" | "&amp;M90&amp;" |"</f>
-        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="20.25">
       <c r="A91" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M91&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
       </c>
       <c r="J91" s="35" t="s">
-        <v>2900</v>
+        <v>2888</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>2912</v>
+        <v>2858</v>
       </c>
       <c r="L91" t="s">
-        <v>2961</v>
+        <v>2953</v>
       </c>
       <c r="M91" s="28" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="R91" t="str">
         <f>"| "&amp;J91&amp;" | "&amp;K91&amp;" | "&amp;L91&amp;" | "&amp;M91&amp;" |"</f>
-        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="20.25">
       <c r="A92" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M92&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
-      </c>
-      <c r="J92" s="35" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
+      </c>
+      <c r="J92" s="28" t="s">
         <v>2888</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="L92" s="29" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="M92" s="28" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="R92" t="str">
         <f>"| "&amp;J92&amp;" | "&amp;K92&amp;" | "&amp;L92&amp;" | "&amp;M92&amp;" |"</f>
+        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="20.25">
+      <c r="A93" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M93&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+      </c>
+      <c r="J93" s="35" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L93" s="29" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="R93" t="str">
+        <f>"| "&amp;J93&amp;" | "&amp;K93&amp;" | "&amp;L93&amp;" | "&amp;M93&amp;" |"</f>
+        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="20.25">
+      <c r="A94" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M94&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+      </c>
+      <c r="J94" s="32" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K94" s="35" t="s">
+        <v>2895</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M94" s="28" t="s">
+        <v>2897</v>
+      </c>
+      <c r="R94" t="str">
+        <f>"| "&amp;J94&amp;" | "&amp;K94&amp;" | "&amp;L94&amp;" | "&amp;M94&amp;" |"</f>
+        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="20.25">
+      <c r="A95" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M95&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K95" s="35" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L95" s="29" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M95" s="28" t="s">
+        <v>2894</v>
+      </c>
+      <c r="R95" t="str">
+        <f>"| "&amp;J95&amp;" | "&amp;K95&amp;" | "&amp;L95&amp;" | "&amp;M95&amp;" |"</f>
+        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="20.25">
+      <c r="A96" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M96&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J96" s="35" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2961</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>2948</v>
+      </c>
+      <c r="R96" t="str">
+        <f>"| "&amp;J96&amp;" | "&amp;K96&amp;" | "&amp;L96&amp;" | "&amp;M96&amp;" |"</f>
+        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="20.25">
+      <c r="A97" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M97&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
+      </c>
+      <c r="J97" s="35" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>2933</v>
+      </c>
+      <c r="M97" s="28" t="s">
+        <v>2930</v>
+      </c>
+      <c r="R97" t="str">
+        <f>"| "&amp;J97&amp;" | "&amp;K97&amp;" | "&amp;L97&amp;" | "&amp;M97&amp;" |"</f>
         <v>| by/3.0/ | 96964__gabisaraceni__porta-abrindo-5.wav | https://freesound.org/s/96964/ | gabisaraceni |</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="6" t="s">
+    <row r="98" spans="1:18">
+      <c r="A98" s="6" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="6" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A101" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="18" thickBot="1">
+      <c r="A102" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J102&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K102&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L102&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J102" s="58" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K102" s="58" t="s">
+        <v>3417</v>
+      </c>
+      <c r="L102" s="58" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="45.75" thickBot="1">
+      <c r="A103" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L103&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J103" s="59" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K103" s="59" t="s">
+        <v>3418</v>
+      </c>
+      <c r="L103" s="60" t="s">
         <v>3419</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
-      <c r="A94" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95" s="6" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A96" t="s">
+    <row r="104" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A104" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L104&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J104" s="61" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K104" s="61" t="s">
         <v>3420</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="18" thickBot="1">
-      <c r="A97" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J97&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K97&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L97&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J97" s="58" t="s">
-        <v>2876</v>
-      </c>
-      <c r="K97" s="58" t="s">
+      <c r="L104" s="62" t="s">
         <v>3421</v>
       </c>
-      <c r="L97" s="58" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A98" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L98&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J98" s="59" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K98" s="59" t="s">
+    </row>
+    <row r="105" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A105" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L105&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J105" s="59" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K105" s="59" t="s">
         <v>3422</v>
       </c>
-      <c r="L98" s="60" t="s">
+      <c r="L105" s="60" t="s">
         <v>3423</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A99" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L99&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J99" s="61" t="s">
-        <v>2888</v>
-      </c>
-      <c r="K99" s="61" t="s">
-        <v>3424</v>
-      </c>
-      <c r="L99" s="62" t="s">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A100" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L100&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J100" s="59" t="s">
-        <v>2900</v>
-      </c>
-      <c r="K100" s="59" t="s">
-        <v>3426</v>
-      </c>
-      <c r="L100" s="60" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="6" t="s">
-        <v>3419</v>
+    <row r="106" spans="1:18">
+      <c r="A106" s="6" t="s">
+        <v>3415</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A68:D75">
-    <sortCondition descending="1" ref="A68:A75"/>
-    <sortCondition ref="B68:B75"/>
+  <autoFilter ref="A1:H44" xr:uid="{D49867B0-9605-4DAD-A171-997D81FF01DA}"/>
+  <sortState ref="A73:D80">
+    <sortCondition descending="1" ref="A73:A80"/>
+    <sortCondition ref="B73:B80"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L84" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
-    <hyperlink ref="L82" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
-    <hyperlink ref="L67" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
-    <hyperlink ref="L73" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
-    <hyperlink ref="L90" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
-    <hyperlink ref="L89" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
-    <hyperlink ref="L80" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
-    <hyperlink ref="L72" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
-    <hyperlink ref="L79" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
-    <hyperlink ref="L88" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
-    <hyperlink ref="L76" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
-    <hyperlink ref="L87" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
-    <hyperlink ref="L79:L80" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
-    <hyperlink ref="L83" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
-    <hyperlink ref="L92" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
-    <hyperlink ref="L75" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
-    <hyperlink ref="H25" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
-    <hyperlink ref="H20" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
-    <hyperlink ref="H23" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
-    <hyperlink ref="H15" r:id="rId20" xr:uid="{E08EAADE-B534-4F10-8046-41A89DE60AED}"/>
-    <hyperlink ref="H22" r:id="rId21" xr:uid="{1C69CE9F-8A0A-46D7-8D36-88F69F179169}"/>
+    <hyperlink ref="L89" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
+    <hyperlink ref="L87" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
+    <hyperlink ref="L72" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
+    <hyperlink ref="L78" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
+    <hyperlink ref="L95" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
+    <hyperlink ref="L94" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
+    <hyperlink ref="L85" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
+    <hyperlink ref="L77" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
+    <hyperlink ref="L84" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
+    <hyperlink ref="L93" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
+    <hyperlink ref="L81" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
+    <hyperlink ref="L92" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
+    <hyperlink ref="L84:L85" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
+    <hyperlink ref="L88" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
+    <hyperlink ref="L97" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
+    <hyperlink ref="L80" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
+    <hyperlink ref="H27" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
+    <hyperlink ref="H17" r:id="rId20" xr:uid="{E08EAADE-B534-4F10-8046-41A89DE60AED}"/>
+    <hyperlink ref="H24" r:id="rId21" xr:uid="{1C69CE9F-8A0A-46D7-8D36-88F69F179169}"/>
     <hyperlink ref="H11" r:id="rId22" xr:uid="{98ABC161-AB9D-4F60-87BE-749E4E4F50E4}"/>
     <hyperlink ref="H9" r:id="rId23" xr:uid="{DBFADD8C-4C9E-493D-9424-41720C23C9D3}"/>
-    <hyperlink ref="H35" r:id="rId24" xr:uid="{C1B31281-1033-4BC4-9D4B-CC2023FF56DB}"/>
-    <hyperlink ref="H28" r:id="rId25" xr:uid="{233967F1-D44D-4DD7-8621-DB03C700D78B}"/>
-    <hyperlink ref="H29" r:id="rId26" xr:uid="{668B5A5D-33C3-48F3-B29D-78E17C45647B}"/>
-    <hyperlink ref="H34" r:id="rId27" xr:uid="{358F58C7-5E85-4805-BCE6-BEBC9EFC5590}"/>
-    <hyperlink ref="H30" r:id="rId28" xr:uid="{9857E7A2-3B5E-4C6F-BE6B-75B1942BF2F1}"/>
-    <hyperlink ref="H32" r:id="rId29" xr:uid="{7817D13B-66BE-451C-A663-245A7D32FB4E}"/>
+    <hyperlink ref="H38" r:id="rId24" xr:uid="{C1B31281-1033-4BC4-9D4B-CC2023FF56DB}"/>
+    <hyperlink ref="H31" r:id="rId25" xr:uid="{233967F1-D44D-4DD7-8621-DB03C700D78B}"/>
+    <hyperlink ref="H32" r:id="rId26" xr:uid="{668B5A5D-33C3-48F3-B29D-78E17C45647B}"/>
+    <hyperlink ref="H37" r:id="rId27" xr:uid="{358F58C7-5E85-4805-BCE6-BEBC9EFC5590}"/>
+    <hyperlink ref="H33" r:id="rId28" xr:uid="{9857E7A2-3B5E-4C6F-BE6B-75B1942BF2F1}"/>
+    <hyperlink ref="H35" r:id="rId29" xr:uid="{7817D13B-66BE-451C-A663-245A7D32FB4E}"/>
     <hyperlink ref="H12" r:id="rId30" xr:uid="{7C24BB00-1AF3-4126-B137-A49F7832B368}"/>
-    <hyperlink ref="H31" r:id="rId31" xr:uid="{093D12FF-CE66-488E-919F-B618F1024F05}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{99E100BC-474F-4957-8AB6-A17E6091CEA4}"/>
+    <hyperlink ref="H34" r:id="rId31" xr:uid="{093D12FF-CE66-488E-919F-B618F1024F05}"/>
+    <hyperlink ref="H36" r:id="rId32" xr:uid="{99E100BC-474F-4957-8AB6-A17E6091CEA4}"/>
     <hyperlink ref="H2" r:id="rId33" xr:uid="{25C6586F-F991-4DAC-AEAE-61EB9CF85AF5}"/>
     <hyperlink ref="H3" r:id="rId34" xr:uid="{3FD4754B-D29F-42BF-9347-AEB60E71BDB1}"/>
     <hyperlink ref="H5" r:id="rId35" xr:uid="{6D41BF09-100E-4896-BD25-6704EAC36A60}"/>
     <hyperlink ref="H4" r:id="rId36" xr:uid="{2DD3B0DC-A175-4C8A-841B-658057AE051F}"/>
-    <hyperlink ref="H16" r:id="rId37" xr:uid="{33C6D4A0-BD27-430A-9E84-AE82A539480A}"/>
-    <hyperlink ref="H18" r:id="rId38" xr:uid="{8E6DDEF9-D8C3-4DA8-A4AD-2596F9F0C140}"/>
-    <hyperlink ref="H19" r:id="rId39" xr:uid="{58DE9C77-4D8A-49B7-B8ED-B830856345DB}"/>
+    <hyperlink ref="H18" r:id="rId37" xr:uid="{33C6D4A0-BD27-430A-9E84-AE82A539480A}"/>
+    <hyperlink ref="H20" r:id="rId38" xr:uid="{8E6DDEF9-D8C3-4DA8-A4AD-2596F9F0C140}"/>
+    <hyperlink ref="H21" r:id="rId39" xr:uid="{58DE9C77-4D8A-49B7-B8ED-B830856345DB}"/>
     <hyperlink ref="H10" r:id="rId40" xr:uid="{F25DAD37-A019-474B-A9A2-BCA497746C14}"/>
-    <hyperlink ref="H17" r:id="rId41" xr:uid="{63C79250-783C-452C-9453-FFE824D74709}"/>
-    <hyperlink ref="H26" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
-    <hyperlink ref="H24" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
-    <hyperlink ref="H21" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
-    <hyperlink ref="H49" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
-    <hyperlink ref="H50" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
+    <hyperlink ref="H19" r:id="rId41" xr:uid="{63C79250-783C-452C-9453-FFE824D74709}"/>
+    <hyperlink ref="H28" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
+    <hyperlink ref="H26" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
+    <hyperlink ref="H23" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
+    <hyperlink ref="H54" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
+    <hyperlink ref="H55" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
     <hyperlink ref="H8" r:id="rId47" xr:uid="{2AE693E7-7449-4538-80A8-30A52F2A22F5}"/>
     <hyperlink ref="H7" r:id="rId48" xr:uid="{2FE1FB4D-693E-4830-8337-658393F68B92}"/>
     <hyperlink ref="H13" r:id="rId49" xr:uid="{DE9970E0-9BDB-45D1-93FA-3F6E016EDFDA}"/>
-    <hyperlink ref="L98" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
-    <hyperlink ref="L99" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
-    <hyperlink ref="L100" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
-    <hyperlink ref="L66" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
+    <hyperlink ref="L103" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
+    <hyperlink ref="L104" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
+    <hyperlink ref="L105" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
+    <hyperlink ref="L71" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F90589-31E4-4BD5-8F70-32856E650EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AB1741-964A-48DE-B7DE-4D1A8C840849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="3506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="3507">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10601,9 +10601,6 @@
     <t>mCFG_OTHER</t>
   </si>
   <si>
-    <t>mEFCT_CONFIGURE</t>
-  </si>
-  <si>
     <t>Sorry, not yet implemented</t>
   </si>
   <si>
@@ -10794,6 +10791,12 @@
   </si>
   <si>
     <t>#define mCFG_SOUND_CHOICE 33</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_INTRO</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SND_INSTR</t>
   </si>
 </sst>
 </file>
@@ -11647,8 +11650,8 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11770,7 +11773,7 @@
         <v>26</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -11804,7 +11807,7 @@
         <v>27</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -11813,13 +11816,13 @@
         <v/>
       </c>
       <c r="V4" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="W4">
         <v>33</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -11850,13 +11853,13 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="V5" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="W5">
         <v>30</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -11887,13 +11890,13 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="V6" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="W6">
         <v>29</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -11903,13 +11906,13 @@
         <v/>
       </c>
       <c r="V7" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="W7">
         <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -11918,13 +11921,13 @@
         <v/>
       </c>
       <c r="V8" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="W8">
         <v>28</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -11939,7 +11942,7 @@
         <v>19</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -11972,7 +11975,7 @@
         <v>7</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -12019,7 +12022,7 @@
         <v>11</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -12069,7 +12072,7 @@
         <v>9</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -12115,7 +12118,7 @@
         <v>22</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -12136,7 +12139,7 @@
         <v>17</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -12198,7 +12201,7 @@
         <v>4</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
@@ -12272,7 +12275,7 @@
         <v>14</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -12288,7 +12291,7 @@
       <c r="D19" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="81" t="s">
         <v>3420</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -12311,7 +12314,7 @@
         <v>15</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -12325,7 +12328,7 @@
       <c r="D20" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="81" t="s">
         <v>3420</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -12348,7 +12351,7 @@
         <v>16</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -12358,7 +12361,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -12375,7 +12378,7 @@
         <v>13</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -12389,7 +12392,7 @@
       <c r="D22" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="81" t="s">
         <v>3420</v>
       </c>
       <c r="F22" s="37" t="s">
@@ -12419,7 +12422,7 @@
       <c r="D23" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="81" t="s">
         <v>3420</v>
       </c>
       <c r="F23" s="37" t="s">
@@ -12597,7 +12600,7 @@
     </row>
     <row r="33" spans="1:24" ht="45">
       <c r="A33" s="63" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>2731</v>
@@ -12805,7 +12808,7 @@
     </row>
     <row r="45" spans="1:24" ht="120">
       <c r="A45" s="63" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>2729</v>
@@ -12814,10 +12817,10 @@
         <v>3434</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>0</v>
@@ -12839,16 +12842,16 @@
         <v>3434</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E46" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="F46" t="s">
         <v>3436</v>
       </c>
       <c r="I46" s="75" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="K46" s="9" t="str">
         <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
@@ -12865,10 +12868,10 @@
         <v>3434</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="F47" t="s">
         <v>3437</v>
@@ -12890,10 +12893,10 @@
         <v>3434</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E48" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="F48" t="s">
         <v>3439</v>
@@ -12927,7 +12930,7 @@
     </row>
     <row r="51" spans="1:22" ht="30">
       <c r="A51" s="63" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>2729</v>
@@ -12936,10 +12939,10 @@
         <v>3438</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>3434</v>
@@ -12959,7 +12962,7 @@
     </row>
     <row r="53" spans="1:22" ht="30">
       <c r="A53" s="63" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>2729</v>
@@ -12968,10 +12971,10 @@
         <v>3440</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>3434</v>
@@ -12991,26 +12994,26 @@
     </row>
     <row r="55" spans="1:22" ht="45">
       <c r="A55" s="63" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="76"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="K55" s="9" t="str">
         <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
@@ -13028,19 +13031,19 @@
     </row>
     <row r="57" spans="1:22" ht="75">
       <c r="A57" s="63" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>2729</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3483</v>
+        <v>3506</v>
       </c>
       <c r="E57" s="81" t="s">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>0</v>
@@ -13048,7 +13051,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9" t="str">
@@ -13064,16 +13067,16 @@
     </row>
     <row r="59" spans="1:22">
       <c r="B59" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="K59" s="9" t="str">
         <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
@@ -13082,16 +13085,16 @@
     </row>
     <row r="60" spans="1:22">
       <c r="B60" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>3435</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
@@ -13106,13 +13109,13 @@
     </row>
     <row r="62" spans="1:22" ht="45">
       <c r="B62" s="10" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="K62" s="9" t="str">
         <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
@@ -13127,10 +13130,10 @@
     </row>
     <row r="64" spans="1:22" ht="45">
       <c r="B64" s="10" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>3434</v>
@@ -42356,7 +42359,7 @@
         <v>2877</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
@@ -42479,10 +42482,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>2873</v>
@@ -42701,10 +42704,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>2872</v>
@@ -42728,10 +42731,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>2872</v>
@@ -42755,10 +42758,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>2872</v>
@@ -43109,10 +43112,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>3398</v>
@@ -43136,10 +43139,10 @@
         <v>41</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>3398</v>
@@ -43372,19 +43375,19 @@
     </row>
     <row r="39" spans="1:11" ht="75">
       <c r="A39" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B39" s="70">
         <v>62</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>2887</v>
@@ -43396,24 +43399,24 @@
         <v>3397</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B40" s="70">
         <v>63</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>2887</v>
@@ -43425,24 +43428,24 @@
         <v>3397</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B41" s="70">
         <v>64</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>2887</v>
@@ -43454,24 +43457,24 @@
         <v>3397</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45">
       <c r="A42" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B42" s="70">
         <v>65</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>2887</v>
@@ -43483,7 +43486,7 @@
         <v>3397</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
@@ -43497,7 +43500,7 @@
         <v>3401</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>3402</v>
@@ -43512,7 +43515,7 @@
         <v>3397</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.25">
@@ -43523,10 +43526,10 @@
         <v>102</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>3402</v>
@@ -43541,7 +43544,7 @@
         <v>3397</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.25">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AB1741-964A-48DE-B7DE-4D1A8C840849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F4A10-24A4-4651-B795-B57B07C0D912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Sounds" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3223:$B$3273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3286:$B$3392</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sounds!$A$1:$H$44</definedName>
-    <definedName name="mROW">StateTable!$V$2:$X$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StateTable!$A$1:$K$69</definedName>
+    <definedName name="mROW">StateTable!$V$2:$X$30</definedName>
     <definedName name="prev">Sounds!$AK$2:$AK$18</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
   </definedNames>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="3507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="3606">
   <si>
     <t>trigOnly</t>
   </si>
@@ -9971,6 +9972,9 @@
     <t>1397: RBG_startEffectLED ln 552 EFCT num 102 final LED num 102 loopCount 263</t>
   </si>
   <si>
+    <t>#define mROW_POWERON 0  // first address in myStateTable[]</t>
+  </si>
+  <si>
     <t>added timerForceSoundActv</t>
   </si>
   <si>
@@ -10403,9 +10407,6 @@
     <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 129205</t>
   </si>
   <si>
-    <t>#define mROW_POWERON 0</t>
-  </si>
-  <si>
     <t>split for windup, waiting</t>
   </si>
   <si>
@@ -10541,45 +10542,6 @@
     <t>mEFCT_WAIT</t>
   </si>
   <si>
-    <t>all new sound files</t>
-  </si>
-  <si>
-    <t>43: RBG_startEffectSound ln 758 EFCT num 40 final num 41 loopCount 1176</t>
-  </si>
-  <si>
-    <t>871: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 6329</t>
-  </si>
-  <si>
-    <t>3109: RBG_startEffectSound ln 758 EFCT num 0 final num 1 loopCount 34761</t>
-  </si>
-  <si>
-    <t>3225: RBG_startEffectSound ln 758 EFCT num 10 final num 11 loopCount 38592</t>
-  </si>
-  <si>
-    <t>3320: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 41029</t>
-  </si>
-  <si>
-    <t>3611: RBG_startEffectSound ln 758 EFCT num 0 final num 1 loopCount 52170</t>
-  </si>
-  <si>
-    <t>3727: RBG_startEffectSound ln 758 EFCT num 10 final num 11 loopCount 55994</t>
-  </si>
-  <si>
-    <t>3822: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 58433</t>
-  </si>
-  <si>
-    <t>4150: RBG_startEffectSound ln 758 EFCT num 20 final num 21 loopCount 71058</t>
-  </si>
-  <si>
-    <t>4219: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 72850</t>
-  </si>
-  <si>
-    <t>4271: RBG_startEffectSound ln 758 EFCT num 30 final num 31 loopCount 74345</t>
-  </si>
-  <si>
-    <t>4340: RBG_startEffectSound ln 758 EFCT num 50 final num 51 loopCount 76131</t>
-  </si>
-  <si>
     <t>mROW_MENUCFG</t>
   </si>
   <si>
@@ -10751,52 +10713,618 @@
     <t>#define mROW_MENU_CLOSED 11</t>
   </si>
   <si>
-    <t>#define mROW_WINDUP_SOUND 13</t>
-  </si>
-  <si>
-    <t>#define mROW_SHOOT 14</t>
-  </si>
-  <si>
-    <t>#define mROW_SHOOT_SOUND 15</t>
-  </si>
-  <si>
-    <t>#define mROW_SOLENOID 16</t>
-  </si>
-  <si>
-    <t>#define mROW_OPNBRL 17</t>
-  </si>
-  <si>
-    <t>#define mROW_LOKLOD 19</t>
-  </si>
-  <si>
-    <t>#define mROW_MENUCFG 22</t>
-  </si>
-  <si>
-    <t>#define mCFG_LIGHT 26</t>
-  </si>
-  <si>
-    <t>#define mCFG_OTHER 27</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_SHOOT 28</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_LOOPSTART 29</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_LOOP 30</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_NEXT 32</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_CHOICE 33</t>
-  </si>
-  <si>
     <t>mEFCT_UNIQ_INTRO</t>
   </si>
   <si>
     <t>mEFCT_UNIQ_SND_INSTR</t>
+  </si>
+  <si>
+    <t>all new sound files plus configuration menus</t>
+  </si>
+  <si>
+    <t>#define mROW_WINDUP_SOUND 15</t>
+  </si>
+  <si>
+    <t>#define mROW_SHOOT 16</t>
+  </si>
+  <si>
+    <t>#define mROW_SHOOT_SOUND 17</t>
+  </si>
+  <si>
+    <t>#define mROW_SOLENOID 18</t>
+  </si>
+  <si>
+    <t>#define mROW_OPNBRL 19</t>
+  </si>
+  <si>
+    <t>#define mROW_LOKLOD 21</t>
+  </si>
+  <si>
+    <t>#define mROW_MENUCFG 24</t>
+  </si>
+  <si>
+    <t>#define mCFG_LIGHT 28</t>
+  </si>
+  <si>
+    <t>#define mCFG_OTHER 29</t>
+  </si>
+  <si>
+    <t>#define mCFG_SOUND_SHOOT 30</t>
+  </si>
+  <si>
+    <t>#define mCFG_SOUND_LOOPSTART 31</t>
+  </si>
+  <si>
+    <t>#define mCFG_SOUND_LOOP 32</t>
+  </si>
+  <si>
+    <t>#define mCFG_SOUND_NEXT 34</t>
+  </si>
+  <si>
+    <t>#define mCFG_SOUND_CHOICE 35</t>
+  </si>
+  <si>
+    <t>grep -n " from " debug2.txt &gt; mdo2.tmp ; python mdoUniq.py mdo2.tmp "RBG_" loopCount &gt;&gt; mdo2.txt</t>
+  </si>
+  <si>
+    <t>16:DEBUG loop() - nowVinputRBG 0x100 loopCount 1029</t>
+  </si>
+  <si>
+    <t>42:DEBUG RBG_processStateTable() - tmpVinputRBG 0x100 from row 0 foundInputRow 4 loopCount 1077</t>
+  </si>
+  <si>
+    <t>47: RBG_startEffectSound ln 833 EFCT num 40 final num 41 loopCount 1188</t>
+  </si>
+  <si>
+    <t>57:DEBUG loop() - nowVinputRBG 0x500 loopCount 1258</t>
+  </si>
+  <si>
+    <t>80:DEBUG loop() - nowVinputRBG 0x4500 loopCount 1385</t>
+  </si>
+  <si>
+    <t>761:DEBUG loop() - nowVinputRBG 0x100 loopCount 5518</t>
+  </si>
+  <si>
+    <t>773:DEBUG RBG_processStateTable() - tmpVinputRBG 0x100 from row 4 foundInputRow 7 loopCount 5518</t>
+  </si>
+  <si>
+    <t>797:DEBUG RBG_processStateTable() - tmpVinputRBG 0x100 from row 7 foundInputRow 11 loopCount 5632</t>
+  </si>
+  <si>
+    <t>799: RBG_startEffectSound ln 833 EFCT num 50 final num 51 loopCount 5733</t>
+  </si>
+  <si>
+    <t>806:DEBUG loop() - nowVinputRBG 0x500 loopCount 5797</t>
+  </si>
+  <si>
+    <t>832:DEBUG loop() - nowVinputRBG 0x4500 loopCount 5953</t>
+  </si>
+  <si>
+    <t>1333:DEBUG loop() - nowVinputRBG 0x4501 loopCount 8967</t>
+  </si>
+  <si>
+    <t>1734:DEBUG loop() - nowVinputRBG 0x4521 loopCount 11382</t>
+  </si>
+  <si>
+    <t>1748:DEBUG RBG_processStateTable() - tmpVinputRBG 0x4521 from row 11 foundInputRow 24 loopCount 11382</t>
+  </si>
+  <si>
+    <t>1750:DEBUG loop() - nowVinputRBG 0x4501 loopCount 11466</t>
+  </si>
+  <si>
+    <t>1751: RBG_startEffectSound ln 833 EFCT num 62 final num 62 loopCount 11466</t>
+  </si>
+  <si>
+    <t>1758:DEBUG loop() - nowVinputRBG 0x501 loopCount 11544</t>
+  </si>
+  <si>
+    <t>1784:DEBUG loop() - nowVinputRBG 0x4501 loopCount 11699</t>
+  </si>
+  <si>
+    <t>1885:DEBUG loop() - nowVinputRBG 0x4500 loopCount 12308</t>
+  </si>
+  <si>
+    <t>4536:DEBUG loop() - nowVinputRBG 0x100 loopCount 28302</t>
+  </si>
+  <si>
+    <t>4565: RBG_startEffectSound ln 833 EFCT num 62 final num 62 loopCount 28302</t>
+  </si>
+  <si>
+    <t>4567:DEBUG loop() - nowVinputRBG 0x4500 loopCount 28511</t>
+  </si>
+  <si>
+    <t>4843:DEBUG loop() - nowVinputRBG 0x4520 loopCount 30168</t>
+  </si>
+  <si>
+    <t>4849:DEBUG RBG_processStateTable() - tmpVinputRBG 0x4520 from row 24 foundInputRow 7 loopCount 30168</t>
+  </si>
+  <si>
+    <t>4851:DEBUG loop() - nowVinputRBG 0x4500 loopCount 30210</t>
+  </si>
+  <si>
+    <t>4862:DEBUG RBG_processStateTable() - tmpVinputRBG 0x4500 from row 7 foundInputRow 11 loopCount 30257</t>
+  </si>
+  <si>
+    <t>4864: RBG_startEffectSound ln 833 EFCT num 50 final num 51 loopCount 30298</t>
+  </si>
+  <si>
+    <t>4871:DEBUG loop() - nowVinputRBG 0x500 loopCount 30366</t>
+  </si>
+  <si>
+    <t>4873:DEBUG loop() - nowVinputRBG 0x4500 loopCount 30406</t>
+  </si>
+  <si>
+    <t>4995:DEBUG loop() - nowVinputRBG 0x4501 loopCount 35268</t>
+  </si>
+  <si>
+    <t>5005:DEBUG loop() - nowVinputRBG 0x4500 loopCount 35628</t>
+  </si>
+  <si>
+    <t>5024:DEBUG loop() - nowVinputRBG 0x4501 loopCount 36353</t>
+  </si>
+  <si>
+    <t>5040:DEBUG loop() - nowVinputRBG 0x4521 loopCount 36957</t>
+  </si>
+  <si>
+    <t>5046:DEBUG RBG_processStateTable() - tmpVinputRBG 0x4521 from row 11 foundInputRow 24 loopCount 36957</t>
+  </si>
+  <si>
+    <t>5048:DEBUG loop() - nowVinputRBG 0x4501 loopCount 36997</t>
+  </si>
+  <si>
+    <t>5049: RBG_startEffectSound ln 833 EFCT num 62 final num 62 loopCount 36997</t>
+  </si>
+  <si>
+    <t>5056:DEBUG loop() - nowVinputRBG 0x501 loopCount 37068</t>
+  </si>
+  <si>
+    <t>5058:DEBUG loop() - nowVinputRBG 0x4501 loopCount 37108</t>
+  </si>
+  <si>
+    <t>5066:DEBUG loop() - nowVinputRBG 0x4500 loopCount 37388</t>
+  </si>
+  <si>
+    <t>5223:DEBUG loop() - nowVinputRBG 0x4502 loopCount 43650</t>
+  </si>
+  <si>
+    <t>5252:DEBUG loop() - nowVinputRBG 0x4522 loopCount 44776</t>
+  </si>
+  <si>
+    <t>5254:DEBUG loop() - nowVinputRBG 0x4502 loopCount 44817</t>
+  </si>
+  <si>
+    <t>5262:DEBUG loop() - nowVinputRBG 0x4500 loopCount 45099</t>
+  </si>
+  <si>
+    <t>5394:DEBUG loop() - nowVinputRBG 0x4502 loopCount 50361</t>
+  </si>
+  <si>
+    <t>5422:DEBUG loop() - nowVinputRBG 0x4522 loopCount 51448</t>
+  </si>
+  <si>
+    <t>5424:DEBUG loop() - nowVinputRBG 0x4502 loopCount 51488</t>
+  </si>
+  <si>
+    <t>5439:DEBUG loop() - nowVinputRBG 0x4500 loopCount 52052</t>
+  </si>
+  <si>
+    <t>5472:DEBUG loop() - nowVinputRBG 0x100 loopCount 53338</t>
+  </si>
+  <si>
+    <t>5477: RBG_startEffectSound ln 833 EFCT num 62 final num 62 loopCount 53338</t>
+  </si>
+  <si>
+    <t>5479:DEBUG loop() - nowVinputRBG 0x500 loopCount 53405</t>
+  </si>
+  <si>
+    <t>5481:DEBUG loop() - nowVinputRBG 0x4500 loopCount 53445</t>
+  </si>
+  <si>
+    <t>5594:DEBUG loop() - nowVinputRBG 0x4501 loopCount 57935</t>
+  </si>
+  <si>
+    <t>5610:DEBUG loop() - nowVinputRBG 0x4521 loopCount 58536</t>
+  </si>
+  <si>
+    <t>5612:DEBUG loop() - nowVinputRBG 0x4501 loopCount 58576</t>
+  </si>
+  <si>
+    <t>5621:DEBUG loop() - nowVinputRBG 0x4500 loopCount 58896</t>
+  </si>
+  <si>
+    <t>5728:DEBUG loop() - nowVinputRBG 0x4501 loopCount 63144</t>
+  </si>
+  <si>
+    <t>5742:DEBUG loop() - nowVinputRBG 0x4521 loopCount 63666</t>
+  </si>
+  <si>
+    <t>5744:DEBUG loop() - nowVinputRBG 0x4501 loopCount 63706</t>
+  </si>
+  <si>
+    <t>5757:DEBUG loop() - nowVinputRBG 0x4500 loopCount 64188</t>
+  </si>
+  <si>
+    <t>5894:DEBUG loop() - nowVinputRBG 0x100 loopCount 69643</t>
+  </si>
+  <si>
+    <t>5899: RBG_startEffectSound ln 833 EFCT num 62 final num 62 loopCount 69643</t>
+  </si>
+  <si>
+    <t>5901:DEBUG loop() - nowVinputRBG 0x500 loopCount 69712</t>
+  </si>
+  <si>
+    <t>5903:DEBUG loop() - nowVinputRBG 0x4500 loopCount 69752</t>
+  </si>
+  <si>
+    <t>grep -n "getButtonInput[(]" debug2.txt &gt; mdo2.tmp ; python mdoUniq.py mdo2.tmp getButtonInput  "that is all" &gt;&gt; mdo2.txt</t>
+  </si>
+  <si>
+    <t>12:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>76:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>760:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>831:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>1332:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>1757:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>1783:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>4535:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>4592:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>4872:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>4994:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5004:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5023:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5055:getButtonInput() called: printAllMyInputs: TRIGGER LOW YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>5057:getButtonInput() called: printAllMyInputs: TRIGGER LOW YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5060:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5065:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5222:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN LOW BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5259:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN LOW BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5261:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5393:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN LOW BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5430:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN LOW BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5438:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5471:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>5480:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5593:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5609:getButtonInput() called: printAllMyInputs: TRIGGER LOW YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5617:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5620:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5727:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5741:getButtonInput() called: printAllMyInputs: TRIGGER LOW YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5752:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW LOW GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5756:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <t>5893:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+  </si>
+  <si>
+    <t>5902:getButtonInput() called: printAllMyInputs: TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1733:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER LOW YELLOW LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1749:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER HIGH YELLOW LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4842:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1884:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER HIGH YELLOW HIGH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <t>YES!!!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4870:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER HIGH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YELLOW HIGH GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5039:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER LOW YELLOW LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GREEN HIGH BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5251:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YELLOW HIGH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5421:getButtonInput() called: printAllMyInputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGER LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YELLOW HIGH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN LOW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BLACK HIGH LOAD LOW AUDIO_BUSY LOW that is all</t>
+    </r>
+  </si>
+  <si>
+    <t>need to handle trigger with individual buttons or combos</t>
   </si>
 </sst>
 </file>
@@ -10807,7 +11335,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10982,6 +11510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
@@ -10993,8 +11529,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11053,6 +11604,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -11161,7 +11717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11170,8 +11726,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11239,9 +11796,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11254,19 +11808,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11326,9 +11880,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="8" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
@@ -11339,6 +11898,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11647,11 +12211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11708,7 +12272,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>35</v>
@@ -11745,11 +12309,11 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="9" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="K2" s="9" t="str">
         <f>IF(LEN(C2),VLOOKUP(C2,mROW,3,FALSE),"")</f>
-        <v>#define mROW_POWERON 0</v>
+        <v>#define mROW_POWERON 0  // first address in myStateTable[]</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -11767,13 +12331,13 @@
         <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>3438</v>
+        <v>3425</v>
       </c>
       <c r="W2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3498</v>
+        <v>3488</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -11793,21 +12357,21 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="9" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" ref="K2:K10" si="0">IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
-        <v>#define mROW_POWERON 0</v>
+        <v>#define mROW_POWERON 0  // first address in myStateTable[]</v>
       </c>
       <c r="V3" t="s">
-        <v>3440</v>
+        <v>3427</v>
       </c>
       <c r="W3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3499</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -11816,13 +12380,13 @@
         <v/>
       </c>
       <c r="V4" t="s">
-        <v>3449</v>
+        <v>3436</v>
       </c>
       <c r="W4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3504</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -11833,7 +12397,7 @@
         <v>2729</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>52</v>
@@ -11853,13 +12417,13 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="V5" t="s">
-        <v>3443</v>
+        <v>3430</v>
       </c>
       <c r="W5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3502</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -11868,7 +12432,7 @@
         <v>2729</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>52</v>
@@ -11877,12 +12441,12 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>3435</v>
+        <v>3422</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" t="s">
-        <v>3434</v>
+        <v>3421</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
@@ -11890,13 +12454,13 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="V6" t="s">
-        <v>3445</v>
+        <v>3430</v>
       </c>
       <c r="W6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3501</v>
+        <v>3492</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -11906,13 +12470,13 @@
         <v/>
       </c>
       <c r="V7" t="s">
-        <v>3448</v>
+        <v>3432</v>
       </c>
       <c r="W7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3503</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -11921,13 +12485,13 @@
         <v/>
       </c>
       <c r="V8" t="s">
-        <v>3444</v>
+        <v>3435</v>
       </c>
       <c r="W8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3500</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -11936,13 +12500,13 @@
         <v/>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>3431</v>
       </c>
       <c r="W9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3496</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -11969,13 +12533,13 @@
         <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -11987,7 +12551,7 @@
         <v>2729</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>52</v>
@@ -12016,13 +12580,13 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>2548</v>
+        <v>59</v>
       </c>
       <c r="W11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3490</v>
+        <v>3475</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -12032,7 +12596,7 @@
         <v>2729</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>52</v>
@@ -12066,13 +12630,13 @@
         <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>2549</v>
+        <v>59</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3489</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -12081,7 +12645,7 @@
         <v>2729</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>52</v>
@@ -12090,12 +12654,12 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>3435</v>
+        <v>3422</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" t="s">
-        <v>3434</v>
+        <v>3421</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="str">
@@ -12112,13 +12676,13 @@
         <v>44</v>
       </c>
       <c r="V13" t="s">
-        <v>3434</v>
+        <v>2548</v>
       </c>
       <c r="W13">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3497</v>
+        <v>3477</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -12133,13 +12697,13 @@
         <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>2549</v>
       </c>
       <c r="W14">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3495</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -12153,18 +12717,18 @@
         <v>2550</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>58</v>
+        <v>3421</v>
       </c>
       <c r="W15" s="25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>3375</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="75" t="s">
         <v>2732</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -12195,10 +12759,10 @@
         <v>2551</v>
       </c>
       <c r="V16" t="s">
-        <v>3266</v>
+        <v>3421</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>3487</v>
@@ -12206,7 +12770,7 @@
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="75" t="s">
         <v>2732</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -12234,20 +12798,20 @@
         <v>28</v>
       </c>
       <c r="V17" t="s">
-        <v>3265</v>
+        <v>61</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>3267</v>
+        <v>3485</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" s="25" customFormat="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="37" t="s">
         <v>60</v>
       </c>
@@ -12262,27 +12826,27 @@
         <f>IF(LEN(C18),VLOOKUP(C18,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="50" t="s">
+      <c r="N18" s="49" t="s">
         <v>29</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="W18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>3492</v>
+        <v>3231</v>
       </c>
       <c r="Y18"/>
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="37"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="81" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -12291,7 +12855,7 @@
       <c r="D19" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>3420</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -12308,18 +12872,18 @@
         <v>#define mROW_MENU_OPEN 9</v>
       </c>
       <c r="V19" t="s">
-        <v>68</v>
+        <v>3267</v>
       </c>
       <c r="W19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3493</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="37"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="75" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -12328,7 +12892,7 @@
       <c r="D20" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="80" t="s">
         <v>3420</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -12345,241 +12909,293 @@
         <v>#define mROW_MENU_OPEN 9</v>
       </c>
       <c r="V20" t="s">
-        <v>66</v>
+        <v>3266</v>
       </c>
       <c r="W20">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>3494</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3422</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="I21" t="s">
+        <v>3421</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="9" t="str">
         <f>IF(LEN(C21),VLOOKUP(C21,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_MENU_CLOSED 11</v>
       </c>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3491</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="37"/>
-      <c r="B22" s="49" t="s">
-        <v>55</v>
-      </c>
+      <c r="B22" s="75"/>
       <c r="C22" s="37" t="s">
-        <v>2548</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>3420</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>3420</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="37" t="s">
-        <v>70</v>
-      </c>
+      <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="9" t="str">
         <f>IF(LEN(C22),VLOOKUP(C22,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENU_CLOSED 11</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v/>
+      </c>
+      <c r="V22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W22">
+        <v>17</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>3483</v>
+      </c>
       <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="37" t="s">
         <v>2548</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>3420</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="80" t="s">
         <v>3420</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="9" t="str">
         <f>IF(LEN(C23),VLOOKUP(C23,mROW,3,FALSE),"")</f>
         <v>#define mROW_MENU_CLOSED 11</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="V23" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23">
+        <v>18</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>3484</v>
+      </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="B24" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="J24" s="37"/>
       <c r="K24" s="9" t="str">
         <f>IF(LEN(C24),VLOOKUP(C24,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="X24" s="2"/>
+        <v>#define mROW_MENU_CLOSED 11</v>
+      </c>
+      <c r="V24" t="s">
+        <v>70</v>
+      </c>
+      <c r="W24">
+        <v>15</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>3481</v>
+      </c>
       <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3422</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" t="s">
+        <v>3421</v>
+      </c>
+      <c r="J25" s="37"/>
       <c r="K25" s="9" t="str">
         <f>IF(LEN(C25),VLOOKUP(C25,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_MENU_CLOSED 11</v>
       </c>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9" t="str">
         <f>IF(LEN(C26),VLOOKUP(C26,mROW,3,FALSE),"")</f>
-        <v>#define mROW_WINDUP_SOUND 13</v>
+        <v/>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="63"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
       <c r="K27" s="9" t="str">
         <f>IF(LEN(C27),VLOOKUP(C27,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_WINDUP_SOUND 15</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="25"/>
     </row>
-    <row r="28" spans="1:26" ht="45">
-      <c r="A28" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>68</v>
-      </c>
+    <row r="28" spans="1:26">
+      <c r="A28" s="62"/>
+      <c r="C28" s="9"/>
       <c r="K28" s="9" t="str">
         <f>IF(LEN(C28),VLOOKUP(C28,mROW,3,FALSE),"")</f>
-        <v>#define mROW_SHOOT 14</v>
+        <v/>
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="63"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
+    <row r="29" spans="1:26" ht="45">
+      <c r="A29" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
       <c r="K29" s="9" t="str">
         <f>IF(LEN(C29),VLOOKUP(C29,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_SHOOT 16</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
+      <c r="A30" s="62"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="K30" s="9" t="str">
         <f>IF(LEN(C30),VLOOKUP(C30,mROW,3,FALSE),"")</f>
-        <v>#define mROW_SHOOT_SOUND 15</v>
+        <v/>
       </c>
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="A31" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
       <c r="K31" s="9" t="str">
         <f>IF(LEN(C31),VLOOKUP(C31,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_SHOOT_SOUND 17</v>
       </c>
       <c r="R31"/>
       <c r="V31"/>
@@ -12588,7 +13204,8 @@
       <c r="Y31"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="63"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="K32" s="9" t="str">
         <f>IF(LEN(C32),VLOOKUP(C32,mROW,3,FALSE),"")</f>
@@ -12598,74 +13215,66 @@
       <c r="W32" s="25"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="45">
-      <c r="A33" s="63" t="s">
-        <v>3486</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="J33" s="9" t="s">
-        <v>59</v>
-      </c>
+    <row r="33" spans="1:24">
+      <c r="A33" s="62"/>
+      <c r="C33" s="9"/>
       <c r="K33" s="9" t="str">
         <f>IF(LEN(C33),VLOOKUP(C33,mROW,3,FALSE),"")</f>
-        <v>#define mROW_SOLENOID 16</v>
+        <v/>
       </c>
       <c r="R33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="63"/>
-      <c r="B34" s="10"/>
+    <row r="34" spans="1:24" ht="45">
+      <c r="A34" s="62" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="J34" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="K34" s="9" t="str">
         <f>IF(LEN(C34),VLOOKUP(C34,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_SOLENOID 18</v>
       </c>
       <c r="O34" s="7"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A35" s="62"/>
+      <c r="B35" s="10"/>
+      <c r="D35" s="3"/>
       <c r="K35" s="9" t="str">
         <f>IF(LEN(C35),VLOOKUP(C35,mROW,3,FALSE),"")</f>
-        <v>#define mROW_OPNBRL 17</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <f>MID(X35,9,FIND(" ",X35,9)-9)</f>
+        <v>mCFG_LIGHT</v>
+      </c>
+      <c r="W35">
+        <f>0+MID(X35,10+LEN(V35),2)</f>
+        <v>28</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>3488</v>
+      </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="63"/>
+      <c r="A36" s="62" t="s">
+        <v>56</v>
+      </c>
       <c r="B36" s="9" t="s">
         <v>2729</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -12674,69 +13283,103 @@
       <c r="E36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="K36" s="9" t="str">
         <f>IF(LEN(C36),VLOOKUP(C36,mROW,3,FALSE),"")</f>
-        <v>#define mROW_OPNBRL 17</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>#define mROW_OPNBRL 19</v>
+      </c>
+      <c r="V36" t="str">
+        <f>MID(X36,9,FIND(" ",X36,9)-9)</f>
+        <v>mCFG_OTHER</v>
+      </c>
+      <c r="W36">
+        <f>0+MID(X36,10+LEN(V36),2)</f>
+        <v>29</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>3489</v>
+      </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="63"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="25"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="9" t="str">
         <f>IF(LEN(C37),VLOOKUP(C37,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="X37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" ht="30">
-      <c r="A38" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>#define mROW_OPNBRL 19</v>
+      </c>
+      <c r="V37" t="str">
+        <f>MID(X37,9,FIND(" ",X37,9)-9)</f>
+        <v>mCFG_SOUND_CHOICE</v>
+      </c>
+      <c r="W37">
+        <f>0+MID(X37,10+LEN(V37),2)</f>
+        <v>35</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="62"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="9" t="str">
         <f>IF(LEN(C38),VLOOKUP(C38,mROW,3,FALSE),"")</f>
-        <v>#define mROW_LOKLOD 19</v>
-      </c>
-      <c r="X38" s="2"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="63"/>
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <f>MID(X38,9,FIND(" ",X38,9)-9)</f>
+        <v>mCFG_SOUND_LOOP</v>
+      </c>
+      <c r="W38">
+        <f>0+MID(X38,10+LEN(V38),2)</f>
+        <v>32</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="30">
+      <c r="A39" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="B39" s="9" t="s">
         <v>2729</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -12745,19 +13388,27 @@
       <c r="E39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>61</v>
+      <c r="J39" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="K39" s="9" t="str">
         <f>IF(LEN(C39),VLOOKUP(C39,mROW,3,FALSE),"")</f>
-        <v>#define mROW_LOKLOD 19</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>#define mROW_LOKLOD 21</v>
+      </c>
+      <c r="V39" t="str">
+        <f>MID(X39,9,FIND(" ",X39,9)-9)</f>
+        <v>mCFG_SOUND_LOOP</v>
+      </c>
+      <c r="W39">
+        <f>0+MID(X39,10+LEN(V39),2)</f>
+        <v>32</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>3492</v>
+      </c>
     </row>
     <row r="40" spans="1:24">
+      <c r="A40" s="62"/>
       <c r="B40" s="9" t="s">
         <v>2729</v>
       </c>
@@ -12771,21 +13422,60 @@
         <v>54</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K40" s="9" t="str">
         <f>IF(LEN(C40),VLOOKUP(C40,mROW,3,FALSE),"")</f>
-        <v>#define mROW_LOKLOD 19</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>#define mROW_LOKLOD 21</v>
+      </c>
+      <c r="V40" t="str">
+        <f>MID(X40,9,FIND(" ",X40,9)-9)</f>
+        <v>mCFG_SOUND_LOOPSTART</v>
+      </c>
+      <c r="W40">
+        <f>0+MID(X40,10+LEN(V40),2)</f>
+        <v>31</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>3491</v>
+      </c>
     </row>
     <row r="41" spans="1:24">
+      <c r="B41" s="9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="K41" s="9" t="str">
         <f>IF(LEN(C41),VLOOKUP(C41,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#define mROW_LOKLOD 21</v>
+      </c>
+      <c r="V41" t="str">
+        <f>MID(X41,9,FIND(" ",X41,9)-9)</f>
+        <v>mCFG_SOUND_NEXT</v>
+      </c>
+      <c r="W41">
+        <f>0+MID(X41,10+LEN(V41),2)</f>
+        <v>34</v>
+      </c>
+      <c r="X41" s="15" t="s">
+        <v>3493</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -12793,383 +13483,563 @@
         <f>IF(LEN(C42),VLOOKUP(C42,mROW,3,FALSE),"")</f>
         <v/>
       </c>
+      <c r="V42" t="str">
+        <f>MID(X42,9,FIND(" ",X42,9)-9)</f>
+        <v>mCFG_SOUND_SHOOT</v>
+      </c>
+      <c r="W42">
+        <f>0+MID(X42,10+LEN(V42),2)</f>
+        <v>30</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>3490</v>
+      </c>
     </row>
     <row r="43" spans="1:24">
       <c r="K43" s="9" t="str">
         <f>IF(LEN(C43),VLOOKUP(C43,mROW,3,FALSE),"")</f>
         <v/>
       </c>
+      <c r="V43" t="str">
+        <f>MID(X43,9,FIND(" ",X43,9)-9)</f>
+        <v>mROW_LOKLOD</v>
+      </c>
+      <c r="W43">
+        <f>0+MID(X43,10+LEN(V43),2)</f>
+        <v>21</v>
+      </c>
+      <c r="X43" s="15" t="s">
+        <v>3486</v>
+      </c>
     </row>
     <row r="44" spans="1:24">
       <c r="K44" s="9" t="str">
         <f>IF(LEN(C44),VLOOKUP(C44,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="120">
-      <c r="A45" s="63" t="s">
-        <v>3455</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>3434</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>3420</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="V44" t="str">
+        <f>MID(X44,9,FIND(" ",X44,9)-9)</f>
+        <v>mROW_MENU</v>
+      </c>
+      <c r="W44">
+        <f>0+MID(X44,10+LEN(V44),2)</f>
+        <v>7</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="K45" s="9" t="str">
         <f>IF(LEN(C45),VLOOKUP(C45,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="63"/>
-      <c r="B46" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>3434</v>
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <f>MID(X45,9,FIND(" ",X45,9)-9)</f>
+        <v>mROW_MENU</v>
+      </c>
+      <c r="W45">
+        <f>0+MID(X45,10+LEN(V45),2)</f>
+        <v>7</v>
+      </c>
+      <c r="X45" s="15" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="120">
+      <c r="A46" s="62" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>3421</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="E46" s="81" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E46" s="80" t="s">
         <v>3420</v>
       </c>
-      <c r="F46" t="s">
-        <v>3436</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>3444</v>
+      <c r="F46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="K46" s="9" t="str">
         <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 22</v>
-      </c>
-      <c r="V46" s="25"/>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V46" t="str">
+        <f>MID(X46,9,FIND(" ",X46,9)-9)</f>
+        <v>mROW_MENU_CLOSED</v>
+      </c>
+      <c r="W46">
+        <f>0+MID(X46,10+LEN(V46),2)</f>
+        <v>11</v>
+      </c>
+      <c r="X46" s="15" t="s">
+        <v>3477</v>
+      </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="63"/>
-      <c r="B47" s="9" t="s">
-        <v>2729</v>
+      <c r="A47" s="62"/>
+      <c r="B47" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>3434</v>
+        <v>3421</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="E47" s="81" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E47" s="80" t="s">
         <v>3420</v>
       </c>
       <c r="F47" t="s">
-        <v>3437</v>
-      </c>
-      <c r="I47" t="s">
-        <v>3438</v>
+        <v>3423</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>3431</v>
       </c>
       <c r="K47" s="9" t="str">
         <f>IF(LEN(C47),VLOOKUP(C47,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 22</v>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V47" t="str">
+        <f>MID(X47,9,FIND(" ",X47,9)-9)</f>
+        <v>mROW_MENU_OPEN</v>
+      </c>
+      <c r="W47">
+        <f>0+MID(X47,10+LEN(V47),2)</f>
+        <v>9</v>
+      </c>
+      <c r="X47" s="15" t="s">
+        <v>3476</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="63"/>
-      <c r="B48" s="9" t="s">
-        <v>2729</v>
+      <c r="A48" s="62"/>
+      <c r="B48" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>3434</v>
+        <v>3421</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="E48" s="81" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E48" s="80" t="s">
         <v>3420</v>
       </c>
       <c r="F48" t="s">
-        <v>3439</v>
+        <v>3424</v>
       </c>
       <c r="I48" t="s">
-        <v>3440</v>
+        <v>3425</v>
       </c>
       <c r="K48" s="9" t="str">
         <f>IF(LEN(C48),VLOOKUP(C48,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 22</v>
-      </c>
-      <c r="V48" s="25"/>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="63"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V48" t="str">
+        <f>MID(X48,9,FIND(" ",X48,9)-9)</f>
+        <v>mROW_MENUCFG</v>
+      </c>
+      <c r="W48">
+        <f>0+MID(X48,10+LEN(V48),2)</f>
+        <v>24</v>
+      </c>
+      <c r="X48" s="15" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="62"/>
+      <c r="B49" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3426</v>
+      </c>
+      <c r="I49" t="s">
+        <v>3427</v>
+      </c>
       <c r="K49" s="9" t="str">
         <f>IF(LEN(C49),VLOOKUP(C49,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="63"/>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V49" t="str">
+        <f>MID(X49,9,FIND(" ",X49,9)-9)</f>
+        <v>mROW_MENUCFG</v>
+      </c>
+      <c r="W49">
+        <f>0+MID(X49,10+LEN(V49),2)</f>
+        <v>24</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="62"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
       <c r="K50" s="9" t="str">
         <f>IF(LEN(C50),VLOOKUP(C50,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="30">
-      <c r="A51" s="63" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3438</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3481</v>
-      </c>
-      <c r="E51" s="81" t="s">
-        <v>3420</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>3434</v>
-      </c>
+      <c r="V50" t="str">
+        <f>MID(X50,9,FIND(" ",X50,9)-9)</f>
+        <v>mROW_OPNBRL</v>
+      </c>
+      <c r="W50">
+        <f>0+MID(X50,10+LEN(V50),2)</f>
+        <v>19</v>
+      </c>
+      <c r="X50" s="15" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="62"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
       <c r="K51" s="9" t="str">
         <f>IF(LEN(C51),VLOOKUP(C51,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_LIGHT 26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="63"/>
-      <c r="E52" s="2"/>
+        <v/>
+      </c>
+      <c r="V51" t="str">
+        <f>MID(X51,9,FIND(" ",X51,9)-9)</f>
+        <v>mROW_POWERON</v>
+      </c>
+      <c r="W51">
+        <f>0+MID(X51,10+LEN(V51),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="15" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="30">
+      <c r="A52" s="62" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>3421</v>
+      </c>
       <c r="K52" s="9" t="str">
         <f>IF(LEN(C52),VLOOKUP(C52,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="30">
-      <c r="A53" s="63" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3440</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>3481</v>
-      </c>
-      <c r="E53" s="81" t="s">
-        <v>3420</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>3434</v>
-      </c>
+        <v>#define mCFG_LIGHT 28</v>
+      </c>
+      <c r="V52" t="str">
+        <f>MID(X52,9,FIND(" ",X52,9)-9)</f>
+        <v>mROW_PWRON_LOCKED</v>
+      </c>
+      <c r="W52">
+        <f>0+MID(X52,10+LEN(V52),2)</f>
+        <v>4</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="62"/>
+      <c r="E53" s="2"/>
       <c r="K53" s="9" t="str">
         <f>IF(LEN(C53),VLOOKUP(C53,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_OTHER 27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="63"/>
-      <c r="E54" s="2"/>
+        <v/>
+      </c>
+      <c r="V53" t="str">
+        <f>MID(X53,9,FIND(" ",X53,9)-9)</f>
+        <v>mROW_PWRON_OPEN</v>
+      </c>
+      <c r="W53">
+        <f>0+MID(X53,10+LEN(V53),2)</f>
+        <v>2</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="30">
+      <c r="A54" s="62" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E54" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>3421</v>
+      </c>
       <c r="K54" s="9" t="str">
         <f>IF(LEN(C54),VLOOKUP(C54,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="45">
-      <c r="A55" s="63" t="s">
-        <v>3446</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>3450</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>3444</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10" t="s">
-        <v>3464</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>3442</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9" t="s">
-        <v>3445</v>
-      </c>
+        <v>#define mCFG_OTHER 29</v>
+      </c>
+      <c r="V54" t="str">
+        <f>MID(X54,9,FIND(" ",X54,9)-9)</f>
+        <v>mROW_SHOOT</v>
+      </c>
+      <c r="W54">
+        <f>0+MID(X54,10+LEN(V54),2)</f>
+        <v>16</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="62"/>
+      <c r="E55" s="2"/>
       <c r="K55" s="9" t="str">
         <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_SHOOT 28</v>
-      </c>
-      <c r="V55" s="25"/>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="63"/>
-      <c r="E56" s="2"/>
+        <v/>
+      </c>
+      <c r="V55" t="str">
+        <f>MID(X55,9,FIND(" ",X55,9)-9)</f>
+        <v>mROW_SHOOT_SOUND</v>
+      </c>
+      <c r="W55">
+        <f>0+MID(X55,10+LEN(V55),2)</f>
+        <v>17</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="45">
+      <c r="A56" s="62" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>3429</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
+        <v>3432</v>
+      </c>
       <c r="K56" s="9" t="str">
         <f>IF(LEN(C56),VLOOKUP(C56,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="75">
-      <c r="A57" s="63" t="s">
-        <v>3456</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>3506</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>3420</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9" t="s">
-        <v>3443</v>
-      </c>
-      <c r="J57" s="9"/>
+        <v>#define mCFG_SOUND_SHOOT 30</v>
+      </c>
+      <c r="V56" t="str">
+        <f>MID(X56,9,FIND(" ",X56,9)-9)</f>
+        <v>mROW_SOLENOID</v>
+      </c>
+      <c r="W56">
+        <f>0+MID(X56,10+LEN(V56),2)</f>
+        <v>18</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="62"/>
+      <c r="E57" s="2"/>
       <c r="K57" s="9" t="str">
         <f>IF(LEN(C57),VLOOKUP(C57,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOPSTART 29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v/>
+      </c>
+      <c r="V57" t="str">
+        <f>MID(X57,9,FIND(" ",X57,9)-9)</f>
+        <v>mROW_WINDUP_SOUND</v>
+      </c>
+      <c r="W57">
+        <f>0+MID(X57,10+LEN(V57),2)</f>
+        <v>15</v>
+      </c>
+      <c r="X57" s="15" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="75">
+      <c r="A58" s="62" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B58" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E58" s="80" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
+        <v>3430</v>
+      </c>
+      <c r="J58" s="9"/>
       <c r="K58" s="9" t="str">
         <f>IF(LEN(C58),VLOOKUP(C58,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="B59" t="s">
-        <v>3447</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>3443</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>3448</v>
-      </c>
+        <v>#define mCFG_SOUND_LOOPSTART 31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="K59" s="9" t="str">
         <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOP 30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="B60" t="s">
-        <v>3447</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>3443</v>
+        <v>3434</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>3430</v>
       </c>
       <c r="F60" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>3435</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>3449</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOP 30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>#define mCFG_SOUND_LOOP 32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="B61" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>3436</v>
+      </c>
       <c r="K61" s="9" t="str">
         <f>IF(LEN(C61),VLOOKUP(C61,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="45">
-      <c r="B62" s="10" t="s">
-        <v>3451</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>3448</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>3443</v>
-      </c>
+        <v>#define mCFG_SOUND_LOOP 32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="K62" s="9" t="str">
         <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_NEXT 32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="45">
+      <c r="B63" s="10" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>3435</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>3430</v>
+      </c>
       <c r="K63" s="9" t="str">
         <f>IF(LEN(C63),VLOOKUP(C63,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="45">
-      <c r="B64" s="10" t="s">
-        <v>3452</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>3449</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>3434</v>
-      </c>
+        <v>#define mCFG_SOUND_NEXT 34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="K64" s="9" t="str">
         <f>IF(LEN(C64),VLOOKUP(C64,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_CHOICE 33</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="45">
+      <c r="B65" s="10" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>3436</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>3421</v>
+      </c>
       <c r="K65" s="9" t="str">
         <f>IF(LEN(C65),VLOOKUP(C65,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
+        <v>#define mCFG_SOUND_CHOICE 35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="K66" s="9" t="str">
         <f>IF(LEN(C66),VLOOKUP(C66,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="11:11">
+    <row r="67" spans="2:11">
       <c r="K67" s="9" t="str">
         <f>IF(LEN(C67),VLOOKUP(C67,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="11:11">
+    <row r="68" spans="2:11">
       <c r="K68" s="9" t="str">
         <f>IF(LEN(C68),VLOOKUP(C68,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
+    <row r="69" spans="2:11">
+      <c r="K69" s="9" t="str">
+        <f>IF(LEN(C69),VLOOKUP(C69,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="V19:Y40">
-    <sortCondition ref="V19:V40"/>
+  <autoFilter ref="A1:K69" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
+  <sortState ref="V35:X57">
+    <sortCondition ref="V35:V57"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13207,7 +14077,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1"/>
@@ -13234,12 +14104,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="25" customFormat="1"/>
     <row r="12" spans="1:3" s="25" customFormat="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -13262,7 +14132,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="25" customFormat="1" ht="16.5" thickTop="1" thickBot="1"/>
@@ -13271,7 +14141,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="25" customFormat="1" ht="15.75" thickTop="1"/>
@@ -13370,10 +14240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
-  <dimension ref="A1:M3297"/>
+  <dimension ref="A1:M3392"/>
   <sheetViews>
-    <sheetView topLeftCell="A3267" workbookViewId="0">
-      <selection activeCell="B3319" sqref="B3319"/>
+    <sheetView tabSelected="1" topLeftCell="A3341" workbookViewId="0">
+      <selection activeCell="G3371" sqref="G3371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -38301,7 +39171,7 @@
     <row r="3120" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="3121" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3121" s="1" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="3122" spans="1:5" ht="15.75" thickTop="1"/>
@@ -38335,7 +39205,7 @@
         <v>2072</v>
       </c>
       <c r="B3129" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C3129">
         <v>0</v>
@@ -38346,7 +39216,7 @@
         <v>10</v>
       </c>
       <c r="B3130" s="24" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C3130">
         <f>IF(COUNTIF(B3130,"*loopCount*"),0+MID(B3130,10+FIND("loopCount",B3130),999),C3129)</f>
@@ -38362,7 +39232,7 @@
         <v>11</v>
       </c>
       <c r="B3131" s="15" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C3131">
         <f t="shared" ref="C3131:C3157" si="13">IF(COUNTIF(B3131,"*loopCount*"),0+MID(B3131,10+FIND("loopCount",B3131),999),C3130)</f>
@@ -38378,7 +39248,7 @@
         <v>12</v>
       </c>
       <c r="B3132" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C3132">
         <f t="shared" si="13"/>
@@ -38394,7 +39264,7 @@
         <v>22</v>
       </c>
       <c r="B3133" s="24" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C3133">
         <f t="shared" si="13"/>
@@ -38410,7 +39280,7 @@
         <v>887</v>
       </c>
       <c r="B3134" s="24" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C3134">
         <f t="shared" si="13"/>
@@ -38421,7 +39291,7 @@
         <v>4.8259999999999996</v>
       </c>
       <c r="E3134" s="25" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="3135" spans="1:5">
@@ -38429,7 +39299,7 @@
         <v>899</v>
       </c>
       <c r="B3135" s="11" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C3135">
         <f t="shared" si="13"/>
@@ -38445,7 +39315,7 @@
         <v>927</v>
       </c>
       <c r="B3136" s="11" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C3136">
         <f t="shared" si="13"/>
@@ -38461,7 +39331,7 @@
         <v>928</v>
       </c>
       <c r="B3137" s="15" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="C3137">
         <f t="shared" si="13"/>
@@ -38477,7 +39347,7 @@
         <v>929</v>
       </c>
       <c r="B3138" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C3138">
         <f t="shared" si="13"/>
@@ -38493,7 +39363,7 @@
         <v>939</v>
       </c>
       <c r="B3139" s="24" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C3139">
         <f t="shared" si="13"/>
@@ -38509,7 +39379,7 @@
         <v>3118</v>
       </c>
       <c r="B3140" s="24" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C3140">
         <f t="shared" si="13"/>
@@ -38520,7 +39390,7 @@
         <v>18.571000000000002</v>
       </c>
       <c r="E3140" s="25" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="3141" spans="1:5">
@@ -38528,7 +39398,7 @@
         <v>3124</v>
       </c>
       <c r="B3141" s="11" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C3141">
         <f t="shared" si="13"/>
@@ -38544,7 +39414,7 @@
         <v>3127</v>
       </c>
       <c r="B3142" s="15" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C3142">
         <f t="shared" si="13"/>
@@ -38560,7 +39430,7 @@
         <v>3128</v>
       </c>
       <c r="B3143" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C3143">
         <f t="shared" si="13"/>
@@ -38576,7 +39446,7 @@
         <v>3146</v>
       </c>
       <c r="B3144" s="24" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C3144">
         <f t="shared" si="13"/>
@@ -38592,7 +39462,7 @@
         <v>4741</v>
       </c>
       <c r="B3145" s="24" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C3145">
         <f t="shared" si="13"/>
@@ -38603,7 +39473,7 @@
         <v>19.931999999999999</v>
       </c>
       <c r="E3145" s="25" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="3146" spans="1:5">
@@ -38611,7 +39481,7 @@
         <v>4747</v>
       </c>
       <c r="B3146" s="11" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C3146">
         <f t="shared" si="13"/>
@@ -38627,7 +39497,7 @@
         <v>4761</v>
       </c>
       <c r="B3147" s="11" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="C3147">
         <f t="shared" si="13"/>
@@ -38643,7 +39513,7 @@
         <v>4762</v>
       </c>
       <c r="B3148" s="15" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C3148">
         <f t="shared" si="13"/>
@@ -38659,7 +39529,7 @@
         <v>4763</v>
       </c>
       <c r="B3149" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C3149">
         <f t="shared" si="13"/>
@@ -38675,7 +39545,7 @@
         <v>4773</v>
       </c>
       <c r="B3150" s="24" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C3150">
         <f t="shared" si="13"/>
@@ -38691,7 +39561,7 @@
         <v>5076</v>
       </c>
       <c r="B3151" s="24" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="C3151">
         <f t="shared" si="13"/>
@@ -38702,7 +39572,7 @@
         <v>3.7679999999999998</v>
       </c>
       <c r="E3151" s="25" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="3152" spans="1:5">
@@ -38710,7 +39580,7 @@
         <v>5082</v>
       </c>
       <c r="B3152" s="11" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C3152">
         <f t="shared" si="13"/>
@@ -38726,7 +39596,7 @@
         <v>5096</v>
       </c>
       <c r="B3153" s="11" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="C3153">
         <f t="shared" si="13"/>
@@ -38742,7 +39612,7 @@
         <v>5110</v>
       </c>
       <c r="B3154" s="11" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C3154">
         <f t="shared" si="13"/>
@@ -38758,7 +39628,7 @@
         <v>5113</v>
       </c>
       <c r="B3155" s="15" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C3155">
         <f t="shared" si="13"/>
@@ -38774,7 +39644,7 @@
         <v>5114</v>
       </c>
       <c r="B3156" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C3156">
         <f t="shared" si="13"/>
@@ -38790,7 +39660,7 @@
         <v>5122</v>
       </c>
       <c r="B3157" s="24" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C3157">
         <f t="shared" si="13"/>
@@ -38803,35 +39673,35 @@
     </row>
     <row r="3161" spans="1:4">
       <c r="B3161" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="3162" spans="1:4">
       <c r="B3162" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="3163" spans="1:4">
       <c r="B3163" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="3164" spans="1:4">
       <c r="B3164" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="3165" spans="1:4">
       <c r="B3165" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="3167" spans="1:4">
       <c r="C3167" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="D3167" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="3168" spans="1:4">
@@ -38841,7 +39711,7 @@
     </row>
     <row r="3169" spans="2:4">
       <c r="B3169" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C3169">
         <f>IF(COUNTIF(B3169,"*loopCount*"),0+MID(B3169,10+FIND("loopCount",B3169),999),C3168)</f>
@@ -38854,7 +39724,7 @@
     </row>
     <row r="3170" spans="2:4">
       <c r="B3170" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="C3170">
         <f t="shared" ref="C3170:C3172" si="14">IF(COUNTIF(B3170,"*loopCount*"),0+MID(B3170,10+FIND("loopCount",B3170),999),C3169)</f>
@@ -38867,7 +39737,7 @@
     </row>
     <row r="3171" spans="2:4">
       <c r="B3171" s="13" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C3171">
         <f t="shared" si="14"/>
@@ -38880,7 +39750,7 @@
     </row>
     <row r="3172" spans="2:4">
       <c r="B3172" s="4" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="C3172">
         <f t="shared" si="14"/>
@@ -38893,20 +39763,20 @@
     </row>
     <row r="3173" spans="2:4">
       <c r="B3173" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C3173">
         <f t="shared" ref="C3173:C3212" si="15">IF(COUNTIF(B3173,"*loopCount*"),0+MID(B3173,10+FIND("loopCount",B3173),999),C3172)</f>
         <v>1241</v>
       </c>
-      <c r="D3173" s="51">
+      <c r="D3173" s="50">
         <f t="shared" ref="D3173:D3212" si="16">IF(C3172&lt;&gt;C3173,(C3173-C3172)/1000,"")</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="3174" spans="2:4">
       <c r="B3174" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="C3174">
         <f t="shared" si="15"/>
@@ -38919,7 +39789,7 @@
     </row>
     <row r="3175" spans="2:4">
       <c r="B3175" s="13" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C3175">
         <f t="shared" si="15"/>
@@ -38932,7 +39802,7 @@
     </row>
     <row r="3176" spans="2:4">
       <c r="B3176" s="13" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C3176">
         <f t="shared" si="15"/>
@@ -38945,7 +39815,7 @@
     </row>
     <row r="3177" spans="2:4">
       <c r="B3177" s="4" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C3177">
         <f t="shared" si="15"/>
@@ -38958,20 +39828,20 @@
     </row>
     <row r="3178" spans="2:4">
       <c r="B3178" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="C3178">
         <f t="shared" si="15"/>
         <v>6325</v>
       </c>
-      <c r="D3178" s="51">
+      <c r="D3178" s="50">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="3179" spans="2:4">
       <c r="B3179" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C3179">
         <f t="shared" si="15"/>
@@ -38984,7 +39854,7 @@
     </row>
     <row r="3180" spans="2:4">
       <c r="B3180" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C3180">
         <f t="shared" si="15"/>
@@ -38997,7 +39867,7 @@
     </row>
     <row r="3181" spans="2:4">
       <c r="B3181" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C3181">
         <f t="shared" si="15"/>
@@ -39010,7 +39880,7 @@
     </row>
     <row r="3182" spans="2:4">
       <c r="B3182" s="13" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="C3182">
         <f t="shared" si="15"/>
@@ -39023,7 +39893,7 @@
     </row>
     <row r="3183" spans="2:4">
       <c r="B3183" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C3183">
         <f t="shared" si="15"/>
@@ -39036,7 +39906,7 @@
     </row>
     <row r="3184" spans="2:4">
       <c r="B3184" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C3184">
         <f t="shared" si="15"/>
@@ -39049,7 +39919,7 @@
     </row>
     <row r="3185" spans="2:4">
       <c r="B3185" s="13" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C3185">
         <f t="shared" si="15"/>
@@ -39062,7 +39932,7 @@
     </row>
     <row r="3186" spans="2:4">
       <c r="B3186" s="13" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C3186">
         <f t="shared" si="15"/>
@@ -39075,7 +39945,7 @@
     </row>
     <row r="3187" spans="2:4">
       <c r="B3187" s="4" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="C3187">
         <f t="shared" si="15"/>
@@ -39088,20 +39958,20 @@
     </row>
     <row r="3188" spans="2:4">
       <c r="B3188" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C3188">
         <f t="shared" si="15"/>
         <v>59475</v>
       </c>
-      <c r="D3188" s="51">
+      <c r="D3188" s="50">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="3189" spans="2:4">
       <c r="B3189" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C3189">
         <f t="shared" si="15"/>
@@ -39114,7 +39984,7 @@
     </row>
     <row r="3190" spans="2:4">
       <c r="B3190" s="13" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="C3190">
         <f t="shared" si="15"/>
@@ -39127,7 +39997,7 @@
     </row>
     <row r="3191" spans="2:4">
       <c r="B3191" s="13" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C3191">
         <f t="shared" si="15"/>
@@ -39140,7 +40010,7 @@
     </row>
     <row r="3192" spans="2:4">
       <c r="B3192" s="13" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C3192">
         <f t="shared" si="15"/>
@@ -39153,7 +40023,7 @@
     </row>
     <row r="3193" spans="2:4">
       <c r="B3193" s="4" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C3193">
         <f t="shared" si="15"/>
@@ -39166,20 +40036,20 @@
     </row>
     <row r="3194" spans="2:4">
       <c r="B3194" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="C3194">
         <f t="shared" si="15"/>
         <v>63558</v>
       </c>
-      <c r="D3194" s="51">
+      <c r="D3194" s="50">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="3195" spans="2:4">
       <c r="B3195" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C3195">
         <f t="shared" si="15"/>
@@ -39192,7 +40062,7 @@
     </row>
     <row r="3196" spans="2:4">
       <c r="B3196" s="13" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C3196">
         <f t="shared" si="15"/>
@@ -39205,7 +40075,7 @@
     </row>
     <row r="3197" spans="2:4">
       <c r="B3197" s="4" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C3197">
         <f t="shared" si="15"/>
@@ -39218,20 +40088,20 @@
     </row>
     <row r="3198" spans="2:4">
       <c r="B3198" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C3198">
         <f t="shared" si="15"/>
         <v>66410</v>
       </c>
-      <c r="D3198" s="51">
+      <c r="D3198" s="50">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="3199" spans="2:4">
       <c r="B3199" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C3199">
         <f t="shared" si="15"/>
@@ -39244,7 +40114,7 @@
     </row>
     <row r="3200" spans="2:4">
       <c r="B3200" s="13" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C3200">
         <f t="shared" si="15"/>
@@ -39257,7 +40127,7 @@
     </row>
     <row r="3201" spans="2:4">
       <c r="B3201" s="13" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C3201">
         <f t="shared" si="15"/>
@@ -39270,7 +40140,7 @@
     </row>
     <row r="3202" spans="2:4">
       <c r="B3202" s="4" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C3202">
         <f t="shared" si="15"/>
@@ -39283,20 +40153,20 @@
     </row>
     <row r="3203" spans="2:4">
       <c r="B3203" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C3203">
         <f t="shared" si="15"/>
         <v>71736</v>
       </c>
-      <c r="D3203" s="51">
+      <c r="D3203" s="50">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="3204" spans="2:4">
       <c r="B3204" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="C3204">
         <f t="shared" si="15"/>
@@ -39309,7 +40179,7 @@
     </row>
     <row r="3205" spans="2:4">
       <c r="B3205" s="13" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C3205">
         <f t="shared" si="15"/>
@@ -39322,7 +40192,7 @@
     </row>
     <row r="3206" spans="2:4">
       <c r="B3206" s="4" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C3206">
         <f t="shared" si="15"/>
@@ -39335,7 +40205,7 @@
     </row>
     <row r="3207" spans="2:4">
       <c r="B3207" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C3207">
         <f t="shared" si="15"/>
@@ -39348,7 +40218,7 @@
     </row>
     <row r="3208" spans="2:4">
       <c r="B3208" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C3208">
         <f t="shared" si="15"/>
@@ -39361,7 +40231,7 @@
     </row>
     <row r="3209" spans="2:4">
       <c r="B3209" s="13" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C3209">
         <f t="shared" si="15"/>
@@ -39374,7 +40244,7 @@
     </row>
     <row r="3210" spans="2:4">
       <c r="B3210" s="13" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="C3210">
         <f t="shared" si="15"/>
@@ -39387,7 +40257,7 @@
     </row>
     <row r="3211" spans="2:4">
       <c r="B3211" s="4" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C3211">
         <f t="shared" si="15"/>
@@ -39400,13 +40270,13 @@
     </row>
     <row r="3212" spans="2:4">
       <c r="B3212" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C3212">
         <f t="shared" si="15"/>
         <v>77476</v>
       </c>
-      <c r="D3212" s="51">
+      <c r="D3212" s="50">
         <f t="shared" si="16"/>
         <v>4.1000000000000002E-2</v>
       </c>
@@ -39414,7 +40284,7 @@
     <row r="3214" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="3215" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3215" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="3216" spans="2:4" ht="15.75" thickTop="1"/>
@@ -39448,263 +40318,263 @@
         <v>2072</v>
       </c>
       <c r="B3223" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="3224" spans="1:2">
       <c r="B3224" s="24" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
       <c r="B3225" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
       <c r="B3226" s="24" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
       <c r="B3227" s="24" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
       <c r="B3228" s="24" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
       <c r="B3229" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
       <c r="B3230" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
       <c r="B3231" s="24" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
       <c r="B3232" s="24" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="3233" spans="2:2">
       <c r="B3233" s="24" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="3234" spans="2:2">
       <c r="B3234" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="3235" spans="2:2">
       <c r="B3235" s="24" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="3236" spans="2:2">
       <c r="B3236" s="24" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="3237" spans="2:2">
       <c r="B3237" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="3238" spans="2:2">
       <c r="B3238" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="3239" spans="2:2">
       <c r="B3239" s="24" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="3240" spans="2:2">
       <c r="B3240" s="24" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="3241" spans="2:2">
       <c r="B3241" s="24" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="3242" spans="2:2">
       <c r="B3242" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="3243" spans="2:2">
       <c r="B3243" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3244" spans="2:2">
       <c r="B3244" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="3245" spans="2:2">
       <c r="B3245" s="24" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="3246" spans="2:2">
       <c r="B3246" s="24" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="3247" spans="2:2">
       <c r="B3247" s="24" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="3248" spans="2:2">
       <c r="B3248" s="24" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="3249" spans="2:2">
       <c r="B3249" s="24" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="3250" spans="2:2">
       <c r="B3250" s="24" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="3251" spans="2:2">
       <c r="B3251" s="24" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="3252" spans="2:2">
       <c r="B3252" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="3253" spans="2:2">
       <c r="B3253" s="24" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="3254" spans="2:2">
       <c r="B3254" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="3255" spans="2:2">
       <c r="B3255" s="24" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="3256" spans="2:2">
       <c r="B3256" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="3257" spans="2:2">
       <c r="B3257" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="3258" spans="2:2">
       <c r="B3258" s="24" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="3259" spans="2:2">
       <c r="B3259" s="24" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="3260" spans="2:2">
       <c r="B3260" s="24" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="3261" spans="2:2">
       <c r="B3261" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="3262" spans="2:2">
       <c r="B3262" s="24" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="3263" spans="2:2">
       <c r="B3263" s="24" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="3264" spans="2:2">
       <c r="B3264" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="3265" spans="2:2">
       <c r="B3265" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="3266" spans="2:2">
       <c r="B3266" s="24" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="3267" spans="2:2">
       <c r="B3267" s="24" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="3268" spans="2:2">
       <c r="B3268" s="24" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="3269" spans="2:2">
       <c r="B3269" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="3270" spans="2:2">
       <c r="B3270" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="3271" spans="2:2">
       <c r="B3271" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="3272" spans="2:2">
       <c r="B3272" s="24" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="3273" spans="2:2">
       <c r="B3273" s="24" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3421</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -39715,7 +40585,7 @@
     </row>
     <row r="3280" spans="2:2">
       <c r="B3280" t="s">
-        <v>119</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -39730,126 +40600,914 @@
     </row>
     <row r="3283" spans="1:2">
       <c r="B3283" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2">
+      <c r="B3284" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="3285" spans="1:2">
-      <c r="A3285" t="s">
+    <row r="3286" spans="1:2">
+      <c r="A3286" t="s">
         <v>2072</v>
       </c>
-      <c r="B3285" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="3286" spans="1:2">
-      <c r="A3286">
-        <f>0+LEFT(B3286,FIND(":",B3286)-1)</f>
-        <v>43</v>
-      </c>
       <c r="B3286" t="s">
-        <v>3422</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
       <c r="A3287">
-        <f t="shared" ref="A3287:A3297" si="17">0+LEFT(B3287,FIND(":",B3287)-1)</f>
-        <v>871</v>
+        <v>12</v>
       </c>
       <c r="B3287" t="s">
-        <v>3423</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
       <c r="A3288">
-        <f t="shared" si="17"/>
-        <v>3109</v>
-      </c>
-      <c r="B3288" t="s">
-        <v>3424</v>
+        <v>16</v>
+      </c>
+      <c r="B3288" s="24" t="s">
+        <v>3496</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
       <c r="A3289">
-        <f t="shared" si="17"/>
-        <v>3225</v>
-      </c>
-      <c r="B3289" t="s">
-        <v>3425</v>
+        <v>42</v>
+      </c>
+      <c r="B3289" s="11" t="s">
+        <v>3497</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
       <c r="A3290">
-        <f t="shared" si="17"/>
-        <v>3320</v>
-      </c>
-      <c r="B3290" t="s">
-        <v>3426</v>
+        <v>47</v>
+      </c>
+      <c r="B3290" s="15" t="s">
+        <v>3498</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
       <c r="A3291">
-        <f t="shared" si="17"/>
-        <v>3611</v>
-      </c>
-      <c r="B3291" t="s">
-        <v>3427</v>
+        <v>57</v>
+      </c>
+      <c r="B3291" s="24" t="s">
+        <v>3499</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
       <c r="A3292">
-        <f t="shared" si="17"/>
-        <v>3727</v>
+        <v>76</v>
       </c>
       <c r="B3292" t="s">
-        <v>3428</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
       <c r="A3293">
-        <f t="shared" si="17"/>
-        <v>3822</v>
-      </c>
-      <c r="B3293" t="s">
-        <v>3429</v>
+        <v>80</v>
+      </c>
+      <c r="B3293" s="24" t="s">
+        <v>3500</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
       <c r="A3294">
-        <f t="shared" si="17"/>
-        <v>4150</v>
+        <v>760</v>
       </c>
       <c r="B3294" t="s">
-        <v>3430</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
       <c r="A3295">
-        <f t="shared" si="17"/>
-        <v>4219</v>
-      </c>
-      <c r="B3295" t="s">
-        <v>3431</v>
+        <v>761</v>
+      </c>
+      <c r="B3295" s="24" t="s">
+        <v>3501</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
       <c r="A3296">
-        <f t="shared" si="17"/>
-        <v>4271</v>
-      </c>
-      <c r="B3296" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="3297" spans="1:2">
+        <v>773</v>
+      </c>
+      <c r="B3296" s="11" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:6">
       <c r="A3297">
-        <f t="shared" si="17"/>
-        <v>4340</v>
-      </c>
-      <c r="B3297" t="s">
-        <v>3433</v>
+        <v>797</v>
+      </c>
+      <c r="B3297" s="11" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:6">
+      <c r="A3298">
+        <v>799</v>
+      </c>
+      <c r="B3298" s="15" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:6">
+      <c r="A3299">
+        <v>806</v>
+      </c>
+      <c r="B3299" s="24" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:6">
+      <c r="A3300">
+        <v>831</v>
+      </c>
+      <c r="B3300" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:6">
+      <c r="A3301">
+        <v>832</v>
+      </c>
+      <c r="B3301" s="24" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:6">
+      <c r="A3302">
+        <v>1332</v>
+      </c>
+      <c r="B3302" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:6">
+      <c r="A3303">
+        <v>1333</v>
+      </c>
+      <c r="B3303" s="24" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:6">
+      <c r="A3304">
+        <v>1733</v>
+      </c>
+      <c r="B3304" s="82" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:6">
+      <c r="A3305">
+        <v>1734</v>
+      </c>
+      <c r="B3305" s="24" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:6">
+      <c r="A3306">
+        <v>1748</v>
+      </c>
+      <c r="B3306" s="11" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:6">
+      <c r="A3307">
+        <v>1749</v>
+      </c>
+      <c r="B3307" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:6">
+      <c r="A3308">
+        <v>1750</v>
+      </c>
+      <c r="B3308" s="24" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:6">
+      <c r="A3309">
+        <v>1751</v>
+      </c>
+      <c r="B3309" s="15" t="s">
+        <v>3511</v>
+      </c>
+      <c r="F3309" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:6">
+      <c r="A3310">
+        <v>1757</v>
+      </c>
+      <c r="B3310" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:6">
+      <c r="A3311">
+        <v>1758</v>
+      </c>
+      <c r="B3311" s="24" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:6">
+      <c r="A3312">
+        <v>1783</v>
+      </c>
+      <c r="B3312" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:6">
+      <c r="A3313">
+        <v>1784</v>
+      </c>
+      <c r="B3313" s="24" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:6">
+      <c r="A3314">
+        <v>1884</v>
+      </c>
+      <c r="B3314" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:6">
+      <c r="A3315">
+        <v>1885</v>
+      </c>
+      <c r="B3315" s="24" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:6">
+      <c r="A3316">
+        <v>4535</v>
+      </c>
+      <c r="B3316" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:6">
+      <c r="A3317">
+        <v>4536</v>
+      </c>
+      <c r="B3317" s="24" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:6">
+      <c r="A3318">
+        <v>4565</v>
+      </c>
+      <c r="B3318" s="15" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:6">
+      <c r="A3319">
+        <v>4567</v>
+      </c>
+      <c r="B3319" s="24" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:6">
+      <c r="A3320">
+        <v>4592</v>
+      </c>
+      <c r="B3320" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:6">
+      <c r="A3321">
+        <v>4842</v>
+      </c>
+      <c r="B3321" s="82" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:6">
+      <c r="A3322">
+        <v>4843</v>
+      </c>
+      <c r="B3322" s="24" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F3322" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:6">
+      <c r="A3323">
+        <v>4849</v>
+      </c>
+      <c r="B3323" s="11" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:6">
+      <c r="A3324">
+        <v>4851</v>
+      </c>
+      <c r="B3324" s="24" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F3324" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:6">
+      <c r="A3325">
+        <v>4862</v>
+      </c>
+      <c r="B3325" s="11" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:6">
+      <c r="A3326">
+        <v>4864</v>
+      </c>
+      <c r="B3326" s="15" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F3326" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:6">
+      <c r="A3327">
+        <v>4870</v>
+      </c>
+      <c r="B3327" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:6">
+      <c r="A3328">
+        <v>4871</v>
+      </c>
+      <c r="B3328" s="24" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:6">
+      <c r="A3329">
+        <v>4872</v>
+      </c>
+      <c r="B3329" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:6">
+      <c r="A3330">
+        <v>4873</v>
+      </c>
+      <c r="B3330" s="24" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:6">
+      <c r="A3331">
+        <v>4994</v>
+      </c>
+      <c r="B3331" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:6">
+      <c r="A3332">
+        <v>4995</v>
+      </c>
+      <c r="B3332" s="24" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:6">
+      <c r="A3333">
+        <v>5004</v>
+      </c>
+      <c r="B3333" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:6">
+      <c r="A3334">
+        <v>5005</v>
+      </c>
+      <c r="B3334" s="24" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:6">
+      <c r="A3335">
+        <v>5023</v>
+      </c>
+      <c r="B3335" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:6">
+      <c r="A3336">
+        <v>5024</v>
+      </c>
+      <c r="B3336" s="24" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:6">
+      <c r="A3337">
+        <v>5039</v>
+      </c>
+      <c r="B3337" s="82" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:6">
+      <c r="A3338">
+        <v>5040</v>
+      </c>
+      <c r="B3338" s="24" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F3338" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:6">
+      <c r="A3339">
+        <v>5046</v>
+      </c>
+      <c r="B3339" s="11" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:6">
+      <c r="A3340">
+        <v>5048</v>
+      </c>
+      <c r="B3340" s="24" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F3340" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:6">
+      <c r="A3341">
+        <v>5049</v>
+      </c>
+      <c r="B3341" s="15" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F3341" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:6">
+      <c r="A3342">
+        <v>5055</v>
+      </c>
+      <c r="B3342" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:6">
+      <c r="A3343">
+        <v>5056</v>
+      </c>
+      <c r="B3343" s="24" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F3343" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:6">
+      <c r="A3344">
+        <v>5057</v>
+      </c>
+      <c r="B3344" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:6">
+      <c r="A3345">
+        <v>5058</v>
+      </c>
+      <c r="B3345" s="24" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F3345" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:6">
+      <c r="A3346">
+        <v>5060</v>
+      </c>
+      <c r="B3346" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:6">
+      <c r="A3347">
+        <v>5065</v>
+      </c>
+      <c r="B3347" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:6">
+      <c r="A3348">
+        <v>5066</v>
+      </c>
+      <c r="B3348" s="24" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:6">
+      <c r="A3349">
+        <v>5222</v>
+      </c>
+      <c r="B3349" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:6">
+      <c r="A3350">
+        <v>5223</v>
+      </c>
+      <c r="B3350" s="24" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:6">
+      <c r="A3351">
+        <v>5251</v>
+      </c>
+      <c r="B3351" s="82" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:6">
+      <c r="A3352">
+        <v>5252</v>
+      </c>
+      <c r="B3352" s="24" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F3352" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:6">
+      <c r="A3353">
+        <v>5254</v>
+      </c>
+      <c r="B3353" s="24" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F3353" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:6">
+      <c r="A3354">
+        <v>5259</v>
+      </c>
+      <c r="B3354" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:6">
+      <c r="A3355">
+        <v>5261</v>
+      </c>
+      <c r="B3355" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:6">
+      <c r="A3356">
+        <v>5262</v>
+      </c>
+      <c r="B3356" s="24" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:6">
+      <c r="A3357">
+        <v>5393</v>
+      </c>
+      <c r="B3357" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:6">
+      <c r="A3358">
+        <v>5394</v>
+      </c>
+      <c r="B3358" s="24" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:6">
+      <c r="A3359">
+        <v>5421</v>
+      </c>
+      <c r="B3359" s="82" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:6">
+      <c r="A3360">
+        <v>5422</v>
+      </c>
+      <c r="B3360" s="24" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F3360" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:7">
+      <c r="A3361">
+        <v>5424</v>
+      </c>
+      <c r="B3361" s="24" t="s">
+        <v>3541</v>
+      </c>
+      <c r="F3361" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:7">
+      <c r="A3362">
+        <v>5430</v>
+      </c>
+      <c r="B3362" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:7">
+      <c r="A3363">
+        <v>5438</v>
+      </c>
+      <c r="B3363" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:7">
+      <c r="A3364">
+        <v>5439</v>
+      </c>
+      <c r="B3364" s="24" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:7">
+      <c r="A3365">
+        <v>5471</v>
+      </c>
+      <c r="B3365" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:7">
+      <c r="A3366">
+        <v>5472</v>
+      </c>
+      <c r="B3366" s="24" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:7">
+      <c r="A3367">
+        <v>5477</v>
+      </c>
+      <c r="B3367" s="15" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:7">
+      <c r="A3368">
+        <v>5479</v>
+      </c>
+      <c r="B3368" s="24" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:7">
+      <c r="A3369">
+        <v>5480</v>
+      </c>
+      <c r="B3369" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:7">
+      <c r="A3370">
+        <v>5481</v>
+      </c>
+      <c r="B3370" s="24" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G3370" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:7">
+      <c r="A3371">
+        <v>5593</v>
+      </c>
+      <c r="B3371" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:7">
+      <c r="A3372">
+        <v>5594</v>
+      </c>
+      <c r="B3372" s="24" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:7">
+      <c r="A3373">
+        <v>5609</v>
+      </c>
+      <c r="B3373" s="82" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:7">
+      <c r="A3374">
+        <v>5610</v>
+      </c>
+      <c r="B3374" s="24" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:7">
+      <c r="A3375">
+        <v>5612</v>
+      </c>
+      <c r="B3375" s="24" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:7">
+      <c r="A3376">
+        <v>5617</v>
+      </c>
+      <c r="B3376" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2">
+      <c r="A3377">
+        <v>5620</v>
+      </c>
+      <c r="B3377" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2">
+      <c r="A3378">
+        <v>5621</v>
+      </c>
+      <c r="B3378" s="24" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2">
+      <c r="A3379">
+        <v>5727</v>
+      </c>
+      <c r="B3379" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2">
+      <c r="A3380">
+        <v>5728</v>
+      </c>
+      <c r="B3380" s="24" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2">
+      <c r="A3381">
+        <v>5741</v>
+      </c>
+      <c r="B3381" s="82" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2">
+      <c r="A3382">
+        <v>5742</v>
+      </c>
+      <c r="B3382" s="24" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2">
+      <c r="A3383">
+        <v>5744</v>
+      </c>
+      <c r="B3383" s="24" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2">
+      <c r="A3384">
+        <v>5752</v>
+      </c>
+      <c r="B3384" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:2">
+      <c r="A3385">
+        <v>5756</v>
+      </c>
+      <c r="B3385" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:2">
+      <c r="A3386">
+        <v>5757</v>
+      </c>
+      <c r="B3386" s="24" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:2">
+      <c r="A3387">
+        <v>5893</v>
+      </c>
+      <c r="B3387" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:2">
+      <c r="A3388">
+        <v>5894</v>
+      </c>
+      <c r="B3388" s="24" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:2">
+      <c r="A3389">
+        <v>5899</v>
+      </c>
+      <c r="B3389" s="15" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:2">
+      <c r="A3390">
+        <v>5901</v>
+      </c>
+      <c r="B3390" s="24" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:2">
+      <c r="A3391">
+        <v>5902</v>
+      </c>
+      <c r="B3391" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:2">
+      <c r="A3392">
+        <v>5903</v>
+      </c>
+      <c r="B3392" s="24" t="s">
+        <v>3558</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3286:B3392" xr:uid="{739C1A41-0140-4188-ACE8-366A0BC99356}"/>
   <sortState ref="A3078:B3118">
     <sortCondition ref="A3078:A3118"/>
   </sortState>
@@ -42334,1231 +43992,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>2912</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>3379</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2876</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>3393</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>2936</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>2878</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="63" t="s">
         <v>2877</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3478</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>2873</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="63">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>2863</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>2864</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>2873</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>2898</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="68" t="s">
         <v>2897</v>
       </c>
       <c r="I2" s="27"/>
       <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" ht="30">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>2873</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>2853</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>2854</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>2873</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>2937</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="68" t="s">
         <v>2882</v>
       </c>
       <c r="I3" s="27"/>
       <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="20.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>3</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>2891</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>3376</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="70" t="s">
         <v>3395</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="67" t="s">
         <v>2893</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>2892</v>
       </c>
       <c r="I4" s="27"/>
       <c r="AK4" s="28"/>
     </row>
     <row r="5" spans="1:37" ht="20.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="69">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>2855</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>2856</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>2873</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>2938</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="68" t="s">
         <v>2880</v>
       </c>
       <c r="I5" s="27"/>
       <c r="AK5" s="28"/>
     </row>
     <row r="6" spans="1:37" ht="30">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>5</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>3467</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>3466</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="C6" s="64" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>2873</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I6" s="27"/>
       <c r="AK6" s="28"/>
     </row>
     <row r="7" spans="1:37" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>6</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>2867</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>2868</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>2872</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="67" t="s">
         <v>2941</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="68" t="s">
         <v>2950</v>
       </c>
       <c r="I7" s="27"/>
       <c r="AK7" s="28"/>
     </row>
     <row r="8" spans="1:37" ht="21" thickBot="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>2872</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>11</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>2865</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>2866</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="66" t="s">
         <v>2872</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="67" t="s">
         <v>2942</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="68" t="s">
         <v>2951</v>
       </c>
       <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="1:37" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>2872</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="73">
         <v>12</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>2894</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>3378</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>2872</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>2896</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="68" t="s">
         <v>2895</v>
       </c>
       <c r="I9" s="27"/>
       <c r="AK9" s="28"/>
     </row>
     <row r="10" spans="1:37" ht="30.75" thickTop="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>13</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>2867</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>2868</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>2872</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="67" t="s">
         <v>2941</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="68" t="s">
         <v>2950</v>
       </c>
       <c r="I10" s="28"/>
       <c r="AK10" s="28"/>
     </row>
     <row r="11" spans="1:37" ht="30">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="69">
         <v>14</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>2857</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>2858</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>2872</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>2945</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="68" t="s">
         <v>2952</v>
       </c>
       <c r="I11" s="28"/>
       <c r="AK11" s="28"/>
     </row>
     <row r="12" spans="1:37" ht="20.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="63">
         <v>15</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>2911</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>3391</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="67" t="s">
         <v>2899</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="67" t="s">
         <v>2947</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="68" t="s">
         <v>2960</v>
       </c>
       <c r="I12" s="28"/>
       <c r="AK12" s="28"/>
     </row>
     <row r="13" spans="1:37" ht="30">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="63">
         <v>16</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>2884</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>3400</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="69" t="s">
         <v>3399</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="67" t="s">
         <v>2886</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="68" t="s">
         <v>2885</v>
       </c>
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:37" ht="20.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="69" t="s">
         <v>2872</v>
       </c>
       <c r="B14" s="19">
         <v>17</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>3473</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>3475</v>
-      </c>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="64" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E14" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="20.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>2872</v>
       </c>
       <c r="B15" s="19">
         <v>18</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>3476</v>
-      </c>
-      <c r="E15" s="70" t="s">
+      <c r="C15" s="64" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E15" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:37" ht="20.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="69" t="s">
         <v>2872</v>
       </c>
       <c r="B16" s="19">
         <v>19</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>3474</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>3477</v>
-      </c>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="64" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>2872</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:37" ht="20.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <v>21</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>2924</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>2935</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="67" t="s">
         <v>2925</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="68" t="s">
         <v>2930</v>
       </c>
       <c r="I17" s="28"/>
       <c r="AK17" s="28"/>
     </row>
     <row r="18" spans="1:37" ht="20.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>22</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="72" t="s">
         <v>2926</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>2933</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="67" t="s">
         <v>2927</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="68" t="s">
         <v>2931</v>
       </c>
       <c r="I18" s="28"/>
       <c r="AK18" s="28"/>
     </row>
     <row r="19" spans="1:37" ht="20.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <v>23</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>2921</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="70" t="s">
         <v>2922</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="67" t="s">
         <v>2920</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="68" t="s">
         <v>2923</v>
       </c>
       <c r="I19" s="28"/>
       <c r="AK19" s="28"/>
     </row>
     <row r="20" spans="1:37" ht="20.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="64">
         <v>24</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>2928</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="66" t="s">
         <v>2934</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="67" t="s">
         <v>2929</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="68" t="s">
         <v>2932</v>
       </c>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:37" ht="30">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="63">
         <v>25</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>2884</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>2909</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="69" t="s">
         <v>3399</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>2886</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="68" t="s">
         <v>2885</v>
       </c>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:37" ht="20.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <v>26</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>2917</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="70" t="s">
         <v>2916</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="67" t="s">
         <v>2915</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="68" t="s">
         <v>2918</v>
       </c>
       <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:37" ht="20.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>2910</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <v>31</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>2924</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="70" t="s">
         <v>2935</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="67" t="s">
         <v>2925</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="68" t="s">
         <v>2930</v>
       </c>
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:37" ht="20.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="64" t="s">
         <v>2910</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <v>32</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="72" t="s">
         <v>2926</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>2933</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="67" t="s">
         <v>2927</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="68" t="s">
         <v>2931</v>
       </c>
       <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:37" ht="20.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>2910</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="64">
         <v>33</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="72" t="s">
         <v>2921</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="70" t="s">
         <v>2922</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="67" t="s">
         <v>2920</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="68" t="s">
         <v>2923</v>
       </c>
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:37" ht="20.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="64" t="s">
         <v>2910</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="64">
         <v>34</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
         <v>2928</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="66" t="s">
         <v>2934</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="67" t="s">
         <v>2929</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="68" t="s">
         <v>2932</v>
       </c>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:37" ht="30">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>2910</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="63">
         <v>35</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>2884</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="66" t="s">
         <v>2909</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="69" t="s">
         <v>3399</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="67" t="s">
         <v>2886</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="68" t="s">
         <v>2885</v>
       </c>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:37" ht="20.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="64" t="s">
         <v>2910</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="64">
         <v>36</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>2917</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="70" t="s">
         <v>2916</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="69" t="s">
         <v>3394</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="67" t="s">
         <v>2915</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="68" t="s">
         <v>2918</v>
       </c>
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:37" ht="30">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="69" t="s">
         <v>3398</v>
       </c>
       <c r="B29" s="19">
         <v>41</v>
       </c>
-      <c r="C29" s="65" t="s">
-        <v>3468</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>3465</v>
-      </c>
-      <c r="E29" s="70" t="s">
+      <c r="C29" s="64" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E29" s="69" t="s">
         <v>3398</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:37" ht="30">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="69" t="s">
         <v>3398</v>
       </c>
       <c r="B30" s="19">
         <v>41</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>3469</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>3465</v>
-      </c>
-      <c r="E30" s="70" t="s">
+      <c r="C30" s="64" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E30" s="69" t="s">
         <v>3398</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="69" t="s">
         <v>3397</v>
       </c>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:37" ht="20.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
         <v>2871</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <v>51</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="72" t="s">
         <v>2869</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="66" t="s">
         <v>2870</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="67" t="s">
         <v>2940</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="68" t="s">
         <v>2954</v>
       </c>
       <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:37" ht="20.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>2871</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="64">
         <v>52</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="72" t="s">
         <v>2861</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="66" t="s">
         <v>2862</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="67" t="s">
         <v>2943</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="68" t="s">
         <v>2949</v>
       </c>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:11" ht="30">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>2871</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="64">
         <v>53</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="72" t="s">
         <v>2903</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="66" t="s">
         <v>3388</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="67" t="s">
         <v>2946</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="68" t="s">
         <v>2956</v>
       </c>
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:11" ht="30">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="64" t="s">
         <v>2871</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="63">
         <v>54</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>2913</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="70" t="s">
         <v>3390</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="70" t="s">
         <v>2871</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="67" t="s">
         <v>2879</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="67" t="s">
         <v>2914</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="68" t="s">
         <v>2919</v>
       </c>
       <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="69" t="s">
         <v>2871</v>
       </c>
       <c r="B35" s="9">
         <v>55</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="72" t="s">
         <v>2905</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="66" t="s">
         <v>2904</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="67" t="s">
         <v>2946</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="68" t="s">
         <v>2957</v>
       </c>
       <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:11" ht="20.25">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="69" t="s">
         <v>2871</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="63">
         <v>56</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>2891</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="70" t="s">
         <v>3376</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="70" t="s">
         <v>3395</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="67" t="s">
         <v>2893</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="68" t="s">
         <v>2892</v>
       </c>
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="69" t="s">
         <v>2871</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <v>57</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="72" t="s">
         <v>2859</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="66" t="s">
         <v>2860</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="67" t="s">
         <v>2944</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="68" t="s">
         <v>2955</v>
       </c>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:11" ht="30">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="69" t="s">
         <v>2871</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>58</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="72" t="s">
         <v>2874</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="66" t="s">
         <v>3392</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="66" t="s">
         <v>2871</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="67" t="s">
         <v>2939</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="68" t="s">
         <v>2953</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="75">
-      <c r="A39" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B39" s="70">
+      <c r="A39" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B39" s="69">
         <v>62</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>3396</v>
+      </c>
+      <c r="H39" s="69" t="s">
+        <v>3397</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45">
+      <c r="A40" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B40" s="69">
+        <v>63</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>3396</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>3397</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="45">
+      <c r="A41" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B41" s="69">
+        <v>64</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>3396</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>3397</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>3470</v>
       </c>
-      <c r="D39" s="67" t="s">
-        <v>3485</v>
-      </c>
-      <c r="E39" s="67" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F39" s="68" t="s">
+    </row>
+    <row r="42" spans="1:11" ht="45">
+      <c r="A42" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B42" s="69">
+        <v>65</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F42" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G42" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H42" s="69" t="s">
         <v>3397</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45">
-      <c r="A40" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B40" s="70">
-        <v>63</v>
-      </c>
-      <c r="C40" s="65" t="s">
+      <c r="I42" s="27" t="s">
         <v>3471</v>
       </c>
-      <c r="D40" s="67" t="s">
-        <v>3459</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F40" s="68" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="70" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B43" s="69">
+        <v>101</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F43" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G43" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H43" s="69" t="s">
         <v>3397</v>
       </c>
-      <c r="I40" s="27" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="45">
-      <c r="A41" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B41" s="70">
-        <v>64</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>3457</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E41" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F41" s="68" t="s">
+      <c r="I43" s="27" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20.25">
+      <c r="A44" s="70" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B44" s="69">
+        <v>102</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F44" s="67" t="s">
         <v>2887</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G44" s="71" t="s">
         <v>3396</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H44" s="69" t="s">
         <v>3397</v>
       </c>
-      <c r="I41" s="27" t="s">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45">
-      <c r="A42" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B42" s="70">
-        <v>65</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>3458</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>3461</v>
-      </c>
-      <c r="E42" s="70" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>2887</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>3396</v>
-      </c>
-      <c r="H42" s="70" t="s">
-        <v>3397</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="71" t="s">
-        <v>3402</v>
-      </c>
-      <c r="B43" s="70">
-        <v>101</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>3462</v>
-      </c>
-      <c r="E43" s="71" t="s">
-        <v>3402</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>2887</v>
-      </c>
-      <c r="G43" s="72" t="s">
-        <v>3396</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>3397</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.25">
-      <c r="A44" s="71" t="s">
-        <v>3402</v>
-      </c>
-      <c r="B44" s="70">
-        <v>102</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>3453</v>
-      </c>
-      <c r="D44" s="71" t="s">
-        <v>3463</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>3402</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>2887</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>3396</v>
-      </c>
-      <c r="H44" s="70" t="s">
-        <v>3397</v>
-      </c>
       <c r="I44" s="27" t="s">
-        <v>3481</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.25">
-      <c r="E45" s="77"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="78"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="77"/>
       <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="20.25">
-      <c r="E46" s="77"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="78"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:11">
@@ -43600,7 +45258,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="20.25">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="55" t="s">
         <v>2873</v>
       </c>
       <c r="B54" s="19"/>
@@ -43619,7 +45277,7 @@
       <c r="G54" s="35" t="s">
         <v>2902</v>
       </c>
-      <c r="H54" s="53" t="s">
+      <c r="H54" s="52" t="s">
         <v>2901</v>
       </c>
       <c r="K54" t="s">
@@ -43630,11 +45288,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="20.25">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="55" t="s">
         <v>2873</v>
       </c>
       <c r="B55" s="19"/>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="54" t="s">
         <v>2888</v>
       </c>
       <c r="D55" s="34" t="s">
@@ -43649,7 +45307,7 @@
       <c r="G55" s="35" t="s">
         <v>2890</v>
       </c>
-      <c r="H55" s="53" t="s">
+      <c r="H55" s="52" t="s">
         <v>2889</v>
       </c>
       <c r="R55" t="s">
@@ -43666,7 +45324,7 @@
       <c r="C56" s="33" t="s">
         <v>2908</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="53" t="s">
         <v>3389</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -43692,7 +45350,7 @@
       <c r="C57" s="33" t="s">
         <v>2907</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="53" t="s">
         <v>2906</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -43710,7 +45368,7 @@
     </row>
     <row r="58" spans="1:18" ht="20.25">
       <c r="A58" s="6"/>
-      <c r="D58" s="57"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="6"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -43718,7 +45376,7 @@
     </row>
     <row r="59" spans="1:18" ht="20.25">
       <c r="A59" s="6"/>
-      <c r="D59" s="57"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="6"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -43726,7 +45384,7 @@
     </row>
     <row r="60" spans="1:18" ht="20.25">
       <c r="A60" s="6"/>
-      <c r="D60" s="57"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="6"/>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -43734,7 +45392,7 @@
     </row>
     <row r="61" spans="1:18" ht="20.25">
       <c r="A61" s="6"/>
-      <c r="D61" s="57"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="6"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -43742,28 +45400,28 @@
     </row>
     <row r="62" spans="1:18" ht="20.25">
       <c r="A62" s="6"/>
-      <c r="D62" s="57"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="6"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:18" ht="20.25">
-      <c r="D63" s="57"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="6"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:18" ht="20.25">
-      <c r="D64" s="57"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="6"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:18" ht="20.25">
-      <c r="D65" s="57"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="6"/>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -43773,7 +45431,7 @@
       <c r="A66" s="6" t="s">
         <v>3403</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="6"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -43783,7 +45441,7 @@
       <c r="A67" t="s">
         <v>3417</v>
       </c>
-      <c r="D67" s="57"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="6"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -43793,7 +45451,7 @@
       <c r="A68" t="s">
         <v>3418</v>
       </c>
-      <c r="D68" s="57"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="6"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -43803,7 +45461,7 @@
       <c r="A69" t="s">
         <v>3405</v>
       </c>
-      <c r="D69" s="57"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="6"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -43872,7 +45530,7 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M73&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
       </c>
-      <c r="J73" s="52" t="s">
+      <c r="J73" s="51" t="s">
         <v>2879</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -43894,7 +45552,7 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M74&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
       </c>
-      <c r="J74" s="52" t="s">
+      <c r="J74" s="51" t="s">
         <v>2899</v>
       </c>
       <c r="K74" s="6" t="s">
@@ -43916,7 +45574,7 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M75&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
       </c>
-      <c r="J75" s="52" t="s">
+      <c r="J75" s="51" t="s">
         <v>2887</v>
       </c>
       <c r="K75" s="6" t="s">
@@ -43938,7 +45596,7 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M76&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
       </c>
-      <c r="J76" s="52" t="s">
+      <c r="J76" s="51" t="s">
         <v>2879</v>
       </c>
       <c r="K76" s="6" t="s">
@@ -44005,7 +45663,7 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M79&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
       </c>
-      <c r="J79" s="52" t="s">
+      <c r="J79" s="51" t="s">
         <v>2887</v>
       </c>
       <c r="K79" s="6" t="s">
@@ -44443,13 +46101,13 @@
         <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J102&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K102&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L102&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
       </c>
-      <c r="J102" s="58" t="s">
+      <c r="J102" s="57" t="s">
         <v>2875</v>
       </c>
-      <c r="K102" s="58" t="s">
+      <c r="K102" s="57" t="s">
         <v>3406</v>
       </c>
-      <c r="L102" s="58" t="s">
+      <c r="L102" s="57" t="s">
         <v>2877</v>
       </c>
     </row>
@@ -44458,13 +46116,13 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L103&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
       </c>
-      <c r="J103" s="59" t="s">
+      <c r="J103" s="58" t="s">
         <v>2879</v>
       </c>
-      <c r="K103" s="59" t="s">
+      <c r="K103" s="58" t="s">
         <v>3407</v>
       </c>
-      <c r="L103" s="60" t="s">
+      <c r="L103" s="59" t="s">
         <v>3408</v>
       </c>
     </row>
@@ -44473,13 +46131,13 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L104&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
       </c>
-      <c r="J104" s="61" t="s">
+      <c r="J104" s="60" t="s">
         <v>2887</v>
       </c>
-      <c r="K104" s="61" t="s">
+      <c r="K104" s="60" t="s">
         <v>3409</v>
       </c>
-      <c r="L104" s="62" t="s">
+      <c r="L104" s="61" t="s">
         <v>3410</v>
       </c>
     </row>
@@ -44488,13 +46146,13 @@
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L105&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
       </c>
-      <c r="J105" s="59" t="s">
+      <c r="J105" s="58" t="s">
         <v>2899</v>
       </c>
-      <c r="K105" s="59" t="s">
+      <c r="K105" s="58" t="s">
         <v>3411</v>
       </c>
-      <c r="L105" s="60" t="s">
+      <c r="L105" s="59" t="s">
         <v>3412</v>
       </c>
     </row>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEF2546-0A71-42B4-8A0B-5660416DA528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB058A-63E5-4385-85BC-D14DEC5FD068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3406:$B$3786</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sounds!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sounds!$A$1:$H$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StateTable!$A$1:$K$69</definedName>
     <definedName name="mROW">StateTable!$V$2:$X$30</definedName>
     <definedName name="prev">Sounds!$AK$2:$AK$18</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="3984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="4009">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10539,21 +10539,9 @@
     <t>0102_uniqSorryNotYetImplemented.wav</t>
   </si>
   <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>Welcome to RBG configuration: choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself.</t>
-  </si>
-  <si>
     <t>Press just trigger to cycle through sound choices, trigger + any color to choose the sound.</t>
   </si>
   <si>
-    <t>0064_cfg_configLEDInstruct.wav</t>
-  </si>
-  <si>
-    <t>0065_cfg_configOtherInstruct.wav</t>
-  </si>
-  <si>
     <t>mdo47 recording of "Press just trigger to cycle through sound choices, trigger + any color to choose the sound."</t>
   </si>
   <si>
@@ -10569,9 +10557,6 @@
     <t>mdo47 recording of text</t>
   </si>
   <si>
-    <t>(7&lt;&lt;mSHIFT_EFCT_CFGMAXVAL) | mEFCT_SHOOT</t>
-  </si>
-  <si>
     <t>mdo47 recording of FOOF announcement; license is by/3.0/</t>
   </si>
   <si>
@@ -10614,25 +10599,10 @@
     <t>Mnemonic</t>
   </si>
   <si>
-    <t>mEFCT_CFG_INTRO</t>
-  </si>
-  <si>
     <t>mEFCT_UNIQ_SILENCE</t>
   </si>
   <si>
     <t>mEFCT_UNIQ_NOT_IMPL</t>
-  </si>
-  <si>
-    <t>mEFCT_CFG_SND_INSTR</t>
-  </si>
-  <si>
-    <t>mEFCT_CFG_LED_INSTR</t>
-  </si>
-  <si>
-    <t>mEFCT_CFG_OTHR_INSTR</t>
-  </si>
-  <si>
-    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. Choose YELLOW for sounds, GREEN for lights, BLACK for other; then also press trigger. To go back, press trigger all by itself."</t>
   </si>
   <si>
     <t>release solenoid (just in case)</t>
@@ -11567,144 +11537,6 @@
     <t>trigAny3</t>
   </si>
   <si>
-    <r>
-      <t>"trigAny3"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"mINP_TRIG|mINP_BANY|mINP_B07"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <t>trigger and exactly</t>
-  </si>
-  <si>
-    <t>trig + at least one</t>
-  </si>
-  <si>
-    <r>
-      <t>"trigOnly"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"mINP_TRIG"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"trigAny4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"mINP_TRIG|mINP_BANY|mINP_B0F"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"trigAll4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"mINP_TRIG|mINP_B0F"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
     <t>760:getButtonInput() called:  TRIGGER HIGH YELLOW HIGH GREEN HIGH BLACK HIGH EXTRA HIGH LOAD LOW AUDIO_BUSY HIGH that is all</t>
   </si>
   <si>
@@ -12849,6 +12681,129 @@
   </si>
   <si>
     <t>6373: RBG_startEffectSound mSPCL_EFCT_CONFIGURE cfg_curnum 2 cfg_type 2 tmpEfctSound 12</t>
+  </si>
+  <si>
+    <t>(9&lt;&lt;mSHIFT_EFCT_CFGMAXVAL) | mEFCT_SHOOT</t>
+  </si>
+  <si>
+    <t>Welcome to RBG configuration! Your call is important to us.  Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself.</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us.  Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself."</t>
+  </si>
+  <si>
+    <t>TypeChoices</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>OpenBarrel</t>
+  </si>
+  <si>
+    <t>LockAndLoad</t>
+  </si>
+  <si>
+    <t>WaitingForTrigger</t>
+  </si>
+  <si>
+    <t>Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE.</t>
+  </si>
+  <si>
+    <t>ChargeUpForShooting</t>
+  </si>
+  <si>
+    <t>0066__mdo47__TypeChoices.wav</t>
+  </si>
+  <si>
+    <t>0071__mdo47__ChargeUpForShooting.wav</t>
+  </si>
+  <si>
+    <t>0072__mdo47__Shoot.wav</t>
+  </si>
+  <si>
+    <t>0073__mdo47__OpenBarrel.wav</t>
+  </si>
+  <si>
+    <t>0074__mdo47__LockAndLoad.wav</t>
+  </si>
+  <si>
+    <t>0075__mdo47__PowerOn.wav</t>
+  </si>
+  <si>
+    <t>0076__mdo47__WaitingForTrigger.wav</t>
+  </si>
+  <si>
+    <t>0064__mdo47__cfg_configLEDInstruct.wav</t>
+  </si>
+  <si>
+    <t>0065__mdo47__cfg_configOtherInstruct.wav</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE."</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_LED_INSTR</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_OTHR_INSTR</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_TYPE_CHOICES_INSTR</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_CHARGEUP</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SHOOTING</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_OPENBARREL</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_LOCKLOAD</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_POWERON</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_WAITFORTRIG</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect typeCHARGE-UP FOR SHOOTING. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect type SHOOTING. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect type OPEN BARREL. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect type LOCK-AND-LOAD. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect type POWER-ON. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Effect type WAITING-FOR-TRIGGER. Trigger alone for next type."</t>
+  </si>
+  <si>
+    <t>Effect type CHARGE-UP FOR SHOOTING. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>Effect type SHOOTING. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>Effect type OPEN BARREL. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>Effect type LOCK-AND-LOAD. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>Effect type POWER-ON. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>Effect type WAITING-FOR-TRIGGER. Trigger alone for next type.</t>
   </si>
 </sst>
 </file>
@@ -13751,11 +13706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13871,7 +13826,7 @@
         <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3467</v>
+        <v>3457</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -13905,7 +13860,7 @@
         <v>29</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3468</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -13920,7 +13875,7 @@
         <v>35</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3473</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -13951,7 +13906,7 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>3586</v>
+        <v>3576</v>
       </c>
       <c r="V5" t="s">
         <v>3409</v>
@@ -13960,7 +13915,7 @@
         <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3471</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -13978,7 +13933,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -13991,7 +13946,7 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M6" s="63" t="s">
-        <v>3587</v>
+        <v>3577</v>
       </c>
       <c r="V6" t="s">
         <v>3409</v>
@@ -14000,7 +13955,7 @@
         <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3471</v>
+        <v>3461</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -14010,7 +13965,7 @@
         <v/>
       </c>
       <c r="M7" s="63" t="s">
-        <v>3588</v>
+        <v>3578</v>
       </c>
       <c r="V7" t="s">
         <v>3411</v>
@@ -14019,7 +13974,7 @@
         <v>31</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3470</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -14028,7 +13983,7 @@
         <v/>
       </c>
       <c r="M8" s="63" t="s">
-        <v>3589</v>
+        <v>3579</v>
       </c>
       <c r="V8" t="s">
         <v>3414</v>
@@ -14037,7 +13992,7 @@
         <v>34</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3472</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -14046,7 +14001,7 @@
         <v/>
       </c>
       <c r="M9" s="63" t="s">
-        <v>3590</v>
+        <v>3580</v>
       </c>
       <c r="V9" t="s">
         <v>3410</v>
@@ -14055,7 +14010,7 @@
         <v>30</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3469</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -14064,7 +14019,7 @@
         <v/>
       </c>
       <c r="M10" s="63" t="s">
-        <v>3591</v>
+        <v>3581</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>21</v>
@@ -14085,7 +14040,7 @@
         <v>21</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3465</v>
+        <v>3455</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -14117,7 +14072,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>3592</v>
+        <v>3582</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>22</v>
@@ -14129,7 +14084,7 @@
         <v>7</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -14161,7 +14116,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M12" s="63" t="s">
-        <v>3593</v>
+        <v>3583</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>23</v>
@@ -14176,7 +14131,7 @@
         <v>7</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -14194,7 +14149,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -14207,7 +14162,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>3594</v>
+        <v>3584</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>24</v>
@@ -14219,7 +14174,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3456</v>
+        <v>3446</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -14234,7 +14189,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3455</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -14248,7 +14203,7 @@
         <v>24</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
@@ -14284,7 +14239,7 @@
         <v>24</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
@@ -14317,7 +14272,7 @@
         <v>19</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>3464</v>
+        <v>3454</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
@@ -14387,7 +14342,7 @@
         <v>4</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3453</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -14442,7 +14397,7 @@
         <v>3400</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -14461,7 +14416,7 @@
         <v>16</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3461</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -14488,7 +14443,7 @@
         <v>17</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>3462</v>
+        <v>3452</v>
       </c>
       <c r="Z22" s="25"/>
     </row>
@@ -14526,7 +14481,7 @@
         <v>18</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>3463</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -14563,7 +14518,7 @@
         <v>15</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>3460</v>
+        <v>3450</v>
       </c>
       <c r="Z24" s="25"/>
     </row>
@@ -14582,7 +14537,7 @@
         <v>3400</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -14736,7 +14691,7 @@
     </row>
     <row r="34" spans="1:24" ht="45">
       <c r="A34" s="62" t="s">
-        <v>3452</v>
+        <v>3442</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>2711</v>
@@ -14773,7 +14728,7 @@
         <v>28</v>
       </c>
       <c r="X35" s="15" t="s">
-        <v>3467</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -14812,7 +14767,7 @@
         <v>29</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>3468</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -14851,7 +14806,7 @@
         <v>35</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>3473</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -14878,7 +14833,7 @@
         <v>32</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>3471</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="30">
@@ -14913,7 +14868,7 @@
         <v>32</v>
       </c>
       <c r="X39" s="15" t="s">
-        <v>3471</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -14949,7 +14904,7 @@
         <v>31</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>3470</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -14984,7 +14939,7 @@
         <v>34</v>
       </c>
       <c r="X41" s="15" t="s">
-        <v>3472</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -15001,7 +14956,7 @@
         <v>30</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>3469</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -15018,7 +14973,7 @@
         <v>21</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>3465</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -15035,7 +14990,7 @@
         <v>7</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -15052,12 +15007,12 @@
         <v>7</v>
       </c>
       <c r="X45" s="15" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="120">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="135">
       <c r="A46" s="62" t="s">
-        <v>3421</v>
+        <v>3969</v>
       </c>
       <c r="B46" s="82" t="s">
         <v>35</v>
@@ -15066,7 +15021,7 @@
         <v>3401</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3457</v>
+        <v>3447</v>
       </c>
       <c r="E46" s="81" t="s">
         <v>3400</v>
@@ -15090,7 +15045,7 @@
         <v>11</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>3456</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -15102,7 +15057,7 @@
         <v>3401</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3457</v>
+        <v>3447</v>
       </c>
       <c r="E47" s="81" t="s">
         <v>3400</v>
@@ -15126,7 +15081,7 @@
         <v>9</v>
       </c>
       <c r="X47" s="15" t="s">
-        <v>3455</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -15138,7 +15093,7 @@
         <v>3401</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3457</v>
+        <v>3447</v>
       </c>
       <c r="E48" s="81" t="s">
         <v>3400</v>
@@ -15162,7 +15117,7 @@
         <v>24</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -15174,7 +15129,7 @@
         <v>3401</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3457</v>
+        <v>3447</v>
       </c>
       <c r="E49" s="81" t="s">
         <v>3400</v>
@@ -15198,7 +15153,7 @@
         <v>24</v>
       </c>
       <c r="X49" s="15" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -15218,7 +15173,7 @@
         <v>19</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>3464</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -15252,7 +15207,7 @@
         <v>3404</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3447</v>
+        <v>3441</v>
       </c>
       <c r="E52" s="81" t="s">
         <v>3400</v>
@@ -15273,7 +15228,7 @@
         <v>4</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>3453</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -15306,7 +15261,7 @@
         <v>3406</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3447</v>
+        <v>3441</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>3400</v>
@@ -15327,7 +15282,7 @@
         <v>16</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>3461</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -15346,7 +15301,7 @@
         <v>17</v>
       </c>
       <c r="X55" s="15" t="s">
-        <v>3462</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="45">
@@ -15363,7 +15318,7 @@
       <c r="E56" s="76"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
-        <v>3430</v>
+        <v>3968</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>3408</v>
@@ -15385,7 +15340,7 @@
         <v>18</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>3463</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -15404,12 +15359,12 @@
         <v>15</v>
       </c>
       <c r="X57" s="15" t="s">
-        <v>3460</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="75">
       <c r="A58" s="62" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="B58" s="82" t="s">
         <v>35</v>
@@ -15418,7 +15373,7 @@
         <v>3411</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3458</v>
+        <v>3448</v>
       </c>
       <c r="E58" s="81" t="s">
         <v>3400</v>
@@ -15469,7 +15424,7 @@
         <v>3409</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>3415</v>
@@ -15506,7 +15461,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="45">
+    <row r="65" spans="1:11" ht="45">
       <c r="B65" s="10" t="s">
         <v>3418</v>
       </c>
@@ -15521,107 +15476,183 @@
         <v>#define mCFG_SOUND_CHOICE 35</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="1:11">
       <c r="K66" s="9" t="str">
         <f>IF(LEN(C66),VLOOKUP(C66,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="1:11">
       <c r="K67" s="9" t="str">
         <f>IF(LEN(C67),VLOOKUP(C67,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="1:11">
       <c r="K68" s="9" t="str">
         <f>IF(LEN(C68),VLOOKUP(C68,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="1:11">
       <c r="K69" s="9" t="str">
         <f>IF(LEN(C69),VLOOKUP(C69,mROW,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="4:6">
+    <row r="71" spans="1:11" ht="75">
+      <c r="A71" s="62" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B71">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E71" t="str">
+        <f>TEXT(B71,"0000")&amp;"__mdo47__"&amp;D71&amp;".wav"</f>
+        <v>0066__mdo47__TypeChoices.wav</v>
+      </c>
+      <c r="G71" t="str">
+        <f>"mdo47 recording of """&amp;A71&amp;""""</f>
+        <v>mdo47 recording of "Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE."</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="45">
+      <c r="A72" s="62" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ref="E72:E77" si="1">TEXT(B72,"0000")&amp;"__mdo47__"&amp;D72&amp;".wav"</f>
+        <v>0071__mdo47__ChargeUpForShooting.wav</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" ref="G72:G77" si="2">"mdo47 recording of """&amp;A72&amp;""""</f>
+        <v>mdo47 recording of "Effect type CHARGE-UP FOR SHOOTING. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30">
+      <c r="A73" s="62" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>0072__mdo47__Shoot.wav</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>mdo47 recording of "Effect type SHOOTING. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="45">
+      <c r="A74" s="62" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>0073__mdo47__OpenBarrel.wav</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>mdo47 recording of "Effect type OPEN BARREL. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="45">
+      <c r="A75" s="62" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>0074__mdo47__LockAndLoad.wav</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>mdo47 recording of "Effect type LOCK-AND-LOAD. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="45">
+      <c r="A76" s="62" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>0075__mdo47__PowerOn.wav</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>mdo47 recording of "Effect type POWER-ON. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45">
+      <c r="A77" s="62" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>0076__mdo47__WaitingForTrigger.wav</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>mdo47 recording of "Effect type WAITING-FOR-TRIGGER. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
       <c r="F84" s="63"/>
-    </row>
-    <row r="85" spans="4:6">
-      <c r="F85" s="63"/>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="D86" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F86" s="63" t="s">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F87" s="63" t="s">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6">
-      <c r="D88" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F88" s="63" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6">
-      <c r="D89" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F89" s="63" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6">
-      <c r="D90" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F90" s="63" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6">
-      <c r="D91" t="s">
-        <v>3598</v>
-      </c>
-      <c r="F91" s="63" t="s">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6">
-      <c r="D92" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F92" s="63" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6">
-      <c r="D93" t="s">
-        <v>3598</v>
-      </c>
-      <c r="F93" s="63" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6">
-      <c r="D94" t="s">
-        <v>3597</v>
-      </c>
-      <c r="F94" s="63" t="s">
-        <v>3601</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K69" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
@@ -15829,7 +15860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
   <dimension ref="A1:M3786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3460" workbookViewId="0">
+    <sheetView topLeftCell="A3460" workbookViewId="0">
       <selection activeCell="A3477" sqref="A3477"/>
     </sheetView>
   </sheetViews>
@@ -42161,7 +42192,7 @@
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3459</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -42172,7 +42203,7 @@
     </row>
     <row r="3280" spans="2:2">
       <c r="B3280" t="s">
-        <v>3474</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -42187,7 +42218,7 @@
     </row>
     <row r="3283" spans="1:2">
       <c r="B3283" t="s">
-        <v>3538</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -42208,7 +42239,7 @@
         <v>12</v>
       </c>
       <c r="B3287" t="s">
-        <v>3539</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -42216,7 +42247,7 @@
         <v>16</v>
       </c>
       <c r="B3288" s="24" t="s">
-        <v>3475</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -42224,7 +42255,7 @@
         <v>42</v>
       </c>
       <c r="B3289" s="11" t="s">
-        <v>3476</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -42232,7 +42263,7 @@
         <v>47</v>
       </c>
       <c r="B3290" s="15" t="s">
-        <v>3477</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -42240,7 +42271,7 @@
         <v>57</v>
       </c>
       <c r="B3291" s="24" t="s">
-        <v>3478</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -42248,7 +42279,7 @@
         <v>76</v>
       </c>
       <c r="B3292" t="s">
-        <v>3540</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -42256,7 +42287,7 @@
         <v>80</v>
       </c>
       <c r="B3293" s="24" t="s">
-        <v>3479</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -42264,7 +42295,7 @@
         <v>760</v>
       </c>
       <c r="B3294" t="s">
-        <v>3541</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -42272,7 +42303,7 @@
         <v>761</v>
       </c>
       <c r="B3295" s="24" t="s">
-        <v>3480</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -42280,7 +42311,7 @@
         <v>773</v>
       </c>
       <c r="B3296" s="11" t="s">
-        <v>3481</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="3297" spans="1:6">
@@ -42288,7 +42319,7 @@
         <v>797</v>
       </c>
       <c r="B3297" s="11" t="s">
-        <v>3482</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="3298" spans="1:6">
@@ -42296,7 +42327,7 @@
         <v>799</v>
       </c>
       <c r="B3298" s="15" t="s">
-        <v>3483</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="3299" spans="1:6">
@@ -42304,7 +42335,7 @@
         <v>806</v>
       </c>
       <c r="B3299" s="24" t="s">
-        <v>3484</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="3300" spans="1:6">
@@ -42312,7 +42343,7 @@
         <v>831</v>
       </c>
       <c r="B3300" t="s">
-        <v>3542</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="3301" spans="1:6">
@@ -42320,7 +42351,7 @@
         <v>832</v>
       </c>
       <c r="B3301" s="24" t="s">
-        <v>3485</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="3302" spans="1:6">
@@ -42328,7 +42359,7 @@
         <v>1332</v>
       </c>
       <c r="B3302" t="s">
-        <v>3543</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="3303" spans="1:6">
@@ -42336,7 +42367,7 @@
         <v>1333</v>
       </c>
       <c r="B3303" s="24" t="s">
-        <v>3486</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="3304" spans="1:6">
@@ -42344,7 +42375,7 @@
         <v>1733</v>
       </c>
       <c r="B3304" s="83" t="s">
-        <v>3574</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="3305" spans="1:6">
@@ -42352,7 +42383,7 @@
         <v>1734</v>
       </c>
       <c r="B3305" s="24" t="s">
-        <v>3487</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="3306" spans="1:6">
@@ -42360,7 +42391,7 @@
         <v>1748</v>
       </c>
       <c r="B3306" s="11" t="s">
-        <v>3488</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="3307" spans="1:6">
@@ -42368,7 +42399,7 @@
         <v>1749</v>
       </c>
       <c r="B3307" t="s">
-        <v>3575</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="3308" spans="1:6">
@@ -42376,7 +42407,7 @@
         <v>1750</v>
       </c>
       <c r="B3308" s="24" t="s">
-        <v>3489</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3309" spans="1:6">
@@ -42384,10 +42415,10 @@
         <v>1751</v>
       </c>
       <c r="B3309" s="15" t="s">
-        <v>3490</v>
+        <v>3480</v>
       </c>
       <c r="F3309" t="s">
-        <v>3581</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="3310" spans="1:6">
@@ -42395,7 +42426,7 @@
         <v>1757</v>
       </c>
       <c r="B3310" t="s">
-        <v>3544</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="3311" spans="1:6">
@@ -42403,7 +42434,7 @@
         <v>1758</v>
       </c>
       <c r="B3311" s="24" t="s">
-        <v>3491</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="3312" spans="1:6">
@@ -42411,7 +42442,7 @@
         <v>1783</v>
       </c>
       <c r="B3312" t="s">
-        <v>3545</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="3313" spans="1:6">
@@ -42419,7 +42450,7 @@
         <v>1784</v>
       </c>
       <c r="B3313" s="24" t="s">
-        <v>3492</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="3314" spans="1:6">
@@ -42427,7 +42458,7 @@
         <v>1884</v>
       </c>
       <c r="B3314" t="s">
-        <v>3577</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="3315" spans="1:6">
@@ -42435,7 +42466,7 @@
         <v>1885</v>
       </c>
       <c r="B3315" s="24" t="s">
-        <v>3493</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="3316" spans="1:6">
@@ -42443,7 +42474,7 @@
         <v>4535</v>
       </c>
       <c r="B3316" t="s">
-        <v>3546</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="3317" spans="1:6">
@@ -42451,7 +42482,7 @@
         <v>4536</v>
       </c>
       <c r="B3317" s="24" t="s">
-        <v>3494</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -42459,7 +42490,7 @@
         <v>4565</v>
       </c>
       <c r="B3318" s="15" t="s">
-        <v>3495</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="3319" spans="1:6">
@@ -42467,7 +42498,7 @@
         <v>4567</v>
       </c>
       <c r="B3319" s="24" t="s">
-        <v>3496</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -42475,7 +42506,7 @@
         <v>4592</v>
       </c>
       <c r="B3320" t="s">
-        <v>3547</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="3321" spans="1:6">
@@ -42483,7 +42514,7 @@
         <v>4842</v>
       </c>
       <c r="B3321" s="83" t="s">
-        <v>3576</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3322" spans="1:6">
@@ -42491,10 +42522,10 @@
         <v>4843</v>
       </c>
       <c r="B3322" s="24" t="s">
-        <v>3497</v>
+        <v>3487</v>
       </c>
       <c r="F3322" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3323" spans="1:6">
@@ -42502,7 +42533,7 @@
         <v>4849</v>
       </c>
       <c r="B3323" s="11" t="s">
-        <v>3498</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -42510,10 +42541,10 @@
         <v>4851</v>
       </c>
       <c r="B3324" s="24" t="s">
-        <v>3499</v>
+        <v>3489</v>
       </c>
       <c r="F3324" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3325" spans="1:6">
@@ -42521,7 +42552,7 @@
         <v>4862</v>
       </c>
       <c r="B3325" s="11" t="s">
-        <v>3500</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="3326" spans="1:6">
@@ -42529,10 +42560,10 @@
         <v>4864</v>
       </c>
       <c r="B3326" s="15" t="s">
-        <v>3501</v>
+        <v>3491</v>
       </c>
       <c r="F3326" t="s">
-        <v>3581</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="3327" spans="1:6">
@@ -42540,7 +42571,7 @@
         <v>4870</v>
       </c>
       <c r="B3327" t="s">
-        <v>3579</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="3328" spans="1:6">
@@ -42548,7 +42579,7 @@
         <v>4871</v>
       </c>
       <c r="B3328" s="24" t="s">
-        <v>3502</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="3329" spans="1:6">
@@ -42556,7 +42587,7 @@
         <v>4872</v>
       </c>
       <c r="B3329" t="s">
-        <v>3548</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="3330" spans="1:6">
@@ -42564,7 +42595,7 @@
         <v>4873</v>
       </c>
       <c r="B3330" s="24" t="s">
-        <v>3503</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="3331" spans="1:6">
@@ -42572,7 +42603,7 @@
         <v>4994</v>
       </c>
       <c r="B3331" t="s">
-        <v>3549</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -42580,7 +42611,7 @@
         <v>4995</v>
       </c>
       <c r="B3332" s="24" t="s">
-        <v>3504</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -42588,7 +42619,7 @@
         <v>5004</v>
       </c>
       <c r="B3333" t="s">
-        <v>3550</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3334" spans="1:6">
@@ -42596,7 +42627,7 @@
         <v>5005</v>
       </c>
       <c r="B3334" s="24" t="s">
-        <v>3505</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="3335" spans="1:6">
@@ -42604,7 +42635,7 @@
         <v>5023</v>
       </c>
       <c r="B3335" t="s">
-        <v>3551</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="3336" spans="1:6">
@@ -42612,7 +42643,7 @@
         <v>5024</v>
       </c>
       <c r="B3336" s="24" t="s">
-        <v>3506</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="3337" spans="1:6">
@@ -42620,7 +42651,7 @@
         <v>5039</v>
       </c>
       <c r="B3337" s="83" t="s">
-        <v>3580</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="3338" spans="1:6">
@@ -42628,10 +42659,10 @@
         <v>5040</v>
       </c>
       <c r="B3338" s="24" t="s">
-        <v>3507</v>
+        <v>3497</v>
       </c>
       <c r="F3338" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3339" spans="1:6">
@@ -42639,7 +42670,7 @@
         <v>5046</v>
       </c>
       <c r="B3339" s="11" t="s">
-        <v>3508</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="3340" spans="1:6">
@@ -42647,10 +42678,10 @@
         <v>5048</v>
       </c>
       <c r="B3340" s="24" t="s">
-        <v>3509</v>
+        <v>3499</v>
       </c>
       <c r="F3340" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3341" spans="1:6">
@@ -42658,10 +42689,10 @@
         <v>5049</v>
       </c>
       <c r="B3341" s="15" t="s">
-        <v>3510</v>
+        <v>3500</v>
       </c>
       <c r="F3341" t="s">
-        <v>3581</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -42669,7 +42700,7 @@
         <v>5055</v>
       </c>
       <c r="B3342" t="s">
-        <v>3552</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="3343" spans="1:6">
@@ -42677,10 +42708,10 @@
         <v>5056</v>
       </c>
       <c r="B3343" s="24" t="s">
-        <v>3511</v>
+        <v>3501</v>
       </c>
       <c r="F3343" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -42688,7 +42719,7 @@
         <v>5057</v>
       </c>
       <c r="B3344" t="s">
-        <v>3553</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -42696,10 +42727,10 @@
         <v>5058</v>
       </c>
       <c r="B3345" s="24" t="s">
-        <v>3512</v>
+        <v>3502</v>
       </c>
       <c r="F3345" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -42707,7 +42738,7 @@
         <v>5060</v>
       </c>
       <c r="B3346" t="s">
-        <v>3554</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -42715,7 +42746,7 @@
         <v>5065</v>
       </c>
       <c r="B3347" t="s">
-        <v>3555</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -42723,7 +42754,7 @@
         <v>5066</v>
       </c>
       <c r="B3348" s="24" t="s">
-        <v>3513</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="3349" spans="1:6">
@@ -42731,7 +42762,7 @@
         <v>5222</v>
       </c>
       <c r="B3349" t="s">
-        <v>3556</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="3350" spans="1:6">
@@ -42739,7 +42770,7 @@
         <v>5223</v>
       </c>
       <c r="B3350" s="24" t="s">
-        <v>3514</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="3351" spans="1:6">
@@ -42747,7 +42778,7 @@
         <v>5251</v>
       </c>
       <c r="B3351" s="83" t="s">
-        <v>3582</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="3352" spans="1:6">
@@ -42755,10 +42786,10 @@
         <v>5252</v>
       </c>
       <c r="B3352" s="24" t="s">
-        <v>3515</v>
+        <v>3505</v>
       </c>
       <c r="F3352" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -42766,10 +42797,10 @@
         <v>5254</v>
       </c>
       <c r="B3353" s="24" t="s">
-        <v>3516</v>
+        <v>3506</v>
       </c>
       <c r="F3353" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3354" spans="1:6">
@@ -42777,7 +42808,7 @@
         <v>5259</v>
       </c>
       <c r="B3354" t="s">
-        <v>3557</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -42785,7 +42816,7 @@
         <v>5261</v>
       </c>
       <c r="B3355" t="s">
-        <v>3558</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="3356" spans="1:6">
@@ -42793,7 +42824,7 @@
         <v>5262</v>
       </c>
       <c r="B3356" s="24" t="s">
-        <v>3517</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="3357" spans="1:6">
@@ -42801,7 +42832,7 @@
         <v>5393</v>
       </c>
       <c r="B3357" t="s">
-        <v>3559</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="3358" spans="1:6">
@@ -42809,7 +42840,7 @@
         <v>5394</v>
       </c>
       <c r="B3358" s="24" t="s">
-        <v>3518</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -42817,7 +42848,7 @@
         <v>5421</v>
       </c>
       <c r="B3359" s="83" t="s">
-        <v>3583</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="3360" spans="1:6">
@@ -42825,10 +42856,10 @@
         <v>5422</v>
       </c>
       <c r="B3360" s="24" t="s">
-        <v>3519</v>
+        <v>3509</v>
       </c>
       <c r="F3360" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3361" spans="1:7">
@@ -42836,10 +42867,10 @@
         <v>5424</v>
       </c>
       <c r="B3361" s="24" t="s">
-        <v>3520</v>
+        <v>3510</v>
       </c>
       <c r="F3361" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3362" spans="1:7">
@@ -42847,7 +42878,7 @@
         <v>5430</v>
       </c>
       <c r="B3362" t="s">
-        <v>3560</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="3363" spans="1:7">
@@ -42855,7 +42886,7 @@
         <v>5438</v>
       </c>
       <c r="B3363" t="s">
-        <v>3561</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="3364" spans="1:7">
@@ -42863,7 +42894,7 @@
         <v>5439</v>
       </c>
       <c r="B3364" s="24" t="s">
-        <v>3521</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="3365" spans="1:7">
@@ -42871,7 +42902,7 @@
         <v>5471</v>
       </c>
       <c r="B3365" t="s">
-        <v>3562</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="3366" spans="1:7">
@@ -42879,7 +42910,7 @@
         <v>5472</v>
       </c>
       <c r="B3366" s="24" t="s">
-        <v>3522</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="3367" spans="1:7">
@@ -42887,7 +42918,7 @@
         <v>5477</v>
       </c>
       <c r="B3367" s="15" t="s">
-        <v>3523</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="3368" spans="1:7">
@@ -42895,7 +42926,7 @@
         <v>5479</v>
       </c>
       <c r="B3368" s="24" t="s">
-        <v>3524</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="3369" spans="1:7">
@@ -42903,7 +42934,7 @@
         <v>5480</v>
       </c>
       <c r="B3369" t="s">
-        <v>3563</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="3370" spans="1:7">
@@ -42911,10 +42942,10 @@
         <v>5481</v>
       </c>
       <c r="B3370" s="24" t="s">
-        <v>3525</v>
+        <v>3515</v>
       </c>
       <c r="G3370" t="s">
-        <v>3584</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="3371" spans="1:7">
@@ -42922,7 +42953,7 @@
         <v>5593</v>
       </c>
       <c r="B3371" t="s">
-        <v>3564</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="3372" spans="1:7">
@@ -42930,7 +42961,7 @@
         <v>5594</v>
       </c>
       <c r="B3372" s="24" t="s">
-        <v>3526</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="3373" spans="1:7">
@@ -42938,7 +42969,7 @@
         <v>5609</v>
       </c>
       <c r="B3373" s="83" t="s">
-        <v>3565</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="3374" spans="1:7">
@@ -42946,7 +42977,7 @@
         <v>5610</v>
       </c>
       <c r="B3374" s="24" t="s">
-        <v>3527</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="3375" spans="1:7">
@@ -42954,7 +42985,7 @@
         <v>5612</v>
       </c>
       <c r="B3375" s="24" t="s">
-        <v>3528</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="3376" spans="1:7">
@@ -42962,7 +42993,7 @@
         <v>5617</v>
       </c>
       <c r="B3376" t="s">
-        <v>3566</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -42970,7 +43001,7 @@
         <v>5620</v>
       </c>
       <c r="B3377" t="s">
-        <v>3567</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -42978,7 +43009,7 @@
         <v>5621</v>
       </c>
       <c r="B3378" s="24" t="s">
-        <v>3529</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -42986,7 +43017,7 @@
         <v>5727</v>
       </c>
       <c r="B3379" t="s">
-        <v>3568</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -42994,7 +43025,7 @@
         <v>5728</v>
       </c>
       <c r="B3380" s="24" t="s">
-        <v>3530</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -43002,7 +43033,7 @@
         <v>5741</v>
       </c>
       <c r="B3381" s="83" t="s">
-        <v>3569</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -43010,7 +43041,7 @@
         <v>5742</v>
       </c>
       <c r="B3382" s="24" t="s">
-        <v>3531</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -43018,7 +43049,7 @@
         <v>5744</v>
       </c>
       <c r="B3383" s="24" t="s">
-        <v>3532</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -43026,7 +43057,7 @@
         <v>5752</v>
       </c>
       <c r="B3384" t="s">
-        <v>3570</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3385" spans="1:2">
@@ -43034,7 +43065,7 @@
         <v>5756</v>
       </c>
       <c r="B3385" t="s">
-        <v>3571</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -43042,7 +43073,7 @@
         <v>5757</v>
       </c>
       <c r="B3386" s="24" t="s">
-        <v>3533</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -43050,7 +43081,7 @@
         <v>5893</v>
       </c>
       <c r="B3387" t="s">
-        <v>3572</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -43058,7 +43089,7 @@
         <v>5894</v>
       </c>
       <c r="B3388" s="24" t="s">
-        <v>3534</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -43066,7 +43097,7 @@
         <v>5899</v>
       </c>
       <c r="B3389" s="15" t="s">
-        <v>3535</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -43074,7 +43105,7 @@
         <v>5901</v>
       </c>
       <c r="B3390" s="24" t="s">
-        <v>3536</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -43082,7 +43113,7 @@
         <v>5902</v>
       </c>
       <c r="B3391" t="s">
-        <v>3573</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -43090,13 +43121,13 @@
         <v>5903</v>
       </c>
       <c r="B3392" s="24" t="s">
-        <v>3537</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="3395" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3396" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3396" s="1" t="s">
-        <v>3603</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="3397" spans="1:2" ht="15.75" thickTop="1"/>
@@ -43107,7 +43138,7 @@
     </row>
     <row r="3399" spans="1:2">
       <c r="B3399" t="s">
-        <v>3474</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -43122,12 +43153,12 @@
     </row>
     <row r="3402" spans="1:2">
       <c r="B3402" t="s">
-        <v>3538</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
       <c r="B3403" t="s">
-        <v>3604</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="3404" spans="1:2">
@@ -43148,7 +43179,7 @@
         <v>3</v>
       </c>
       <c r="B3407" t="s">
-        <v>3605</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="3408" spans="1:2">
@@ -43156,7 +43187,7 @@
         <v>6</v>
       </c>
       <c r="B3408" t="s">
-        <v>3606</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -43164,7 +43195,7 @@
         <v>7</v>
       </c>
       <c r="B3409" s="24" t="s">
-        <v>3607</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -43172,7 +43203,7 @@
         <v>33</v>
       </c>
       <c r="B3410" s="11" t="s">
-        <v>3608</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -43180,7 +43211,7 @@
         <v>38</v>
       </c>
       <c r="B3411" s="15" t="s">
-        <v>3609</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -43188,7 +43219,7 @@
         <v>47</v>
       </c>
       <c r="B3412" t="s">
-        <v>3610</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -43196,7 +43227,7 @@
         <v>48</v>
       </c>
       <c r="B3413" s="24" t="s">
-        <v>3611</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -43204,7 +43235,7 @@
         <v>67</v>
       </c>
       <c r="B3414" t="s">
-        <v>3612</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -43212,7 +43243,7 @@
         <v>70</v>
       </c>
       <c r="B3415" t="s">
-        <v>3613</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -43220,7 +43251,7 @@
         <v>71</v>
       </c>
       <c r="B3416" s="24" t="s">
-        <v>3614</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -43228,7 +43259,7 @@
         <v>760</v>
       </c>
       <c r="B3417" t="s">
-        <v>3602</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -43236,7 +43267,7 @@
         <v>761</v>
       </c>
       <c r="B3418" t="s">
-        <v>3615</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -43244,7 +43275,7 @@
         <v>762</v>
       </c>
       <c r="B3419" s="24" t="s">
-        <v>3616</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -43252,7 +43283,7 @@
         <v>774</v>
       </c>
       <c r="B3420" s="11" t="s">
-        <v>3617</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -43260,7 +43291,7 @@
         <v>800</v>
       </c>
       <c r="B3421" s="11" t="s">
-        <v>3618</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -43268,7 +43299,7 @@
         <v>803</v>
       </c>
       <c r="B3422" s="15" t="s">
-        <v>3619</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -43276,7 +43307,7 @@
         <v>810</v>
       </c>
       <c r="B3423" t="s">
-        <v>3620</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -43284,7 +43315,7 @@
         <v>811</v>
       </c>
       <c r="B3424" s="24" t="s">
-        <v>3621</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="3425" spans="1:6">
@@ -43292,7 +43323,7 @@
         <v>836</v>
       </c>
       <c r="B3425" t="s">
-        <v>3622</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="3426" spans="1:6">
@@ -43300,7 +43331,7 @@
         <v>837</v>
       </c>
       <c r="B3426" t="s">
-        <v>3623</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="3427" spans="1:6">
@@ -43308,7 +43339,7 @@
         <v>838</v>
       </c>
       <c r="B3427" s="24" t="s">
-        <v>3624</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="3428" spans="1:6">
@@ -43316,7 +43347,7 @@
         <v>2527</v>
       </c>
       <c r="B3428" t="s">
-        <v>3625</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="3429" spans="1:6">
@@ -43324,7 +43355,7 @@
         <v>2528</v>
       </c>
       <c r="B3429" t="s">
-        <v>3626</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -43332,7 +43363,7 @@
         <v>2529</v>
       </c>
       <c r="B3430" s="24" t="s">
-        <v>3627</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -43340,7 +43371,7 @@
         <v>2736</v>
       </c>
       <c r="B3431" t="s">
-        <v>3628</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -43348,7 +43379,7 @@
         <v>2737</v>
       </c>
       <c r="B3432" t="s">
-        <v>3629</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -43356,7 +43387,7 @@
         <v>2738</v>
       </c>
       <c r="B3433" s="24" t="s">
-        <v>3630</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -43364,7 +43395,7 @@
         <v>2752</v>
       </c>
       <c r="B3434" s="11" t="s">
-        <v>3631</v>
+        <v>3615</v>
       </c>
       <c r="F3434" s="9" t="s">
         <v>3401</v>
@@ -43375,7 +43406,7 @@
         <v>2754</v>
       </c>
       <c r="B3435" t="s">
-        <v>3632</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="3436" spans="1:6">
@@ -43383,7 +43414,7 @@
         <v>2755</v>
       </c>
       <c r="B3436" s="24" t="s">
-        <v>3633</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="3437" spans="1:6">
@@ -43391,7 +43422,7 @@
         <v>2756</v>
       </c>
       <c r="B3437" s="15" t="s">
-        <v>3634</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="3438" spans="1:6">
@@ -43399,7 +43430,7 @@
         <v>2762</v>
       </c>
       <c r="B3438" t="s">
-        <v>3635</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="3439" spans="1:6">
@@ -43407,7 +43438,7 @@
         <v>2763</v>
       </c>
       <c r="B3439" t="s">
-        <v>3636</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="3440" spans="1:6">
@@ -43415,7 +43446,7 @@
         <v>2764</v>
       </c>
       <c r="B3440" s="24" t="s">
-        <v>3637</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="3441" spans="1:6">
@@ -43423,7 +43454,7 @@
         <v>2789</v>
       </c>
       <c r="B3441" t="s">
-        <v>3638</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="3442" spans="1:6">
@@ -43431,7 +43462,7 @@
         <v>2790</v>
       </c>
       <c r="B3442" t="s">
-        <v>3639</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="3443" spans="1:6">
@@ -43439,7 +43470,7 @@
         <v>2791</v>
       </c>
       <c r="B3443" s="24" t="s">
-        <v>3640</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="3444" spans="1:6">
@@ -43447,7 +43478,7 @@
         <v>4376</v>
       </c>
       <c r="B3444" t="s">
-        <v>3641</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="3445" spans="1:6">
@@ -43455,7 +43486,7 @@
         <v>4377</v>
       </c>
       <c r="B3445" t="s">
-        <v>3642</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="3446" spans="1:6">
@@ -43463,7 +43494,7 @@
         <v>4378</v>
       </c>
       <c r="B3446" s="24" t="s">
-        <v>3643</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -43471,7 +43502,7 @@
         <v>4481</v>
       </c>
       <c r="B3447" t="s">
-        <v>3644</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="3448" spans="1:6">
@@ -43479,7 +43510,7 @@
         <v>4482</v>
       </c>
       <c r="B3448" t="s">
-        <v>3645</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="3449" spans="1:6">
@@ -43487,7 +43518,7 @@
         <v>4483</v>
       </c>
       <c r="B3449" s="24" t="s">
-        <v>3646</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="3450" spans="1:6">
@@ -43495,7 +43526,7 @@
         <v>4504</v>
       </c>
       <c r="B3450" s="11" t="s">
-        <v>3647</v>
+        <v>3631</v>
       </c>
       <c r="F3450" s="9" t="s">
         <v>3410</v>
@@ -43506,7 +43537,7 @@
         <v>4506</v>
       </c>
       <c r="B3451" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -43514,7 +43545,7 @@
         <v>4507</v>
       </c>
       <c r="B3452" s="24" t="s">
-        <v>3649</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -43522,7 +43553,7 @@
         <v>4526</v>
       </c>
       <c r="B3453" s="11" t="s">
-        <v>3650</v>
+        <v>3634</v>
       </c>
       <c r="F3453" s="9" t="s">
         <v>3411</v>
@@ -43533,7 +43564,7 @@
         <v>4527</v>
       </c>
       <c r="B3454" t="s">
-        <v>3651</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -43541,7 +43572,7 @@
         <v>4529</v>
       </c>
       <c r="B3455" s="15" t="s">
-        <v>3652</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="3456" spans="1:6">
@@ -43549,7 +43580,7 @@
         <v>4535</v>
       </c>
       <c r="B3456" t="s">
-        <v>3653</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -43557,7 +43588,7 @@
         <v>4536</v>
       </c>
       <c r="B3457" t="s">
-        <v>3654</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -43565,7 +43596,7 @@
         <v>4537</v>
       </c>
       <c r="B3458" s="24" t="s">
-        <v>3655</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -43573,7 +43604,7 @@
         <v>4544</v>
       </c>
       <c r="B3459" t="s">
-        <v>3656</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -43581,7 +43612,7 @@
         <v>4545</v>
       </c>
       <c r="B3460" t="s">
-        <v>3657</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -43589,7 +43620,7 @@
         <v>4546</v>
       </c>
       <c r="B3461" s="24" t="s">
-        <v>3658</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -43597,7 +43628,7 @@
         <v>4553</v>
       </c>
       <c r="B3462" t="s">
-        <v>3659</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -43605,7 +43636,7 @@
         <v>4554</v>
       </c>
       <c r="B3463" t="s">
-        <v>3660</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -43613,7 +43644,7 @@
         <v>4555</v>
       </c>
       <c r="B3464" s="24" t="s">
-        <v>3661</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -43621,7 +43652,7 @@
         <v>5024</v>
       </c>
       <c r="B3465" t="s">
-        <v>3662</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -43629,7 +43660,7 @@
         <v>5025</v>
       </c>
       <c r="B3466" t="s">
-        <v>3663</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -43637,7 +43668,7 @@
         <v>5026</v>
       </c>
       <c r="B3467" s="24" t="s">
-        <v>3664</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -43645,7 +43676,7 @@
         <v>5031</v>
       </c>
       <c r="B3468" s="15" t="s">
-        <v>3665</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -43653,7 +43684,7 @@
         <v>5033</v>
       </c>
       <c r="B3469" t="s">
-        <v>3666</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -43661,7 +43692,7 @@
         <v>5034</v>
       </c>
       <c r="B3470" s="24" t="s">
-        <v>3667</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -43669,7 +43700,7 @@
         <v>5035</v>
       </c>
       <c r="B3471" t="s">
-        <v>3668</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -43677,7 +43708,7 @@
         <v>5036</v>
       </c>
       <c r="B3472" t="s">
-        <v>3669</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="3473" spans="1:6">
@@ -43685,7 +43716,7 @@
         <v>5037</v>
       </c>
       <c r="B3473" s="24" t="s">
-        <v>3670</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="3474" spans="1:6">
@@ -43693,7 +43724,7 @@
         <v>5104</v>
       </c>
       <c r="B3474" t="s">
-        <v>3671</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="3475" spans="1:6">
@@ -43701,7 +43732,7 @@
         <v>5105</v>
       </c>
       <c r="B3475" t="s">
-        <v>3672</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="3476" spans="1:6">
@@ -43709,7 +43740,7 @@
         <v>5106</v>
       </c>
       <c r="B3476" s="24" t="s">
-        <v>3673</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="3477" spans="1:6">
@@ -43717,7 +43748,7 @@
         <v>5112</v>
       </c>
       <c r="B3477" s="11" t="s">
-        <v>3674</v>
+        <v>3658</v>
       </c>
       <c r="F3477" s="9" t="s">
         <v>3409</v>
@@ -43728,7 +43759,7 @@
         <v>5114</v>
       </c>
       <c r="B3478" t="s">
-        <v>3675</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="3479" spans="1:6">
@@ -43736,7 +43767,7 @@
         <v>5115</v>
       </c>
       <c r="B3479" s="24" t="s">
-        <v>3676</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="3480" spans="1:6">
@@ -43744,7 +43775,7 @@
         <v>5116</v>
       </c>
       <c r="B3480" t="s">
-        <v>3677</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="3481" spans="1:6">
@@ -43752,7 +43783,7 @@
         <v>5149</v>
       </c>
       <c r="B3481" t="s">
-        <v>3678</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="3482" spans="1:6">
@@ -43760,7 +43791,7 @@
         <v>5250</v>
       </c>
       <c r="B3482" t="s">
-        <v>3679</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -43768,7 +43799,7 @@
         <v>5251</v>
       </c>
       <c r="B3483" s="24" t="s">
-        <v>3680</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="3484" spans="1:6">
@@ -43776,7 +43807,7 @@
         <v>5257</v>
       </c>
       <c r="B3484" s="11" t="s">
-        <v>3681</v>
+        <v>3665</v>
       </c>
       <c r="F3484" s="9" t="s">
         <v>3414</v>
@@ -43787,7 +43818,7 @@
         <v>5258</v>
       </c>
       <c r="B3485" t="s">
-        <v>3682</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="3486" spans="1:6">
@@ -43795,7 +43826,7 @@
         <v>5259</v>
       </c>
       <c r="B3486" t="s">
-        <v>3683</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="3487" spans="1:6">
@@ -43803,7 +43834,7 @@
         <v>5260</v>
       </c>
       <c r="B3487" s="24" t="s">
-        <v>3684</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="3488" spans="1:6">
@@ -43811,7 +43842,7 @@
         <v>5274</v>
       </c>
       <c r="B3488" s="11" t="s">
-        <v>3685</v>
+        <v>3669</v>
       </c>
       <c r="F3488" s="9" t="s">
         <v>3409</v>
@@ -43822,7 +43853,7 @@
         <v>5277</v>
       </c>
       <c r="B3489" t="s">
-        <v>3686</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -43830,7 +43861,7 @@
         <v>5290</v>
       </c>
       <c r="B3490" t="s">
-        <v>3687</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -43838,7 +43869,7 @@
         <v>5458</v>
       </c>
       <c r="B3491" t="s">
-        <v>3688</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -43846,7 +43877,7 @@
         <v>5459</v>
       </c>
       <c r="B3492" t="s">
-        <v>3689</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -43854,7 +43885,7 @@
         <v>5460</v>
       </c>
       <c r="B3493" s="24" t="s">
-        <v>3690</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -43862,7 +43893,7 @@
         <v>5465</v>
       </c>
       <c r="B3494" t="s">
-        <v>3691</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -43870,7 +43901,7 @@
         <v>5472</v>
       </c>
       <c r="B3495" t="s">
-        <v>3692</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -43878,7 +43909,7 @@
         <v>5479</v>
       </c>
       <c r="B3496" t="s">
-        <v>3693</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -43886,7 +43917,7 @@
         <v>5486</v>
       </c>
       <c r="B3497" t="s">
-        <v>3694</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -43894,7 +43925,7 @@
         <v>5493</v>
       </c>
       <c r="B3498" t="s">
-        <v>3695</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -43902,7 +43933,7 @@
         <v>5500</v>
       </c>
       <c r="B3499" t="s">
-        <v>3696</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3500" spans="1:2">
@@ -43910,7 +43941,7 @@
         <v>5507</v>
       </c>
       <c r="B3500" t="s">
-        <v>3697</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -43918,7 +43949,7 @@
         <v>5514</v>
       </c>
       <c r="B3501" t="s">
-        <v>3698</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -43926,7 +43957,7 @@
         <v>5521</v>
       </c>
       <c r="B3502" t="s">
-        <v>3699</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="3503" spans="1:2">
@@ -43934,7 +43965,7 @@
         <v>5524</v>
       </c>
       <c r="B3503" t="s">
-        <v>3700</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -43942,7 +43973,7 @@
         <v>5527</v>
       </c>
       <c r="B3504" t="s">
-        <v>3701</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -43950,7 +43981,7 @@
         <v>5530</v>
       </c>
       <c r="B3505" t="s">
-        <v>3702</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -43958,7 +43989,7 @@
         <v>5533</v>
       </c>
       <c r="B3506" t="s">
-        <v>3703</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -43966,7 +43997,7 @@
         <v>5536</v>
       </c>
       <c r="B3507" t="s">
-        <v>3704</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -43974,7 +44005,7 @@
         <v>5539</v>
       </c>
       <c r="B3508" t="s">
-        <v>3705</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -43982,7 +44013,7 @@
         <v>5542</v>
       </c>
       <c r="B3509" t="s">
-        <v>3706</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -43990,7 +44021,7 @@
         <v>5545</v>
       </c>
       <c r="B3510" t="s">
-        <v>3707</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -43998,7 +44029,7 @@
         <v>5548</v>
       </c>
       <c r="B3511" t="s">
-        <v>3708</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -44006,7 +44037,7 @@
         <v>5551</v>
       </c>
       <c r="B3512" t="s">
-        <v>3709</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -44014,7 +44045,7 @@
         <v>5554</v>
       </c>
       <c r="B3513" t="s">
-        <v>3710</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -44022,7 +44053,7 @@
         <v>5557</v>
       </c>
       <c r="B3514" t="s">
-        <v>3711</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -44030,7 +44061,7 @@
         <v>5560</v>
       </c>
       <c r="B3515" t="s">
-        <v>3712</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -44038,7 +44069,7 @@
         <v>5563</v>
       </c>
       <c r="B3516" t="s">
-        <v>3713</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -44046,7 +44077,7 @@
         <v>5566</v>
       </c>
       <c r="B3517" t="s">
-        <v>3714</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -44054,7 +44085,7 @@
         <v>5569</v>
       </c>
       <c r="B3518" t="s">
-        <v>3715</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -44062,7 +44093,7 @@
         <v>5572</v>
       </c>
       <c r="B3519" t="s">
-        <v>3716</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -44070,7 +44101,7 @@
         <v>5575</v>
       </c>
       <c r="B3520" t="s">
-        <v>3717</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -44078,7 +44109,7 @@
         <v>5578</v>
       </c>
       <c r="B3521" t="s">
-        <v>3718</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -44086,7 +44117,7 @@
         <v>5581</v>
       </c>
       <c r="B3522" t="s">
-        <v>3719</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -44094,7 +44125,7 @@
         <v>5584</v>
       </c>
       <c r="B3523" t="s">
-        <v>3720</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -44102,7 +44133,7 @@
         <v>5587</v>
       </c>
       <c r="B3524" t="s">
-        <v>3721</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -44110,7 +44141,7 @@
         <v>5590</v>
       </c>
       <c r="B3525" t="s">
-        <v>3722</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -44118,7 +44149,7 @@
         <v>5593</v>
       </c>
       <c r="B3526" t="s">
-        <v>3723</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -44126,7 +44157,7 @@
         <v>5596</v>
       </c>
       <c r="B3527" t="s">
-        <v>3724</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -44134,7 +44165,7 @@
         <v>5599</v>
       </c>
       <c r="B3528" t="s">
-        <v>3725</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="3529" spans="1:2">
@@ -44142,7 +44173,7 @@
         <v>5602</v>
       </c>
       <c r="B3529" t="s">
-        <v>3726</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -44150,7 +44181,7 @@
         <v>5605</v>
       </c>
       <c r="B3530" t="s">
-        <v>3727</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -44158,7 +44189,7 @@
         <v>5608</v>
       </c>
       <c r="B3531" t="s">
-        <v>3728</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -44166,7 +44197,7 @@
         <v>5611</v>
       </c>
       <c r="B3532" t="s">
-        <v>3729</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -44174,7 +44205,7 @@
         <v>5614</v>
       </c>
       <c r="B3533" t="s">
-        <v>3730</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -44182,7 +44213,7 @@
         <v>5617</v>
       </c>
       <c r="B3534" t="s">
-        <v>3731</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="3535" spans="1:2">
@@ -44190,7 +44221,7 @@
         <v>5620</v>
       </c>
       <c r="B3535" t="s">
-        <v>3732</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -44198,7 +44229,7 @@
         <v>5623</v>
       </c>
       <c r="B3536" t="s">
-        <v>3733</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -44206,7 +44237,7 @@
         <v>5626</v>
       </c>
       <c r="B3537" t="s">
-        <v>3734</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -44214,7 +44245,7 @@
         <v>5629</v>
       </c>
       <c r="B3538" t="s">
-        <v>3735</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -44222,7 +44253,7 @@
         <v>5632</v>
       </c>
       <c r="B3539" t="s">
-        <v>3736</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -44230,7 +44261,7 @@
         <v>5635</v>
       </c>
       <c r="B3540" t="s">
-        <v>3737</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -44238,7 +44269,7 @@
         <v>5638</v>
       </c>
       <c r="B3541" t="s">
-        <v>3738</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -44246,7 +44277,7 @@
         <v>5641</v>
       </c>
       <c r="B3542" t="s">
-        <v>3739</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -44254,7 +44285,7 @@
         <v>5644</v>
       </c>
       <c r="B3543" t="s">
-        <v>3740</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -44262,7 +44293,7 @@
         <v>5647</v>
       </c>
       <c r="B3544" t="s">
-        <v>3741</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="3545" spans="1:2">
@@ -44270,7 +44301,7 @@
         <v>5650</v>
       </c>
       <c r="B3545" t="s">
-        <v>3742</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -44278,7 +44309,7 @@
         <v>5653</v>
       </c>
       <c r="B3546" t="s">
-        <v>3743</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="3547" spans="1:2">
@@ -44286,7 +44317,7 @@
         <v>5656</v>
       </c>
       <c r="B3547" t="s">
-        <v>3744</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -44294,7 +44325,7 @@
         <v>5659</v>
       </c>
       <c r="B3548" t="s">
-        <v>3745</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="3549" spans="1:2">
@@ -44302,7 +44333,7 @@
         <v>5662</v>
       </c>
       <c r="B3549" t="s">
-        <v>3746</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -44310,7 +44341,7 @@
         <v>5665</v>
       </c>
       <c r="B3550" t="s">
-        <v>3747</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -44318,7 +44349,7 @@
         <v>5668</v>
       </c>
       <c r="B3551" t="s">
-        <v>3748</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -44326,7 +44357,7 @@
         <v>5671</v>
       </c>
       <c r="B3552" t="s">
-        <v>3749</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
@@ -44334,7 +44365,7 @@
         <v>5674</v>
       </c>
       <c r="B3553" t="s">
-        <v>3750</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -44342,7 +44373,7 @@
         <v>5677</v>
       </c>
       <c r="B3554" t="s">
-        <v>3751</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -44350,7 +44381,7 @@
         <v>5680</v>
       </c>
       <c r="B3555" t="s">
-        <v>3752</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -44358,7 +44389,7 @@
         <v>5683</v>
       </c>
       <c r="B3556" t="s">
-        <v>3753</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="3557" spans="1:2">
@@ -44366,7 +44397,7 @@
         <v>5686</v>
       </c>
       <c r="B3557" t="s">
-        <v>3754</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -44374,7 +44405,7 @@
         <v>5689</v>
       </c>
       <c r="B3558" t="s">
-        <v>3755</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -44382,7 +44413,7 @@
         <v>5692</v>
       </c>
       <c r="B3559" t="s">
-        <v>3756</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="3560" spans="1:2">
@@ -44390,7 +44421,7 @@
         <v>5695</v>
       </c>
       <c r="B3560" t="s">
-        <v>3757</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -44398,7 +44429,7 @@
         <v>5698</v>
       </c>
       <c r="B3561" t="s">
-        <v>3758</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -44406,7 +44437,7 @@
         <v>5701</v>
       </c>
       <c r="B3562" t="s">
-        <v>3759</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -44414,7 +44445,7 @@
         <v>5704</v>
       </c>
       <c r="B3563" t="s">
-        <v>3760</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -44422,7 +44453,7 @@
         <v>5707</v>
       </c>
       <c r="B3564" t="s">
-        <v>3761</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -44430,7 +44461,7 @@
         <v>5710</v>
       </c>
       <c r="B3565" t="s">
-        <v>3762</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -44438,7 +44469,7 @@
         <v>5713</v>
       </c>
       <c r="B3566" t="s">
-        <v>3763</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="3567" spans="1:2">
@@ -44446,7 +44477,7 @@
         <v>5716</v>
       </c>
       <c r="B3567" t="s">
-        <v>3764</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -44454,7 +44485,7 @@
         <v>5719</v>
       </c>
       <c r="B3568" t="s">
-        <v>3765</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -44462,7 +44493,7 @@
         <v>5722</v>
       </c>
       <c r="B3569" t="s">
-        <v>3766</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -44470,7 +44501,7 @@
         <v>5725</v>
       </c>
       <c r="B3570" t="s">
-        <v>3767</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -44478,7 +44509,7 @@
         <v>5728</v>
       </c>
       <c r="B3571" t="s">
-        <v>3768</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -44486,7 +44517,7 @@
         <v>5731</v>
       </c>
       <c r="B3572" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -44494,7 +44525,7 @@
         <v>5734</v>
       </c>
       <c r="B3573" t="s">
-        <v>3770</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -44502,7 +44533,7 @@
         <v>5737</v>
       </c>
       <c r="B3574" t="s">
-        <v>3771</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -44510,7 +44541,7 @@
         <v>5740</v>
       </c>
       <c r="B3575" t="s">
-        <v>3772</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -44518,7 +44549,7 @@
         <v>5743</v>
       </c>
       <c r="B3576" t="s">
-        <v>3773</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -44526,7 +44557,7 @@
         <v>5746</v>
       </c>
       <c r="B3577" t="s">
-        <v>3774</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -44534,7 +44565,7 @@
         <v>5749</v>
       </c>
       <c r="B3578" t="s">
-        <v>3775</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -44542,7 +44573,7 @@
         <v>5752</v>
       </c>
       <c r="B3579" t="s">
-        <v>3776</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -44550,7 +44581,7 @@
         <v>5755</v>
       </c>
       <c r="B3580" t="s">
-        <v>3777</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -44558,7 +44589,7 @@
         <v>5758</v>
       </c>
       <c r="B3581" t="s">
-        <v>3778</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -44566,7 +44597,7 @@
         <v>5761</v>
       </c>
       <c r="B3582" t="s">
-        <v>3779</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -44574,7 +44605,7 @@
         <v>5764</v>
       </c>
       <c r="B3583" t="s">
-        <v>3780</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -44582,7 +44613,7 @@
         <v>5767</v>
       </c>
       <c r="B3584" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -44590,7 +44621,7 @@
         <v>5770</v>
       </c>
       <c r="B3585" t="s">
-        <v>3782</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -44598,7 +44629,7 @@
         <v>5773</v>
       </c>
       <c r="B3586" t="s">
-        <v>3783</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -44606,7 +44637,7 @@
         <v>5776</v>
       </c>
       <c r="B3587" t="s">
-        <v>3784</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -44614,7 +44645,7 @@
         <v>5779</v>
       </c>
       <c r="B3588" t="s">
-        <v>3785</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -44622,7 +44653,7 @@
         <v>5782</v>
       </c>
       <c r="B3589" t="s">
-        <v>3786</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -44630,7 +44661,7 @@
         <v>5785</v>
       </c>
       <c r="B3590" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -44638,7 +44669,7 @@
         <v>5788</v>
       </c>
       <c r="B3591" t="s">
-        <v>3788</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -44646,7 +44677,7 @@
         <v>5791</v>
       </c>
       <c r="B3592" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -44654,7 +44685,7 @@
         <v>5794</v>
       </c>
       <c r="B3593" t="s">
-        <v>3790</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -44662,7 +44693,7 @@
         <v>5797</v>
       </c>
       <c r="B3594" t="s">
-        <v>3791</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -44670,7 +44701,7 @@
         <v>5800</v>
       </c>
       <c r="B3595" t="s">
-        <v>3792</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -44678,7 +44709,7 @@
         <v>5803</v>
       </c>
       <c r="B3596" t="s">
-        <v>3793</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -44686,7 +44717,7 @@
         <v>5806</v>
       </c>
       <c r="B3597" t="s">
-        <v>3794</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -44694,7 +44725,7 @@
         <v>5809</v>
       </c>
       <c r="B3598" t="s">
-        <v>3795</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -44702,7 +44733,7 @@
         <v>5812</v>
       </c>
       <c r="B3599" t="s">
-        <v>3796</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -44710,7 +44741,7 @@
         <v>5815</v>
       </c>
       <c r="B3600" t="s">
-        <v>3797</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -44718,7 +44749,7 @@
         <v>5818</v>
       </c>
       <c r="B3601" t="s">
-        <v>3798</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -44726,7 +44757,7 @@
         <v>5821</v>
       </c>
       <c r="B3602" t="s">
-        <v>3799</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -44734,7 +44765,7 @@
         <v>5824</v>
       </c>
       <c r="B3603" t="s">
-        <v>3800</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="3604" spans="1:2">
@@ -44742,7 +44773,7 @@
         <v>5827</v>
       </c>
       <c r="B3604" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -44750,7 +44781,7 @@
         <v>5830</v>
       </c>
       <c r="B3605" t="s">
-        <v>3802</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -44758,7 +44789,7 @@
         <v>5833</v>
       </c>
       <c r="B3606" t="s">
-        <v>3803</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -44766,7 +44797,7 @@
         <v>5836</v>
       </c>
       <c r="B3607" t="s">
-        <v>3804</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -44774,7 +44805,7 @@
         <v>5839</v>
       </c>
       <c r="B3608" t="s">
-        <v>3805</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -44782,7 +44813,7 @@
         <v>5842</v>
       </c>
       <c r="B3609" t="s">
-        <v>3806</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -44790,7 +44821,7 @@
         <v>5845</v>
       </c>
       <c r="B3610" t="s">
-        <v>3807</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -44798,7 +44829,7 @@
         <v>5848</v>
       </c>
       <c r="B3611" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -44806,7 +44837,7 @@
         <v>5851</v>
       </c>
       <c r="B3612" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -44814,7 +44845,7 @@
         <v>5854</v>
       </c>
       <c r="B3613" t="s">
-        <v>3810</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -44822,7 +44853,7 @@
         <v>5857</v>
       </c>
       <c r="B3614" t="s">
-        <v>3811</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -44830,7 +44861,7 @@
         <v>5860</v>
       </c>
       <c r="B3615" t="s">
-        <v>3812</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -44838,7 +44869,7 @@
         <v>5863</v>
       </c>
       <c r="B3616" t="s">
-        <v>3813</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -44846,7 +44877,7 @@
         <v>5866</v>
       </c>
       <c r="B3617" t="s">
-        <v>3814</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -44854,7 +44885,7 @@
         <v>5869</v>
       </c>
       <c r="B3618" t="s">
-        <v>3815</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -44862,7 +44893,7 @@
         <v>5872</v>
       </c>
       <c r="B3619" t="s">
-        <v>3816</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -44870,7 +44901,7 @@
         <v>5875</v>
       </c>
       <c r="B3620" t="s">
-        <v>3817</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -44878,7 +44909,7 @@
         <v>5878</v>
       </c>
       <c r="B3621" t="s">
-        <v>3818</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3622" spans="1:2">
@@ -44886,7 +44917,7 @@
         <v>5881</v>
       </c>
       <c r="B3622" t="s">
-        <v>3819</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -44894,7 +44925,7 @@
         <v>5884</v>
       </c>
       <c r="B3623" t="s">
-        <v>3820</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
@@ -44902,7 +44933,7 @@
         <v>5887</v>
       </c>
       <c r="B3624" t="s">
-        <v>3821</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -44910,7 +44941,7 @@
         <v>5890</v>
       </c>
       <c r="B3625" t="s">
-        <v>3822</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -44918,7 +44949,7 @@
         <v>5893</v>
       </c>
       <c r="B3626" t="s">
-        <v>3823</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -44926,7 +44957,7 @@
         <v>5896</v>
       </c>
       <c r="B3627" t="s">
-        <v>3824</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -44934,7 +44965,7 @@
         <v>5899</v>
       </c>
       <c r="B3628" t="s">
-        <v>3825</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -44942,7 +44973,7 @@
         <v>5902</v>
       </c>
       <c r="B3629" t="s">
-        <v>3826</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -44950,7 +44981,7 @@
         <v>5905</v>
       </c>
       <c r="B3630" t="s">
-        <v>3827</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -44958,7 +44989,7 @@
         <v>5908</v>
       </c>
       <c r="B3631" t="s">
-        <v>3828</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -44966,7 +44997,7 @@
         <v>5911</v>
       </c>
       <c r="B3632" t="s">
-        <v>3829</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -44974,7 +45005,7 @@
         <v>5914</v>
       </c>
       <c r="B3633" t="s">
-        <v>3830</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -44982,7 +45013,7 @@
         <v>5917</v>
       </c>
       <c r="B3634" t="s">
-        <v>3831</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -44990,7 +45021,7 @@
         <v>5920</v>
       </c>
       <c r="B3635" t="s">
-        <v>3832</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -44998,7 +45029,7 @@
         <v>5923</v>
       </c>
       <c r="B3636" t="s">
-        <v>3833</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -45006,7 +45037,7 @@
         <v>5926</v>
       </c>
       <c r="B3637" t="s">
-        <v>3834</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -45014,7 +45045,7 @@
         <v>5929</v>
       </c>
       <c r="B3638" t="s">
-        <v>3835</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -45022,7 +45053,7 @@
         <v>5932</v>
       </c>
       <c r="B3639" t="s">
-        <v>3836</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -45030,7 +45061,7 @@
         <v>5935</v>
       </c>
       <c r="B3640" t="s">
-        <v>3837</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -45038,7 +45069,7 @@
         <v>5938</v>
       </c>
       <c r="B3641" t="s">
-        <v>3838</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -45046,7 +45077,7 @@
         <v>5941</v>
       </c>
       <c r="B3642" t="s">
-        <v>3839</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -45054,7 +45085,7 @@
         <v>5944</v>
       </c>
       <c r="B3643" t="s">
-        <v>3840</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -45062,7 +45093,7 @@
         <v>5947</v>
       </c>
       <c r="B3644" t="s">
-        <v>3841</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -45070,7 +45101,7 @@
         <v>5950</v>
       </c>
       <c r="B3645" t="s">
-        <v>3842</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -45078,7 +45109,7 @@
         <v>5953</v>
       </c>
       <c r="B3646" t="s">
-        <v>3843</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -45086,7 +45117,7 @@
         <v>5956</v>
       </c>
       <c r="B3647" t="s">
-        <v>3844</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -45094,7 +45125,7 @@
         <v>5959</v>
       </c>
       <c r="B3648" t="s">
-        <v>3845</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -45102,7 +45133,7 @@
         <v>5962</v>
       </c>
       <c r="B3649" t="s">
-        <v>3846</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -45110,7 +45141,7 @@
         <v>5965</v>
       </c>
       <c r="B3650" t="s">
-        <v>3847</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -45118,7 +45149,7 @@
         <v>5968</v>
       </c>
       <c r="B3651" t="s">
-        <v>3848</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -45126,7 +45157,7 @@
         <v>5971</v>
       </c>
       <c r="B3652" t="s">
-        <v>3849</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
@@ -45134,7 +45165,7 @@
         <v>5974</v>
       </c>
       <c r="B3653" t="s">
-        <v>3850</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -45142,7 +45173,7 @@
         <v>5977</v>
       </c>
       <c r="B3654" t="s">
-        <v>3851</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -45150,7 +45181,7 @@
         <v>5980</v>
       </c>
       <c r="B3655" t="s">
-        <v>3852</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -45158,7 +45189,7 @@
         <v>5983</v>
       </c>
       <c r="B3656" t="s">
-        <v>3853</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -45166,7 +45197,7 @@
         <v>5986</v>
       </c>
       <c r="B3657" t="s">
-        <v>3854</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -45174,7 +45205,7 @@
         <v>5989</v>
       </c>
       <c r="B3658" t="s">
-        <v>3855</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -45182,7 +45213,7 @@
         <v>5992</v>
       </c>
       <c r="B3659" t="s">
-        <v>3856</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -45190,7 +45221,7 @@
         <v>5995</v>
       </c>
       <c r="B3660" t="s">
-        <v>3857</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -45198,7 +45229,7 @@
         <v>5998</v>
       </c>
       <c r="B3661" t="s">
-        <v>3858</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -45206,7 +45237,7 @@
         <v>6001</v>
       </c>
       <c r="B3662" t="s">
-        <v>3859</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -45214,7 +45245,7 @@
         <v>6004</v>
       </c>
       <c r="B3663" t="s">
-        <v>3860</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -45222,7 +45253,7 @@
         <v>6007</v>
       </c>
       <c r="B3664" t="s">
-        <v>3861</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -45230,7 +45261,7 @@
         <v>6010</v>
       </c>
       <c r="B3665" t="s">
-        <v>3862</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -45238,7 +45269,7 @@
         <v>6013</v>
       </c>
       <c r="B3666" t="s">
-        <v>3863</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -45246,7 +45277,7 @@
         <v>6016</v>
       </c>
       <c r="B3667" t="s">
-        <v>3864</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -45254,7 +45285,7 @@
         <v>6019</v>
       </c>
       <c r="B3668" t="s">
-        <v>3865</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -45262,7 +45293,7 @@
         <v>6022</v>
       </c>
       <c r="B3669" t="s">
-        <v>3866</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -45270,7 +45301,7 @@
         <v>6025</v>
       </c>
       <c r="B3670" t="s">
-        <v>3867</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -45278,7 +45309,7 @@
         <v>6028</v>
       </c>
       <c r="B3671" t="s">
-        <v>3868</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -45286,7 +45317,7 @@
         <v>6031</v>
       </c>
       <c r="B3672" t="s">
-        <v>3869</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3673" spans="1:2">
@@ -45294,7 +45325,7 @@
         <v>6034</v>
       </c>
       <c r="B3673" t="s">
-        <v>3870</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -45302,7 +45333,7 @@
         <v>6037</v>
       </c>
       <c r="B3674" t="s">
-        <v>3871</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -45310,7 +45341,7 @@
         <v>6040</v>
       </c>
       <c r="B3675" t="s">
-        <v>3872</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -45318,7 +45349,7 @@
         <v>6043</v>
       </c>
       <c r="B3676" t="s">
-        <v>3873</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -45326,7 +45357,7 @@
         <v>6046</v>
       </c>
       <c r="B3677" t="s">
-        <v>3874</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -45334,7 +45365,7 @@
         <v>6049</v>
       </c>
       <c r="B3678" t="s">
-        <v>3875</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -45342,7 +45373,7 @@
         <v>6052</v>
       </c>
       <c r="B3679" t="s">
-        <v>3876</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -45350,7 +45381,7 @@
         <v>6055</v>
       </c>
       <c r="B3680" t="s">
-        <v>3877</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
@@ -45358,7 +45389,7 @@
         <v>6058</v>
       </c>
       <c r="B3681" t="s">
-        <v>3878</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -45366,7 +45397,7 @@
         <v>6061</v>
       </c>
       <c r="B3682" t="s">
-        <v>3879</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -45374,7 +45405,7 @@
         <v>6064</v>
       </c>
       <c r="B3683" t="s">
-        <v>3880</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -45382,7 +45413,7 @@
         <v>6067</v>
       </c>
       <c r="B3684" t="s">
-        <v>3881</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -45390,7 +45421,7 @@
         <v>6070</v>
       </c>
       <c r="B3685" t="s">
-        <v>3882</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -45398,7 +45429,7 @@
         <v>6073</v>
       </c>
       <c r="B3686" t="s">
-        <v>3883</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -45406,7 +45437,7 @@
         <v>6076</v>
       </c>
       <c r="B3687" t="s">
-        <v>3884</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -45414,7 +45445,7 @@
         <v>6079</v>
       </c>
       <c r="B3688" t="s">
-        <v>3885</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -45422,7 +45453,7 @@
         <v>6082</v>
       </c>
       <c r="B3689" t="s">
-        <v>3886</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -45430,7 +45461,7 @@
         <v>6085</v>
       </c>
       <c r="B3690" t="s">
-        <v>3887</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -45438,7 +45469,7 @@
         <v>6088</v>
       </c>
       <c r="B3691" t="s">
-        <v>3888</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -45446,7 +45477,7 @@
         <v>6091</v>
       </c>
       <c r="B3692" t="s">
-        <v>3889</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -45454,7 +45485,7 @@
         <v>6094</v>
       </c>
       <c r="B3693" t="s">
-        <v>3890</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -45462,7 +45493,7 @@
         <v>6097</v>
       </c>
       <c r="B3694" t="s">
-        <v>3891</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -45470,7 +45501,7 @@
         <v>6100</v>
       </c>
       <c r="B3695" t="s">
-        <v>3892</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -45478,7 +45509,7 @@
         <v>6103</v>
       </c>
       <c r="B3696" t="s">
-        <v>3893</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -45486,7 +45517,7 @@
         <v>6106</v>
       </c>
       <c r="B3697" t="s">
-        <v>3894</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -45494,7 +45525,7 @@
         <v>6109</v>
       </c>
       <c r="B3698" t="s">
-        <v>3895</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -45502,7 +45533,7 @@
         <v>6112</v>
       </c>
       <c r="B3699" t="s">
-        <v>3896</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -45510,7 +45541,7 @@
         <v>6115</v>
       </c>
       <c r="B3700" t="s">
-        <v>3897</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -45518,7 +45549,7 @@
         <v>6118</v>
       </c>
       <c r="B3701" t="s">
-        <v>3898</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -45526,7 +45557,7 @@
         <v>6121</v>
       </c>
       <c r="B3702" t="s">
-        <v>3899</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -45534,7 +45565,7 @@
         <v>6124</v>
       </c>
       <c r="B3703" t="s">
-        <v>3900</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -45542,7 +45573,7 @@
         <v>6127</v>
       </c>
       <c r="B3704" t="s">
-        <v>3901</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -45550,7 +45581,7 @@
         <v>6130</v>
       </c>
       <c r="B3705" t="s">
-        <v>3902</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -45558,7 +45589,7 @@
         <v>6133</v>
       </c>
       <c r="B3706" t="s">
-        <v>3903</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -45566,7 +45597,7 @@
         <v>6136</v>
       </c>
       <c r="B3707" t="s">
-        <v>3904</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -45574,7 +45605,7 @@
         <v>6139</v>
       </c>
       <c r="B3708" t="s">
-        <v>3905</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -45582,7 +45613,7 @@
         <v>6142</v>
       </c>
       <c r="B3709" t="s">
-        <v>3906</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -45590,7 +45621,7 @@
         <v>6145</v>
       </c>
       <c r="B3710" t="s">
-        <v>3907</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -45598,7 +45629,7 @@
         <v>6148</v>
       </c>
       <c r="B3711" t="s">
-        <v>3908</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -45606,7 +45637,7 @@
         <v>6151</v>
       </c>
       <c r="B3712" t="s">
-        <v>3909</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -45614,7 +45645,7 @@
         <v>6154</v>
       </c>
       <c r="B3713" t="s">
-        <v>3910</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="3714" spans="1:2">
@@ -45622,7 +45653,7 @@
         <v>6157</v>
       </c>
       <c r="B3714" t="s">
-        <v>3911</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -45630,7 +45661,7 @@
         <v>6160</v>
       </c>
       <c r="B3715" t="s">
-        <v>3912</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -45638,7 +45669,7 @@
         <v>6163</v>
       </c>
       <c r="B3716" t="s">
-        <v>3913</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -45646,7 +45677,7 @@
         <v>6166</v>
       </c>
       <c r="B3717" t="s">
-        <v>3914</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -45654,7 +45685,7 @@
         <v>6169</v>
       </c>
       <c r="B3718" t="s">
-        <v>3915</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -45662,7 +45693,7 @@
         <v>6172</v>
       </c>
       <c r="B3719" t="s">
-        <v>3916</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -45670,7 +45701,7 @@
         <v>6175</v>
       </c>
       <c r="B3720" t="s">
-        <v>3917</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -45678,7 +45709,7 @@
         <v>6178</v>
       </c>
       <c r="B3721" t="s">
-        <v>3918</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -45686,7 +45717,7 @@
         <v>6181</v>
       </c>
       <c r="B3722" t="s">
-        <v>3919</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -45694,7 +45725,7 @@
         <v>6184</v>
       </c>
       <c r="B3723" t="s">
-        <v>3920</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="3724" spans="1:2">
@@ -45702,7 +45733,7 @@
         <v>6187</v>
       </c>
       <c r="B3724" t="s">
-        <v>3921</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="3725" spans="1:2">
@@ -45710,7 +45741,7 @@
         <v>6190</v>
       </c>
       <c r="B3725" t="s">
-        <v>3922</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -45718,7 +45749,7 @@
         <v>6193</v>
       </c>
       <c r="B3726" t="s">
-        <v>3923</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -45726,7 +45757,7 @@
         <v>6196</v>
       </c>
       <c r="B3727" t="s">
-        <v>3924</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -45734,7 +45765,7 @@
         <v>6199</v>
       </c>
       <c r="B3728" t="s">
-        <v>3925</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -45742,7 +45773,7 @@
         <v>6202</v>
       </c>
       <c r="B3729" t="s">
-        <v>3926</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -45750,7 +45781,7 @@
         <v>6205</v>
       </c>
       <c r="B3730" t="s">
-        <v>3927</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -45758,7 +45789,7 @@
         <v>6208</v>
       </c>
       <c r="B3731" t="s">
-        <v>3928</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -45766,7 +45797,7 @@
         <v>6211</v>
       </c>
       <c r="B3732" t="s">
-        <v>3929</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -45774,7 +45805,7 @@
         <v>6214</v>
       </c>
       <c r="B3733" t="s">
-        <v>3930</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -45782,7 +45813,7 @@
         <v>6217</v>
       </c>
       <c r="B3734" t="s">
-        <v>3931</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -45790,7 +45821,7 @@
         <v>6220</v>
       </c>
       <c r="B3735" t="s">
-        <v>3932</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -45798,7 +45829,7 @@
         <v>6223</v>
       </c>
       <c r="B3736" t="s">
-        <v>3933</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -45806,7 +45837,7 @@
         <v>6226</v>
       </c>
       <c r="B3737" t="s">
-        <v>3934</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -45814,7 +45845,7 @@
         <v>6229</v>
       </c>
       <c r="B3738" t="s">
-        <v>3935</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -45822,7 +45853,7 @@
         <v>6232</v>
       </c>
       <c r="B3739" t="s">
-        <v>3936</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -45830,7 +45861,7 @@
         <v>6235</v>
       </c>
       <c r="B3740" t="s">
-        <v>3937</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -45838,7 +45869,7 @@
         <v>6238</v>
       </c>
       <c r="B3741" t="s">
-        <v>3938</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -45846,7 +45877,7 @@
         <v>6241</v>
       </c>
       <c r="B3742" t="s">
-        <v>3939</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -45854,7 +45885,7 @@
         <v>6244</v>
       </c>
       <c r="B3743" t="s">
-        <v>3940</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -45862,7 +45893,7 @@
         <v>6247</v>
       </c>
       <c r="B3744" t="s">
-        <v>3941</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -45870,7 +45901,7 @@
         <v>6250</v>
       </c>
       <c r="B3745" t="s">
-        <v>3942</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -45878,7 +45909,7 @@
         <v>6253</v>
       </c>
       <c r="B3746" t="s">
-        <v>3943</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -45886,7 +45917,7 @@
         <v>6256</v>
       </c>
       <c r="B3747" t="s">
-        <v>3944</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -45894,7 +45925,7 @@
         <v>6259</v>
       </c>
       <c r="B3748" t="s">
-        <v>3945</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -45902,7 +45933,7 @@
         <v>6262</v>
       </c>
       <c r="B3749" t="s">
-        <v>3946</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -45910,7 +45941,7 @@
         <v>6265</v>
       </c>
       <c r="B3750" t="s">
-        <v>3947</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -45918,7 +45949,7 @@
         <v>6268</v>
       </c>
       <c r="B3751" t="s">
-        <v>3948</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -45926,7 +45957,7 @@
         <v>6271</v>
       </c>
       <c r="B3752" t="s">
-        <v>3949</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -45934,7 +45965,7 @@
         <v>6274</v>
       </c>
       <c r="B3753" t="s">
-        <v>3950</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -45942,7 +45973,7 @@
         <v>6277</v>
       </c>
       <c r="B3754" t="s">
-        <v>3951</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -45950,7 +45981,7 @@
         <v>6280</v>
       </c>
       <c r="B3755" t="s">
-        <v>3952</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -45958,7 +45989,7 @@
         <v>6283</v>
       </c>
       <c r="B3756" t="s">
-        <v>3953</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -45966,7 +45997,7 @@
         <v>6286</v>
       </c>
       <c r="B3757" t="s">
-        <v>3954</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -45974,7 +46005,7 @@
         <v>6289</v>
       </c>
       <c r="B3758" t="s">
-        <v>3955</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -45982,7 +46013,7 @@
         <v>6292</v>
       </c>
       <c r="B3759" t="s">
-        <v>3956</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -45990,7 +46021,7 @@
         <v>6295</v>
       </c>
       <c r="B3760" t="s">
-        <v>3957</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -45998,7 +46029,7 @@
         <v>6298</v>
       </c>
       <c r="B3761" t="s">
-        <v>3958</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -46006,7 +46037,7 @@
         <v>6301</v>
       </c>
       <c r="B3762" t="s">
-        <v>3959</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -46014,7 +46045,7 @@
         <v>6304</v>
       </c>
       <c r="B3763" t="s">
-        <v>3960</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -46022,7 +46053,7 @@
         <v>6307</v>
       </c>
       <c r="B3764" t="s">
-        <v>3961</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -46030,7 +46061,7 @@
         <v>6310</v>
       </c>
       <c r="B3765" t="s">
-        <v>3962</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -46038,7 +46069,7 @@
         <v>6313</v>
       </c>
       <c r="B3766" t="s">
-        <v>3963</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -46046,7 +46077,7 @@
         <v>6316</v>
       </c>
       <c r="B3767" t="s">
-        <v>3964</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -46054,7 +46085,7 @@
         <v>6319</v>
       </c>
       <c r="B3768" t="s">
-        <v>3965</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -46062,7 +46093,7 @@
         <v>6322</v>
       </c>
       <c r="B3769" t="s">
-        <v>3966</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -46070,7 +46101,7 @@
         <v>6325</v>
       </c>
       <c r="B3770" t="s">
-        <v>3967</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -46078,7 +46109,7 @@
         <v>6328</v>
       </c>
       <c r="B3771" t="s">
-        <v>3968</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -46086,7 +46117,7 @@
         <v>6331</v>
       </c>
       <c r="B3772" t="s">
-        <v>3969</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -46094,7 +46125,7 @@
         <v>6334</v>
       </c>
       <c r="B3773" t="s">
-        <v>3970</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -46102,7 +46133,7 @@
         <v>6337</v>
       </c>
       <c r="B3774" t="s">
-        <v>3971</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -46110,7 +46141,7 @@
         <v>6340</v>
       </c>
       <c r="B3775" t="s">
-        <v>3972</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -46118,7 +46149,7 @@
         <v>6343</v>
       </c>
       <c r="B3776" t="s">
-        <v>3973</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -46126,7 +46157,7 @@
         <v>6346</v>
       </c>
       <c r="B3777" t="s">
-        <v>3974</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -46134,7 +46165,7 @@
         <v>6349</v>
       </c>
       <c r="B3778" t="s">
-        <v>3975</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -46142,7 +46173,7 @@
         <v>6352</v>
       </c>
       <c r="B3779" t="s">
-        <v>3976</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -46150,7 +46181,7 @@
         <v>6355</v>
       </c>
       <c r="B3780" t="s">
-        <v>3977</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -46158,7 +46189,7 @@
         <v>6358</v>
       </c>
       <c r="B3781" t="s">
-        <v>3978</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -46166,7 +46197,7 @@
         <v>6361</v>
       </c>
       <c r="B3782" t="s">
-        <v>3979</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -46174,7 +46205,7 @@
         <v>6364</v>
       </c>
       <c r="B3783" t="s">
-        <v>3980</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -46182,7 +46213,7 @@
         <v>6367</v>
       </c>
       <c r="B3784" t="s">
-        <v>3981</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -46190,7 +46221,7 @@
         <v>6370</v>
       </c>
       <c r="B3785" t="s">
-        <v>3982</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -46198,7 +46229,7 @@
         <v>6373</v>
       </c>
       <c r="B3786" t="s">
-        <v>3983</v>
+        <v>3967</v>
       </c>
     </row>
   </sheetData>
@@ -48664,10 +48695,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:AK107"/>
+  <dimension ref="A1:AK114"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -48712,7 +48743,7 @@
         <v>2857</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
@@ -48835,10 +48866,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>2853</v>
@@ -49057,10 +49088,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>2852</v>
@@ -49084,10 +49115,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>2852</v>
@@ -49111,10 +49142,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>2852</v>
@@ -49465,10 +49496,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>3378</v>
@@ -49492,10 +49523,10 @@
         <v>42</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>3378</v>
@@ -49519,10 +49550,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>3585</v>
+        <v>3575</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="E31" s="70" t="s">
         <v>3378</v>
@@ -49565,7 +49596,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:11" ht="20.25">
+    <row r="33" spans="1:12" ht="20.25">
       <c r="A33" s="65" t="s">
         <v>2851</v>
       </c>
@@ -49592,7 +49623,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:11" ht="30">
+    <row r="34" spans="1:12" ht="30">
       <c r="A34" s="65" t="s">
         <v>2851</v>
       </c>
@@ -49619,7 +49650,7 @@
       </c>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" s="65" t="s">
         <v>2851</v>
       </c>
@@ -49646,7 +49677,7 @@
       </c>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:12" ht="30">
       <c r="A36" s="70" t="s">
         <v>2851</v>
       </c>
@@ -49673,7 +49704,7 @@
       </c>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:11" ht="20.25">
+    <row r="37" spans="1:12" ht="20.25">
       <c r="A37" s="70" t="s">
         <v>2851</v>
       </c>
@@ -49700,7 +49731,7 @@
       </c>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:11" ht="30">
+    <row r="38" spans="1:12" ht="30">
       <c r="A38" s="70" t="s">
         <v>2851</v>
       </c>
@@ -49727,7 +49758,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:12" ht="30">
       <c r="A39" s="70" t="s">
         <v>2851</v>
       </c>
@@ -49753,21 +49784,21 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="75">
-      <c r="A40" s="70" t="s">
-        <v>3420</v>
+    <row r="40" spans="1:12" ht="75">
+      <c r="A40" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="B40" s="70">
         <v>62</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>3451</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>3420</v>
+        <v>3970</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>2867</v>
@@ -49779,24 +49810,28 @@
         <v>3377</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="45">
-      <c r="A41" s="70" t="s">
-        <v>3420</v>
+        <v>3447</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" ref="L40:L43" si="0">"#define "&amp;I40&amp;" "&amp;B40</f>
+        <v>#define mEFCT_UNIQ_INTRO 62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45">
+      <c r="A41" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="B41" s="70">
         <v>63</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>3425</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>3420</v>
+        <v>3421</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>2867</v>
@@ -49810,22 +49845,26 @@
       <c r="I41" s="27" t="s">
         <v>3448</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="45">
-      <c r="A42" s="70" t="s">
-        <v>3420</v>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>#define mEFCT_UNIQ_SND_INSTR 63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45">
+      <c r="A42" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="B42" s="70">
         <v>64</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>3423</v>
+        <v>3985</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>3426</v>
-      </c>
-      <c r="E42" s="70" t="s">
-        <v>3420</v>
+        <v>3422</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>2867</v>
@@ -49837,24 +49876,28 @@
         <v>3377</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="45">
-      <c r="A43" s="70" t="s">
-        <v>3420</v>
+        <v>3988</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>#define mEFCT_UNIQ_LED_INSTR 64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45">
+      <c r="A43" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="B43" s="70">
         <v>65</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>3424</v>
+        <v>3986</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>3427</v>
-      </c>
-      <c r="E43" s="70" t="s">
-        <v>3420</v>
+        <v>3423</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>3382</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>2867</v>
@@ -49866,21 +49909,25 @@
         <v>3377</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+        <v>3989</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>#define mEFCT_UNIQ_OTHR_INSTR 65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="71" t="s">
         <v>3382</v>
       </c>
       <c r="B44" s="70">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>3381</v>
-      </c>
-      <c r="D44" s="71" t="s">
-        <v>3428</v>
+        <v>3978</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>3987</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>3382</v>
@@ -49895,21 +49942,25 @@
         <v>3377</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.25">
+        <v>3990</v>
+      </c>
+      <c r="L44" t="str">
+        <f>"#define "&amp;I44&amp;" "&amp;B44</f>
+        <v>#define mEFCT_UNIQ_TYPE_CHOICES_INSTR 66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30">
       <c r="A45" s="71" t="s">
         <v>3382</v>
       </c>
       <c r="B45" s="70">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>3419</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>3429</v>
+        <v>3979</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>3997</v>
       </c>
       <c r="E45" s="71" t="s">
         <v>3382</v>
@@ -49924,225 +49975,407 @@
         <v>3377</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.25">
-      <c r="E46" s="77"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.25">
-      <c r="E47" s="77"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="K48" t="s">
+        <v>3991</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" ref="L45:L52" si="1">"#define "&amp;I45&amp;" "&amp;B45</f>
+        <v>#define mEFCT_UNIQ_CHARGEUP 71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30">
+      <c r="A46" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B46" s="70">
+        <v>72</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G46" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>3992</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_SHOOTING 72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30">
+      <c r="A47" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B47" s="70">
+        <v>73</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G47" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>3993</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_OPENBARREL 73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30">
+      <c r="A48" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B48" s="70">
+        <v>74</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>3994</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_LOCKLOAD 74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="30">
+      <c r="A49" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B49" s="70">
+        <v>75</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>4001</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G49" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H49" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>3995</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_POWERON 75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="30">
+      <c r="A50" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B50" s="70">
+        <v>76</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>4002</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G50" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>3996</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_WAITFORTRIG 76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A51" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B51" s="70">
+        <v>101</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G51" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>3440</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_SILENCE 101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="20.25">
+      <c r="A52" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B52" s="70">
+        <v>102</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E52" s="71" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F52" s="68" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G52" s="72" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>3441</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_NOT_IMPL 102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="20.25">
+      <c r="E53" s="77"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:18" ht="20.25">
+      <c r="E54" s="77"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="K55" t="s">
         <v>3360</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="K49" t="s">
+    <row r="56" spans="1:18">
+      <c r="K56" t="s">
         <v>3361</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="K50" t="s">
+    <row r="57" spans="1:18">
+      <c r="K57" t="s">
         <v>3362</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="K51" t="s">
+    <row r="58" spans="1:18">
+      <c r="K58" t="s">
         <v>3363</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="K52" t="s">
+    <row r="59" spans="1:18">
+      <c r="K59" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="K53" t="s">
+    <row r="60" spans="1:18">
+      <c r="K60" t="s">
         <v>3365</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="K54" t="s">
+    <row r="61" spans="1:18">
+      <c r="K61" t="s">
         <v>3366</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R61" t="s">
         <v>2941</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="20.25">
-      <c r="A55" s="55" t="s">
+    <row r="62" spans="1:18" ht="20.25">
+      <c r="A62" s="55" t="s">
         <v>2853</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="35" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D62" s="34" t="s">
         <v>3357</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E62" s="34" t="s">
         <v>2853</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F62" s="35" t="s">
         <v>2879</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>2882</v>
       </c>
-      <c r="H55" s="52" t="s">
+      <c r="H62" s="52" t="s">
         <v>2881</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K62" t="s">
         <v>3367</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R62" t="s">
         <v>2942</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="20.25">
-      <c r="A56" s="55" t="s">
+    <row r="63" spans="1:18" ht="20.25">
+      <c r="A63" s="55" t="s">
         <v>2853</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="54" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="54" t="s">
         <v>2868</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D63" s="34" t="s">
         <v>3357</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E63" s="34" t="s">
         <v>2853</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F63" s="35" t="s">
         <v>2867</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G63" s="35" t="s">
         <v>2870</v>
       </c>
-      <c r="H56" s="52" t="s">
+      <c r="H63" s="52" t="s">
         <v>2869</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R63" t="s">
         <v>2943</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="30.75">
-      <c r="A57" s="19" t="s">
+    <row r="64" spans="1:18" ht="30.75">
+      <c r="A64" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B64" s="19">
         <v>57</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C64" s="33" t="s">
         <v>2888</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D64" s="53" t="s">
         <v>3369</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E64" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F64" s="35" t="s">
         <v>2859</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G64" s="35" t="s">
         <v>2928</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H64" s="19" t="s">
         <v>2939</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="20.25">
-      <c r="A58" s="19" t="s">
+    <row r="65" spans="1:18" ht="20.25">
+      <c r="A65" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B65" s="31">
         <v>58</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C65" s="33" t="s">
         <v>2887</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D65" s="53" t="s">
         <v>2886</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E65" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F65" s="35" t="s">
         <v>2879</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G65" s="35" t="s">
         <v>2927</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H65" s="19" t="s">
         <v>2938</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="20.25">
-      <c r="A59" s="6"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" ht="20.25">
-      <c r="A60" s="6"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" ht="20.25">
-      <c r="A61" s="6"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" ht="20.25">
-      <c r="A62" s="6"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:18" ht="20.25">
-      <c r="A63" s="6"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" ht="20.25">
-      <c r="D64" s="56"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:18" ht="20.25">
-      <c r="D65" s="56"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="6"/>
-    </row>
     <row r="66" spans="1:18" ht="20.25">
+      <c r="A66" s="6"/>
       <c r="D66" s="56"/>
       <c r="E66" s="6"/>
       <c r="F66" s="36"/>
@@ -50150,9 +50383,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:18" ht="20.25">
-      <c r="A67" s="6" t="s">
-        <v>3383</v>
-      </c>
+      <c r="A67" s="6"/>
       <c r="D67" s="56"/>
       <c r="E67" s="6"/>
       <c r="F67" s="36"/>
@@ -50160,9 +50391,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:18" ht="20.25">
-      <c r="A68" t="s">
-        <v>3397</v>
-      </c>
+      <c r="A68" s="6"/>
       <c r="D68" s="56"/>
       <c r="E68" s="6"/>
       <c r="F68" s="36"/>
@@ -50170,9 +50399,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:18" ht="20.25">
-      <c r="A69" t="s">
-        <v>3398</v>
-      </c>
+      <c r="A69" s="6"/>
       <c r="D69" s="56"/>
       <c r="E69" s="6"/>
       <c r="F69" s="36"/>
@@ -50180,9 +50407,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:18" ht="20.25">
-      <c r="A70" t="s">
-        <v>3385</v>
-      </c>
+      <c r="A70" s="6"/>
       <c r="D70" s="56"/>
       <c r="E70" s="6"/>
       <c r="F70" s="36"/>
@@ -50190,722 +50415,783 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:18" ht="20.25">
-      <c r="A71" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J71&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K71&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L71&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M71&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>2855</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>2856</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>2857</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>2858</v>
-      </c>
+      <c r="D71" s="56"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:18" ht="20.25">
-      <c r="A72" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M72&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>3393</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>3396</v>
-      </c>
-      <c r="L72" s="29" t="s">
-        <v>3394</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>3395</v>
-      </c>
+      <c r="D72" s="56"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:18" ht="20.25">
-      <c r="A73" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M73&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>2864</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>2865</v>
-      </c>
-      <c r="M73" s="28" t="s">
-        <v>2866</v>
-      </c>
-      <c r="R73" t="str">
-        <f>"| "&amp;J73&amp;" | "&amp;K73&amp;" | "&amp;L73&amp;" | "&amp;M73&amp;" |"</f>
-        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
-      </c>
+      <c r="D73" s="56"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:18" ht="20.25">
-      <c r="A74" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M74&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
-      </c>
-      <c r="J74" s="51" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>2888</v>
-      </c>
-      <c r="L74" t="s">
-        <v>2939</v>
-      </c>
-      <c r="M74" s="28" t="s">
-        <v>2928</v>
-      </c>
-      <c r="R74" t="str">
-        <f>"| "&amp;J74&amp;" | "&amp;K74&amp;" | "&amp;L74&amp;" | "&amp;M74&amp;" |"</f>
-        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
-      </c>
+      <c r="A74" s="6" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D74" s="56"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:18" ht="20.25">
-      <c r="A75" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M75&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J75" s="51" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>2887</v>
-      </c>
-      <c r="L75" t="s">
-        <v>2938</v>
-      </c>
-      <c r="M75" s="28" t="s">
-        <v>2927</v>
-      </c>
-      <c r="R75" t="str">
-        <f>"| "&amp;J75&amp;" | "&amp;K75&amp;" | "&amp;L75&amp;" | "&amp;M75&amp;" |"</f>
-        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
-      </c>
+      <c r="A75" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D75" s="56"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:18" ht="20.25">
-      <c r="A76" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M76&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J76" s="51" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>2885</v>
-      </c>
-      <c r="L76" t="s">
-        <v>2937</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>2926</v>
-      </c>
-      <c r="R76" t="str">
-        <f>"| "&amp;J76&amp;" | "&amp;K76&amp;" | "&amp;L76&amp;" | "&amp;M76&amp;" |"</f>
-        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
-      </c>
+      <c r="A76" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:18" ht="20.25">
-      <c r="A77" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M77&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
-      </c>
-      <c r="J77" s="51" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>2883</v>
-      </c>
-      <c r="L77" t="s">
-        <v>2936</v>
-      </c>
-      <c r="M77" s="28" t="s">
-        <v>2926</v>
-      </c>
-      <c r="Q77" s="29"/>
-      <c r="R77" t="str">
-        <f>"| "&amp;J77&amp;" | "&amp;K77&amp;" | "&amp;L77&amp;" | "&amp;M77&amp;" |"</f>
-        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
-      </c>
+      <c r="A77" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D77" s="56"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:18" ht="20.25">
       <c r="A78" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M78&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>2880</v>
-      </c>
-      <c r="L78" s="29" t="s">
-        <v>2881</v>
-      </c>
-      <c r="M78" s="28" t="s">
-        <v>2882</v>
-      </c>
-      <c r="R78" t="str">
-        <f t="shared" ref="R78:R79" si="0">"| "&amp;J78&amp;" | "&amp;K78&amp;" | "&amp;L78&amp;" | "&amp;M78&amp;" |"</f>
-        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M78&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>2858</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="20.25">
       <c r="A79" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M79&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>2868</v>
+        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>3393</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>3396</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>2869</v>
-      </c>
-      <c r="M79" s="28" t="s">
-        <v>2870</v>
-      </c>
-      <c r="R79" t="str">
-        <f t="shared" si="0"/>
-        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
+        <v>3394</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>3395</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="20.25">
       <c r="A80" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M80&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
-      </c>
-      <c r="J80" s="51" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>2854</v>
-      </c>
-      <c r="L80" t="s">
-        <v>2933</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>2865</v>
       </c>
       <c r="M80" s="28" t="s">
-        <v>2919</v>
+        <v>2866</v>
       </c>
       <c r="R80" t="str">
         <f>"| "&amp;J80&amp;" | "&amp;K80&amp;" | "&amp;L80&amp;" | "&amp;M80&amp;" |"</f>
-        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
+        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="20.25">
       <c r="A81" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M81&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>2867</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
+      </c>
+      <c r="J81" s="51" t="s">
+        <v>2859</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>2849</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>2934</v>
+        <v>2888</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2939</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>2920</v>
+        <v>2928</v>
       </c>
       <c r="R81" t="str">
         <f>"| "&amp;J81&amp;" | "&amp;K81&amp;" | "&amp;L81&amp;" | "&amp;M81&amp;" |"</f>
-        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
+        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25">
       <c r="A82" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M82&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
-      </c>
-      <c r="J82" s="28" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K82" t="s">
-        <v>2901</v>
-      </c>
-      <c r="L82" s="29" t="s">
-        <v>2903</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J82" s="51" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2938</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>2900</v>
+        <v>2927</v>
       </c>
       <c r="R82" t="str">
         <f>"| "&amp;J82&amp;" | "&amp;K82&amp;" | "&amp;L82&amp;" | "&amp;M82&amp;" |"</f>
-        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
+        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="20.25">
       <c r="A83" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M83&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
-      </c>
-      <c r="J83" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J83" s="51" t="s">
         <v>2867</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>2847</v>
+        <v>2885</v>
       </c>
       <c r="L83" t="s">
-        <v>2930</v>
+        <v>2937</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="R83" t="str">
         <f>"| "&amp;J83&amp;" | "&amp;K83&amp;" | "&amp;L83&amp;" | "&amp;M83&amp;" |"</f>
-        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
+        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20.25">
       <c r="A84" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M84&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
-      </c>
-      <c r="J84" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J84" s="51" t="s">
         <v>2859</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>2845</v>
+        <v>2883</v>
       </c>
       <c r="L84" t="s">
-        <v>2931</v>
+        <v>2936</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>2922</v>
-      </c>
+        <v>2926</v>
+      </c>
+      <c r="Q84" s="29"/>
       <c r="R84" t="str">
         <f>"| "&amp;J84&amp;" | "&amp;K84&amp;" | "&amp;L84&amp;" | "&amp;M84&amp;" |"</f>
-        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
+        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="20.25">
       <c r="A85" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M85&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
-      </c>
-      <c r="J85" s="28" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K85" t="s">
-        <v>2897</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>2880</v>
       </c>
       <c r="L85" s="29" t="s">
-        <v>2898</v>
+        <v>2881</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>2895</v>
+        <v>2882</v>
       </c>
       <c r="R85" t="str">
-        <f>"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
-        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
+        <f t="shared" ref="R85:R86" si="2">"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
+        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20.25">
       <c r="A86" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M86&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
-      </c>
-      <c r="J86" s="30" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
+      </c>
+      <c r="J86" s="15" t="s">
         <v>2867</v>
       </c>
-      <c r="K86" s="28" t="s">
-        <v>2843</v>
+      <c r="K86" s="4" t="s">
+        <v>2868</v>
       </c>
       <c r="L86" s="29" t="s">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>2878</v>
+        <v>2870</v>
       </c>
       <c r="R86" t="str">
-        <f>"| "&amp;J86&amp;" | "&amp;K86&amp;" | "&amp;L86&amp;" | "&amp;M86&amp;" |"</f>
-        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
+        <f t="shared" si="2"/>
+        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="20.25">
       <c r="A87" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M87&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
-      </c>
-      <c r="J87" s="35" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>2841</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
+      </c>
+      <c r="J87" s="51" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>2854</v>
       </c>
       <c r="L87" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="R87" t="str">
         <f>"| "&amp;J87&amp;" | "&amp;K87&amp;" | "&amp;L87&amp;" | "&amp;M87&amp;" |"</f>
-        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
+        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="20.25">
       <c r="A88" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M88&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
-      </c>
-      <c r="J88" s="32" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K88" s="35" t="s">
-        <v>2833</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>2849</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>2862</v>
+        <v>2934</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>2863</v>
+        <v>2920</v>
       </c>
       <c r="R88" t="str">
         <f>"| "&amp;J88&amp;" | "&amp;K88&amp;" | "&amp;L88&amp;" | "&amp;M88&amp;" |"</f>
-        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
+        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20.25">
       <c r="A89" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M89&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
-      </c>
-      <c r="J89" s="35" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>2906</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
+      </c>
+      <c r="J89" s="28" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2901</v>
       </c>
       <c r="L89" s="29" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="R89" t="str">
         <f>"| "&amp;J89&amp;" | "&amp;K89&amp;" | "&amp;L89&amp;" | "&amp;M89&amp;" |"</f>
-        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
+        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="20.25">
       <c r="A90" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M90&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
-      </c>
-      <c r="J90" s="32" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K90" s="35" t="s">
-        <v>2835</v>
-      </c>
-      <c r="L90" s="29" t="s">
-        <v>2860</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2930</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>2861</v>
+        <v>2921</v>
       </c>
       <c r="R90" t="str">
         <f>"| "&amp;J90&amp;" | "&amp;K90&amp;" | "&amp;L90&amp;" | "&amp;M90&amp;" |"</f>
-        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
+        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="20.25">
       <c r="A91" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M91&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
-      </c>
-      <c r="J91" s="35" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>2839</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>2845</v>
       </c>
       <c r="L91" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="M91" s="28" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="R91" t="str">
         <f>"| "&amp;J91&amp;" | "&amp;K91&amp;" | "&amp;L91&amp;" | "&amp;M91&amp;" |"</f>
-        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="20.25">
       <c r="A92" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M92&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
-      </c>
-      <c r="J92" s="35" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>2837</v>
-      </c>
-      <c r="L92" t="s">
-        <v>2932</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
+      </c>
+      <c r="J92" s="28" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L92" s="29" t="s">
+        <v>2898</v>
       </c>
       <c r="M92" s="28" t="s">
-        <v>2925</v>
+        <v>2895</v>
       </c>
       <c r="R92" t="str">
         <f>"| "&amp;J92&amp;" | "&amp;K92&amp;" | "&amp;L92&amp;" | "&amp;M92&amp;" |"</f>
-        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="20.25">
       <c r="A93" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M93&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
-      </c>
-      <c r="J93" s="28" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
+      </c>
+      <c r="J93" s="30" t="s">
         <v>2867</v>
       </c>
-      <c r="K93" s="19" t="s">
-        <v>2904</v>
+      <c r="K93" s="28" t="s">
+        <v>2843</v>
       </c>
       <c r="L93" s="29" t="s">
-        <v>2910</v>
+        <v>2877</v>
       </c>
       <c r="M93" s="28" t="s">
-        <v>2905</v>
+        <v>2878</v>
       </c>
       <c r="R93" t="str">
         <f>"| "&amp;J93&amp;" | "&amp;K93&amp;" | "&amp;L93&amp;" | "&amp;M93&amp;" |"</f>
-        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="20.25">
       <c r="A94" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M94&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
       </c>
       <c r="J94" s="35" t="s">
         <v>2859</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>2893</v>
-      </c>
-      <c r="L94" s="29" t="s">
-        <v>2899</v>
+        <v>2841</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2929</v>
       </c>
       <c r="M94" s="28" t="s">
-        <v>2894</v>
+        <v>2923</v>
       </c>
       <c r="R94" t="str">
         <f>"| "&amp;J94&amp;" | "&amp;K94&amp;" | "&amp;L94&amp;" | "&amp;M94&amp;" |"</f>
-        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20.25">
       <c r="A95" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M95&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
       </c>
       <c r="J95" s="32" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="K95" s="35" t="s">
-        <v>2874</v>
+        <v>2833</v>
       </c>
       <c r="L95" s="29" t="s">
-        <v>2875</v>
+        <v>2862</v>
       </c>
       <c r="M95" s="28" t="s">
-        <v>2876</v>
+        <v>2863</v>
       </c>
       <c r="R95" t="str">
         <f>"| "&amp;J95&amp;" | "&amp;K95&amp;" | "&amp;L95&amp;" | "&amp;M95&amp;" |"</f>
-        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20.25">
       <c r="A96" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M96&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
-      </c>
-      <c r="J96" s="30" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K96" s="35" t="s">
-        <v>2871</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
+      </c>
+      <c r="J96" s="35" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>2906</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>2872</v>
+        <v>2911</v>
       </c>
       <c r="M96" s="28" t="s">
-        <v>2873</v>
+        <v>2907</v>
       </c>
       <c r="R96" t="str">
         <f>"| "&amp;J96&amp;" | "&amp;K96&amp;" | "&amp;L96&amp;" | "&amp;M96&amp;" |"</f>
-        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20.25">
       <c r="A97" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M97&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J97" s="35" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>2891</v>
-      </c>
-      <c r="L97" t="s">
-        <v>2940</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K97" s="35" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>2860</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>2927</v>
+        <v>2861</v>
       </c>
       <c r="R97" t="str">
         <f>"| "&amp;J97&amp;" | "&amp;K97&amp;" | "&amp;L97&amp;" | "&amp;M97&amp;" |"</f>
-        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="20.25">
       <c r="A98" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M98&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
       </c>
       <c r="J98" s="35" t="s">
         <v>2867</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>2908</v>
-      </c>
-      <c r="L98" s="29" t="s">
-        <v>2912</v>
+        <v>2839</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2935</v>
       </c>
       <c r="M98" s="28" t="s">
-        <v>2909</v>
+        <v>2924</v>
       </c>
       <c r="R98" t="str">
         <f>"| "&amp;J98&amp;" | "&amp;K98&amp;" | "&amp;L98&amp;" | "&amp;M98&amp;" |"</f>
+        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="20.25">
+      <c r="A99" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M99&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
+      </c>
+      <c r="J99" s="35" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2932</v>
+      </c>
+      <c r="M99" s="28" t="s">
+        <v>2925</v>
+      </c>
+      <c r="R99" t="str">
+        <f>"| "&amp;J99&amp;" | "&amp;K99&amp;" | "&amp;L99&amp;" | "&amp;M99&amp;" |"</f>
+        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="20.25">
+      <c r="A100" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M100&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L100" s="29" t="s">
+        <v>2910</v>
+      </c>
+      <c r="M100" s="28" t="s">
+        <v>2905</v>
+      </c>
+      <c r="R100" t="str">
+        <f>"| "&amp;J100&amp;" | "&amp;K100&amp;" | "&amp;L100&amp;" | "&amp;M100&amp;" |"</f>
+        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="20.25">
+      <c r="A101" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M101&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+      </c>
+      <c r="J101" s="35" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>2893</v>
+      </c>
+      <c r="L101" s="29" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M101" s="28" t="s">
+        <v>2894</v>
+      </c>
+      <c r="R101" t="str">
+        <f>"| "&amp;J101&amp;" | "&amp;K101&amp;" | "&amp;L101&amp;" | "&amp;M101&amp;" |"</f>
+        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="20.25">
+      <c r="A102" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M102&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+      </c>
+      <c r="J102" s="32" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K102" s="35" t="s">
+        <v>2874</v>
+      </c>
+      <c r="L102" s="29" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M102" s="28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="R102" t="str">
+        <f>"| "&amp;J102&amp;" | "&amp;K102&amp;" | "&amp;L102&amp;" | "&amp;M102&amp;" |"</f>
+        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="20.25">
+      <c r="A103" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M103&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K103" s="35" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L103" s="29" t="s">
+        <v>2872</v>
+      </c>
+      <c r="M103" s="28" t="s">
+        <v>2873</v>
+      </c>
+      <c r="R103" t="str">
+        <f>"| "&amp;J103&amp;" | "&amp;K103&amp;" | "&amp;L103&amp;" | "&amp;M103&amp;" |"</f>
+        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="20.25">
+      <c r="A104" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M104&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J104" s="35" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>2891</v>
+      </c>
+      <c r="L104" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M104" s="28" t="s">
+        <v>2927</v>
+      </c>
+      <c r="R104" t="str">
+        <f>"| "&amp;J104&amp;" | "&amp;K104&amp;" | "&amp;L104&amp;" | "&amp;M104&amp;" |"</f>
+        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="20.25">
+      <c r="A105" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M105&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
+      </c>
+      <c r="J105" s="35" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K105" s="19" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L105" s="29" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M105" s="28" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R105" t="str">
+        <f>"| "&amp;J105&amp;" | "&amp;K105&amp;" | "&amp;L105&amp;" | "&amp;M105&amp;" |"</f>
         <v>| by/3.0/ | 96964__gabisaraceni__porta-abrindo-5.wav | https://freesound.org/s/96964/ | gabisaraceni |</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
-      <c r="A99" s="6" t="s">
+    <row r="106" spans="1:18">
+      <c r="A106" s="6" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
-      <c r="A100" t="s">
+    <row r="107" spans="1:18">
+      <c r="A107" t="s">
         <v>3399</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="6" t="s">
+    <row r="108" spans="1:18">
+      <c r="A108" s="6" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A102" t="s">
+    <row r="109" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A109" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="18" thickBot="1">
-      <c r="A103" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J103&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K103&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L103&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+    <row r="110" spans="1:18" ht="18" thickBot="1">
+      <c r="A110" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J110&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K110&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L110&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
       </c>
-      <c r="J103" s="57" t="s">
+      <c r="J110" s="57" t="s">
         <v>2855</v>
       </c>
-      <c r="K103" s="57" t="s">
+      <c r="K110" s="57" t="s">
         <v>3386</v>
       </c>
-      <c r="L103" s="57" t="s">
+      <c r="L110" s="57" t="s">
         <v>2857</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="45.75" thickBot="1">
-      <c r="A104" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L104&amp;"&lt;/td&gt;"</f>
+    <row r="111" spans="1:18" ht="45.75" thickBot="1">
+      <c r="A111" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J111&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K111&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L111&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
       </c>
-      <c r="J104" s="58" t="s">
+      <c r="J111" s="58" t="s">
         <v>2859</v>
       </c>
-      <c r="K104" s="58" t="s">
+      <c r="K111" s="58" t="s">
         <v>3387</v>
       </c>
-      <c r="L104" s="59" t="s">
+      <c r="L111" s="59" t="s">
         <v>3388</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A105" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L105&amp;"&lt;/td&gt;"</f>
+    <row r="112" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A112" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J112&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K112&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L112&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
       </c>
-      <c r="J105" s="60" t="s">
+      <c r="J112" s="60" t="s">
         <v>2867</v>
       </c>
-      <c r="K105" s="60" t="s">
+      <c r="K112" s="60" t="s">
         <v>3389</v>
       </c>
-      <c r="L105" s="61" t="s">
+      <c r="L112" s="61" t="s">
         <v>3390</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A106" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L106&amp;"&lt;/td&gt;"</f>
+    <row r="113" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A113" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J113&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K113&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L113&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
       </c>
-      <c r="J106" s="58" t="s">
+      <c r="J113" s="58" t="s">
         <v>2879</v>
       </c>
-      <c r="K106" s="58" t="s">
+      <c r="K113" s="58" t="s">
         <v>3391</v>
       </c>
-      <c r="L106" s="59" t="s">
+      <c r="L113" s="59" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="6" t="s">
+    <row r="114" spans="1:12">
+      <c r="A114" s="6" t="s">
         <v>3384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H45" xr:uid="{D49867B0-9605-4DAD-A171-997D81FF01DA}"/>
-  <sortState ref="A74:D81">
-    <sortCondition descending="1" ref="A74:A81"/>
-    <sortCondition ref="B74:B81"/>
+  <autoFilter ref="A1:H52" xr:uid="{D49867B0-9605-4DAD-A171-997D81FF01DA}"/>
+  <sortState ref="A81:D88">
+    <sortCondition descending="1" ref="A81:A88"/>
+    <sortCondition ref="B81:B88"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L90" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
-    <hyperlink ref="L88" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
-    <hyperlink ref="L73" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
-    <hyperlink ref="L79" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
-    <hyperlink ref="L96" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
-    <hyperlink ref="L95" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
-    <hyperlink ref="L86" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
-    <hyperlink ref="L78" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
-    <hyperlink ref="L85" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
-    <hyperlink ref="L94" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
-    <hyperlink ref="L82" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
-    <hyperlink ref="L93" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
-    <hyperlink ref="L85:L86" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
-    <hyperlink ref="L89" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
-    <hyperlink ref="L98" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
-    <hyperlink ref="L81" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
+    <hyperlink ref="L97" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
+    <hyperlink ref="L95" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
+    <hyperlink ref="L80" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
+    <hyperlink ref="L86" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
+    <hyperlink ref="L103" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
+    <hyperlink ref="L102" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
+    <hyperlink ref="L93" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
+    <hyperlink ref="L85" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
+    <hyperlink ref="L92" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
+    <hyperlink ref="L101" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
+    <hyperlink ref="L89" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
+    <hyperlink ref="L100" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
+    <hyperlink ref="L92:L93" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
+    <hyperlink ref="L96" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
+    <hyperlink ref="L105" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
+    <hyperlink ref="L88" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
     <hyperlink ref="H27" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
     <hyperlink ref="H22" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
     <hyperlink ref="H25" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
@@ -50934,15 +51220,15 @@
     <hyperlink ref="H28" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
     <hyperlink ref="H26" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
     <hyperlink ref="H23" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
-    <hyperlink ref="H55" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
-    <hyperlink ref="H56" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
+    <hyperlink ref="H62" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
+    <hyperlink ref="H63" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
     <hyperlink ref="H8" r:id="rId47" xr:uid="{2AE693E7-7449-4538-80A8-30A52F2A22F5}"/>
     <hyperlink ref="H7" r:id="rId48" xr:uid="{2FE1FB4D-693E-4830-8337-658393F68B92}"/>
     <hyperlink ref="H13" r:id="rId49" xr:uid="{DE9970E0-9BDB-45D1-93FA-3F6E016EDFDA}"/>
-    <hyperlink ref="L104" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
-    <hyperlink ref="L105" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
-    <hyperlink ref="L106" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
-    <hyperlink ref="L72" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
+    <hyperlink ref="L111" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
+    <hyperlink ref="L112" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
+    <hyperlink ref="L113" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
+    <hyperlink ref="L79" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB058A-63E5-4385-85BC-D14DEC5FD068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0D93F2-5E73-4477-B3F9-E4CEC0A46869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="4009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="4010">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10549,12 +10549,6 @@
   </si>
   <si>
     <t>mdo47 recording of "Press just trigger to cycle through a list of other choices, trigger + any color to choose the other choice."</t>
-  </si>
-  <si>
-    <t>mdo47 recording of silence</t>
-  </si>
-  <si>
-    <t>mdo47 recording of text</t>
   </si>
   <si>
     <t>mdo47 recording of FOOF announcement; license is by/3.0/</t>
@@ -12689,9 +12683,6 @@
     <t>Welcome to RBG configuration! Your call is important to us.  Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself.</t>
   </si>
   <si>
-    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us.  Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself."</t>
-  </si>
-  <si>
     <t>TypeChoices</t>
   </si>
   <si>
@@ -12804,6 +12795,18 @@
   </si>
   <si>
     <t>Effect type WAITING-FOR-TRIGGER. Trigger alone for next type.</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "silence"</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Not yet implemented"</t>
+  </si>
+  <si>
+    <t>maximum length of below</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself."</t>
   </si>
 </sst>
 </file>
@@ -12814,7 +12817,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13036,6 +13039,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -13220,7 +13229,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13379,6 +13388,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="8"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -13709,8 +13719,8 @@
   <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13826,7 +13836,7 @@
         <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -13860,7 +13870,7 @@
         <v>29</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -13875,7 +13885,7 @@
         <v>35</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -13906,7 +13916,7 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="V5" t="s">
         <v>3409</v>
@@ -13915,7 +13925,7 @@
         <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -13933,7 +13943,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -13946,7 +13956,7 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M6" s="63" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="V6" t="s">
         <v>3409</v>
@@ -13955,7 +13965,7 @@
         <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -13965,7 +13975,7 @@
         <v/>
       </c>
       <c r="M7" s="63" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="V7" t="s">
         <v>3411</v>
@@ -13974,7 +13984,7 @@
         <v>31</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -13983,7 +13993,7 @@
         <v/>
       </c>
       <c r="M8" s="63" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="V8" t="s">
         <v>3414</v>
@@ -13992,7 +14002,7 @@
         <v>34</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -14001,7 +14011,7 @@
         <v/>
       </c>
       <c r="M9" s="63" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="V9" t="s">
         <v>3410</v>
@@ -14010,7 +14020,7 @@
         <v>30</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -14019,7 +14029,7 @@
         <v/>
       </c>
       <c r="M10" s="63" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>21</v>
@@ -14040,7 +14050,7 @@
         <v>21</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -14072,7 +14082,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>22</v>
@@ -14084,7 +14094,7 @@
         <v>7</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -14116,7 +14126,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M12" s="63" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>23</v>
@@ -14131,7 +14141,7 @@
         <v>7</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -14149,7 +14159,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -14162,7 +14172,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>24</v>
@@ -14174,7 +14184,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -14189,7 +14199,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -14203,7 +14213,7 @@
         <v>24</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
@@ -14239,7 +14249,7 @@
         <v>24</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
@@ -14272,7 +14282,7 @@
         <v>19</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
@@ -14342,7 +14352,7 @@
         <v>4</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -14397,7 +14407,7 @@
         <v>3400</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -14416,7 +14426,7 @@
         <v>16</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -14443,7 +14453,7 @@
         <v>17</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="Z22" s="25"/>
     </row>
@@ -14481,7 +14491,7 @@
         <v>18</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -14518,7 +14528,7 @@
         <v>15</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="Z24" s="25"/>
     </row>
@@ -14537,7 +14547,7 @@
         <v>3400</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -14691,7 +14701,7 @@
     </row>
     <row r="34" spans="1:24" ht="45">
       <c r="A34" s="62" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>2711</v>
@@ -14728,7 +14738,7 @@
         <v>28</v>
       </c>
       <c r="X35" s="15" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -14767,7 +14777,7 @@
         <v>29</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -14806,7 +14816,7 @@
         <v>35</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -14833,7 +14843,7 @@
         <v>32</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="30">
@@ -14868,7 +14878,7 @@
         <v>32</v>
       </c>
       <c r="X39" s="15" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -14904,7 +14914,7 @@
         <v>31</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -14939,7 +14949,7 @@
         <v>34</v>
       </c>
       <c r="X41" s="15" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -14956,7 +14966,7 @@
         <v>30</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -14973,7 +14983,7 @@
         <v>21</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -14990,7 +15000,7 @@
         <v>7</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -15007,12 +15017,12 @@
         <v>7</v>
       </c>
       <c r="X45" s="15" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="135">
       <c r="A46" s="62" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="B46" s="82" t="s">
         <v>35</v>
@@ -15021,7 +15031,7 @@
         <v>3401</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E46" s="81" t="s">
         <v>3400</v>
@@ -15045,7 +15055,7 @@
         <v>11</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -15057,7 +15067,7 @@
         <v>3401</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E47" s="81" t="s">
         <v>3400</v>
@@ -15081,7 +15091,7 @@
         <v>9</v>
       </c>
       <c r="X47" s="15" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -15093,7 +15103,7 @@
         <v>3401</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E48" s="81" t="s">
         <v>3400</v>
@@ -15117,7 +15127,7 @@
         <v>24</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -15129,7 +15139,7 @@
         <v>3401</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E49" s="81" t="s">
         <v>3400</v>
@@ -15153,7 +15163,7 @@
         <v>24</v>
       </c>
       <c r="X49" s="15" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -15173,7 +15183,7 @@
         <v>19</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -15207,7 +15217,7 @@
         <v>3404</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="E52" s="81" t="s">
         <v>3400</v>
@@ -15228,7 +15238,7 @@
         <v>4</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -15261,7 +15271,7 @@
         <v>3406</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>3400</v>
@@ -15282,7 +15292,7 @@
         <v>16</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -15301,7 +15311,7 @@
         <v>17</v>
       </c>
       <c r="X55" s="15" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="45">
@@ -15318,7 +15328,7 @@
       <c r="E56" s="76"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>3408</v>
@@ -15340,7 +15350,7 @@
         <v>18</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -15359,7 +15369,7 @@
         <v>15</v>
       </c>
       <c r="X57" s="15" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="75">
@@ -15373,7 +15383,7 @@
         <v>3411</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="E58" s="81" t="s">
         <v>3400</v>
@@ -15424,7 +15434,7 @@
         <v>3409</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>3415</v>
@@ -15502,13 +15512,13 @@
     </row>
     <row r="71" spans="1:11" ht="75">
       <c r="A71" s="62" t="s">
-        <v>3976</v>
+        <v>3973</v>
       </c>
       <c r="B71">
         <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
       <c r="E71" t="str">
         <f>TEXT(B71,"0000")&amp;"__mdo47__"&amp;D71&amp;".wav"</f>
@@ -15521,7 +15531,7 @@
     </row>
     <row r="72" spans="1:11" ht="45">
       <c r="A72" s="62" t="s">
-        <v>4003</v>
+        <v>4000</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -15530,7 +15540,7 @@
         <v>3360</v>
       </c>
       <c r="D72" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ref="E72:E77" si="1">TEXT(B72,"0000")&amp;"__mdo47__"&amp;D72&amp;".wav"</f>
@@ -15543,7 +15553,7 @@
     </row>
     <row r="73" spans="1:11" ht="30">
       <c r="A73" s="62" t="s">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -15552,7 +15562,7 @@
         <v>3361</v>
       </c>
       <c r="D73" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
@@ -15565,7 +15575,7 @@
     </row>
     <row r="74" spans="1:11" ht="45">
       <c r="A74" s="62" t="s">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -15574,7 +15584,7 @@
         <v>3362</v>
       </c>
       <c r="D74" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
@@ -15587,7 +15597,7 @@
     </row>
     <row r="75" spans="1:11" ht="45">
       <c r="A75" s="62" t="s">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -15596,7 +15606,7 @@
         <v>3363</v>
       </c>
       <c r="D75" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
@@ -15609,7 +15619,7 @@
     </row>
     <row r="76" spans="1:11" ht="45">
       <c r="A76" s="62" t="s">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -15631,7 +15641,7 @@
     </row>
     <row r="77" spans="1:11" ht="45">
       <c r="A77" s="62" t="s">
-        <v>4008</v>
+        <v>4005</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -15640,7 +15650,7 @@
         <v>3365</v>
       </c>
       <c r="D77" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
@@ -42192,7 +42202,7 @@
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -42203,7 +42213,7 @@
     </row>
     <row r="3280" spans="2:2">
       <c r="B3280" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -42218,7 +42228,7 @@
     </row>
     <row r="3283" spans="1:2">
       <c r="B3283" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -42239,7 +42249,7 @@
         <v>12</v>
       </c>
       <c r="B3287" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -42247,7 +42257,7 @@
         <v>16</v>
       </c>
       <c r="B3288" s="24" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -42255,7 +42265,7 @@
         <v>42</v>
       </c>
       <c r="B3289" s="11" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -42263,7 +42273,7 @@
         <v>47</v>
       </c>
       <c r="B3290" s="15" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -42271,7 +42281,7 @@
         <v>57</v>
       </c>
       <c r="B3291" s="24" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -42279,7 +42289,7 @@
         <v>76</v>
       </c>
       <c r="B3292" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -42287,7 +42297,7 @@
         <v>80</v>
       </c>
       <c r="B3293" s="24" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -42295,7 +42305,7 @@
         <v>760</v>
       </c>
       <c r="B3294" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -42303,7 +42313,7 @@
         <v>761</v>
       </c>
       <c r="B3295" s="24" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -42311,7 +42321,7 @@
         <v>773</v>
       </c>
       <c r="B3296" s="11" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="3297" spans="1:6">
@@ -42319,7 +42329,7 @@
         <v>797</v>
       </c>
       <c r="B3297" s="11" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="3298" spans="1:6">
@@ -42327,7 +42337,7 @@
         <v>799</v>
       </c>
       <c r="B3298" s="15" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="3299" spans="1:6">
@@ -42335,7 +42345,7 @@
         <v>806</v>
       </c>
       <c r="B3299" s="24" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="3300" spans="1:6">
@@ -42343,7 +42353,7 @@
         <v>831</v>
       </c>
       <c r="B3300" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="3301" spans="1:6">
@@ -42351,7 +42361,7 @@
         <v>832</v>
       </c>
       <c r="B3301" s="24" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="3302" spans="1:6">
@@ -42359,7 +42369,7 @@
         <v>1332</v>
       </c>
       <c r="B3302" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="3303" spans="1:6">
@@ -42367,7 +42377,7 @@
         <v>1333</v>
       </c>
       <c r="B3303" s="24" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="3304" spans="1:6">
@@ -42375,7 +42385,7 @@
         <v>1733</v>
       </c>
       <c r="B3304" s="83" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="3305" spans="1:6">
@@ -42383,7 +42393,7 @@
         <v>1734</v>
       </c>
       <c r="B3305" s="24" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="3306" spans="1:6">
@@ -42391,7 +42401,7 @@
         <v>1748</v>
       </c>
       <c r="B3306" s="11" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="3307" spans="1:6">
@@ -42399,7 +42409,7 @@
         <v>1749</v>
       </c>
       <c r="B3307" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="3308" spans="1:6">
@@ -42407,7 +42417,7 @@
         <v>1750</v>
       </c>
       <c r="B3308" s="24" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="3309" spans="1:6">
@@ -42415,10 +42425,10 @@
         <v>1751</v>
       </c>
       <c r="B3309" s="15" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="F3309" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="3310" spans="1:6">
@@ -42426,7 +42436,7 @@
         <v>1757</v>
       </c>
       <c r="B3310" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="3311" spans="1:6">
@@ -42434,7 +42444,7 @@
         <v>1758</v>
       </c>
       <c r="B3311" s="24" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3312" spans="1:6">
@@ -42442,7 +42452,7 @@
         <v>1783</v>
       </c>
       <c r="B3312" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="3313" spans="1:6">
@@ -42450,7 +42460,7 @@
         <v>1784</v>
       </c>
       <c r="B3313" s="24" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="3314" spans="1:6">
@@ -42458,7 +42468,7 @@
         <v>1884</v>
       </c>
       <c r="B3314" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="3315" spans="1:6">
@@ -42466,7 +42476,7 @@
         <v>1885</v>
       </c>
       <c r="B3315" s="24" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="3316" spans="1:6">
@@ -42474,7 +42484,7 @@
         <v>4535</v>
       </c>
       <c r="B3316" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="3317" spans="1:6">
@@ -42482,7 +42492,7 @@
         <v>4536</v>
       </c>
       <c r="B3317" s="24" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -42490,7 +42500,7 @@
         <v>4565</v>
       </c>
       <c r="B3318" s="15" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="3319" spans="1:6">
@@ -42498,7 +42508,7 @@
         <v>4567</v>
       </c>
       <c r="B3319" s="24" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -42506,7 +42516,7 @@
         <v>4592</v>
       </c>
       <c r="B3320" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="3321" spans="1:6">
@@ -42514,7 +42524,7 @@
         <v>4842</v>
       </c>
       <c r="B3321" s="83" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="3322" spans="1:6">
@@ -42522,10 +42532,10 @@
         <v>4843</v>
       </c>
       <c r="B3322" s="24" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="F3322" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3323" spans="1:6">
@@ -42533,7 +42543,7 @@
         <v>4849</v>
       </c>
       <c r="B3323" s="11" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -42541,10 +42551,10 @@
         <v>4851</v>
       </c>
       <c r="B3324" s="24" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="F3324" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3325" spans="1:6">
@@ -42552,7 +42562,7 @@
         <v>4862</v>
       </c>
       <c r="B3325" s="11" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="3326" spans="1:6">
@@ -42560,10 +42570,10 @@
         <v>4864</v>
       </c>
       <c r="B3326" s="15" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="F3326" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="3327" spans="1:6">
@@ -42571,7 +42581,7 @@
         <v>4870</v>
       </c>
       <c r="B3327" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="3328" spans="1:6">
@@ -42579,7 +42589,7 @@
         <v>4871</v>
       </c>
       <c r="B3328" s="24" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="3329" spans="1:6">
@@ -42587,7 +42597,7 @@
         <v>4872</v>
       </c>
       <c r="B3329" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="3330" spans="1:6">
@@ -42595,7 +42605,7 @@
         <v>4873</v>
       </c>
       <c r="B3330" s="24" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="3331" spans="1:6">
@@ -42603,7 +42613,7 @@
         <v>4994</v>
       </c>
       <c r="B3331" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -42611,7 +42621,7 @@
         <v>4995</v>
       </c>
       <c r="B3332" s="24" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -42619,7 +42629,7 @@
         <v>5004</v>
       </c>
       <c r="B3333" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="3334" spans="1:6">
@@ -42627,7 +42637,7 @@
         <v>5005</v>
       </c>
       <c r="B3334" s="24" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="3335" spans="1:6">
@@ -42635,7 +42645,7 @@
         <v>5023</v>
       </c>
       <c r="B3335" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="3336" spans="1:6">
@@ -42643,7 +42653,7 @@
         <v>5024</v>
       </c>
       <c r="B3336" s="24" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="3337" spans="1:6">
@@ -42651,7 +42661,7 @@
         <v>5039</v>
       </c>
       <c r="B3337" s="83" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="3338" spans="1:6">
@@ -42659,10 +42669,10 @@
         <v>5040</v>
       </c>
       <c r="B3338" s="24" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="F3338" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3339" spans="1:6">
@@ -42670,7 +42680,7 @@
         <v>5046</v>
       </c>
       <c r="B3339" s="11" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="3340" spans="1:6">
@@ -42678,10 +42688,10 @@
         <v>5048</v>
       </c>
       <c r="B3340" s="24" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="F3340" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3341" spans="1:6">
@@ -42689,10 +42699,10 @@
         <v>5049</v>
       </c>
       <c r="B3341" s="15" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="F3341" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -42700,7 +42710,7 @@
         <v>5055</v>
       </c>
       <c r="B3342" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3343" spans="1:6">
@@ -42708,10 +42718,10 @@
         <v>5056</v>
       </c>
       <c r="B3343" s="24" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="F3343" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -42719,7 +42729,7 @@
         <v>5057</v>
       </c>
       <c r="B3344" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -42727,10 +42737,10 @@
         <v>5058</v>
       </c>
       <c r="B3345" s="24" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="F3345" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -42738,7 +42748,7 @@
         <v>5060</v>
       </c>
       <c r="B3346" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -42746,7 +42756,7 @@
         <v>5065</v>
       </c>
       <c r="B3347" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -42754,7 +42764,7 @@
         <v>5066</v>
       </c>
       <c r="B3348" s="24" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="3349" spans="1:6">
@@ -42762,7 +42772,7 @@
         <v>5222</v>
       </c>
       <c r="B3349" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="3350" spans="1:6">
@@ -42770,7 +42780,7 @@
         <v>5223</v>
       </c>
       <c r="B3350" s="24" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="3351" spans="1:6">
@@ -42778,7 +42788,7 @@
         <v>5251</v>
       </c>
       <c r="B3351" s="83" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="3352" spans="1:6">
@@ -42786,10 +42796,10 @@
         <v>5252</v>
       </c>
       <c r="B3352" s="24" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="F3352" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -42797,10 +42807,10 @@
         <v>5254</v>
       </c>
       <c r="B3353" s="24" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="F3353" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3354" spans="1:6">
@@ -42808,7 +42818,7 @@
         <v>5259</v>
       </c>
       <c r="B3354" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -42816,7 +42826,7 @@
         <v>5261</v>
       </c>
       <c r="B3355" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="3356" spans="1:6">
@@ -42824,7 +42834,7 @@
         <v>5262</v>
       </c>
       <c r="B3356" s="24" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="3357" spans="1:6">
@@ -42832,7 +42842,7 @@
         <v>5393</v>
       </c>
       <c r="B3357" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="3358" spans="1:6">
@@ -42840,7 +42850,7 @@
         <v>5394</v>
       </c>
       <c r="B3358" s="24" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -42848,7 +42858,7 @@
         <v>5421</v>
       </c>
       <c r="B3359" s="83" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="3360" spans="1:6">
@@ -42856,10 +42866,10 @@
         <v>5422</v>
       </c>
       <c r="B3360" s="24" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="F3360" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3361" spans="1:7">
@@ -42867,10 +42877,10 @@
         <v>5424</v>
       </c>
       <c r="B3361" s="24" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="F3361" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3362" spans="1:7">
@@ -42878,7 +42888,7 @@
         <v>5430</v>
       </c>
       <c r="B3362" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="3363" spans="1:7">
@@ -42886,7 +42896,7 @@
         <v>5438</v>
       </c>
       <c r="B3363" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="3364" spans="1:7">
@@ -42894,7 +42904,7 @@
         <v>5439</v>
       </c>
       <c r="B3364" s="24" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="3365" spans="1:7">
@@ -42902,7 +42912,7 @@
         <v>5471</v>
       </c>
       <c r="B3365" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="3366" spans="1:7">
@@ -42910,7 +42920,7 @@
         <v>5472</v>
       </c>
       <c r="B3366" s="24" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="3367" spans="1:7">
@@ -42918,7 +42928,7 @@
         <v>5477</v>
       </c>
       <c r="B3367" s="15" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="3368" spans="1:7">
@@ -42926,7 +42936,7 @@
         <v>5479</v>
       </c>
       <c r="B3368" s="24" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="3369" spans="1:7">
@@ -42934,7 +42944,7 @@
         <v>5480</v>
       </c>
       <c r="B3369" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="3370" spans="1:7">
@@ -42942,10 +42952,10 @@
         <v>5481</v>
       </c>
       <c r="B3370" s="24" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="G3370" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="3371" spans="1:7">
@@ -42953,7 +42963,7 @@
         <v>5593</v>
       </c>
       <c r="B3371" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="3372" spans="1:7">
@@ -42961,7 +42971,7 @@
         <v>5594</v>
       </c>
       <c r="B3372" s="24" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="3373" spans="1:7">
@@ -42969,7 +42979,7 @@
         <v>5609</v>
       </c>
       <c r="B3373" s="83" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="3374" spans="1:7">
@@ -42977,7 +42987,7 @@
         <v>5610</v>
       </c>
       <c r="B3374" s="24" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="3375" spans="1:7">
@@ -42985,7 +42995,7 @@
         <v>5612</v>
       </c>
       <c r="B3375" s="24" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="3376" spans="1:7">
@@ -42993,7 +43003,7 @@
         <v>5617</v>
       </c>
       <c r="B3376" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -43001,7 +43011,7 @@
         <v>5620</v>
       </c>
       <c r="B3377" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -43009,7 +43019,7 @@
         <v>5621</v>
       </c>
       <c r="B3378" s="24" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -43017,7 +43027,7 @@
         <v>5727</v>
       </c>
       <c r="B3379" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -43025,7 +43035,7 @@
         <v>5728</v>
       </c>
       <c r="B3380" s="24" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -43033,7 +43043,7 @@
         <v>5741</v>
       </c>
       <c r="B3381" s="83" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -43041,7 +43051,7 @@
         <v>5742</v>
       </c>
       <c r="B3382" s="24" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -43049,7 +43059,7 @@
         <v>5744</v>
       </c>
       <c r="B3383" s="24" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -43057,7 +43067,7 @@
         <v>5752</v>
       </c>
       <c r="B3384" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="3385" spans="1:2">
@@ -43065,7 +43075,7 @@
         <v>5756</v>
       </c>
       <c r="B3385" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -43073,7 +43083,7 @@
         <v>5757</v>
       </c>
       <c r="B3386" s="24" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -43081,7 +43091,7 @@
         <v>5893</v>
       </c>
       <c r="B3387" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -43089,7 +43099,7 @@
         <v>5894</v>
       </c>
       <c r="B3388" s="24" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -43097,7 +43107,7 @@
         <v>5899</v>
       </c>
       <c r="B3389" s="15" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -43105,7 +43115,7 @@
         <v>5901</v>
       </c>
       <c r="B3390" s="24" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -43113,7 +43123,7 @@
         <v>5902</v>
       </c>
       <c r="B3391" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -43121,13 +43131,13 @@
         <v>5903</v>
       </c>
       <c r="B3392" s="24" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="3395" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3396" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3396" s="1" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="3397" spans="1:2" ht="15.75" thickTop="1"/>
@@ -43138,7 +43148,7 @@
     </row>
     <row r="3399" spans="1:2">
       <c r="B3399" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -43153,12 +43163,12 @@
     </row>
     <row r="3402" spans="1:2">
       <c r="B3402" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
       <c r="B3403" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="3404" spans="1:2">
@@ -43179,7 +43189,7 @@
         <v>3</v>
       </c>
       <c r="B3407" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="3408" spans="1:2">
@@ -43187,7 +43197,7 @@
         <v>6</v>
       </c>
       <c r="B3408" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -43195,7 +43205,7 @@
         <v>7</v>
       </c>
       <c r="B3409" s="24" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -43203,7 +43213,7 @@
         <v>33</v>
       </c>
       <c r="B3410" s="11" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -43211,7 +43221,7 @@
         <v>38</v>
       </c>
       <c r="B3411" s="15" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -43219,7 +43229,7 @@
         <v>47</v>
       </c>
       <c r="B3412" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -43227,7 +43237,7 @@
         <v>48</v>
       </c>
       <c r="B3413" s="24" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -43235,7 +43245,7 @@
         <v>67</v>
       </c>
       <c r="B3414" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -43243,7 +43253,7 @@
         <v>70</v>
       </c>
       <c r="B3415" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -43251,7 +43261,7 @@
         <v>71</v>
       </c>
       <c r="B3416" s="24" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -43259,7 +43269,7 @@
         <v>760</v>
       </c>
       <c r="B3417" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -43267,7 +43277,7 @@
         <v>761</v>
       </c>
       <c r="B3418" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -43275,7 +43285,7 @@
         <v>762</v>
       </c>
       <c r="B3419" s="24" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -43283,7 +43293,7 @@
         <v>774</v>
       </c>
       <c r="B3420" s="11" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -43291,7 +43301,7 @@
         <v>800</v>
       </c>
       <c r="B3421" s="11" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -43299,7 +43309,7 @@
         <v>803</v>
       </c>
       <c r="B3422" s="15" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -43307,7 +43317,7 @@
         <v>810</v>
       </c>
       <c r="B3423" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -43315,7 +43325,7 @@
         <v>811</v>
       </c>
       <c r="B3424" s="24" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="3425" spans="1:6">
@@ -43323,7 +43333,7 @@
         <v>836</v>
       </c>
       <c r="B3425" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="3426" spans="1:6">
@@ -43331,7 +43341,7 @@
         <v>837</v>
       </c>
       <c r="B3426" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="3427" spans="1:6">
@@ -43339,7 +43349,7 @@
         <v>838</v>
       </c>
       <c r="B3427" s="24" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="3428" spans="1:6">
@@ -43347,7 +43357,7 @@
         <v>2527</v>
       </c>
       <c r="B3428" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="3429" spans="1:6">
@@ -43355,7 +43365,7 @@
         <v>2528</v>
       </c>
       <c r="B3429" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -43363,7 +43373,7 @@
         <v>2529</v>
       </c>
       <c r="B3430" s="24" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -43371,7 +43381,7 @@
         <v>2736</v>
       </c>
       <c r="B3431" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -43379,7 +43389,7 @@
         <v>2737</v>
       </c>
       <c r="B3432" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -43387,7 +43397,7 @@
         <v>2738</v>
       </c>
       <c r="B3433" s="24" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -43395,7 +43405,7 @@
         <v>2752</v>
       </c>
       <c r="B3434" s="11" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="F3434" s="9" t="s">
         <v>3401</v>
@@ -43406,7 +43416,7 @@
         <v>2754</v>
       </c>
       <c r="B3435" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="3436" spans="1:6">
@@ -43414,7 +43424,7 @@
         <v>2755</v>
       </c>
       <c r="B3436" s="24" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="3437" spans="1:6">
@@ -43422,7 +43432,7 @@
         <v>2756</v>
       </c>
       <c r="B3437" s="15" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="3438" spans="1:6">
@@ -43430,7 +43440,7 @@
         <v>2762</v>
       </c>
       <c r="B3438" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="3439" spans="1:6">
@@ -43438,7 +43448,7 @@
         <v>2763</v>
       </c>
       <c r="B3439" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="3440" spans="1:6">
@@ -43446,7 +43456,7 @@
         <v>2764</v>
       </c>
       <c r="B3440" s="24" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="3441" spans="1:6">
@@ -43454,7 +43464,7 @@
         <v>2789</v>
       </c>
       <c r="B3441" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="3442" spans="1:6">
@@ -43462,7 +43472,7 @@
         <v>2790</v>
       </c>
       <c r="B3442" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="3443" spans="1:6">
@@ -43470,7 +43480,7 @@
         <v>2791</v>
       </c>
       <c r="B3443" s="24" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="3444" spans="1:6">
@@ -43478,7 +43488,7 @@
         <v>4376</v>
       </c>
       <c r="B3444" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="3445" spans="1:6">
@@ -43486,7 +43496,7 @@
         <v>4377</v>
       </c>
       <c r="B3445" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="3446" spans="1:6">
@@ -43494,7 +43504,7 @@
         <v>4378</v>
       </c>
       <c r="B3446" s="24" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -43502,7 +43512,7 @@
         <v>4481</v>
       </c>
       <c r="B3447" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="3448" spans="1:6">
@@ -43510,7 +43520,7 @@
         <v>4482</v>
       </c>
       <c r="B3448" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="3449" spans="1:6">
@@ -43518,7 +43528,7 @@
         <v>4483</v>
       </c>
       <c r="B3449" s="24" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="3450" spans="1:6">
@@ -43526,7 +43536,7 @@
         <v>4504</v>
       </c>
       <c r="B3450" s="11" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="F3450" s="9" t="s">
         <v>3410</v>
@@ -43537,7 +43547,7 @@
         <v>4506</v>
       </c>
       <c r="B3451" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -43545,7 +43555,7 @@
         <v>4507</v>
       </c>
       <c r="B3452" s="24" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -43553,7 +43563,7 @@
         <v>4526</v>
       </c>
       <c r="B3453" s="11" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="F3453" s="9" t="s">
         <v>3411</v>
@@ -43564,7 +43574,7 @@
         <v>4527</v>
       </c>
       <c r="B3454" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -43572,7 +43582,7 @@
         <v>4529</v>
       </c>
       <c r="B3455" s="15" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="3456" spans="1:6">
@@ -43580,7 +43590,7 @@
         <v>4535</v>
       </c>
       <c r="B3456" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -43588,7 +43598,7 @@
         <v>4536</v>
       </c>
       <c r="B3457" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -43596,7 +43606,7 @@
         <v>4537</v>
       </c>
       <c r="B3458" s="24" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -43604,7 +43614,7 @@
         <v>4544</v>
       </c>
       <c r="B3459" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -43612,7 +43622,7 @@
         <v>4545</v>
       </c>
       <c r="B3460" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -43620,7 +43630,7 @@
         <v>4546</v>
       </c>
       <c r="B3461" s="24" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -43628,7 +43638,7 @@
         <v>4553</v>
       </c>
       <c r="B3462" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -43636,7 +43646,7 @@
         <v>4554</v>
       </c>
       <c r="B3463" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -43644,7 +43654,7 @@
         <v>4555</v>
       </c>
       <c r="B3464" s="24" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -43652,7 +43662,7 @@
         <v>5024</v>
       </c>
       <c r="B3465" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -43660,7 +43670,7 @@
         <v>5025</v>
       </c>
       <c r="B3466" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -43668,7 +43678,7 @@
         <v>5026</v>
       </c>
       <c r="B3467" s="24" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -43676,7 +43686,7 @@
         <v>5031</v>
       </c>
       <c r="B3468" s="15" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -43684,7 +43694,7 @@
         <v>5033</v>
       </c>
       <c r="B3469" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -43692,7 +43702,7 @@
         <v>5034</v>
       </c>
       <c r="B3470" s="24" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -43700,7 +43710,7 @@
         <v>5035</v>
       </c>
       <c r="B3471" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -43708,7 +43718,7 @@
         <v>5036</v>
       </c>
       <c r="B3472" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="3473" spans="1:6">
@@ -43716,7 +43726,7 @@
         <v>5037</v>
       </c>
       <c r="B3473" s="24" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="3474" spans="1:6">
@@ -43724,7 +43734,7 @@
         <v>5104</v>
       </c>
       <c r="B3474" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="3475" spans="1:6">
@@ -43732,7 +43742,7 @@
         <v>5105</v>
       </c>
       <c r="B3475" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="3476" spans="1:6">
@@ -43740,7 +43750,7 @@
         <v>5106</v>
       </c>
       <c r="B3476" s="24" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="3477" spans="1:6">
@@ -43748,7 +43758,7 @@
         <v>5112</v>
       </c>
       <c r="B3477" s="11" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="F3477" s="9" t="s">
         <v>3409</v>
@@ -43759,7 +43769,7 @@
         <v>5114</v>
       </c>
       <c r="B3478" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="3479" spans="1:6">
@@ -43767,7 +43777,7 @@
         <v>5115</v>
       </c>
       <c r="B3479" s="24" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="3480" spans="1:6">
@@ -43775,7 +43785,7 @@
         <v>5116</v>
       </c>
       <c r="B3480" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="3481" spans="1:6">
@@ -43783,7 +43793,7 @@
         <v>5149</v>
       </c>
       <c r="B3481" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="3482" spans="1:6">
@@ -43791,7 +43801,7 @@
         <v>5250</v>
       </c>
       <c r="B3482" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -43799,7 +43809,7 @@
         <v>5251</v>
       </c>
       <c r="B3483" s="24" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="3484" spans="1:6">
@@ -43807,7 +43817,7 @@
         <v>5257</v>
       </c>
       <c r="B3484" s="11" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="F3484" s="9" t="s">
         <v>3414</v>
@@ -43818,7 +43828,7 @@
         <v>5258</v>
       </c>
       <c r="B3485" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="3486" spans="1:6">
@@ -43826,7 +43836,7 @@
         <v>5259</v>
       </c>
       <c r="B3486" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="3487" spans="1:6">
@@ -43834,7 +43844,7 @@
         <v>5260</v>
       </c>
       <c r="B3487" s="24" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="3488" spans="1:6">
@@ -43842,7 +43852,7 @@
         <v>5274</v>
       </c>
       <c r="B3488" s="11" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="F3488" s="9" t="s">
         <v>3409</v>
@@ -43853,7 +43863,7 @@
         <v>5277</v>
       </c>
       <c r="B3489" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -43861,7 +43871,7 @@
         <v>5290</v>
       </c>
       <c r="B3490" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -43869,7 +43879,7 @@
         <v>5458</v>
       </c>
       <c r="B3491" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -43877,7 +43887,7 @@
         <v>5459</v>
       </c>
       <c r="B3492" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -43885,7 +43895,7 @@
         <v>5460</v>
       </c>
       <c r="B3493" s="24" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -43893,7 +43903,7 @@
         <v>5465</v>
       </c>
       <c r="B3494" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -43901,7 +43911,7 @@
         <v>5472</v>
       </c>
       <c r="B3495" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -43909,7 +43919,7 @@
         <v>5479</v>
       </c>
       <c r="B3496" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -43917,7 +43927,7 @@
         <v>5486</v>
       </c>
       <c r="B3497" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -43925,7 +43935,7 @@
         <v>5493</v>
       </c>
       <c r="B3498" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -43933,7 +43943,7 @@
         <v>5500</v>
       </c>
       <c r="B3499" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="3500" spans="1:2">
@@ -43941,7 +43951,7 @@
         <v>5507</v>
       </c>
       <c r="B3500" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -43949,7 +43959,7 @@
         <v>5514</v>
       </c>
       <c r="B3501" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -43957,7 +43967,7 @@
         <v>5521</v>
       </c>
       <c r="B3502" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3503" spans="1:2">
@@ -43965,7 +43975,7 @@
         <v>5524</v>
       </c>
       <c r="B3503" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -43973,7 +43983,7 @@
         <v>5527</v>
       </c>
       <c r="B3504" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -43981,7 +43991,7 @@
         <v>5530</v>
       </c>
       <c r="B3505" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -43989,7 +43999,7 @@
         <v>5533</v>
       </c>
       <c r="B3506" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -43997,7 +44007,7 @@
         <v>5536</v>
       </c>
       <c r="B3507" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -44005,7 +44015,7 @@
         <v>5539</v>
       </c>
       <c r="B3508" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -44013,7 +44023,7 @@
         <v>5542</v>
       </c>
       <c r="B3509" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -44021,7 +44031,7 @@
         <v>5545</v>
       </c>
       <c r="B3510" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -44029,7 +44039,7 @@
         <v>5548</v>
       </c>
       <c r="B3511" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -44037,7 +44047,7 @@
         <v>5551</v>
       </c>
       <c r="B3512" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -44045,7 +44055,7 @@
         <v>5554</v>
       </c>
       <c r="B3513" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -44053,7 +44063,7 @@
         <v>5557</v>
       </c>
       <c r="B3514" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -44061,7 +44071,7 @@
         <v>5560</v>
       </c>
       <c r="B3515" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -44069,7 +44079,7 @@
         <v>5563</v>
       </c>
       <c r="B3516" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -44077,7 +44087,7 @@
         <v>5566</v>
       </c>
       <c r="B3517" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -44085,7 +44095,7 @@
         <v>5569</v>
       </c>
       <c r="B3518" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -44093,7 +44103,7 @@
         <v>5572</v>
       </c>
       <c r="B3519" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -44101,7 +44111,7 @@
         <v>5575</v>
       </c>
       <c r="B3520" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -44109,7 +44119,7 @@
         <v>5578</v>
       </c>
       <c r="B3521" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -44117,7 +44127,7 @@
         <v>5581</v>
       </c>
       <c r="B3522" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -44125,7 +44135,7 @@
         <v>5584</v>
       </c>
       <c r="B3523" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -44133,7 +44143,7 @@
         <v>5587</v>
       </c>
       <c r="B3524" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -44141,7 +44151,7 @@
         <v>5590</v>
       </c>
       <c r="B3525" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -44149,7 +44159,7 @@
         <v>5593</v>
       </c>
       <c r="B3526" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -44157,7 +44167,7 @@
         <v>5596</v>
       </c>
       <c r="B3527" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -44165,7 +44175,7 @@
         <v>5599</v>
       </c>
       <c r="B3528" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="3529" spans="1:2">
@@ -44173,7 +44183,7 @@
         <v>5602</v>
       </c>
       <c r="B3529" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -44181,7 +44191,7 @@
         <v>5605</v>
       </c>
       <c r="B3530" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -44189,7 +44199,7 @@
         <v>5608</v>
       </c>
       <c r="B3531" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -44197,7 +44207,7 @@
         <v>5611</v>
       </c>
       <c r="B3532" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -44205,7 +44215,7 @@
         <v>5614</v>
       </c>
       <c r="B3533" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -44213,7 +44223,7 @@
         <v>5617</v>
       </c>
       <c r="B3534" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="3535" spans="1:2">
@@ -44221,7 +44231,7 @@
         <v>5620</v>
       </c>
       <c r="B3535" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -44229,7 +44239,7 @@
         <v>5623</v>
       </c>
       <c r="B3536" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -44237,7 +44247,7 @@
         <v>5626</v>
       </c>
       <c r="B3537" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -44245,7 +44255,7 @@
         <v>5629</v>
       </c>
       <c r="B3538" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -44253,7 +44263,7 @@
         <v>5632</v>
       </c>
       <c r="B3539" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -44261,7 +44271,7 @@
         <v>5635</v>
       </c>
       <c r="B3540" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -44269,7 +44279,7 @@
         <v>5638</v>
       </c>
       <c r="B3541" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -44277,7 +44287,7 @@
         <v>5641</v>
       </c>
       <c r="B3542" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -44285,7 +44295,7 @@
         <v>5644</v>
       </c>
       <c r="B3543" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -44293,7 +44303,7 @@
         <v>5647</v>
       </c>
       <c r="B3544" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="3545" spans="1:2">
@@ -44301,7 +44311,7 @@
         <v>5650</v>
       </c>
       <c r="B3545" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -44309,7 +44319,7 @@
         <v>5653</v>
       </c>
       <c r="B3546" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="3547" spans="1:2">
@@ -44317,7 +44327,7 @@
         <v>5656</v>
       </c>
       <c r="B3547" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -44325,7 +44335,7 @@
         <v>5659</v>
       </c>
       <c r="B3548" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="3549" spans="1:2">
@@ -44333,7 +44343,7 @@
         <v>5662</v>
       </c>
       <c r="B3549" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -44341,7 +44351,7 @@
         <v>5665</v>
       </c>
       <c r="B3550" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -44349,7 +44359,7 @@
         <v>5668</v>
       </c>
       <c r="B3551" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -44357,7 +44367,7 @@
         <v>5671</v>
       </c>
       <c r="B3552" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
@@ -44365,7 +44375,7 @@
         <v>5674</v>
       </c>
       <c r="B3553" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -44373,7 +44383,7 @@
         <v>5677</v>
       </c>
       <c r="B3554" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -44381,7 +44391,7 @@
         <v>5680</v>
       </c>
       <c r="B3555" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -44389,7 +44399,7 @@
         <v>5683</v>
       </c>
       <c r="B3556" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="3557" spans="1:2">
@@ -44397,7 +44407,7 @@
         <v>5686</v>
       </c>
       <c r="B3557" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -44405,7 +44415,7 @@
         <v>5689</v>
       </c>
       <c r="B3558" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -44413,7 +44423,7 @@
         <v>5692</v>
       </c>
       <c r="B3559" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="3560" spans="1:2">
@@ -44421,7 +44431,7 @@
         <v>5695</v>
       </c>
       <c r="B3560" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -44429,7 +44439,7 @@
         <v>5698</v>
       </c>
       <c r="B3561" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -44437,7 +44447,7 @@
         <v>5701</v>
       </c>
       <c r="B3562" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -44445,7 +44455,7 @@
         <v>5704</v>
       </c>
       <c r="B3563" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -44453,7 +44463,7 @@
         <v>5707</v>
       </c>
       <c r="B3564" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -44461,7 +44471,7 @@
         <v>5710</v>
       </c>
       <c r="B3565" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -44469,7 +44479,7 @@
         <v>5713</v>
       </c>
       <c r="B3566" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="3567" spans="1:2">
@@ -44477,7 +44487,7 @@
         <v>5716</v>
       </c>
       <c r="B3567" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -44485,7 +44495,7 @@
         <v>5719</v>
       </c>
       <c r="B3568" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -44493,7 +44503,7 @@
         <v>5722</v>
       </c>
       <c r="B3569" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -44501,7 +44511,7 @@
         <v>5725</v>
       </c>
       <c r="B3570" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -44509,7 +44519,7 @@
         <v>5728</v>
       </c>
       <c r="B3571" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -44517,7 +44527,7 @@
         <v>5731</v>
       </c>
       <c r="B3572" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -44525,7 +44535,7 @@
         <v>5734</v>
       </c>
       <c r="B3573" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -44533,7 +44543,7 @@
         <v>5737</v>
       </c>
       <c r="B3574" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -44541,7 +44551,7 @@
         <v>5740</v>
       </c>
       <c r="B3575" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -44549,7 +44559,7 @@
         <v>5743</v>
       </c>
       <c r="B3576" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -44557,7 +44567,7 @@
         <v>5746</v>
       </c>
       <c r="B3577" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -44565,7 +44575,7 @@
         <v>5749</v>
       </c>
       <c r="B3578" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -44573,7 +44583,7 @@
         <v>5752</v>
       </c>
       <c r="B3579" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -44581,7 +44591,7 @@
         <v>5755</v>
       </c>
       <c r="B3580" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -44589,7 +44599,7 @@
         <v>5758</v>
       </c>
       <c r="B3581" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -44597,7 +44607,7 @@
         <v>5761</v>
       </c>
       <c r="B3582" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -44605,7 +44615,7 @@
         <v>5764</v>
       </c>
       <c r="B3583" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -44613,7 +44623,7 @@
         <v>5767</v>
       </c>
       <c r="B3584" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -44621,7 +44631,7 @@
         <v>5770</v>
       </c>
       <c r="B3585" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -44629,7 +44639,7 @@
         <v>5773</v>
       </c>
       <c r="B3586" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -44637,7 +44647,7 @@
         <v>5776</v>
       </c>
       <c r="B3587" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -44645,7 +44655,7 @@
         <v>5779</v>
       </c>
       <c r="B3588" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -44653,7 +44663,7 @@
         <v>5782</v>
       </c>
       <c r="B3589" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -44661,7 +44671,7 @@
         <v>5785</v>
       </c>
       <c r="B3590" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -44669,7 +44679,7 @@
         <v>5788</v>
       </c>
       <c r="B3591" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -44677,7 +44687,7 @@
         <v>5791</v>
       </c>
       <c r="B3592" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -44685,7 +44695,7 @@
         <v>5794</v>
       </c>
       <c r="B3593" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -44693,7 +44703,7 @@
         <v>5797</v>
       </c>
       <c r="B3594" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -44701,7 +44711,7 @@
         <v>5800</v>
       </c>
       <c r="B3595" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -44709,7 +44719,7 @@
         <v>5803</v>
       </c>
       <c r="B3596" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -44717,7 +44727,7 @@
         <v>5806</v>
       </c>
       <c r="B3597" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -44725,7 +44735,7 @@
         <v>5809</v>
       </c>
       <c r="B3598" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -44733,7 +44743,7 @@
         <v>5812</v>
       </c>
       <c r="B3599" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -44741,7 +44751,7 @@
         <v>5815</v>
       </c>
       <c r="B3600" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -44749,7 +44759,7 @@
         <v>5818</v>
       </c>
       <c r="B3601" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -44757,7 +44767,7 @@
         <v>5821</v>
       </c>
       <c r="B3602" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -44765,7 +44775,7 @@
         <v>5824</v>
       </c>
       <c r="B3603" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="3604" spans="1:2">
@@ -44773,7 +44783,7 @@
         <v>5827</v>
       </c>
       <c r="B3604" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -44781,7 +44791,7 @@
         <v>5830</v>
       </c>
       <c r="B3605" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -44789,7 +44799,7 @@
         <v>5833</v>
       </c>
       <c r="B3606" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -44797,7 +44807,7 @@
         <v>5836</v>
       </c>
       <c r="B3607" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -44805,7 +44815,7 @@
         <v>5839</v>
       </c>
       <c r="B3608" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -44813,7 +44823,7 @@
         <v>5842</v>
       </c>
       <c r="B3609" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -44821,7 +44831,7 @@
         <v>5845</v>
       </c>
       <c r="B3610" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -44829,7 +44839,7 @@
         <v>5848</v>
       </c>
       <c r="B3611" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -44837,7 +44847,7 @@
         <v>5851</v>
       </c>
       <c r="B3612" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -44845,7 +44855,7 @@
         <v>5854</v>
       </c>
       <c r="B3613" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -44853,7 +44863,7 @@
         <v>5857</v>
       </c>
       <c r="B3614" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -44861,7 +44871,7 @@
         <v>5860</v>
       </c>
       <c r="B3615" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -44869,7 +44879,7 @@
         <v>5863</v>
       </c>
       <c r="B3616" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -44877,7 +44887,7 @@
         <v>5866</v>
       </c>
       <c r="B3617" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -44885,7 +44895,7 @@
         <v>5869</v>
       </c>
       <c r="B3618" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -44893,7 +44903,7 @@
         <v>5872</v>
       </c>
       <c r="B3619" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -44901,7 +44911,7 @@
         <v>5875</v>
       </c>
       <c r="B3620" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -44909,7 +44919,7 @@
         <v>5878</v>
       </c>
       <c r="B3621" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3622" spans="1:2">
@@ -44917,7 +44927,7 @@
         <v>5881</v>
       </c>
       <c r="B3622" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -44925,7 +44935,7 @@
         <v>5884</v>
       </c>
       <c r="B3623" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
@@ -44933,7 +44943,7 @@
         <v>5887</v>
       </c>
       <c r="B3624" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -44941,7 +44951,7 @@
         <v>5890</v>
       </c>
       <c r="B3625" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -44949,7 +44959,7 @@
         <v>5893</v>
       </c>
       <c r="B3626" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -44957,7 +44967,7 @@
         <v>5896</v>
       </c>
       <c r="B3627" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -44965,7 +44975,7 @@
         <v>5899</v>
       </c>
       <c r="B3628" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -44973,7 +44983,7 @@
         <v>5902</v>
       </c>
       <c r="B3629" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -44981,7 +44991,7 @@
         <v>5905</v>
       </c>
       <c r="B3630" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -44989,7 +44999,7 @@
         <v>5908</v>
       </c>
       <c r="B3631" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -44997,7 +45007,7 @@
         <v>5911</v>
       </c>
       <c r="B3632" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -45005,7 +45015,7 @@
         <v>5914</v>
       </c>
       <c r="B3633" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -45013,7 +45023,7 @@
         <v>5917</v>
       </c>
       <c r="B3634" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -45021,7 +45031,7 @@
         <v>5920</v>
       </c>
       <c r="B3635" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -45029,7 +45039,7 @@
         <v>5923</v>
       </c>
       <c r="B3636" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -45037,7 +45047,7 @@
         <v>5926</v>
       </c>
       <c r="B3637" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -45045,7 +45055,7 @@
         <v>5929</v>
       </c>
       <c r="B3638" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -45053,7 +45063,7 @@
         <v>5932</v>
       </c>
       <c r="B3639" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -45061,7 +45071,7 @@
         <v>5935</v>
       </c>
       <c r="B3640" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -45069,7 +45079,7 @@
         <v>5938</v>
       </c>
       <c r="B3641" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -45077,7 +45087,7 @@
         <v>5941</v>
       </c>
       <c r="B3642" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -45085,7 +45095,7 @@
         <v>5944</v>
       </c>
       <c r="B3643" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -45093,7 +45103,7 @@
         <v>5947</v>
       </c>
       <c r="B3644" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -45101,7 +45111,7 @@
         <v>5950</v>
       </c>
       <c r="B3645" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -45109,7 +45119,7 @@
         <v>5953</v>
       </c>
       <c r="B3646" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -45117,7 +45127,7 @@
         <v>5956</v>
       </c>
       <c r="B3647" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -45125,7 +45135,7 @@
         <v>5959</v>
       </c>
       <c r="B3648" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -45133,7 +45143,7 @@
         <v>5962</v>
       </c>
       <c r="B3649" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -45141,7 +45151,7 @@
         <v>5965</v>
       </c>
       <c r="B3650" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -45149,7 +45159,7 @@
         <v>5968</v>
       </c>
       <c r="B3651" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -45157,7 +45167,7 @@
         <v>5971</v>
       </c>
       <c r="B3652" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
@@ -45165,7 +45175,7 @@
         <v>5974</v>
       </c>
       <c r="B3653" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -45173,7 +45183,7 @@
         <v>5977</v>
       </c>
       <c r="B3654" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -45181,7 +45191,7 @@
         <v>5980</v>
       </c>
       <c r="B3655" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -45189,7 +45199,7 @@
         <v>5983</v>
       </c>
       <c r="B3656" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -45197,7 +45207,7 @@
         <v>5986</v>
       </c>
       <c r="B3657" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -45205,7 +45215,7 @@
         <v>5989</v>
       </c>
       <c r="B3658" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -45213,7 +45223,7 @@
         <v>5992</v>
       </c>
       <c r="B3659" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -45221,7 +45231,7 @@
         <v>5995</v>
       </c>
       <c r="B3660" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -45229,7 +45239,7 @@
         <v>5998</v>
       </c>
       <c r="B3661" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -45237,7 +45247,7 @@
         <v>6001</v>
       </c>
       <c r="B3662" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -45245,7 +45255,7 @@
         <v>6004</v>
       </c>
       <c r="B3663" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -45253,7 +45263,7 @@
         <v>6007</v>
       </c>
       <c r="B3664" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -45261,7 +45271,7 @@
         <v>6010</v>
       </c>
       <c r="B3665" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -45269,7 +45279,7 @@
         <v>6013</v>
       </c>
       <c r="B3666" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -45277,7 +45287,7 @@
         <v>6016</v>
       </c>
       <c r="B3667" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -45285,7 +45295,7 @@
         <v>6019</v>
       </c>
       <c r="B3668" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -45293,7 +45303,7 @@
         <v>6022</v>
       </c>
       <c r="B3669" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -45301,7 +45311,7 @@
         <v>6025</v>
       </c>
       <c r="B3670" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -45309,7 +45319,7 @@
         <v>6028</v>
       </c>
       <c r="B3671" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -45317,7 +45327,7 @@
         <v>6031</v>
       </c>
       <c r="B3672" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3673" spans="1:2">
@@ -45325,7 +45335,7 @@
         <v>6034</v>
       </c>
       <c r="B3673" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -45333,7 +45343,7 @@
         <v>6037</v>
       </c>
       <c r="B3674" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -45341,7 +45351,7 @@
         <v>6040</v>
       </c>
       <c r="B3675" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -45349,7 +45359,7 @@
         <v>6043</v>
       </c>
       <c r="B3676" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -45357,7 +45367,7 @@
         <v>6046</v>
       </c>
       <c r="B3677" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -45365,7 +45375,7 @@
         <v>6049</v>
       </c>
       <c r="B3678" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -45373,7 +45383,7 @@
         <v>6052</v>
       </c>
       <c r="B3679" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -45381,7 +45391,7 @@
         <v>6055</v>
       </c>
       <c r="B3680" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
@@ -45389,7 +45399,7 @@
         <v>6058</v>
       </c>
       <c r="B3681" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -45397,7 +45407,7 @@
         <v>6061</v>
       </c>
       <c r="B3682" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -45405,7 +45415,7 @@
         <v>6064</v>
       </c>
       <c r="B3683" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -45413,7 +45423,7 @@
         <v>6067</v>
       </c>
       <c r="B3684" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -45421,7 +45431,7 @@
         <v>6070</v>
       </c>
       <c r="B3685" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -45429,7 +45439,7 @@
         <v>6073</v>
       </c>
       <c r="B3686" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -45437,7 +45447,7 @@
         <v>6076</v>
       </c>
       <c r="B3687" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -45445,7 +45455,7 @@
         <v>6079</v>
       </c>
       <c r="B3688" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -45453,7 +45463,7 @@
         <v>6082</v>
       </c>
       <c r="B3689" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -45461,7 +45471,7 @@
         <v>6085</v>
       </c>
       <c r="B3690" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -45469,7 +45479,7 @@
         <v>6088</v>
       </c>
       <c r="B3691" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -45477,7 +45487,7 @@
         <v>6091</v>
       </c>
       <c r="B3692" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -45485,7 +45495,7 @@
         <v>6094</v>
       </c>
       <c r="B3693" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -45493,7 +45503,7 @@
         <v>6097</v>
       </c>
       <c r="B3694" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -45501,7 +45511,7 @@
         <v>6100</v>
       </c>
       <c r="B3695" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -45509,7 +45519,7 @@
         <v>6103</v>
       </c>
       <c r="B3696" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -45517,7 +45527,7 @@
         <v>6106</v>
       </c>
       <c r="B3697" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -45525,7 +45535,7 @@
         <v>6109</v>
       </c>
       <c r="B3698" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -45533,7 +45543,7 @@
         <v>6112</v>
       </c>
       <c r="B3699" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -45541,7 +45551,7 @@
         <v>6115</v>
       </c>
       <c r="B3700" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -45549,7 +45559,7 @@
         <v>6118</v>
       </c>
       <c r="B3701" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -45557,7 +45567,7 @@
         <v>6121</v>
       </c>
       <c r="B3702" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -45565,7 +45575,7 @@
         <v>6124</v>
       </c>
       <c r="B3703" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -45573,7 +45583,7 @@
         <v>6127</v>
       </c>
       <c r="B3704" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -45581,7 +45591,7 @@
         <v>6130</v>
       </c>
       <c r="B3705" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -45589,7 +45599,7 @@
         <v>6133</v>
       </c>
       <c r="B3706" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -45597,7 +45607,7 @@
         <v>6136</v>
       </c>
       <c r="B3707" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -45605,7 +45615,7 @@
         <v>6139</v>
       </c>
       <c r="B3708" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -45613,7 +45623,7 @@
         <v>6142</v>
       </c>
       <c r="B3709" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -45621,7 +45631,7 @@
         <v>6145</v>
       </c>
       <c r="B3710" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -45629,7 +45639,7 @@
         <v>6148</v>
       </c>
       <c r="B3711" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -45637,7 +45647,7 @@
         <v>6151</v>
       </c>
       <c r="B3712" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -45645,7 +45655,7 @@
         <v>6154</v>
       </c>
       <c r="B3713" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="3714" spans="1:2">
@@ -45653,7 +45663,7 @@
         <v>6157</v>
       </c>
       <c r="B3714" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -45661,7 +45671,7 @@
         <v>6160</v>
       </c>
       <c r="B3715" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -45669,7 +45679,7 @@
         <v>6163</v>
       </c>
       <c r="B3716" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -45677,7 +45687,7 @@
         <v>6166</v>
       </c>
       <c r="B3717" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -45685,7 +45695,7 @@
         <v>6169</v>
       </c>
       <c r="B3718" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -45693,7 +45703,7 @@
         <v>6172</v>
       </c>
       <c r="B3719" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -45701,7 +45711,7 @@
         <v>6175</v>
       </c>
       <c r="B3720" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -45709,7 +45719,7 @@
         <v>6178</v>
       </c>
       <c r="B3721" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -45717,7 +45727,7 @@
         <v>6181</v>
       </c>
       <c r="B3722" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -45725,7 +45735,7 @@
         <v>6184</v>
       </c>
       <c r="B3723" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3724" spans="1:2">
@@ -45733,7 +45743,7 @@
         <v>6187</v>
       </c>
       <c r="B3724" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3725" spans="1:2">
@@ -45741,7 +45751,7 @@
         <v>6190</v>
       </c>
       <c r="B3725" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -45749,7 +45759,7 @@
         <v>6193</v>
       </c>
       <c r="B3726" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -45757,7 +45767,7 @@
         <v>6196</v>
       </c>
       <c r="B3727" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -45765,7 +45775,7 @@
         <v>6199</v>
       </c>
       <c r="B3728" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -45773,7 +45783,7 @@
         <v>6202</v>
       </c>
       <c r="B3729" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -45781,7 +45791,7 @@
         <v>6205</v>
       </c>
       <c r="B3730" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -45789,7 +45799,7 @@
         <v>6208</v>
       </c>
       <c r="B3731" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -45797,7 +45807,7 @@
         <v>6211</v>
       </c>
       <c r="B3732" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -45805,7 +45815,7 @@
         <v>6214</v>
       </c>
       <c r="B3733" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -45813,7 +45823,7 @@
         <v>6217</v>
       </c>
       <c r="B3734" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -45821,7 +45831,7 @@
         <v>6220</v>
       </c>
       <c r="B3735" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -45829,7 +45839,7 @@
         <v>6223</v>
       </c>
       <c r="B3736" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -45837,7 +45847,7 @@
         <v>6226</v>
       </c>
       <c r="B3737" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -45845,7 +45855,7 @@
         <v>6229</v>
       </c>
       <c r="B3738" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -45853,7 +45863,7 @@
         <v>6232</v>
       </c>
       <c r="B3739" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -45861,7 +45871,7 @@
         <v>6235</v>
       </c>
       <c r="B3740" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -45869,7 +45879,7 @@
         <v>6238</v>
       </c>
       <c r="B3741" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -45877,7 +45887,7 @@
         <v>6241</v>
       </c>
       <c r="B3742" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -45885,7 +45895,7 @@
         <v>6244</v>
       </c>
       <c r="B3743" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -45893,7 +45903,7 @@
         <v>6247</v>
       </c>
       <c r="B3744" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -45901,7 +45911,7 @@
         <v>6250</v>
       </c>
       <c r="B3745" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -45909,7 +45919,7 @@
         <v>6253</v>
       </c>
       <c r="B3746" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -45917,7 +45927,7 @@
         <v>6256</v>
       </c>
       <c r="B3747" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -45925,7 +45935,7 @@
         <v>6259</v>
       </c>
       <c r="B3748" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -45933,7 +45943,7 @@
         <v>6262</v>
       </c>
       <c r="B3749" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -45941,7 +45951,7 @@
         <v>6265</v>
       </c>
       <c r="B3750" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -45949,7 +45959,7 @@
         <v>6268</v>
       </c>
       <c r="B3751" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -45957,7 +45967,7 @@
         <v>6271</v>
       </c>
       <c r="B3752" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -45965,7 +45975,7 @@
         <v>6274</v>
       </c>
       <c r="B3753" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -45973,7 +45983,7 @@
         <v>6277</v>
       </c>
       <c r="B3754" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -45981,7 +45991,7 @@
         <v>6280</v>
       </c>
       <c r="B3755" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -45989,7 +45999,7 @@
         <v>6283</v>
       </c>
       <c r="B3756" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -45997,7 +46007,7 @@
         <v>6286</v>
       </c>
       <c r="B3757" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -46005,7 +46015,7 @@
         <v>6289</v>
       </c>
       <c r="B3758" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -46013,7 +46023,7 @@
         <v>6292</v>
       </c>
       <c r="B3759" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -46021,7 +46031,7 @@
         <v>6295</v>
       </c>
       <c r="B3760" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -46029,7 +46039,7 @@
         <v>6298</v>
       </c>
       <c r="B3761" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -46037,7 +46047,7 @@
         <v>6301</v>
       </c>
       <c r="B3762" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -46045,7 +46055,7 @@
         <v>6304</v>
       </c>
       <c r="B3763" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -46053,7 +46063,7 @@
         <v>6307</v>
       </c>
       <c r="B3764" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -46061,7 +46071,7 @@
         <v>6310</v>
       </c>
       <c r="B3765" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -46069,7 +46079,7 @@
         <v>6313</v>
       </c>
       <c r="B3766" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -46077,7 +46087,7 @@
         <v>6316</v>
       </c>
       <c r="B3767" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -46085,7 +46095,7 @@
         <v>6319</v>
       </c>
       <c r="B3768" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -46093,7 +46103,7 @@
         <v>6322</v>
       </c>
       <c r="B3769" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -46101,7 +46111,7 @@
         <v>6325</v>
       </c>
       <c r="B3770" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -46109,7 +46119,7 @@
         <v>6328</v>
       </c>
       <c r="B3771" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -46117,7 +46127,7 @@
         <v>6331</v>
       </c>
       <c r="B3772" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -46125,7 +46135,7 @@
         <v>6334</v>
       </c>
       <c r="B3773" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -46133,7 +46143,7 @@
         <v>6337</v>
       </c>
       <c r="B3774" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -46141,7 +46151,7 @@
         <v>6340</v>
       </c>
       <c r="B3775" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -46149,7 +46159,7 @@
         <v>6343</v>
       </c>
       <c r="B3776" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -46157,7 +46167,7 @@
         <v>6346</v>
       </c>
       <c r="B3777" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -46165,7 +46175,7 @@
         <v>6349</v>
       </c>
       <c r="B3778" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -46173,7 +46183,7 @@
         <v>6352</v>
       </c>
       <c r="B3779" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -46181,7 +46191,7 @@
         <v>6355</v>
       </c>
       <c r="B3780" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -46189,7 +46199,7 @@
         <v>6358</v>
       </c>
       <c r="B3781" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -46197,7 +46207,7 @@
         <v>6361</v>
       </c>
       <c r="B3782" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -46205,7 +46215,7 @@
         <v>6364</v>
       </c>
       <c r="B3783" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -46213,7 +46223,7 @@
         <v>6367</v>
       </c>
       <c r="B3784" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -46221,7 +46231,7 @@
         <v>6370</v>
       </c>
       <c r="B3785" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -46229,7 +46239,7 @@
         <v>6373</v>
       </c>
       <c r="B3786" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
   </sheetData>
@@ -48697,8 +48707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
   <dimension ref="A1:AK114"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -48711,7 +48721,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="78.42578125" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -48743,7 +48753,7 @@
         <v>2857</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
@@ -48866,10 +48876,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>2853</v>
@@ -49088,10 +49098,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>3434</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>3436</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>2852</v>
@@ -49115,10 +49125,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>2852</v>
@@ -49142,10 +49152,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>2852</v>
@@ -49496,10 +49506,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>3378</v>
@@ -49523,10 +49533,10 @@
         <v>42</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>3378</v>
@@ -49550,10 +49560,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="E31" s="70" t="s">
         <v>3378</v>
@@ -49568,6 +49578,10 @@
         <v>3377</v>
       </c>
       <c r="I31" s="28"/>
+      <c r="P31" t="str">
+        <f>REPT(" ",J39-J40)</f>
+        <v xml:space="preserve">             </v>
+      </c>
     </row>
     <row r="32" spans="1:37" ht="20.25">
       <c r="A32" s="65" t="s">
@@ -49783,6 +49797,13 @@
       <c r="H39" s="69" t="s">
         <v>2933</v>
       </c>
+      <c r="J39">
+        <f>MAX(J40:J52)</f>
+        <v>29</v>
+      </c>
+      <c r="K39" t="s">
+        <v>4008</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="75">
       <c r="A40" s="71" t="s">
@@ -49792,10 +49813,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>3970</v>
+        <v>4009</v>
       </c>
       <c r="E40" s="71" t="s">
         <v>3382</v>
@@ -49810,11 +49831,15 @@
         <v>3377</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>3447</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" ref="L40:L43" si="0">"#define "&amp;I40&amp;" "&amp;B40</f>
-        <v>#define mEFCT_UNIQ_INTRO 62</v>
+        <v>3445</v>
+      </c>
+      <c r="J40">
+        <f>LEN(I40)</f>
+        <v>16</v>
+      </c>
+      <c r="L40" s="84" t="str">
+        <f>"#define "&amp;I40&amp;" "&amp;REPT(" ",$J$39-J40)&amp;RIGHT(TEXT(B40,"    #"),3)&amp;" // "&amp;RIGHT(LEFT(D40,LEN(D40)-1),LEN(D40)-1-FIND("""",D40))</f>
+        <v>#define mEFCT_UNIQ_INTRO               62 // Welcome to RBG configuration! Your call is important to us. Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself.</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45">
@@ -49825,7 +49850,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="D41" s="67" t="s">
         <v>3421</v>
@@ -49843,11 +49868,15 @@
         <v>3377</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>3448</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="0"/>
-        <v>#define mEFCT_UNIQ_SND_INSTR 63</v>
+        <v>3446</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J52" si="0">LEN(I41)</f>
+        <v>20</v>
+      </c>
+      <c r="L41" s="84" t="str">
+        <f t="shared" ref="L41:L52" si="1">"#define "&amp;I41&amp;" "&amp;REPT(" ",$J$39-J41)&amp;RIGHT(TEXT(B41,"    #"),3)&amp;" // "&amp;RIGHT(LEFT(D41,LEN(D41)-1),LEN(D41)-1-FIND("""",D41))</f>
+        <v>#define mEFCT_UNIQ_SND_INSTR           63 // Press just trigger to cycle through sound choices, trigger + any color to choose the sound.</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45">
@@ -49858,7 +49887,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>3422</v>
@@ -49876,11 +49905,15 @@
         <v>3377</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>3988</v>
-      </c>
-      <c r="L42" t="str">
+        <v>3985</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="0"/>
-        <v>#define mEFCT_UNIQ_LED_INSTR 64</v>
+        <v>20</v>
+      </c>
+      <c r="L42" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_LED_INSTR           64 // Press just trigger to cycle through LED pattern choices, trigger + any color to choose the LED Pattern.</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45">
@@ -49891,7 +49924,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>3423</v>
@@ -49909,11 +49942,15 @@
         <v>3377</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>3989</v>
-      </c>
-      <c r="L43" t="str">
+        <v>3986</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="0"/>
-        <v>#define mEFCT_UNIQ_OTHR_INSTR 65</v>
+        <v>21</v>
+      </c>
+      <c r="L43" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_OTHR_INSTR          65 // Press just trigger to cycle through a list of other choices, trigger + any color to choose the other choice.</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
@@ -49924,10 +49961,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>3978</v>
+        <v>3975</v>
       </c>
       <c r="D44" s="67" t="s">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>3382</v>
@@ -49942,11 +49979,15 @@
         <v>3377</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>3990</v>
-      </c>
-      <c r="L44" t="str">
-        <f>"#define "&amp;I44&amp;" "&amp;B44</f>
-        <v>#define mEFCT_UNIQ_TYPE_CHOICES_INSTR 66</v>
+        <v>3987</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L44" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_TYPE_CHOICES_INSTR  66 // Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE.</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30">
@@ -49957,10 +49998,10 @@
         <v>71</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="E45" s="71" t="s">
         <v>3382</v>
@@ -49975,11 +50016,15 @@
         <v>3377</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>3991</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" ref="L45:L52" si="1">"#define "&amp;I45&amp;" "&amp;B45</f>
-        <v>#define mEFCT_UNIQ_CHARGEUP 71</v>
+        <v>3988</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L45" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>#define mEFCT_UNIQ_CHARGEUP            71 // Effect typeCHARGE-UP FOR SHOOTING. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30">
@@ -49990,10 +50035,10 @@
         <v>72</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>3980</v>
+        <v>3977</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>3998</v>
+        <v>3995</v>
       </c>
       <c r="E46" s="71" t="s">
         <v>3382</v>
@@ -50008,11 +50053,15 @@
         <v>3377</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>3992</v>
-      </c>
-      <c r="L46" t="str">
+        <v>3989</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L46" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_SHOOTING 72</v>
+        <v>#define mEFCT_UNIQ_SHOOTING            72 // Effect type SHOOTING. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30">
@@ -50023,10 +50072,10 @@
         <v>73</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>3981</v>
+        <v>3978</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>3999</v>
+        <v>3996</v>
       </c>
       <c r="E47" s="71" t="s">
         <v>3382</v>
@@ -50041,11 +50090,15 @@
         <v>3377</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>3993</v>
-      </c>
-      <c r="L47" t="str">
+        <v>3990</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L47" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_OPENBARREL 73</v>
+        <v>#define mEFCT_UNIQ_OPENBARREL          73 // Effect type OPEN BARREL. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30">
@@ -50056,10 +50109,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>4000</v>
+        <v>3997</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>3382</v>
@@ -50074,11 +50127,15 @@
         <v>3377</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>3994</v>
-      </c>
-      <c r="L48" t="str">
+        <v>3991</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L48" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_LOCKLOAD 74</v>
+        <v>#define mEFCT_UNIQ_LOCKLOAD            74 // Effect type LOCK-AND-LOAD. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30">
@@ -50089,10 +50146,10 @@
         <v>75</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>4001</v>
+        <v>3998</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>3382</v>
@@ -50107,11 +50164,15 @@
         <v>3377</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>3995</v>
-      </c>
-      <c r="L49" t="str">
+        <v>3992</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L49" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_POWERON 75</v>
+        <v>#define mEFCT_UNIQ_POWERON             75 // Effect type POWER-ON. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30">
@@ -50122,10 +50183,10 @@
         <v>76</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>4002</v>
+        <v>3999</v>
       </c>
       <c r="E50" s="71" t="s">
         <v>3382</v>
@@ -50140,11 +50201,15 @@
         <v>3377</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>3996</v>
-      </c>
-      <c r="L50" t="str">
+        <v>3993</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L50" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_WAITFORTRIG 76</v>
+        <v>#define mEFCT_UNIQ_WAITFORTRIG         76 // Effect type WAITING-FOR-TRIGGER. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1">
@@ -50158,7 +50223,7 @@
         <v>3381</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>3424</v>
+        <v>4006</v>
       </c>
       <c r="E51" s="71" t="s">
         <v>3382</v>
@@ -50173,11 +50238,15 @@
         <v>3377</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>3440</v>
-      </c>
-      <c r="L51" t="str">
+        <v>3438</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L51" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_SILENCE 101</v>
+        <v>#define mEFCT_UNIQ_SILENCE            101 // silence</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="20.25">
@@ -50191,7 +50260,7 @@
         <v>3419</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>3425</v>
+        <v>4007</v>
       </c>
       <c r="E52" s="71" t="s">
         <v>3382</v>
@@ -50206,11 +50275,15 @@
         <v>3377</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>3441</v>
-      </c>
-      <c r="L52" t="str">
+        <v>3439</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L52" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>#define mEFCT_UNIQ_NOT_IMPL 102</v>
+        <v>#define mEFCT_UNIQ_NOT_IMPL           102 // Not yet implemented</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="20.25">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0D93F2-5E73-4477-B3F9-E4CEC0A46869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08772AD-AD62-48F7-ADAC-D23754D05F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="4010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="4050">
   <si>
     <t>trigOnly</t>
   </si>
@@ -12807,6 +12807,126 @@
   </si>
   <si>
     <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself."</t>
+  </si>
+  <si>
+    <t>store EEPROM</t>
+  </si>
+  <si>
+    <t>choose effect category sound, LED, other</t>
+  </si>
+  <si>
+    <t>choose effect type (number group: shooting, open, close, etc.</t>
+  </si>
+  <si>
+    <t>store RAM (already have place for this but mechanism changes)</t>
+  </si>
+  <si>
+    <t>cycle through effects of type</t>
+  </si>
+  <si>
+    <t>change CFGSTORE ?</t>
+  </si>
+  <si>
+    <t>we have this</t>
+  </si>
+  <si>
+    <t>this is CFGNEXT loop</t>
+  </si>
+  <si>
+    <t>1 - need to re-establish CONFIG as EEPROM category so can say choose sound, choose LED pattern, etc.</t>
+  </si>
+  <si>
+    <t>add CFGNEXT capability for category</t>
+  </si>
+  <si>
+    <t>this changes numbers of everything past 60</t>
+  </si>
+  <si>
+    <t>mBITCFG_SOUND</t>
+  </si>
+  <si>
+    <t>mBITCFG_NUMBER</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER_CFG2CATEGORY</t>
+  </si>
+  <si>
+    <t>mCFG_CATEGORY_NEXT</t>
+  </si>
+  <si>
+    <t>mCFG_CATEGORY_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SND_CATEGORY</t>
+  </si>
+  <si>
+    <t>mCFG_CATEGORY_LOOP</t>
+  </si>
+  <si>
+    <t>mCFG_CATEGORY_CHOICE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2CATEGORY | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>mCFG_TYPE</t>
+  </si>
+  <si>
+    <t>CFGSTORE needs to know the loop count</t>
+  </si>
+  <si>
+    <t>mCFG_CATEGORY</t>
+  </si>
+  <si>
+    <t>mADDR_CFG_CATEGORY</t>
+  </si>
+  <si>
+    <t>mADDR_CFG_TYPE</t>
+  </si>
+  <si>
+    <t>mCFG_TYPE_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SND_TYPE</t>
+  </si>
+  <si>
+    <t>mCFG_TYPE_LOOP</t>
+  </si>
+  <si>
+    <t>mCFG_TYPE_NEXT</t>
+  </si>
+  <si>
+    <t>mCFG_TYPE_CHOICE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2TYPE | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>CFGSTORE needs to know the loop count GIVEN the category</t>
+  </si>
+  <si>
+    <t>mCFG_EFFECT</t>
+  </si>
+  <si>
+    <t>mADDR_CFG_EFFECT</t>
+  </si>
+  <si>
+    <t>mCFG_EFFECT_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_SND_EFFECT</t>
+  </si>
+  <si>
+    <t>mCFG_EFFECT_LOOP</t>
+  </si>
+  <si>
+    <t>mCFG_EFFECT_NEXT</t>
+  </si>
+  <si>
+    <t>mCFG_EFFECT_CHOICE</t>
+  </si>
+  <si>
+    <t>CFGSTORE needs to know the loop count GIVEN the category AND the type</t>
   </si>
 </sst>
 </file>
@@ -13229,7 +13349,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13389,6 +13509,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="8"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -13716,17 +13839,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -15409,39 +15532,15 @@
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="B60" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>3409</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>3414</v>
-      </c>
-      <c r="K60" s="9" t="str">
-        <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOP 32</v>
+      <c r="K60" s="9" t="e">
+        <f>IF(LEN(C100),VLOOKUP(C100,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="B61" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>3409</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>3583</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>3415</v>
-      </c>
-      <c r="K61" s="9" t="str">
-        <f>IF(LEN(C61),VLOOKUP(C61,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOP 32</v>
+      <c r="K61" s="9" t="e">
+        <f>IF(LEN(C101),VLOOKUP(C101,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -15661,8 +15760,365 @@
         <v>mdo47 recording of "Effect type WAITING-FOR-TRIGGER. Trigger alone for next type."</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
+    <row r="82" spans="2:12">
+      <c r="D82" s="10" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>4010</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="30">
+      <c r="D83" s="10" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>4013</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="D84" s="10" t="s">
+        <v>4014</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>4016</v>
+      </c>
       <c r="F84" s="63"/>
+      <c r="G84" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="2:12" ht="45">
+      <c r="D87" s="10" t="s">
+        <v>4018</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="J90" t="s">
+        <v>4021</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="J91" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="45">
+      <c r="B96" s="10" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="85">
+        <v>0</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>4025</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E98" s="81" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>4027</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>4027</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" ht="45">
+      <c r="B103" s="10" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="45">
+      <c r="B105" s="10" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>4028</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" ht="45">
+      <c r="B108" s="10" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="85">
+        <v>0</v>
+      </c>
+      <c r="H108" s="75" t="s">
+        <v>4034</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>4035</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E110" s="81" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" ht="45">
+      <c r="B115" s="10" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" ht="45">
+      <c r="B117" s="10" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="45">
+      <c r="B120" s="10" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>4042</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="85">
+        <v>0</v>
+      </c>
+      <c r="H120" s="75" t="s">
+        <v>4043</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E122" s="81" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F125" s="63" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" ht="45">
+      <c r="B127" s="10" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>4047</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="45">
+      <c r="B129" s="10" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>4048</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>4042</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K69" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
@@ -48707,8 +49163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
   <dimension ref="A1:AK114"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -48979,7 +49435,7 @@
       <c r="I9" s="27"/>
       <c r="AK9" s="28"/>
     </row>
-    <row r="10" spans="1:37" ht="30.75" thickTop="1">
+    <row r="10" spans="1:37" ht="31.5" thickTop="1" thickBot="1">
       <c r="A10" s="70" t="s">
         <v>2852</v>
       </c>
@@ -49007,11 +49463,11 @@
       <c r="I10" s="28"/>
       <c r="AK10" s="28"/>
     </row>
-    <row r="11" spans="1:37" ht="30">
+    <row r="11" spans="1:37" ht="31.5" thickTop="1" thickBot="1">
       <c r="A11" s="70" t="s">
         <v>2852</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="74">
         <v>14</v>
       </c>
       <c r="C11" s="73" t="s">
@@ -49035,7 +49491,7 @@
       <c r="I11" s="28"/>
       <c r="AK11" s="28"/>
     </row>
-    <row r="12" spans="1:37" ht="20.25">
+    <row r="12" spans="1:37" ht="21" thickTop="1">
       <c r="A12" s="70" t="s">
         <v>2852</v>
       </c>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08772AD-AD62-48F7-ADAC-D23754D05F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81698A4-0407-4C98-978D-791AAE421B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
-    <sheet name="RULES" sheetId="2" r:id="rId2"/>
-    <sheet name="debugging" sheetId="3" r:id="rId3"/>
-    <sheet name="YX5200 info" sheetId="4" r:id="rId4"/>
-    <sheet name="Sounds" sheetId="5" r:id="rId5"/>
+    <sheet name="Prev and new ideas" sheetId="6" r:id="rId2"/>
+    <sheet name="RULES" sheetId="2" r:id="rId3"/>
+    <sheet name="debugging" sheetId="3" r:id="rId4"/>
+    <sheet name="YX5200 info" sheetId="4" r:id="rId5"/>
+    <sheet name="Sounds" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">debugging!$A$3406:$B$3786</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sounds!$A$1:$H$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StateTable!$A$1:$K$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">debugging!$A$3406:$B$3786</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sounds!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StateTable!$A$1:$K$88</definedName>
     <definedName name="mROW">StateTable!$V$2:$X$30</definedName>
     <definedName name="prev">Sounds!$AK$2:$AK$18</definedName>
     <definedName name="yxcmd">'YX5200 info'!$A$2:$C$44</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="4050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="4064">
   <si>
     <t>trigOnly</t>
   </si>
@@ -12806,9 +12807,6 @@
     <t>maximum length of below</t>
   </si>
   <si>
-    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself."</t>
-  </si>
-  <si>
     <t>store EEPROM</t>
   </si>
   <si>
@@ -12851,82 +12849,127 @@
     <t>mSPCL_HANDLER_CFG2CATEGORY</t>
   </si>
   <si>
-    <t>mCFG_CATEGORY_NEXT</t>
-  </si>
-  <si>
-    <t>mCFG_CATEGORY_LOOPSTART</t>
-  </si>
-  <si>
-    <t>mEFCT_UNIQ_SND_CATEGORY</t>
-  </si>
-  <si>
-    <t>mCFG_CATEGORY_LOOP</t>
-  </si>
-  <si>
-    <t>mCFG_CATEGORY_CHOICE</t>
-  </si>
-  <si>
-    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2CATEGORY | mSPCL_EFCT_NONE</t>
-  </si>
-  <si>
-    <t>mCFG_TYPE</t>
-  </si>
-  <si>
-    <t>CFGSTORE needs to know the loop count</t>
-  </si>
-  <si>
-    <t>mCFG_CATEGORY</t>
-  </si>
-  <si>
     <t>mADDR_CFG_CATEGORY</t>
   </si>
   <si>
     <t>mADDR_CFG_TYPE</t>
   </si>
   <si>
-    <t>mCFG_TYPE_LOOPSTART</t>
-  </si>
-  <si>
-    <t>mEFCT_UNIQ_SND_TYPE</t>
-  </si>
-  <si>
-    <t>mCFG_TYPE_LOOP</t>
-  </si>
-  <si>
-    <t>mCFG_TYPE_NEXT</t>
-  </si>
-  <si>
-    <t>mCFG_TYPE_CHOICE</t>
-  </si>
-  <si>
-    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2TYPE | mSPCL_EFCT_NONE</t>
-  </si>
-  <si>
-    <t>CFGSTORE needs to know the loop count GIVEN the category</t>
-  </si>
-  <si>
-    <t>mCFG_EFFECT</t>
-  </si>
-  <si>
     <t>mADDR_CFG_EFFECT</t>
   </si>
   <si>
-    <t>mCFG_EFFECT_LOOPSTART</t>
-  </si>
-  <si>
-    <t>mEFCT_UNIQ_SND_EFFECT</t>
-  </si>
-  <si>
-    <t>mCFG_EFFECT_LOOP</t>
-  </si>
-  <si>
-    <t>mCFG_EFFECT_NEXT</t>
-  </si>
-  <si>
-    <t>mCFG_EFFECT_CHOICE</t>
-  </si>
-  <si>
-    <t>CFGSTORE needs to know the loop count GIVEN the category AND the type</t>
+    <t>mROW_CFG_LIGHT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_OTHER</t>
+  </si>
+  <si>
+    <t>mROW_CFG_SOUND_SHOOT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_SOUND_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mROW_CFG_SOUND_NEXT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_SOUND_CHOICE</t>
+  </si>
+  <si>
+    <t>mROW_CFG_SOUND_LOOP</t>
+  </si>
+  <si>
+    <t>mROW_CFG_CATEGORY_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mROW_CFG_CATEGORY_LOOP</t>
+  </si>
+  <si>
+    <t>mROW_CFG_CATEGORY_NEXT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_CATEGORY_CHOICE</t>
+  </si>
+  <si>
+    <t>mROW_CFG_TYPE</t>
+  </si>
+  <si>
+    <t>mROW_CFG_TYPE_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mROW_CFG_TYPE_LOOP</t>
+  </si>
+  <si>
+    <t>mROW_CFG_TYPE_NEXT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_TYPE_CHOICE</t>
+  </si>
+  <si>
+    <t>mROW_CFG_EFFECT_LOOPSTART</t>
+  </si>
+  <si>
+    <t>mROW_CFG_EFFECT_LOOP</t>
+  </si>
+  <si>
+    <t>mROW_CFG_EFFECT_NEXT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_EFFECT_CHOICE</t>
+  </si>
+  <si>
+    <t>mROW_CFG_EFFECT</t>
+  </si>
+  <si>
+    <t>mROW_CFG_CATEGORY</t>
+  </si>
+  <si>
+    <t>mROW_CFG_MENU</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFGSTART | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>mSPCL_HANDLER | mSPCL_HANDLER_CFG2STORAGE | mSPCL_EFCT_NONE</t>
+  </si>
+  <si>
+    <t>trigAny4</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_CFG_CATEGORY</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_CFG_TYPE</t>
+  </si>
+  <si>
+    <t>mEFCT_UNIQ_CFG_EFECT</t>
+  </si>
+  <si>
+    <t>trigBlue</t>
+  </si>
+  <si>
+    <t>Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
+  </si>
+  <si>
+    <t>Now choose when the effect happens: this list includes when powering-on, when shooting, etc. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
+  </si>
+  <si>
+    <t>Now choose which effect category: sounds or LED patterns. As always press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
+  </si>
+  <si>
+    <t>Now choose the effect itself. This list cycles through the effects one by one. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Now choose which effect category: sounds or LED patterns. As always press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Now choose when the effect happens. This list includes when powering-on, when shooting, etc. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Now choose the effect itself. This list cycles through the effects one by one. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
   </si>
 </sst>
 </file>
@@ -13349,7 +13392,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13420,6 +13463,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13511,6 +13555,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -13839,18 +13892,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB129"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -13983,7 +14036,7 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
-        <f t="shared" ref="K2:K10" si="0">IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
+        <f>IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
         <v>#define mROW_POWERON 0  // first address in myStateTable[]</v>
       </c>
       <c r="V3" t="s">
@@ -13998,7 +14051,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="K4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C4),VLOOKUP(C4,mROW,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="V4" t="s">
@@ -14035,10 +14088,10 @@
         <v>39</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C5),VLOOKUP(C5,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>3574</v>
       </c>
       <c r="V5" t="s">
@@ -14065,20 +14118,20 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>3583</v>
+      <c r="F6" s="64" t="s">
+        <v>4051</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" t="s">
-        <v>3401</v>
+        <v>4048</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C6),VLOOKUP(C6,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="64" t="s">
         <v>3575</v>
       </c>
       <c r="V6" t="s">
@@ -14094,10 +14147,10 @@
     </row>
     <row r="7" spans="1:28">
       <c r="K7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C7),VLOOKUP(C7,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="64" t="s">
         <v>3576</v>
       </c>
       <c r="V7" t="s">
@@ -14112,10 +14165,10 @@
     </row>
     <row r="8" spans="1:28">
       <c r="K8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C8),VLOOKUP(C8,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="64" t="s">
         <v>3577</v>
       </c>
       <c r="V8" t="s">
@@ -14130,10 +14183,10 @@
     </row>
     <row r="9" spans="1:28">
       <c r="K9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C9),VLOOKUP(C9,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="64" t="s">
         <v>3578</v>
       </c>
       <c r="V9" t="s">
@@ -14148,10 +14201,10 @@
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
       <c r="K10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(C10),VLOOKUP(C10,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="64" t="s">
         <v>3579</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -14204,7 +14257,7 @@
         <f>IF(LEN(C11),VLOOKUP(C11,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="64" t="s">
         <v>3580</v>
       </c>
       <c r="P11" s="25" t="s">
@@ -14248,7 +14301,7 @@
         <f>IF(LEN(C12),VLOOKUP(C12,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>3581</v>
       </c>
       <c r="P12" s="25" t="s">
@@ -14281,20 +14334,20 @@
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>3583</v>
+      <c r="F13" s="64" t="s">
+        <v>4051</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" t="s">
-        <v>3401</v>
+        <v>4048</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="str">
         <f>IF(LEN(C13),VLOOKUP(C13,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="64" t="s">
         <v>3582</v>
       </c>
       <c r="P13" s="25" t="s">
@@ -14326,6 +14379,8 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="P15" s="25" t="s">
         <v>2530</v>
       </c>
@@ -14341,7 +14396,7 @@
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="77" t="s">
         <v>2712</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -14377,7 +14432,7 @@
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="77" t="s">
         <v>2712</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -14412,7 +14467,7 @@
     </row>
     <row r="18" spans="1:26" s="25" customFormat="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -14443,7 +14498,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="37"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -14452,7 +14507,7 @@
       <c r="D19" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="82" t="s">
         <v>3400</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -14480,7 +14535,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="37"/>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -14489,7 +14544,7 @@
       <c r="D20" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="82" t="s">
         <v>3400</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -14517,7 +14572,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="37"/>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="48" t="s">
@@ -14526,16 +14581,16 @@
       <c r="D21" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F21" s="63" t="s">
-        <v>3583</v>
+      <c r="F21" s="64" t="s">
+        <v>4051</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" t="s">
-        <v>3401</v>
+      <c r="I21" s="9" t="s">
+        <v>4048</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="9" t="str">
@@ -14554,12 +14609,12 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="37"/>
-      <c r="B22" s="76"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -14582,7 +14637,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="37"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -14591,7 +14646,7 @@
       <c r="D23" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="82" t="s">
         <v>3400</v>
       </c>
       <c r="F23" s="37" t="s">
@@ -14619,7 +14674,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="37"/>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="48" t="s">
@@ -14628,7 +14683,7 @@
       <c r="D24" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="82" t="s">
         <v>3400</v>
       </c>
       <c r="F24" s="37" t="s">
@@ -14657,7 +14712,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="37"/>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -14666,16 +14721,16 @@
       <c r="D25" s="47" t="s">
         <v>3400</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>3583</v>
+      <c r="F25" s="64" t="s">
+        <v>4051</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" t="s">
-        <v>3401</v>
+      <c r="I25" s="9" t="s">
+        <v>4048</v>
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="9" t="str">
@@ -14703,7 +14758,7 @@
       <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
@@ -14718,7 +14773,8 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="9" t="str">
@@ -14729,8 +14785,10 @@
       <c r="Y27" s="25"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="C28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9" t="str">
         <f>IF(LEN(C28),VLOOKUP(C28,mROW,3,FALSE),"")</f>
         <v/>
@@ -14738,7 +14796,7 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="45">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -14747,7 +14805,8 @@
       <c r="C29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="s">
         <v>48</v>
       </c>
       <c r="K29" s="9" t="str">
@@ -14758,9 +14817,11 @@
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9" t="str">
         <f>IF(LEN(C30),VLOOKUP(C30,mROW,3,FALSE),"")</f>
         <v/>
@@ -14768,7 +14829,7 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="63" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -14786,8 +14847,8 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K31" s="9" t="str">
@@ -14801,9 +14862,11 @@
       <c r="Y31"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9" t="str">
         <f>IF(LEN(C32),VLOOKUP(C32,mROW,3,FALSE),"")</f>
         <v/>
@@ -14813,8 +14876,10 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
       <c r="C33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="9" t="str">
         <f>IF(LEN(C33),VLOOKUP(C33,mROW,3,FALSE),"")</f>
         <v/>
@@ -14823,7 +14888,7 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="45">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="63" t="s">
         <v>3440</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -14834,6 +14899,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
         <v>39</v>
       </c>
@@ -14845,9 +14911,11 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="10"/>
       <c r="D35" s="3"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9" t="str">
         <f>IF(LEN(C35),VLOOKUP(C35,mROW,3,FALSE),"")</f>
         <v/>
@@ -14865,7 +14933,7 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -14904,7 +14972,7 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="9" t="s">
         <v>2709</v>
       </c>
@@ -14943,7 +15011,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -14952,7 +15020,7 @@
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="25"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="9" t="str">
         <f>IF(LEN(C38),VLOOKUP(C38,mROW,3,FALSE),"")</f>
         <v/>
@@ -14970,7 +15038,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="30">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -14985,6 +15053,7 @@
       <c r="E39" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="9" t="s">
         <v>39</v>
       </c>
@@ -15005,7 +15074,7 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="9" t="s">
         <v>2709</v>
       </c>
@@ -15024,6 +15093,7 @@
       <c r="I40" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9" t="str">
         <f>IF(LEN(C40),VLOOKUP(C40,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 21</v>
@@ -15059,6 +15129,7 @@
       <c r="I41" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="9" t="str">
         <f>IF(LEN(C41),VLOOKUP(C41,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 21</v>
@@ -15076,1054 +15147,545 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="K42" s="9" t="str">
-        <f>IF(LEN(C42),VLOOKUP(C42,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V42" t="str">
-        <f>MID(X42,9,FIND(" ",X42,9)-9)</f>
-        <v>mCFG_SOUND_SHOOT</v>
-      </c>
-      <c r="W42">
-        <f>0+MID(X42,10+LEN(V42),2)</f>
-        <v>30</v>
-      </c>
-      <c r="X42" s="15" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="K43" s="9" t="str">
+      <c r="B42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="X42" s="15"/>
+    </row>
+    <row r="43" spans="1:24" ht="180">
+      <c r="A43" s="87" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E43" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>4047</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="e">
         <f>IF(LEN(C43),VLOOKUP(C43,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V43" t="str">
-        <f>MID(X43,9,FIND(" ",X43,9)-9)</f>
-        <v>mROW_LOKLOD</v>
-      </c>
-      <c r="W43">
-        <f>0+MID(X43,10+LEN(V43),2)</f>
-        <v>21</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>3453</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="X43" s="15"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="K44" s="9" t="str">
+      <c r="A44" s="63"/>
+      <c r="B44" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E44" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>4047</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9" t="e">
         <f>IF(LEN(C44),VLOOKUP(C44,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V44" t="str">
-        <f>MID(X44,9,FIND(" ",X44,9)-9)</f>
-        <v>mROW_MENU</v>
-      </c>
-      <c r="W44">
-        <f>0+MID(X44,10+LEN(V44),2)</f>
-        <v>7</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>3442</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="X44" s="15"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="K45" s="9" t="str">
+      <c r="B45" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I45" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9" t="e">
         <f>IF(LEN(C45),VLOOKUP(C45,mROW,3,FALSE),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="V45" t="str">
         <f>MID(X45,9,FIND(" ",X45,9)-9)</f>
-        <v>mROW_MENU</v>
+        <v>mCFG_SOUND_SHOOT</v>
       </c>
       <c r="W45">
         <f>0+MID(X45,10+LEN(V45),2)</f>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="X45" s="15" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="135">
-      <c r="A46" s="62" t="s">
-        <v>3967</v>
-      </c>
-      <c r="B46" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E46" s="81" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>39</v>
-      </c>
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="9" t="str">
         <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
+        <v/>
       </c>
       <c r="V46" t="str">
         <f>MID(X46,9,FIND(" ",X46,9)-9)</f>
-        <v>mROW_MENU_CLOSED</v>
+        <v>mROW_LOKLOD</v>
       </c>
       <c r="W46">
         <f>0+MID(X46,10+LEN(V46),2)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>3444</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="62"/>
-      <c r="B47" s="82" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" ht="45">
+      <c r="B48" s="10" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="86">
+        <v>0</v>
+      </c>
+      <c r="H48" s="76" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" ht="210">
+      <c r="A50" s="88" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B50" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E47" s="81" t="s">
+      <c r="C50" s="9" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E50" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F47" t="s">
-        <v>3402</v>
-      </c>
-      <c r="I47" s="75" t="s">
-        <v>3410</v>
-      </c>
-      <c r="K47" s="9" t="str">
-        <f>IF(LEN(C47),VLOOKUP(C47,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
-      </c>
-      <c r="V47" t="str">
-        <f>MID(X47,9,FIND(" ",X47,9)-9)</f>
-        <v>mROW_MENU_OPEN</v>
-      </c>
-      <c r="W47">
-        <f>0+MID(X47,10+LEN(V47),2)</f>
-        <v>9</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="62"/>
-      <c r="B48" s="82" t="s">
+      <c r="F50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>4034</v>
+      </c>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E48" s="81" t="s">
+      <c r="C51" s="12" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E51" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F48" t="s">
-        <v>3403</v>
-      </c>
-      <c r="I48" t="s">
-        <v>3404</v>
-      </c>
-      <c r="K48" s="9" t="str">
-        <f>IF(LEN(C48),VLOOKUP(C48,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
-      </c>
-      <c r="V48" t="str">
-        <f>MID(X48,9,FIND(" ",X48,9)-9)</f>
-        <v>mROW_MENUCFG</v>
-      </c>
-      <c r="W48">
-        <f>0+MID(X48,10+LEN(V48),2)</f>
-        <v>24</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="62"/>
-      <c r="B49" s="82" t="s">
+      <c r="F51" s="64" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>4034</v>
+      </c>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E49" s="81" t="s">
+      <c r="C52" s="12" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E52" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F49" t="s">
-        <v>3405</v>
-      </c>
-      <c r="I49" t="s">
-        <v>3406</v>
-      </c>
-      <c r="K49" s="9" t="str">
-        <f>IF(LEN(C49),VLOOKUP(C49,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
-      </c>
-      <c r="V49" t="str">
-        <f>MID(X49,9,FIND(" ",X49,9)-9)</f>
-        <v>mROW_MENUCFG</v>
-      </c>
-      <c r="W49">
-        <f>0+MID(X49,10+LEN(V49),2)</f>
-        <v>24</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="62"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-      <c r="K50" s="9" t="str">
-        <f>IF(LEN(C50),VLOOKUP(C50,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V50" t="str">
-        <f>MID(X50,9,FIND(" ",X50,9)-9)</f>
-        <v>mROW_OPNBRL</v>
-      </c>
-      <c r="W50">
-        <f>0+MID(X50,10+LEN(V50),2)</f>
-        <v>19</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="62"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="K51" s="9" t="str">
-        <f>IF(LEN(C51),VLOOKUP(C51,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V51" t="str">
-        <f>MID(X51,9,FIND(" ",X51,9)-9)</f>
-        <v>mROW_POWERON</v>
-      </c>
-      <c r="W51">
-        <f>0+MID(X51,10+LEN(V51),2)</f>
+      <c r="F52" s="64" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I52" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="15" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="30">
-      <c r="A52" s="62" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3404</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3439</v>
-      </c>
-      <c r="E52" s="81" t="s">
+      <c r="I54" s="9" t="s">
+        <v>4035</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>4036</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="64" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I56" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" ht="45">
+      <c r="B58" s="10" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>4035</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="B60" s="10" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>4036</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="63" spans="1:10" ht="45">
+      <c r="B63" s="10" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="86">
+        <v>0</v>
+      </c>
+      <c r="H63" s="76" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="225">
+      <c r="A65" s="88" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E65" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>3401</v>
-      </c>
-      <c r="K52" s="9" t="str">
-        <f>IF(LEN(C52),VLOOKUP(C52,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_LIGHT 28</v>
-      </c>
-      <c r="V52" t="str">
-        <f>MID(X52,9,FIND(" ",X52,9)-9)</f>
-        <v>mROW_PWRON_LOCKED</v>
-      </c>
-      <c r="W52">
-        <f>0+MID(X52,10+LEN(V52),2)</f>
-        <v>4</v>
-      </c>
-      <c r="X52" s="15" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="62"/>
-      <c r="E53" s="2"/>
-      <c r="K53" s="9" t="str">
-        <f>IF(LEN(C53),VLOOKUP(C53,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V53" t="str">
-        <f>MID(X53,9,FIND(" ",X53,9)-9)</f>
-        <v>mROW_PWRON_OPEN</v>
-      </c>
-      <c r="W53">
-        <f>0+MID(X53,10+LEN(V53),2)</f>
-        <v>2</v>
-      </c>
-      <c r="X53" s="15" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="30">
-      <c r="A54" s="62" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3406</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3439</v>
-      </c>
-      <c r="E54" s="81" t="s">
+      <c r="F65" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E66" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>3401</v>
-      </c>
-      <c r="K54" s="9" t="str">
-        <f>IF(LEN(C54),VLOOKUP(C54,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_OTHER 29</v>
-      </c>
-      <c r="V54" t="str">
-        <f>MID(X54,9,FIND(" ",X54,9)-9)</f>
-        <v>mROW_SHOOT</v>
-      </c>
-      <c r="W54">
-        <f>0+MID(X54,10+LEN(V54),2)</f>
-        <v>16</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="62"/>
-      <c r="E55" s="2"/>
-      <c r="K55" s="9" t="str">
-        <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V55" t="str">
-        <f>MID(X55,9,FIND(" ",X55,9)-9)</f>
-        <v>mROW_SHOOT_SOUND</v>
-      </c>
-      <c r="W55">
-        <f>0+MID(X55,10+LEN(V55),2)</f>
-        <v>17</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="45">
-      <c r="A56" s="62" t="s">
-        <v>3412</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>3416</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>3410</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10" t="s">
-        <v>3966</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>3408</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9" t="s">
-        <v>3411</v>
-      </c>
-      <c r="K56" s="9" t="str">
-        <f>IF(LEN(C56),VLOOKUP(C56,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_SHOOT 30</v>
-      </c>
-      <c r="V56" t="str">
-        <f>MID(X56,9,FIND(" ",X56,9)-9)</f>
-        <v>mROW_SOLENOID</v>
-      </c>
-      <c r="W56">
-        <f>0+MID(X56,10+LEN(V56),2)</f>
-        <v>18</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="62"/>
-      <c r="E57" s="2"/>
-      <c r="K57" s="9" t="str">
-        <f>IF(LEN(C57),VLOOKUP(C57,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="V57" t="str">
-        <f>MID(X57,9,FIND(" ",X57,9)-9)</f>
-        <v>mROW_WINDUP_SOUND</v>
-      </c>
-      <c r="W57">
-        <f>0+MID(X57,10+LEN(V57),2)</f>
-        <v>15</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="75">
-      <c r="A58" s="62" t="s">
-        <v>3420</v>
-      </c>
-      <c r="B58" s="82" t="s">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>3411</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3446</v>
-      </c>
-      <c r="E58" s="81" t="s">
+      <c r="C67" s="12" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E67" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
-        <v>3409</v>
-      </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9" t="str">
-        <f>IF(LEN(C58),VLOOKUP(C58,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_LOOPSTART 31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="K59" s="9" t="str">
-        <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="K60" s="9" t="e">
-        <f>IF(LEN(C100),VLOOKUP(C100,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="K61" s="9" t="e">
-        <f>IF(LEN(C101),VLOOKUP(C101,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="K62" s="9" t="str">
-        <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="45">
-      <c r="B63" s="10" t="s">
+      <c r="I69" s="9" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>3583</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45">
+      <c r="B72" s="10" t="s">
         <v>3417</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>3414</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>3409</v>
-      </c>
-      <c r="K63" s="9" t="str">
-        <f>IF(LEN(C63),VLOOKUP(C63,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_NEXT 34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="K64" s="9" t="str">
-        <f>IF(LEN(C64),VLOOKUP(C64,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="45">
-      <c r="B65" s="10" t="s">
-        <v>3418</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>3415</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>3401</v>
-      </c>
-      <c r="K65" s="9" t="str">
-        <f>IF(LEN(C65),VLOOKUP(C65,mROW,3,FALSE),"")</f>
-        <v>#define mCFG_SOUND_CHOICE 35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="K66" s="9" t="str">
-        <f>IF(LEN(C66),VLOOKUP(C66,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="K67" s="9" t="str">
-        <f>IF(LEN(C67),VLOOKUP(C67,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="K68" s="9" t="str">
-        <f>IF(LEN(C68),VLOOKUP(C68,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="K69" s="9" t="str">
-        <f>IF(LEN(C69),VLOOKUP(C69,mROW,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="75">
-      <c r="A71" s="62" t="s">
-        <v>3973</v>
-      </c>
-      <c r="B71">
-        <v>66</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3968</v>
-      </c>
-      <c r="E71" t="str">
-        <f>TEXT(B71,"0000")&amp;"__mdo47__"&amp;D71&amp;".wav"</f>
-        <v>0066__mdo47__TypeChoices.wav</v>
-      </c>
-      <c r="G71" t="str">
-        <f>"mdo47 recording of """&amp;A71&amp;""""</f>
-        <v>mdo47 recording of "Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE."</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="45">
-      <c r="A72" s="62" t="s">
-        <v>4000</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3974</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" ref="E72:E77" si="1">TEXT(B72,"0000")&amp;"__mdo47__"&amp;D72&amp;".wav"</f>
-        <v>0071__mdo47__ChargeUpForShooting.wav</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" ref="G72:G77" si="2">"mdo47 recording of """&amp;A72&amp;""""</f>
-        <v>mdo47 recording of "Effect type CHARGE-UP FOR SHOOTING. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="30">
-      <c r="A73" s="62" t="s">
-        <v>4001</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3361</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3969</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>0072__mdo47__Shoot.wav</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="2"/>
-        <v>mdo47 recording of "Effect type SHOOTING. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="45">
-      <c r="A74" s="62" t="s">
-        <v>4002</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3970</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>0073__mdo47__OpenBarrel.wav</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="2"/>
-        <v>mdo47 recording of "Effect type OPEN BARREL. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="45">
-      <c r="A75" s="62" t="s">
-        <v>4003</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3363</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3971</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>0074__mdo47__LockAndLoad.wav</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="2"/>
-        <v>mdo47 recording of "Effect type LOCK-AND-LOAD. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="45">
-      <c r="A76" s="62" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3378</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>0075__mdo47__PowerOn.wav</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="2"/>
-        <v>mdo47 recording of "Effect type POWER-ON. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="45">
-      <c r="A77" s="62" t="s">
-        <v>4005</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3365</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3972</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>0076__mdo47__WaitingForTrigger.wav</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="2"/>
-        <v>mdo47 recording of "Effect type WAITING-FOR-TRIGGER. Trigger alone for next type."</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12">
-      <c r="D82" s="10" t="s">
-        <v>4011</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>4010</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="30">
-      <c r="D83" s="10" t="s">
-        <v>4012</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>4013</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12">
-      <c r="D84" s="10" t="s">
-        <v>4014</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>4016</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" spans="2:12" ht="45">
-      <c r="D87" s="10" t="s">
-        <v>4018</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12">
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="2:12">
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="2:12">
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="J90" t="s">
-        <v>4021</v>
-      </c>
-      <c r="K90" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12">
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="J91" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" ht="45">
-      <c r="B96" s="10" t="s">
-        <v>3416</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>4032</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="85">
+      <c r="C72" s="9" t="s">
+        <v>4040</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45">
+      <c r="B74" s="10" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>4041</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="210">
+      <c r="A77" s="88" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="86">
         <v>0</v>
       </c>
-      <c r="H96" s="75" t="s">
-        <v>4033</v>
-      </c>
-      <c r="J96" s="9" t="s">
+      <c r="H77" s="76" t="s">
         <v>4025</v>
       </c>
-      <c r="L96" s="13" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12">
-      <c r="B98" s="82" t="s">
+      <c r="J77" s="9" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>4025</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>4026</v>
-      </c>
-      <c r="E98" s="81" t="s">
+      <c r="C79" s="9" t="s">
+        <v>4042</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E79" s="82" t="s">
         <v>3400</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F79" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12">
-      <c r="B100" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
         <v>3413</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>4027</v>
-      </c>
-      <c r="F100" s="9" t="s">
+      <c r="C81" s="9" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12">
-      <c r="B101" t="s">
+      <c r="I81" s="9" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
         <v>3413</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>4027</v>
-      </c>
-      <c r="F101" s="63" t="s">
+      <c r="C82" s="12" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F82" s="64" t="s">
         <v>3583</v>
       </c>
-      <c r="I101" s="9" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" ht="45">
-      <c r="B103" s="10" t="s">
+      <c r="I82" s="9" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="45">
+      <c r="B84" s="10" t="s">
         <v>3417</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>4024</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" ht="45">
-      <c r="B105" s="10" t="s">
-        <v>4029</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>4028</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" ht="45">
-      <c r="B108" s="10" t="s">
-        <v>3416</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>4030</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="85">
-        <v>0</v>
-      </c>
-      <c r="H108" s="75" t="s">
-        <v>4034</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>4035</v>
-      </c>
-      <c r="L108" s="13" t="s">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12">
-      <c r="B110" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>4035</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>4036</v>
-      </c>
-      <c r="E110" s="81" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12">
-      <c r="B112" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>4037</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12">
-      <c r="B113" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>4037</v>
-      </c>
-      <c r="F113" s="63" t="s">
-        <v>3583</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" ht="45">
-      <c r="B115" s="10" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>4038</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="45">
-      <c r="B117" s="10" t="s">
-        <v>4040</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>4039</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" ht="45">
-      <c r="B120" s="10" t="s">
-        <v>3416</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>4042</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="85">
-        <v>0</v>
-      </c>
-      <c r="H120" s="75" t="s">
+      <c r="C84" s="9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="J84" s="9" t="s">
         <v>4043</v>
       </c>
-      <c r="J120" s="9" t="s">
-        <v>4044</v>
-      </c>
-      <c r="L120" s="13" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12">
-      <c r="B122" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>4044</v>
-      </c>
-      <c r="D122" s="3" t="s">
+    </row>
+    <row r="86" spans="2:10" ht="45">
+      <c r="B86" s="10" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>4045</v>
       </c>
-      <c r="E122" s="81" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12">
-      <c r="B124" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>4046</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12">
-      <c r="B125" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>4046</v>
-      </c>
-      <c r="F125" s="63" t="s">
-        <v>3583</v>
-      </c>
-      <c r="I125" s="9" t="s">
+      <c r="J86" s="9" t="s">
         <v>4048</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="45">
-      <c r="B127" s="10" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>4047</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" ht="45">
-      <c r="B129" s="10" t="s">
-        <v>3418</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>4048</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>4042</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K69" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
-  <sortState ref="V35:X57">
-    <sortCondition ref="V35:V57"/>
+  <autoFilter ref="A1:K46" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
+  <sortState ref="V35:X46">
+    <sortCondition ref="V35:V46"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16132,6 +15694,750 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EEF677-F6BE-41DB-9FEB-3879F95E1DD9}">
+  <dimension ref="A1:X50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="K1" s="9" t="str">
+        <f>IF(LEN(C1),VLOOKUP(C1,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V1" t="str">
+        <f>MID(X1,9,FIND(" ",X1,9)-9)</f>
+        <v>mROW_MENU</v>
+      </c>
+      <c r="W1">
+        <f>0+MID(X1,10+LEN(V1),2)</f>
+        <v>7</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="K2" s="9" t="str">
+        <f>IF(LEN(C2),VLOOKUP(C2,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(X2,9,FIND(" ",X2,9)-9)</f>
+        <v>mROW_MENU</v>
+      </c>
+      <c r="W2">
+        <f>0+MID(X2,10+LEN(V2),2)</f>
+        <v>7</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="135">
+      <c r="A3" s="63" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f>IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V3" t="str">
+        <f>MID(X3,9,FIND(" ",X3,9)-9)</f>
+        <v>mROW_MENU_CLOSED</v>
+      </c>
+      <c r="W3">
+        <f>0+MID(X3,10+LEN(V3),2)</f>
+        <v>11</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="63"/>
+      <c r="B4" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>4028</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f>IF(LEN(C4),VLOOKUP(C4,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V4" t="str">
+        <f>MID(X4,9,FIND(" ",X4,9)-9)</f>
+        <v>mROW_MENU_OPEN</v>
+      </c>
+      <c r="W4">
+        <f>0+MID(X4,10+LEN(V4),2)</f>
+        <v>9</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="63"/>
+      <c r="B5" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3403</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4026</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f>IF(LEN(C5),VLOOKUP(C5,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V5" t="str">
+        <f>MID(X5,9,FIND(" ",X5,9)-9)</f>
+        <v>mROW_MENUCFG</v>
+      </c>
+      <c r="W5">
+        <f>0+MID(X5,10+LEN(V5),2)</f>
+        <v>24</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="63"/>
+      <c r="B6" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4027</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f>IF(LEN(C6),VLOOKUP(C6,mROW,3,FALSE),"")</f>
+        <v>#define mROW_MENUCFG 24</v>
+      </c>
+      <c r="V6" t="str">
+        <f>MID(X6,9,FIND(" ",X6,9)-9)</f>
+        <v>mROW_MENUCFG</v>
+      </c>
+      <c r="W6">
+        <f>0+MID(X6,10+LEN(V6),2)</f>
+        <v>24</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="63"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="K7" s="9" t="str">
+        <f>IF(LEN(C7),VLOOKUP(C7,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f>MID(X7,9,FIND(" ",X7,9)-9)</f>
+        <v>mROW_OPNBRL</v>
+      </c>
+      <c r="W7">
+        <f>0+MID(X7,10+LEN(V7),2)</f>
+        <v>19</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="63"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="K8" s="9" t="str">
+        <f>IF(LEN(C8),VLOOKUP(C8,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>MID(X8,9,FIND(" ",X8,9)-9)</f>
+        <v>mROW_POWERON</v>
+      </c>
+      <c r="W8">
+        <f>0+MID(X8,10+LEN(V8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30">
+      <c r="A9" s="63" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4026</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="K9" s="9" t="e">
+        <f>IF(LEN(C9),VLOOKUP(C9,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="str">
+        <f>MID(X9,9,FIND(" ",X9,9)-9)</f>
+        <v>mROW_PWRON_LOCKED</v>
+      </c>
+      <c r="W9">
+        <f>0+MID(X9,10+LEN(V9),2)</f>
+        <v>4</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="63"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="9" t="str">
+        <f>IF(LEN(C10),VLOOKUP(C10,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f>MID(X10,9,FIND(" ",X10,9)-9)</f>
+        <v>mROW_PWRON_OPEN</v>
+      </c>
+      <c r="W10">
+        <f>0+MID(X10,10+LEN(V10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30">
+      <c r="A11" s="63" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="K11" s="9" t="e">
+        <f>IF(LEN(C11),VLOOKUP(C11,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="str">
+        <f>MID(X11,9,FIND(" ",X11,9)-9)</f>
+        <v>mROW_SHOOT</v>
+      </c>
+      <c r="W11">
+        <f>0+MID(X11,10+LEN(V11),2)</f>
+        <v>16</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="63"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="K12" s="9" t="str">
+        <f>IF(LEN(C12),VLOOKUP(C12,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f>MID(X12,9,FIND(" ",X12,9)-9)</f>
+        <v>mROW_SHOOT_SOUND</v>
+      </c>
+      <c r="W12">
+        <f>0+MID(X12,10+LEN(V12),2)</f>
+        <v>17</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="45">
+      <c r="A13" s="63" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>3966</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>4029</v>
+      </c>
+      <c r="K13" s="9" t="e">
+        <f>IF(LEN(C13),VLOOKUP(C13,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="str">
+        <f>MID(X13,9,FIND(" ",X13,9)-9)</f>
+        <v>mROW_SOLENOID</v>
+      </c>
+      <c r="W13">
+        <f>0+MID(X13,10+LEN(V13),2)</f>
+        <v>18</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="63"/>
+      <c r="E14" s="2"/>
+      <c r="K14" s="9" t="str">
+        <f>IF(LEN(C14),VLOOKUP(C14,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f>MID(X14,9,FIND(" ",X14,9)-9)</f>
+        <v>mROW_WINDUP_SOUND</v>
+      </c>
+      <c r="W14">
+        <f>0+MID(X14,10+LEN(V14),2)</f>
+        <v>15</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="75">
+      <c r="A15" s="63" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>4032</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="e">
+        <f>IF(LEN(C15),VLOOKUP(C15,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="K16" s="9" t="str">
+        <f>IF(LEN(C16),VLOOKUP(C16,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="K17" s="9" t="e">
+        <f>IF(LEN(StateTable!C54),VLOOKUP(StateTable!C54,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="K18" s="9" t="e">
+        <f>IF(LEN(StateTable!C55),VLOOKUP(StateTable!C55,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="K19" s="9" t="str">
+        <f>IF(LEN(C19),VLOOKUP(C19,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45">
+      <c r="B20" s="10" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>4030</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>4032</v>
+      </c>
+      <c r="K20" s="9" t="e">
+        <f>IF(LEN(C20),VLOOKUP(C20,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="9" t="str">
+        <f>IF(LEN(C21),VLOOKUP(C21,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45">
+      <c r="B22" s="10" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>4031</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="K22" s="9" t="e">
+        <f>IF(LEN(C22),VLOOKUP(C22,mROW,3,FALSE),"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="9" t="str">
+        <f>IF(LEN(C23),VLOOKUP(C23,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="9" t="str">
+        <f>IF(LEN(C24),VLOOKUP(C24,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="75">
+      <c r="A25" s="63" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B25">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3968</v>
+      </c>
+      <c r="E25" t="str">
+        <f>TEXT(B25,"0000")&amp;"__mdo47__"&amp;D25&amp;".wav"</f>
+        <v>0066__mdo47__TypeChoices.wav</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"mdo47 recording of """&amp;A25&amp;""""</f>
+        <v>mdo47 recording of "Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE."</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45">
+      <c r="A26" s="63" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B26">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E26" t="str">
+        <f>TEXT(B26,"0000")&amp;"__mdo47__"&amp;D26&amp;".wav"</f>
+        <v>0071__mdo47__ChargeUpForShooting.wav</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"mdo47 recording of """&amp;A26&amp;""""</f>
+        <v>mdo47 recording of "Effect type CHARGE-UP FOR SHOOTING. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30">
+      <c r="A27" s="63" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B27">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E27" t="str">
+        <f>TEXT(B27,"0000")&amp;"__mdo47__"&amp;D27&amp;".wav"</f>
+        <v>0072__mdo47__Shoot.wav</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"mdo47 recording of """&amp;A27&amp;""""</f>
+        <v>mdo47 recording of "Effect type SHOOTING. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
+      <c r="A28" s="63" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3970</v>
+      </c>
+      <c r="E28" t="str">
+        <f>TEXT(B28,"0000")&amp;"__mdo47__"&amp;D28&amp;".wav"</f>
+        <v>0073__mdo47__OpenBarrel.wav</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"mdo47 recording of """&amp;A28&amp;""""</f>
+        <v>mdo47 recording of "Effect type OPEN BARREL. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45">
+      <c r="A29" s="63" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B29">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E29" t="str">
+        <f>TEXT(B29,"0000")&amp;"__mdo47__"&amp;D29&amp;".wav"</f>
+        <v>0074__mdo47__LockAndLoad.wav</v>
+      </c>
+      <c r="G29" t="str">
+        <f>"mdo47 recording of """&amp;A29&amp;""""</f>
+        <v>mdo47 recording of "Effect type LOCK-AND-LOAD. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45">
+      <c r="A30" s="63" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E30" t="str">
+        <f>TEXT(B30,"0000")&amp;"__mdo47__"&amp;D30&amp;".wav"</f>
+        <v>0075__mdo47__PowerOn.wav</v>
+      </c>
+      <c r="G30" t="str">
+        <f>"mdo47 recording of """&amp;A30&amp;""""</f>
+        <v>mdo47 recording of "Effect type POWER-ON. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45">
+      <c r="A31" s="63" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B31">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E31" t="str">
+        <f>TEXT(B31,"0000")&amp;"__mdo47__"&amp;D31&amp;".wav"</f>
+        <v>0076__mdo47__WaitingForTrigger.wav</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"mdo47 recording of """&amp;A31&amp;""""</f>
+        <v>mdo47 recording of "Effect type WAITING-FOR-TRIGGER. Trigger alone for next type."</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="K33" s="9" t="str">
+        <f>IF(LEN(C33),VLOOKUP(C33,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="K34" s="9" t="str">
+        <f>IF(LEN(C34),VLOOKUP(C34,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38" s="10" t="s">
+        <v>4010</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>4009</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" ht="30">
+      <c r="D39" s="10" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>4012</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11">
+      <c r="D40" s="10" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>4015</v>
+      </c>
+      <c r="F40" s="64"/>
+      <c r="G40" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="4:11">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" ht="45">
+      <c r="D43" s="10" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="4:11">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="4:11">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="J46" t="s">
+        <v>4020</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="J47" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F56F7-7110-4AD7-8B0D-AA537E4015D5}">
   <dimension ref="A1:H45"/>
   <sheetViews>
@@ -16322,7 +16628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F550E-21B4-4ED7-B7FF-211D228584A7}">
   <dimension ref="A1:M3786"/>
   <sheetViews>
@@ -42840,7 +43146,7 @@
       <c r="A3304">
         <v>1733</v>
       </c>
-      <c r="B3304" s="83" t="s">
+      <c r="B3304" s="84" t="s">
         <v>3562</v>
       </c>
     </row>
@@ -42979,7 +43285,7 @@
       <c r="A3321">
         <v>4842</v>
       </c>
-      <c r="B3321" s="83" t="s">
+      <c r="B3321" s="84" t="s">
         <v>3564</v>
       </c>
     </row>
@@ -43116,7 +43422,7 @@
       <c r="A3337">
         <v>5039</v>
       </c>
-      <c r="B3337" s="83" t="s">
+      <c r="B3337" s="84" t="s">
         <v>3568</v>
       </c>
     </row>
@@ -43243,7 +43549,7 @@
       <c r="A3351">
         <v>5251</v>
       </c>
-      <c r="B3351" s="83" t="s">
+      <c r="B3351" s="84" t="s">
         <v>3570</v>
       </c>
     </row>
@@ -43313,7 +43619,7 @@
       <c r="A3359">
         <v>5421</v>
       </c>
-      <c r="B3359" s="83" t="s">
+      <c r="B3359" s="84" t="s">
         <v>3571</v>
       </c>
     </row>
@@ -43434,7 +43740,7 @@
       <c r="A3373">
         <v>5609</v>
       </c>
-      <c r="B3373" s="83" t="s">
+      <c r="B3373" s="84" t="s">
         <v>3553</v>
       </c>
     </row>
@@ -43498,7 +43804,7 @@
       <c r="A3381">
         <v>5741</v>
       </c>
-      <c r="B3381" s="83" t="s">
+      <c r="B3381" s="84" t="s">
         <v>3557</v>
       </c>
     </row>
@@ -46708,7 +47014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC21024-75D8-48F9-9553-B187B93722A9}">
   <dimension ref="A1:V286"/>
   <sheetViews>
@@ -49159,12 +49465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
-  <dimension ref="A1:AK114"/>
+  <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -49184,28 +49490,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>2892</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>3359</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>2856</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>3373</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="65" t="s">
         <v>2916</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="65" t="s">
         <v>2858</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="65" t="s">
         <v>2857</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -49213,824 +49519,824 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>2853</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="65">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>2843</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>2844</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>2853</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>2878</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>2877</v>
       </c>
       <c r="I2" s="27"/>
       <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" ht="30">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>2853</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="66">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>2833</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>2834</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="68" t="s">
         <v>2853</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>2917</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>2862</v>
       </c>
       <c r="I3" s="27"/>
       <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="20.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>2853</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="65">
         <v>3</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>2871</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>3356</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="72" t="s">
         <v>3375</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="70" t="s">
         <v>2872</v>
       </c>
       <c r="I4" s="27"/>
       <c r="AK4" s="28"/>
     </row>
     <row r="5" spans="1:37" ht="20.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>2853</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="71">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>2835</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="68" t="s">
         <v>2836</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="68" t="s">
         <v>2853</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>2918</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>2860</v>
       </c>
       <c r="I5" s="27"/>
       <c r="AK5" s="28"/>
     </row>
     <row r="6" spans="1:37" ht="30">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="71" t="s">
         <v>2853</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="71">
         <v>5</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>3426</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="68" t="s">
         <v>3425</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="68" t="s">
         <v>2853</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I6" s="27"/>
       <c r="AK6" s="28"/>
     </row>
     <row r="7" spans="1:37" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>2853</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="65">
         <v>6</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>2847</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="68" t="s">
         <v>2848</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>2852</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="69" t="s">
         <v>2921</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>2930</v>
       </c>
       <c r="I7" s="27"/>
       <c r="AK7" s="28"/>
     </row>
     <row r="8" spans="1:37" ht="21" thickBot="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>2852</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="66">
         <v>11</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>2845</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="68" t="s">
         <v>2846</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="68" t="s">
         <v>2852</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="69" t="s">
         <v>2922</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="70" t="s">
         <v>2931</v>
       </c>
       <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="1:37" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>2852</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="75">
         <v>12</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>2874</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="72" t="s">
         <v>3358</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="72" t="s">
         <v>2852</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="69" t="s">
         <v>2876</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="70" t="s">
         <v>2875</v>
       </c>
       <c r="I9" s="27"/>
       <c r="AK9" s="28"/>
     </row>
     <row r="10" spans="1:37" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="65">
         <v>13</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>2847</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="68" t="s">
         <v>2848</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="68" t="s">
         <v>2852</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="69" t="s">
         <v>2921</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="70" t="s">
         <v>2930</v>
       </c>
       <c r="I10" s="28"/>
       <c r="AK10" s="28"/>
     </row>
     <row r="11" spans="1:37" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="75">
         <v>14</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>2837</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="68" t="s">
         <v>2838</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="68" t="s">
         <v>2852</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>2925</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="70" t="s">
         <v>2932</v>
       </c>
       <c r="I11" s="28"/>
       <c r="AK11" s="28"/>
     </row>
     <row r="12" spans="1:37" ht="21" thickTop="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="65">
         <v>15</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>2891</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="68" t="s">
         <v>3371</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="69" t="s">
         <v>2879</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="69" t="s">
         <v>2927</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="70" t="s">
         <v>2940</v>
       </c>
       <c r="I12" s="28"/>
       <c r="AK12" s="28"/>
     </row>
     <row r="13" spans="1:37" ht="30">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="65">
         <v>16</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="67" t="s">
         <v>2864</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="68" t="s">
         <v>3380</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>3379</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="69" t="s">
         <v>2866</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="70" t="s">
         <v>2865</v>
       </c>
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:37" ht="20.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="71" t="s">
         <v>2852</v>
       </c>
       <c r="B14" s="19">
         <v>17</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>3432</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="68" t="s">
         <v>3434</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="20.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>2852</v>
       </c>
       <c r="B15" s="19">
         <v>18</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>3431</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="68" t="s">
         <v>3435</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:37" ht="20.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="71" t="s">
         <v>2852</v>
       </c>
       <c r="B16" s="19">
         <v>19</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="66" t="s">
         <v>3433</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="68" t="s">
         <v>3436</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="71" t="s">
         <v>2852</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:37" ht="20.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="66">
         <v>21</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>2904</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="72" t="s">
         <v>2915</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="69" t="s">
         <v>2905</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="70" t="s">
         <v>2910</v>
       </c>
       <c r="I17" s="28"/>
       <c r="AK17" s="28"/>
     </row>
     <row r="18" spans="1:37" ht="20.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="66">
         <v>22</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>2906</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="68" t="s">
         <v>2913</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>2907</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="70" t="s">
         <v>2911</v>
       </c>
       <c r="I18" s="28"/>
       <c r="AK18" s="28"/>
     </row>
     <row r="19" spans="1:37" ht="20.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="66">
         <v>23</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>2901</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="72" t="s">
         <v>2902</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="69" t="s">
         <v>2900</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="70" t="s">
         <v>2903</v>
       </c>
       <c r="I19" s="28"/>
       <c r="AK19" s="28"/>
     </row>
     <row r="20" spans="1:37" ht="20.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="66">
         <v>24</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="74" t="s">
         <v>2908</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="68" t="s">
         <v>2914</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="69" t="s">
         <v>2909</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="70" t="s">
         <v>2912</v>
       </c>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:37" ht="30">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="65">
         <v>25</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="67" t="s">
         <v>2864</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="68" t="s">
         <v>2889</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="71" t="s">
         <v>3379</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="69" t="s">
         <v>2866</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="70" t="s">
         <v>2865</v>
       </c>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:37" ht="20.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="66">
         <v>26</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="74" t="s">
         <v>2897</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="72" t="s">
         <v>2896</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="69" t="s">
         <v>2895</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="70" t="s">
         <v>2898</v>
       </c>
       <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:37" ht="20.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>2890</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="66">
         <v>31</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="74" t="s">
         <v>2904</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="72" t="s">
         <v>2915</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="69" t="s">
         <v>2905</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="70" t="s">
         <v>2910</v>
       </c>
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:37" ht="20.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="66" t="s">
         <v>2890</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="66">
         <v>32</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="74" t="s">
         <v>2906</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="68" t="s">
         <v>2913</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="69" t="s">
         <v>2907</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="70" t="s">
         <v>2911</v>
       </c>
       <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:37" ht="20.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="66" t="s">
         <v>2890</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="66">
         <v>33</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="74" t="s">
         <v>2901</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="72" t="s">
         <v>2902</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="69" t="s">
         <v>2900</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="70" t="s">
         <v>2903</v>
       </c>
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:37" ht="20.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="66" t="s">
         <v>2890</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="66">
         <v>34</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="74" t="s">
         <v>2908</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>2914</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="69" t="s">
         <v>2909</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="70" t="s">
         <v>2912</v>
       </c>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:37" ht="30">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>2890</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="65">
         <v>35</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="67" t="s">
         <v>2864</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="68" t="s">
         <v>2889</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="71" t="s">
         <v>3379</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="69" t="s">
         <v>2866</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="70" t="s">
         <v>2865</v>
       </c>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:37" ht="20.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>2890</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="66">
         <v>36</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="74" t="s">
         <v>2897</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="72" t="s">
         <v>2896</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="71" t="s">
         <v>3374</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="69" t="s">
         <v>2895</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="70" t="s">
         <v>2898</v>
       </c>
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:37" ht="30">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="71" t="s">
         <v>3378</v>
       </c>
       <c r="B29" s="19">
         <v>41</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>3427</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="72" t="s">
         <v>3424</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="71" t="s">
         <v>3378</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:37" ht="30">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="71" t="s">
         <v>3378</v>
       </c>
       <c r="B30" s="19">
         <v>42</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>3428</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="72" t="s">
         <v>3424</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="71" t="s">
         <v>3378</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:37" ht="30">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>3378</v>
       </c>
       <c r="B31" s="19">
         <v>43</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="66" t="s">
         <v>3573</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="72" t="s">
         <v>3424</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="71" t="s">
         <v>3378</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I31" s="28"/>
@@ -50040,217 +50346,217 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="20.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>2851</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="66">
         <v>51</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="74" t="s">
         <v>2849</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="68" t="s">
         <v>2850</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="69" t="s">
         <v>2920</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="70" t="s">
         <v>2934</v>
       </c>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:12" ht="20.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>2851</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="66">
         <v>52</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="74" t="s">
         <v>2841</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="68" t="s">
         <v>2842</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="69" t="s">
         <v>2923</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="70" t="s">
         <v>2929</v>
       </c>
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="66" t="s">
         <v>2851</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="66">
         <v>53</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="74" t="s">
         <v>2883</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="68" t="s">
         <v>3368</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="69" t="s">
         <v>2926</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="70" t="s">
         <v>2936</v>
       </c>
       <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:12" ht="30">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="66" t="s">
         <v>2851</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="65">
         <v>54</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>2893</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="72" t="s">
         <v>3370</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="72" t="s">
         <v>2851</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="69" t="s">
         <v>2894</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="70" t="s">
         <v>2899</v>
       </c>
       <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="71" t="s">
         <v>2851</v>
       </c>
       <c r="B36" s="9">
         <v>55</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="74" t="s">
         <v>2885</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="68" t="s">
         <v>2884</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="69" t="s">
         <v>2926</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="70" t="s">
         <v>2937</v>
       </c>
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:12" ht="20.25">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="71" t="s">
         <v>2851</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="65">
         <v>56</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="67" t="s">
         <v>2871</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="72" t="s">
         <v>3356</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="72" t="s">
         <v>3375</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="69" t="s">
         <v>2873</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="70" t="s">
         <v>2872</v>
       </c>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:12" ht="30">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="71" t="s">
         <v>2851</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="65">
         <v>57</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="74" t="s">
         <v>2839</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="68" t="s">
         <v>2840</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="69" t="s">
         <v>2924</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="70" t="s">
         <v>2935</v>
       </c>
       <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="71" t="s">
         <v>2851</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="65">
         <v>58</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="74" t="s">
         <v>2854</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="68" t="s">
         <v>3372</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="68" t="s">
         <v>2851</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="69" t="s">
         <v>2919</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="70" t="s">
         <v>2933</v>
       </c>
       <c r="J39">
@@ -50261,29 +50567,29 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="75">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:12" ht="90.75">
+      <c r="A40" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B40" s="70">
+      <c r="B40" s="71">
         <v>62</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="66" t="s">
         <v>3429</v>
       </c>
-      <c r="D40" s="67" t="s">
-        <v>4009</v>
-      </c>
-      <c r="E40" s="71" t="s">
+      <c r="D40" s="87" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E40" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I40" s="27" t="s">
@@ -50293,71 +50599,71 @@
         <f>LEN(I40)</f>
         <v>16</v>
       </c>
-      <c r="L40" s="84" t="str">
+      <c r="L40" s="85" t="str">
         <f>"#define "&amp;I40&amp;" "&amp;REPT(" ",$J$39-J40)&amp;RIGHT(TEXT(B40,"    #"),3)&amp;" // "&amp;RIGHT(LEFT(D40,LEN(D40)-1),LEN(D40)-1-FIND("""",D40))</f>
-        <v>#define mEFCT_UNIQ_INTRO               62 // Welcome to RBG configuration! Your call is important to us. Press color button first then trigger: YELLOW for sounds, GREEN for lights, BLACK for other. To go back, press trigger all by itself.</v>
+        <v>#define mEFCT_UNIQ_INTRO               62 // Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="71">
         <v>63</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="89" t="s">
         <v>3430</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="68" t="s">
         <v>3421</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I41" s="27" t="s">
         <v>3446</v>
       </c>
       <c r="J41">
-        <f t="shared" ref="J41:J52" si="0">LEN(I41)</f>
+        <f t="shared" ref="J41:J56" si="0">LEN(I41)</f>
         <v>20</v>
       </c>
-      <c r="L41" s="84" t="str">
+      <c r="L41" s="85" t="str">
         <f t="shared" ref="L41:L52" si="1">"#define "&amp;I41&amp;" "&amp;REPT(" ",$J$39-J41)&amp;RIGHT(TEXT(B41,"    #"),3)&amp;" // "&amp;RIGHT(LEFT(D41,LEN(D41)-1),LEN(D41)-1-FIND("""",D41))</f>
         <v>#define mEFCT_UNIQ_SND_INSTR           63 // Press just trigger to cycle through sound choices, trigger + any color to choose the sound.</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="71">
         <v>64</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="89" t="s">
         <v>3982</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="68" t="s">
         <v>3422</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H42" s="70" t="s">
+      <c r="H42" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I42" s="27" t="s">
@@ -50367,34 +50673,34 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L42" s="84" t="str">
+      <c r="L42" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_LED_INSTR           64 // Press just trigger to cycle through LED pattern choices, trigger + any color to choose the LED Pattern.</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="71">
         <v>65</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="89" t="s">
         <v>3983</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="68" t="s">
         <v>3423</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H43" s="70" t="s">
+      <c r="H43" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I43" s="27" t="s">
@@ -50404,34 +50710,34 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L43" s="84" t="str">
+      <c r="L43" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_OTHR_INSTR          65 // Press just trigger to cycle through a list of other choices, trigger + any color to choose the other choice.</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="71">
         <v>66</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="89" t="s">
         <v>3975</v>
       </c>
-      <c r="D44" s="67" t="s">
+      <c r="D44" s="68" t="s">
         <v>3984</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G44" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I44" s="27" t="s">
@@ -50441,34 +50747,34 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="L44" s="84" t="str">
+      <c r="L44" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_TYPE_CHOICES_INSTR  66 // Press just trigger to cycle through effect TYPE choices, trigger + any color to choose the effect TYPE.</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="71">
         <v>71</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="89" t="s">
         <v>3976</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="68" t="s">
         <v>3994</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I45" s="27" t="s">
@@ -50478,34 +50784,34 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L45" s="84" t="str">
+      <c r="L45" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_CHARGEUP            71 // Effect typeCHARGE-UP FOR SHOOTING. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B46" s="70">
+      <c r="B46" s="71">
         <v>72</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="89" t="s">
         <v>3977</v>
       </c>
-      <c r="D46" s="67" t="s">
+      <c r="D46" s="68" t="s">
         <v>3995</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F46" s="68" t="s">
+      <c r="F46" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G46" s="72" t="s">
+      <c r="G46" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -50515,34 +50821,34 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L46" s="84" t="str">
+      <c r="L46" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_SHOOTING            72 // Effect type SHOOTING. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="71">
         <v>73</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="89" t="s">
         <v>3978</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="68" t="s">
         <v>3996</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E47" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G47" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I47" s="27" t="s">
@@ -50552,34 +50858,34 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L47" s="84" t="str">
+      <c r="L47" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_OPENBARREL          73 // Effect type OPEN BARREL. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="71">
         <v>74</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="89" t="s">
         <v>3979</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="68" t="s">
         <v>3997</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="F48" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H48" s="70" t="s">
+      <c r="H48" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I48" s="27" t="s">
@@ -50589,34 +50895,34 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L48" s="84" t="str">
+      <c r="L48" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_LOCKLOAD            74 // Effect type LOCK-AND-LOAD. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="71">
         <v>75</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="89" t="s">
         <v>3980</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="68" t="s">
         <v>3998</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H49" s="70" t="s">
+      <c r="H49" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I49" s="27" t="s">
@@ -50626,34 +50932,34 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L49" s="84" t="str">
+      <c r="L49" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_POWERON             75 // Effect type POWER-ON. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B50" s="70">
+      <c r="B50" s="71">
         <v>76</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="89" t="s">
         <v>3981</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="68" t="s">
         <v>3999</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="E50" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I50" s="27" t="s">
@@ -50663,34 +50969,34 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L50" s="84" t="str">
+      <c r="L50" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_WAITFORTRIG         76 // Effect type WAITING-FOR-TRIGGER. Trigger alone for next type.</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B51" s="70">
+      <c r="B51" s="71">
         <v>101</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="66" t="s">
         <v>3381</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="72" t="s">
         <v>4006</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I51" s="27" t="s">
@@ -50700,34 +51006,34 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L51" s="84" t="str">
+      <c r="L51" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_SILENCE            101 // silence</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="20.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="71">
         <v>102</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="66" t="s">
         <v>3419</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="72" t="s">
         <v>4007</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="72" t="s">
         <v>3382</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="69" t="s">
         <v>2867</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="73" t="s">
         <v>3376</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="71" t="s">
         <v>3377</v>
       </c>
       <c r="I52" s="27" t="s">
@@ -50737,191 +51043,273 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L52" s="84" t="str">
+      <c r="L52" s="85" t="str">
         <f t="shared" si="1"/>
         <v>#define mEFCT_UNIQ_NOT_IMPL           102 // Not yet implemented</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="20.25">
-      <c r="E53" s="77"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="79"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:18" ht="20.25">
-      <c r="E54" s="77"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="K55" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="K56" t="s">
-        <v>3361</v>
+    <row r="54" spans="1:18" ht="105">
+      <c r="A54" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B54" s="71">
+        <v>63</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="88" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F54" s="69" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H54" s="71" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L54" s="85" t="str">
+        <f t="shared" ref="L54:L56" si="2">"#define "&amp;I54&amp;" "&amp;REPT(" ",$J$39-J54)&amp;RIGHT(TEXT(B54,"    #"),3)&amp;" // "&amp;RIGHT(LEFT(D54,LEN(D54)-1),LEN(D54)-1-FIND("""",D54))</f>
+        <v>#define mEFCT_UNIQ_CFG_CATEGORY        63 // Now choose which effect category: sounds or LED patterns. As always press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="120">
+      <c r="A55" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B55" s="71">
+        <v>64</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="88" t="s">
+        <v>4061</v>
+      </c>
+      <c r="E55" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G55" s="73" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H55" s="71" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L55" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>#define mEFCT_UNIQ_CFG_TYPE            64 // Now choose when the effect happens. This list includes when powering-on, when shooting, etc. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="120">
+      <c r="A56" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B56" s="71">
+        <v>65</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="88" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E56" s="72" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G56" s="73" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L56" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>#define mEFCT_UNIQ_CFG_EFECT           65 // Now choose the effect itself. This list cycles through the effects one by one. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="K57" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="K58" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="K59" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="K60" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="K61" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="K62" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="K63" t="s">
         <v>3366</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R63" t="s">
         <v>2941</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="20.25">
-      <c r="A62" s="55" t="s">
+    <row r="64" spans="1:18" ht="20.25">
+      <c r="A64" s="56" t="s">
         <v>2853</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="35" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="35" t="s">
         <v>2880</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D64" s="34" t="s">
         <v>3357</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E64" s="34" t="s">
         <v>2853</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F64" s="35" t="s">
         <v>2879</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G64" s="35" t="s">
         <v>2882</v>
       </c>
-      <c r="H62" s="52" t="s">
+      <c r="H64" s="53" t="s">
         <v>2881</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K64" t="s">
         <v>3367</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R64" t="s">
         <v>2942</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="20.25">
-      <c r="A63" s="55" t="s">
+    <row r="65" spans="1:18" ht="20.25">
+      <c r="A65" s="56" t="s">
         <v>2853</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="54" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="55" t="s">
         <v>2868</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D65" s="34" t="s">
         <v>3357</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E65" s="34" t="s">
         <v>2853</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F65" s="35" t="s">
         <v>2867</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G65" s="35" t="s">
         <v>2870</v>
       </c>
-      <c r="H63" s="52" t="s">
+      <c r="H65" s="53" t="s">
         <v>2869</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R65" t="s">
         <v>2943</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="30.75">
-      <c r="A64" s="19" t="s">
+    <row r="66" spans="1:18" ht="30.75">
+      <c r="A66" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B66" s="19">
         <v>57</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C66" s="33" t="s">
         <v>2888</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D66" s="54" t="s">
         <v>3369</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E66" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F66" s="35" t="s">
         <v>2859</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G66" s="35" t="s">
         <v>2928</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H66" s="19" t="s">
         <v>2939</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="20.25">
-      <c r="A65" s="19" t="s">
+    <row r="67" spans="1:18" ht="20.25">
+      <c r="A67" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B67" s="31">
         <v>58</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C67" s="33" t="s">
         <v>2887</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D67" s="54" t="s">
         <v>2886</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E67" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F67" s="35" t="s">
         <v>2879</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="G67" s="35" t="s">
         <v>2927</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H67" s="19" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="20.25">
-      <c r="A66" s="6"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:18" ht="20.25">
-      <c r="A67" s="6"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:18" ht="20.25">
       <c r="A68" s="6"/>
-      <c r="D68" s="56"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="6"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -50929,66 +51317,71 @@
     </row>
     <row r="69" spans="1:18" ht="20.25">
       <c r="A69" s="6"/>
-      <c r="D69" s="56"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="6"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="6"/>
+      <c r="I69" s="3" t="s">
+        <v>4052</v>
+      </c>
     </row>
     <row r="70" spans="1:18" ht="20.25">
       <c r="A70" s="6"/>
-      <c r="D70" s="56"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="6"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="6"/>
+      <c r="I70" s="3" t="s">
+        <v>4054</v>
+      </c>
     </row>
     <row r="71" spans="1:18" ht="20.25">
-      <c r="D71" s="56"/>
+      <c r="A71" s="6"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="6"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="6"/>
+      <c r="I71" s="3" t="s">
+        <v>4053</v>
+      </c>
     </row>
     <row r="72" spans="1:18" ht="20.25">
-      <c r="D72" s="56"/>
+      <c r="A72" s="6"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="6"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:18" ht="20.25">
-      <c r="D73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="6"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:18" ht="20.25">
-      <c r="A74" s="6" t="s">
-        <v>3383</v>
-      </c>
-      <c r="D74" s="56"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="6"/>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:18" ht="20.25">
-      <c r="A75" t="s">
-        <v>3397</v>
-      </c>
-      <c r="D75" s="56"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="6"/>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:18" ht="20.25">
-      <c r="A76" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D76" s="56"/>
+      <c r="A76" s="6" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D76" s="57"/>
       <c r="E76" s="6"/>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
@@ -50996,731 +51389,756 @@
     </row>
     <row r="77" spans="1:18" ht="20.25">
       <c r="A77" t="s">
-        <v>3385</v>
-      </c>
-      <c r="D77" s="56"/>
+        <v>3397</v>
+      </c>
+      <c r="D77" s="57"/>
       <c r="E77" s="6"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:18" ht="20.25">
-      <c r="A78" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L78&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M78&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>2855</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>2856</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>2857</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>2858</v>
-      </c>
+      <c r="A78" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D78" s="57"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:18" ht="20.25">
-      <c r="A79" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M79&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>3393</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>3396</v>
-      </c>
-      <c r="L79" s="29" t="s">
-        <v>3394</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>3395</v>
-      </c>
+      <c r="A79" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:18" ht="20.25">
       <c r="A80" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M80&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>2859</v>
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J80&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K80&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L80&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;M80&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;File Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Who&lt;/b&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>2855</v>
       </c>
       <c r="K80" s="27" t="s">
-        <v>2864</v>
-      </c>
-      <c r="L80" s="29" t="s">
-        <v>2865</v>
-      </c>
-      <c r="M80" s="28" t="s">
-        <v>2866</v>
-      </c>
-      <c r="R80" t="str">
-        <f>"| "&amp;J80&amp;" | "&amp;K80&amp;" | "&amp;L80&amp;" | "&amp;M80&amp;" |"</f>
-        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
+        <v>2856</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>2858</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="20.25">
       <c r="A81" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M81&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
-      </c>
-      <c r="J81" s="51" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>2888</v>
-      </c>
-      <c r="L81" t="s">
-        <v>2939</v>
-      </c>
-      <c r="M81" s="28" t="s">
-        <v>2928</v>
-      </c>
-      <c r="R81" t="str">
-        <f>"| "&amp;J81&amp;" | "&amp;K81&amp;" | "&amp;L81&amp;" | "&amp;M81&amp;" |"</f>
-        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
+        <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>3393</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>3396</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>3394</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>3395</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25">
       <c r="A82" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M82&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J82" s="51" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>2887</v>
-      </c>
-      <c r="L82" t="s">
-        <v>2938</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;145209__lensflare8642__shotgun-sounds.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/145209/&lt;/td&gt;&lt;td&gt;lensflare8642&lt;/td&gt;</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>2865</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>2927</v>
+        <v>2866</v>
       </c>
       <c r="R82" t="str">
         <f>"| "&amp;J82&amp;" | "&amp;K82&amp;" | "&amp;L82&amp;" | "&amp;M82&amp;" |"</f>
-        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
+        <v>| zero/1.0/ | 145209__lensflare8642__shotgun-sounds.mp3 | https://freesound.org/s/145209/ | lensflare8642 |</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="20.25">
       <c r="A83" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M83&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;162814__timgormly__spaceship-4.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/162814/&lt;/td&gt;&lt;td&gt;timgormly&lt;/td&gt;</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="L83" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="R83" t="str">
         <f>"| "&amp;J83&amp;" | "&amp;K83&amp;" | "&amp;L83&amp;" | "&amp;M83&amp;" |"</f>
-        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
+        <v>| zero/1.0/ | 162814__timgormly__spaceship-4.aiff | https://freesound.org/s/162814/ | timgormly |</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20.25">
       <c r="A84" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M84&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;165483__timbre__glitch-voice-ep-mp3.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/165483/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>2859</v>
+        <v>2879</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="L84" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>2926</v>
-      </c>
-      <c r="Q84" s="29"/>
+        <v>2927</v>
+      </c>
       <c r="R84" t="str">
         <f>"| "&amp;J84&amp;" | "&amp;K84&amp;" | "&amp;L84&amp;" | "&amp;M84&amp;" |"</f>
-        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
+        <v>| by-nc/3.0/ | 165483__timbre__glitch-voice-ep-mp3.mp3 | https://freesound.org/s/165483/ | timbre |</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="20.25">
       <c r="A85" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M85&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>2880</v>
-      </c>
-      <c r="L85" s="29" t="s">
-        <v>2881</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;169292__lazr2012__haywirefusionator.ogg&lt;/td&gt;&lt;td&gt;https://freesound.org/s/169292/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J85" s="51" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>2885</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2937</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>2882</v>
+        <v>2926</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" ref="R85:R86" si="2">"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
-        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
+        <f>"| "&amp;J85&amp;" | "&amp;K85&amp;" | "&amp;L85&amp;" | "&amp;M85&amp;" |"</f>
+        <v>| by/3.0/ | 169292__lazr2012__haywirefusionator.ogg | https://freesound.org/s/169292/ | lazr2012 |</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20.25">
       <c r="A86" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M86&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>2868</v>
-      </c>
-      <c r="L86" s="29" t="s">
-        <v>2869</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;170136__lazr2012__machinery-bo.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/170136/&lt;/td&gt;&lt;td&gt;lazr2012&lt;/td&gt;</v>
+      </c>
+      <c r="J86" s="51" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>2883</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2936</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>2870</v>
-      </c>
+        <v>2926</v>
+      </c>
+      <c r="Q86" s="29"/>
       <c r="R86" t="str">
-        <f t="shared" si="2"/>
-        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
+        <f>"| "&amp;J86&amp;" | "&amp;K86&amp;" | "&amp;L86&amp;" | "&amp;M86&amp;" |"</f>
+        <v>| zero/1.0/ | 170136__lazr2012__machinery-bo.flac | https://freesound.org/s/170136/ | lazr2012 |</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="20.25">
       <c r="A87" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M87&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
-      </c>
-      <c r="J87" s="51" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>2854</v>
-      </c>
-      <c r="L87" t="s">
-        <v>2933</v>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;179281__timbre__boingy-sweep.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/179281/&lt;/td&gt;&lt;td&gt;Timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="L87" s="29" t="s">
+        <v>2881</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>2919</v>
+        <v>2882</v>
       </c>
       <c r="R87" t="str">
-        <f>"| "&amp;J87&amp;" | "&amp;K87&amp;" | "&amp;L87&amp;" | "&amp;M87&amp;" |"</f>
-        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
+        <f t="shared" ref="R87:R88" si="3">"| "&amp;J87&amp;" | "&amp;K87&amp;" | "&amp;L87&amp;" | "&amp;M87&amp;" |"</f>
+        <v>| by-nc/3.0/ | 179281__timbre__boingy-sweep.flac | https://freesound.org/s/179281/ | Timbre |</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="20.25">
       <c r="A88" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M88&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
-      </c>
-      <c r="J88" s="36" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;216096__richerlandtv__u-f-o.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/216096/&lt;/td&gt;&lt;td&gt;RICHERlandTV&lt;/td&gt;</v>
+      </c>
+      <c r="J88" s="15" t="s">
         <v>2867</v>
       </c>
-      <c r="K88" s="6" t="s">
-        <v>2849</v>
+      <c r="K88" s="4" t="s">
+        <v>2868</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>2934</v>
+        <v>2869</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>2920</v>
+        <v>2870</v>
       </c>
       <c r="R88" t="str">
-        <f>"| "&amp;J88&amp;" | "&amp;K88&amp;" | "&amp;L88&amp;" | "&amp;M88&amp;" |"</f>
-        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
+        <f t="shared" si="3"/>
+        <v>| by/3.0/ | 216096__richerlandtv__u-f-o.mp3 | https://freesound.org/s/216096/ | RICHERlandTV |</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20.25">
       <c r="A89" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M89&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
-      </c>
-      <c r="J89" s="28" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;221875__hero-of-the-winds__spring-boing.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/221875/&lt;/td&gt;&lt;td&gt;hero-of-the-winds&lt;/td&gt;</v>
+      </c>
+      <c r="J89" s="51" t="s">
         <v>2867</v>
       </c>
-      <c r="K89" t="s">
-        <v>2901</v>
-      </c>
-      <c r="L89" s="29" t="s">
-        <v>2903</v>
+      <c r="K89" s="6" t="s">
+        <v>2854</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2933</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>2900</v>
+        <v>2919</v>
       </c>
       <c r="R89" t="str">
         <f>"| "&amp;J89&amp;" | "&amp;K89&amp;" | "&amp;L89&amp;" | "&amp;M89&amp;" |"</f>
-        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
+        <v>| by/3.0/ | 221875__hero-of-the-winds__spring-boing.wav | https://freesound.org/s/221875/ | hero-of-the-winds |</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="20.25">
       <c r="A90" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M90&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;240297__jalastram__abstract-guitar-sfx-003.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/240297/&lt;/td&gt;&lt;td&gt;jalastram&lt;/td&gt;</v>
       </c>
       <c r="J90" s="36" t="s">
         <v>2867</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>2847</v>
-      </c>
-      <c r="L90" t="s">
-        <v>2930</v>
+        <v>2849</v>
+      </c>
+      <c r="L90" s="29" t="s">
+        <v>2934</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="R90" t="str">
         <f>"| "&amp;J90&amp;" | "&amp;K90&amp;" | "&amp;L90&amp;" | "&amp;M90&amp;" |"</f>
-        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
+        <v>| by/3.0/ | 240297__jalastram__abstract-guitar-sfx-003.wav | https://freesound.org/s/240297/ | jalastram |</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="20.25">
       <c r="A91" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M91&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
-      </c>
-      <c r="J91" s="36" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>2845</v>
-      </c>
-      <c r="L91" t="s">
-        <v>2931</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;272068__ichbinjager__shotgun-action.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/272068/&lt;/td&gt;&lt;td&gt;IchBinJager&lt;/td&gt;</v>
+      </c>
+      <c r="J91" s="28" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2901</v>
+      </c>
+      <c r="L91" s="29" t="s">
+        <v>2903</v>
       </c>
       <c r="M91" s="28" t="s">
-        <v>2922</v>
+        <v>2900</v>
       </c>
       <c r="R91" t="str">
         <f>"| "&amp;J91&amp;" | "&amp;K91&amp;" | "&amp;L91&amp;" | "&amp;M91&amp;" |"</f>
-        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
+        <v>| by/3.0/ | 272068__ichbinjager__shotgun-action.wav | https://freesound.org/s/272068/ | IchBinJager |</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="20.25">
       <c r="A92" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M92&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
-      </c>
-      <c r="J92" s="28" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K92" t="s">
-        <v>2897</v>
-      </c>
-      <c r="L92" s="29" t="s">
-        <v>2898</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;275537__wjoojoo__contact-mic-on-satellite-dish04.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/275537/&lt;/td&gt;&lt;td&gt;wjoojoo&lt;/td&gt;</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2930</v>
       </c>
       <c r="M92" s="28" t="s">
-        <v>2895</v>
+        <v>2921</v>
       </c>
       <c r="R92" t="str">
         <f>"| "&amp;J92&amp;" | "&amp;K92&amp;" | "&amp;L92&amp;" | "&amp;M92&amp;" |"</f>
-        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
+        <v>| by/3.0/ | 275537__wjoojoo__contact-mic-on-satellite-dish04.wav | https://freesound.org/s/275537/ | wjoojoo |</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="20.25">
       <c r="A93" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M93&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
-      </c>
-      <c r="J93" s="30" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K93" s="28" t="s">
-        <v>2843</v>
-      </c>
-      <c r="L93" s="29" t="s">
-        <v>2877</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;352852__josepharaoh99__game-style-laser-beam.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/352852/&lt;/td&gt;&lt;td&gt;josepharaoh99&lt;/td&gt;</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>2845</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2931</v>
       </c>
       <c r="M93" s="28" t="s">
-        <v>2878</v>
+        <v>2922</v>
       </c>
       <c r="R93" t="str">
         <f>"| "&amp;J93&amp;" | "&amp;K93&amp;" | "&amp;L93&amp;" | "&amp;M93&amp;" |"</f>
-        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
+        <v>| zero/1.0/ | 352852__josepharaoh99__game-style-laser-beam.wav | https://freesound.org/s/352852/ | josepharaoh99 |</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="20.25">
       <c r="A94" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M94&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
-      </c>
-      <c r="J94" s="35" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;380886__morganpurkis__doom-shotgun-2017.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/380886/&lt;/td&gt;&lt;td&gt;morganpurkis&lt;/td&gt;</v>
+      </c>
+      <c r="J94" s="28" t="s">
         <v>2859</v>
       </c>
-      <c r="K94" s="19" t="s">
-        <v>2841</v>
-      </c>
-      <c r="L94" t="s">
-        <v>2929</v>
+      <c r="K94" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>2898</v>
       </c>
       <c r="M94" s="28" t="s">
-        <v>2923</v>
+        <v>2895</v>
       </c>
       <c r="R94" t="str">
         <f>"| "&amp;J94&amp;" | "&amp;K94&amp;" | "&amp;L94&amp;" | "&amp;M94&amp;" |"</f>
-        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
+        <v>| zero/1.0/ | 380886__morganpurkis__doom-shotgun-2017.wav | https://freesound.org/s/380886/ | morganpurkis |</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20.25">
       <c r="A95" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M95&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
-      </c>
-      <c r="J95" s="32" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K95" s="35" t="s">
-        <v>2833</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;383205__spiceprogram__loading-sound.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383205/&lt;/td&gt;&lt;td&gt;SpiceProgram&lt;/td&gt;</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K95" s="28" t="s">
+        <v>2843</v>
       </c>
       <c r="L95" s="29" t="s">
-        <v>2862</v>
+        <v>2877</v>
       </c>
       <c r="M95" s="28" t="s">
-        <v>2863</v>
+        <v>2878</v>
       </c>
       <c r="R95" t="str">
         <f>"| "&amp;J95&amp;" | "&amp;K95&amp;" | "&amp;L95&amp;" | "&amp;M95&amp;" |"</f>
-        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
+        <v>| by/3.0/ | 383205__spiceprogram__loading-sound.wav | https://freesound.org/s/383205/ | SpiceProgram |</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20.25">
       <c r="A96" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M96&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/383760/&lt;/td&gt;&lt;td&gt;deleted-user-7146007&lt;/td&gt;</v>
       </c>
       <c r="J96" s="35" t="s">
         <v>2859</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>2906</v>
-      </c>
-      <c r="L96" s="29" t="s">
-        <v>2911</v>
+        <v>2841</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2929</v>
       </c>
       <c r="M96" s="28" t="s">
-        <v>2907</v>
+        <v>2923</v>
       </c>
       <c r="R96" t="str">
         <f>"| "&amp;J96&amp;" | "&amp;K96&amp;" | "&amp;L96&amp;" | "&amp;M96&amp;" |"</f>
-        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
+        <v>| zero/1.0/ | 383760__deleted-user-7146007__laboratory-mad-scientist-science-fiction-sci-fi.wav | https://freesound.org/s/383760/ | deleted-user-7146007 |</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20.25">
       <c r="A97" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M97&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;397254__screamstudio__loading.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/397254/&lt;/td&gt;&lt;td&gt;ScreamStudio&lt;/td&gt;</v>
       </c>
       <c r="J97" s="32" t="s">
         <v>2859</v>
       </c>
       <c r="K97" s="35" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="L97" s="29" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="R97" t="str">
         <f>"| "&amp;J97&amp;" | "&amp;K97&amp;" | "&amp;L97&amp;" | "&amp;M97&amp;" |"</f>
-        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
+        <v>| zero/1.0/ | 397254__screamstudio__loading.wav | https://freesound.org/s/397254/ | ScreamStudio |</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="20.25">
       <c r="A98" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M98&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;404068__swordofkings128__backyard-gate-open.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/404068/&lt;/td&gt;&lt;td&gt;swordofkings128&lt;/td&gt;</v>
       </c>
       <c r="J98" s="35" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>2839</v>
-      </c>
-      <c r="L98" t="s">
-        <v>2935</v>
+        <v>2906</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>2911</v>
       </c>
       <c r="M98" s="28" t="s">
-        <v>2924</v>
+        <v>2907</v>
       </c>
       <c r="R98" t="str">
         <f>"| "&amp;J98&amp;" | "&amp;K98&amp;" | "&amp;L98&amp;" | "&amp;M98&amp;" |"</f>
-        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
+        <v>| zero/1.0/ | 404068__swordofkings128__backyard-gate-open.wav | https://freesound.org/s/404068/ | swordofkings128 |</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20.25">
       <c r="A99" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M99&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
-      </c>
-      <c r="J99" s="35" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>2837</v>
-      </c>
-      <c r="L99" t="s">
-        <v>2932</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;407052__sojan__power-charge.flac&lt;/td&gt;&lt;td&gt;https://freesound.org/s/193610/&lt;/td&gt;&lt;td&gt;crashoverride61088&lt;/td&gt;</v>
+      </c>
+      <c r="J99" s="32" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K99" s="35" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L99" s="29" t="s">
+        <v>2860</v>
       </c>
       <c r="M99" s="28" t="s">
-        <v>2925</v>
+        <v>2861</v>
       </c>
       <c r="R99" t="str">
         <f>"| "&amp;J99&amp;" | "&amp;K99&amp;" | "&amp;L99&amp;" | "&amp;M99&amp;" |"</f>
-        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
+        <v>| zero/1.0/ | 407052__sojan__power-charge.flac | https://freesound.org/s/193610/ | crashoverride61088 |</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="20.25">
       <c r="A100" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M100&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
-      </c>
-      <c r="J100" s="28" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417131__cuddlenucks__science-fiction-noise-3.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417131/&lt;/td&gt;&lt;td&gt;cuddlenucks&lt;/td&gt;</v>
+      </c>
+      <c r="J100" s="35" t="s">
         <v>2867</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>2904</v>
-      </c>
-      <c r="L100" s="29" t="s">
-        <v>2910</v>
+        <v>2839</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2935</v>
       </c>
       <c r="M100" s="28" t="s">
-        <v>2905</v>
+        <v>2924</v>
       </c>
       <c r="R100" t="str">
         <f>"| "&amp;J100&amp;" | "&amp;K100&amp;" | "&amp;L100&amp;" | "&amp;M100&amp;" |"</f>
-        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
+        <v>| by/3.0/ | 417131__cuddlenucks__science-fiction-noise-3.wav | https://freesound.org/s/417131/ | cuddlenucks |</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20.25">
       <c r="A101" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M101&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;417363__xcreenplay__boing-massive-kick.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/417363/&lt;/td&gt;&lt;td&gt;xcreenplay&lt;/td&gt;</v>
       </c>
       <c r="J101" s="35" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>2893</v>
-      </c>
-      <c r="L101" s="29" t="s">
-        <v>2899</v>
+        <v>2837</v>
+      </c>
+      <c r="L101" t="s">
+        <v>2932</v>
       </c>
       <c r="M101" s="28" t="s">
-        <v>2894</v>
+        <v>2925</v>
       </c>
       <c r="R101" t="str">
         <f>"| "&amp;J101&amp;" | "&amp;K101&amp;" | "&amp;L101&amp;" | "&amp;M101&amp;" |"</f>
-        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
+        <v>| by/3.0/ | 417363__xcreenplay__boing-massive-kick.wav | https://freesound.org/s/417363/ | xcreenplay |</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20.25">
       <c r="A102" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M102&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
-      </c>
-      <c r="J102" s="32" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;431117__inspectorj__door-front-opening-a.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/431117/&lt;/td&gt;&lt;td&gt;inspectorj&lt;/td&gt;</v>
+      </c>
+      <c r="J102" s="28" t="s">
         <v>2867</v>
       </c>
-      <c r="K102" s="35" t="s">
-        <v>2874</v>
+      <c r="K102" s="19" t="s">
+        <v>2904</v>
       </c>
       <c r="L102" s="29" t="s">
-        <v>2875</v>
+        <v>2910</v>
       </c>
       <c r="M102" s="28" t="s">
-        <v>2876</v>
+        <v>2905</v>
       </c>
       <c r="R102" t="str">
         <f>"| "&amp;J102&amp;" | "&amp;K102&amp;" | "&amp;L102&amp;" | "&amp;M102&amp;" |"</f>
-        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
+        <v>| by/3.0/ | 431117__inspectorj__door-front-opening-a.wav | https://freesound.org/s/431117/ | inspectorj |</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20.25">
       <c r="A103" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M103&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
-      </c>
-      <c r="J103" s="30" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K103" s="35" t="s">
-        <v>2871</v>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;500418__dj-somar__intro-reverso-craver-microbrute.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/500418/&lt;/td&gt;&lt;td&gt;DJ_SoMaR&lt;/td&gt;</v>
+      </c>
+      <c r="J103" s="35" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K103" s="19" t="s">
+        <v>2893</v>
       </c>
       <c r="L103" s="29" t="s">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="M103" s="28" t="s">
-        <v>2873</v>
+        <v>2894</v>
       </c>
       <c r="R103" t="str">
         <f>"| "&amp;J103&amp;" | "&amp;K103&amp;" | "&amp;L103&amp;" | "&amp;M103&amp;" |"</f>
-        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+        <v>| zero/1.0/ | 500418__dj-somar__intro-reverso-craver-microbrute.wav | https://freesound.org/s/500418/ | DJ_SoMaR |</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20.25">
       <c r="A104" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M104&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
-      </c>
-      <c r="J104" s="35" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K104" s="19" t="s">
-        <v>2891</v>
-      </c>
-      <c r="L104" t="s">
-        <v>2940</v>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;7967__cfork__boing-raw.aiff&lt;/td&gt;&lt;td&gt;https://freesound.org/s/7967/&lt;/td&gt;&lt;td&gt;cfork&lt;/td&gt;</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K104" s="35" t="s">
+        <v>2874</v>
+      </c>
+      <c r="L104" s="29" t="s">
+        <v>2875</v>
       </c>
       <c r="M104" s="28" t="s">
-        <v>2927</v>
+        <v>2876</v>
       </c>
       <c r="R104" t="str">
         <f>"| "&amp;J104&amp;" | "&amp;K104&amp;" | "&amp;L104&amp;" | "&amp;M104&amp;" |"</f>
-        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+        <v>| by/3.0/ | 7967__cfork__boing-raw.aiff | https://freesound.org/s/7967/ | cfork |</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="20.25">
       <c r="A105" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M105&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
-      </c>
-      <c r="J105" s="35" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;88635__uair01__bicycle-picture-in-spectrum.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/88635/&lt;/td&gt;&lt;td&gt;uair01&lt;/td&gt;</v>
+      </c>
+      <c r="J105" s="30" t="s">
         <v>2867</v>
       </c>
-      <c r="K105" s="19" t="s">
-        <v>2908</v>
+      <c r="K105" s="35" t="s">
+        <v>2871</v>
       </c>
       <c r="L105" s="29" t="s">
-        <v>2912</v>
+        <v>2872</v>
       </c>
       <c r="M105" s="28" t="s">
-        <v>2909</v>
+        <v>2873</v>
       </c>
       <c r="R105" t="str">
         <f>"| "&amp;J105&amp;" | "&amp;K105&amp;" | "&amp;L105&amp;" | "&amp;M105&amp;" |"</f>
+        <v>| by/3.0/ | 88635__uair01__bicycle-picture-in-spectrum.wav | https://freesound.org/s/88635/ | uair01 |</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="20.25">
+      <c r="A106" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M106&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;91296__timbre__bwaang-2-reverb.mp3&lt;/td&gt;&lt;td&gt;https://freesound.org/s/91296/&lt;/td&gt;&lt;td&gt;timbre&lt;/td&gt;</v>
+      </c>
+      <c r="J106" s="35" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>2891</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M106" s="28" t="s">
+        <v>2927</v>
+      </c>
+      <c r="R106" t="str">
+        <f>"| "&amp;J106&amp;" | "&amp;K106&amp;" | "&amp;L106&amp;" | "&amp;M106&amp;" |"</f>
+        <v>| by-nc/3.0/ | 91296__timbre__bwaang-2-reverb.mp3 | https://freesound.org/s/91296/ | timbre |</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="20.25">
+      <c r="A107" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J107&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K107&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L107&amp;"&lt;/td&gt;&lt;td&gt;"&amp;M107&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;96964__gabisaraceni__porta-abrindo-5.wav&lt;/td&gt;&lt;td&gt;https://freesound.org/s/96964/&lt;/td&gt;&lt;td&gt;gabisaraceni&lt;/td&gt;</v>
+      </c>
+      <c r="J107" s="35" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L107" s="29" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M107" s="28" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R107" t="str">
+        <f>"| "&amp;J107&amp;" | "&amp;K107&amp;" | "&amp;L107&amp;" | "&amp;M107&amp;" |"</f>
         <v>| by/3.0/ | 96964__gabisaraceni__porta-abrindo-5.wav | https://freesound.org/s/96964/ | gabisaraceni |</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="6" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" t="s">
-        <v>3399</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="6" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="6" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A109" t="s">
+    <row r="111" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A111" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="18" thickBot="1">
-      <c r="A110" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J110&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K110&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L110&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
+    <row r="112" spans="1:18" ht="18" thickBot="1">
+      <c r="A112" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;b&gt;"&amp;J112&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;K112&amp;"&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;"&amp;L112&amp;"&lt;/b&gt;&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;b&gt;Tag&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;Name&lt;/b&gt;&lt;/td&gt;&lt;td&gt;&lt;b&gt;URL&lt;/b&gt;&lt;/td&gt;</v>
       </c>
-      <c r="J110" s="57" t="s">
+      <c r="J112" s="58" t="s">
         <v>2855</v>
       </c>
-      <c r="K110" s="57" t="s">
+      <c r="K112" s="58" t="s">
         <v>3386</v>
       </c>
-      <c r="L110" s="57" t="s">
+      <c r="L112" s="58" t="s">
         <v>2857</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="45.75" thickBot="1">
-      <c r="A111" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J111&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K111&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L111&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J111" s="58" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K111" s="58" t="s">
-        <v>3387</v>
-      </c>
-      <c r="L111" s="59" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A112" s="6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J112&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K112&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L112&amp;"&lt;/td&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
-      </c>
-      <c r="J112" s="60" t="s">
-        <v>2867</v>
-      </c>
-      <c r="K112" s="60" t="s">
-        <v>3389</v>
-      </c>
-      <c r="L112" s="61" t="s">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="30.75" thickBot="1">
+    <row r="113" spans="1:12" ht="45.75" thickBot="1">
       <c r="A113" s="6" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;J113&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K113&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L113&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;zero/1.0/&lt;/td&gt;&lt;td&gt;Creative Commons 0 License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/publicdomain/zero/1.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J113" s="59" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K113" s="59" t="s">
+        <v>3387</v>
+      </c>
+      <c r="L113" s="60" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A114" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J114&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K114&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L114&amp;"&lt;/td&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;by/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by/3.0/&lt;/td&gt;</v>
+      </c>
+      <c r="J114" s="61" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K114" s="61" t="s">
+        <v>3389</v>
+      </c>
+      <c r="L114" s="62" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A115" s="6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;J115&amp;"&lt;/td&gt;&lt;td&gt;"&amp;K115&amp;"&lt;/td&gt;&lt;td&gt;"&amp;L115&amp;"&lt;/td&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;by-nc/3.0/&lt;/td&gt;&lt;td&gt;Creative Commons Attribution Noncommercial License&lt;/td&gt;&lt;td&gt;https://creativecommons.org/licenses/by-nc/3.0/&lt;/td&gt;</v>
       </c>
-      <c r="J113" s="58" t="s">
+      <c r="J115" s="59" t="s">
         <v>2879</v>
       </c>
-      <c r="K113" s="58" t="s">
+      <c r="K115" s="59" t="s">
         <v>3391</v>
       </c>
-      <c r="L113" s="59" t="s">
+      <c r="L115" s="60" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="6" t="s">
+    <row r="116" spans="1:12">
+      <c r="A116" s="6" t="s">
         <v>3384</v>
       </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="9"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H52" xr:uid="{D49867B0-9605-4DAD-A171-997D81FF01DA}"/>
-  <sortState ref="A81:D88">
-    <sortCondition descending="1" ref="A81:A88"/>
-    <sortCondition ref="B81:B88"/>
+  <sortState ref="D145:D169">
+    <sortCondition ref="D145:D169"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L97" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
-    <hyperlink ref="L95" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
-    <hyperlink ref="L80" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
-    <hyperlink ref="L86" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
-    <hyperlink ref="L103" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
-    <hyperlink ref="L102" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
-    <hyperlink ref="L93" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
-    <hyperlink ref="L85" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
-    <hyperlink ref="L92" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
-    <hyperlink ref="L101" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
-    <hyperlink ref="L89" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
-    <hyperlink ref="L100" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
-    <hyperlink ref="L92:L93" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
-    <hyperlink ref="L96" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
-    <hyperlink ref="L105" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
-    <hyperlink ref="L88" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
+    <hyperlink ref="L99" r:id="rId1" xr:uid="{0389BFEF-2278-1C4C-AFFD-40911D54BA38}"/>
+    <hyperlink ref="L97" r:id="rId2" xr:uid="{6DC6DCC3-96F7-244A-A515-6ACC236B66A6}"/>
+    <hyperlink ref="L82" r:id="rId3" xr:uid="{CCE745AF-D2B8-1E45-81C2-27CEF6C5B2AF}"/>
+    <hyperlink ref="L88" r:id="rId4" xr:uid="{FC7F966A-1EC2-DE4A-875D-CA9E5FD25210}"/>
+    <hyperlink ref="L105" r:id="rId5" xr:uid="{0DB3DAF8-4FD8-5441-A5EE-FDB2E3108255}"/>
+    <hyperlink ref="L104" r:id="rId6" xr:uid="{6722E195-E4EF-1D49-A046-EFE49EC89CB6}"/>
+    <hyperlink ref="L95" r:id="rId7" xr:uid="{35EA502B-43EE-5648-92D3-03388141605B}"/>
+    <hyperlink ref="L87" r:id="rId8" xr:uid="{F628B53D-420C-0844-AF06-3CBF155582C6}"/>
+    <hyperlink ref="L94" r:id="rId9" xr:uid="{FA1B324F-1513-1343-9CCE-E23AFD154FFD}"/>
+    <hyperlink ref="L103" r:id="rId10" xr:uid="{C5AA4A87-0C8F-9A4C-974F-82A19E89F99C}"/>
+    <hyperlink ref="L91" r:id="rId11" xr:uid="{E1112DD8-8BE8-BD47-9002-F00DDA38363C}"/>
+    <hyperlink ref="L102" r:id="rId12" xr:uid="{4D774EC1-CC16-C24F-88F2-E9E20B8A8FC0}"/>
+    <hyperlink ref="L94:L95" r:id="rId13" display="https://freesound.org/s//" xr:uid="{5FB99E8B-AEFC-6A45-851E-E3C683DC5AC1}"/>
+    <hyperlink ref="L98" r:id="rId14" xr:uid="{E2EACC90-D2ED-AF4A-9302-ADD31B56C321}"/>
+    <hyperlink ref="L107" r:id="rId15" xr:uid="{13F37B0F-8A53-0B4F-8FE7-132D2186D638}"/>
+    <hyperlink ref="L90" r:id="rId16" xr:uid="{FA55BAC7-078A-8944-9FB5-42D7B041E218}"/>
     <hyperlink ref="H27" r:id="rId17" xr:uid="{4419FB35-315D-4DE4-9E5C-9B20E33A87FF}"/>
     <hyperlink ref="H22" r:id="rId18" xr:uid="{0ABC5FB6-8ADD-42B9-BF56-61A08BCA415C}"/>
     <hyperlink ref="H25" r:id="rId19" xr:uid="{189EA614-1A03-48EB-A1CB-FFAA9A4096B3}"/>
@@ -51749,15 +52167,15 @@
     <hyperlink ref="H28" r:id="rId42" xr:uid="{9A5F93C5-437C-488C-B3D7-22BAEE17A695}"/>
     <hyperlink ref="H26" r:id="rId43" xr:uid="{5BFD487A-D636-4DDD-B229-99F5CBDC0BE1}"/>
     <hyperlink ref="H23" r:id="rId44" xr:uid="{46A4F8EE-A89B-4A07-8D5D-E50FDDE0611E}"/>
-    <hyperlink ref="H62" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
-    <hyperlink ref="H63" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
+    <hyperlink ref="H64" r:id="rId45" xr:uid="{5B231739-C8F4-4D4E-B946-7A383ECBBB35}"/>
+    <hyperlink ref="H65" r:id="rId46" xr:uid="{6D8EAE93-D71D-4499-8388-86B77E8848FB}"/>
     <hyperlink ref="H8" r:id="rId47" xr:uid="{2AE693E7-7449-4538-80A8-30A52F2A22F5}"/>
     <hyperlink ref="H7" r:id="rId48" xr:uid="{2FE1FB4D-693E-4830-8337-658393F68B92}"/>
     <hyperlink ref="H13" r:id="rId49" xr:uid="{DE9970E0-9BDB-45D1-93FA-3F6E016EDFDA}"/>
-    <hyperlink ref="L111" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
-    <hyperlink ref="L112" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
-    <hyperlink ref="L113" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
-    <hyperlink ref="L79" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
+    <hyperlink ref="L113" r:id="rId50" xr:uid="{643921F6-79ED-48CE-BC1D-7689B067914F}"/>
+    <hyperlink ref="L114" r:id="rId51" xr:uid="{5EB50EDD-6F80-49BD-9E94-C3F33E3E21E7}"/>
+    <hyperlink ref="L115" r:id="rId52" xr:uid="{3C3C642F-1CE9-4D06-A8F2-3D9A9371558D}"/>
+    <hyperlink ref="L81" r:id="rId53" xr:uid="{EAAF1456-48F9-4E52-8F61-7A6218C1AD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81698A4-0407-4C98-978D-791AAE421B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1E677-F1FC-4657-9459-4C9FEB99DCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -13894,9 +13894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -49469,7 +49469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827A58D-C8A4-4858-A89B-E853C083564F}">
   <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L54" sqref="L54:L56"/>
     </sheetView>
   </sheetViews>

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1E677-F1FC-4657-9459-4C9FEB99DCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F63A-B5B3-479B-BC4F-8E5AB51BCD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="4064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="4071">
   <si>
     <t>trigOnly</t>
   </si>
@@ -10348,6 +10348,9 @@
     <t>DEBUG loop() - nowVinputRBG 0x2240 loopCount 129205</t>
   </si>
   <si>
+    <t>#define mROW_POWERON 0</t>
+  </si>
+  <si>
     <t>split for windup, waiting</t>
   </si>
   <si>
@@ -10492,15 +10495,9 @@
     <t>trigGreen</t>
   </si>
   <si>
-    <t>mCFG_LIGHT</t>
-  </si>
-  <si>
     <t>trigBlack</t>
   </si>
   <si>
-    <t>mCFG_OTHER</t>
-  </si>
-  <si>
     <t>Sorry, not yet implemented</t>
   </si>
   <si>
@@ -10525,9 +10522,6 @@
     <t>mCFG_SOUND_NEXT</t>
   </si>
   <si>
-    <t>mCFG_SOUND_CHOICE</t>
-  </si>
-  <si>
     <t>mSPCL_HANDLER | mSPCL_HANDLER_CFGSTORE | mSPCL_EFCT_NONE</t>
   </si>
   <si>
@@ -10643,27 +10637,6 @@
   </si>
   <si>
     <t>#define mROW_MENUCFG 24</t>
-  </si>
-  <si>
-    <t>#define mCFG_LIGHT 28</t>
-  </si>
-  <si>
-    <t>#define mCFG_OTHER 29</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_SHOOT 30</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_LOOPSTART 31</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_LOOP 32</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_NEXT 34</t>
-  </si>
-  <si>
-    <t>#define mCFG_SOUND_CHOICE 35</t>
   </si>
   <si>
     <t>grep -n " from " debug2.txt &gt; mdo2.tmp ; python mdoUniq.py mdo2.tmp "RBG_" loopCount &gt;&gt; mdo2.txt</t>
@@ -12970,6 +12943,54 @@
   </si>
   <si>
     <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_MENU 24</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_CATEGORY 27</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_CATEGORY_LOOPSTART 28</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_CATEGORY_LOOP 31</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_CATEGORY_NEXT 34</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_CATEGORY_CHOICE 35</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_TYPE 36</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_TYPE_LOOPSTART 37</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_TYPE_LOOP 40</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_TYPE_NEXT 42</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_TYPE_CHOICE 43</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_EFFECT 44</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_EFFECT_LOOPSTART 45</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_EFFECT_LOOP 46</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_EFFECT_NEXT 48</t>
+  </si>
+  <si>
+    <t>#define mROW_CFG_EFFECT_CHOICE 49</t>
   </si>
 </sst>
 </file>
@@ -13892,11 +13913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13994,7 +14015,7 @@
       </c>
       <c r="K2" s="9" t="str">
         <f>IF(LEN(C2),VLOOKUP(C2,mROW,3,FALSE),"")</f>
-        <v>#define mROW_POWERON 0  // first address in myStateTable[]</v>
+        <v>#define mROW_POWERON 0</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
@@ -14005,14 +14026,14 @@
       <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
-        <v>3404</v>
-      </c>
-      <c r="W2">
-        <v>28</v>
+      <c r="V2" s="2" t="s">
+        <v>4038</v>
+      </c>
+      <c r="W2" s="25">
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3455</v>
+        <v>4056</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -14037,16 +14058,16 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f>IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
-        <v>#define mROW_POWERON 0  // first address in myStateTable[]</v>
+        <v>#define mROW_POWERON 0</v>
       </c>
       <c r="V3" t="s">
-        <v>3406</v>
+        <v>4027</v>
       </c>
       <c r="W3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3456</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -14055,13 +14076,13 @@
         <v/>
       </c>
       <c r="V4" t="s">
-        <v>3415</v>
+        <v>4025</v>
       </c>
       <c r="W4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3461</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -14092,16 +14113,16 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>3574</v>
+        <v>3565</v>
       </c>
       <c r="V5" t="s">
-        <v>3409</v>
+        <v>4024</v>
       </c>
       <c r="W5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3459</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -14119,12 +14140,12 @@
         <v>32</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
@@ -14132,16 +14153,16 @@
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
       <c r="M6" s="64" t="s">
-        <v>3575</v>
+        <v>3566</v>
       </c>
       <c r="V6" t="s">
-        <v>3409</v>
+        <v>4026</v>
       </c>
       <c r="W6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3459</v>
+        <v>4059</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -14151,16 +14172,16 @@
         <v/>
       </c>
       <c r="M7" s="64" t="s">
-        <v>3576</v>
+        <v>3567</v>
       </c>
       <c r="V7" t="s">
-        <v>3411</v>
+        <v>4037</v>
       </c>
       <c r="W7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>3458</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -14169,16 +14190,16 @@
         <v/>
       </c>
       <c r="M8" s="64" t="s">
-        <v>3577</v>
+        <v>3568</v>
       </c>
       <c r="V8" t="s">
-        <v>3414</v>
+        <v>4036</v>
       </c>
       <c r="W8">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>3460</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -14187,16 +14208,16 @@
         <v/>
       </c>
       <c r="M9" s="64" t="s">
-        <v>3578</v>
+        <v>3569</v>
       </c>
       <c r="V9" t="s">
-        <v>3410</v>
+        <v>4034</v>
       </c>
       <c r="W9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>3457</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -14205,7 +14226,7 @@
         <v/>
       </c>
       <c r="M10" s="64" t="s">
-        <v>3579</v>
+        <v>3570</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>21</v>
@@ -14220,13 +14241,13 @@
         <v>19</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>4033</v>
       </c>
       <c r="W10">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>3453</v>
+        <v>4067</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -14258,19 +14279,19 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>3580</v>
+        <v>3571</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>4035</v>
       </c>
       <c r="W11">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>3442</v>
+        <v>4069</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -14302,7 +14323,7 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M12" s="64" t="s">
-        <v>3581</v>
+        <v>3572</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>23</v>
@@ -14311,13 +14332,13 @@
         <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>4039</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>3442</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -14335,12 +14356,12 @@
         <v>32</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="str">
@@ -14348,19 +14369,19 @@
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
       <c r="M13" s="64" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="V13" t="s">
-        <v>2528</v>
+        <v>4028</v>
       </c>
       <c r="W13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>3444</v>
+        <v>4061</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -14369,13 +14390,13 @@
         <v>25</v>
       </c>
       <c r="V14" t="s">
-        <v>2529</v>
+        <v>4032</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>3443</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -14384,14 +14405,14 @@
       <c r="P15" s="25" t="s">
         <v>2530</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>3401</v>
-      </c>
-      <c r="W15" s="25">
-        <v>24</v>
+      <c r="V15" t="s">
+        <v>4030</v>
+      </c>
+      <c r="W15">
+        <v>40</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>3454</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
@@ -14421,13 +14442,13 @@
         <v>2531</v>
       </c>
       <c r="V16" t="s">
-        <v>3401</v>
+        <v>4029</v>
       </c>
       <c r="W16">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>3454</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
@@ -14454,13 +14475,13 @@
         <v>#define mROW_MENU 7</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>4031</v>
       </c>
       <c r="W17">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>3452</v>
+        <v>4064</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
@@ -14485,13 +14506,13 @@
       <c r="M18"/>
       <c r="N18" s="49"/>
       <c r="V18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>3211</v>
+        <v>3451</v>
       </c>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -14505,10 +14526,10 @@
         <v>2529</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>0</v>
@@ -14524,13 +14545,13 @@
         <v>#define mROW_MENU_OPEN 9</v>
       </c>
       <c r="V19" t="s">
-        <v>3247</v>
+        <v>39</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -14542,10 +14563,10 @@
         <v>2529</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>4</v>
@@ -14561,13 +14582,13 @@
         <v>#define mROW_MENU_OPEN 9</v>
       </c>
       <c r="V20" t="s">
-        <v>3246</v>
+        <v>2528</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>3248</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -14579,18 +14600,18 @@
         <v>2528</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="9" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="9" t="str">
@@ -14598,13 +14619,13 @@
         <v>#define mROW_MENU_CLOSED 11</v>
       </c>
       <c r="V21" t="s">
-        <v>43</v>
+        <v>2529</v>
       </c>
       <c r="W21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>3449</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -14625,10 +14646,10 @@
         <v/>
       </c>
       <c r="V22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>3450</v>
@@ -14644,10 +14665,10 @@
         <v>2528</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>0</v>
@@ -14663,13 +14684,13 @@
         <v>#define mROW_MENU_CLOSED 11</v>
       </c>
       <c r="V23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W23">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>3451</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -14681,10 +14702,10 @@
         <v>2528</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>3</v>
@@ -14700,13 +14721,13 @@
         <v>#define mROW_MENU_CLOSED 11</v>
       </c>
       <c r="V24" t="s">
-        <v>50</v>
+        <v>3247</v>
       </c>
       <c r="W24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>3448</v>
+        <v>3439</v>
       </c>
       <c r="Z24" s="25"/>
     </row>
@@ -14719,25 +14740,33 @@
         <v>2528</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="9" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="9" t="str">
         <f>IF(LEN(C25),VLOOKUP(C25,mROW,3,FALSE),"")</f>
         <v>#define mROW_MENU_CLOSED 11</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="V25" t="s">
+        <v>3246</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>3248</v>
+      </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="9"/>
@@ -14754,7 +14783,15 @@
         <f>IF(LEN(C26),VLOOKUP(C26,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="X26" s="2"/>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26">
+        <v>16</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>3447</v>
+      </c>
       <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="1:26">
@@ -14781,7 +14818,15 @@
         <f>IF(LEN(C27),VLOOKUP(C27,mROW,3,FALSE),"")</f>
         <v>#define mROW_WINDUP_SOUND 15</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="V27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27">
+        <v>17</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>3448</v>
+      </c>
       <c r="Y27" s="25"/>
     </row>
     <row r="28" spans="1:26">
@@ -14793,7 +14838,15 @@
         <f>IF(LEN(C28),VLOOKUP(C28,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="X28" s="2"/>
+      <c r="V28" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28">
+        <v>18</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>3449</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="45">
       <c r="A29" s="63" t="s">
@@ -14813,7 +14866,15 @@
         <f>IF(LEN(C29),VLOOKUP(C29,mROW,3,FALSE),"")</f>
         <v>#define mROW_SHOOT 16</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="V29" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29">
+        <v>15</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>3446</v>
+      </c>
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:26">
@@ -14889,7 +14950,7 @@
     </row>
     <row r="34" spans="1:24" ht="45">
       <c r="A34" s="63" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>2711</v>
@@ -14920,17 +14981,6 @@
         <f>IF(LEN(C35),VLOOKUP(C35,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V35" t="str">
-        <f>MID(X35,9,FIND(" ",X35,9)-9)</f>
-        <v>mCFG_LIGHT</v>
-      </c>
-      <c r="W35">
-        <f>0+MID(X35,10+LEN(V35),2)</f>
-        <v>28</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>3455</v>
-      </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="63" t="s">
@@ -14959,17 +15009,6 @@
         <f>IF(LEN(C36),VLOOKUP(C36,mROW,3,FALSE),"")</f>
         <v>#define mROW_OPNBRL 19</v>
       </c>
-      <c r="V36" t="str">
-        <f>MID(X36,9,FIND(" ",X36,9)-9)</f>
-        <v>mCFG_OTHER</v>
-      </c>
-      <c r="W36">
-        <f>0+MID(X36,10+LEN(V36),2)</f>
-        <v>29</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>3456</v>
-      </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="63"/>
@@ -14997,17 +15036,6 @@
       <c r="K37" s="9" t="str">
         <f>IF(LEN(C37),VLOOKUP(C37,mROW,3,FALSE),"")</f>
         <v>#define mROW_OPNBRL 19</v>
-      </c>
-      <c r="V37" t="str">
-        <f>MID(X37,9,FIND(" ",X37,9)-9)</f>
-        <v>mCFG_SOUND_CHOICE</v>
-      </c>
-      <c r="W37">
-        <f>0+MID(X37,10+LEN(V37),2)</f>
-        <v>35</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>3461</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -15025,17 +15053,6 @@
         <f>IF(LEN(C38),VLOOKUP(C38,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V38" t="str">
-        <f>MID(X38,9,FIND(" ",X38,9)-9)</f>
-        <v>mCFG_SOUND_LOOP</v>
-      </c>
-      <c r="W38">
-        <f>0+MID(X38,10+LEN(V38),2)</f>
-        <v>32</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>3459</v>
-      </c>
     </row>
     <row r="39" spans="1:24" ht="30">
       <c r="A39" s="63" t="s">
@@ -15060,17 +15077,6 @@
       <c r="K39" s="9" t="str">
         <f>IF(LEN(C39),VLOOKUP(C39,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 21</v>
-      </c>
-      <c r="V39" t="str">
-        <f>MID(X39,9,FIND(" ",X39,9)-9)</f>
-        <v>mCFG_SOUND_LOOP</v>
-      </c>
-      <c r="W39">
-        <f>0+MID(X39,10+LEN(V39),2)</f>
-        <v>32</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -15098,17 +15104,6 @@
         <f>IF(LEN(C40),VLOOKUP(C40,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 21</v>
       </c>
-      <c r="V40" t="str">
-        <f>MID(X40,9,FIND(" ",X40,9)-9)</f>
-        <v>mCFG_SOUND_LOOPSTART</v>
-      </c>
-      <c r="W40">
-        <f>0+MID(X40,10+LEN(V40),2)</f>
-        <v>31</v>
-      </c>
-      <c r="X40" s="15" t="s">
-        <v>3458</v>
-      </c>
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="9" t="s">
@@ -15133,17 +15128,6 @@
       <c r="K41" s="9" t="str">
         <f>IF(LEN(C41),VLOOKUP(C41,mROW,3,FALSE),"")</f>
         <v>#define mROW_LOKLOD 21</v>
-      </c>
-      <c r="V41" t="str">
-        <f>MID(X41,9,FIND(" ",X41,9)-9)</f>
-        <v>mCFG_SOUND_NEXT</v>
-      </c>
-      <c r="W41">
-        <f>0+MID(X41,10+LEN(V41),2)</f>
-        <v>34</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -15154,39 +15138,35 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="X42" s="15"/>
     </row>
     <row r="43" spans="1:24" ht="180">
       <c r="A43" s="87" t="s">
-        <v>4056</v>
+        <v>4047</v>
       </c>
       <c r="B43" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="E43" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="9" t="e">
+      <c r="K43" s="9" t="str">
         <f>IF(LEN(C43),VLOOKUP(C43,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O43" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="X43" s="15"/>
+        <v>#define mROW_CFG_MENU 24</v>
+      </c>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="63"/>
@@ -15194,61 +15174,49 @@
         <v>35</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
       <c r="J44" s="9"/>
-      <c r="K44" s="9" t="e">
+      <c r="K44" s="9" t="str">
         <f>IF(LEN(C44),VLOOKUP(C44,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X44" s="15"/>
+        <v>#define mROW_CFG_MENU 24</v>
+      </c>
     </row>
     <row r="45" spans="1:24">
       <c r="B45" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>4055</v>
+        <v>4046</v>
       </c>
       <c r="I45" s="77" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="9" t="e">
+      <c r="K45" s="9" t="str">
         <f>IF(LEN(C45),VLOOKUP(C45,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V45" t="str">
-        <f>MID(X45,9,FIND(" ",X45,9)-9)</f>
-        <v>mCFG_SOUND_SHOOT</v>
-      </c>
-      <c r="W45">
-        <f>0+MID(X45,10+LEN(V45),2)</f>
-        <v>30</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>3457</v>
+        <v>#define mROW_CFG_MENU 24</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -15258,28 +15226,21 @@
         <f>IF(LEN(C46),VLOOKUP(C46,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V46" t="str">
-        <f>MID(X46,9,FIND(" ",X46,9)-9)</f>
-        <v>mROW_LOKLOD</v>
-      </c>
-      <c r="W46">
-        <f>0+MID(X46,10+LEN(V46),2)</f>
-        <v>21</v>
-      </c>
-      <c r="X46" s="15" t="s">
-        <v>3453</v>
-      </c>
     </row>
     <row r="47" spans="1:24">
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
+      <c r="K47" s="9" t="str">
+        <f>IF(LEN(C47),VLOOKUP(C47,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:24" ht="45">
       <c r="B48" s="10" t="s">
-        <v>4049</v>
+        <v>4040</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="77"/>
@@ -15288,32 +15249,40 @@
         <v>0</v>
       </c>
       <c r="H48" s="76" t="s">
-        <v>4023</v>
+        <v>4014</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>4024</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f>IF(LEN(C48),VLOOKUP(C48,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY 27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:10" ht="210">
+      <c r="K49" s="9" t="str">
+        <f>IF(LEN(C49),VLOOKUP(C49,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="210">
       <c r="A50" s="88" t="s">
-        <v>4058</v>
+        <v>4049</v>
       </c>
       <c r="B50" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>4033</v>
+        <v>4024</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>0</v>
@@ -15321,147 +15290,201 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="9" t="str">
+        <f>IF(LEN(C50),VLOOKUP(C50,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOPSTART 28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="B51" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>4033</v>
+        <v>4024</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="9" t="str">
+        <f>IF(LEN(C51),VLOOKUP(C51,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOPSTART 28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="B52" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>4033</v>
+        <v>4024</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>4055</v>
+        <v>4046</v>
       </c>
       <c r="I52" s="77" t="s">
         <v>39</v>
       </c>
       <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="9" t="str">
+        <f>IF(LEN(C52),VLOOKUP(C52,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOPSTART 28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" s="9" t="str">
+        <f>IF(LEN(C53),VLOOKUP(C53,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="B54" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>4035</v>
+        <v>4026</v>
       </c>
       <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="9" t="str">
+        <f>IF(LEN(C54),VLOOKUP(C54,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOP 31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="B55" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>4036</v>
+        <v>4027</v>
       </c>
       <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="9" t="str">
+        <f>IF(LEN(C55),VLOOKUP(C55,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOP 31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="B56" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="82"/>
       <c r="F56" s="64" t="s">
-        <v>4055</v>
+        <v>4046</v>
       </c>
       <c r="I56" s="77" t="s">
         <v>39</v>
       </c>
       <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="9" t="str">
+        <f>IF(LEN(C56),VLOOKUP(C56,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_LOOP 31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" ht="45">
+      <c r="K57" s="9" t="str">
+        <f>IF(LEN(C57),VLOOKUP(C57,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="45">
       <c r="B58" s="10" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>4035</v>
+        <v>4026</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>4025</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f>IF(LEN(C58),VLOOKUP(C58,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_NEXT 34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:10" ht="45">
+      <c r="K59" s="9" t="str">
+        <f>IF(LEN(C59),VLOOKUP(C59,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="45">
       <c r="B60" s="10" t="s">
-        <v>4050</v>
+        <v>4041</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>4036</v>
+        <v>4027</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>4028</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f>IF(LEN(C60),VLOOKUP(C60,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_CATEGORY_CHOICE 35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="63" spans="1:10" ht="45">
+      <c r="K61" s="9" t="str">
+        <f>IF(LEN(C61),VLOOKUP(C61,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="K62" s="9" t="str">
+        <f>IF(LEN(C62),VLOOKUP(C62,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="45">
       <c r="B63" s="10" t="s">
-        <v>4049</v>
+        <v>4040</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>4037</v>
+        <v>4028</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="77"/>
@@ -15470,27 +15493,37 @@
         <v>0</v>
       </c>
       <c r="H63" s="76" t="s">
-        <v>4024</v>
+        <v>4015</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="225">
+        <v>4029</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f>IF(LEN(C63),VLOOKUP(C63,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE 36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="K64" s="9" t="str">
+        <f>IF(LEN(C64),VLOOKUP(C64,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="225">
       <c r="A65" s="88" t="s">
-        <v>4057</v>
+        <v>4048</v>
       </c>
       <c r="B65" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>4038</v>
+        <v>4029</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>0</v>
@@ -15498,104 +15531,283 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>4030</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f>IF(LEN(C65),VLOOKUP(C65,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_LOOPSTART 37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="B66" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>4038</v>
+        <v>4029</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
       <c r="E66" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" s="9" t="str">
+        <f>IF(LEN(C66),VLOOKUP(C66,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_LOOPSTART 37</v>
+      </c>
+      <c r="V66" t="str">
+        <f>MID(X66,9,FIND(" ",X66,9)-9)</f>
+        <v>mROW_POWERON</v>
+      </c>
+      <c r="W66">
+        <f>0+MID(X66,10+LEN(V66),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="15" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="B67" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>4038</v>
+        <v>4029</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K67" s="9" t="str">
+        <f>IF(LEN(C67),VLOOKUP(C67,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_LOOPSTART 37</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" ref="V67:V93" si="0">MID(X67,9,FIND(" ",X67,9)-9)</f>
+        <v>mROW_PWRON_OPEN</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W93" si="1">0+MID(X67,10+LEN(V67),2)</f>
+        <v>2</v>
+      </c>
+      <c r="X67" s="15" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="K68" s="9" t="str">
+        <f>IF(LEN(C68),VLOOKUP(C68,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_PWRON_LOCKED</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X68" s="15" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="B69" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>4039</v>
+        <v>4030</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I69" s="9" t="s">
+        <v>4031</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f>IF(LEN(C69),VLOOKUP(C69,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_LOOP 40</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_MENU</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="X69" s="15" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="B70" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>4030</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>3574</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>4032</v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f>IF(LEN(C70),VLOOKUP(C70,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_LOOP 40</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_MENU_OPEN</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="K71" s="9" t="str">
+        <f>IF(LEN(C71),VLOOKUP(C71,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_MENU_CLOSED</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="X71" s="15" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="45">
+      <c r="B72" s="10" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>4031</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>4030</v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f>IF(LEN(C72),VLOOKUP(C72,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_NEXT 42</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_WINDUP_SOUND</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="X72" s="15" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="K73" s="9" t="str">
+        <f>IF(LEN(C73),VLOOKUP(C73,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_SHOOT</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X73" s="15" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="45">
+      <c r="B74" s="10" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>4032</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>4037</v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f>IF(LEN(C74),VLOOKUP(C74,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_TYPE_CHOICE 43</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_SHOOT_SOUND</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="X74" s="15" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="K75" s="9" t="str">
+        <f>IF(LEN(C75),VLOOKUP(C75,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_SOLENOID</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="X75" s="15" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="K76" s="9" t="str">
+        <f>IF(LEN(C76),VLOOKUP(C76,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_OPNBRL</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="X76" s="15" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="210">
+      <c r="A77" s="88" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>4040</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>4039</v>
-      </c>
-      <c r="F70" s="64" t="s">
-        <v>3583</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="45">
-      <c r="B72" s="10" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>4040</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="45">
-      <c r="B74" s="10" t="s">
-        <v>4050</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>4041</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="210">
-      <c r="A77" s="88" t="s">
-        <v>4059</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>4049</v>
-      </c>
       <c r="C77" s="9" t="s">
-        <v>4046</v>
+        <v>4037</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="77"/>
@@ -15604,24 +15816,56 @@
         <v>0</v>
       </c>
       <c r="H77" s="76" t="s">
-        <v>4025</v>
+        <v>4016</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>4042</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>4033</v>
+      </c>
+      <c r="K77" s="9" t="str">
+        <f>IF(LEN(C77),VLOOKUP(C77,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT 44</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_LOKLOD</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X77" s="15" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="K78" s="9" t="str">
+        <f>IF(LEN(C78),VLOOKUP(C78,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_MENU</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="X78" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="B79" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>4042</v>
+        <v>4033</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>4054</v>
+        <v>4045</v>
       </c>
       <c r="E79" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>0</v>
@@ -15629,63 +15873,280 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
+        <v>4034</v>
+      </c>
+      <c r="K79" s="9" t="str">
+        <f>IF(LEN(C79),VLOOKUP(C79,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT_LOOPSTART 45</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_CATEGORY</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="X79" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="K80" s="9" t="str">
+        <f>IF(LEN(C80),VLOOKUP(C80,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_CATEGORY_LOOPSTART</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="X80" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24">
       <c r="B81" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>4043</v>
+        <v>4034</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+        <v>4035</v>
+      </c>
+      <c r="K81" s="9" t="str">
+        <f>IF(LEN(C81),VLOOKUP(C81,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT_LOOP 46</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_CATEGORY_LOOP</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="X81" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24">
       <c r="B82" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>4043</v>
+        <v>4034</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="45">
+        <v>4036</v>
+      </c>
+      <c r="K82" s="9" t="str">
+        <f>IF(LEN(C82),VLOOKUP(C82,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT_LOOP 46</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_CATEGORY_NEXT</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X82" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24">
+      <c r="K83" s="9" t="str">
+        <f>IF(LEN(C83),VLOOKUP(C83,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_CATEGORY_CHOICE</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="X83" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" ht="45">
       <c r="B84" s="10" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>4044</v>
+        <v>4035</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="45">
+        <v>4034</v>
+      </c>
+      <c r="K84" s="9" t="str">
+        <f>IF(LEN(C84),VLOOKUP(C84,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT_NEXT 48</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_TYPE</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="X84" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24">
+      <c r="K85" s="9" t="str">
+        <f>IF(LEN(C85),VLOOKUP(C85,mROW,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_TYPE_LOOPSTART</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="X85" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" ht="45">
       <c r="B86" s="10" t="s">
-        <v>4050</v>
+        <v>4041</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>4045</v>
+        <v>4036</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>4048</v>
+        <v>4039</v>
+      </c>
+      <c r="K86" s="9" t="str">
+        <f>IF(LEN(C86),VLOOKUP(C86,mROW,3,FALSE),"")</f>
+        <v>#define mROW_CFG_EFFECT_CHOICE 49</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_TYPE_LOOP</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="X86" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24">
+      <c r="V87" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_TYPE_NEXT</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="X87" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24">
+      <c r="V88" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_TYPE_CHOICE</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="X88" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24">
+      <c r="V89" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_EFFECT</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="X89" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24">
+      <c r="V90" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_EFFECT_LOOPSTART</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="X90" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24">
+      <c r="V91" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_EFFECT_LOOP</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="X91" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24">
+      <c r="V92" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_EFFECT_NEXT</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X92" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24">
+      <c r="V93" t="str">
+        <f t="shared" si="0"/>
+        <v>mROW_CFG_EFFECT_CHOICE</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="X93" t="s">
+        <v>4070</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K46" xr:uid="{51E2FD16-9FD1-4BB3-809D-A325584B4921}"/>
-  <sortState ref="V35:X46">
-    <sortCondition ref="V35:V46"/>
+  <sortState ref="V2:X29">
+    <sortCondition ref="V2:V29"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15717,7 +16178,7 @@
         <v>7</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -15734,24 +16195,24 @@
         <v>7</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="135">
       <c r="A3" s="63" t="s">
-        <v>3967</v>
+        <v>3958</v>
       </c>
       <c r="B3" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>3401</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>3400</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>0</v>
@@ -15759,9 +16220,9 @@
       <c r="I3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="9" t="str">
+      <c r="K3" s="9" t="e">
         <f>IF(LEN(C3),VLOOKUP(C3,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
+        <v>#N/A</v>
       </c>
       <c r="V3" t="str">
         <f>MID(X3,9,FIND(" ",X3,9)-9)</f>
@@ -15772,7 +16233,7 @@
         <v>11</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -15781,23 +16242,23 @@
         <v>35</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>3401</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>3400</v>
-      </c>
       <c r="F4" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>4028</v>
-      </c>
-      <c r="K4" s="9" t="str">
+        <v>4019</v>
+      </c>
+      <c r="K4" s="9" t="e">
         <f>IF(LEN(C4),VLOOKUP(C4,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
+        <v>#N/A</v>
       </c>
       <c r="V4" t="str">
         <f>MID(X4,9,FIND(" ",X4,9)-9)</f>
@@ -15808,7 +16269,7 @@
         <v>9</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -15817,23 +16278,23 @@
         <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E5" s="82" t="s">
         <v>3401</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>3400</v>
-      </c>
       <c r="F5" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="I5" t="s">
-        <v>4026</v>
-      </c>
-      <c r="K5" s="9" t="str">
+        <v>4017</v>
+      </c>
+      <c r="K5" s="9" t="e">
         <f>IF(LEN(C5),VLOOKUP(C5,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
+        <v>#N/A</v>
       </c>
       <c r="V5" t="str">
         <f>MID(X5,9,FIND(" ",X5,9)-9)</f>
@@ -15844,7 +16305,7 @@
         <v>24</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -15853,23 +16314,23 @@
         <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E6" s="82" t="s">
         <v>3401</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>3400</v>
       </c>
       <c r="F6" t="s">
         <v>3405</v>
       </c>
       <c r="I6" t="s">
-        <v>4027</v>
-      </c>
-      <c r="K6" s="9" t="str">
+        <v>4018</v>
+      </c>
+      <c r="K6" s="9" t="e">
         <f>IF(LEN(C6),VLOOKUP(C6,mROW,3,FALSE),"")</f>
-        <v>#define mROW_MENUCFG 24</v>
+        <v>#N/A</v>
       </c>
       <c r="V6" t="str">
         <f>MID(X6,9,FIND(" ",X6,9)-9)</f>
@@ -15880,7 +16341,7 @@
         <v>24</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -15900,7 +16361,7 @@
         <v>19</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -15925,22 +16386,22 @@
     </row>
     <row r="9" spans="1:24" ht="30">
       <c r="A9" s="63" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>2709</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4026</v>
+        <v>4017</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="K9" s="9" t="e">
         <f>IF(LEN(C9),VLOOKUP(C9,mROW,3,FALSE),"")</f>
@@ -15955,7 +16416,7 @@
         <v>4</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -15980,22 +16441,22 @@
     </row>
     <row r="11" spans="1:24" ht="30">
       <c r="A11" s="63" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>2709</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>4027</v>
+        <v>4018</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="K11" s="9" t="e">
         <f>IF(LEN(C11),VLOOKUP(C11,mROW,3,FALSE),"")</f>
@@ -16010,7 +16471,7 @@
         <v>16</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -16030,31 +16491,31 @@
         <v>17</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="45">
       <c r="A13" s="63" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4028</v>
+        <v>4019</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="77"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>3966</v>
+        <v>3957</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>4029</v>
+        <v>4020</v>
       </c>
       <c r="K13" s="9" t="e">
         <f>IF(LEN(C13),VLOOKUP(C13,mROW,3,FALSE),"")</f>
@@ -16069,7 +16530,7 @@
         <v>18</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -16088,24 +16549,24 @@
         <v>15</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="75">
       <c r="A15" s="63" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="B15" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4029</v>
+        <v>4020</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>0</v>
@@ -16113,7 +16574,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>4032</v>
+        <v>4023</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="e">
@@ -16128,15 +16589,15 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="K17" s="9" t="e">
+      <c r="K17" s="9" t="str">
         <f>IF(LEN(StateTable!C54),VLOOKUP(StateTable!C54,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
+        <v>#define mROW_CFG_CATEGORY_LOOP 31</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="K18" s="9" t="e">
+      <c r="K18" s="9" t="str">
         <f>IF(LEN(StateTable!C55),VLOOKUP(StateTable!C55,mROW,3,FALSE),"")</f>
-        <v>#N/A</v>
+        <v>#define mROW_CFG_CATEGORY_LOOP 31</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -16147,13 +16608,13 @@
     </row>
     <row r="20" spans="1:11" ht="45">
       <c r="B20" s="10" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>4030</v>
+        <v>4021</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>4032</v>
+        <v>4023</v>
       </c>
       <c r="K20" s="9" t="e">
         <f>IF(LEN(C20),VLOOKUP(C20,mROW,3,FALSE),"")</f>
@@ -16168,13 +16629,13 @@
     </row>
     <row r="22" spans="1:11" ht="45">
       <c r="B22" s="10" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>4031</v>
+        <v>4022</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="K22" s="9" t="e">
         <f>IF(LEN(C22),VLOOKUP(C22,mROW,3,FALSE),"")</f>
@@ -16195,13 +16656,13 @@
     </row>
     <row r="25" spans="1:11" ht="75">
       <c r="A25" s="63" t="s">
-        <v>3973</v>
+        <v>3964</v>
       </c>
       <c r="B25">
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>3968</v>
+        <v>3959</v>
       </c>
       <c r="E25" t="str">
         <f>TEXT(B25,"0000")&amp;"__mdo47__"&amp;D25&amp;".wav"</f>
@@ -16214,16 +16675,16 @@
     </row>
     <row r="26" spans="1:11" ht="45">
       <c r="A26" s="63" t="s">
-        <v>4000</v>
+        <v>3991</v>
       </c>
       <c r="B26">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="D26" t="s">
-        <v>3974</v>
+        <v>3965</v>
       </c>
       <c r="E26" t="str">
         <f>TEXT(B26,"0000")&amp;"__mdo47__"&amp;D26&amp;".wav"</f>
@@ -16236,16 +16697,16 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="63" t="s">
-        <v>4001</v>
+        <v>3992</v>
       </c>
       <c r="B27">
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D27" t="s">
-        <v>3969</v>
+        <v>3960</v>
       </c>
       <c r="E27" t="str">
         <f>TEXT(B27,"0000")&amp;"__mdo47__"&amp;D27&amp;".wav"</f>
@@ -16258,16 +16719,16 @@
     </row>
     <row r="28" spans="1:11" ht="45">
       <c r="A28" s="63" t="s">
-        <v>4002</v>
+        <v>3993</v>
       </c>
       <c r="B28">
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="D28" t="s">
-        <v>3970</v>
+        <v>3961</v>
       </c>
       <c r="E28" t="str">
         <f>TEXT(B28,"0000")&amp;"__mdo47__"&amp;D28&amp;".wav"</f>
@@ -16280,16 +16741,16 @@
     </row>
     <row r="29" spans="1:11" ht="45">
       <c r="A29" s="63" t="s">
-        <v>4003</v>
+        <v>3994</v>
       </c>
       <c r="B29">
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="D29" t="s">
-        <v>3971</v>
+        <v>3962</v>
       </c>
       <c r="E29" t="str">
         <f>TEXT(B29,"0000")&amp;"__mdo47__"&amp;D29&amp;".wav"</f>
@@ -16302,16 +16763,16 @@
     </row>
     <row r="30" spans="1:11" ht="45">
       <c r="A30" s="63" t="s">
-        <v>4004</v>
+        <v>3995</v>
       </c>
       <c r="B30">
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="D30" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="E30" t="str">
         <f>TEXT(B30,"0000")&amp;"__mdo47__"&amp;D30&amp;".wav"</f>
@@ -16324,16 +16785,16 @@
     </row>
     <row r="31" spans="1:11" ht="45">
       <c r="A31" s="63" t="s">
-        <v>4005</v>
+        <v>3996</v>
       </c>
       <c r="B31">
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="D31" t="s">
-        <v>3972</v>
+        <v>3963</v>
       </c>
       <c r="E31" t="str">
         <f>TEXT(B31,"0000")&amp;"__mdo47__"&amp;D31&amp;".wav"</f>
@@ -16358,36 +16819,36 @@
     </row>
     <row r="38" spans="4:11">
       <c r="D38" s="10" t="s">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>4009</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="39" spans="4:11" ht="30">
       <c r="D39" s="10" t="s">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>4012</v>
+        <v>4003</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>4014</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="D40" s="10" t="s">
-        <v>4013</v>
+        <v>4004</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>4015</v>
+        <v>4006</v>
       </c>
       <c r="F40" s="64"/>
       <c r="G40" t="s">
-        <v>4016</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="41" spans="4:11">
@@ -16400,10 +16861,10 @@
     </row>
     <row r="43" spans="4:11" ht="45">
       <c r="D43" s="10" t="s">
-        <v>4017</v>
+        <v>4008</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>4019</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="44" spans="4:11">
@@ -16418,17 +16879,17 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="J46" t="s">
-        <v>4020</v>
+        <v>4011</v>
       </c>
       <c r="K46" t="s">
-        <v>4022</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="47" spans="4:11">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="J47" t="s">
-        <v>4021</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1"/>
@@ -42964,7 +43425,7 @@
     <row r="3276" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="3277" spans="2:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3277" s="1" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="3278" spans="2:2" ht="15.75" thickTop="1"/>
@@ -42975,7 +43436,7 @@
     </row>
     <row r="3280" spans="2:2">
       <c r="B3280" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -42990,7 +43451,7 @@
     </row>
     <row r="3283" spans="1:2">
       <c r="B3283" t="s">
-        <v>3526</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -43011,7 +43472,7 @@
         <v>12</v>
       </c>
       <c r="B3287" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -43019,7 +43480,7 @@
         <v>16</v>
       </c>
       <c r="B3288" s="24" t="s">
-        <v>3463</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -43027,7 +43488,7 @@
         <v>42</v>
       </c>
       <c r="B3289" s="11" t="s">
-        <v>3464</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -43035,7 +43496,7 @@
         <v>47</v>
       </c>
       <c r="B3290" s="15" t="s">
-        <v>3465</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -43043,7 +43504,7 @@
         <v>57</v>
       </c>
       <c r="B3291" s="24" t="s">
-        <v>3466</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -43051,7 +43512,7 @@
         <v>76</v>
       </c>
       <c r="B3292" t="s">
-        <v>3528</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -43059,7 +43520,7 @@
         <v>80</v>
       </c>
       <c r="B3293" s="24" t="s">
-        <v>3467</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -43067,7 +43528,7 @@
         <v>760</v>
       </c>
       <c r="B3294" t="s">
-        <v>3529</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -43075,7 +43536,7 @@
         <v>761</v>
       </c>
       <c r="B3295" s="24" t="s">
-        <v>3468</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -43083,7 +43544,7 @@
         <v>773</v>
       </c>
       <c r="B3296" s="11" t="s">
-        <v>3469</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="3297" spans="1:6">
@@ -43091,7 +43552,7 @@
         <v>797</v>
       </c>
       <c r="B3297" s="11" t="s">
-        <v>3470</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="3298" spans="1:6">
@@ -43099,7 +43560,7 @@
         <v>799</v>
       </c>
       <c r="B3298" s="15" t="s">
-        <v>3471</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="3299" spans="1:6">
@@ -43107,7 +43568,7 @@
         <v>806</v>
       </c>
       <c r="B3299" s="24" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="3300" spans="1:6">
@@ -43115,7 +43576,7 @@
         <v>831</v>
       </c>
       <c r="B3300" t="s">
-        <v>3530</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="3301" spans="1:6">
@@ -43123,7 +43584,7 @@
         <v>832</v>
       </c>
       <c r="B3301" s="24" t="s">
-        <v>3473</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="3302" spans="1:6">
@@ -43131,7 +43592,7 @@
         <v>1332</v>
       </c>
       <c r="B3302" t="s">
-        <v>3531</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="3303" spans="1:6">
@@ -43139,7 +43600,7 @@
         <v>1333</v>
       </c>
       <c r="B3303" s="24" t="s">
-        <v>3474</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="3304" spans="1:6">
@@ -43147,7 +43608,7 @@
         <v>1733</v>
       </c>
       <c r="B3304" s="84" t="s">
-        <v>3562</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="3305" spans="1:6">
@@ -43155,7 +43616,7 @@
         <v>1734</v>
       </c>
       <c r="B3305" s="24" t="s">
-        <v>3475</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="3306" spans="1:6">
@@ -43163,7 +43624,7 @@
         <v>1748</v>
       </c>
       <c r="B3306" s="11" t="s">
-        <v>3476</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="3307" spans="1:6">
@@ -43171,7 +43632,7 @@
         <v>1749</v>
       </c>
       <c r="B3307" t="s">
-        <v>3563</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="3308" spans="1:6">
@@ -43179,7 +43640,7 @@
         <v>1750</v>
       </c>
       <c r="B3308" s="24" t="s">
-        <v>3477</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="3309" spans="1:6">
@@ -43187,10 +43648,10 @@
         <v>1751</v>
       </c>
       <c r="B3309" s="15" t="s">
-        <v>3478</v>
+        <v>3469</v>
       </c>
       <c r="F3309" t="s">
-        <v>3569</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3310" spans="1:6">
@@ -43198,7 +43659,7 @@
         <v>1757</v>
       </c>
       <c r="B3310" t="s">
-        <v>3532</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="3311" spans="1:6">
@@ -43206,7 +43667,7 @@
         <v>1758</v>
       </c>
       <c r="B3311" s="24" t="s">
-        <v>3479</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="3312" spans="1:6">
@@ -43214,7 +43675,7 @@
         <v>1783</v>
       </c>
       <c r="B3312" t="s">
-        <v>3533</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="3313" spans="1:6">
@@ -43222,7 +43683,7 @@
         <v>1784</v>
       </c>
       <c r="B3313" s="24" t="s">
-        <v>3480</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="3314" spans="1:6">
@@ -43230,7 +43691,7 @@
         <v>1884</v>
       </c>
       <c r="B3314" t="s">
-        <v>3565</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="3315" spans="1:6">
@@ -43238,7 +43699,7 @@
         <v>1885</v>
       </c>
       <c r="B3315" s="24" t="s">
-        <v>3481</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="3316" spans="1:6">
@@ -43246,7 +43707,7 @@
         <v>4535</v>
       </c>
       <c r="B3316" t="s">
-        <v>3534</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="3317" spans="1:6">
@@ -43254,7 +43715,7 @@
         <v>4536</v>
       </c>
       <c r="B3317" s="24" t="s">
-        <v>3482</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -43262,7 +43723,7 @@
         <v>4565</v>
       </c>
       <c r="B3318" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="3319" spans="1:6">
@@ -43270,7 +43731,7 @@
         <v>4567</v>
       </c>
       <c r="B3319" s="24" t="s">
-        <v>3484</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -43278,7 +43739,7 @@
         <v>4592</v>
       </c>
       <c r="B3320" t="s">
-        <v>3535</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="3321" spans="1:6">
@@ -43286,7 +43747,7 @@
         <v>4842</v>
       </c>
       <c r="B3321" s="84" t="s">
-        <v>3564</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="3322" spans="1:6">
@@ -43294,10 +43755,10 @@
         <v>4843</v>
       </c>
       <c r="B3322" s="24" t="s">
-        <v>3485</v>
+        <v>3476</v>
       </c>
       <c r="F3322" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3323" spans="1:6">
@@ -43305,7 +43766,7 @@
         <v>4849</v>
       </c>
       <c r="B3323" s="11" t="s">
-        <v>3486</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -43313,10 +43774,10 @@
         <v>4851</v>
       </c>
       <c r="B3324" s="24" t="s">
-        <v>3487</v>
+        <v>3478</v>
       </c>
       <c r="F3324" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3325" spans="1:6">
@@ -43324,7 +43785,7 @@
         <v>4862</v>
       </c>
       <c r="B3325" s="11" t="s">
-        <v>3488</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3326" spans="1:6">
@@ -43332,10 +43793,10 @@
         <v>4864</v>
       </c>
       <c r="B3326" s="15" t="s">
-        <v>3489</v>
+        <v>3480</v>
       </c>
       <c r="F3326" t="s">
-        <v>3569</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3327" spans="1:6">
@@ -43343,7 +43804,7 @@
         <v>4870</v>
       </c>
       <c r="B3327" t="s">
-        <v>3567</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="3328" spans="1:6">
@@ -43351,7 +43812,7 @@
         <v>4871</v>
       </c>
       <c r="B3328" s="24" t="s">
-        <v>3490</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="3329" spans="1:6">
@@ -43359,7 +43820,7 @@
         <v>4872</v>
       </c>
       <c r="B3329" t="s">
-        <v>3536</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="3330" spans="1:6">
@@ -43367,7 +43828,7 @@
         <v>4873</v>
       </c>
       <c r="B3330" s="24" t="s">
-        <v>3491</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="3331" spans="1:6">
@@ -43375,7 +43836,7 @@
         <v>4994</v>
       </c>
       <c r="B3331" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -43383,7 +43844,7 @@
         <v>4995</v>
       </c>
       <c r="B3332" s="24" t="s">
-        <v>3492</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -43391,7 +43852,7 @@
         <v>5004</v>
       </c>
       <c r="B3333" t="s">
-        <v>3538</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="3334" spans="1:6">
@@ -43399,7 +43860,7 @@
         <v>5005</v>
       </c>
       <c r="B3334" s="24" t="s">
-        <v>3493</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="3335" spans="1:6">
@@ -43407,7 +43868,7 @@
         <v>5023</v>
       </c>
       <c r="B3335" t="s">
-        <v>3539</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="3336" spans="1:6">
@@ -43415,7 +43876,7 @@
         <v>5024</v>
       </c>
       <c r="B3336" s="24" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="3337" spans="1:6">
@@ -43423,7 +43884,7 @@
         <v>5039</v>
       </c>
       <c r="B3337" s="84" t="s">
-        <v>3568</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="3338" spans="1:6">
@@ -43431,10 +43892,10 @@
         <v>5040</v>
       </c>
       <c r="B3338" s="24" t="s">
-        <v>3495</v>
+        <v>3486</v>
       </c>
       <c r="F3338" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3339" spans="1:6">
@@ -43442,7 +43903,7 @@
         <v>5046</v>
       </c>
       <c r="B3339" s="11" t="s">
-        <v>3496</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="3340" spans="1:6">
@@ -43450,10 +43911,10 @@
         <v>5048</v>
       </c>
       <c r="B3340" s="24" t="s">
-        <v>3497</v>
+        <v>3488</v>
       </c>
       <c r="F3340" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3341" spans="1:6">
@@ -43461,10 +43922,10 @@
         <v>5049</v>
       </c>
       <c r="B3341" s="15" t="s">
-        <v>3498</v>
+        <v>3489</v>
       </c>
       <c r="F3341" t="s">
-        <v>3569</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -43472,7 +43933,7 @@
         <v>5055</v>
       </c>
       <c r="B3342" t="s">
-        <v>3540</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="3343" spans="1:6">
@@ -43480,10 +43941,10 @@
         <v>5056</v>
       </c>
       <c r="B3343" s="24" t="s">
-        <v>3499</v>
+        <v>3490</v>
       </c>
       <c r="F3343" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -43491,7 +43952,7 @@
         <v>5057</v>
       </c>
       <c r="B3344" t="s">
-        <v>3541</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -43499,10 +43960,10 @@
         <v>5058</v>
       </c>
       <c r="B3345" s="24" t="s">
-        <v>3500</v>
+        <v>3491</v>
       </c>
       <c r="F3345" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -43510,7 +43971,7 @@
         <v>5060</v>
       </c>
       <c r="B3346" t="s">
-        <v>3542</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -43518,7 +43979,7 @@
         <v>5065</v>
       </c>
       <c r="B3347" t="s">
-        <v>3543</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -43526,7 +43987,7 @@
         <v>5066</v>
       </c>
       <c r="B3348" s="24" t="s">
-        <v>3501</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="3349" spans="1:6">
@@ -43534,7 +43995,7 @@
         <v>5222</v>
       </c>
       <c r="B3349" t="s">
-        <v>3544</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="3350" spans="1:6">
@@ -43542,7 +44003,7 @@
         <v>5223</v>
       </c>
       <c r="B3350" s="24" t="s">
-        <v>3502</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="3351" spans="1:6">
@@ -43550,7 +44011,7 @@
         <v>5251</v>
       </c>
       <c r="B3351" s="84" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="3352" spans="1:6">
@@ -43558,10 +44019,10 @@
         <v>5252</v>
       </c>
       <c r="B3352" s="24" t="s">
-        <v>3503</v>
+        <v>3494</v>
       </c>
       <c r="F3352" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -43569,10 +44030,10 @@
         <v>5254</v>
       </c>
       <c r="B3353" s="24" t="s">
-        <v>3504</v>
+        <v>3495</v>
       </c>
       <c r="F3353" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3354" spans="1:6">
@@ -43580,7 +44041,7 @@
         <v>5259</v>
       </c>
       <c r="B3354" t="s">
-        <v>3545</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -43588,7 +44049,7 @@
         <v>5261</v>
       </c>
       <c r="B3355" t="s">
-        <v>3546</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="3356" spans="1:6">
@@ -43596,7 +44057,7 @@
         <v>5262</v>
       </c>
       <c r="B3356" s="24" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="3357" spans="1:6">
@@ -43604,7 +44065,7 @@
         <v>5393</v>
       </c>
       <c r="B3357" t="s">
-        <v>3547</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="3358" spans="1:6">
@@ -43612,7 +44073,7 @@
         <v>5394</v>
       </c>
       <c r="B3358" s="24" t="s">
-        <v>3506</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -43620,7 +44081,7 @@
         <v>5421</v>
       </c>
       <c r="B3359" s="84" t="s">
-        <v>3571</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="3360" spans="1:6">
@@ -43628,10 +44089,10 @@
         <v>5422</v>
       </c>
       <c r="B3360" s="24" t="s">
-        <v>3507</v>
+        <v>3498</v>
       </c>
       <c r="F3360" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3361" spans="1:7">
@@ -43639,10 +44100,10 @@
         <v>5424</v>
       </c>
       <c r="B3361" s="24" t="s">
-        <v>3508</v>
+        <v>3499</v>
       </c>
       <c r="F3361" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3362" spans="1:7">
@@ -43650,7 +44111,7 @@
         <v>5430</v>
       </c>
       <c r="B3362" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="3363" spans="1:7">
@@ -43658,7 +44119,7 @@
         <v>5438</v>
       </c>
       <c r="B3363" t="s">
-        <v>3549</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3364" spans="1:7">
@@ -43666,7 +44127,7 @@
         <v>5439</v>
       </c>
       <c r="B3364" s="24" t="s">
-        <v>3509</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="3365" spans="1:7">
@@ -43674,7 +44135,7 @@
         <v>5471</v>
       </c>
       <c r="B3365" t="s">
-        <v>3550</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="3366" spans="1:7">
@@ -43682,7 +44143,7 @@
         <v>5472</v>
       </c>
       <c r="B3366" s="24" t="s">
-        <v>3510</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="3367" spans="1:7">
@@ -43690,7 +44151,7 @@
         <v>5477</v>
       </c>
       <c r="B3367" s="15" t="s">
-        <v>3511</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="3368" spans="1:7">
@@ -43698,7 +44159,7 @@
         <v>5479</v>
       </c>
       <c r="B3368" s="24" t="s">
-        <v>3512</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="3369" spans="1:7">
@@ -43706,7 +44167,7 @@
         <v>5480</v>
       </c>
       <c r="B3369" t="s">
-        <v>3551</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="3370" spans="1:7">
@@ -43714,10 +44175,10 @@
         <v>5481</v>
       </c>
       <c r="B3370" s="24" t="s">
-        <v>3513</v>
+        <v>3504</v>
       </c>
       <c r="G3370" t="s">
-        <v>3572</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="3371" spans="1:7">
@@ -43725,7 +44186,7 @@
         <v>5593</v>
       </c>
       <c r="B3371" t="s">
-        <v>3552</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="3372" spans="1:7">
@@ -43733,7 +44194,7 @@
         <v>5594</v>
       </c>
       <c r="B3372" s="24" t="s">
-        <v>3514</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="3373" spans="1:7">
@@ -43741,7 +44202,7 @@
         <v>5609</v>
       </c>
       <c r="B3373" s="84" t="s">
-        <v>3553</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="3374" spans="1:7">
@@ -43749,7 +44210,7 @@
         <v>5610</v>
       </c>
       <c r="B3374" s="24" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="3375" spans="1:7">
@@ -43757,7 +44218,7 @@
         <v>5612</v>
       </c>
       <c r="B3375" s="24" t="s">
-        <v>3516</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="3376" spans="1:7">
@@ -43765,7 +44226,7 @@
         <v>5617</v>
       </c>
       <c r="B3376" t="s">
-        <v>3554</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -43773,7 +44234,7 @@
         <v>5620</v>
       </c>
       <c r="B3377" t="s">
-        <v>3555</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -43781,7 +44242,7 @@
         <v>5621</v>
       </c>
       <c r="B3378" s="24" t="s">
-        <v>3517</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -43789,7 +44250,7 @@
         <v>5727</v>
       </c>
       <c r="B3379" t="s">
-        <v>3556</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -43797,7 +44258,7 @@
         <v>5728</v>
       </c>
       <c r="B3380" s="24" t="s">
-        <v>3518</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -43805,7 +44266,7 @@
         <v>5741</v>
       </c>
       <c r="B3381" s="84" t="s">
-        <v>3557</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -43813,7 +44274,7 @@
         <v>5742</v>
       </c>
       <c r="B3382" s="24" t="s">
-        <v>3519</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -43821,7 +44282,7 @@
         <v>5744</v>
       </c>
       <c r="B3383" s="24" t="s">
-        <v>3520</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -43829,7 +44290,7 @@
         <v>5752</v>
       </c>
       <c r="B3384" t="s">
-        <v>3558</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="3385" spans="1:2">
@@ -43837,7 +44298,7 @@
         <v>5756</v>
       </c>
       <c r="B3385" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -43845,7 +44306,7 @@
         <v>5757</v>
       </c>
       <c r="B3386" s="24" t="s">
-        <v>3521</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -43853,7 +44314,7 @@
         <v>5893</v>
       </c>
       <c r="B3387" t="s">
-        <v>3560</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -43861,7 +44322,7 @@
         <v>5894</v>
       </c>
       <c r="B3388" s="24" t="s">
-        <v>3522</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -43869,7 +44330,7 @@
         <v>5899</v>
       </c>
       <c r="B3389" s="15" t="s">
-        <v>3523</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -43877,7 +44338,7 @@
         <v>5901</v>
       </c>
       <c r="B3390" s="24" t="s">
-        <v>3524</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -43885,7 +44346,7 @@
         <v>5902</v>
       </c>
       <c r="B3391" t="s">
-        <v>3561</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -43893,13 +44354,13 @@
         <v>5903</v>
       </c>
       <c r="B3392" s="24" t="s">
-        <v>3525</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="3395" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3396" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3396" s="1" t="s">
-        <v>3585</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="3397" spans="1:2" ht="15.75" thickTop="1"/>
@@ -43910,7 +44371,7 @@
     </row>
     <row r="3399" spans="1:2">
       <c r="B3399" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -43925,12 +44386,12 @@
     </row>
     <row r="3402" spans="1:2">
       <c r="B3402" t="s">
-        <v>3526</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
       <c r="B3403" t="s">
-        <v>3586</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="3404" spans="1:2">
@@ -43951,7 +44412,7 @@
         <v>3</v>
       </c>
       <c r="B3407" t="s">
-        <v>3587</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="3408" spans="1:2">
@@ -43959,7 +44420,7 @@
         <v>6</v>
       </c>
       <c r="B3408" t="s">
-        <v>3588</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -43967,7 +44428,7 @@
         <v>7</v>
       </c>
       <c r="B3409" s="24" t="s">
-        <v>3589</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -43975,7 +44436,7 @@
         <v>33</v>
       </c>
       <c r="B3410" s="11" t="s">
-        <v>3590</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -43983,7 +44444,7 @@
         <v>38</v>
       </c>
       <c r="B3411" s="15" t="s">
-        <v>3591</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -43991,7 +44452,7 @@
         <v>47</v>
       </c>
       <c r="B3412" t="s">
-        <v>3592</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -43999,7 +44460,7 @@
         <v>48</v>
       </c>
       <c r="B3413" s="24" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -44007,7 +44468,7 @@
         <v>67</v>
       </c>
       <c r="B3414" t="s">
-        <v>3594</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -44015,7 +44476,7 @@
         <v>70</v>
       </c>
       <c r="B3415" t="s">
-        <v>3595</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -44023,7 +44484,7 @@
         <v>71</v>
       </c>
       <c r="B3416" s="24" t="s">
-        <v>3596</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -44031,7 +44492,7 @@
         <v>760</v>
       </c>
       <c r="B3417" t="s">
-        <v>3584</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -44039,7 +44500,7 @@
         <v>761</v>
       </c>
       <c r="B3418" t="s">
-        <v>3597</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -44047,7 +44508,7 @@
         <v>762</v>
       </c>
       <c r="B3419" s="24" t="s">
-        <v>3598</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -44055,7 +44516,7 @@
         <v>774</v>
       </c>
       <c r="B3420" s="11" t="s">
-        <v>3599</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -44063,7 +44524,7 @@
         <v>800</v>
       </c>
       <c r="B3421" s="11" t="s">
-        <v>3600</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -44071,7 +44532,7 @@
         <v>803</v>
       </c>
       <c r="B3422" s="15" t="s">
-        <v>3601</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -44079,7 +44540,7 @@
         <v>810</v>
       </c>
       <c r="B3423" t="s">
-        <v>3602</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -44087,7 +44548,7 @@
         <v>811</v>
       </c>
       <c r="B3424" s="24" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="3425" spans="1:6">
@@ -44095,7 +44556,7 @@
         <v>836</v>
       </c>
       <c r="B3425" t="s">
-        <v>3604</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="3426" spans="1:6">
@@ -44103,7 +44564,7 @@
         <v>837</v>
       </c>
       <c r="B3426" t="s">
-        <v>3605</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="3427" spans="1:6">
@@ -44111,7 +44572,7 @@
         <v>838</v>
       </c>
       <c r="B3427" s="24" t="s">
-        <v>3606</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="3428" spans="1:6">
@@ -44119,7 +44580,7 @@
         <v>2527</v>
       </c>
       <c r="B3428" t="s">
-        <v>3607</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="3429" spans="1:6">
@@ -44127,7 +44588,7 @@
         <v>2528</v>
       </c>
       <c r="B3429" t="s">
-        <v>3608</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -44135,7 +44596,7 @@
         <v>2529</v>
       </c>
       <c r="B3430" s="24" t="s">
-        <v>3609</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -44143,7 +44604,7 @@
         <v>2736</v>
       </c>
       <c r="B3431" t="s">
-        <v>3610</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -44151,7 +44612,7 @@
         <v>2737</v>
       </c>
       <c r="B3432" t="s">
-        <v>3611</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -44159,7 +44620,7 @@
         <v>2738</v>
       </c>
       <c r="B3433" s="24" t="s">
-        <v>3612</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -44167,10 +44628,10 @@
         <v>2752</v>
       </c>
       <c r="B3434" s="11" t="s">
-        <v>3613</v>
+        <v>3604</v>
       </c>
       <c r="F3434" s="9" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="3435" spans="1:6">
@@ -44178,7 +44639,7 @@
         <v>2754</v>
       </c>
       <c r="B3435" t="s">
-        <v>3614</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="3436" spans="1:6">
@@ -44186,7 +44647,7 @@
         <v>2755</v>
       </c>
       <c r="B3436" s="24" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="3437" spans="1:6">
@@ -44194,7 +44655,7 @@
         <v>2756</v>
       </c>
       <c r="B3437" s="15" t="s">
-        <v>3616</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="3438" spans="1:6">
@@ -44202,7 +44663,7 @@
         <v>2762</v>
       </c>
       <c r="B3438" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="3439" spans="1:6">
@@ -44210,7 +44671,7 @@
         <v>2763</v>
       </c>
       <c r="B3439" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="3440" spans="1:6">
@@ -44218,7 +44679,7 @@
         <v>2764</v>
       </c>
       <c r="B3440" s="24" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3441" spans="1:6">
@@ -44226,7 +44687,7 @@
         <v>2789</v>
       </c>
       <c r="B3441" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="3442" spans="1:6">
@@ -44234,7 +44695,7 @@
         <v>2790</v>
       </c>
       <c r="B3442" t="s">
-        <v>3621</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="3443" spans="1:6">
@@ -44242,7 +44703,7 @@
         <v>2791</v>
       </c>
       <c r="B3443" s="24" t="s">
-        <v>3622</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="3444" spans="1:6">
@@ -44250,7 +44711,7 @@
         <v>4376</v>
       </c>
       <c r="B3444" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="3445" spans="1:6">
@@ -44258,7 +44719,7 @@
         <v>4377</v>
       </c>
       <c r="B3445" t="s">
-        <v>3624</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="3446" spans="1:6">
@@ -44266,7 +44727,7 @@
         <v>4378</v>
       </c>
       <c r="B3446" s="24" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -44274,7 +44735,7 @@
         <v>4481</v>
       </c>
       <c r="B3447" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="3448" spans="1:6">
@@ -44282,7 +44743,7 @@
         <v>4482</v>
       </c>
       <c r="B3448" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="3449" spans="1:6">
@@ -44290,7 +44751,7 @@
         <v>4483</v>
       </c>
       <c r="B3449" s="24" t="s">
-        <v>3628</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="3450" spans="1:6">
@@ -44298,10 +44759,10 @@
         <v>4504</v>
       </c>
       <c r="B3450" s="11" t="s">
-        <v>3629</v>
+        <v>3620</v>
       </c>
       <c r="F3450" s="9" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="3451" spans="1:6">
@@ -44309,7 +44770,7 @@
         <v>4506</v>
       </c>
       <c r="B3451" t="s">
-        <v>3630</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -44317,7 +44778,7 @@
         <v>4507</v>
       </c>
       <c r="B3452" s="24" t="s">
-        <v>3631</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -44325,10 +44786,10 @@
         <v>4526</v>
       </c>
       <c r="B3453" s="11" t="s">
-        <v>3632</v>
+        <v>3623</v>
       </c>
       <c r="F3453" s="9" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="3454" spans="1:6">
@@ -44336,7 +44797,7 @@
         <v>4527</v>
       </c>
       <c r="B3454" t="s">
-        <v>3633</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -44344,7 +44805,7 @@
         <v>4529</v>
       </c>
       <c r="B3455" s="15" t="s">
-        <v>3634</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="3456" spans="1:6">
@@ -44352,7 +44813,7 @@
         <v>4535</v>
       </c>
       <c r="B3456" t="s">
-        <v>3635</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -44360,7 +44821,7 @@
         <v>4536</v>
       </c>
       <c r="B3457" t="s">
-        <v>3636</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -44368,7 +44829,7 @@
         <v>4537</v>
       </c>
       <c r="B3458" s="24" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -44376,7 +44837,7 @@
         <v>4544</v>
       </c>
       <c r="B3459" t="s">
-        <v>3638</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -44384,7 +44845,7 @@
         <v>4545</v>
       </c>
       <c r="B3460" t="s">
-        <v>3639</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -44392,7 +44853,7 @@
         <v>4546</v>
       </c>
       <c r="B3461" s="24" t="s">
-        <v>3640</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -44400,7 +44861,7 @@
         <v>4553</v>
       </c>
       <c r="B3462" t="s">
-        <v>3641</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -44408,7 +44869,7 @@
         <v>4554</v>
       </c>
       <c r="B3463" t="s">
-        <v>3642</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -44416,7 +44877,7 @@
         <v>4555</v>
       </c>
       <c r="B3464" s="24" t="s">
-        <v>3643</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -44424,7 +44885,7 @@
         <v>5024</v>
       </c>
       <c r="B3465" t="s">
-        <v>3644</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -44432,7 +44893,7 @@
         <v>5025</v>
       </c>
       <c r="B3466" t="s">
-        <v>3645</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -44440,7 +44901,7 @@
         <v>5026</v>
       </c>
       <c r="B3467" s="24" t="s">
-        <v>3646</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -44448,7 +44909,7 @@
         <v>5031</v>
       </c>
       <c r="B3468" s="15" t="s">
-        <v>3647</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -44456,7 +44917,7 @@
         <v>5033</v>
       </c>
       <c r="B3469" t="s">
-        <v>3648</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -44464,7 +44925,7 @@
         <v>5034</v>
       </c>
       <c r="B3470" s="24" t="s">
-        <v>3649</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -44472,7 +44933,7 @@
         <v>5035</v>
       </c>
       <c r="B3471" t="s">
-        <v>3650</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -44480,7 +44941,7 @@
         <v>5036</v>
       </c>
       <c r="B3472" t="s">
-        <v>3651</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="3473" spans="1:6">
@@ -44488,7 +44949,7 @@
         <v>5037</v>
       </c>
       <c r="B3473" s="24" t="s">
-        <v>3652</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="3474" spans="1:6">
@@ -44496,7 +44957,7 @@
         <v>5104</v>
       </c>
       <c r="B3474" t="s">
-        <v>3653</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="3475" spans="1:6">
@@ -44504,7 +44965,7 @@
         <v>5105</v>
       </c>
       <c r="B3475" t="s">
-        <v>3654</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="3476" spans="1:6">
@@ -44512,7 +44973,7 @@
         <v>5106</v>
       </c>
       <c r="B3476" s="24" t="s">
-        <v>3655</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="3477" spans="1:6">
@@ -44520,10 +44981,10 @@
         <v>5112</v>
       </c>
       <c r="B3477" s="11" t="s">
-        <v>3656</v>
+        <v>3647</v>
       </c>
       <c r="F3477" s="9" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="3478" spans="1:6">
@@ -44531,7 +44992,7 @@
         <v>5114</v>
       </c>
       <c r="B3478" t="s">
-        <v>3657</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="3479" spans="1:6">
@@ -44539,7 +45000,7 @@
         <v>5115</v>
       </c>
       <c r="B3479" s="24" t="s">
-        <v>3658</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="3480" spans="1:6">
@@ -44547,7 +45008,7 @@
         <v>5116</v>
       </c>
       <c r="B3480" t="s">
-        <v>3659</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="3481" spans="1:6">
@@ -44555,7 +45016,7 @@
         <v>5149</v>
       </c>
       <c r="B3481" t="s">
-        <v>3660</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="3482" spans="1:6">
@@ -44563,7 +45024,7 @@
         <v>5250</v>
       </c>
       <c r="B3482" t="s">
-        <v>3661</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -44571,7 +45032,7 @@
         <v>5251</v>
       </c>
       <c r="B3483" s="24" t="s">
-        <v>3662</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="3484" spans="1:6">
@@ -44579,10 +45040,10 @@
         <v>5257</v>
       </c>
       <c r="B3484" s="11" t="s">
-        <v>3663</v>
+        <v>3654</v>
       </c>
       <c r="F3484" s="9" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="3485" spans="1:6">
@@ -44590,7 +45051,7 @@
         <v>5258</v>
       </c>
       <c r="B3485" t="s">
-        <v>3664</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="3486" spans="1:6">
@@ -44598,7 +45059,7 @@
         <v>5259</v>
       </c>
       <c r="B3486" t="s">
-        <v>3665</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="3487" spans="1:6">
@@ -44606,7 +45067,7 @@
         <v>5260</v>
       </c>
       <c r="B3487" s="24" t="s">
-        <v>3666</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="3488" spans="1:6">
@@ -44614,10 +45075,10 @@
         <v>5274</v>
       </c>
       <c r="B3488" s="11" t="s">
-        <v>3667</v>
+        <v>3658</v>
       </c>
       <c r="F3488" s="9" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -44625,7 +45086,7 @@
         <v>5277</v>
       </c>
       <c r="B3489" t="s">
-        <v>3668</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -44633,7 +45094,7 @@
         <v>5290</v>
       </c>
       <c r="B3490" t="s">
-        <v>3669</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -44641,7 +45102,7 @@
         <v>5458</v>
       </c>
       <c r="B3491" t="s">
-        <v>3670</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -44649,7 +45110,7 @@
         <v>5459</v>
       </c>
       <c r="B3492" t="s">
-        <v>3671</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -44657,7 +45118,7 @@
         <v>5460</v>
       </c>
       <c r="B3493" s="24" t="s">
-        <v>3672</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -44665,7 +45126,7 @@
         <v>5465</v>
       </c>
       <c r="B3494" t="s">
-        <v>3673</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -44673,7 +45134,7 @@
         <v>5472</v>
       </c>
       <c r="B3495" t="s">
-        <v>3674</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -44681,7 +45142,7 @@
         <v>5479</v>
       </c>
       <c r="B3496" t="s">
-        <v>3675</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -44689,7 +45150,7 @@
         <v>5486</v>
       </c>
       <c r="B3497" t="s">
-        <v>3676</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -44697,7 +45158,7 @@
         <v>5493</v>
       </c>
       <c r="B3498" t="s">
-        <v>3677</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -44705,7 +45166,7 @@
         <v>5500</v>
       </c>
       <c r="B3499" t="s">
-        <v>3678</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="3500" spans="1:2">
@@ -44713,7 +45174,7 @@
         <v>5507</v>
       </c>
       <c r="B3500" t="s">
-        <v>3679</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -44721,7 +45182,7 @@
         <v>5514</v>
       </c>
       <c r="B3501" t="s">
-        <v>3680</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -44729,7 +45190,7 @@
         <v>5521</v>
       </c>
       <c r="B3502" t="s">
-        <v>3681</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="3503" spans="1:2">
@@ -44737,7 +45198,7 @@
         <v>5524</v>
       </c>
       <c r="B3503" t="s">
-        <v>3682</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -44745,7 +45206,7 @@
         <v>5527</v>
       </c>
       <c r="B3504" t="s">
-        <v>3683</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -44753,7 +45214,7 @@
         <v>5530</v>
       </c>
       <c r="B3505" t="s">
-        <v>3684</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -44761,7 +45222,7 @@
         <v>5533</v>
       </c>
       <c r="B3506" t="s">
-        <v>3685</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -44769,7 +45230,7 @@
         <v>5536</v>
       </c>
       <c r="B3507" t="s">
-        <v>3686</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -44777,7 +45238,7 @@
         <v>5539</v>
       </c>
       <c r="B3508" t="s">
-        <v>3687</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -44785,7 +45246,7 @@
         <v>5542</v>
       </c>
       <c r="B3509" t="s">
-        <v>3688</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -44793,7 +45254,7 @@
         <v>5545</v>
       </c>
       <c r="B3510" t="s">
-        <v>3689</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -44801,7 +45262,7 @@
         <v>5548</v>
       </c>
       <c r="B3511" t="s">
-        <v>3690</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -44809,7 +45270,7 @@
         <v>5551</v>
       </c>
       <c r="B3512" t="s">
-        <v>3691</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -44817,7 +45278,7 @@
         <v>5554</v>
       </c>
       <c r="B3513" t="s">
-        <v>3692</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -44825,7 +45286,7 @@
         <v>5557</v>
       </c>
       <c r="B3514" t="s">
-        <v>3693</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -44833,7 +45294,7 @@
         <v>5560</v>
       </c>
       <c r="B3515" t="s">
-        <v>3694</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -44841,7 +45302,7 @@
         <v>5563</v>
       </c>
       <c r="B3516" t="s">
-        <v>3695</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -44849,7 +45310,7 @@
         <v>5566</v>
       </c>
       <c r="B3517" t="s">
-        <v>3696</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -44857,7 +45318,7 @@
         <v>5569</v>
       </c>
       <c r="B3518" t="s">
-        <v>3697</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -44865,7 +45326,7 @@
         <v>5572</v>
       </c>
       <c r="B3519" t="s">
-        <v>3698</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -44873,7 +45334,7 @@
         <v>5575</v>
       </c>
       <c r="B3520" t="s">
-        <v>3699</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -44881,7 +45342,7 @@
         <v>5578</v>
       </c>
       <c r="B3521" t="s">
-        <v>3700</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -44889,7 +45350,7 @@
         <v>5581</v>
       </c>
       <c r="B3522" t="s">
-        <v>3701</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -44897,7 +45358,7 @@
         <v>5584</v>
       </c>
       <c r="B3523" t="s">
-        <v>3702</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -44905,7 +45366,7 @@
         <v>5587</v>
       </c>
       <c r="B3524" t="s">
-        <v>3703</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -44913,7 +45374,7 @@
         <v>5590</v>
       </c>
       <c r="B3525" t="s">
-        <v>3704</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -44921,7 +45382,7 @@
         <v>5593</v>
       </c>
       <c r="B3526" t="s">
-        <v>3705</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -44929,7 +45390,7 @@
         <v>5596</v>
       </c>
       <c r="B3527" t="s">
-        <v>3706</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -44937,7 +45398,7 @@
         <v>5599</v>
       </c>
       <c r="B3528" t="s">
-        <v>3707</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="3529" spans="1:2">
@@ -44945,7 +45406,7 @@
         <v>5602</v>
       </c>
       <c r="B3529" t="s">
-        <v>3708</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -44953,7 +45414,7 @@
         <v>5605</v>
       </c>
       <c r="B3530" t="s">
-        <v>3709</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -44961,7 +45422,7 @@
         <v>5608</v>
       </c>
       <c r="B3531" t="s">
-        <v>3710</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -44969,7 +45430,7 @@
         <v>5611</v>
       </c>
       <c r="B3532" t="s">
-        <v>3711</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -44977,7 +45438,7 @@
         <v>5614</v>
       </c>
       <c r="B3533" t="s">
-        <v>3712</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -44985,7 +45446,7 @@
         <v>5617</v>
       </c>
       <c r="B3534" t="s">
-        <v>3713</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="3535" spans="1:2">
@@ -44993,7 +45454,7 @@
         <v>5620</v>
       </c>
       <c r="B3535" t="s">
-        <v>3714</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -45001,7 +45462,7 @@
         <v>5623</v>
       </c>
       <c r="B3536" t="s">
-        <v>3715</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -45009,7 +45470,7 @@
         <v>5626</v>
       </c>
       <c r="B3537" t="s">
-        <v>3716</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -45017,7 +45478,7 @@
         <v>5629</v>
       </c>
       <c r="B3538" t="s">
-        <v>3717</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -45025,7 +45486,7 @@
         <v>5632</v>
       </c>
       <c r="B3539" t="s">
-        <v>3718</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -45033,7 +45494,7 @@
         <v>5635</v>
       </c>
       <c r="B3540" t="s">
-        <v>3719</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -45041,7 +45502,7 @@
         <v>5638</v>
       </c>
       <c r="B3541" t="s">
-        <v>3720</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -45049,7 +45510,7 @@
         <v>5641</v>
       </c>
       <c r="B3542" t="s">
-        <v>3721</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -45057,7 +45518,7 @@
         <v>5644</v>
       </c>
       <c r="B3543" t="s">
-        <v>3722</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -45065,7 +45526,7 @@
         <v>5647</v>
       </c>
       <c r="B3544" t="s">
-        <v>3723</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="3545" spans="1:2">
@@ -45073,7 +45534,7 @@
         <v>5650</v>
       </c>
       <c r="B3545" t="s">
-        <v>3724</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -45081,7 +45542,7 @@
         <v>5653</v>
       </c>
       <c r="B3546" t="s">
-        <v>3725</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="3547" spans="1:2">
@@ -45089,7 +45550,7 @@
         <v>5656</v>
       </c>
       <c r="B3547" t="s">
-        <v>3726</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -45097,7 +45558,7 @@
         <v>5659</v>
       </c>
       <c r="B3548" t="s">
-        <v>3727</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="3549" spans="1:2">
@@ -45105,7 +45566,7 @@
         <v>5662</v>
       </c>
       <c r="B3549" t="s">
-        <v>3728</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -45113,7 +45574,7 @@
         <v>5665</v>
       </c>
       <c r="B3550" t="s">
-        <v>3729</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -45121,7 +45582,7 @@
         <v>5668</v>
       </c>
       <c r="B3551" t="s">
-        <v>3730</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -45129,7 +45590,7 @@
         <v>5671</v>
       </c>
       <c r="B3552" t="s">
-        <v>3731</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
@@ -45137,7 +45598,7 @@
         <v>5674</v>
       </c>
       <c r="B3553" t="s">
-        <v>3732</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -45145,7 +45606,7 @@
         <v>5677</v>
       </c>
       <c r="B3554" t="s">
-        <v>3733</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -45153,7 +45614,7 @@
         <v>5680</v>
       </c>
       <c r="B3555" t="s">
-        <v>3734</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -45161,7 +45622,7 @@
         <v>5683</v>
       </c>
       <c r="B3556" t="s">
-        <v>3735</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="3557" spans="1:2">
@@ -45169,7 +45630,7 @@
         <v>5686</v>
       </c>
       <c r="B3557" t="s">
-        <v>3736</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -45177,7 +45638,7 @@
         <v>5689</v>
       </c>
       <c r="B3558" t="s">
-        <v>3737</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -45185,7 +45646,7 @@
         <v>5692</v>
       </c>
       <c r="B3559" t="s">
-        <v>3738</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="3560" spans="1:2">
@@ -45193,7 +45654,7 @@
         <v>5695</v>
       </c>
       <c r="B3560" t="s">
-        <v>3739</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -45201,7 +45662,7 @@
         <v>5698</v>
       </c>
       <c r="B3561" t="s">
-        <v>3740</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -45209,7 +45670,7 @@
         <v>5701</v>
       </c>
       <c r="B3562" t="s">
-        <v>3741</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -45217,7 +45678,7 @@
         <v>5704</v>
       </c>
       <c r="B3563" t="s">
-        <v>3742</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -45225,7 +45686,7 @@
         <v>5707</v>
       </c>
       <c r="B3564" t="s">
-        <v>3743</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -45233,7 +45694,7 @@
         <v>5710</v>
       </c>
       <c r="B3565" t="s">
-        <v>3744</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -45241,7 +45702,7 @@
         <v>5713</v>
       </c>
       <c r="B3566" t="s">
-        <v>3745</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="3567" spans="1:2">
@@ -45249,7 +45710,7 @@
         <v>5716</v>
       </c>
       <c r="B3567" t="s">
-        <v>3746</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -45257,7 +45718,7 @@
         <v>5719</v>
       </c>
       <c r="B3568" t="s">
-        <v>3747</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -45265,7 +45726,7 @@
         <v>5722</v>
       </c>
       <c r="B3569" t="s">
-        <v>3748</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -45273,7 +45734,7 @@
         <v>5725</v>
       </c>
       <c r="B3570" t="s">
-        <v>3749</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -45281,7 +45742,7 @@
         <v>5728</v>
       </c>
       <c r="B3571" t="s">
-        <v>3750</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -45289,7 +45750,7 @@
         <v>5731</v>
       </c>
       <c r="B3572" t="s">
-        <v>3751</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -45297,7 +45758,7 @@
         <v>5734</v>
       </c>
       <c r="B3573" t="s">
-        <v>3752</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -45305,7 +45766,7 @@
         <v>5737</v>
       </c>
       <c r="B3574" t="s">
-        <v>3753</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -45313,7 +45774,7 @@
         <v>5740</v>
       </c>
       <c r="B3575" t="s">
-        <v>3754</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -45321,7 +45782,7 @@
         <v>5743</v>
       </c>
       <c r="B3576" t="s">
-        <v>3755</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -45329,7 +45790,7 @@
         <v>5746</v>
       </c>
       <c r="B3577" t="s">
-        <v>3756</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -45337,7 +45798,7 @@
         <v>5749</v>
       </c>
       <c r="B3578" t="s">
-        <v>3757</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -45345,7 +45806,7 @@
         <v>5752</v>
       </c>
       <c r="B3579" t="s">
-        <v>3758</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -45353,7 +45814,7 @@
         <v>5755</v>
       </c>
       <c r="B3580" t="s">
-        <v>3759</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -45361,7 +45822,7 @@
         <v>5758</v>
       </c>
       <c r="B3581" t="s">
-        <v>3760</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -45369,7 +45830,7 @@
         <v>5761</v>
       </c>
       <c r="B3582" t="s">
-        <v>3761</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -45377,7 +45838,7 @@
         <v>5764</v>
       </c>
       <c r="B3583" t="s">
-        <v>3762</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -45385,7 +45846,7 @@
         <v>5767</v>
       </c>
       <c r="B3584" t="s">
-        <v>3763</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -45393,7 +45854,7 @@
         <v>5770</v>
       </c>
       <c r="B3585" t="s">
-        <v>3764</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -45401,7 +45862,7 @@
         <v>5773</v>
       </c>
       <c r="B3586" t="s">
-        <v>3765</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -45409,7 +45870,7 @@
         <v>5776</v>
       </c>
       <c r="B3587" t="s">
-        <v>3766</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -45417,7 +45878,7 @@
         <v>5779</v>
       </c>
       <c r="B3588" t="s">
-        <v>3767</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -45425,7 +45886,7 @@
         <v>5782</v>
       </c>
       <c r="B3589" t="s">
-        <v>3768</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -45433,7 +45894,7 @@
         <v>5785</v>
       </c>
       <c r="B3590" t="s">
-        <v>3769</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -45441,7 +45902,7 @@
         <v>5788</v>
       </c>
       <c r="B3591" t="s">
-        <v>3770</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -45449,7 +45910,7 @@
         <v>5791</v>
       </c>
       <c r="B3592" t="s">
-        <v>3771</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -45457,7 +45918,7 @@
         <v>5794</v>
       </c>
       <c r="B3593" t="s">
-        <v>3772</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -45465,7 +45926,7 @@
         <v>5797</v>
       </c>
       <c r="B3594" t="s">
-        <v>3773</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -45473,7 +45934,7 @@
         <v>5800</v>
       </c>
       <c r="B3595" t="s">
-        <v>3774</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -45481,7 +45942,7 @@
         <v>5803</v>
       </c>
       <c r="B3596" t="s">
-        <v>3775</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -45489,7 +45950,7 @@
         <v>5806</v>
       </c>
       <c r="B3597" t="s">
-        <v>3776</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -45497,7 +45958,7 @@
         <v>5809</v>
       </c>
       <c r="B3598" t="s">
-        <v>3777</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -45505,7 +45966,7 @@
         <v>5812</v>
       </c>
       <c r="B3599" t="s">
-        <v>3778</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -45513,7 +45974,7 @@
         <v>5815</v>
       </c>
       <c r="B3600" t="s">
-        <v>3779</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -45521,7 +45982,7 @@
         <v>5818</v>
       </c>
       <c r="B3601" t="s">
-        <v>3780</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -45529,7 +45990,7 @@
         <v>5821</v>
       </c>
       <c r="B3602" t="s">
-        <v>3781</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -45537,7 +45998,7 @@
         <v>5824</v>
       </c>
       <c r="B3603" t="s">
-        <v>3782</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="3604" spans="1:2">
@@ -45545,7 +46006,7 @@
         <v>5827</v>
       </c>
       <c r="B3604" t="s">
-        <v>3783</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -45553,7 +46014,7 @@
         <v>5830</v>
       </c>
       <c r="B3605" t="s">
-        <v>3784</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -45561,7 +46022,7 @@
         <v>5833</v>
       </c>
       <c r="B3606" t="s">
-        <v>3785</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -45569,7 +46030,7 @@
         <v>5836</v>
       </c>
       <c r="B3607" t="s">
-        <v>3786</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -45577,7 +46038,7 @@
         <v>5839</v>
       </c>
       <c r="B3608" t="s">
-        <v>3787</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -45585,7 +46046,7 @@
         <v>5842</v>
       </c>
       <c r="B3609" t="s">
-        <v>3788</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -45593,7 +46054,7 @@
         <v>5845</v>
       </c>
       <c r="B3610" t="s">
-        <v>3789</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -45601,7 +46062,7 @@
         <v>5848</v>
       </c>
       <c r="B3611" t="s">
-        <v>3790</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -45609,7 +46070,7 @@
         <v>5851</v>
       </c>
       <c r="B3612" t="s">
-        <v>3791</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -45617,7 +46078,7 @@
         <v>5854</v>
       </c>
       <c r="B3613" t="s">
-        <v>3792</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -45625,7 +46086,7 @@
         <v>5857</v>
       </c>
       <c r="B3614" t="s">
-        <v>3793</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -45633,7 +46094,7 @@
         <v>5860</v>
       </c>
       <c r="B3615" t="s">
-        <v>3794</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -45641,7 +46102,7 @@
         <v>5863</v>
       </c>
       <c r="B3616" t="s">
-        <v>3795</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -45649,7 +46110,7 @@
         <v>5866</v>
       </c>
       <c r="B3617" t="s">
-        <v>3796</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -45657,7 +46118,7 @@
         <v>5869</v>
       </c>
       <c r="B3618" t="s">
-        <v>3797</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -45665,7 +46126,7 @@
         <v>5872</v>
       </c>
       <c r="B3619" t="s">
-        <v>3798</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -45673,7 +46134,7 @@
         <v>5875</v>
       </c>
       <c r="B3620" t="s">
-        <v>3799</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -45681,7 +46142,7 @@
         <v>5878</v>
       </c>
       <c r="B3621" t="s">
-        <v>3800</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="3622" spans="1:2">
@@ -45689,7 +46150,7 @@
         <v>5881</v>
       </c>
       <c r="B3622" t="s">
-        <v>3801</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -45697,7 +46158,7 @@
         <v>5884</v>
       </c>
       <c r="B3623" t="s">
-        <v>3802</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
@@ -45705,7 +46166,7 @@
         <v>5887</v>
       </c>
       <c r="B3624" t="s">
-        <v>3803</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -45713,7 +46174,7 @@
         <v>5890</v>
       </c>
       <c r="B3625" t="s">
-        <v>3804</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -45721,7 +46182,7 @@
         <v>5893</v>
       </c>
       <c r="B3626" t="s">
-        <v>3805</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -45729,7 +46190,7 @@
         <v>5896</v>
       </c>
       <c r="B3627" t="s">
-        <v>3806</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -45737,7 +46198,7 @@
         <v>5899</v>
       </c>
       <c r="B3628" t="s">
-        <v>3807</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -45745,7 +46206,7 @@
         <v>5902</v>
       </c>
       <c r="B3629" t="s">
-        <v>3808</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -45753,7 +46214,7 @@
         <v>5905</v>
       </c>
       <c r="B3630" t="s">
-        <v>3809</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -45761,7 +46222,7 @@
         <v>5908</v>
       </c>
       <c r="B3631" t="s">
-        <v>3810</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -45769,7 +46230,7 @@
         <v>5911</v>
       </c>
       <c r="B3632" t="s">
-        <v>3811</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -45777,7 +46238,7 @@
         <v>5914</v>
       </c>
       <c r="B3633" t="s">
-        <v>3812</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -45785,7 +46246,7 @@
         <v>5917</v>
       </c>
       <c r="B3634" t="s">
-        <v>3813</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -45793,7 +46254,7 @@
         <v>5920</v>
       </c>
       <c r="B3635" t="s">
-        <v>3814</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -45801,7 +46262,7 @@
         <v>5923</v>
       </c>
       <c r="B3636" t="s">
-        <v>3815</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -45809,7 +46270,7 @@
         <v>5926</v>
       </c>
       <c r="B3637" t="s">
-        <v>3816</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -45817,7 +46278,7 @@
         <v>5929</v>
       </c>
       <c r="B3638" t="s">
-        <v>3817</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -45825,7 +46286,7 @@
         <v>5932</v>
       </c>
       <c r="B3639" t="s">
-        <v>3818</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -45833,7 +46294,7 @@
         <v>5935</v>
       </c>
       <c r="B3640" t="s">
-        <v>3819</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -45841,7 +46302,7 @@
         <v>5938</v>
       </c>
       <c r="B3641" t="s">
-        <v>3820</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -45849,7 +46310,7 @@
         <v>5941</v>
       </c>
       <c r="B3642" t="s">
-        <v>3821</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -45857,7 +46318,7 @@
         <v>5944</v>
       </c>
       <c r="B3643" t="s">
-        <v>3822</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -45865,7 +46326,7 @@
         <v>5947</v>
       </c>
       <c r="B3644" t="s">
-        <v>3823</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -45873,7 +46334,7 @@
         <v>5950</v>
       </c>
       <c r="B3645" t="s">
-        <v>3824</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -45881,7 +46342,7 @@
         <v>5953</v>
       </c>
       <c r="B3646" t="s">
-        <v>3825</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -45889,7 +46350,7 @@
         <v>5956</v>
       </c>
       <c r="B3647" t="s">
-        <v>3826</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -45897,7 +46358,7 @@
         <v>5959</v>
       </c>
       <c r="B3648" t="s">
-        <v>3827</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -45905,7 +46366,7 @@
         <v>5962</v>
       </c>
       <c r="B3649" t="s">
-        <v>3828</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -45913,7 +46374,7 @@
         <v>5965</v>
       </c>
       <c r="B3650" t="s">
-        <v>3829</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -45921,7 +46382,7 @@
         <v>5968</v>
       </c>
       <c r="B3651" t="s">
-        <v>3830</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -45929,7 +46390,7 @@
         <v>5971</v>
       </c>
       <c r="B3652" t="s">
-        <v>3831</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
@@ -45937,7 +46398,7 @@
         <v>5974</v>
       </c>
       <c r="B3653" t="s">
-        <v>3832</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -45945,7 +46406,7 @@
         <v>5977</v>
       </c>
       <c r="B3654" t="s">
-        <v>3833</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -45953,7 +46414,7 @@
         <v>5980</v>
       </c>
       <c r="B3655" t="s">
-        <v>3834</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -45961,7 +46422,7 @@
         <v>5983</v>
       </c>
       <c r="B3656" t="s">
-        <v>3835</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -45969,7 +46430,7 @@
         <v>5986</v>
       </c>
       <c r="B3657" t="s">
-        <v>3836</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -45977,7 +46438,7 @@
         <v>5989</v>
       </c>
       <c r="B3658" t="s">
-        <v>3837</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -45985,7 +46446,7 @@
         <v>5992</v>
       </c>
       <c r="B3659" t="s">
-        <v>3838</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -45993,7 +46454,7 @@
         <v>5995</v>
       </c>
       <c r="B3660" t="s">
-        <v>3839</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -46001,7 +46462,7 @@
         <v>5998</v>
       </c>
       <c r="B3661" t="s">
-        <v>3840</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -46009,7 +46470,7 @@
         <v>6001</v>
       </c>
       <c r="B3662" t="s">
-        <v>3841</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -46017,7 +46478,7 @@
         <v>6004</v>
       </c>
       <c r="B3663" t="s">
-        <v>3842</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -46025,7 +46486,7 @@
         <v>6007</v>
       </c>
       <c r="B3664" t="s">
-        <v>3843</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -46033,7 +46494,7 @@
         <v>6010</v>
       </c>
       <c r="B3665" t="s">
-        <v>3844</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -46041,7 +46502,7 @@
         <v>6013</v>
       </c>
       <c r="B3666" t="s">
-        <v>3845</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -46049,7 +46510,7 @@
         <v>6016</v>
       </c>
       <c r="B3667" t="s">
-        <v>3846</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -46057,7 +46518,7 @@
         <v>6019</v>
       </c>
       <c r="B3668" t="s">
-        <v>3847</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -46065,7 +46526,7 @@
         <v>6022</v>
       </c>
       <c r="B3669" t="s">
-        <v>3848</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -46073,7 +46534,7 @@
         <v>6025</v>
       </c>
       <c r="B3670" t="s">
-        <v>3849</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -46081,7 +46542,7 @@
         <v>6028</v>
       </c>
       <c r="B3671" t="s">
-        <v>3850</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -46089,7 +46550,7 @@
         <v>6031</v>
       </c>
       <c r="B3672" t="s">
-        <v>3851</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3673" spans="1:2">
@@ -46097,7 +46558,7 @@
         <v>6034</v>
       </c>
       <c r="B3673" t="s">
-        <v>3852</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -46105,7 +46566,7 @@
         <v>6037</v>
       </c>
       <c r="B3674" t="s">
-        <v>3853</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -46113,7 +46574,7 @@
         <v>6040</v>
       </c>
       <c r="B3675" t="s">
-        <v>3854</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -46121,7 +46582,7 @@
         <v>6043</v>
       </c>
       <c r="B3676" t="s">
-        <v>3855</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -46129,7 +46590,7 @@
         <v>6046</v>
       </c>
       <c r="B3677" t="s">
-        <v>3856</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -46137,7 +46598,7 @@
         <v>6049</v>
       </c>
       <c r="B3678" t="s">
-        <v>3857</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -46145,7 +46606,7 @@
         <v>6052</v>
       </c>
       <c r="B3679" t="s">
-        <v>3858</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -46153,7 +46614,7 @@
         <v>6055</v>
       </c>
       <c r="B3680" t="s">
-        <v>3859</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
@@ -46161,7 +46622,7 @@
         <v>6058</v>
       </c>
       <c r="B3681" t="s">
-        <v>3860</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -46169,7 +46630,7 @@
         <v>6061</v>
       </c>
       <c r="B3682" t="s">
-        <v>3861</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -46177,7 +46638,7 @@
         <v>6064</v>
       </c>
       <c r="B3683" t="s">
-        <v>3862</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -46185,7 +46646,7 @@
         <v>6067</v>
       </c>
       <c r="B3684" t="s">
-        <v>3863</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -46193,7 +46654,7 @@
         <v>6070</v>
       </c>
       <c r="B3685" t="s">
-        <v>3864</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -46201,7 +46662,7 @@
         <v>6073</v>
       </c>
       <c r="B3686" t="s">
-        <v>3865</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -46209,7 +46670,7 @@
         <v>6076</v>
       </c>
       <c r="B3687" t="s">
-        <v>3866</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -46217,7 +46678,7 @@
         <v>6079</v>
       </c>
       <c r="B3688" t="s">
-        <v>3867</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -46225,7 +46686,7 @@
         <v>6082</v>
       </c>
       <c r="B3689" t="s">
-        <v>3868</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -46233,7 +46694,7 @@
         <v>6085</v>
       </c>
       <c r="B3690" t="s">
-        <v>3869</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -46241,7 +46702,7 @@
         <v>6088</v>
       </c>
       <c r="B3691" t="s">
-        <v>3870</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -46249,7 +46710,7 @@
         <v>6091</v>
       </c>
       <c r="B3692" t="s">
-        <v>3871</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -46257,7 +46718,7 @@
         <v>6094</v>
       </c>
       <c r="B3693" t="s">
-        <v>3872</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -46265,7 +46726,7 @@
         <v>6097</v>
       </c>
       <c r="B3694" t="s">
-        <v>3873</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -46273,7 +46734,7 @@
         <v>6100</v>
       </c>
       <c r="B3695" t="s">
-        <v>3874</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -46281,7 +46742,7 @@
         <v>6103</v>
       </c>
       <c r="B3696" t="s">
-        <v>3875</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -46289,7 +46750,7 @@
         <v>6106</v>
       </c>
       <c r="B3697" t="s">
-        <v>3876</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -46297,7 +46758,7 @@
         <v>6109</v>
       </c>
       <c r="B3698" t="s">
-        <v>3877</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -46305,7 +46766,7 @@
         <v>6112</v>
       </c>
       <c r="B3699" t="s">
-        <v>3878</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -46313,7 +46774,7 @@
         <v>6115</v>
       </c>
       <c r="B3700" t="s">
-        <v>3879</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -46321,7 +46782,7 @@
         <v>6118</v>
       </c>
       <c r="B3701" t="s">
-        <v>3880</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -46329,7 +46790,7 @@
         <v>6121</v>
       </c>
       <c r="B3702" t="s">
-        <v>3881</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -46337,7 +46798,7 @@
         <v>6124</v>
       </c>
       <c r="B3703" t="s">
-        <v>3882</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -46345,7 +46806,7 @@
         <v>6127</v>
       </c>
       <c r="B3704" t="s">
-        <v>3883</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -46353,7 +46814,7 @@
         <v>6130</v>
       </c>
       <c r="B3705" t="s">
-        <v>3884</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -46361,7 +46822,7 @@
         <v>6133</v>
       </c>
       <c r="B3706" t="s">
-        <v>3885</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -46369,7 +46830,7 @@
         <v>6136</v>
       </c>
       <c r="B3707" t="s">
-        <v>3886</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -46377,7 +46838,7 @@
         <v>6139</v>
       </c>
       <c r="B3708" t="s">
-        <v>3887</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -46385,7 +46846,7 @@
         <v>6142</v>
       </c>
       <c r="B3709" t="s">
-        <v>3888</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -46393,7 +46854,7 @@
         <v>6145</v>
       </c>
       <c r="B3710" t="s">
-        <v>3889</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -46401,7 +46862,7 @@
         <v>6148</v>
       </c>
       <c r="B3711" t="s">
-        <v>3890</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -46409,7 +46870,7 @@
         <v>6151</v>
       </c>
       <c r="B3712" t="s">
-        <v>3891</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -46417,7 +46878,7 @@
         <v>6154</v>
       </c>
       <c r="B3713" t="s">
-        <v>3892</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="3714" spans="1:2">
@@ -46425,7 +46886,7 @@
         <v>6157</v>
       </c>
       <c r="B3714" t="s">
-        <v>3893</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -46433,7 +46894,7 @@
         <v>6160</v>
       </c>
       <c r="B3715" t="s">
-        <v>3894</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -46441,7 +46902,7 @@
         <v>6163</v>
       </c>
       <c r="B3716" t="s">
-        <v>3895</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -46449,7 +46910,7 @@
         <v>6166</v>
       </c>
       <c r="B3717" t="s">
-        <v>3896</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -46457,7 +46918,7 @@
         <v>6169</v>
       </c>
       <c r="B3718" t="s">
-        <v>3897</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -46465,7 +46926,7 @@
         <v>6172</v>
       </c>
       <c r="B3719" t="s">
-        <v>3898</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -46473,7 +46934,7 @@
         <v>6175</v>
       </c>
       <c r="B3720" t="s">
-        <v>3899</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -46481,7 +46942,7 @@
         <v>6178</v>
       </c>
       <c r="B3721" t="s">
-        <v>3900</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -46489,7 +46950,7 @@
         <v>6181</v>
       </c>
       <c r="B3722" t="s">
-        <v>3901</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -46497,7 +46958,7 @@
         <v>6184</v>
       </c>
       <c r="B3723" t="s">
-        <v>3902</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3724" spans="1:2">
@@ -46505,7 +46966,7 @@
         <v>6187</v>
       </c>
       <c r="B3724" t="s">
-        <v>3903</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="3725" spans="1:2">
@@ -46513,7 +46974,7 @@
         <v>6190</v>
       </c>
       <c r="B3725" t="s">
-        <v>3904</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -46521,7 +46982,7 @@
         <v>6193</v>
       </c>
       <c r="B3726" t="s">
-        <v>3905</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -46529,7 +46990,7 @@
         <v>6196</v>
       </c>
       <c r="B3727" t="s">
-        <v>3906</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -46537,7 +46998,7 @@
         <v>6199</v>
       </c>
       <c r="B3728" t="s">
-        <v>3907</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -46545,7 +47006,7 @@
         <v>6202</v>
       </c>
       <c r="B3729" t="s">
-        <v>3908</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -46553,7 +47014,7 @@
         <v>6205</v>
       </c>
       <c r="B3730" t="s">
-        <v>3909</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -46561,7 +47022,7 @@
         <v>6208</v>
       </c>
       <c r="B3731" t="s">
-        <v>3910</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -46569,7 +47030,7 @@
         <v>6211</v>
       </c>
       <c r="B3732" t="s">
-        <v>3911</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -46577,7 +47038,7 @@
         <v>6214</v>
       </c>
       <c r="B3733" t="s">
-        <v>3912</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -46585,7 +47046,7 @@
         <v>6217</v>
       </c>
       <c r="B3734" t="s">
-        <v>3913</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -46593,7 +47054,7 @@
         <v>6220</v>
       </c>
       <c r="B3735" t="s">
-        <v>3914</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -46601,7 +47062,7 @@
         <v>6223</v>
       </c>
       <c r="B3736" t="s">
-        <v>3915</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -46609,7 +47070,7 @@
         <v>6226</v>
       </c>
       <c r="B3737" t="s">
-        <v>3916</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -46617,7 +47078,7 @@
         <v>6229</v>
       </c>
       <c r="B3738" t="s">
-        <v>3917</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -46625,7 +47086,7 @@
         <v>6232</v>
       </c>
       <c r="B3739" t="s">
-        <v>3918</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -46633,7 +47094,7 @@
         <v>6235</v>
       </c>
       <c r="B3740" t="s">
-        <v>3919</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -46641,7 +47102,7 @@
         <v>6238</v>
       </c>
       <c r="B3741" t="s">
-        <v>3920</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -46649,7 +47110,7 @@
         <v>6241</v>
       </c>
       <c r="B3742" t="s">
-        <v>3921</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -46657,7 +47118,7 @@
         <v>6244</v>
       </c>
       <c r="B3743" t="s">
-        <v>3922</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -46665,7 +47126,7 @@
         <v>6247</v>
       </c>
       <c r="B3744" t="s">
-        <v>3923</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -46673,7 +47134,7 @@
         <v>6250</v>
       </c>
       <c r="B3745" t="s">
-        <v>3924</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -46681,7 +47142,7 @@
         <v>6253</v>
       </c>
       <c r="B3746" t="s">
-        <v>3925</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -46689,7 +47150,7 @@
         <v>6256</v>
       </c>
       <c r="B3747" t="s">
-        <v>3926</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -46697,7 +47158,7 @@
         <v>6259</v>
       </c>
       <c r="B3748" t="s">
-        <v>3927</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -46705,7 +47166,7 @@
         <v>6262</v>
       </c>
       <c r="B3749" t="s">
-        <v>3928</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -46713,7 +47174,7 @@
         <v>6265</v>
       </c>
       <c r="B3750" t="s">
-        <v>3929</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -46721,7 +47182,7 @@
         <v>6268</v>
       </c>
       <c r="B3751" t="s">
-        <v>3930</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -46729,7 +47190,7 @@
         <v>6271</v>
       </c>
       <c r="B3752" t="s">
-        <v>3931</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -46737,7 +47198,7 @@
         <v>6274</v>
       </c>
       <c r="B3753" t="s">
-        <v>3932</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -46745,7 +47206,7 @@
         <v>6277</v>
       </c>
       <c r="B3754" t="s">
-        <v>3933</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -46753,7 +47214,7 @@
         <v>6280</v>
       </c>
       <c r="B3755" t="s">
-        <v>3934</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -46761,7 +47222,7 @@
         <v>6283</v>
       </c>
       <c r="B3756" t="s">
-        <v>3935</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -46769,7 +47230,7 @@
         <v>6286</v>
       </c>
       <c r="B3757" t="s">
-        <v>3936</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -46777,7 +47238,7 @@
         <v>6289</v>
       </c>
       <c r="B3758" t="s">
-        <v>3937</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -46785,7 +47246,7 @@
         <v>6292</v>
       </c>
       <c r="B3759" t="s">
-        <v>3938</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -46793,7 +47254,7 @@
         <v>6295</v>
       </c>
       <c r="B3760" t="s">
-        <v>3939</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -46801,7 +47262,7 @@
         <v>6298</v>
       </c>
       <c r="B3761" t="s">
-        <v>3940</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -46809,7 +47270,7 @@
         <v>6301</v>
       </c>
       <c r="B3762" t="s">
-        <v>3941</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -46817,7 +47278,7 @@
         <v>6304</v>
       </c>
       <c r="B3763" t="s">
-        <v>3942</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -46825,7 +47286,7 @@
         <v>6307</v>
       </c>
       <c r="B3764" t="s">
-        <v>3943</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -46833,7 +47294,7 @@
         <v>6310</v>
       </c>
       <c r="B3765" t="s">
-        <v>3944</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -46841,7 +47302,7 @@
         <v>6313</v>
       </c>
       <c r="B3766" t="s">
-        <v>3945</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -46849,7 +47310,7 @@
         <v>6316</v>
       </c>
       <c r="B3767" t="s">
-        <v>3946</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -46857,7 +47318,7 @@
         <v>6319</v>
       </c>
       <c r="B3768" t="s">
-        <v>3947</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -46865,7 +47326,7 @@
         <v>6322</v>
       </c>
       <c r="B3769" t="s">
-        <v>3948</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -46873,7 +47334,7 @@
         <v>6325</v>
       </c>
       <c r="B3770" t="s">
-        <v>3949</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -46881,7 +47342,7 @@
         <v>6328</v>
       </c>
       <c r="B3771" t="s">
-        <v>3950</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -46889,7 +47350,7 @@
         <v>6331</v>
       </c>
       <c r="B3772" t="s">
-        <v>3951</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -46897,7 +47358,7 @@
         <v>6334</v>
       </c>
       <c r="B3773" t="s">
-        <v>3952</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -46905,7 +47366,7 @@
         <v>6337</v>
       </c>
       <c r="B3774" t="s">
-        <v>3953</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -46913,7 +47374,7 @@
         <v>6340</v>
       </c>
       <c r="B3775" t="s">
-        <v>3954</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -46921,7 +47382,7 @@
         <v>6343</v>
       </c>
       <c r="B3776" t="s">
-        <v>3955</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -46929,7 +47390,7 @@
         <v>6346</v>
       </c>
       <c r="B3777" t="s">
-        <v>3956</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -46937,7 +47398,7 @@
         <v>6349</v>
       </c>
       <c r="B3778" t="s">
-        <v>3957</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -46945,7 +47406,7 @@
         <v>6352</v>
       </c>
       <c r="B3779" t="s">
-        <v>3958</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -46953,7 +47414,7 @@
         <v>6355</v>
       </c>
       <c r="B3780" t="s">
-        <v>3959</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -46961,7 +47422,7 @@
         <v>6358</v>
       </c>
       <c r="B3781" t="s">
-        <v>3960</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -46969,7 +47430,7 @@
         <v>6361</v>
       </c>
       <c r="B3782" t="s">
-        <v>3961</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -46977,7 +47438,7 @@
         <v>6364</v>
       </c>
       <c r="B3783" t="s">
-        <v>3962</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -46985,7 +47446,7 @@
         <v>6367</v>
       </c>
       <c r="B3784" t="s">
-        <v>3963</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -46993,7 +47454,7 @@
         <v>6370</v>
       </c>
       <c r="B3785" t="s">
-        <v>3964</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -47001,7 +47462,7 @@
         <v>6373</v>
       </c>
       <c r="B3786" t="s">
-        <v>3965</v>
+        <v>3956</v>
       </c>
     </row>
   </sheetData>
@@ -49494,7 +49955,7 @@
         <v>2892</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>2856</v>
@@ -49503,7 +49964,7 @@
         <v>588</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="F1" s="65" t="s">
         <v>2916</v>
@@ -49515,7 +49976,7 @@
         <v>2857</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.25">
@@ -49585,10 +50046,10 @@
         <v>2871</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="F4" s="69" t="s">
         <v>2867</v>
@@ -49638,10 +50099,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>2853</v>
@@ -49650,10 +50111,10 @@
         <v>2867</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I6" s="27"/>
       <c r="AK6" s="28"/>
@@ -49724,7 +50185,7 @@
         <v>2874</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>2852</v>
@@ -49808,7 +50269,7 @@
         <v>2891</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="E12" s="71" t="s">
         <v>2852</v>
@@ -49836,10 +50297,10 @@
         <v>2864</v>
       </c>
       <c r="D13" s="68" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E13" s="71" t="s">
         <v>3380</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>3379</v>
       </c>
       <c r="F13" s="69" t="s">
         <v>2859</v>
@@ -49860,10 +50321,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="66" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D14" s="68" t="s">
         <v>3432</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>3434</v>
       </c>
       <c r="E14" s="71" t="s">
         <v>2852</v>
@@ -49872,10 +50333,10 @@
         <v>2867</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I14" s="28"/>
     </row>
@@ -49887,10 +50348,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>2852</v>
@@ -49899,10 +50360,10 @@
         <v>2867</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I15" s="28"/>
     </row>
@@ -49914,10 +50375,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="E16" s="71" t="s">
         <v>2852</v>
@@ -49926,10 +50387,10 @@
         <v>2867</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I16" s="28"/>
     </row>
@@ -49947,7 +50408,7 @@
         <v>2915</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F17" s="69" t="s">
         <v>2867</v>
@@ -49975,7 +50436,7 @@
         <v>2913</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F18" s="69" t="s">
         <v>2859</v>
@@ -50003,7 +50464,7 @@
         <v>2902</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F19" s="69" t="s">
         <v>2867</v>
@@ -50031,7 +50492,7 @@
         <v>2914</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F20" s="69" t="s">
         <v>2867</v>
@@ -50058,7 +50519,7 @@
         <v>2889</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>2859</v>
@@ -50085,7 +50546,7 @@
         <v>2896</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F22" s="69" t="s">
         <v>2859</v>
@@ -50112,7 +50573,7 @@
         <v>2915</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F23" s="69" t="s">
         <v>2867</v>
@@ -50139,7 +50600,7 @@
         <v>2913</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F24" s="69" t="s">
         <v>2859</v>
@@ -50166,7 +50627,7 @@
         <v>2902</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F25" s="69" t="s">
         <v>2867</v>
@@ -50193,7 +50654,7 @@
         <v>2914</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F26" s="69" t="s">
         <v>2867</v>
@@ -50220,7 +50681,7 @@
         <v>2889</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="F27" s="69" t="s">
         <v>2859</v>
@@ -50247,7 +50708,7 @@
         <v>2896</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="F28" s="69" t="s">
         <v>2859</v>
@@ -50262,82 +50723,82 @@
     </row>
     <row r="29" spans="1:37" ht="30">
       <c r="A29" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B29" s="19">
         <v>41</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="F29" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G29" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H29" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:37" ht="30">
       <c r="A30" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B30" s="19">
         <v>42</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="F30" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G30" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:37" ht="30">
       <c r="A31" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B31" s="19">
         <v>43</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>3573</v>
+        <v>3564</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G31" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H31" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I31" s="28"/>
       <c r="P31" t="str">
@@ -50410,7 +50871,7 @@
         <v>2883</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E34" s="68" t="s">
         <v>2851</v>
@@ -50437,7 +50898,7 @@
         <v>2893</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E35" s="72" t="s">
         <v>2851</v>
@@ -50491,10 +50952,10 @@
         <v>2871</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="F37" s="69" t="s">
         <v>2867</v>
@@ -50545,7 +51006,7 @@
         <v>2854</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E39" s="68" t="s">
         <v>2851</v>
@@ -50564,36 +51025,36 @@
         <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>4008</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="90.75">
       <c r="A40" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B40" s="71">
         <v>62</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>4063</v>
+        <v>4054</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F40" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="J40">
         <f>LEN(I40)</f>
@@ -50606,31 +51067,31 @@
     </row>
     <row r="41" spans="1:12" ht="45">
       <c r="A41" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B41" s="71">
         <v>63</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="E41" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F41" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G41" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H41" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="J41">
         <f t="shared" ref="J41:J56" si="0">LEN(I41)</f>
@@ -50643,31 +51104,31 @@
     </row>
     <row r="42" spans="1:12" ht="45">
       <c r="A42" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B42" s="71">
         <v>64</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>3982</v>
+        <v>3973</v>
       </c>
       <c r="D42" s="68" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="E42" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F42" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G42" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>3985</v>
+        <v>3976</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -50680,31 +51141,31 @@
     </row>
     <row r="43" spans="1:12" ht="45">
       <c r="A43" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B43" s="71">
         <v>65</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>3983</v>
+        <v>3974</v>
       </c>
       <c r="D43" s="68" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F43" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G43" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H43" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>3986</v>
+        <v>3977</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
@@ -50717,31 +51178,31 @@
     </row>
     <row r="44" spans="1:12" ht="45">
       <c r="A44" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B44" s="71">
         <v>66</v>
       </c>
       <c r="C44" s="89" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D44" s="68" t="s">
         <v>3975</v>
       </c>
-      <c r="D44" s="68" t="s">
-        <v>3984</v>
-      </c>
       <c r="E44" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F44" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G44" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H44" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>3987</v>
+        <v>3978</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
@@ -50754,31 +51215,31 @@
     </row>
     <row r="45" spans="1:12" ht="30">
       <c r="A45" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B45" s="71">
         <v>71</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>3976</v>
+        <v>3967</v>
       </c>
       <c r="D45" s="68" t="s">
-        <v>3994</v>
+        <v>3985</v>
       </c>
       <c r="E45" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F45" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G45" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>3988</v>
+        <v>3979</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
@@ -50791,31 +51252,31 @@
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B46" s="71">
         <v>72</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>3977</v>
+        <v>3968</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>3995</v>
+        <v>3986</v>
       </c>
       <c r="E46" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F46" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G46" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>3989</v>
+        <v>3980</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
@@ -50828,31 +51289,31 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="A47" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B47" s="71">
         <v>73</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>3978</v>
+        <v>3969</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>3996</v>
+        <v>3987</v>
       </c>
       <c r="E47" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F47" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G47" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H47" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>3990</v>
+        <v>3981</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
@@ -50865,31 +51326,31 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B48" s="71">
         <v>74</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>3979</v>
+        <v>3970</v>
       </c>
       <c r="D48" s="68" t="s">
-        <v>3997</v>
+        <v>3988</v>
       </c>
       <c r="E48" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F48" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G48" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>3991</v>
+        <v>3982</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
@@ -50902,31 +51363,31 @@
     </row>
     <row r="49" spans="1:18" ht="30">
       <c r="A49" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B49" s="71">
         <v>75</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>3980</v>
+        <v>3971</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>3998</v>
+        <v>3989</v>
       </c>
       <c r="E49" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F49" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G49" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H49" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>3992</v>
+        <v>3983</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -50939,31 +51400,31 @@
     </row>
     <row r="50" spans="1:18" ht="30">
       <c r="A50" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B50" s="71">
         <v>76</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>3981</v>
+        <v>3972</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>3999</v>
+        <v>3990</v>
       </c>
       <c r="E50" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F50" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>3993</v>
+        <v>3984</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
@@ -50976,31 +51437,31 @@
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1">
       <c r="A51" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B51" s="71">
         <v>101</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>4006</v>
+        <v>3997</v>
       </c>
       <c r="E51" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F51" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G51" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
@@ -51013,31 +51474,31 @@
     </row>
     <row r="52" spans="1:18" ht="20.25">
       <c r="A52" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B52" s="71">
         <v>102</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="D52" s="72" t="s">
-        <v>4007</v>
+        <v>3998</v>
       </c>
       <c r="E52" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F52" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G52" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
@@ -51057,29 +51518,29 @@
     </row>
     <row r="54" spans="1:18" ht="105">
       <c r="A54" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B54" s="71">
         <v>63</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="88" t="s">
-        <v>4060</v>
+        <v>4051</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F54" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G54" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
@@ -51092,29 +51553,29 @@
     </row>
     <row r="55" spans="1:18" ht="120">
       <c r="A55" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B55" s="71">
         <v>64</v>
       </c>
       <c r="C55" s="52"/>
       <c r="D55" s="88" t="s">
-        <v>4061</v>
+        <v>4052</v>
       </c>
       <c r="E55" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F55" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G55" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H55" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
@@ -51127,29 +51588,29 @@
     </row>
     <row r="56" spans="1:18" ht="120">
       <c r="A56" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B56" s="71">
         <v>65</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="88" t="s">
-        <v>4062</v>
+        <v>4053</v>
       </c>
       <c r="E56" s="72" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F56" s="69" t="s">
         <v>2867</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="H56" s="71" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>4054</v>
+        <v>4045</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
@@ -51162,37 +51623,37 @@
     </row>
     <row r="57" spans="1:18">
       <c r="K57" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="K58" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="K59" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="K60" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="K61" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="K62" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="K63" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="R63" t="s">
         <v>2941</v>
@@ -51207,7 +51668,7 @@
         <v>2880</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>2853</v>
@@ -51222,7 +51683,7 @@
         <v>2881</v>
       </c>
       <c r="K64" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="R64" t="s">
         <v>2942</v>
@@ -51237,7 +51698,7 @@
         <v>2868</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E65" s="34" t="s">
         <v>2853</v>
@@ -51266,7 +51727,7 @@
         <v>2888</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>2851</v>
@@ -51323,7 +51784,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="6"/>
       <c r="I69" s="3" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="20.25">
@@ -51334,7 +51795,7 @@
       <c r="G70" s="36"/>
       <c r="H70" s="6"/>
       <c r="I70" s="3" t="s">
-        <v>4054</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="20.25">
@@ -51345,7 +51806,7 @@
       <c r="G71" s="36"/>
       <c r="H71" s="6"/>
       <c r="I71" s="3" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="20.25">
@@ -51379,7 +51840,7 @@
     </row>
     <row r="76" spans="1:18" ht="20.25">
       <c r="A76" s="6" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="6"/>
@@ -51389,7 +51850,7 @@
     </row>
     <row r="77" spans="1:18" ht="20.25">
       <c r="A77" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="6"/>
@@ -51399,7 +51860,7 @@
     </row>
     <row r="78" spans="1:18" ht="20.25">
       <c r="A78" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="6"/>
@@ -51409,7 +51870,7 @@
     </row>
     <row r="79" spans="1:18" ht="20.25">
       <c r="A79" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="6"/>
@@ -51441,16 +51902,16 @@
         <v>&lt;tr&gt;&lt;td&gt;N/A&lt;/td&gt;&lt;td&gt;GW170817-template.wav&lt;/td&gt;&lt;td&gt;https://www.gw-openscience.org/audiogwtc1/&lt;/td&gt;&lt;td&gt;LIGO detectors&lt;/td&gt;</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="K81" s="27" t="s">
+        <v>3397</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>3395</v>
+      </c>
+      <c r="M81" s="27" t="s">
         <v>3396</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>3394</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25">
@@ -52028,22 +52489,22 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="6" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="6" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="15.75" thickBot="1">
       <c r="A111" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="18" thickBot="1">
@@ -52055,7 +52516,7 @@
         <v>2855</v>
       </c>
       <c r="K112" s="58" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L112" s="58" t="s">
         <v>2857</v>
@@ -52070,10 +52531,10 @@
         <v>2859</v>
       </c>
       <c r="K113" s="59" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L113" s="60" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="30.75" thickBot="1">
@@ -52085,10 +52546,10 @@
         <v>2867</v>
       </c>
       <c r="K114" s="61" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L114" s="62" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30.75" thickBot="1">
@@ -52100,15 +52561,15 @@
         <v>2879</v>
       </c>
       <c r="K115" s="59" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="L115" s="60" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="6" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="157" spans="4:4">

--- a/RBG_arduino/StateTable_minimal.xlsx
+++ b/RBG_arduino/StateTable_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\RBG_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F63A-B5B3-479B-BC4F-8E5AB51BCD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11FF4F-A0F5-45AB-98A0-7FCFA9C5498B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
   <sheets>
     <sheet name="StateTable" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="4071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5685" uniqueCount="4074">
   <si>
     <t>trigOnly</t>
   </si>
@@ -12921,9 +12921,6 @@
     <t>trigBlue</t>
   </si>
   <si>
-    <t>Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
-  </si>
-  <si>
     <t>Now choose when the effect happens: this list includes when powering-on, when shooting, etc. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
   </si>
   <si>
@@ -12933,18 +12930,12 @@
     <t>Now choose the effect itself. This list cycles through the effects one by one. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
   </si>
   <si>
-    <t>mdo47 recording of "Now choose which effect category: sounds or LED patterns. As always press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
-  </si>
-  <si>
     <t>mdo47 recording of "Now choose when the effect happens. This list includes when powering-on, when shooting, etc. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
   </si>
   <si>
     <t>mdo47 recording of "Now choose the effect itself. This list cycles through the effects one by one. As always press trigger by itself to go forward to next step  or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
   </si>
   <si>
-    <t>mdo47 recording of "Welcome to RBG configuration! Your call is important to us. To go forward to next step or to cycle through choices, always press trigger by itself. To go back, press trigger plus Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
-  </si>
-  <si>
     <t>#define mROW_CFG_MENU 24</t>
   </si>
   <si>
@@ -12991,6 +12982,24 @@
   </si>
   <si>
     <t>#define mROW_CFG_EFFECT_CHOICE 49</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Now choose which effect category: sounds or LED patterns. As always press trigger by itself to go forward to next step or to cycle through choices. To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>Welcome to RBG configuration! Your call is important to us. Press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button.</t>
+  </si>
+  <si>
+    <t>mdo47 recording of "Welcome to FOOF RBG configuration! Your call is important to us. Press trigger by itself to go forward to next step or to cycle through choices To select a choice, press trigger plus any combination of Yellow, Green or Black button. To exit configuration, press trigger plus Blue button."</t>
+  </si>
+  <si>
+    <t>0063__mdo47__cfg_configCategInstruct.wav</t>
+  </si>
+  <si>
+    <t>0064__mdo47__cfg_configWhenInstruct.wav</t>
+  </si>
+  <si>
+    <t>0065__mdo47__cfg_configEffectInstruct.wav</t>
   </si>
 </sst>
 </file>
@@ -13484,7 +13493,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13584,6 +13592,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13915,9 +13926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14033,7 +14044,7 @@
         <v>27</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>4056</v>
+        <v>4053</v>
       </c>
       <c r="AB2" s="25"/>
     </row>
@@ -14067,7 +14078,7 @@
         <v>35</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>4060</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -14082,7 +14093,7 @@
         <v>31</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>4058</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45">
@@ -14112,7 +14123,7 @@
         <f>IF(LEN(C5),VLOOKUP(C5,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>3565</v>
       </c>
       <c r="V5" t="s">
@@ -14122,7 +14133,7 @@
         <v>28</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>4057</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -14139,7 +14150,7 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>4042</v>
       </c>
       <c r="G6" s="9"/>
@@ -14152,7 +14163,7 @@
         <f>IF(LEN(C6),VLOOKUP(C6,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_OPEN 2</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="63" t="s">
         <v>3566</v>
       </c>
       <c r="V6" t="s">
@@ -14162,7 +14173,7 @@
         <v>34</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>4059</v>
+        <v>4056</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -14171,7 +14182,7 @@
         <f>IF(LEN(C7),VLOOKUP(C7,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="63" t="s">
         <v>3567</v>
       </c>
       <c r="V7" t="s">
@@ -14181,7 +14192,7 @@
         <v>44</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>4066</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -14189,7 +14200,7 @@
         <f>IF(LEN(C8),VLOOKUP(C8,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="63" t="s">
         <v>3568</v>
       </c>
       <c r="V8" t="s">
@@ -14199,7 +14210,7 @@
         <v>49</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>4070</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -14207,7 +14218,7 @@
         <f>IF(LEN(C9),VLOOKUP(C9,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="63" t="s">
         <v>3569</v>
       </c>
       <c r="V9" t="s">
@@ -14217,7 +14228,7 @@
         <v>46</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>4068</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1">
@@ -14225,7 +14236,7 @@
         <f>IF(LEN(C10),VLOOKUP(C10,mROW,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="63" t="s">
         <v>3570</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -14247,7 +14258,7 @@
         <v>45</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>4067</v>
+        <v>4064</v>
       </c>
       <c r="AB10"/>
     </row>
@@ -14278,7 +14289,7 @@
         <f>IF(LEN(C11),VLOOKUP(C11,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="63" t="s">
         <v>3571</v>
       </c>
       <c r="P11" s="25" t="s">
@@ -14291,7 +14302,7 @@
         <v>48</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="AB11"/>
     </row>
@@ -14322,7 +14333,7 @@
         <f>IF(LEN(C12),VLOOKUP(C12,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="63" t="s">
         <v>3572</v>
       </c>
       <c r="P12" s="25" t="s">
@@ -14338,7 +14349,7 @@
         <v>24</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>4055</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1">
@@ -14355,7 +14366,7 @@
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="63" t="s">
         <v>4042</v>
       </c>
       <c r="G13" s="9"/>
@@ -14368,7 +14379,7 @@
         <f>IF(LEN(C13),VLOOKUP(C13,mROW,3,FALSE),"")</f>
         <v>#define mROW_PWRON_LOCKED 4</v>
       </c>
-      <c r="M13" s="64" t="s">
+      <c r="M13" s="63" t="s">
         <v>3573</v>
       </c>
       <c r="P13" s="25" t="s">
@@ -14381,7 +14392,7 @@
         <v>36</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>4061</v>
+        <v>4058</v>
       </c>
       <c r="AB13"/>
     </row>
@@ -14396,7 +14407,7 @@
         <v>43</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>4065</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1">
@@ -14412,12 +14423,12 @@
         <v>40</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>4063</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="76" t="s">
         <v>2712</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -14448,12 +14459,12 @@
         <v>37</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>4062</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="25" customFormat="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="76" t="s">
         <v>2712</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -14481,14 +14492,14 @@
         <v>42</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>4064</v>
+        <v>4061</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" s="25" customFormat="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="77"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -14519,7 +14530,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="37"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -14528,7 +14539,7 @@
       <c r="D19" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -14556,7 +14567,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="37"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -14565,7 +14576,7 @@
       <c r="D20" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -14593,7 +14604,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="37"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="48" t="s">
@@ -14602,10 +14613,10 @@
       <c r="D21" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="63" t="s">
         <v>4042</v>
       </c>
       <c r="G21" s="37"/>
@@ -14630,12 +14641,12 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="37"/>
-      <c r="B22" s="77"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="77"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -14658,7 +14669,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="37"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -14667,7 +14678,7 @@
       <c r="D23" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F23" s="37" t="s">
@@ -14695,7 +14706,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="37"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="48" t="s">
@@ -14704,7 +14715,7 @@
       <c r="D24" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F24" s="37" t="s">
@@ -14733,7 +14744,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="37"/>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -14742,10 +14753,10 @@
       <c r="D25" s="47" t="s">
         <v>3401</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="63" t="s">
         <v>4042</v>
       </c>
       <c r="G25" s="37"/>
@@ -14795,7 +14806,7 @@
       <c r="Y26" s="25"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
@@ -14830,7 +14841,7 @@
       <c r="Y27" s="25"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="63"/>
+      <c r="A28" s="62"/>
       <c r="C28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -14849,7 +14860,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="45">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="62" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -14878,7 +14889,7 @@
       <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="63"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="I30" s="9"/>
@@ -14890,7 +14901,7 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="62" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -14923,7 +14934,7 @@
       <c r="Y31"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="63"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="I32" s="9"/>
@@ -14937,7 +14948,7 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="63"/>
+      <c r="A33" s="62"/>
       <c r="C33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -14949,7 +14960,7 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="45">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="62" t="s">
         <v>3438</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -14972,7 +14983,7 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="63"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="10"/>
       <c r="D35" s="3"/>
       <c r="I35" s="9"/>
@@ -14983,7 +14994,7 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="62" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -15011,7 +15022,7 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="63"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="9" t="s">
         <v>2709</v>
       </c>
@@ -15039,7 +15050,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="63"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -15055,7 +15066,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="30">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -15080,7 +15091,7 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="63"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="9" t="s">
         <v>2709</v>
       </c>
@@ -15139,11 +15150,11 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:24" ht="180">
-      <c r="A43" s="87" t="s">
-        <v>4047</v>
-      </c>
-      <c r="B43" s="83" t="s">
+    <row r="43" spans="1:24" ht="195">
+      <c r="A43" s="86" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B43" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -15152,7 +15163,7 @@
       <c r="D43" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -15169,8 +15180,8 @@
       <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="63"/>
-      <c r="B44" s="83" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -15179,10 +15190,10 @@
       <c r="D44" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="63" t="s">
         <v>3574</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -15195,7 +15206,7 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -15204,13 +15215,13 @@
       <c r="D45" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="I45" s="77" t="s">
+      <c r="I45" s="76" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="9"/>
@@ -15243,12 +15254,12 @@
         <v>4038</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="77"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="86">
+      <c r="G48" s="85">
         <v>0</v>
       </c>
-      <c r="H48" s="76" t="s">
+      <c r="H48" s="75" t="s">
         <v>4014</v>
       </c>
       <c r="I48" s="9"/>
@@ -15269,10 +15280,10 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="210">
-      <c r="A50" s="88" t="s">
-        <v>4049</v>
-      </c>
-      <c r="B50" s="83" t="s">
+      <c r="A50" s="87" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B50" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -15281,7 +15292,7 @@
       <c r="D50" s="3" t="s">
         <v>4043</v>
       </c>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -15299,7 +15310,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="12" t="s">
@@ -15308,10 +15319,10 @@
       <c r="D51" s="3" t="s">
         <v>4043</v>
       </c>
-      <c r="E51" s="82" t="s">
+      <c r="E51" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" s="63" t="s">
         <v>3574</v>
       </c>
       <c r="G51" s="9"/>
@@ -15326,7 +15337,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -15335,13 +15346,13 @@
       <c r="D52" s="3" t="s">
         <v>4043</v>
       </c>
-      <c r="E52" s="82" t="s">
+      <c r="E52" s="81" t="s">
         <v>3401</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="I52" s="77" t="s">
+      <c r="I52" s="76" t="s">
         <v>39</v>
       </c>
       <c r="J52" s="9"/>
@@ -15384,7 +15395,7 @@
       <c r="C55" s="12" t="s">
         <v>4025</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="63" t="s">
         <v>3574</v>
       </c>
       <c r="I55" s="9" t="s">
@@ -15404,11 +15415,11 @@
         <v>4025</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="64" t="s">
+      <c r="E56" s="81"/>
+      <c r="F56" s="63" t="s">
         <v>4046</v>
       </c>
-      <c r="I56" s="77" t="s">
+      <c r="I56" s="76" t="s">
         <v>39</v>
       </c>
       <c r="J56" s="9"/>
@@ -15487,12 +15498,12 @@
         <v>4028</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="77"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="86">
+      <c r="G63" s="85">
         <v>0</v>
       </c>
-      <c r="H63" s="76" t="s">
+      <c r="H63" s="75" t="s">
         <v>4015</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -15510,10 +15521,10 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="225">
-      <c r="A65" s="88" t="s">
-        <v>4048</v>
-      </c>
-      <c r="B65" s="83" t="s">
+      <c r="A65" s="87" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B65" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -15522,7 +15533,7 @@
       <c r="D65" s="3" t="s">
         <v>4044</v>
       </c>
-      <c r="E65" s="82" t="s">
+      <c r="E65" s="81" t="s">
         <v>3401</v>
       </c>
       <c r="F65" s="9" t="s">
@@ -15539,7 +15550,7 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -15548,7 +15559,7 @@
       <c r="D66" s="3" t="s">
         <v>4044</v>
       </c>
-      <c r="E66" s="82" t="s">
+      <c r="E66" s="81" t="s">
         <v>3401</v>
       </c>
      